--- a/LEDGER.xlsx
+++ b/LEDGER.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="57">
   <si>
     <t>DATE</t>
   </si>
@@ -155,9 +155,6 @@
     <t>3500+300</t>
   </si>
   <si>
-    <t>QUANTITY</t>
-  </si>
-  <si>
     <t>RATE</t>
   </si>
   <si>
@@ -245,13 +242,67 @@
     <t>CLEAN HAVELI</t>
   </si>
   <si>
-    <t>INFO</t>
-  </si>
-  <si>
     <t>TOTAL</t>
   </si>
   <si>
     <t>COLOR SCHEME</t>
+  </si>
+  <si>
+    <t>RAFEEQ RORRI</t>
+  </si>
+  <si>
+    <t>ITEM</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">↓ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Remaining cash</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>←</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  Cash Received</t>
+    </r>
+  </si>
+  <si>
+    <t>QTY</t>
+  </si>
+  <si>
+    <t>Total QTY</t>
+  </si>
+  <si>
+    <t>BABA RORRI</t>
+  </si>
+  <si>
+    <t>PMG</t>
   </si>
 </sst>
 </file>
@@ -262,7 +313,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -351,6 +402,21 @@
       <sz val="36"/>
       <name val="Algerian"/>
       <family val="5"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="12">
@@ -550,7 +616,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -640,16 +706,7 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -667,9 +724,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -681,11 +735,29 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -976,10 +1048,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:P202"/>
+  <dimension ref="B1:Q202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -987,126 +1059,146 @@
     <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.21875" style="49" customWidth="1"/>
     <col min="4" max="4" width="32.44140625" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.77734375" customWidth="1"/>
     <col min="6" max="7" width="12.44140625" customWidth="1"/>
     <col min="8" max="9" width="17.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.21875" customWidth="1"/>
     <col min="12" max="12" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.88671875" customWidth="1"/>
-    <col min="14" max="14" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.33203125" customWidth="1"/>
+    <col min="15" max="15" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="K1" s="62" t="s">
-        <v>46</v>
-      </c>
-      <c r="L1" s="10" t="s">
+    <row r="1" spans="2:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="K1" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="60" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="M1" s="63" t="s">
-        <v>50</v>
-      </c>
-      <c r="N1" s="64" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="2:14" ht="21" x14ac:dyDescent="0.4">
+      <c r="N1" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="O1" s="59" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="2:15" ht="21" x14ac:dyDescent="0.4">
       <c r="K2" s="3">
         <v>1</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M2" s="65"/>
-      <c r="N2" s="66">
+        <v>40</v>
+      </c>
+      <c r="M2" s="61"/>
+      <c r="N2" s="71">
+        <f>SUMIF($C$2:$C$1000, K2, $E$2:$E$1000)</f>
+        <v>1000</v>
+      </c>
+      <c r="O2" s="62">
         <f>SUMIF($C$2:$C$1000, K2, $H$2:$H$1000)</f>
         <v>124000</v>
       </c>
     </row>
-    <row r="3" spans="2:14" ht="21" x14ac:dyDescent="0.4">
-      <c r="B3" s="55" t="s">
+    <row r="3" spans="2:15" ht="21" x14ac:dyDescent="0.4">
+      <c r="B3" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
       <c r="K3" s="3">
         <v>2</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="67"/>
-      <c r="N3" s="66">
-        <f t="shared" ref="N3:N8" si="0">SUMIF($C$2:$C$1000, K3, $H$2:$H$1000)</f>
+      <c r="M3" s="63"/>
+      <c r="N3" s="71">
+        <f t="shared" ref="N3:N5" si="0">SUMIF($C$2:$C$1000, K3, $E$2:$E$1000)</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="62">
+        <f t="shared" ref="O3:O15" si="1">SUMIF($C$2:$C$1000, K3, $H$2:$H$1000)</f>
         <v>22000</v>
       </c>
     </row>
-    <row r="4" spans="2:14" ht="21" x14ac:dyDescent="0.4">
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
+    <row r="4" spans="2:15" ht="21" x14ac:dyDescent="0.4">
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
       <c r="K4" s="3">
         <v>3</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="68"/>
-      <c r="N4" s="66">
-        <f t="shared" si="0"/>
-        <v>47550</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" ht="21" x14ac:dyDescent="0.4">
-      <c r="B5" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="56" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="56" t="s">
+      <c r="M4" s="64"/>
+      <c r="N4" s="71">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="O4" s="62">
+        <f t="shared" si="1"/>
+        <v>70450</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" ht="21" x14ac:dyDescent="0.4">
+      <c r="B5" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="56" t="s">
+      <c r="E5" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="56" t="s">
+      <c r="G5" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="56" t="s">
+      <c r="H5" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="56" t="s">
+      <c r="I5" s="55" t="s">
         <v>3</v>
       </c>
       <c r="K5" s="3">
         <v>4</v>
       </c>
-      <c r="L5" s="69" t="s">
+      <c r="L5" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="M5" s="70"/>
-      <c r="N5" s="66">
-        <f t="shared" si="0"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="71">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O5" s="62">
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="21" hidden="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:15" ht="21" hidden="1" x14ac:dyDescent="0.4">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -1122,12 +1214,13 @@
       <c r="K6" s="3"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="66">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" ht="21" x14ac:dyDescent="0.4">
+      <c r="N6" s="71"/>
+      <c r="O6" s="62">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" ht="21" x14ac:dyDescent="0.4">
       <c r="B7" s="11">
         <v>45109</v>
       </c>
@@ -1150,16 +1243,17 @@
       <c r="K7" s="3">
         <v>5</v>
       </c>
-      <c r="L7" s="69" t="s">
-        <v>34</v>
-      </c>
-      <c r="M7" s="71"/>
-      <c r="N7" s="66">
-        <f t="shared" si="0"/>
+      <c r="L7" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7" s="67"/>
+      <c r="N7" s="71"/>
+      <c r="O7" s="62">
+        <f t="shared" si="1"/>
         <v>60000</v>
       </c>
     </row>
-    <row r="8" spans="2:14" ht="21" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:15" ht="21" x14ac:dyDescent="0.4">
       <c r="B8" s="34">
         <v>45113</v>
       </c>
@@ -1176,22 +1270,23 @@
         <v>10000</v>
       </c>
       <c r="I8" s="12">
-        <f t="shared" ref="I8:I71" si="1">I7+H8</f>
+        <f t="shared" ref="I8:I71" si="2">I7+H8</f>
         <v>221000</v>
       </c>
       <c r="K8" s="3">
         <v>6</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M8" s="72"/>
-      <c r="N8" s="66">
-        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="M8" s="68"/>
+      <c r="N8" s="71"/>
+      <c r="O8" s="62">
+        <f t="shared" si="1"/>
         <v>40000</v>
       </c>
     </row>
-    <row r="9" spans="2:14" ht="21" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:15" ht="21" x14ac:dyDescent="0.4">
       <c r="B9" s="14">
         <v>45112</v>
       </c>
@@ -1208,15 +1303,19 @@
         <v>22000</v>
       </c>
       <c r="I9" s="12">
+        <f t="shared" si="2"/>
+        <v>243000</v>
+      </c>
+      <c r="K9" s="3"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="71"/>
+      <c r="O9" s="62">
         <f t="shared" si="1"/>
-        <v>243000</v>
-      </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="73"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="73"/>
-    </row>
-    <row r="10" spans="2:14" ht="21" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" ht="21" x14ac:dyDescent="0.4">
       <c r="B10" s="18">
         <v>45113</v>
       </c>
@@ -1233,15 +1332,19 @@
         <v>7100</v>
       </c>
       <c r="I10" s="12">
+        <f t="shared" si="2"/>
+        <v>250100</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="L10" s="69"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="71"/>
+      <c r="O10" s="62">
         <f t="shared" si="1"/>
-        <v>250100</v>
-      </c>
-      <c r="K10" s="3"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-    </row>
-    <row r="11" spans="2:14" ht="21" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" ht="21" x14ac:dyDescent="0.4">
       <c r="B11" s="18">
         <v>45115</v>
       </c>
@@ -1265,7 +1368,7 @@
         <v>5900</v>
       </c>
       <c r="I11" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>256000</v>
       </c>
       <c r="J11" t="s">
@@ -1273,10 +1376,14 @@
       </c>
       <c r="K11" s="3"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="73"/>
-      <c r="N11" s="1"/>
-    </row>
-    <row r="12" spans="2:14" ht="21" x14ac:dyDescent="0.4">
+      <c r="M11" s="69"/>
+      <c r="N11" s="71"/>
+      <c r="O11" s="62">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" ht="21" x14ac:dyDescent="0.4">
       <c r="B12" s="13">
         <v>45116</v>
       </c>
@@ -1291,16 +1398,20 @@
         <v>17000</v>
       </c>
       <c r="I12" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>273000</v>
       </c>
       <c r="J12" s="21"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-    </row>
-    <row r="13" spans="2:14" ht="21" x14ac:dyDescent="0.4">
+      <c r="N12" s="71"/>
+      <c r="O12" s="62">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" ht="21" x14ac:dyDescent="0.4">
       <c r="B13" s="18">
         <v>45117</v>
       </c>
@@ -1324,7 +1435,7 @@
         <v>5900</v>
       </c>
       <c r="I13" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>278900</v>
       </c>
       <c r="J13" t="s">
@@ -1333,9 +1444,13 @@
       <c r="K13" s="12"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-    </row>
-    <row r="14" spans="2:14" ht="21" x14ac:dyDescent="0.4">
+      <c r="N13" s="71"/>
+      <c r="O13" s="62">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" ht="21" x14ac:dyDescent="0.4">
       <c r="B14" s="13">
         <v>45117</v>
       </c>
@@ -1350,15 +1465,19 @@
         <v>2400</v>
       </c>
       <c r="I14" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>281300</v>
       </c>
-      <c r="K14" s="73"/>
+      <c r="K14" s="69"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-    </row>
-    <row r="15" spans="2:14" ht="21" x14ac:dyDescent="0.4">
+      <c r="N14" s="71"/>
+      <c r="O14" s="62">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" ht="21" x14ac:dyDescent="0.4">
       <c r="B15" s="18">
         <v>45117</v>
       </c>
@@ -1382,18 +1501,22 @@
         <v>11500</v>
       </c>
       <c r="I15" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>292800</v>
       </c>
       <c r="J15" t="s">
         <v>15</v>
       </c>
-      <c r="K15" s="73"/>
+      <c r="K15" s="69"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-    </row>
-    <row r="16" spans="2:14" ht="21" x14ac:dyDescent="0.4">
+      <c r="N15" s="71"/>
+      <c r="O15" s="62">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" ht="21" x14ac:dyDescent="0.4">
       <c r="B16" s="13">
         <v>45117</v>
       </c>
@@ -1408,11 +1531,11 @@
         <v>3800</v>
       </c>
       <c r="I16" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>296600</v>
       </c>
     </row>
-    <row r="17" spans="2:16" ht="21" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:17" ht="21" x14ac:dyDescent="0.4">
       <c r="B17" s="13">
         <v>45117</v>
       </c>
@@ -1427,11 +1550,11 @@
         <v>700</v>
       </c>
       <c r="I17" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>297300</v>
       </c>
     </row>
-    <row r="18" spans="2:16" ht="21" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:17" ht="21" x14ac:dyDescent="0.4">
       <c r="B18" s="13">
         <v>45117</v>
       </c>
@@ -1446,11 +1569,11 @@
         <v>2500</v>
       </c>
       <c r="I18" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>299800</v>
       </c>
     </row>
-    <row r="19" spans="2:16" ht="21" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:17" ht="21" x14ac:dyDescent="0.4">
       <c r="B19" s="38">
         <v>45117</v>
       </c>
@@ -1467,11 +1590,11 @@
         <v>15000</v>
       </c>
       <c r="I19" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>314800</v>
       </c>
     </row>
-    <row r="20" spans="2:16" ht="21" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:17" ht="21" x14ac:dyDescent="0.4">
       <c r="B20" s="13">
         <v>45118</v>
       </c>
@@ -1486,13 +1609,14 @@
         <v>1260</v>
       </c>
       <c r="I20" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>316060</v>
       </c>
       <c r="K20" s="21"/>
       <c r="M20" s="21"/>
-    </row>
-    <row r="21" spans="2:16" ht="21" x14ac:dyDescent="0.4">
+      <c r="N20" s="21"/>
+    </row>
+    <row r="21" spans="2:17" ht="21" x14ac:dyDescent="0.4">
       <c r="B21" s="13">
         <v>45118</v>
       </c>
@@ -1507,11 +1631,11 @@
         <v>1960</v>
       </c>
       <c r="I21" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>318020</v>
       </c>
     </row>
-    <row r="22" spans="2:16" ht="21" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:17" ht="21" x14ac:dyDescent="0.4">
       <c r="B22" s="13">
         <v>45118</v>
       </c>
@@ -1526,12 +1650,12 @@
         <v>4500</v>
       </c>
       <c r="I22" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>322520</v>
       </c>
-      <c r="O22" s="21"/>
-    </row>
-    <row r="23" spans="2:16" ht="21" x14ac:dyDescent="0.4">
+      <c r="P22" s="21"/>
+    </row>
+    <row r="23" spans="2:17" ht="21" x14ac:dyDescent="0.4">
       <c r="B23" s="13">
         <v>45118</v>
       </c>
@@ -1546,12 +1670,12 @@
         <v>3500</v>
       </c>
       <c r="I23" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>326020</v>
       </c>
-      <c r="P23" s="21"/>
-    </row>
-    <row r="24" spans="2:16" ht="21" x14ac:dyDescent="0.4">
+      <c r="Q23" s="21"/>
+    </row>
+    <row r="24" spans="2:17" ht="21" x14ac:dyDescent="0.4">
       <c r="B24" s="13">
         <v>45118</v>
       </c>
@@ -1566,12 +1690,12 @@
         <v>400</v>
       </c>
       <c r="I24" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>326420</v>
       </c>
       <c r="J24" s="21"/>
     </row>
-    <row r="25" spans="2:16" ht="21" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:17" ht="21" x14ac:dyDescent="0.4">
       <c r="B25" s="13">
         <v>45119</v>
       </c>
@@ -1586,11 +1710,11 @@
         <v>600</v>
       </c>
       <c r="I25" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>327020</v>
       </c>
     </row>
-    <row r="26" spans="2:16" ht="21" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:17" ht="21" x14ac:dyDescent="0.4">
       <c r="B26" s="13">
         <v>45120</v>
       </c>
@@ -1605,11 +1729,11 @@
         <v>3100</v>
       </c>
       <c r="I26" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>330120</v>
       </c>
     </row>
-    <row r="27" spans="2:16" ht="21" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:17" ht="21" x14ac:dyDescent="0.4">
       <c r="B27" s="13">
         <v>45120</v>
       </c>
@@ -1631,14 +1755,14 @@
         <v>11325</v>
       </c>
       <c r="I27" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>341445</v>
       </c>
       <c r="J27" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="2:16" ht="21" x14ac:dyDescent="0.4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17" ht="21" x14ac:dyDescent="0.4">
       <c r="B28" s="38">
         <v>45120</v>
       </c>
@@ -1655,11 +1779,11 @@
         <v>25000</v>
       </c>
       <c r="I28" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>366445</v>
       </c>
     </row>
-    <row r="29" spans="2:16" ht="21" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:17" ht="21" x14ac:dyDescent="0.4">
       <c r="B29" s="13">
         <v>45120</v>
       </c>
@@ -1674,12 +1798,12 @@
         <v>1400</v>
       </c>
       <c r="I29" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>367845</v>
       </c>
       <c r="J29" s="21"/>
     </row>
-    <row r="30" spans="2:16" ht="21" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:17" ht="21" x14ac:dyDescent="0.4">
       <c r="B30" s="32">
         <v>45122</v>
       </c>
@@ -1696,11 +1820,11 @@
         <v>2000</v>
       </c>
       <c r="I30" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>369845</v>
       </c>
     </row>
-    <row r="31" spans="2:16" ht="21" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:17" ht="21" x14ac:dyDescent="0.4">
       <c r="B31" s="13">
         <v>45122</v>
       </c>
@@ -1715,11 +1839,11 @@
         <v>1300</v>
       </c>
       <c r="I31" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>371145</v>
       </c>
     </row>
-    <row r="32" spans="2:16" ht="21" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:17" ht="21" x14ac:dyDescent="0.4">
       <c r="B32" s="13">
         <v>45122</v>
       </c>
@@ -1734,12 +1858,12 @@
         <v>4860</v>
       </c>
       <c r="I32" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>376005</v>
       </c>
       <c r="J32" s="21"/>
     </row>
-    <row r="33" spans="2:10" ht="21" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:12" ht="21" x14ac:dyDescent="0.4">
       <c r="B33" s="13">
         <v>45124</v>
       </c>
@@ -1754,11 +1878,11 @@
         <v>1400</v>
       </c>
       <c r="I33" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>377405</v>
       </c>
     </row>
-    <row r="34" spans="2:10" ht="21" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:12" ht="21" x14ac:dyDescent="0.4">
       <c r="B34" s="29">
         <v>45125</v>
       </c>
@@ -1782,14 +1906,14 @@
         <v>5700</v>
       </c>
       <c r="I34" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>383105</v>
       </c>
       <c r="J34" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="2:10" ht="21" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:12" ht="21" x14ac:dyDescent="0.4">
       <c r="B35" s="13">
         <v>45125</v>
       </c>
@@ -1811,14 +1935,14 @@
         <v>3800</v>
       </c>
       <c r="I35" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>386905</v>
       </c>
       <c r="J35" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="2:10" ht="21" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:12" ht="21" x14ac:dyDescent="0.4">
       <c r="B36" s="38">
         <v>45125</v>
       </c>
@@ -1835,11 +1959,11 @@
         <v>10000</v>
       </c>
       <c r="I36" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>396905</v>
       </c>
     </row>
-    <row r="37" spans="2:10" ht="21" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:12" ht="21" x14ac:dyDescent="0.4">
       <c r="B37" s="42">
         <v>45126</v>
       </c>
@@ -1847,7 +1971,7 @@
         <v>6</v>
       </c>
       <c r="D37" s="43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E37" s="43"/>
       <c r="F37" s="43"/>
@@ -1856,11 +1980,11 @@
         <v>40000</v>
       </c>
       <c r="I37" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>436905</v>
       </c>
     </row>
-    <row r="38" spans="2:10" ht="21" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:12" ht="21" x14ac:dyDescent="0.4">
       <c r="B38" s="45">
         <v>45126</v>
       </c>
@@ -1868,7 +1992,7 @@
         <v>1</v>
       </c>
       <c r="D38" s="46" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E38" s="46">
         <v>1000</v>
@@ -1878,15 +2002,15 @@
       </c>
       <c r="G38" s="46"/>
       <c r="H38" s="47">
-        <f t="shared" ref="H38:H99" si="2">(E38*F38)+G38</f>
+        <f t="shared" ref="H38:H99" si="3">(E38*F38)+G38</f>
         <v>124000</v>
       </c>
       <c r="I38" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>560905</v>
       </c>
     </row>
-    <row r="39" spans="2:10" ht="21" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:12" ht="21" x14ac:dyDescent="0.4">
       <c r="B39" s="29">
         <v>45127</v>
       </c>
@@ -1906,21 +2030,21 @@
         <v>250</v>
       </c>
       <c r="H39" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11450</v>
       </c>
       <c r="I39" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>572355</v>
       </c>
     </row>
-    <row r="40" spans="2:10" ht="21" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:12" ht="21" x14ac:dyDescent="0.4">
       <c r="B40" s="13">
         <v>45127</v>
       </c>
       <c r="C40" s="10"/>
       <c r="D40" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E40" s="3">
         <v>120</v>
@@ -1930,24 +2054,24 @@
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7500</v>
       </c>
       <c r="I40" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>579855</v>
       </c>
       <c r="J40" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" ht="21" x14ac:dyDescent="0.4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" ht="21" x14ac:dyDescent="0.4">
       <c r="B41" s="13">
         <v>45127</v>
       </c>
       <c r="C41" s="10"/>
       <c r="D41" s="48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -1956,17 +2080,17 @@
         <v>31000</v>
       </c>
       <c r="I41" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>610855</v>
       </c>
     </row>
-    <row r="42" spans="2:10" ht="21" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:12" ht="21" x14ac:dyDescent="0.4">
       <c r="B42" s="13">
         <v>45127</v>
       </c>
       <c r="C42" s="10"/>
       <c r="D42" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E42" s="3">
         <v>8</v>
@@ -1976,21 +2100,21 @@
       </c>
       <c r="G42" s="3"/>
       <c r="H42" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>480</v>
       </c>
       <c r="I42" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>611335</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="21" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:12" ht="21" x14ac:dyDescent="0.4">
       <c r="B43" s="13">
         <v>45128</v>
       </c>
       <c r="C43" s="10"/>
       <c r="D43" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -1999,107 +2123,177 @@
         <v>4000</v>
       </c>
       <c r="I43" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>615335</v>
       </c>
     </row>
-    <row r="44" spans="2:10" ht="21" x14ac:dyDescent="0.4">
-      <c r="B44" s="3"/>
+    <row r="44" spans="2:12" ht="21" x14ac:dyDescent="0.4">
+      <c r="B44" s="13">
+        <v>45128</v>
+      </c>
       <c r="C44" s="10"/>
-      <c r="D44" s="3"/>
+      <c r="D44" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="39">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="I44" s="12">
-        <f t="shared" si="1"/>
-        <v>615335</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10" ht="21" x14ac:dyDescent="0.4">
-      <c r="B45" s="3"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="39">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>617335</v>
+      </c>
+      <c r="J44" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="K44">
+        <v>100000</v>
+      </c>
+      <c r="L44" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" ht="21" x14ac:dyDescent="0.4">
+      <c r="B45" s="29">
+        <v>45131</v>
+      </c>
+      <c r="C45" s="52">
+        <v>3</v>
+      </c>
+      <c r="D45" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" s="30">
+        <v>10</v>
+      </c>
+      <c r="F45" s="30">
+        <v>1120</v>
+      </c>
+      <c r="G45" s="30">
+        <v>250</v>
+      </c>
+      <c r="H45" s="31">
+        <f t="shared" si="3"/>
+        <v>11450</v>
       </c>
       <c r="I45" s="12">
-        <f t="shared" si="1"/>
-        <v>615335</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10" ht="21" x14ac:dyDescent="0.4">
-      <c r="B46" s="3"/>
+        <f t="shared" si="2"/>
+        <v>628785</v>
+      </c>
+      <c r="J45" s="21">
+        <f>K44-H45</f>
+        <v>88550</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" ht="21" x14ac:dyDescent="0.4">
+      <c r="B46" s="13">
+        <v>45133</v>
+      </c>
       <c r="C46" s="10"/>
-      <c r="D46" s="3"/>
+      <c r="D46" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
       <c r="H46" s="39">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="I46" s="12">
-        <f t="shared" si="1"/>
-        <v>615335</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10" ht="21" x14ac:dyDescent="0.4">
-      <c r="B47" s="3"/>
+        <f t="shared" si="2"/>
+        <v>629785</v>
+      </c>
+      <c r="J46" s="21">
+        <f>J45-H46</f>
+        <v>87550</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" ht="21" x14ac:dyDescent="0.4">
+      <c r="B47" s="13">
+        <v>45133</v>
+      </c>
       <c r="C47" s="10"/>
-      <c r="D47" s="3"/>
+      <c r="D47" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="39">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="I47" s="12">
-        <f t="shared" si="1"/>
-        <v>615335</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10" ht="21" x14ac:dyDescent="0.4">
-      <c r="B48" s="3"/>
+        <f t="shared" si="2"/>
+        <v>630285</v>
+      </c>
+      <c r="J47" s="21">
+        <f t="shared" ref="J47:J53" si="4">J46-H47</f>
+        <v>87050</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" ht="21" x14ac:dyDescent="0.4">
+      <c r="B48" s="13">
+        <v>45133</v>
+      </c>
       <c r="C48" s="10"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
+      <c r="D48" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E48" s="3">
+        <v>4</v>
+      </c>
+      <c r="F48" s="3">
+        <v>253</v>
+      </c>
       <c r="G48" s="3"/>
       <c r="H48" s="39">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1012</v>
       </c>
       <c r="I48" s="12">
-        <f t="shared" si="1"/>
-        <v>615335</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="B49" s="3"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="39">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>631297</v>
+      </c>
+      <c r="J48" s="21">
+        <f t="shared" si="4"/>
+        <v>86038</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" ht="21" x14ac:dyDescent="0.4">
+      <c r="B49" s="29">
+        <v>45134</v>
+      </c>
+      <c r="C49" s="52">
+        <v>3</v>
+      </c>
+      <c r="D49" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" s="30">
+        <v>10</v>
+      </c>
+      <c r="F49" s="30">
+        <v>1120</v>
+      </c>
+      <c r="G49" s="30">
+        <v>250</v>
+      </c>
+      <c r="H49" s="31">
+        <f t="shared" si="3"/>
+        <v>11450</v>
       </c>
       <c r="I49" s="12">
-        <f t="shared" si="1"/>
-        <v>615335</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" ht="21" x14ac:dyDescent="0.4">
+        <f t="shared" si="2"/>
+        <v>642747</v>
+      </c>
+      <c r="J49" s="21">
+        <f t="shared" si="4"/>
+        <v>74588</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" ht="21" x14ac:dyDescent="0.4">
       <c r="B50" s="3"/>
       <c r="C50" s="10"/>
       <c r="D50" s="3"/>
@@ -2107,15 +2301,19 @@
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
       <c r="H50" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I50" s="12">
-        <f t="shared" si="1"/>
-        <v>615335</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" ht="21" x14ac:dyDescent="0.4">
+        <f t="shared" si="2"/>
+        <v>642747</v>
+      </c>
+      <c r="J50" s="21">
+        <f t="shared" si="4"/>
+        <v>74588</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" ht="21" x14ac:dyDescent="0.4">
       <c r="B51" s="3"/>
       <c r="C51" s="10"/>
       <c r="D51" s="3"/>
@@ -2123,15 +2321,19 @@
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
       <c r="H51" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I51" s="12">
-        <f t="shared" si="1"/>
-        <v>615335</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" ht="21" x14ac:dyDescent="0.4">
+        <f t="shared" si="2"/>
+        <v>642747</v>
+      </c>
+      <c r="J51" s="21">
+        <f t="shared" si="4"/>
+        <v>74588</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" ht="21" x14ac:dyDescent="0.4">
       <c r="B52" s="3"/>
       <c r="C52" s="10"/>
       <c r="D52" s="3"/>
@@ -2139,15 +2341,19 @@
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
       <c r="H52" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I52" s="12">
-        <f t="shared" si="1"/>
-        <v>615335</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" ht="21" x14ac:dyDescent="0.4">
+        <f t="shared" si="2"/>
+        <v>642747</v>
+      </c>
+      <c r="J52" s="21">
+        <f t="shared" si="4"/>
+        <v>74588</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" ht="21" x14ac:dyDescent="0.4">
       <c r="B53" s="3"/>
       <c r="C53" s="10"/>
       <c r="D53" s="3"/>
@@ -2155,15 +2361,19 @@
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
       <c r="H53" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I53" s="12">
-        <f t="shared" si="1"/>
-        <v>615335</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" ht="21" x14ac:dyDescent="0.4">
+        <f t="shared" si="2"/>
+        <v>642747</v>
+      </c>
+      <c r="J53" s="21">
+        <f t="shared" si="4"/>
+        <v>74588</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" ht="21" x14ac:dyDescent="0.4">
       <c r="B54" s="3"/>
       <c r="C54" s="10"/>
       <c r="D54" s="3"/>
@@ -2171,15 +2381,15 @@
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
       <c r="H54" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I54" s="12">
-        <f t="shared" si="1"/>
-        <v>615335</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" ht="21" x14ac:dyDescent="0.4">
+        <f t="shared" si="2"/>
+        <v>642747</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" ht="21" x14ac:dyDescent="0.4">
       <c r="B55" s="3"/>
       <c r="C55" s="10"/>
       <c r="D55" s="3"/>
@@ -2187,15 +2397,15 @@
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="H55" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I55" s="12">
-        <f t="shared" si="1"/>
-        <v>615335</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" ht="21" x14ac:dyDescent="0.4">
+        <f t="shared" si="2"/>
+        <v>642747</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" ht="21" x14ac:dyDescent="0.4">
       <c r="B56" s="3"/>
       <c r="C56" s="10"/>
       <c r="D56" s="3"/>
@@ -2203,15 +2413,15 @@
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I56" s="12">
-        <f t="shared" si="1"/>
-        <v>615335</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" ht="21" x14ac:dyDescent="0.4">
+        <f t="shared" si="2"/>
+        <v>642747</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" ht="21" x14ac:dyDescent="0.4">
       <c r="B57" s="3"/>
       <c r="C57" s="10"/>
       <c r="D57" s="3"/>
@@ -2219,15 +2429,15 @@
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
       <c r="H57" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I57" s="12">
-        <f t="shared" si="1"/>
-        <v>615335</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" ht="21" x14ac:dyDescent="0.4">
+        <f t="shared" si="2"/>
+        <v>642747</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" ht="21" x14ac:dyDescent="0.4">
       <c r="B58" s="3"/>
       <c r="C58" s="10"/>
       <c r="D58" s="3"/>
@@ -2235,15 +2445,15 @@
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="H58" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I58" s="12">
-        <f t="shared" si="1"/>
-        <v>615335</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" ht="21" x14ac:dyDescent="0.4">
+        <f t="shared" si="2"/>
+        <v>642747</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" ht="21" x14ac:dyDescent="0.4">
       <c r="B59" s="3"/>
       <c r="C59" s="10"/>
       <c r="D59" s="3"/>
@@ -2251,15 +2461,15 @@
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
       <c r="H59" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I59" s="12">
-        <f t="shared" si="1"/>
-        <v>615335</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" ht="21" x14ac:dyDescent="0.4">
+        <f t="shared" si="2"/>
+        <v>642747</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" ht="21" x14ac:dyDescent="0.4">
       <c r="B60" s="3"/>
       <c r="C60" s="10"/>
       <c r="D60" s="3"/>
@@ -2267,15 +2477,15 @@
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
       <c r="H60" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I60" s="12">
-        <f t="shared" si="1"/>
-        <v>615335</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" ht="21" x14ac:dyDescent="0.4">
+        <f t="shared" si="2"/>
+        <v>642747</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" ht="21" x14ac:dyDescent="0.4">
       <c r="B61" s="3"/>
       <c r="C61" s="10"/>
       <c r="D61" s="3"/>
@@ -2283,15 +2493,15 @@
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
       <c r="H61" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I61" s="12">
-        <f t="shared" si="1"/>
-        <v>615335</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" ht="21" x14ac:dyDescent="0.4">
+        <f t="shared" si="2"/>
+        <v>642747</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" ht="21" x14ac:dyDescent="0.4">
       <c r="B62" s="3"/>
       <c r="C62" s="10"/>
       <c r="D62" s="3"/>
@@ -2299,15 +2509,15 @@
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
       <c r="H62" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I62" s="12">
-        <f t="shared" si="1"/>
-        <v>615335</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" ht="21" x14ac:dyDescent="0.4">
+        <f t="shared" si="2"/>
+        <v>642747</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" ht="21" x14ac:dyDescent="0.4">
       <c r="B63" s="3"/>
       <c r="C63" s="10"/>
       <c r="D63" s="3"/>
@@ -2315,15 +2525,15 @@
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
       <c r="H63" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I63" s="12">
-        <f t="shared" si="1"/>
-        <v>615335</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" ht="21" x14ac:dyDescent="0.4">
+        <f t="shared" si="2"/>
+        <v>642747</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" ht="21" x14ac:dyDescent="0.4">
       <c r="B64" s="3"/>
       <c r="C64" s="10"/>
       <c r="D64" s="3"/>
@@ -2331,12 +2541,12 @@
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
       <c r="H64" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I64" s="12">
-        <f t="shared" si="1"/>
-        <v>615335</v>
+        <f t="shared" si="2"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="65" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -2347,12 +2557,12 @@
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
       <c r="H65" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I65" s="12">
-        <f t="shared" si="1"/>
-        <v>615335</v>
+        <f t="shared" si="2"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="66" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -2363,12 +2573,12 @@
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
       <c r="H66" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I66" s="12">
-        <f t="shared" si="1"/>
-        <v>615335</v>
+        <f t="shared" si="2"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="67" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -2379,12 +2589,12 @@
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
       <c r="H67" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I67" s="12">
-        <f t="shared" si="1"/>
-        <v>615335</v>
+        <f t="shared" si="2"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="68" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -2395,12 +2605,12 @@
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
       <c r="H68" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I68" s="12">
-        <f t="shared" si="1"/>
-        <v>615335</v>
+        <f t="shared" si="2"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="69" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -2411,12 +2621,12 @@
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
       <c r="H69" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I69" s="12">
-        <f t="shared" si="1"/>
-        <v>615335</v>
+        <f t="shared" si="2"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="70" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -2427,12 +2637,12 @@
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
       <c r="H70" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I70" s="12">
-        <f t="shared" si="1"/>
-        <v>615335</v>
+        <f t="shared" si="2"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="71" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -2443,12 +2653,12 @@
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
       <c r="H71" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I71" s="12">
-        <f t="shared" si="1"/>
-        <v>615335</v>
+        <f t="shared" si="2"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="72" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -2459,12 +2669,12 @@
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
       <c r="H72" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I72" s="12">
-        <f t="shared" ref="I72:I135" si="3">I71+H72</f>
-        <v>615335</v>
+        <f t="shared" ref="I72:I135" si="5">I71+H72</f>
+        <v>642747</v>
       </c>
     </row>
     <row r="73" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -2475,12 +2685,12 @@
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
       <c r="H73" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I73" s="12">
-        <f t="shared" si="3"/>
-        <v>615335</v>
+        <f t="shared" si="5"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="74" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -2491,12 +2701,12 @@
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
       <c r="H74" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I74" s="12">
-        <f t="shared" si="3"/>
-        <v>615335</v>
+        <f t="shared" si="5"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="75" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -2507,12 +2717,12 @@
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
       <c r="H75" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I75" s="12">
-        <f t="shared" si="3"/>
-        <v>615335</v>
+        <f t="shared" si="5"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="76" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -2523,12 +2733,12 @@
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
       <c r="H76" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I76" s="12">
-        <f t="shared" si="3"/>
-        <v>615335</v>
+        <f t="shared" si="5"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="77" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -2539,12 +2749,12 @@
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
       <c r="H77" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I77" s="12">
-        <f t="shared" si="3"/>
-        <v>615335</v>
+        <f t="shared" si="5"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="78" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -2555,12 +2765,12 @@
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
       <c r="H78" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I78" s="12">
-        <f t="shared" si="3"/>
-        <v>615335</v>
+        <f t="shared" si="5"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="79" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -2571,12 +2781,12 @@
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
       <c r="H79" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I79" s="12">
-        <f t="shared" si="3"/>
-        <v>615335</v>
+        <f t="shared" si="5"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="80" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -2587,12 +2797,12 @@
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
       <c r="H80" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I80" s="12">
-        <f t="shared" si="3"/>
-        <v>615335</v>
+        <f t="shared" si="5"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="81" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -2603,12 +2813,12 @@
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
       <c r="H81" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I81" s="12">
-        <f t="shared" si="3"/>
-        <v>615335</v>
+        <f t="shared" si="5"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="82" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -2619,12 +2829,12 @@
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
       <c r="H82" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I82" s="12">
-        <f t="shared" si="3"/>
-        <v>615335</v>
+        <f t="shared" si="5"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="83" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -2635,12 +2845,12 @@
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
       <c r="H83" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I83" s="12">
-        <f t="shared" si="3"/>
-        <v>615335</v>
+        <f t="shared" si="5"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="84" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -2651,12 +2861,12 @@
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
       <c r="H84" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I84" s="12">
-        <f t="shared" si="3"/>
-        <v>615335</v>
+        <f t="shared" si="5"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="85" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -2667,12 +2877,12 @@
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
       <c r="H85" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I85" s="12">
-        <f t="shared" si="3"/>
-        <v>615335</v>
+        <f t="shared" si="5"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="86" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -2683,12 +2893,12 @@
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
       <c r="H86" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I86" s="12">
-        <f t="shared" si="3"/>
-        <v>615335</v>
+        <f t="shared" si="5"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="87" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -2699,12 +2909,12 @@
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
       <c r="H87" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I87" s="12">
-        <f t="shared" si="3"/>
-        <v>615335</v>
+        <f t="shared" si="5"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="88" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -2715,12 +2925,12 @@
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
       <c r="H88" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I88" s="12">
-        <f t="shared" si="3"/>
-        <v>615335</v>
+        <f t="shared" si="5"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="89" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -2731,12 +2941,12 @@
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
       <c r="H89" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I89" s="12">
-        <f t="shared" si="3"/>
-        <v>615335</v>
+        <f t="shared" si="5"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="90" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -2747,12 +2957,12 @@
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
       <c r="H90" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I90" s="12">
-        <f t="shared" si="3"/>
-        <v>615335</v>
+        <f t="shared" si="5"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="91" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -2763,12 +2973,12 @@
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
       <c r="H91" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I91" s="12">
-        <f t="shared" si="3"/>
-        <v>615335</v>
+        <f t="shared" si="5"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="92" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -2779,12 +2989,12 @@
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
       <c r="H92" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I92" s="12">
-        <f t="shared" si="3"/>
-        <v>615335</v>
+        <f t="shared" si="5"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="93" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -2795,12 +3005,12 @@
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
       <c r="H93" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I93" s="12">
-        <f t="shared" si="3"/>
-        <v>615335</v>
+        <f t="shared" si="5"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="94" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -2811,12 +3021,12 @@
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
       <c r="H94" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I94" s="12">
-        <f t="shared" si="3"/>
-        <v>615335</v>
+        <f t="shared" si="5"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="95" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -2827,12 +3037,12 @@
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
       <c r="H95" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I95" s="12">
-        <f t="shared" si="3"/>
-        <v>615335</v>
+        <f t="shared" si="5"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="96" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -2843,12 +3053,12 @@
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
       <c r="H96" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I96" s="12">
-        <f t="shared" si="3"/>
-        <v>615335</v>
+        <f t="shared" si="5"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="97" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -2859,12 +3069,12 @@
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
       <c r="H97" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I97" s="12">
-        <f t="shared" si="3"/>
-        <v>615335</v>
+        <f t="shared" si="5"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="98" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -2875,12 +3085,12 @@
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
       <c r="H98" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I98" s="12">
-        <f t="shared" si="3"/>
-        <v>615335</v>
+        <f t="shared" si="5"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="99" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -2891,12 +3101,12 @@
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
       <c r="H99" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I99" s="12">
-        <f t="shared" si="3"/>
-        <v>615335</v>
+        <f t="shared" si="5"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="100" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -2907,12 +3117,12 @@
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
       <c r="H100" s="39">
-        <f t="shared" ref="H100:H163" si="4">(E100*F100)+G100</f>
+        <f t="shared" ref="H100:H163" si="6">(E100*F100)+G100</f>
         <v>0</v>
       </c>
       <c r="I100" s="12">
-        <f t="shared" si="3"/>
-        <v>615335</v>
+        <f t="shared" si="5"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="101" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -2923,12 +3133,12 @@
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
       <c r="H101" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I101" s="12">
-        <f t="shared" si="3"/>
-        <v>615335</v>
+        <f t="shared" si="5"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="102" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -2939,12 +3149,12 @@
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
       <c r="H102" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I102" s="12">
-        <f t="shared" si="3"/>
-        <v>615335</v>
+        <f t="shared" si="5"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="103" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -2955,12 +3165,12 @@
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
       <c r="H103" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I103" s="12">
-        <f t="shared" si="3"/>
-        <v>615335</v>
+        <f t="shared" si="5"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="104" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -2971,12 +3181,12 @@
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
       <c r="H104" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I104" s="12">
-        <f t="shared" si="3"/>
-        <v>615335</v>
+        <f t="shared" si="5"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="105" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -2987,12 +3197,12 @@
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
       <c r="H105" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I105" s="12">
-        <f t="shared" si="3"/>
-        <v>615335</v>
+        <f t="shared" si="5"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="106" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3003,12 +3213,12 @@
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
       <c r="H106" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I106" s="12">
-        <f t="shared" si="3"/>
-        <v>615335</v>
+        <f t="shared" si="5"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="107" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3019,12 +3229,12 @@
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
       <c r="H107" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I107" s="12">
-        <f t="shared" si="3"/>
-        <v>615335</v>
+        <f t="shared" si="5"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="108" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3035,12 +3245,12 @@
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
       <c r="H108" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I108" s="12">
-        <f t="shared" si="3"/>
-        <v>615335</v>
+        <f t="shared" si="5"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="109" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3051,12 +3261,12 @@
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
       <c r="H109" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I109" s="12">
-        <f t="shared" si="3"/>
-        <v>615335</v>
+        <f t="shared" si="5"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="110" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3067,12 +3277,12 @@
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
       <c r="H110" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I110" s="12">
-        <f t="shared" si="3"/>
-        <v>615335</v>
+        <f t="shared" si="5"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="111" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3083,12 +3293,12 @@
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
       <c r="H111" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I111" s="12">
-        <f t="shared" si="3"/>
-        <v>615335</v>
+        <f t="shared" si="5"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="112" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3099,12 +3309,12 @@
       <c r="F112" s="3"/>
       <c r="G112" s="3"/>
       <c r="H112" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I112" s="12">
-        <f t="shared" si="3"/>
-        <v>615335</v>
+        <f t="shared" si="5"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="113" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3115,12 +3325,12 @@
       <c r="F113" s="3"/>
       <c r="G113" s="3"/>
       <c r="H113" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I113" s="12">
-        <f t="shared" si="3"/>
-        <v>615335</v>
+        <f t="shared" si="5"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="114" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3131,12 +3341,12 @@
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
       <c r="H114" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I114" s="12">
-        <f t="shared" si="3"/>
-        <v>615335</v>
+        <f t="shared" si="5"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="115" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3147,12 +3357,12 @@
       <c r="F115" s="3"/>
       <c r="G115" s="3"/>
       <c r="H115" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I115" s="12">
-        <f t="shared" si="3"/>
-        <v>615335</v>
+        <f t="shared" si="5"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="116" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3163,12 +3373,12 @@
       <c r="F116" s="3"/>
       <c r="G116" s="3"/>
       <c r="H116" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I116" s="12">
-        <f t="shared" si="3"/>
-        <v>615335</v>
+        <f t="shared" si="5"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="117" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3179,12 +3389,12 @@
       <c r="F117" s="3"/>
       <c r="G117" s="3"/>
       <c r="H117" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I117" s="12">
-        <f t="shared" si="3"/>
-        <v>615335</v>
+        <f t="shared" si="5"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="118" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3195,12 +3405,12 @@
       <c r="F118" s="3"/>
       <c r="G118" s="3"/>
       <c r="H118" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I118" s="12">
-        <f t="shared" si="3"/>
-        <v>615335</v>
+        <f t="shared" si="5"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="119" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3211,12 +3421,12 @@
       <c r="F119" s="3"/>
       <c r="G119" s="3"/>
       <c r="H119" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I119" s="12">
-        <f t="shared" si="3"/>
-        <v>615335</v>
+        <f t="shared" si="5"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="120" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3227,12 +3437,12 @@
       <c r="F120" s="3"/>
       <c r="G120" s="3"/>
       <c r="H120" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I120" s="12">
-        <f t="shared" si="3"/>
-        <v>615335</v>
+        <f t="shared" si="5"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="121" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3243,12 +3453,12 @@
       <c r="F121" s="3"/>
       <c r="G121" s="3"/>
       <c r="H121" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I121" s="12">
-        <f t="shared" si="3"/>
-        <v>615335</v>
+        <f t="shared" si="5"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="122" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3259,12 +3469,12 @@
       <c r="F122" s="3"/>
       <c r="G122" s="3"/>
       <c r="H122" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I122" s="12">
-        <f t="shared" si="3"/>
-        <v>615335</v>
+        <f t="shared" si="5"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="123" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3275,12 +3485,12 @@
       <c r="F123" s="3"/>
       <c r="G123" s="3"/>
       <c r="H123" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I123" s="12">
-        <f t="shared" si="3"/>
-        <v>615335</v>
+        <f t="shared" si="5"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="124" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3291,12 +3501,12 @@
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
       <c r="H124" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I124" s="12">
-        <f t="shared" si="3"/>
-        <v>615335</v>
+        <f t="shared" si="5"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="125" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3307,12 +3517,12 @@
       <c r="F125" s="3"/>
       <c r="G125" s="3"/>
       <c r="H125" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I125" s="12">
-        <f t="shared" si="3"/>
-        <v>615335</v>
+        <f t="shared" si="5"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="126" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3323,12 +3533,12 @@
       <c r="F126" s="3"/>
       <c r="G126" s="3"/>
       <c r="H126" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I126" s="12">
-        <f t="shared" si="3"/>
-        <v>615335</v>
+        <f t="shared" si="5"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="127" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3339,12 +3549,12 @@
       <c r="F127" s="3"/>
       <c r="G127" s="3"/>
       <c r="H127" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I127" s="12">
-        <f t="shared" si="3"/>
-        <v>615335</v>
+        <f t="shared" si="5"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="128" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3355,12 +3565,12 @@
       <c r="F128" s="3"/>
       <c r="G128" s="3"/>
       <c r="H128" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I128" s="12">
-        <f t="shared" si="3"/>
-        <v>615335</v>
+        <f t="shared" si="5"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="129" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3371,12 +3581,12 @@
       <c r="F129" s="3"/>
       <c r="G129" s="3"/>
       <c r="H129" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I129" s="12">
-        <f t="shared" si="3"/>
-        <v>615335</v>
+        <f t="shared" si="5"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="130" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3387,12 +3597,12 @@
       <c r="F130" s="3"/>
       <c r="G130" s="3"/>
       <c r="H130" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I130" s="12">
-        <f t="shared" si="3"/>
-        <v>615335</v>
+        <f t="shared" si="5"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="131" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3403,12 +3613,12 @@
       <c r="F131" s="3"/>
       <c r="G131" s="3"/>
       <c r="H131" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I131" s="12">
-        <f t="shared" si="3"/>
-        <v>615335</v>
+        <f t="shared" si="5"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="132" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3419,12 +3629,12 @@
       <c r="F132" s="3"/>
       <c r="G132" s="3"/>
       <c r="H132" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I132" s="12">
-        <f t="shared" si="3"/>
-        <v>615335</v>
+        <f t="shared" si="5"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="133" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3435,12 +3645,12 @@
       <c r="F133" s="3"/>
       <c r="G133" s="3"/>
       <c r="H133" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I133" s="12">
-        <f t="shared" si="3"/>
-        <v>615335</v>
+        <f t="shared" si="5"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="134" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3451,12 +3661,12 @@
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
       <c r="H134" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I134" s="12">
-        <f t="shared" si="3"/>
-        <v>615335</v>
+        <f t="shared" si="5"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="135" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3467,12 +3677,12 @@
       <c r="F135" s="3"/>
       <c r="G135" s="3"/>
       <c r="H135" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I135" s="12">
-        <f t="shared" si="3"/>
-        <v>615335</v>
+        <f t="shared" si="5"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="136" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3483,12 +3693,12 @@
       <c r="F136" s="3"/>
       <c r="G136" s="3"/>
       <c r="H136" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I136" s="12">
-        <f t="shared" ref="I136:I199" si="5">I135+H136</f>
-        <v>615335</v>
+        <f t="shared" ref="I136:I199" si="7">I135+H136</f>
+        <v>642747</v>
       </c>
     </row>
     <row r="137" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3499,12 +3709,12 @@
       <c r="F137" s="3"/>
       <c r="G137" s="3"/>
       <c r="H137" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I137" s="12">
-        <f t="shared" si="5"/>
-        <v>615335</v>
+        <f t="shared" si="7"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="138" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3515,12 +3725,12 @@
       <c r="F138" s="3"/>
       <c r="G138" s="3"/>
       <c r="H138" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I138" s="12">
-        <f t="shared" si="5"/>
-        <v>615335</v>
+        <f t="shared" si="7"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="139" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3531,12 +3741,12 @@
       <c r="F139" s="3"/>
       <c r="G139" s="3"/>
       <c r="H139" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I139" s="12">
-        <f t="shared" si="5"/>
-        <v>615335</v>
+        <f t="shared" si="7"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="140" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3547,12 +3757,12 @@
       <c r="F140" s="3"/>
       <c r="G140" s="3"/>
       <c r="H140" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I140" s="12">
-        <f t="shared" si="5"/>
-        <v>615335</v>
+        <f t="shared" si="7"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="141" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3563,12 +3773,12 @@
       <c r="F141" s="3"/>
       <c r="G141" s="3"/>
       <c r="H141" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I141" s="12">
-        <f t="shared" si="5"/>
-        <v>615335</v>
+        <f t="shared" si="7"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="142" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3579,12 +3789,12 @@
       <c r="F142" s="3"/>
       <c r="G142" s="3"/>
       <c r="H142" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I142" s="12">
-        <f t="shared" si="5"/>
-        <v>615335</v>
+        <f t="shared" si="7"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="143" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3595,12 +3805,12 @@
       <c r="F143" s="3"/>
       <c r="G143" s="3"/>
       <c r="H143" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I143" s="12">
-        <f t="shared" si="5"/>
-        <v>615335</v>
+        <f t="shared" si="7"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="144" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3611,12 +3821,12 @@
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
       <c r="H144" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I144" s="12">
-        <f t="shared" si="5"/>
-        <v>615335</v>
+        <f t="shared" si="7"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="145" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3627,12 +3837,12 @@
       <c r="F145" s="3"/>
       <c r="G145" s="3"/>
       <c r="H145" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I145" s="12">
-        <f t="shared" si="5"/>
-        <v>615335</v>
+        <f t="shared" si="7"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="146" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3643,12 +3853,12 @@
       <c r="F146" s="3"/>
       <c r="G146" s="3"/>
       <c r="H146" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I146" s="12">
-        <f t="shared" si="5"/>
-        <v>615335</v>
+        <f t="shared" si="7"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="147" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3659,12 +3869,12 @@
       <c r="F147" s="3"/>
       <c r="G147" s="3"/>
       <c r="H147" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I147" s="12">
-        <f t="shared" si="5"/>
-        <v>615335</v>
+        <f t="shared" si="7"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="148" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3675,12 +3885,12 @@
       <c r="F148" s="3"/>
       <c r="G148" s="3"/>
       <c r="H148" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I148" s="12">
-        <f t="shared" si="5"/>
-        <v>615335</v>
+        <f t="shared" si="7"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="149" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3691,12 +3901,12 @@
       <c r="F149" s="3"/>
       <c r="G149" s="3"/>
       <c r="H149" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I149" s="12">
-        <f t="shared" si="5"/>
-        <v>615335</v>
+        <f t="shared" si="7"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="150" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3707,12 +3917,12 @@
       <c r="F150" s="3"/>
       <c r="G150" s="3"/>
       <c r="H150" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I150" s="12">
-        <f t="shared" si="5"/>
-        <v>615335</v>
+        <f t="shared" si="7"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="151" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3723,12 +3933,12 @@
       <c r="F151" s="3"/>
       <c r="G151" s="3"/>
       <c r="H151" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I151" s="12">
-        <f t="shared" si="5"/>
-        <v>615335</v>
+        <f t="shared" si="7"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="152" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3739,12 +3949,12 @@
       <c r="F152" s="3"/>
       <c r="G152" s="3"/>
       <c r="H152" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I152" s="12">
-        <f t="shared" si="5"/>
-        <v>615335</v>
+        <f t="shared" si="7"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="153" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3755,12 +3965,12 @@
       <c r="F153" s="3"/>
       <c r="G153" s="3"/>
       <c r="H153" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I153" s="12">
-        <f t="shared" si="5"/>
-        <v>615335</v>
+        <f t="shared" si="7"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="154" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3771,12 +3981,12 @@
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
       <c r="H154" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I154" s="12">
-        <f t="shared" si="5"/>
-        <v>615335</v>
+        <f t="shared" si="7"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="155" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3787,12 +3997,12 @@
       <c r="F155" s="3"/>
       <c r="G155" s="3"/>
       <c r="H155" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I155" s="12">
-        <f t="shared" si="5"/>
-        <v>615335</v>
+        <f t="shared" si="7"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="156" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3803,12 +4013,12 @@
       <c r="F156" s="3"/>
       <c r="G156" s="3"/>
       <c r="H156" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I156" s="12">
-        <f t="shared" si="5"/>
-        <v>615335</v>
+        <f t="shared" si="7"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="157" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3819,12 +4029,12 @@
       <c r="F157" s="3"/>
       <c r="G157" s="3"/>
       <c r="H157" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I157" s="12">
-        <f t="shared" si="5"/>
-        <v>615335</v>
+        <f t="shared" si="7"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="158" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3835,12 +4045,12 @@
       <c r="F158" s="3"/>
       <c r="G158" s="3"/>
       <c r="H158" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I158" s="12">
-        <f t="shared" si="5"/>
-        <v>615335</v>
+        <f t="shared" si="7"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="159" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3851,12 +4061,12 @@
       <c r="F159" s="3"/>
       <c r="G159" s="3"/>
       <c r="H159" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I159" s="12">
-        <f t="shared" si="5"/>
-        <v>615335</v>
+        <f t="shared" si="7"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="160" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3867,12 +4077,12 @@
       <c r="F160" s="3"/>
       <c r="G160" s="3"/>
       <c r="H160" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I160" s="12">
-        <f t="shared" si="5"/>
-        <v>615335</v>
+        <f t="shared" si="7"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="161" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3883,12 +4093,12 @@
       <c r="F161" s="3"/>
       <c r="G161" s="3"/>
       <c r="H161" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I161" s="12">
-        <f t="shared" si="5"/>
-        <v>615335</v>
+        <f t="shared" si="7"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="162" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3899,12 +4109,12 @@
       <c r="F162" s="3"/>
       <c r="G162" s="3"/>
       <c r="H162" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I162" s="12">
-        <f t="shared" si="5"/>
-        <v>615335</v>
+        <f t="shared" si="7"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="163" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3915,12 +4125,12 @@
       <c r="F163" s="3"/>
       <c r="G163" s="3"/>
       <c r="H163" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I163" s="12">
-        <f t="shared" si="5"/>
-        <v>615335</v>
+        <f t="shared" si="7"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="164" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3931,12 +4141,12 @@
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
       <c r="H164" s="39">
-        <f t="shared" ref="H164:H202" si="6">(E164*F164)+G164</f>
+        <f t="shared" ref="H164:H202" si="8">(E164*F164)+G164</f>
         <v>0</v>
       </c>
       <c r="I164" s="12">
-        <f t="shared" si="5"/>
-        <v>615335</v>
+        <f t="shared" si="7"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="165" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3947,12 +4157,12 @@
       <c r="F165" s="3"/>
       <c r="G165" s="3"/>
       <c r="H165" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I165" s="12">
-        <f t="shared" si="5"/>
-        <v>615335</v>
+        <f t="shared" si="7"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="166" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3963,12 +4173,12 @@
       <c r="F166" s="3"/>
       <c r="G166" s="3"/>
       <c r="H166" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I166" s="12">
-        <f t="shared" si="5"/>
-        <v>615335</v>
+        <f t="shared" si="7"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="167" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3979,12 +4189,12 @@
       <c r="F167" s="3"/>
       <c r="G167" s="3"/>
       <c r="H167" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I167" s="12">
-        <f t="shared" si="5"/>
-        <v>615335</v>
+        <f t="shared" si="7"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="168" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3995,12 +4205,12 @@
       <c r="F168" s="3"/>
       <c r="G168" s="3"/>
       <c r="H168" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I168" s="12">
-        <f t="shared" si="5"/>
-        <v>615335</v>
+        <f t="shared" si="7"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="169" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4011,12 +4221,12 @@
       <c r="F169" s="3"/>
       <c r="G169" s="3"/>
       <c r="H169" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I169" s="12">
-        <f t="shared" si="5"/>
-        <v>615335</v>
+        <f t="shared" si="7"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="170" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4027,12 +4237,12 @@
       <c r="F170" s="3"/>
       <c r="G170" s="3"/>
       <c r="H170" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I170" s="12">
-        <f t="shared" si="5"/>
-        <v>615335</v>
+        <f t="shared" si="7"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="171" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4043,12 +4253,12 @@
       <c r="F171" s="3"/>
       <c r="G171" s="3"/>
       <c r="H171" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I171" s="12">
-        <f t="shared" si="5"/>
-        <v>615335</v>
+        <f t="shared" si="7"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="172" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4059,12 +4269,12 @@
       <c r="F172" s="3"/>
       <c r="G172" s="3"/>
       <c r="H172" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I172" s="12">
-        <f t="shared" si="5"/>
-        <v>615335</v>
+        <f t="shared" si="7"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="173" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4075,12 +4285,12 @@
       <c r="F173" s="3"/>
       <c r="G173" s="3"/>
       <c r="H173" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I173" s="12">
-        <f t="shared" si="5"/>
-        <v>615335</v>
+        <f t="shared" si="7"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="174" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4091,12 +4301,12 @@
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
       <c r="H174" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I174" s="12">
-        <f t="shared" si="5"/>
-        <v>615335</v>
+        <f t="shared" si="7"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="175" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4107,12 +4317,12 @@
       <c r="F175" s="3"/>
       <c r="G175" s="3"/>
       <c r="H175" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I175" s="12">
-        <f t="shared" si="5"/>
-        <v>615335</v>
+        <f t="shared" si="7"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="176" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4123,12 +4333,12 @@
       <c r="F176" s="3"/>
       <c r="G176" s="3"/>
       <c r="H176" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I176" s="12">
-        <f t="shared" si="5"/>
-        <v>615335</v>
+        <f t="shared" si="7"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="177" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4139,12 +4349,12 @@
       <c r="F177" s="3"/>
       <c r="G177" s="3"/>
       <c r="H177" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I177" s="12">
-        <f t="shared" si="5"/>
-        <v>615335</v>
+        <f t="shared" si="7"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="178" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4155,12 +4365,12 @@
       <c r="F178" s="3"/>
       <c r="G178" s="3"/>
       <c r="H178" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I178" s="12">
-        <f t="shared" si="5"/>
-        <v>615335</v>
+        <f t="shared" si="7"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="179" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4171,12 +4381,12 @@
       <c r="F179" s="3"/>
       <c r="G179" s="3"/>
       <c r="H179" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I179" s="12">
-        <f t="shared" si="5"/>
-        <v>615335</v>
+        <f t="shared" si="7"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="180" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4187,12 +4397,12 @@
       <c r="F180" s="3"/>
       <c r="G180" s="3"/>
       <c r="H180" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I180" s="12">
-        <f t="shared" si="5"/>
-        <v>615335</v>
+        <f t="shared" si="7"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="181" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4203,12 +4413,12 @@
       <c r="F181" s="3"/>
       <c r="G181" s="3"/>
       <c r="H181" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I181" s="12">
-        <f t="shared" si="5"/>
-        <v>615335</v>
+        <f t="shared" si="7"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="182" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4219,12 +4429,12 @@
       <c r="F182" s="3"/>
       <c r="G182" s="3"/>
       <c r="H182" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I182" s="12">
-        <f t="shared" si="5"/>
-        <v>615335</v>
+        <f t="shared" si="7"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="183" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4235,12 +4445,12 @@
       <c r="F183" s="3"/>
       <c r="G183" s="3"/>
       <c r="H183" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I183" s="12">
-        <f t="shared" si="5"/>
-        <v>615335</v>
+        <f t="shared" si="7"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="184" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4251,12 +4461,12 @@
       <c r="F184" s="3"/>
       <c r="G184" s="3"/>
       <c r="H184" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I184" s="12">
-        <f t="shared" si="5"/>
-        <v>615335</v>
+        <f t="shared" si="7"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="185" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4267,12 +4477,12 @@
       <c r="F185" s="3"/>
       <c r="G185" s="3"/>
       <c r="H185" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I185" s="12">
-        <f t="shared" si="5"/>
-        <v>615335</v>
+        <f t="shared" si="7"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="186" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4283,12 +4493,12 @@
       <c r="F186" s="3"/>
       <c r="G186" s="3"/>
       <c r="H186" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I186" s="12">
-        <f t="shared" si="5"/>
-        <v>615335</v>
+        <f t="shared" si="7"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="187" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4299,12 +4509,12 @@
       <c r="F187" s="3"/>
       <c r="G187" s="3"/>
       <c r="H187" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I187" s="12">
-        <f t="shared" si="5"/>
-        <v>615335</v>
+        <f t="shared" si="7"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="188" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4315,12 +4525,12 @@
       <c r="F188" s="3"/>
       <c r="G188" s="3"/>
       <c r="H188" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I188" s="12">
-        <f t="shared" si="5"/>
-        <v>615335</v>
+        <f t="shared" si="7"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="189" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4331,12 +4541,12 @@
       <c r="F189" s="3"/>
       <c r="G189" s="3"/>
       <c r="H189" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I189" s="12">
-        <f t="shared" si="5"/>
-        <v>615335</v>
+        <f t="shared" si="7"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="190" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4347,12 +4557,12 @@
       <c r="F190" s="3"/>
       <c r="G190" s="3"/>
       <c r="H190" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I190" s="12">
-        <f t="shared" si="5"/>
-        <v>615335</v>
+        <f t="shared" si="7"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="191" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4363,12 +4573,12 @@
       <c r="F191" s="3"/>
       <c r="G191" s="3"/>
       <c r="H191" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I191" s="12">
-        <f t="shared" si="5"/>
-        <v>615335</v>
+        <f t="shared" si="7"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="192" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4379,12 +4589,12 @@
       <c r="F192" s="3"/>
       <c r="G192" s="3"/>
       <c r="H192" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I192" s="12">
-        <f t="shared" si="5"/>
-        <v>615335</v>
+        <f t="shared" si="7"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="193" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4395,12 +4605,12 @@
       <c r="F193" s="3"/>
       <c r="G193" s="3"/>
       <c r="H193" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I193" s="12">
-        <f t="shared" si="5"/>
-        <v>615335</v>
+        <f t="shared" si="7"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="194" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4411,12 +4621,12 @@
       <c r="F194" s="3"/>
       <c r="G194" s="3"/>
       <c r="H194" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I194" s="12">
-        <f t="shared" si="5"/>
-        <v>615335</v>
+        <f t="shared" si="7"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="195" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4427,12 +4637,12 @@
       <c r="F195" s="3"/>
       <c r="G195" s="3"/>
       <c r="H195" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I195" s="12">
-        <f t="shared" si="5"/>
-        <v>615335</v>
+        <f t="shared" si="7"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="196" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4443,12 +4653,12 @@
       <c r="F196" s="3"/>
       <c r="G196" s="3"/>
       <c r="H196" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I196" s="12">
-        <f t="shared" si="5"/>
-        <v>615335</v>
+        <f t="shared" si="7"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="197" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4459,12 +4669,12 @@
       <c r="F197" s="3"/>
       <c r="G197" s="3"/>
       <c r="H197" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I197" s="12">
-        <f t="shared" si="5"/>
-        <v>615335</v>
+        <f t="shared" si="7"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="198" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4475,12 +4685,12 @@
       <c r="F198" s="3"/>
       <c r="G198" s="3"/>
       <c r="H198" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I198" s="12">
-        <f t="shared" si="5"/>
-        <v>615335</v>
+        <f t="shared" si="7"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="199" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4491,12 +4701,12 @@
       <c r="F199" s="3"/>
       <c r="G199" s="3"/>
       <c r="H199" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I199" s="12">
-        <f t="shared" si="5"/>
-        <v>615335</v>
+        <f t="shared" si="7"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="200" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4507,12 +4717,12 @@
       <c r="F200" s="3"/>
       <c r="G200" s="3"/>
       <c r="H200" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I200" s="12">
-        <f t="shared" ref="I200:I202" si="7">I199+H200</f>
-        <v>615335</v>
+        <f t="shared" ref="I200:I202" si="9">I199+H200</f>
+        <v>642747</v>
       </c>
     </row>
     <row r="201" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4523,12 +4733,12 @@
       <c r="F201" s="3"/>
       <c r="G201" s="3"/>
       <c r="H201" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I201" s="12">
-        <f t="shared" si="7"/>
-        <v>615335</v>
+        <f t="shared" si="9"/>
+        <v>642747</v>
       </c>
     </row>
     <row r="202" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4539,12 +4749,12 @@
       <c r="F202" s="3"/>
       <c r="G202" s="3"/>
       <c r="H202" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I202" s="12">
-        <f t="shared" si="7"/>
-        <v>615335</v>
+        <f t="shared" si="9"/>
+        <v>642747</v>
       </c>
     </row>
   </sheetData>
@@ -4557,13 +4767,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36 E36:H36 B37:H38 B40:H40 H39">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>D2="CEMENT"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C36 E36:H36">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>XFC2="CEMENT"</formula>
+  <conditionalFormatting sqref="E36:H36">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>A2="CEMENT"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C36">
+    <cfRule type="expression" dxfId="0" priority="4">
+      <formula>XFD2="CEMENT"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4588,24 +4803,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="37.200000000000003" x14ac:dyDescent="0.75">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
     </row>
     <row r="3" spans="2:5" ht="21" x14ac:dyDescent="0.3">
-      <c r="B3" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="59" t="s">
+      <c r="B3" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="60" t="s">
+      <c r="D3" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="61" t="s">
+      <c r="E3" s="58" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5319,7 +5534,7 @@
   <dimension ref="B3:E542"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5331,24 +5546,24 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:5" ht="31.2" x14ac:dyDescent="0.6">
-      <c r="B3" s="57" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
+      <c r="B3" s="74" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
     </row>
     <row r="4" spans="2:5" ht="21" x14ac:dyDescent="0.3">
-      <c r="B4" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="59" t="s">
+      <c r="B4" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="60" t="s">
+      <c r="D4" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="61" t="s">
+      <c r="E4" s="58" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5363,7 +5578,7 @@
     <row r="6" spans="2:5" ht="21" x14ac:dyDescent="0.4">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" s="25">
         <v>10000</v>

--- a/LEDGER.xlsx
+++ b/LEDGER.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="62">
   <si>
     <t>DATE</t>
   </si>
@@ -302,16 +302,48 @@
   <si>
     <t>worker COUNT LEDGER</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">STEEL </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>SARYA, WIRE, LABOUR</t>
+  </si>
+  <si>
+    <t>GARDER PAINT</t>
+  </si>
+  <si>
+    <t>MITTI</t>
+  </si>
+  <si>
+    <t>MISCLLANEOUS - VEGEATABLES</t>
+  </si>
+  <si>
+    <t>ONLINE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;?_);_(@_)"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -416,8 +448,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -481,6 +537,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -614,7 +676,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -734,6 +796,28 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="15" fontId="14" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="14" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="15" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -743,7 +827,6 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1079,8 +1162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="L42" sqref="L42"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1092,11 +1175,11 @@
     <col min="6" max="7" width="12.44140625" customWidth="1"/>
     <col min="8" max="9" width="17.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.21875" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.88671875" customWidth="1"/>
     <col min="14" max="14" width="10.33203125" customWidth="1"/>
-    <col min="15" max="15" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.21875" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1138,16 +1221,16 @@
       </c>
     </row>
     <row r="3" spans="2:16" ht="21" x14ac:dyDescent="0.4">
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
       <c r="K3" s="3">
         <v>2</v>
       </c>
@@ -1157,22 +1240,22 @@
       <c r="M3" s="62"/>
       <c r="N3" s="70">
         <f t="shared" ref="N3:N5" si="0">SUMIF($C$2:$C$1000, K3, $E$2:$E$1000)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O3" s="61">
-        <f t="shared" ref="O3:O15" si="1">SUMIF($C$2:$C$1000, K3, $H$2:$H$1000)</f>
-        <v>22000</v>
+        <f t="shared" ref="O3:O16" si="1">SUMIF($C$2:$C$1000, K3, $H$2:$H$1000)</f>
+        <v>43000</v>
       </c>
     </row>
     <row r="4" spans="2:16" ht="21" x14ac:dyDescent="0.4">
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
       <c r="K4" s="3">
         <v>3</v>
       </c>
@@ -1182,11 +1265,11 @@
       <c r="M4" s="63"/>
       <c r="N4" s="70">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="O4" s="61">
         <f t="shared" si="1"/>
-        <v>70450</v>
+        <v>98450</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="21" x14ac:dyDescent="0.4">
@@ -1223,11 +1306,11 @@
       <c r="M5" s="65"/>
       <c r="N5" s="70">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O5" s="61">
         <f t="shared" si="1"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="21" hidden="1" x14ac:dyDescent="0.4">
@@ -1340,13 +1423,17 @@
         <f t="shared" si="2"/>
         <v>243000</v>
       </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="68"/>
-      <c r="M9" s="1"/>
+      <c r="K9" s="3">
+        <v>7</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M9" s="77"/>
       <c r="N9" s="70"/>
       <c r="O9" s="61">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>115200</v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="21" x14ac:dyDescent="0.4">
@@ -1369,13 +1456,17 @@
         <f t="shared" si="2"/>
         <v>250100</v>
       </c>
-      <c r="K10" s="3"/>
-      <c r="L10" s="68"/>
+      <c r="K10" s="3">
+        <v>8</v>
+      </c>
+      <c r="L10" s="79" t="s">
+        <v>14</v>
+      </c>
       <c r="M10" s="1"/>
       <c r="N10" s="70"/>
       <c r="O10" s="61">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9238</v>
       </c>
     </row>
     <row r="11" spans="2:16" ht="21" x14ac:dyDescent="0.4">
@@ -1542,22 +1633,28 @@
       </c>
     </row>
     <row r="16" spans="2:16" ht="21" x14ac:dyDescent="0.4">
-      <c r="B16" s="12">
+      <c r="B16" s="81">
         <v>45117</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="3" t="s">
+      <c r="C16" s="82">
+        <v>8</v>
+      </c>
+      <c r="D16" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="11">
+      <c r="E16" s="83"/>
+      <c r="F16" s="83"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="84">
         <v>3800</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" si="2"/>
         <v>296600</v>
+      </c>
+      <c r="O16" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:17" ht="21" x14ac:dyDescent="0.4">
@@ -2169,7 +2266,7 @@
       <c r="J44" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="K44">
+      <c r="K44" s="72">
         <v>100000</v>
       </c>
       <c r="L44" t="s">
@@ -2250,7 +2347,7 @@
         <v>630285</v>
       </c>
       <c r="J47" s="20">
-        <f t="shared" ref="J47:J53" si="4">J46-H47</f>
+        <f t="shared" ref="J47:J51" si="4">J46-H47</f>
         <v>87050</v>
       </c>
     </row>
@@ -2365,172 +2462,255 @@
       </c>
     </row>
     <row r="52" spans="2:13" ht="21" x14ac:dyDescent="0.4">
-      <c r="B52" s="3"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="38">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="B52" s="73">
+        <v>45138</v>
+      </c>
+      <c r="C52" s="74">
+        <v>7</v>
+      </c>
+      <c r="D52" s="75" t="s">
+        <v>57</v>
+      </c>
+      <c r="E52" s="75"/>
+      <c r="F52" s="75"/>
+      <c r="G52" s="75"/>
+      <c r="H52" s="76">
+        <v>115200</v>
       </c>
       <c r="I52" s="11">
         <f t="shared" si="2"/>
-        <v>677747</v>
-      </c>
-      <c r="J52" s="20">
-        <f t="shared" si="4"/>
-        <v>39588</v>
+        <v>792947</v>
+      </c>
+      <c r="J52" s="20" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="53" spans="2:13" ht="21" x14ac:dyDescent="0.4">
-      <c r="B53" s="3"/>
+      <c r="B53" s="12">
+        <v>45138</v>
+      </c>
       <c r="C53" s="9"/>
-      <c r="D53" s="3"/>
+      <c r="D53" s="22" t="s">
+        <v>13</v>
+      </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
       <c r="H53" s="38">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1850</v>
       </c>
       <c r="I53" s="11">
         <f t="shared" si="2"/>
-        <v>677747</v>
+        <v>794797</v>
       </c>
       <c r="J53" s="20">
-        <f t="shared" si="4"/>
-        <v>39588</v>
+        <f>J51-H53</f>
+        <v>37738</v>
       </c>
     </row>
     <row r="54" spans="2:13" ht="21" x14ac:dyDescent="0.4">
-      <c r="B54" s="3"/>
+      <c r="B54" s="12">
+        <v>45138</v>
+      </c>
       <c r="C54" s="9"/>
-      <c r="D54" s="3"/>
+      <c r="D54" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
       <c r="H54" s="38">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I54" s="11">
         <f t="shared" si="2"/>
-        <v>677747</v>
-      </c>
+        <v>795097</v>
+      </c>
+      <c r="J54" s="20">
+        <f>J53-H54</f>
+        <v>37438</v>
+      </c>
+      <c r="M54" s="20"/>
     </row>
     <row r="55" spans="2:13" ht="21" x14ac:dyDescent="0.4">
-      <c r="B55" s="3"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="38">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="B55" s="81">
+        <v>45138</v>
+      </c>
+      <c r="C55" s="82">
+        <v>8</v>
+      </c>
+      <c r="D55" s="83" t="s">
+        <v>14</v>
+      </c>
+      <c r="E55" s="83"/>
+      <c r="F55" s="83"/>
+      <c r="G55" s="83"/>
+      <c r="H55" s="85">
+        <v>2438</v>
       </c>
       <c r="I55" s="11">
         <f t="shared" si="2"/>
-        <v>677747</v>
+        <v>797535</v>
+      </c>
+      <c r="J55" s="20">
+        <f t="shared" ref="J55:J62" si="5">J54-H55</f>
+        <v>35000</v>
       </c>
       <c r="M55" s="20"/>
     </row>
     <row r="56" spans="2:13" ht="21" x14ac:dyDescent="0.4">
-      <c r="B56" s="3"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="38">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="B56" s="31">
+        <v>45139</v>
+      </c>
+      <c r="C56" s="50">
+        <v>4</v>
+      </c>
+      <c r="D56" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E56" s="26">
+        <v>1</v>
+      </c>
+      <c r="F56" s="26"/>
+      <c r="G56" s="26"/>
+      <c r="H56" s="27">
+        <v>2000</v>
       </c>
       <c r="I56" s="11">
         <f t="shared" si="2"/>
-        <v>677747</v>
+        <v>799535</v>
+      </c>
+      <c r="J56" s="20">
+        <f t="shared" si="5"/>
+        <v>33000</v>
       </c>
     </row>
     <row r="57" spans="2:13" ht="21" x14ac:dyDescent="0.4">
-      <c r="B57" s="3"/>
+      <c r="B57" s="12">
+        <v>45139</v>
+      </c>
       <c r="C57" s="9"/>
-      <c r="D57" s="3"/>
+      <c r="D57" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
       <c r="H57" s="38">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1450</v>
       </c>
       <c r="I57" s="11">
         <f t="shared" si="2"/>
-        <v>677747</v>
+        <v>800985</v>
+      </c>
+      <c r="J57" s="20">
+        <f t="shared" si="5"/>
+        <v>31550</v>
       </c>
     </row>
     <row r="58" spans="2:13" ht="21" x14ac:dyDescent="0.4">
-      <c r="B58" s="3"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="38">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="B58" s="13">
+        <v>45139</v>
+      </c>
+      <c r="C58" s="78">
+        <v>2</v>
+      </c>
+      <c r="D58" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" s="15">
+        <v>1</v>
+      </c>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="16">
+        <v>21000</v>
       </c>
       <c r="I58" s="11">
         <f t="shared" si="2"/>
-        <v>677747</v>
+        <v>821985</v>
+      </c>
+      <c r="J58" s="20">
+        <f>J57-10000</f>
+        <v>21550</v>
       </c>
     </row>
     <row r="59" spans="2:13" ht="21" x14ac:dyDescent="0.4">
-      <c r="B59" s="3"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="38">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="B59" s="28">
+        <v>45139</v>
+      </c>
+      <c r="C59" s="51">
+        <v>3</v>
+      </c>
+      <c r="D59" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" s="29">
+        <v>25</v>
+      </c>
+      <c r="F59" s="29">
+        <v>1100</v>
+      </c>
+      <c r="G59" s="29">
+        <v>500</v>
+      </c>
+      <c r="H59" s="30">
+        <f t="shared" ref="H59" si="6">(E59*F59)+G59</f>
+        <v>28000</v>
       </c>
       <c r="I59" s="11">
         <f t="shared" si="2"/>
-        <v>677747</v>
+        <v>849985</v>
+      </c>
+      <c r="J59" s="20" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="60" spans="2:13" ht="21" x14ac:dyDescent="0.4">
-      <c r="B60" s="3"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="38">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="B60" s="81">
+        <v>45139</v>
+      </c>
+      <c r="C60" s="82">
+        <v>8</v>
+      </c>
+      <c r="D60" s="86" t="s">
+        <v>60</v>
+      </c>
+      <c r="E60" s="83"/>
+      <c r="F60" s="83"/>
+      <c r="G60" s="83"/>
+      <c r="H60" s="85">
+        <v>3000</v>
       </c>
       <c r="I60" s="11">
         <f t="shared" si="2"/>
-        <v>677747</v>
+        <v>852985</v>
+      </c>
+      <c r="J60" s="20">
+        <f>J58-H60</f>
+        <v>18550</v>
       </c>
     </row>
     <row r="61" spans="2:13" ht="21" x14ac:dyDescent="0.4">
-      <c r="B61" s="3"/>
+      <c r="B61" s="12">
+        <v>45138</v>
+      </c>
       <c r="C61" s="9"/>
-      <c r="D61" s="3"/>
+      <c r="D61" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
       <c r="H61" s="38">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4170</v>
       </c>
       <c r="I61" s="11">
         <f t="shared" si="2"/>
-        <v>677747</v>
+        <v>857155</v>
+      </c>
+      <c r="J61" s="20" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="62" spans="2:13" ht="21" x14ac:dyDescent="0.4">
@@ -2546,8 +2726,9 @@
       </c>
       <c r="I62" s="11">
         <f t="shared" si="2"/>
-        <v>677747</v>
-      </c>
+        <v>857155</v>
+      </c>
+      <c r="J62" s="20"/>
     </row>
     <row r="63" spans="2:13" ht="21" x14ac:dyDescent="0.4">
       <c r="B63" s="3"/>
@@ -2562,7 +2743,7 @@
       </c>
       <c r="I63" s="11">
         <f t="shared" si="2"/>
-        <v>677747</v>
+        <v>857155</v>
       </c>
     </row>
     <row r="64" spans="2:13" ht="21" x14ac:dyDescent="0.4">
@@ -2578,7 +2759,7 @@
       </c>
       <c r="I64" s="11">
         <f t="shared" si="2"/>
-        <v>677747</v>
+        <v>857155</v>
       </c>
     </row>
     <row r="65" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -2594,7 +2775,7 @@
       </c>
       <c r="I65" s="11">
         <f t="shared" si="2"/>
-        <v>677747</v>
+        <v>857155</v>
       </c>
     </row>
     <row r="66" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -2610,7 +2791,7 @@
       </c>
       <c r="I66" s="11">
         <f t="shared" si="2"/>
-        <v>677747</v>
+        <v>857155</v>
       </c>
     </row>
     <row r="67" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -2626,7 +2807,7 @@
       </c>
       <c r="I67" s="11">
         <f t="shared" si="2"/>
-        <v>677747</v>
+        <v>857155</v>
       </c>
     </row>
     <row r="68" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -2642,7 +2823,7 @@
       </c>
       <c r="I68" s="11">
         <f t="shared" si="2"/>
-        <v>677747</v>
+        <v>857155</v>
       </c>
     </row>
     <row r="69" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -2658,7 +2839,7 @@
       </c>
       <c r="I69" s="11">
         <f t="shared" si="2"/>
-        <v>677747</v>
+        <v>857155</v>
       </c>
     </row>
     <row r="70" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -2674,7 +2855,7 @@
       </c>
       <c r="I70" s="11">
         <f t="shared" si="2"/>
-        <v>677747</v>
+        <v>857155</v>
       </c>
     </row>
     <row r="71" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -2690,7 +2871,7 @@
       </c>
       <c r="I71" s="11">
         <f t="shared" si="2"/>
-        <v>677747</v>
+        <v>857155</v>
       </c>
     </row>
     <row r="72" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -2705,8 +2886,8 @@
         <v>0</v>
       </c>
       <c r="I72" s="11">
-        <f t="shared" ref="I72:I135" si="5">I71+H72</f>
-        <v>677747</v>
+        <f t="shared" ref="I72:I135" si="7">I71+H72</f>
+        <v>857155</v>
       </c>
     </row>
     <row r="73" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -2721,8 +2902,8 @@
         <v>0</v>
       </c>
       <c r="I73" s="11">
-        <f t="shared" si="5"/>
-        <v>677747</v>
+        <f t="shared" si="7"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="74" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -2737,8 +2918,8 @@
         <v>0</v>
       </c>
       <c r="I74" s="11">
-        <f t="shared" si="5"/>
-        <v>677747</v>
+        <f t="shared" si="7"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="75" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -2753,8 +2934,8 @@
         <v>0</v>
       </c>
       <c r="I75" s="11">
-        <f t="shared" si="5"/>
-        <v>677747</v>
+        <f t="shared" si="7"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="76" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -2769,8 +2950,8 @@
         <v>0</v>
       </c>
       <c r="I76" s="11">
-        <f t="shared" si="5"/>
-        <v>677747</v>
+        <f t="shared" si="7"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="77" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -2785,8 +2966,8 @@
         <v>0</v>
       </c>
       <c r="I77" s="11">
-        <f t="shared" si="5"/>
-        <v>677747</v>
+        <f t="shared" si="7"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="78" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -2801,8 +2982,8 @@
         <v>0</v>
       </c>
       <c r="I78" s="11">
-        <f t="shared" si="5"/>
-        <v>677747</v>
+        <f t="shared" si="7"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="79" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -2817,8 +2998,8 @@
         <v>0</v>
       </c>
       <c r="I79" s="11">
-        <f t="shared" si="5"/>
-        <v>677747</v>
+        <f t="shared" si="7"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="80" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -2833,8 +3014,8 @@
         <v>0</v>
       </c>
       <c r="I80" s="11">
-        <f t="shared" si="5"/>
-        <v>677747</v>
+        <f t="shared" si="7"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="81" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -2849,8 +3030,8 @@
         <v>0</v>
       </c>
       <c r="I81" s="11">
-        <f t="shared" si="5"/>
-        <v>677747</v>
+        <f t="shared" si="7"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="82" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -2865,8 +3046,8 @@
         <v>0</v>
       </c>
       <c r="I82" s="11">
-        <f t="shared" si="5"/>
-        <v>677747</v>
+        <f t="shared" si="7"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="83" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -2881,8 +3062,8 @@
         <v>0</v>
       </c>
       <c r="I83" s="11">
-        <f t="shared" si="5"/>
-        <v>677747</v>
+        <f t="shared" si="7"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="84" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -2897,8 +3078,8 @@
         <v>0</v>
       </c>
       <c r="I84" s="11">
-        <f t="shared" si="5"/>
-        <v>677747</v>
+        <f t="shared" si="7"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="85" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -2913,8 +3094,8 @@
         <v>0</v>
       </c>
       <c r="I85" s="11">
-        <f t="shared" si="5"/>
-        <v>677747</v>
+        <f t="shared" si="7"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="86" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -2929,8 +3110,8 @@
         <v>0</v>
       </c>
       <c r="I86" s="11">
-        <f t="shared" si="5"/>
-        <v>677747</v>
+        <f t="shared" si="7"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="87" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -2945,8 +3126,8 @@
         <v>0</v>
       </c>
       <c r="I87" s="11">
-        <f t="shared" si="5"/>
-        <v>677747</v>
+        <f t="shared" si="7"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="88" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -2961,8 +3142,8 @@
         <v>0</v>
       </c>
       <c r="I88" s="11">
-        <f t="shared" si="5"/>
-        <v>677747</v>
+        <f t="shared" si="7"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="89" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -2977,8 +3158,8 @@
         <v>0</v>
       </c>
       <c r="I89" s="11">
-        <f t="shared" si="5"/>
-        <v>677747</v>
+        <f t="shared" si="7"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="90" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -2993,8 +3174,8 @@
         <v>0</v>
       </c>
       <c r="I90" s="11">
-        <f t="shared" si="5"/>
-        <v>677747</v>
+        <f t="shared" si="7"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="91" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3009,8 +3190,8 @@
         <v>0</v>
       </c>
       <c r="I91" s="11">
-        <f t="shared" si="5"/>
-        <v>677747</v>
+        <f t="shared" si="7"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="92" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3025,8 +3206,8 @@
         <v>0</v>
       </c>
       <c r="I92" s="11">
-        <f t="shared" si="5"/>
-        <v>677747</v>
+        <f t="shared" si="7"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="93" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3041,8 +3222,8 @@
         <v>0</v>
       </c>
       <c r="I93" s="11">
-        <f t="shared" si="5"/>
-        <v>677747</v>
+        <f t="shared" si="7"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="94" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3057,8 +3238,8 @@
         <v>0</v>
       </c>
       <c r="I94" s="11">
-        <f t="shared" si="5"/>
-        <v>677747</v>
+        <f t="shared" si="7"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="95" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3073,8 +3254,8 @@
         <v>0</v>
       </c>
       <c r="I95" s="11">
-        <f t="shared" si="5"/>
-        <v>677747</v>
+        <f t="shared" si="7"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="96" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3089,8 +3270,8 @@
         <v>0</v>
       </c>
       <c r="I96" s="11">
-        <f t="shared" si="5"/>
-        <v>677747</v>
+        <f t="shared" si="7"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="97" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3105,8 +3286,8 @@
         <v>0</v>
       </c>
       <c r="I97" s="11">
-        <f t="shared" si="5"/>
-        <v>677747</v>
+        <f t="shared" si="7"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="98" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3121,8 +3302,8 @@
         <v>0</v>
       </c>
       <c r="I98" s="11">
-        <f t="shared" si="5"/>
-        <v>677747</v>
+        <f t="shared" si="7"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="99" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3137,8 +3318,8 @@
         <v>0</v>
       </c>
       <c r="I99" s="11">
-        <f t="shared" si="5"/>
-        <v>677747</v>
+        <f t="shared" si="7"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="100" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3149,12 +3330,12 @@
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
       <c r="H100" s="38">
-        <f t="shared" ref="H100:H163" si="6">(E100*F100)+G100</f>
+        <f t="shared" ref="H100:H163" si="8">(E100*F100)+G100</f>
         <v>0</v>
       </c>
       <c r="I100" s="11">
-        <f t="shared" si="5"/>
-        <v>677747</v>
+        <f t="shared" si="7"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="101" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3165,12 +3346,12 @@
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
       <c r="H101" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I101" s="11">
-        <f t="shared" si="5"/>
-        <v>677747</v>
+        <f t="shared" si="7"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="102" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3181,12 +3362,12 @@
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
       <c r="H102" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I102" s="11">
-        <f t="shared" si="5"/>
-        <v>677747</v>
+        <f t="shared" si="7"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="103" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3197,12 +3378,12 @@
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
       <c r="H103" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I103" s="11">
-        <f t="shared" si="5"/>
-        <v>677747</v>
+        <f t="shared" si="7"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="104" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3213,12 +3394,12 @@
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
       <c r="H104" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I104" s="11">
-        <f t="shared" si="5"/>
-        <v>677747</v>
+        <f t="shared" si="7"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="105" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3229,12 +3410,12 @@
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
       <c r="H105" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I105" s="11">
-        <f t="shared" si="5"/>
-        <v>677747</v>
+        <f t="shared" si="7"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="106" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3245,12 +3426,12 @@
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
       <c r="H106" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I106" s="11">
-        <f t="shared" si="5"/>
-        <v>677747</v>
+        <f t="shared" si="7"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="107" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3261,12 +3442,12 @@
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
       <c r="H107" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I107" s="11">
-        <f t="shared" si="5"/>
-        <v>677747</v>
+        <f t="shared" si="7"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="108" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3277,12 +3458,12 @@
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
       <c r="H108" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I108" s="11">
-        <f t="shared" si="5"/>
-        <v>677747</v>
+        <f t="shared" si="7"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="109" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3293,12 +3474,12 @@
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
       <c r="H109" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I109" s="11">
-        <f t="shared" si="5"/>
-        <v>677747</v>
+        <f t="shared" si="7"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="110" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3309,12 +3490,12 @@
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
       <c r="H110" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I110" s="11">
-        <f t="shared" si="5"/>
-        <v>677747</v>
+        <f t="shared" si="7"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="111" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3325,12 +3506,12 @@
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
       <c r="H111" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I111" s="11">
-        <f t="shared" si="5"/>
-        <v>677747</v>
+        <f t="shared" si="7"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="112" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3341,12 +3522,12 @@
       <c r="F112" s="3"/>
       <c r="G112" s="3"/>
       <c r="H112" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I112" s="11">
-        <f t="shared" si="5"/>
-        <v>677747</v>
+        <f t="shared" si="7"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="113" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3357,12 +3538,12 @@
       <c r="F113" s="3"/>
       <c r="G113" s="3"/>
       <c r="H113" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I113" s="11">
-        <f t="shared" si="5"/>
-        <v>677747</v>
+        <f t="shared" si="7"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="114" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3373,12 +3554,12 @@
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
       <c r="H114" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I114" s="11">
-        <f t="shared" si="5"/>
-        <v>677747</v>
+        <f t="shared" si="7"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="115" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3389,12 +3570,12 @@
       <c r="F115" s="3"/>
       <c r="G115" s="3"/>
       <c r="H115" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I115" s="11">
-        <f t="shared" si="5"/>
-        <v>677747</v>
+        <f t="shared" si="7"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="116" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3405,12 +3586,12 @@
       <c r="F116" s="3"/>
       <c r="G116" s="3"/>
       <c r="H116" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I116" s="11">
-        <f t="shared" si="5"/>
-        <v>677747</v>
+        <f t="shared" si="7"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="117" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3421,12 +3602,12 @@
       <c r="F117" s="3"/>
       <c r="G117" s="3"/>
       <c r="H117" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I117" s="11">
-        <f t="shared" si="5"/>
-        <v>677747</v>
+        <f t="shared" si="7"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="118" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3437,12 +3618,12 @@
       <c r="F118" s="3"/>
       <c r="G118" s="3"/>
       <c r="H118" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I118" s="11">
-        <f t="shared" si="5"/>
-        <v>677747</v>
+        <f t="shared" si="7"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="119" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3453,12 +3634,12 @@
       <c r="F119" s="3"/>
       <c r="G119" s="3"/>
       <c r="H119" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I119" s="11">
-        <f t="shared" si="5"/>
-        <v>677747</v>
+        <f t="shared" si="7"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="120" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3469,12 +3650,12 @@
       <c r="F120" s="3"/>
       <c r="G120" s="3"/>
       <c r="H120" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I120" s="11">
-        <f t="shared" si="5"/>
-        <v>677747</v>
+        <f t="shared" si="7"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="121" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3485,12 +3666,12 @@
       <c r="F121" s="3"/>
       <c r="G121" s="3"/>
       <c r="H121" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I121" s="11">
-        <f t="shared" si="5"/>
-        <v>677747</v>
+        <f t="shared" si="7"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="122" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3501,12 +3682,12 @@
       <c r="F122" s="3"/>
       <c r="G122" s="3"/>
       <c r="H122" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I122" s="11">
-        <f t="shared" si="5"/>
-        <v>677747</v>
+        <f t="shared" si="7"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="123" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3517,12 +3698,12 @@
       <c r="F123" s="3"/>
       <c r="G123" s="3"/>
       <c r="H123" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I123" s="11">
-        <f t="shared" si="5"/>
-        <v>677747</v>
+        <f t="shared" si="7"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="124" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3533,12 +3714,12 @@
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
       <c r="H124" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I124" s="11">
-        <f t="shared" si="5"/>
-        <v>677747</v>
+        <f t="shared" si="7"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="125" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3549,12 +3730,12 @@
       <c r="F125" s="3"/>
       <c r="G125" s="3"/>
       <c r="H125" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I125" s="11">
-        <f t="shared" si="5"/>
-        <v>677747</v>
+        <f t="shared" si="7"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="126" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3565,12 +3746,12 @@
       <c r="F126" s="3"/>
       <c r="G126" s="3"/>
       <c r="H126" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I126" s="11">
-        <f t="shared" si="5"/>
-        <v>677747</v>
+        <f t="shared" si="7"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="127" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3581,12 +3762,12 @@
       <c r="F127" s="3"/>
       <c r="G127" s="3"/>
       <c r="H127" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I127" s="11">
-        <f t="shared" si="5"/>
-        <v>677747</v>
+        <f t="shared" si="7"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="128" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3597,12 +3778,12 @@
       <c r="F128" s="3"/>
       <c r="G128" s="3"/>
       <c r="H128" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I128" s="11">
-        <f t="shared" si="5"/>
-        <v>677747</v>
+        <f t="shared" si="7"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="129" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3613,12 +3794,12 @@
       <c r="F129" s="3"/>
       <c r="G129" s="3"/>
       <c r="H129" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I129" s="11">
-        <f t="shared" si="5"/>
-        <v>677747</v>
+        <f t="shared" si="7"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="130" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3629,12 +3810,12 @@
       <c r="F130" s="3"/>
       <c r="G130" s="3"/>
       <c r="H130" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I130" s="11">
-        <f t="shared" si="5"/>
-        <v>677747</v>
+        <f t="shared" si="7"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="131" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3645,12 +3826,12 @@
       <c r="F131" s="3"/>
       <c r="G131" s="3"/>
       <c r="H131" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I131" s="11">
-        <f t="shared" si="5"/>
-        <v>677747</v>
+        <f t="shared" si="7"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="132" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3661,12 +3842,12 @@
       <c r="F132" s="3"/>
       <c r="G132" s="3"/>
       <c r="H132" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I132" s="11">
-        <f t="shared" si="5"/>
-        <v>677747</v>
+        <f t="shared" si="7"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="133" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3677,12 +3858,12 @@
       <c r="F133" s="3"/>
       <c r="G133" s="3"/>
       <c r="H133" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I133" s="11">
-        <f t="shared" si="5"/>
-        <v>677747</v>
+        <f t="shared" si="7"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="134" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3693,12 +3874,12 @@
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
       <c r="H134" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I134" s="11">
-        <f t="shared" si="5"/>
-        <v>677747</v>
+        <f t="shared" si="7"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="135" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3709,12 +3890,12 @@
       <c r="F135" s="3"/>
       <c r="G135" s="3"/>
       <c r="H135" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I135" s="11">
-        <f t="shared" si="5"/>
-        <v>677747</v>
+        <f t="shared" si="7"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="136" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3725,12 +3906,12 @@
       <c r="F136" s="3"/>
       <c r="G136" s="3"/>
       <c r="H136" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I136" s="11">
-        <f t="shared" ref="I136:I199" si="7">I135+H136</f>
-        <v>677747</v>
+        <f t="shared" ref="I136:I199" si="9">I135+H136</f>
+        <v>857155</v>
       </c>
     </row>
     <row r="137" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3741,12 +3922,12 @@
       <c r="F137" s="3"/>
       <c r="G137" s="3"/>
       <c r="H137" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I137" s="11">
-        <f t="shared" si="7"/>
-        <v>677747</v>
+        <f t="shared" si="9"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="138" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3757,12 +3938,12 @@
       <c r="F138" s="3"/>
       <c r="G138" s="3"/>
       <c r="H138" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I138" s="11">
-        <f t="shared" si="7"/>
-        <v>677747</v>
+        <f t="shared" si="9"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="139" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3773,12 +3954,12 @@
       <c r="F139" s="3"/>
       <c r="G139" s="3"/>
       <c r="H139" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I139" s="11">
-        <f t="shared" si="7"/>
-        <v>677747</v>
+        <f t="shared" si="9"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="140" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3789,12 +3970,12 @@
       <c r="F140" s="3"/>
       <c r="G140" s="3"/>
       <c r="H140" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I140" s="11">
-        <f t="shared" si="7"/>
-        <v>677747</v>
+        <f t="shared" si="9"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="141" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3805,12 +3986,12 @@
       <c r="F141" s="3"/>
       <c r="G141" s="3"/>
       <c r="H141" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I141" s="11">
-        <f t="shared" si="7"/>
-        <v>677747</v>
+        <f t="shared" si="9"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="142" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3821,12 +4002,12 @@
       <c r="F142" s="3"/>
       <c r="G142" s="3"/>
       <c r="H142" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I142" s="11">
-        <f t="shared" si="7"/>
-        <v>677747</v>
+        <f t="shared" si="9"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="143" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3837,12 +4018,12 @@
       <c r="F143" s="3"/>
       <c r="G143" s="3"/>
       <c r="H143" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I143" s="11">
-        <f t="shared" si="7"/>
-        <v>677747</v>
+        <f t="shared" si="9"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="144" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3853,12 +4034,12 @@
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
       <c r="H144" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I144" s="11">
-        <f t="shared" si="7"/>
-        <v>677747</v>
+        <f t="shared" si="9"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="145" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3869,12 +4050,12 @@
       <c r="F145" s="3"/>
       <c r="G145" s="3"/>
       <c r="H145" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I145" s="11">
-        <f t="shared" si="7"/>
-        <v>677747</v>
+        <f t="shared" si="9"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="146" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3885,12 +4066,12 @@
       <c r="F146" s="3"/>
       <c r="G146" s="3"/>
       <c r="H146" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I146" s="11">
-        <f t="shared" si="7"/>
-        <v>677747</v>
+        <f t="shared" si="9"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="147" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3901,12 +4082,12 @@
       <c r="F147" s="3"/>
       <c r="G147" s="3"/>
       <c r="H147" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I147" s="11">
-        <f t="shared" si="7"/>
-        <v>677747</v>
+        <f t="shared" si="9"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="148" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3917,12 +4098,12 @@
       <c r="F148" s="3"/>
       <c r="G148" s="3"/>
       <c r="H148" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I148" s="11">
-        <f t="shared" si="7"/>
-        <v>677747</v>
+        <f t="shared" si="9"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="149" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3933,12 +4114,12 @@
       <c r="F149" s="3"/>
       <c r="G149" s="3"/>
       <c r="H149" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I149" s="11">
-        <f t="shared" si="7"/>
-        <v>677747</v>
+        <f t="shared" si="9"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="150" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3949,12 +4130,12 @@
       <c r="F150" s="3"/>
       <c r="G150" s="3"/>
       <c r="H150" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I150" s="11">
-        <f t="shared" si="7"/>
-        <v>677747</v>
+        <f t="shared" si="9"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="151" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3965,12 +4146,12 @@
       <c r="F151" s="3"/>
       <c r="G151" s="3"/>
       <c r="H151" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I151" s="11">
-        <f t="shared" si="7"/>
-        <v>677747</v>
+        <f t="shared" si="9"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="152" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3981,12 +4162,12 @@
       <c r="F152" s="3"/>
       <c r="G152" s="3"/>
       <c r="H152" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I152" s="11">
-        <f t="shared" si="7"/>
-        <v>677747</v>
+        <f t="shared" si="9"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="153" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3997,12 +4178,12 @@
       <c r="F153" s="3"/>
       <c r="G153" s="3"/>
       <c r="H153" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I153" s="11">
-        <f t="shared" si="7"/>
-        <v>677747</v>
+        <f t="shared" si="9"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="154" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4013,12 +4194,12 @@
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
       <c r="H154" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I154" s="11">
-        <f t="shared" si="7"/>
-        <v>677747</v>
+        <f t="shared" si="9"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="155" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4029,12 +4210,12 @@
       <c r="F155" s="3"/>
       <c r="G155" s="3"/>
       <c r="H155" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I155" s="11">
-        <f t="shared" si="7"/>
-        <v>677747</v>
+        <f t="shared" si="9"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="156" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4045,12 +4226,12 @@
       <c r="F156" s="3"/>
       <c r="G156" s="3"/>
       <c r="H156" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I156" s="11">
-        <f t="shared" si="7"/>
-        <v>677747</v>
+        <f t="shared" si="9"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="157" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4061,12 +4242,12 @@
       <c r="F157" s="3"/>
       <c r="G157" s="3"/>
       <c r="H157" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I157" s="11">
-        <f t="shared" si="7"/>
-        <v>677747</v>
+        <f t="shared" si="9"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="158" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4077,12 +4258,12 @@
       <c r="F158" s="3"/>
       <c r="G158" s="3"/>
       <c r="H158" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I158" s="11">
-        <f t="shared" si="7"/>
-        <v>677747</v>
+        <f t="shared" si="9"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="159" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4093,12 +4274,12 @@
       <c r="F159" s="3"/>
       <c r="G159" s="3"/>
       <c r="H159" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I159" s="11">
-        <f t="shared" si="7"/>
-        <v>677747</v>
+        <f t="shared" si="9"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="160" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4109,12 +4290,12 @@
       <c r="F160" s="3"/>
       <c r="G160" s="3"/>
       <c r="H160" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I160" s="11">
-        <f t="shared" si="7"/>
-        <v>677747</v>
+        <f t="shared" si="9"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="161" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4125,12 +4306,12 @@
       <c r="F161" s="3"/>
       <c r="G161" s="3"/>
       <c r="H161" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I161" s="11">
-        <f t="shared" si="7"/>
-        <v>677747</v>
+        <f t="shared" si="9"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="162" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4141,12 +4322,12 @@
       <c r="F162" s="3"/>
       <c r="G162" s="3"/>
       <c r="H162" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I162" s="11">
-        <f t="shared" si="7"/>
-        <v>677747</v>
+        <f t="shared" si="9"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="163" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4157,12 +4338,12 @@
       <c r="F163" s="3"/>
       <c r="G163" s="3"/>
       <c r="H163" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I163" s="11">
-        <f t="shared" si="7"/>
-        <v>677747</v>
+        <f t="shared" si="9"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="164" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4173,12 +4354,12 @@
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
       <c r="H164" s="38">
-        <f t="shared" ref="H164:H202" si="8">(E164*F164)+G164</f>
+        <f t="shared" ref="H164:H202" si="10">(E164*F164)+G164</f>
         <v>0</v>
       </c>
       <c r="I164" s="11">
-        <f t="shared" si="7"/>
-        <v>677747</v>
+        <f t="shared" si="9"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="165" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4189,12 +4370,12 @@
       <c r="F165" s="3"/>
       <c r="G165" s="3"/>
       <c r="H165" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I165" s="11">
-        <f t="shared" si="7"/>
-        <v>677747</v>
+        <f t="shared" si="9"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="166" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4205,12 +4386,12 @@
       <c r="F166" s="3"/>
       <c r="G166" s="3"/>
       <c r="H166" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I166" s="11">
-        <f t="shared" si="7"/>
-        <v>677747</v>
+        <f t="shared" si="9"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="167" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4221,12 +4402,12 @@
       <c r="F167" s="3"/>
       <c r="G167" s="3"/>
       <c r="H167" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I167" s="11">
-        <f t="shared" si="7"/>
-        <v>677747</v>
+        <f t="shared" si="9"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="168" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4237,12 +4418,12 @@
       <c r="F168" s="3"/>
       <c r="G168" s="3"/>
       <c r="H168" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I168" s="11">
-        <f t="shared" si="7"/>
-        <v>677747</v>
+        <f t="shared" si="9"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="169" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4253,12 +4434,12 @@
       <c r="F169" s="3"/>
       <c r="G169" s="3"/>
       <c r="H169" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I169" s="11">
-        <f t="shared" si="7"/>
-        <v>677747</v>
+        <f t="shared" si="9"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="170" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4269,12 +4450,12 @@
       <c r="F170" s="3"/>
       <c r="G170" s="3"/>
       <c r="H170" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I170" s="11">
-        <f t="shared" si="7"/>
-        <v>677747</v>
+        <f t="shared" si="9"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="171" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4285,12 +4466,12 @@
       <c r="F171" s="3"/>
       <c r="G171" s="3"/>
       <c r="H171" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I171" s="11">
-        <f t="shared" si="7"/>
-        <v>677747</v>
+        <f t="shared" si="9"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="172" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4301,12 +4482,12 @@
       <c r="F172" s="3"/>
       <c r="G172" s="3"/>
       <c r="H172" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I172" s="11">
-        <f t="shared" si="7"/>
-        <v>677747</v>
+        <f t="shared" si="9"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="173" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4317,12 +4498,12 @@
       <c r="F173" s="3"/>
       <c r="G173" s="3"/>
       <c r="H173" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I173" s="11">
-        <f t="shared" si="7"/>
-        <v>677747</v>
+        <f t="shared" si="9"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="174" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4333,12 +4514,12 @@
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
       <c r="H174" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I174" s="11">
-        <f t="shared" si="7"/>
-        <v>677747</v>
+        <f t="shared" si="9"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="175" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4349,12 +4530,12 @@
       <c r="F175" s="3"/>
       <c r="G175" s="3"/>
       <c r="H175" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I175" s="11">
-        <f t="shared" si="7"/>
-        <v>677747</v>
+        <f t="shared" si="9"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="176" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4365,12 +4546,12 @@
       <c r="F176" s="3"/>
       <c r="G176" s="3"/>
       <c r="H176" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I176" s="11">
-        <f t="shared" si="7"/>
-        <v>677747</v>
+        <f t="shared" si="9"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="177" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4381,12 +4562,12 @@
       <c r="F177" s="3"/>
       <c r="G177" s="3"/>
       <c r="H177" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I177" s="11">
-        <f t="shared" si="7"/>
-        <v>677747</v>
+        <f t="shared" si="9"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="178" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4397,12 +4578,12 @@
       <c r="F178" s="3"/>
       <c r="G178" s="3"/>
       <c r="H178" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I178" s="11">
-        <f t="shared" si="7"/>
-        <v>677747</v>
+        <f t="shared" si="9"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="179" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4413,12 +4594,12 @@
       <c r="F179" s="3"/>
       <c r="G179" s="3"/>
       <c r="H179" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I179" s="11">
-        <f t="shared" si="7"/>
-        <v>677747</v>
+        <f t="shared" si="9"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="180" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4429,12 +4610,12 @@
       <c r="F180" s="3"/>
       <c r="G180" s="3"/>
       <c r="H180" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I180" s="11">
-        <f t="shared" si="7"/>
-        <v>677747</v>
+        <f t="shared" si="9"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="181" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4445,12 +4626,12 @@
       <c r="F181" s="3"/>
       <c r="G181" s="3"/>
       <c r="H181" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I181" s="11">
-        <f t="shared" si="7"/>
-        <v>677747</v>
+        <f t="shared" si="9"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="182" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4461,12 +4642,12 @@
       <c r="F182" s="3"/>
       <c r="G182" s="3"/>
       <c r="H182" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I182" s="11">
-        <f t="shared" si="7"/>
-        <v>677747</v>
+        <f t="shared" si="9"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="183" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4477,12 +4658,12 @@
       <c r="F183" s="3"/>
       <c r="G183" s="3"/>
       <c r="H183" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I183" s="11">
-        <f t="shared" si="7"/>
-        <v>677747</v>
+        <f t="shared" si="9"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="184" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4493,12 +4674,12 @@
       <c r="F184" s="3"/>
       <c r="G184" s="3"/>
       <c r="H184" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I184" s="11">
-        <f t="shared" si="7"/>
-        <v>677747</v>
+        <f t="shared" si="9"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="185" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4509,12 +4690,12 @@
       <c r="F185" s="3"/>
       <c r="G185" s="3"/>
       <c r="H185" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I185" s="11">
-        <f t="shared" si="7"/>
-        <v>677747</v>
+        <f t="shared" si="9"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="186" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4525,12 +4706,12 @@
       <c r="F186" s="3"/>
       <c r="G186" s="3"/>
       <c r="H186" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I186" s="11">
-        <f t="shared" si="7"/>
-        <v>677747</v>
+        <f t="shared" si="9"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="187" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4541,12 +4722,12 @@
       <c r="F187" s="3"/>
       <c r="G187" s="3"/>
       <c r="H187" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I187" s="11">
-        <f t="shared" si="7"/>
-        <v>677747</v>
+        <f t="shared" si="9"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="188" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4557,12 +4738,12 @@
       <c r="F188" s="3"/>
       <c r="G188" s="3"/>
       <c r="H188" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I188" s="11">
-        <f t="shared" si="7"/>
-        <v>677747</v>
+        <f t="shared" si="9"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="189" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4573,12 +4754,12 @@
       <c r="F189" s="3"/>
       <c r="G189" s="3"/>
       <c r="H189" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I189" s="11">
-        <f t="shared" si="7"/>
-        <v>677747</v>
+        <f t="shared" si="9"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="190" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4589,12 +4770,12 @@
       <c r="F190" s="3"/>
       <c r="G190" s="3"/>
       <c r="H190" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I190" s="11">
-        <f t="shared" si="7"/>
-        <v>677747</v>
+        <f t="shared" si="9"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="191" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4605,12 +4786,12 @@
       <c r="F191" s="3"/>
       <c r="G191" s="3"/>
       <c r="H191" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I191" s="11">
-        <f t="shared" si="7"/>
-        <v>677747</v>
+        <f t="shared" si="9"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="192" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4621,12 +4802,12 @@
       <c r="F192" s="3"/>
       <c r="G192" s="3"/>
       <c r="H192" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I192" s="11">
-        <f t="shared" si="7"/>
-        <v>677747</v>
+        <f t="shared" si="9"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="193" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4637,12 +4818,12 @@
       <c r="F193" s="3"/>
       <c r="G193" s="3"/>
       <c r="H193" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I193" s="11">
-        <f t="shared" si="7"/>
-        <v>677747</v>
+        <f t="shared" si="9"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="194" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4653,12 +4834,12 @@
       <c r="F194" s="3"/>
       <c r="G194" s="3"/>
       <c r="H194" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I194" s="11">
-        <f t="shared" si="7"/>
-        <v>677747</v>
+        <f t="shared" si="9"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="195" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4669,12 +4850,12 @@
       <c r="F195" s="3"/>
       <c r="G195" s="3"/>
       <c r="H195" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I195" s="11">
-        <f t="shared" si="7"/>
-        <v>677747</v>
+        <f t="shared" si="9"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="196" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4685,12 +4866,12 @@
       <c r="F196" s="3"/>
       <c r="G196" s="3"/>
       <c r="H196" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I196" s="11">
-        <f t="shared" si="7"/>
-        <v>677747</v>
+        <f t="shared" si="9"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="197" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4701,12 +4882,12 @@
       <c r="F197" s="3"/>
       <c r="G197" s="3"/>
       <c r="H197" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I197" s="11">
-        <f t="shared" si="7"/>
-        <v>677747</v>
+        <f t="shared" si="9"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="198" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4717,12 +4898,12 @@
       <c r="F198" s="3"/>
       <c r="G198" s="3"/>
       <c r="H198" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I198" s="11">
-        <f t="shared" si="7"/>
-        <v>677747</v>
+        <f t="shared" si="9"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="199" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4733,12 +4914,12 @@
       <c r="F199" s="3"/>
       <c r="G199" s="3"/>
       <c r="H199" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I199" s="11">
-        <f t="shared" si="7"/>
-        <v>677747</v>
+        <f t="shared" si="9"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="200" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4749,12 +4930,12 @@
       <c r="F200" s="3"/>
       <c r="G200" s="3"/>
       <c r="H200" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I200" s="11">
-        <f t="shared" ref="I200:I202" si="9">I199+H200</f>
-        <v>677747</v>
+        <f t="shared" ref="I200:I202" si="11">I199+H200</f>
+        <v>857155</v>
       </c>
     </row>
     <row r="201" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4765,12 +4946,12 @@
       <c r="F201" s="3"/>
       <c r="G201" s="3"/>
       <c r="H201" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I201" s="11">
-        <f t="shared" si="9"/>
-        <v>677747</v>
+        <f t="shared" si="11"/>
+        <v>857155</v>
       </c>
     </row>
     <row r="202" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4781,12 +4962,12 @@
       <c r="F202" s="3"/>
       <c r="G202" s="3"/>
       <c r="H202" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I202" s="11">
-        <f t="shared" si="9"/>
-        <v>677747</v>
+        <f t="shared" si="11"/>
+        <v>857155</v>
       </c>
     </row>
   </sheetData>
@@ -4865,12 +5046,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="37.200000000000003" x14ac:dyDescent="0.75">
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
     </row>
     <row r="3" spans="2:5" ht="21" x14ac:dyDescent="0.3">
       <c r="B3" s="55" t="s">
@@ -5030,7 +5211,7 @@
   <dimension ref="B3:E542"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:E8"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5041,12 +5222,12 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:5" ht="31.2" x14ac:dyDescent="0.6">
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
     </row>
     <row r="4" spans="2:5" ht="21" x14ac:dyDescent="0.3">
       <c r="B4" s="55" t="s">
@@ -5103,7 +5284,7 @@
         <v>45134</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="11">
+      <c r="D8" s="40">
         <v>20000</v>
       </c>
       <c r="E8" s="11">
@@ -9931,7 +10112,7 @@
   <dimension ref="B2:K356"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O75" sqref="O75"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9940,18 +10121,19 @@
     <col min="3" max="3" width="32.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.88671875" customWidth="1"/>
     <col min="5" max="5" width="15.77734375" customWidth="1"/>
-    <col min="6" max="7" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="31.2" x14ac:dyDescent="0.6">
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="89" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
     </row>
     <row r="3" spans="2:11" ht="21" x14ac:dyDescent="0.3">
       <c r="B3" s="55" t="s">
@@ -9972,9 +10154,9 @@
       <c r="G3" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="75"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
     </row>
     <row r="4" spans="2:11" ht="21" x14ac:dyDescent="0.3">
       <c r="B4" s="4"/>
@@ -9987,23 +10169,23 @@
       </c>
     </row>
     <row r="5" spans="2:11" ht="21" x14ac:dyDescent="0.4">
-      <c r="B5" s="74">
-        <v>45137</v>
+      <c r="B5" s="71">
+        <v>45139</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F5" s="11">
         <f>((1500*D5)+(1000*E5)+1500)</f>
-        <v>1500</v>
+        <v>11000</v>
       </c>
       <c r="G5" s="11">
         <f>G4+F5</f>
-        <v>1500</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="21" x14ac:dyDescent="0.4">
@@ -10016,8 +10198,8 @@
         <v>1500</v>
       </c>
       <c r="G6" s="11">
-        <f t="shared" ref="G6:G66" si="1">G5+F6</f>
-        <v>3000</v>
+        <f t="shared" ref="G6:G69" si="1">G5+F6</f>
+        <v>12500</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="21" x14ac:dyDescent="0.4">
@@ -10031,7 +10213,7 @@
       </c>
       <c r="G7" s="11">
         <f t="shared" si="1"/>
-        <v>4500</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="21" x14ac:dyDescent="0.4">
@@ -10045,7 +10227,7 @@
       </c>
       <c r="G8" s="11">
         <f t="shared" si="1"/>
-        <v>6000</v>
+        <v>15500</v>
       </c>
     </row>
     <row r="9" spans="2:11" ht="21" x14ac:dyDescent="0.4">
@@ -10059,7 +10241,7 @@
       </c>
       <c r="G9" s="11">
         <f t="shared" si="1"/>
-        <v>7500</v>
+        <v>17000</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="21" x14ac:dyDescent="0.4">
@@ -10073,7 +10255,7 @@
       </c>
       <c r="G10" s="11">
         <f t="shared" si="1"/>
-        <v>9000</v>
+        <v>18500</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="21" x14ac:dyDescent="0.4">
@@ -10087,7 +10269,7 @@
       </c>
       <c r="G11" s="11">
         <f t="shared" si="1"/>
-        <v>10500</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="12" spans="2:11" ht="21" x14ac:dyDescent="0.4">
@@ -10101,7 +10283,7 @@
       </c>
       <c r="G12" s="11">
         <f t="shared" si="1"/>
-        <v>12000</v>
+        <v>21500</v>
       </c>
     </row>
     <row r="13" spans="2:11" ht="21" x14ac:dyDescent="0.4">
@@ -10115,7 +10297,7 @@
       </c>
       <c r="G13" s="11">
         <f t="shared" si="1"/>
-        <v>13500</v>
+        <v>23000</v>
       </c>
     </row>
     <row r="14" spans="2:11" ht="21" x14ac:dyDescent="0.4">
@@ -10129,7 +10311,7 @@
       </c>
       <c r="G14" s="11">
         <f t="shared" si="1"/>
-        <v>15000</v>
+        <v>24500</v>
       </c>
     </row>
     <row r="15" spans="2:11" ht="21" x14ac:dyDescent="0.4">
@@ -10143,7 +10325,7 @@
       </c>
       <c r="G15" s="11">
         <f t="shared" si="1"/>
-        <v>16500</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="16" spans="2:11" ht="21" x14ac:dyDescent="0.4">
@@ -10157,7 +10339,7 @@
       </c>
       <c r="G16" s="11">
         <f t="shared" si="1"/>
-        <v>18000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="21" x14ac:dyDescent="0.4">
@@ -10171,7 +10353,7 @@
       </c>
       <c r="G17" s="11">
         <f t="shared" si="1"/>
-        <v>19500</v>
+        <v>29000</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="21" x14ac:dyDescent="0.4">
@@ -10185,7 +10367,7 @@
       </c>
       <c r="G18" s="11">
         <f t="shared" si="1"/>
-        <v>21000</v>
+        <v>30500</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="21" x14ac:dyDescent="0.4">
@@ -10199,7 +10381,7 @@
       </c>
       <c r="G19" s="11">
         <f t="shared" si="1"/>
-        <v>22500</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="21" x14ac:dyDescent="0.4">
@@ -10213,7 +10395,7 @@
       </c>
       <c r="G20" s="11">
         <f t="shared" si="1"/>
-        <v>24000</v>
+        <v>33500</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="21" x14ac:dyDescent="0.4">
@@ -10227,7 +10409,7 @@
       </c>
       <c r="G21" s="11">
         <f t="shared" si="1"/>
-        <v>25500</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="21" x14ac:dyDescent="0.4">
@@ -10241,7 +10423,7 @@
       </c>
       <c r="G22" s="11">
         <f t="shared" si="1"/>
-        <v>27000</v>
+        <v>36500</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="21" x14ac:dyDescent="0.4">
@@ -10255,7 +10437,7 @@
       </c>
       <c r="G23" s="11">
         <f t="shared" si="1"/>
-        <v>28500</v>
+        <v>38000</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="21" x14ac:dyDescent="0.4">
@@ -10269,7 +10451,7 @@
       </c>
       <c r="G24" s="11">
         <f t="shared" si="1"/>
-        <v>30000</v>
+        <v>39500</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="21" x14ac:dyDescent="0.4">
@@ -10283,7 +10465,7 @@
       </c>
       <c r="G25" s="11">
         <f t="shared" si="1"/>
-        <v>31500</v>
+        <v>41000</v>
       </c>
     </row>
     <row r="26" spans="2:7" ht="21" x14ac:dyDescent="0.4">
@@ -10297,7 +10479,7 @@
       </c>
       <c r="G26" s="11">
         <f t="shared" si="1"/>
-        <v>33000</v>
+        <v>42500</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="21" x14ac:dyDescent="0.4">
@@ -10311,7 +10493,7 @@
       </c>
       <c r="G27" s="11">
         <f t="shared" si="1"/>
-        <v>34500</v>
+        <v>44000</v>
       </c>
     </row>
     <row r="28" spans="2:7" ht="21" x14ac:dyDescent="0.4">
@@ -10325,7 +10507,7 @@
       </c>
       <c r="G28" s="11">
         <f t="shared" si="1"/>
-        <v>36000</v>
+        <v>45500</v>
       </c>
     </row>
     <row r="29" spans="2:7" ht="21" x14ac:dyDescent="0.4">
@@ -10339,7 +10521,7 @@
       </c>
       <c r="G29" s="11">
         <f t="shared" si="1"/>
-        <v>37500</v>
+        <v>47000</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="21" x14ac:dyDescent="0.4">
@@ -10353,7 +10535,7 @@
       </c>
       <c r="G30" s="11">
         <f t="shared" si="1"/>
-        <v>39000</v>
+        <v>48500</v>
       </c>
     </row>
     <row r="31" spans="2:7" ht="21" x14ac:dyDescent="0.4">
@@ -10367,7 +10549,7 @@
       </c>
       <c r="G31" s="11">
         <f t="shared" si="1"/>
-        <v>40500</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="32" spans="2:7" ht="21" x14ac:dyDescent="0.4">
@@ -10381,7 +10563,7 @@
       </c>
       <c r="G32" s="11">
         <f t="shared" si="1"/>
-        <v>42000</v>
+        <v>51500</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="21" x14ac:dyDescent="0.4">
@@ -10395,7 +10577,7 @@
       </c>
       <c r="G33" s="11">
         <f t="shared" si="1"/>
-        <v>43500</v>
+        <v>53000</v>
       </c>
     </row>
     <row r="34" spans="2:7" ht="21" x14ac:dyDescent="0.4">
@@ -10409,7 +10591,7 @@
       </c>
       <c r="G34" s="11">
         <f t="shared" si="1"/>
-        <v>45000</v>
+        <v>54500</v>
       </c>
     </row>
     <row r="35" spans="2:7" ht="21" x14ac:dyDescent="0.4">
@@ -10423,7 +10605,7 @@
       </c>
       <c r="G35" s="11">
         <f t="shared" si="1"/>
-        <v>46500</v>
+        <v>56000</v>
       </c>
     </row>
     <row r="36" spans="2:7" ht="21" x14ac:dyDescent="0.4">
@@ -10437,7 +10619,7 @@
       </c>
       <c r="G36" s="11">
         <f t="shared" si="1"/>
-        <v>48000</v>
+        <v>57500</v>
       </c>
     </row>
     <row r="37" spans="2:7" ht="21" x14ac:dyDescent="0.4">
@@ -10451,7 +10633,7 @@
       </c>
       <c r="G37" s="11">
         <f t="shared" si="1"/>
-        <v>49500</v>
+        <v>59000</v>
       </c>
     </row>
     <row r="38" spans="2:7" ht="21" x14ac:dyDescent="0.4">
@@ -10465,7 +10647,7 @@
       </c>
       <c r="G38" s="11">
         <f t="shared" si="1"/>
-        <v>51000</v>
+        <v>60500</v>
       </c>
     </row>
     <row r="39" spans="2:7" ht="21" x14ac:dyDescent="0.4">
@@ -10479,7 +10661,7 @@
       </c>
       <c r="G39" s="11">
         <f t="shared" si="1"/>
-        <v>52500</v>
+        <v>62000</v>
       </c>
     </row>
     <row r="40" spans="2:7" ht="21" x14ac:dyDescent="0.4">
@@ -10493,7 +10675,7 @@
       </c>
       <c r="G40" s="11">
         <f t="shared" si="1"/>
-        <v>54000</v>
+        <v>63500</v>
       </c>
     </row>
     <row r="41" spans="2:7" ht="21" x14ac:dyDescent="0.4">
@@ -10507,7 +10689,7 @@
       </c>
       <c r="G41" s="11">
         <f t="shared" si="1"/>
-        <v>55500</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="42" spans="2:7" ht="21" x14ac:dyDescent="0.4">
@@ -10521,7 +10703,7 @@
       </c>
       <c r="G42" s="11">
         <f t="shared" si="1"/>
-        <v>57000</v>
+        <v>66500</v>
       </c>
     </row>
     <row r="43" spans="2:7" ht="21" x14ac:dyDescent="0.4">
@@ -10535,7 +10717,7 @@
       </c>
       <c r="G43" s="11">
         <f t="shared" si="1"/>
-        <v>58500</v>
+        <v>68000</v>
       </c>
     </row>
     <row r="44" spans="2:7" ht="21" x14ac:dyDescent="0.4">
@@ -10549,7 +10731,7 @@
       </c>
       <c r="G44" s="11">
         <f t="shared" si="1"/>
-        <v>60000</v>
+        <v>69500</v>
       </c>
     </row>
     <row r="45" spans="2:7" ht="21" x14ac:dyDescent="0.4">
@@ -10563,7 +10745,7 @@
       </c>
       <c r="G45" s="11">
         <f t="shared" si="1"/>
-        <v>61500</v>
+        <v>71000</v>
       </c>
     </row>
     <row r="46" spans="2:7" ht="21" x14ac:dyDescent="0.4">
@@ -10577,7 +10759,7 @@
       </c>
       <c r="G46" s="11">
         <f t="shared" si="1"/>
-        <v>63000</v>
+        <v>72500</v>
       </c>
     </row>
     <row r="47" spans="2:7" ht="21" x14ac:dyDescent="0.4">
@@ -10591,7 +10773,7 @@
       </c>
       <c r="G47" s="11">
         <f t="shared" si="1"/>
-        <v>64500</v>
+        <v>74000</v>
       </c>
     </row>
     <row r="48" spans="2:7" ht="21" x14ac:dyDescent="0.4">
@@ -10605,7 +10787,7 @@
       </c>
       <c r="G48" s="11">
         <f t="shared" si="1"/>
-        <v>66000</v>
+        <v>75500</v>
       </c>
     </row>
     <row r="49" spans="2:7" ht="21" x14ac:dyDescent="0.4">
@@ -10619,7 +10801,7 @@
       </c>
       <c r="G49" s="11">
         <f t="shared" si="1"/>
-        <v>67500</v>
+        <v>77000</v>
       </c>
     </row>
     <row r="50" spans="2:7" ht="21" x14ac:dyDescent="0.4">
@@ -10633,7 +10815,7 @@
       </c>
       <c r="G50" s="11">
         <f t="shared" si="1"/>
-        <v>69000</v>
+        <v>78500</v>
       </c>
     </row>
     <row r="51" spans="2:7" ht="21" x14ac:dyDescent="0.4">
@@ -10647,7 +10829,7 @@
       </c>
       <c r="G51" s="11">
         <f t="shared" si="1"/>
-        <v>70500</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="52" spans="2:7" ht="21" x14ac:dyDescent="0.4">
@@ -10661,7 +10843,7 @@
       </c>
       <c r="G52" s="11">
         <f t="shared" si="1"/>
-        <v>72000</v>
+        <v>81500</v>
       </c>
     </row>
     <row r="53" spans="2:7" ht="21" x14ac:dyDescent="0.4">
@@ -10675,7 +10857,7 @@
       </c>
       <c r="G53" s="11">
         <f t="shared" si="1"/>
-        <v>73500</v>
+        <v>83000</v>
       </c>
     </row>
     <row r="54" spans="2:7" ht="21" x14ac:dyDescent="0.4">
@@ -10689,7 +10871,7 @@
       </c>
       <c r="G54" s="11">
         <f t="shared" si="1"/>
-        <v>75000</v>
+        <v>84500</v>
       </c>
     </row>
     <row r="55" spans="2:7" ht="21" x14ac:dyDescent="0.4">
@@ -10703,7 +10885,7 @@
       </c>
       <c r="G55" s="11">
         <f t="shared" si="1"/>
-        <v>76500</v>
+        <v>86000</v>
       </c>
     </row>
     <row r="56" spans="2:7" ht="21" x14ac:dyDescent="0.4">
@@ -10717,7 +10899,7 @@
       </c>
       <c r="G56" s="11">
         <f t="shared" si="1"/>
-        <v>78000</v>
+        <v>87500</v>
       </c>
     </row>
     <row r="57" spans="2:7" ht="21" x14ac:dyDescent="0.4">
@@ -10731,7 +10913,7 @@
       </c>
       <c r="G57" s="11">
         <f t="shared" si="1"/>
-        <v>79500</v>
+        <v>89000</v>
       </c>
     </row>
     <row r="58" spans="2:7" ht="21" x14ac:dyDescent="0.4">
@@ -10745,7 +10927,7 @@
       </c>
       <c r="G58" s="11">
         <f t="shared" si="1"/>
-        <v>81000</v>
+        <v>90500</v>
       </c>
     </row>
     <row r="59" spans="2:7" ht="21" x14ac:dyDescent="0.4">
@@ -10759,7 +10941,7 @@
       </c>
       <c r="G59" s="11">
         <f t="shared" si="1"/>
-        <v>82500</v>
+        <v>92000</v>
       </c>
     </row>
     <row r="60" spans="2:7" ht="21" x14ac:dyDescent="0.4">
@@ -10773,7 +10955,7 @@
       </c>
       <c r="G60" s="11">
         <f t="shared" si="1"/>
-        <v>84000</v>
+        <v>93500</v>
       </c>
     </row>
     <row r="61" spans="2:7" ht="21" x14ac:dyDescent="0.4">
@@ -10787,7 +10969,7 @@
       </c>
       <c r="G61" s="11">
         <f t="shared" si="1"/>
-        <v>85500</v>
+        <v>95000</v>
       </c>
     </row>
     <row r="62" spans="2:7" ht="21" x14ac:dyDescent="0.4">
@@ -10801,7 +10983,7 @@
       </c>
       <c r="G62" s="11">
         <f t="shared" si="1"/>
-        <v>87000</v>
+        <v>96500</v>
       </c>
     </row>
     <row r="63" spans="2:7" ht="21" x14ac:dyDescent="0.4">
@@ -10815,7 +10997,7 @@
       </c>
       <c r="G63" s="11">
         <f t="shared" si="1"/>
-        <v>88500</v>
+        <v>98000</v>
       </c>
     </row>
     <row r="64" spans="2:7" ht="21" x14ac:dyDescent="0.4">
@@ -10829,7 +11011,7 @@
       </c>
       <c r="G64" s="11">
         <f t="shared" si="1"/>
-        <v>90000</v>
+        <v>99500</v>
       </c>
     </row>
     <row r="65" spans="2:7" ht="21" x14ac:dyDescent="0.4">
@@ -10843,7 +11025,7 @@
       </c>
       <c r="G65" s="11">
         <f t="shared" si="1"/>
-        <v>91500</v>
+        <v>101000</v>
       </c>
     </row>
     <row r="66" spans="2:7" ht="21" x14ac:dyDescent="0.4">
@@ -10857,7 +11039,7 @@
       </c>
       <c r="G66" s="11">
         <f t="shared" si="1"/>
-        <v>93000</v>
+        <v>102500</v>
       </c>
     </row>
     <row r="67" spans="2:7" ht="21" x14ac:dyDescent="0.4">
@@ -10869,7 +11051,10 @@
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="G67" s="1"/>
+      <c r="G67" s="11">
+        <f t="shared" si="1"/>
+        <v>104000</v>
+      </c>
     </row>
     <row r="68" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B68" s="1"/>
@@ -10880,7 +11065,10 @@
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="G68" s="1"/>
+      <c r="G68" s="11">
+        <f t="shared" si="1"/>
+        <v>105500</v>
+      </c>
     </row>
     <row r="69" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B69" s="1"/>
@@ -10891,7 +11079,10 @@
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="G69" s="1"/>
+      <c r="G69" s="11">
+        <f t="shared" si="1"/>
+        <v>107000</v>
+      </c>
     </row>
     <row r="70" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B70" s="1"/>
@@ -10899,10 +11090,13 @@
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="11">
-        <f t="shared" ref="F70:F85" si="2">((1500*D70)+(1000*E70)+1500)</f>
-        <v>1500</v>
-      </c>
-      <c r="G70" s="1"/>
+        <f t="shared" ref="F70:F133" si="2">((1500*D70)+(1000*E70)+1500)</f>
+        <v>1500</v>
+      </c>
+      <c r="G70" s="11">
+        <f t="shared" ref="G70:G133" si="3">G69+F70</f>
+        <v>108500</v>
+      </c>
     </row>
     <row r="71" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B71" s="1"/>
@@ -10913,7 +11107,10 @@
         <f t="shared" si="2"/>
         <v>1500</v>
       </c>
-      <c r="G71" s="1"/>
+      <c r="G71" s="11">
+        <f t="shared" si="3"/>
+        <v>110000</v>
+      </c>
     </row>
     <row r="72" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B72" s="1"/>
@@ -10924,7 +11121,10 @@
         <f t="shared" si="2"/>
         <v>1500</v>
       </c>
-      <c r="G72" s="1"/>
+      <c r="G72" s="11">
+        <f t="shared" si="3"/>
+        <v>111500</v>
+      </c>
     </row>
     <row r="73" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B73" s="1"/>
@@ -10935,7 +11135,10 @@
         <f t="shared" si="2"/>
         <v>1500</v>
       </c>
-      <c r="G73" s="1"/>
+      <c r="G73" s="11">
+        <f t="shared" si="3"/>
+        <v>113000</v>
+      </c>
     </row>
     <row r="74" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B74" s="1"/>
@@ -10946,7 +11149,10 @@
         <f t="shared" si="2"/>
         <v>1500</v>
       </c>
-      <c r="G74" s="1"/>
+      <c r="G74" s="11">
+        <f t="shared" si="3"/>
+        <v>114500</v>
+      </c>
     </row>
     <row r="75" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B75" s="1"/>
@@ -10957,7 +11163,10 @@
         <f t="shared" si="2"/>
         <v>1500</v>
       </c>
-      <c r="G75" s="1"/>
+      <c r="G75" s="11">
+        <f t="shared" si="3"/>
+        <v>116000</v>
+      </c>
     </row>
     <row r="76" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B76" s="1"/>
@@ -10968,7 +11177,10 @@
         <f t="shared" si="2"/>
         <v>1500</v>
       </c>
-      <c r="G76" s="1"/>
+      <c r="G76" s="11">
+        <f t="shared" si="3"/>
+        <v>117500</v>
+      </c>
     </row>
     <row r="77" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B77" s="1"/>
@@ -10979,7 +11191,10 @@
         <f t="shared" si="2"/>
         <v>1500</v>
       </c>
-      <c r="G77" s="1"/>
+      <c r="G77" s="11">
+        <f t="shared" si="3"/>
+        <v>119000</v>
+      </c>
     </row>
     <row r="78" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B78" s="1"/>
@@ -10990,7 +11205,10 @@
         <f t="shared" si="2"/>
         <v>1500</v>
       </c>
-      <c r="G78" s="1"/>
+      <c r="G78" s="11">
+        <f t="shared" si="3"/>
+        <v>120500</v>
+      </c>
     </row>
     <row r="79" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B79" s="1"/>
@@ -11001,7 +11219,10 @@
         <f t="shared" si="2"/>
         <v>1500</v>
       </c>
-      <c r="G79" s="1"/>
+      <c r="G79" s="11">
+        <f t="shared" si="3"/>
+        <v>122000</v>
+      </c>
     </row>
     <row r="80" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B80" s="1"/>
@@ -11012,7 +11233,10 @@
         <f t="shared" si="2"/>
         <v>1500</v>
       </c>
-      <c r="G80" s="1"/>
+      <c r="G80" s="11">
+        <f t="shared" si="3"/>
+        <v>123500</v>
+      </c>
     </row>
     <row r="81" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B81" s="1"/>
@@ -11023,7 +11247,10 @@
         <f t="shared" si="2"/>
         <v>1500</v>
       </c>
-      <c r="G81" s="1"/>
+      <c r="G81" s="11">
+        <f t="shared" si="3"/>
+        <v>125000</v>
+      </c>
     </row>
     <row r="82" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B82" s="1"/>
@@ -11034,7 +11261,10 @@
         <f t="shared" si="2"/>
         <v>1500</v>
       </c>
-      <c r="G82" s="1"/>
+      <c r="G82" s="11">
+        <f t="shared" si="3"/>
+        <v>126500</v>
+      </c>
     </row>
     <row r="83" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B83" s="1"/>
@@ -11045,7 +11275,10 @@
         <f t="shared" si="2"/>
         <v>1500</v>
       </c>
-      <c r="G83" s="1"/>
+      <c r="G83" s="11">
+        <f t="shared" si="3"/>
+        <v>128000</v>
+      </c>
     </row>
     <row r="84" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B84" s="1"/>
@@ -11056,7 +11289,10 @@
         <f t="shared" si="2"/>
         <v>1500</v>
       </c>
-      <c r="G84" s="1"/>
+      <c r="G84" s="11">
+        <f t="shared" si="3"/>
+        <v>129500</v>
+      </c>
     </row>
     <row r="85" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B85" s="1"/>
@@ -11067,2175 +11303,3804 @@
         <f t="shared" si="2"/>
         <v>1500</v>
       </c>
-      <c r="G85" s="1"/>
-    </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G85" s="11">
+        <f t="shared" si="3"/>
+        <v>131000</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
-      <c r="G86" s="1"/>
-    </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F86" s="11">
+        <f t="shared" si="2"/>
+        <v>1500</v>
+      </c>
+      <c r="G86" s="11">
+        <f t="shared" si="3"/>
+        <v>132500</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
-      <c r="G87" s="1"/>
-    </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F87" s="11">
+        <f t="shared" si="2"/>
+        <v>1500</v>
+      </c>
+      <c r="G87" s="11">
+        <f t="shared" si="3"/>
+        <v>134000</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
-      <c r="G88" s="1"/>
-    </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F88" s="11">
+        <f t="shared" si="2"/>
+        <v>1500</v>
+      </c>
+      <c r="G88" s="11">
+        <f t="shared" si="3"/>
+        <v>135500</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
-      <c r="G89" s="1"/>
-    </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F89" s="11">
+        <f t="shared" si="2"/>
+        <v>1500</v>
+      </c>
+      <c r="G89" s="11">
+        <f t="shared" si="3"/>
+        <v>137000</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
-      <c r="G90" s="1"/>
-    </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F90" s="11">
+        <f t="shared" si="2"/>
+        <v>1500</v>
+      </c>
+      <c r="G90" s="11">
+        <f t="shared" si="3"/>
+        <v>138500</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
-      <c r="G91" s="1"/>
-    </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F91" s="11">
+        <f t="shared" si="2"/>
+        <v>1500</v>
+      </c>
+      <c r="G91" s="11">
+        <f t="shared" si="3"/>
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
-      <c r="G92" s="1"/>
-    </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F92" s="11">
+        <f t="shared" si="2"/>
+        <v>1500</v>
+      </c>
+      <c r="G92" s="11">
+        <f t="shared" si="3"/>
+        <v>141500</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
-      <c r="G93" s="1"/>
-    </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F93" s="11">
+        <f t="shared" si="2"/>
+        <v>1500</v>
+      </c>
+      <c r="G93" s="11">
+        <f t="shared" si="3"/>
+        <v>143000</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
-      <c r="G94" s="1"/>
-    </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F94" s="11">
+        <f t="shared" si="2"/>
+        <v>1500</v>
+      </c>
+      <c r="G94" s="11">
+        <f t="shared" si="3"/>
+        <v>144500</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
-      <c r="G95" s="1"/>
-    </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F95" s="11">
+        <f t="shared" si="2"/>
+        <v>1500</v>
+      </c>
+      <c r="G95" s="11">
+        <f t="shared" si="3"/>
+        <v>146000</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
-      <c r="G96" s="1"/>
-    </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F96" s="11">
+        <f t="shared" si="2"/>
+        <v>1500</v>
+      </c>
+      <c r="G96" s="11">
+        <f t="shared" si="3"/>
+        <v>147500</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
-      <c r="G97" s="1"/>
-    </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F97" s="11">
+        <f t="shared" si="2"/>
+        <v>1500</v>
+      </c>
+      <c r="G97" s="11">
+        <f t="shared" si="3"/>
+        <v>149000</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
-      <c r="G98" s="1"/>
-    </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F98" s="11">
+        <f t="shared" si="2"/>
+        <v>1500</v>
+      </c>
+      <c r="G98" s="11">
+        <f t="shared" si="3"/>
+        <v>150500</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
-      <c r="F99" s="1"/>
-      <c r="G99" s="1"/>
-    </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F99" s="11">
+        <f t="shared" si="2"/>
+        <v>1500</v>
+      </c>
+      <c r="G99" s="11">
+        <f t="shared" si="3"/>
+        <v>152000</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
-      <c r="F100" s="1"/>
-      <c r="G100" s="1"/>
-    </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F100" s="11">
+        <f t="shared" si="2"/>
+        <v>1500</v>
+      </c>
+      <c r="G100" s="11">
+        <f t="shared" si="3"/>
+        <v>153500</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
-      <c r="G101" s="1"/>
-    </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F101" s="11">
+        <f t="shared" si="2"/>
+        <v>1500</v>
+      </c>
+      <c r="G101" s="11">
+        <f t="shared" si="3"/>
+        <v>155000</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
-      <c r="F102" s="1"/>
-      <c r="G102" s="1"/>
-    </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F102" s="11">
+        <f t="shared" si="2"/>
+        <v>1500</v>
+      </c>
+      <c r="G102" s="11">
+        <f t="shared" si="3"/>
+        <v>156500</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
-      <c r="F103" s="1"/>
-      <c r="G103" s="1"/>
-    </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F103" s="11">
+        <f t="shared" si="2"/>
+        <v>1500</v>
+      </c>
+      <c r="G103" s="11">
+        <f t="shared" si="3"/>
+        <v>158000</v>
+      </c>
+    </row>
+    <row r="104" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
-      <c r="F104" s="1"/>
-      <c r="G104" s="1"/>
-    </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F104" s="11">
+        <f t="shared" si="2"/>
+        <v>1500</v>
+      </c>
+      <c r="G104" s="11">
+        <f t="shared" si="3"/>
+        <v>159500</v>
+      </c>
+    </row>
+    <row r="105" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
-      <c r="F105" s="1"/>
-      <c r="G105" s="1"/>
-    </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F105" s="11">
+        <f t="shared" si="2"/>
+        <v>1500</v>
+      </c>
+      <c r="G105" s="11">
+        <f t="shared" si="3"/>
+        <v>161000</v>
+      </c>
+    </row>
+    <row r="106" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
-      <c r="F106" s="1"/>
-      <c r="G106" s="1"/>
-    </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F106" s="11">
+        <f t="shared" si="2"/>
+        <v>1500</v>
+      </c>
+      <c r="G106" s="11">
+        <f t="shared" si="3"/>
+        <v>162500</v>
+      </c>
+    </row>
+    <row r="107" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
-      <c r="F107" s="1"/>
-      <c r="G107" s="1"/>
-    </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F107" s="11">
+        <f t="shared" si="2"/>
+        <v>1500</v>
+      </c>
+      <c r="G107" s="11">
+        <f t="shared" si="3"/>
+        <v>164000</v>
+      </c>
+    </row>
+    <row r="108" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
-      <c r="F108" s="1"/>
-      <c r="G108" s="1"/>
-    </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F108" s="11">
+        <f t="shared" si="2"/>
+        <v>1500</v>
+      </c>
+      <c r="G108" s="11">
+        <f t="shared" si="3"/>
+        <v>165500</v>
+      </c>
+    </row>
+    <row r="109" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
-      <c r="F109" s="1"/>
-      <c r="G109" s="1"/>
-    </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F109" s="11">
+        <f t="shared" si="2"/>
+        <v>1500</v>
+      </c>
+      <c r="G109" s="11">
+        <f t="shared" si="3"/>
+        <v>167000</v>
+      </c>
+    </row>
+    <row r="110" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
-      <c r="F110" s="1"/>
-      <c r="G110" s="1"/>
-    </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F110" s="11">
+        <f t="shared" si="2"/>
+        <v>1500</v>
+      </c>
+      <c r="G110" s="11">
+        <f t="shared" si="3"/>
+        <v>168500</v>
+      </c>
+    </row>
+    <row r="111" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
-      <c r="F111" s="1"/>
-      <c r="G111" s="1"/>
-    </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F111" s="11">
+        <f t="shared" si="2"/>
+        <v>1500</v>
+      </c>
+      <c r="G111" s="11">
+        <f t="shared" si="3"/>
+        <v>170000</v>
+      </c>
+    </row>
+    <row r="112" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
-      <c r="F112" s="1"/>
-      <c r="G112" s="1"/>
-    </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F112" s="11">
+        <f t="shared" si="2"/>
+        <v>1500</v>
+      </c>
+      <c r="G112" s="11">
+        <f t="shared" si="3"/>
+        <v>171500</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
-      <c r="F113" s="1"/>
-      <c r="G113" s="1"/>
-    </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F113" s="11">
+        <f t="shared" si="2"/>
+        <v>1500</v>
+      </c>
+      <c r="G113" s="11">
+        <f t="shared" si="3"/>
+        <v>173000</v>
+      </c>
+    </row>
+    <row r="114" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
-      <c r="F114" s="1"/>
-      <c r="G114" s="1"/>
-    </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F114" s="11">
+        <f t="shared" si="2"/>
+        <v>1500</v>
+      </c>
+      <c r="G114" s="11">
+        <f t="shared" si="3"/>
+        <v>174500</v>
+      </c>
+    </row>
+    <row r="115" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
-      <c r="F115" s="1"/>
-      <c r="G115" s="1"/>
-    </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F115" s="11">
+        <f t="shared" si="2"/>
+        <v>1500</v>
+      </c>
+      <c r="G115" s="11">
+        <f t="shared" si="3"/>
+        <v>176000</v>
+      </c>
+    </row>
+    <row r="116" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
-      <c r="F116" s="1"/>
-      <c r="G116" s="1"/>
-    </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F116" s="11">
+        <f t="shared" si="2"/>
+        <v>1500</v>
+      </c>
+      <c r="G116" s="11">
+        <f t="shared" si="3"/>
+        <v>177500</v>
+      </c>
+    </row>
+    <row r="117" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
-      <c r="F117" s="1"/>
-      <c r="G117" s="1"/>
-    </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F117" s="11">
+        <f t="shared" si="2"/>
+        <v>1500</v>
+      </c>
+      <c r="G117" s="11">
+        <f t="shared" si="3"/>
+        <v>179000</v>
+      </c>
+    </row>
+    <row r="118" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
-      <c r="F118" s="1"/>
-      <c r="G118" s="1"/>
-    </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F118" s="11">
+        <f t="shared" si="2"/>
+        <v>1500</v>
+      </c>
+      <c r="G118" s="11">
+        <f t="shared" si="3"/>
+        <v>180500</v>
+      </c>
+    </row>
+    <row r="119" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
-      <c r="F119" s="1"/>
-      <c r="G119" s="1"/>
-    </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F119" s="11">
+        <f t="shared" si="2"/>
+        <v>1500</v>
+      </c>
+      <c r="G119" s="11">
+        <f t="shared" si="3"/>
+        <v>182000</v>
+      </c>
+    </row>
+    <row r="120" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
-      <c r="F120" s="1"/>
-      <c r="G120" s="1"/>
-    </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F120" s="11">
+        <f t="shared" si="2"/>
+        <v>1500</v>
+      </c>
+      <c r="G120" s="11">
+        <f t="shared" si="3"/>
+        <v>183500</v>
+      </c>
+    </row>
+    <row r="121" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
-      <c r="F121" s="1"/>
-      <c r="G121" s="1"/>
-    </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F121" s="11">
+        <f t="shared" si="2"/>
+        <v>1500</v>
+      </c>
+      <c r="G121" s="11">
+        <f t="shared" si="3"/>
+        <v>185000</v>
+      </c>
+    </row>
+    <row r="122" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
-      <c r="F122" s="1"/>
-      <c r="G122" s="1"/>
-    </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F122" s="11">
+        <f t="shared" si="2"/>
+        <v>1500</v>
+      </c>
+      <c r="G122" s="11">
+        <f t="shared" si="3"/>
+        <v>186500</v>
+      </c>
+    </row>
+    <row r="123" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
-      <c r="F123" s="1"/>
-      <c r="G123" s="1"/>
-    </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F123" s="11">
+        <f t="shared" si="2"/>
+        <v>1500</v>
+      </c>
+      <c r="G123" s="11">
+        <f t="shared" si="3"/>
+        <v>188000</v>
+      </c>
+    </row>
+    <row r="124" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
-      <c r="F124" s="1"/>
-      <c r="G124" s="1"/>
-    </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F124" s="11">
+        <f t="shared" si="2"/>
+        <v>1500</v>
+      </c>
+      <c r="G124" s="11">
+        <f t="shared" si="3"/>
+        <v>189500</v>
+      </c>
+    </row>
+    <row r="125" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
-      <c r="F125" s="1"/>
-      <c r="G125" s="1"/>
-    </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F125" s="11">
+        <f t="shared" si="2"/>
+        <v>1500</v>
+      </c>
+      <c r="G125" s="11">
+        <f t="shared" si="3"/>
+        <v>191000</v>
+      </c>
+    </row>
+    <row r="126" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
-      <c r="F126" s="1"/>
-      <c r="G126" s="1"/>
-    </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F126" s="11">
+        <f t="shared" si="2"/>
+        <v>1500</v>
+      </c>
+      <c r="G126" s="11">
+        <f t="shared" si="3"/>
+        <v>192500</v>
+      </c>
+    </row>
+    <row r="127" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
-      <c r="F127" s="1"/>
-      <c r="G127" s="1"/>
-    </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F127" s="11">
+        <f t="shared" si="2"/>
+        <v>1500</v>
+      </c>
+      <c r="G127" s="11">
+        <f t="shared" si="3"/>
+        <v>194000</v>
+      </c>
+    </row>
+    <row r="128" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
-      <c r="F128" s="1"/>
-      <c r="G128" s="1"/>
-    </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F128" s="11">
+        <f t="shared" si="2"/>
+        <v>1500</v>
+      </c>
+      <c r="G128" s="11">
+        <f t="shared" si="3"/>
+        <v>195500</v>
+      </c>
+    </row>
+    <row r="129" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
-      <c r="F129" s="1"/>
-      <c r="G129" s="1"/>
-    </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F129" s="11">
+        <f t="shared" si="2"/>
+        <v>1500</v>
+      </c>
+      <c r="G129" s="11">
+        <f t="shared" si="3"/>
+        <v>197000</v>
+      </c>
+    </row>
+    <row r="130" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
-      <c r="F130" s="1"/>
-      <c r="G130" s="1"/>
-    </row>
-    <row r="131" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F130" s="11">
+        <f t="shared" si="2"/>
+        <v>1500</v>
+      </c>
+      <c r="G130" s="11">
+        <f t="shared" si="3"/>
+        <v>198500</v>
+      </c>
+    </row>
+    <row r="131" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
-      <c r="F131" s="1"/>
-      <c r="G131" s="1"/>
-    </row>
-    <row r="132" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F131" s="11">
+        <f t="shared" si="2"/>
+        <v>1500</v>
+      </c>
+      <c r="G131" s="11">
+        <f t="shared" si="3"/>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="132" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
-      <c r="F132" s="1"/>
-      <c r="G132" s="1"/>
-    </row>
-    <row r="133" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F132" s="11">
+        <f t="shared" si="2"/>
+        <v>1500</v>
+      </c>
+      <c r="G132" s="11">
+        <f t="shared" si="3"/>
+        <v>201500</v>
+      </c>
+    </row>
+    <row r="133" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
-      <c r="F133" s="1"/>
-      <c r="G133" s="1"/>
-    </row>
-    <row r="134" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F133" s="11">
+        <f t="shared" si="2"/>
+        <v>1500</v>
+      </c>
+      <c r="G133" s="11">
+        <f t="shared" si="3"/>
+        <v>203000</v>
+      </c>
+    </row>
+    <row r="134" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
-      <c r="F134" s="1"/>
-      <c r="G134" s="1"/>
-    </row>
-    <row r="135" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F134" s="11">
+        <f t="shared" ref="F134:F197" si="4">((1500*D134)+(1000*E134)+1500)</f>
+        <v>1500</v>
+      </c>
+      <c r="G134" s="11">
+        <f t="shared" ref="G134:G197" si="5">G133+F134</f>
+        <v>204500</v>
+      </c>
+    </row>
+    <row r="135" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
-      <c r="F135" s="1"/>
-      <c r="G135" s="1"/>
-    </row>
-    <row r="136" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F135" s="11">
+        <f t="shared" si="4"/>
+        <v>1500</v>
+      </c>
+      <c r="G135" s="11">
+        <f t="shared" si="5"/>
+        <v>206000</v>
+      </c>
+    </row>
+    <row r="136" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
-      <c r="F136" s="1"/>
-      <c r="G136" s="1"/>
-    </row>
-    <row r="137" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F136" s="11">
+        <f t="shared" si="4"/>
+        <v>1500</v>
+      </c>
+      <c r="G136" s="11">
+        <f t="shared" si="5"/>
+        <v>207500</v>
+      </c>
+    </row>
+    <row r="137" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
-      <c r="F137" s="1"/>
-      <c r="G137" s="1"/>
-    </row>
-    <row r="138" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F137" s="11">
+        <f t="shared" si="4"/>
+        <v>1500</v>
+      </c>
+      <c r="G137" s="11">
+        <f t="shared" si="5"/>
+        <v>209000</v>
+      </c>
+    </row>
+    <row r="138" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
-      <c r="F138" s="1"/>
-      <c r="G138" s="1"/>
-    </row>
-    <row r="139" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F138" s="11">
+        <f t="shared" si="4"/>
+        <v>1500</v>
+      </c>
+      <c r="G138" s="11">
+        <f t="shared" si="5"/>
+        <v>210500</v>
+      </c>
+    </row>
+    <row r="139" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
-      <c r="F139" s="1"/>
-      <c r="G139" s="1"/>
-    </row>
-    <row r="140" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F139" s="11">
+        <f t="shared" si="4"/>
+        <v>1500</v>
+      </c>
+      <c r="G139" s="11">
+        <f t="shared" si="5"/>
+        <v>212000</v>
+      </c>
+    </row>
+    <row r="140" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
-      <c r="F140" s="1"/>
-      <c r="G140" s="1"/>
-    </row>
-    <row r="141" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F140" s="11">
+        <f t="shared" si="4"/>
+        <v>1500</v>
+      </c>
+      <c r="G140" s="11">
+        <f t="shared" si="5"/>
+        <v>213500</v>
+      </c>
+    </row>
+    <row r="141" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
-      <c r="F141" s="1"/>
-      <c r="G141" s="1"/>
-    </row>
-    <row r="142" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F141" s="11">
+        <f t="shared" si="4"/>
+        <v>1500</v>
+      </c>
+      <c r="G141" s="11">
+        <f t="shared" si="5"/>
+        <v>215000</v>
+      </c>
+    </row>
+    <row r="142" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
-      <c r="F142" s="1"/>
-      <c r="G142" s="1"/>
-    </row>
-    <row r="143" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F142" s="11">
+        <f t="shared" si="4"/>
+        <v>1500</v>
+      </c>
+      <c r="G142" s="11">
+        <f t="shared" si="5"/>
+        <v>216500</v>
+      </c>
+    </row>
+    <row r="143" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
-      <c r="F143" s="1"/>
-      <c r="G143" s="1"/>
-    </row>
-    <row r="144" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F143" s="11">
+        <f t="shared" si="4"/>
+        <v>1500</v>
+      </c>
+      <c r="G143" s="11">
+        <f t="shared" si="5"/>
+        <v>218000</v>
+      </c>
+    </row>
+    <row r="144" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
-      <c r="F144" s="1"/>
-      <c r="G144" s="1"/>
-    </row>
-    <row r="145" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F144" s="11">
+        <f t="shared" si="4"/>
+        <v>1500</v>
+      </c>
+      <c r="G144" s="11">
+        <f t="shared" si="5"/>
+        <v>219500</v>
+      </c>
+    </row>
+    <row r="145" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
-      <c r="F145" s="1"/>
-      <c r="G145" s="1"/>
-    </row>
-    <row r="146" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F145" s="11">
+        <f t="shared" si="4"/>
+        <v>1500</v>
+      </c>
+      <c r="G145" s="11">
+        <f t="shared" si="5"/>
+        <v>221000</v>
+      </c>
+    </row>
+    <row r="146" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
-      <c r="F146" s="1"/>
-      <c r="G146" s="1"/>
-    </row>
-    <row r="147" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F146" s="11">
+        <f t="shared" si="4"/>
+        <v>1500</v>
+      </c>
+      <c r="G146" s="11">
+        <f t="shared" si="5"/>
+        <v>222500</v>
+      </c>
+    </row>
+    <row r="147" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
-      <c r="F147" s="1"/>
-      <c r="G147" s="1"/>
-    </row>
-    <row r="148" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F147" s="11">
+        <f t="shared" si="4"/>
+        <v>1500</v>
+      </c>
+      <c r="G147" s="11">
+        <f t="shared" si="5"/>
+        <v>224000</v>
+      </c>
+    </row>
+    <row r="148" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
-      <c r="F148" s="1"/>
-      <c r="G148" s="1"/>
-    </row>
-    <row r="149" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F148" s="11">
+        <f t="shared" si="4"/>
+        <v>1500</v>
+      </c>
+      <c r="G148" s="11">
+        <f t="shared" si="5"/>
+        <v>225500</v>
+      </c>
+    </row>
+    <row r="149" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
-      <c r="F149" s="1"/>
-      <c r="G149" s="1"/>
-    </row>
-    <row r="150" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F149" s="11">
+        <f t="shared" si="4"/>
+        <v>1500</v>
+      </c>
+      <c r="G149" s="11">
+        <f t="shared" si="5"/>
+        <v>227000</v>
+      </c>
+    </row>
+    <row r="150" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
-      <c r="F150" s="1"/>
-      <c r="G150" s="1"/>
-    </row>
-    <row r="151" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F150" s="11">
+        <f t="shared" si="4"/>
+        <v>1500</v>
+      </c>
+      <c r="G150" s="11">
+        <f t="shared" si="5"/>
+        <v>228500</v>
+      </c>
+    </row>
+    <row r="151" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
-      <c r="F151" s="1"/>
-      <c r="G151" s="1"/>
-    </row>
-    <row r="152" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F151" s="11">
+        <f t="shared" si="4"/>
+        <v>1500</v>
+      </c>
+      <c r="G151" s="11">
+        <f t="shared" si="5"/>
+        <v>230000</v>
+      </c>
+    </row>
+    <row r="152" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
-      <c r="F152" s="1"/>
-      <c r="G152" s="1"/>
-    </row>
-    <row r="153" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F152" s="11">
+        <f t="shared" si="4"/>
+        <v>1500</v>
+      </c>
+      <c r="G152" s="11">
+        <f t="shared" si="5"/>
+        <v>231500</v>
+      </c>
+    </row>
+    <row r="153" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
-      <c r="F153" s="1"/>
-      <c r="G153" s="1"/>
-    </row>
-    <row r="154" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F153" s="11">
+        <f t="shared" si="4"/>
+        <v>1500</v>
+      </c>
+      <c r="G153" s="11">
+        <f t="shared" si="5"/>
+        <v>233000</v>
+      </c>
+    </row>
+    <row r="154" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
-      <c r="F154" s="1"/>
-      <c r="G154" s="1"/>
-    </row>
-    <row r="155" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F154" s="11">
+        <f t="shared" si="4"/>
+        <v>1500</v>
+      </c>
+      <c r="G154" s="11">
+        <f t="shared" si="5"/>
+        <v>234500</v>
+      </c>
+    </row>
+    <row r="155" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
-      <c r="F155" s="1"/>
-      <c r="G155" s="1"/>
-    </row>
-    <row r="156" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F155" s="11">
+        <f t="shared" si="4"/>
+        <v>1500</v>
+      </c>
+      <c r="G155" s="11">
+        <f t="shared" si="5"/>
+        <v>236000</v>
+      </c>
+    </row>
+    <row r="156" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
-      <c r="F156" s="1"/>
-      <c r="G156" s="1"/>
-    </row>
-    <row r="157" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F156" s="11">
+        <f t="shared" si="4"/>
+        <v>1500</v>
+      </c>
+      <c r="G156" s="11">
+        <f t="shared" si="5"/>
+        <v>237500</v>
+      </c>
+    </row>
+    <row r="157" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
-      <c r="F157" s="1"/>
-      <c r="G157" s="1"/>
-    </row>
-    <row r="158" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F157" s="11">
+        <f t="shared" si="4"/>
+        <v>1500</v>
+      </c>
+      <c r="G157" s="11">
+        <f t="shared" si="5"/>
+        <v>239000</v>
+      </c>
+    </row>
+    <row r="158" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
-      <c r="F158" s="1"/>
-      <c r="G158" s="1"/>
-    </row>
-    <row r="159" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F158" s="11">
+        <f t="shared" si="4"/>
+        <v>1500</v>
+      </c>
+      <c r="G158" s="11">
+        <f t="shared" si="5"/>
+        <v>240500</v>
+      </c>
+    </row>
+    <row r="159" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
-      <c r="F159" s="1"/>
-      <c r="G159" s="1"/>
-    </row>
-    <row r="160" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F159" s="11">
+        <f t="shared" si="4"/>
+        <v>1500</v>
+      </c>
+      <c r="G159" s="11">
+        <f t="shared" si="5"/>
+        <v>242000</v>
+      </c>
+    </row>
+    <row r="160" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
-      <c r="F160" s="1"/>
-      <c r="G160" s="1"/>
-    </row>
-    <row r="161" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F160" s="11">
+        <f t="shared" si="4"/>
+        <v>1500</v>
+      </c>
+      <c r="G160" s="11">
+        <f t="shared" si="5"/>
+        <v>243500</v>
+      </c>
+    </row>
+    <row r="161" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
-      <c r="F161" s="1"/>
-      <c r="G161" s="1"/>
-    </row>
-    <row r="162" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F161" s="11">
+        <f t="shared" si="4"/>
+        <v>1500</v>
+      </c>
+      <c r="G161" s="11">
+        <f t="shared" si="5"/>
+        <v>245000</v>
+      </c>
+    </row>
+    <row r="162" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
-      <c r="F162" s="1"/>
-      <c r="G162" s="1"/>
-    </row>
-    <row r="163" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F162" s="11">
+        <f t="shared" si="4"/>
+        <v>1500</v>
+      </c>
+      <c r="G162" s="11">
+        <f t="shared" si="5"/>
+        <v>246500</v>
+      </c>
+    </row>
+    <row r="163" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
-      <c r="F163" s="1"/>
-      <c r="G163" s="1"/>
-    </row>
-    <row r="164" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F163" s="11">
+        <f t="shared" si="4"/>
+        <v>1500</v>
+      </c>
+      <c r="G163" s="11">
+        <f t="shared" si="5"/>
+        <v>248000</v>
+      </c>
+    </row>
+    <row r="164" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
-      <c r="F164" s="1"/>
-      <c r="G164" s="1"/>
-    </row>
-    <row r="165" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F164" s="11">
+        <f t="shared" si="4"/>
+        <v>1500</v>
+      </c>
+      <c r="G164" s="11">
+        <f t="shared" si="5"/>
+        <v>249500</v>
+      </c>
+    </row>
+    <row r="165" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
-      <c r="F165" s="1"/>
-      <c r="G165" s="1"/>
-    </row>
-    <row r="166" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F165" s="11">
+        <f t="shared" si="4"/>
+        <v>1500</v>
+      </c>
+      <c r="G165" s="11">
+        <f t="shared" si="5"/>
+        <v>251000</v>
+      </c>
+    </row>
+    <row r="166" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
-      <c r="F166" s="1"/>
-      <c r="G166" s="1"/>
-    </row>
-    <row r="167" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F166" s="11">
+        <f t="shared" si="4"/>
+        <v>1500</v>
+      </c>
+      <c r="G166" s="11">
+        <f t="shared" si="5"/>
+        <v>252500</v>
+      </c>
+    </row>
+    <row r="167" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
-      <c r="F167" s="1"/>
-      <c r="G167" s="1"/>
-    </row>
-    <row r="168" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F167" s="11">
+        <f t="shared" si="4"/>
+        <v>1500</v>
+      </c>
+      <c r="G167" s="11">
+        <f t="shared" si="5"/>
+        <v>254000</v>
+      </c>
+    </row>
+    <row r="168" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
-      <c r="F168" s="1"/>
-      <c r="G168" s="1"/>
-    </row>
-    <row r="169" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F168" s="11">
+        <f t="shared" si="4"/>
+        <v>1500</v>
+      </c>
+      <c r="G168" s="11">
+        <f t="shared" si="5"/>
+        <v>255500</v>
+      </c>
+    </row>
+    <row r="169" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
-      <c r="F169" s="1"/>
-      <c r="G169" s="1"/>
-    </row>
-    <row r="170" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F169" s="11">
+        <f t="shared" si="4"/>
+        <v>1500</v>
+      </c>
+      <c r="G169" s="11">
+        <f t="shared" si="5"/>
+        <v>257000</v>
+      </c>
+    </row>
+    <row r="170" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
-      <c r="F170" s="1"/>
-      <c r="G170" s="1"/>
-    </row>
-    <row r="171" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F170" s="11">
+        <f t="shared" si="4"/>
+        <v>1500</v>
+      </c>
+      <c r="G170" s="11">
+        <f t="shared" si="5"/>
+        <v>258500</v>
+      </c>
+    </row>
+    <row r="171" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
-      <c r="F171" s="1"/>
-      <c r="G171" s="1"/>
-    </row>
-    <row r="172" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F171" s="11">
+        <f t="shared" si="4"/>
+        <v>1500</v>
+      </c>
+      <c r="G171" s="11">
+        <f t="shared" si="5"/>
+        <v>260000</v>
+      </c>
+    </row>
+    <row r="172" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
-      <c r="F172" s="1"/>
-      <c r="G172" s="1"/>
-    </row>
-    <row r="173" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F172" s="11">
+        <f t="shared" si="4"/>
+        <v>1500</v>
+      </c>
+      <c r="G172" s="11">
+        <f t="shared" si="5"/>
+        <v>261500</v>
+      </c>
+    </row>
+    <row r="173" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
-      <c r="F173" s="1"/>
-      <c r="G173" s="1"/>
-    </row>
-    <row r="174" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F173" s="11">
+        <f t="shared" si="4"/>
+        <v>1500</v>
+      </c>
+      <c r="G173" s="11">
+        <f t="shared" si="5"/>
+        <v>263000</v>
+      </c>
+    </row>
+    <row r="174" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
-      <c r="F174" s="1"/>
-      <c r="G174" s="1"/>
-    </row>
-    <row r="175" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F174" s="11">
+        <f t="shared" si="4"/>
+        <v>1500</v>
+      </c>
+      <c r="G174" s="11">
+        <f t="shared" si="5"/>
+        <v>264500</v>
+      </c>
+    </row>
+    <row r="175" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
-      <c r="F175" s="1"/>
-      <c r="G175" s="1"/>
-    </row>
-    <row r="176" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F175" s="11">
+        <f t="shared" si="4"/>
+        <v>1500</v>
+      </c>
+      <c r="G175" s="11">
+        <f t="shared" si="5"/>
+        <v>266000</v>
+      </c>
+    </row>
+    <row r="176" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
-      <c r="F176" s="1"/>
-      <c r="G176" s="1"/>
-    </row>
-    <row r="177" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F176" s="11">
+        <f t="shared" si="4"/>
+        <v>1500</v>
+      </c>
+      <c r="G176" s="11">
+        <f t="shared" si="5"/>
+        <v>267500</v>
+      </c>
+    </row>
+    <row r="177" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
-      <c r="F177" s="1"/>
-      <c r="G177" s="1"/>
-    </row>
-    <row r="178" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F177" s="11">
+        <f t="shared" si="4"/>
+        <v>1500</v>
+      </c>
+      <c r="G177" s="11">
+        <f t="shared" si="5"/>
+        <v>269000</v>
+      </c>
+    </row>
+    <row r="178" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
-      <c r="F178" s="1"/>
-      <c r="G178" s="1"/>
-    </row>
-    <row r="179" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F178" s="11">
+        <f t="shared" si="4"/>
+        <v>1500</v>
+      </c>
+      <c r="G178" s="11">
+        <f t="shared" si="5"/>
+        <v>270500</v>
+      </c>
+    </row>
+    <row r="179" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
-      <c r="F179" s="1"/>
-      <c r="G179" s="1"/>
-    </row>
-    <row r="180" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F179" s="11">
+        <f t="shared" si="4"/>
+        <v>1500</v>
+      </c>
+      <c r="G179" s="11">
+        <f t="shared" si="5"/>
+        <v>272000</v>
+      </c>
+    </row>
+    <row r="180" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
-      <c r="F180" s="1"/>
-      <c r="G180" s="1"/>
-    </row>
-    <row r="181" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F180" s="11">
+        <f t="shared" si="4"/>
+        <v>1500</v>
+      </c>
+      <c r="G180" s="11">
+        <f t="shared" si="5"/>
+        <v>273500</v>
+      </c>
+    </row>
+    <row r="181" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
-      <c r="F181" s="1"/>
-      <c r="G181" s="1"/>
-    </row>
-    <row r="182" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F181" s="11">
+        <f t="shared" si="4"/>
+        <v>1500</v>
+      </c>
+      <c r="G181" s="11">
+        <f t="shared" si="5"/>
+        <v>275000</v>
+      </c>
+    </row>
+    <row r="182" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
-      <c r="F182" s="1"/>
-      <c r="G182" s="1"/>
-    </row>
-    <row r="183" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F182" s="11">
+        <f t="shared" si="4"/>
+        <v>1500</v>
+      </c>
+      <c r="G182" s="11">
+        <f t="shared" si="5"/>
+        <v>276500</v>
+      </c>
+    </row>
+    <row r="183" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
-      <c r="F183" s="1"/>
-      <c r="G183" s="1"/>
-    </row>
-    <row r="184" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F183" s="11">
+        <f t="shared" si="4"/>
+        <v>1500</v>
+      </c>
+      <c r="G183" s="11">
+        <f t="shared" si="5"/>
+        <v>278000</v>
+      </c>
+    </row>
+    <row r="184" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
-      <c r="F184" s="1"/>
-      <c r="G184" s="1"/>
-    </row>
-    <row r="185" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F184" s="11">
+        <f t="shared" si="4"/>
+        <v>1500</v>
+      </c>
+      <c r="G184" s="11">
+        <f t="shared" si="5"/>
+        <v>279500</v>
+      </c>
+    </row>
+    <row r="185" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
-      <c r="F185" s="1"/>
-      <c r="G185" s="1"/>
-    </row>
-    <row r="186" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F185" s="11">
+        <f t="shared" si="4"/>
+        <v>1500</v>
+      </c>
+      <c r="G185" s="11">
+        <f t="shared" si="5"/>
+        <v>281000</v>
+      </c>
+    </row>
+    <row r="186" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
-      <c r="F186" s="1"/>
-      <c r="G186" s="1"/>
-    </row>
-    <row r="187" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F186" s="11">
+        <f t="shared" si="4"/>
+        <v>1500</v>
+      </c>
+      <c r="G186" s="11">
+        <f t="shared" si="5"/>
+        <v>282500</v>
+      </c>
+    </row>
+    <row r="187" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
-      <c r="F187" s="1"/>
-      <c r="G187" s="1"/>
-    </row>
-    <row r="188" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F187" s="11">
+        <f t="shared" si="4"/>
+        <v>1500</v>
+      </c>
+      <c r="G187" s="11">
+        <f t="shared" si="5"/>
+        <v>284000</v>
+      </c>
+    </row>
+    <row r="188" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
-      <c r="F188" s="1"/>
-      <c r="G188" s="1"/>
-    </row>
-    <row r="189" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F188" s="11">
+        <f t="shared" si="4"/>
+        <v>1500</v>
+      </c>
+      <c r="G188" s="11">
+        <f t="shared" si="5"/>
+        <v>285500</v>
+      </c>
+    </row>
+    <row r="189" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
-      <c r="F189" s="1"/>
-      <c r="G189" s="1"/>
-    </row>
-    <row r="190" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F189" s="11">
+        <f t="shared" si="4"/>
+        <v>1500</v>
+      </c>
+      <c r="G189" s="11">
+        <f t="shared" si="5"/>
+        <v>287000</v>
+      </c>
+    </row>
+    <row r="190" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
-      <c r="F190" s="1"/>
-      <c r="G190" s="1"/>
-    </row>
-    <row r="191" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F190" s="11">
+        <f t="shared" si="4"/>
+        <v>1500</v>
+      </c>
+      <c r="G190" s="11">
+        <f t="shared" si="5"/>
+        <v>288500</v>
+      </c>
+    </row>
+    <row r="191" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
-      <c r="F191" s="1"/>
-      <c r="G191" s="1"/>
-    </row>
-    <row r="192" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F191" s="11">
+        <f t="shared" si="4"/>
+        <v>1500</v>
+      </c>
+      <c r="G191" s="11">
+        <f t="shared" si="5"/>
+        <v>290000</v>
+      </c>
+    </row>
+    <row r="192" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
-      <c r="F192" s="1"/>
-      <c r="G192" s="1"/>
-    </row>
-    <row r="193" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F192" s="11">
+        <f t="shared" si="4"/>
+        <v>1500</v>
+      </c>
+      <c r="G192" s="11">
+        <f t="shared" si="5"/>
+        <v>291500</v>
+      </c>
+    </row>
+    <row r="193" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
-      <c r="F193" s="1"/>
-      <c r="G193" s="1"/>
-    </row>
-    <row r="194" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F193" s="11">
+        <f t="shared" si="4"/>
+        <v>1500</v>
+      </c>
+      <c r="G193" s="11">
+        <f t="shared" si="5"/>
+        <v>293000</v>
+      </c>
+    </row>
+    <row r="194" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
-      <c r="F194" s="1"/>
-      <c r="G194" s="1"/>
-    </row>
-    <row r="195" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F194" s="11">
+        <f t="shared" si="4"/>
+        <v>1500</v>
+      </c>
+      <c r="G194" s="11">
+        <f t="shared" si="5"/>
+        <v>294500</v>
+      </c>
+    </row>
+    <row r="195" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
-      <c r="F195" s="1"/>
-      <c r="G195" s="1"/>
-    </row>
-    <row r="196" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F195" s="11">
+        <f t="shared" si="4"/>
+        <v>1500</v>
+      </c>
+      <c r="G195" s="11">
+        <f t="shared" si="5"/>
+        <v>296000</v>
+      </c>
+    </row>
+    <row r="196" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
-      <c r="F196" s="1"/>
-      <c r="G196" s="1"/>
-    </row>
-    <row r="197" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F196" s="11">
+        <f t="shared" si="4"/>
+        <v>1500</v>
+      </c>
+      <c r="G196" s="11">
+        <f t="shared" si="5"/>
+        <v>297500</v>
+      </c>
+    </row>
+    <row r="197" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
-      <c r="F197" s="1"/>
-      <c r="G197" s="1"/>
-    </row>
-    <row r="198" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F197" s="11">
+        <f t="shared" si="4"/>
+        <v>1500</v>
+      </c>
+      <c r="G197" s="11">
+        <f t="shared" si="5"/>
+        <v>299000</v>
+      </c>
+    </row>
+    <row r="198" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
-      <c r="F198" s="1"/>
-      <c r="G198" s="1"/>
-    </row>
-    <row r="199" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F198" s="11">
+        <f t="shared" ref="F198:F261" si="6">((1500*D198)+(1000*E198)+1500)</f>
+        <v>1500</v>
+      </c>
+      <c r="G198" s="11">
+        <f t="shared" ref="G198:G261" si="7">G197+F198</f>
+        <v>300500</v>
+      </c>
+    </row>
+    <row r="199" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
-      <c r="F199" s="1"/>
-      <c r="G199" s="1"/>
-    </row>
-    <row r="200" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F199" s="11">
+        <f t="shared" si="6"/>
+        <v>1500</v>
+      </c>
+      <c r="G199" s="11">
+        <f t="shared" si="7"/>
+        <v>302000</v>
+      </c>
+    </row>
+    <row r="200" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
-      <c r="F200" s="1"/>
-      <c r="G200" s="1"/>
-    </row>
-    <row r="201" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F200" s="11">
+        <f t="shared" si="6"/>
+        <v>1500</v>
+      </c>
+      <c r="G200" s="11">
+        <f t="shared" si="7"/>
+        <v>303500</v>
+      </c>
+    </row>
+    <row r="201" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
-      <c r="F201" s="1"/>
-      <c r="G201" s="1"/>
-    </row>
-    <row r="202" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F201" s="11">
+        <f t="shared" si="6"/>
+        <v>1500</v>
+      </c>
+      <c r="G201" s="11">
+        <f t="shared" si="7"/>
+        <v>305000</v>
+      </c>
+    </row>
+    <row r="202" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
-      <c r="F202" s="1"/>
-      <c r="G202" s="1"/>
-    </row>
-    <row r="203" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F202" s="11">
+        <f t="shared" si="6"/>
+        <v>1500</v>
+      </c>
+      <c r="G202" s="11">
+        <f t="shared" si="7"/>
+        <v>306500</v>
+      </c>
+    </row>
+    <row r="203" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
-      <c r="F203" s="1"/>
-      <c r="G203" s="1"/>
-    </row>
-    <row r="204" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F203" s="11">
+        <f t="shared" si="6"/>
+        <v>1500</v>
+      </c>
+      <c r="G203" s="11">
+        <f t="shared" si="7"/>
+        <v>308000</v>
+      </c>
+    </row>
+    <row r="204" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
-      <c r="F204" s="1"/>
-      <c r="G204" s="1"/>
-    </row>
-    <row r="205" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F204" s="11">
+        <f t="shared" si="6"/>
+        <v>1500</v>
+      </c>
+      <c r="G204" s="11">
+        <f t="shared" si="7"/>
+        <v>309500</v>
+      </c>
+    </row>
+    <row r="205" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
-      <c r="F205" s="1"/>
-      <c r="G205" s="1"/>
-    </row>
-    <row r="206" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F205" s="11">
+        <f t="shared" si="6"/>
+        <v>1500</v>
+      </c>
+      <c r="G205" s="11">
+        <f t="shared" si="7"/>
+        <v>311000</v>
+      </c>
+    </row>
+    <row r="206" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
-      <c r="F206" s="1"/>
-      <c r="G206" s="1"/>
-    </row>
-    <row r="207" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F206" s="11">
+        <f t="shared" si="6"/>
+        <v>1500</v>
+      </c>
+      <c r="G206" s="11">
+        <f t="shared" si="7"/>
+        <v>312500</v>
+      </c>
+    </row>
+    <row r="207" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
-      <c r="F207" s="1"/>
-      <c r="G207" s="1"/>
-    </row>
-    <row r="208" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F207" s="11">
+        <f t="shared" si="6"/>
+        <v>1500</v>
+      </c>
+      <c r="G207" s="11">
+        <f t="shared" si="7"/>
+        <v>314000</v>
+      </c>
+    </row>
+    <row r="208" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
-      <c r="F208" s="1"/>
-      <c r="G208" s="1"/>
-    </row>
-    <row r="209" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F208" s="11">
+        <f t="shared" si="6"/>
+        <v>1500</v>
+      </c>
+      <c r="G208" s="11">
+        <f t="shared" si="7"/>
+        <v>315500</v>
+      </c>
+    </row>
+    <row r="209" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
-      <c r="F209" s="1"/>
-      <c r="G209" s="1"/>
-    </row>
-    <row r="210" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F209" s="11">
+        <f t="shared" si="6"/>
+        <v>1500</v>
+      </c>
+      <c r="G209" s="11">
+        <f t="shared" si="7"/>
+        <v>317000</v>
+      </c>
+    </row>
+    <row r="210" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
-      <c r="F210" s="1"/>
-      <c r="G210" s="1"/>
-    </row>
-    <row r="211" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F210" s="11">
+        <f t="shared" si="6"/>
+        <v>1500</v>
+      </c>
+      <c r="G210" s="11">
+        <f t="shared" si="7"/>
+        <v>318500</v>
+      </c>
+    </row>
+    <row r="211" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
-      <c r="F211" s="1"/>
-      <c r="G211" s="1"/>
-    </row>
-    <row r="212" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F211" s="11">
+        <f t="shared" si="6"/>
+        <v>1500</v>
+      </c>
+      <c r="G211" s="11">
+        <f t="shared" si="7"/>
+        <v>320000</v>
+      </c>
+    </row>
+    <row r="212" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
-      <c r="F212" s="1"/>
-      <c r="G212" s="1"/>
-    </row>
-    <row r="213" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F212" s="11">
+        <f t="shared" si="6"/>
+        <v>1500</v>
+      </c>
+      <c r="G212" s="11">
+        <f t="shared" si="7"/>
+        <v>321500</v>
+      </c>
+    </row>
+    <row r="213" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
-      <c r="F213" s="1"/>
-      <c r="G213" s="1"/>
-    </row>
-    <row r="214" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F213" s="11">
+        <f t="shared" si="6"/>
+        <v>1500</v>
+      </c>
+      <c r="G213" s="11">
+        <f t="shared" si="7"/>
+        <v>323000</v>
+      </c>
+    </row>
+    <row r="214" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
-      <c r="F214" s="1"/>
-      <c r="G214" s="1"/>
-    </row>
-    <row r="215" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F214" s="11">
+        <f t="shared" si="6"/>
+        <v>1500</v>
+      </c>
+      <c r="G214" s="11">
+        <f t="shared" si="7"/>
+        <v>324500</v>
+      </c>
+    </row>
+    <row r="215" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
-      <c r="F215" s="1"/>
-      <c r="G215" s="1"/>
-    </row>
-    <row r="216" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F215" s="11">
+        <f t="shared" si="6"/>
+        <v>1500</v>
+      </c>
+      <c r="G215" s="11">
+        <f t="shared" si="7"/>
+        <v>326000</v>
+      </c>
+    </row>
+    <row r="216" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
-      <c r="F216" s="1"/>
-      <c r="G216" s="1"/>
-    </row>
-    <row r="217" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F216" s="11">
+        <f t="shared" si="6"/>
+        <v>1500</v>
+      </c>
+      <c r="G216" s="11">
+        <f t="shared" si="7"/>
+        <v>327500</v>
+      </c>
+    </row>
+    <row r="217" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
       <c r="E217" s="1"/>
-      <c r="F217" s="1"/>
-      <c r="G217" s="1"/>
-    </row>
-    <row r="218" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F217" s="11">
+        <f t="shared" si="6"/>
+        <v>1500</v>
+      </c>
+      <c r="G217" s="11">
+        <f t="shared" si="7"/>
+        <v>329000</v>
+      </c>
+    </row>
+    <row r="218" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
       <c r="E218" s="1"/>
-      <c r="F218" s="1"/>
-      <c r="G218" s="1"/>
-    </row>
-    <row r="219" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F218" s="11">
+        <f t="shared" si="6"/>
+        <v>1500</v>
+      </c>
+      <c r="G218" s="11">
+        <f t="shared" si="7"/>
+        <v>330500</v>
+      </c>
+    </row>
+    <row r="219" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
       <c r="E219" s="1"/>
-      <c r="F219" s="1"/>
-      <c r="G219" s="1"/>
-    </row>
-    <row r="220" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F219" s="11">
+        <f t="shared" si="6"/>
+        <v>1500</v>
+      </c>
+      <c r="G219" s="11">
+        <f t="shared" si="7"/>
+        <v>332000</v>
+      </c>
+    </row>
+    <row r="220" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
       <c r="E220" s="1"/>
-      <c r="F220" s="1"/>
-      <c r="G220" s="1"/>
-    </row>
-    <row r="221" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F220" s="11">
+        <f t="shared" si="6"/>
+        <v>1500</v>
+      </c>
+      <c r="G220" s="11">
+        <f t="shared" si="7"/>
+        <v>333500</v>
+      </c>
+    </row>
+    <row r="221" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
       <c r="E221" s="1"/>
-      <c r="F221" s="1"/>
-      <c r="G221" s="1"/>
-    </row>
-    <row r="222" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F221" s="11">
+        <f t="shared" si="6"/>
+        <v>1500</v>
+      </c>
+      <c r="G221" s="11">
+        <f t="shared" si="7"/>
+        <v>335000</v>
+      </c>
+    </row>
+    <row r="222" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
       <c r="E222" s="1"/>
-      <c r="F222" s="1"/>
-      <c r="G222" s="1"/>
-    </row>
-    <row r="223" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F222" s="11">
+        <f t="shared" si="6"/>
+        <v>1500</v>
+      </c>
+      <c r="G222" s="11">
+        <f t="shared" si="7"/>
+        <v>336500</v>
+      </c>
+    </row>
+    <row r="223" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
       <c r="E223" s="1"/>
-      <c r="F223" s="1"/>
-      <c r="G223" s="1"/>
-    </row>
-    <row r="224" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F223" s="11">
+        <f t="shared" si="6"/>
+        <v>1500</v>
+      </c>
+      <c r="G223" s="11">
+        <f t="shared" si="7"/>
+        <v>338000</v>
+      </c>
+    </row>
+    <row r="224" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
       <c r="E224" s="1"/>
-      <c r="F224" s="1"/>
-      <c r="G224" s="1"/>
-    </row>
-    <row r="225" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F224" s="11">
+        <f t="shared" si="6"/>
+        <v>1500</v>
+      </c>
+      <c r="G224" s="11">
+        <f t="shared" si="7"/>
+        <v>339500</v>
+      </c>
+    </row>
+    <row r="225" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
       <c r="E225" s="1"/>
-      <c r="F225" s="1"/>
-      <c r="G225" s="1"/>
-    </row>
-    <row r="226" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F225" s="11">
+        <f t="shared" si="6"/>
+        <v>1500</v>
+      </c>
+      <c r="G225" s="11">
+        <f t="shared" si="7"/>
+        <v>341000</v>
+      </c>
+    </row>
+    <row r="226" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
       <c r="E226" s="1"/>
-      <c r="F226" s="1"/>
-      <c r="G226" s="1"/>
-    </row>
-    <row r="227" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F226" s="11">
+        <f t="shared" si="6"/>
+        <v>1500</v>
+      </c>
+      <c r="G226" s="11">
+        <f t="shared" si="7"/>
+        <v>342500</v>
+      </c>
+    </row>
+    <row r="227" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
       <c r="E227" s="1"/>
-      <c r="F227" s="1"/>
-      <c r="G227" s="1"/>
-    </row>
-    <row r="228" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F227" s="11">
+        <f t="shared" si="6"/>
+        <v>1500</v>
+      </c>
+      <c r="G227" s="11">
+        <f t="shared" si="7"/>
+        <v>344000</v>
+      </c>
+    </row>
+    <row r="228" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
       <c r="E228" s="1"/>
-      <c r="F228" s="1"/>
-      <c r="G228" s="1"/>
-    </row>
-    <row r="229" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F228" s="11">
+        <f t="shared" si="6"/>
+        <v>1500</v>
+      </c>
+      <c r="G228" s="11">
+        <f t="shared" si="7"/>
+        <v>345500</v>
+      </c>
+    </row>
+    <row r="229" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
       <c r="E229" s="1"/>
-      <c r="F229" s="1"/>
-      <c r="G229" s="1"/>
-    </row>
-    <row r="230" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F229" s="11">
+        <f t="shared" si="6"/>
+        <v>1500</v>
+      </c>
+      <c r="G229" s="11">
+        <f t="shared" si="7"/>
+        <v>347000</v>
+      </c>
+    </row>
+    <row r="230" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
       <c r="E230" s="1"/>
-      <c r="F230" s="1"/>
-      <c r="G230" s="1"/>
-    </row>
-    <row r="231" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F230" s="11">
+        <f t="shared" si="6"/>
+        <v>1500</v>
+      </c>
+      <c r="G230" s="11">
+        <f t="shared" si="7"/>
+        <v>348500</v>
+      </c>
+    </row>
+    <row r="231" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
       <c r="E231" s="1"/>
-      <c r="F231" s="1"/>
-      <c r="G231" s="1"/>
-    </row>
-    <row r="232" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F231" s="11">
+        <f t="shared" si="6"/>
+        <v>1500</v>
+      </c>
+      <c r="G231" s="11">
+        <f t="shared" si="7"/>
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="232" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
       <c r="E232" s="1"/>
-      <c r="F232" s="1"/>
-      <c r="G232" s="1"/>
-    </row>
-    <row r="233" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F232" s="11">
+        <f t="shared" si="6"/>
+        <v>1500</v>
+      </c>
+      <c r="G232" s="11">
+        <f t="shared" si="7"/>
+        <v>351500</v>
+      </c>
+    </row>
+    <row r="233" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
       <c r="E233" s="1"/>
-      <c r="F233" s="1"/>
-      <c r="G233" s="1"/>
-    </row>
-    <row r="234" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F233" s="11">
+        <f t="shared" si="6"/>
+        <v>1500</v>
+      </c>
+      <c r="G233" s="11">
+        <f t="shared" si="7"/>
+        <v>353000</v>
+      </c>
+    </row>
+    <row r="234" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
       <c r="E234" s="1"/>
-      <c r="F234" s="1"/>
-      <c r="G234" s="1"/>
-    </row>
-    <row r="235" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F234" s="11">
+        <f t="shared" si="6"/>
+        <v>1500</v>
+      </c>
+      <c r="G234" s="11">
+        <f t="shared" si="7"/>
+        <v>354500</v>
+      </c>
+    </row>
+    <row r="235" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
       <c r="E235" s="1"/>
-      <c r="F235" s="1"/>
-      <c r="G235" s="1"/>
-    </row>
-    <row r="236" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F235" s="11">
+        <f t="shared" si="6"/>
+        <v>1500</v>
+      </c>
+      <c r="G235" s="11">
+        <f t="shared" si="7"/>
+        <v>356000</v>
+      </c>
+    </row>
+    <row r="236" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
       <c r="E236" s="1"/>
-      <c r="F236" s="1"/>
-      <c r="G236" s="1"/>
-    </row>
-    <row r="237" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F236" s="11">
+        <f t="shared" si="6"/>
+        <v>1500</v>
+      </c>
+      <c r="G236" s="11">
+        <f t="shared" si="7"/>
+        <v>357500</v>
+      </c>
+    </row>
+    <row r="237" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
       <c r="E237" s="1"/>
-      <c r="F237" s="1"/>
-      <c r="G237" s="1"/>
-    </row>
-    <row r="238" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F237" s="11">
+        <f t="shared" si="6"/>
+        <v>1500</v>
+      </c>
+      <c r="G237" s="11">
+        <f t="shared" si="7"/>
+        <v>359000</v>
+      </c>
+    </row>
+    <row r="238" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
       <c r="E238" s="1"/>
-      <c r="F238" s="1"/>
-      <c r="G238" s="1"/>
-    </row>
-    <row r="239" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F238" s="11">
+        <f t="shared" si="6"/>
+        <v>1500</v>
+      </c>
+      <c r="G238" s="11">
+        <f t="shared" si="7"/>
+        <v>360500</v>
+      </c>
+    </row>
+    <row r="239" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
       <c r="E239" s="1"/>
-      <c r="F239" s="1"/>
-      <c r="G239" s="1"/>
-    </row>
-    <row r="240" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F239" s="11">
+        <f t="shared" si="6"/>
+        <v>1500</v>
+      </c>
+      <c r="G239" s="11">
+        <f t="shared" si="7"/>
+        <v>362000</v>
+      </c>
+    </row>
+    <row r="240" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
       <c r="E240" s="1"/>
-      <c r="F240" s="1"/>
-      <c r="G240" s="1"/>
-    </row>
-    <row r="241" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F240" s="11">
+        <f t="shared" si="6"/>
+        <v>1500</v>
+      </c>
+      <c r="G240" s="11">
+        <f t="shared" si="7"/>
+        <v>363500</v>
+      </c>
+    </row>
+    <row r="241" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
       <c r="E241" s="1"/>
-      <c r="F241" s="1"/>
-      <c r="G241" s="1"/>
-    </row>
-    <row r="242" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F241" s="11">
+        <f t="shared" si="6"/>
+        <v>1500</v>
+      </c>
+      <c r="G241" s="11">
+        <f t="shared" si="7"/>
+        <v>365000</v>
+      </c>
+    </row>
+    <row r="242" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
       <c r="E242" s="1"/>
-      <c r="F242" s="1"/>
-      <c r="G242" s="1"/>
-    </row>
-    <row r="243" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F242" s="11">
+        <f t="shared" si="6"/>
+        <v>1500</v>
+      </c>
+      <c r="G242" s="11">
+        <f t="shared" si="7"/>
+        <v>366500</v>
+      </c>
+    </row>
+    <row r="243" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
       <c r="E243" s="1"/>
-      <c r="F243" s="1"/>
-      <c r="G243" s="1"/>
-    </row>
-    <row r="244" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F243" s="11">
+        <f t="shared" si="6"/>
+        <v>1500</v>
+      </c>
+      <c r="G243" s="11">
+        <f t="shared" si="7"/>
+        <v>368000</v>
+      </c>
+    </row>
+    <row r="244" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
       <c r="E244" s="1"/>
-      <c r="F244" s="1"/>
-      <c r="G244" s="1"/>
-    </row>
-    <row r="245" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F244" s="11">
+        <f t="shared" si="6"/>
+        <v>1500</v>
+      </c>
+      <c r="G244" s="11">
+        <f t="shared" si="7"/>
+        <v>369500</v>
+      </c>
+    </row>
+    <row r="245" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
       <c r="E245" s="1"/>
-      <c r="F245" s="1"/>
-      <c r="G245" s="1"/>
-    </row>
-    <row r="246" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F245" s="11">
+        <f t="shared" si="6"/>
+        <v>1500</v>
+      </c>
+      <c r="G245" s="11">
+        <f t="shared" si="7"/>
+        <v>371000</v>
+      </c>
+    </row>
+    <row r="246" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
       <c r="D246" s="1"/>
       <c r="E246" s="1"/>
-      <c r="F246" s="1"/>
-      <c r="G246" s="1"/>
-    </row>
-    <row r="247" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F246" s="11">
+        <f t="shared" si="6"/>
+        <v>1500</v>
+      </c>
+      <c r="G246" s="11">
+        <f t="shared" si="7"/>
+        <v>372500</v>
+      </c>
+    </row>
+    <row r="247" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
       <c r="D247" s="1"/>
       <c r="E247" s="1"/>
-      <c r="F247" s="1"/>
-      <c r="G247" s="1"/>
-    </row>
-    <row r="248" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F247" s="11">
+        <f t="shared" si="6"/>
+        <v>1500</v>
+      </c>
+      <c r="G247" s="11">
+        <f t="shared" si="7"/>
+        <v>374000</v>
+      </c>
+    </row>
+    <row r="248" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
       <c r="E248" s="1"/>
-      <c r="F248" s="1"/>
-      <c r="G248" s="1"/>
-    </row>
-    <row r="249" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F248" s="11">
+        <f t="shared" si="6"/>
+        <v>1500</v>
+      </c>
+      <c r="G248" s="11">
+        <f t="shared" si="7"/>
+        <v>375500</v>
+      </c>
+    </row>
+    <row r="249" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
       <c r="D249" s="1"/>
       <c r="E249" s="1"/>
-      <c r="F249" s="1"/>
-      <c r="G249" s="1"/>
-    </row>
-    <row r="250" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F249" s="11">
+        <f t="shared" si="6"/>
+        <v>1500</v>
+      </c>
+      <c r="G249" s="11">
+        <f t="shared" si="7"/>
+        <v>377000</v>
+      </c>
+    </row>
+    <row r="250" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
       <c r="E250" s="1"/>
-      <c r="F250" s="1"/>
-      <c r="G250" s="1"/>
-    </row>
-    <row r="251" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F250" s="11">
+        <f t="shared" si="6"/>
+        <v>1500</v>
+      </c>
+      <c r="G250" s="11">
+        <f t="shared" si="7"/>
+        <v>378500</v>
+      </c>
+    </row>
+    <row r="251" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
       <c r="E251" s="1"/>
-      <c r="F251" s="1"/>
-      <c r="G251" s="1"/>
-    </row>
-    <row r="252" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F251" s="11">
+        <f t="shared" si="6"/>
+        <v>1500</v>
+      </c>
+      <c r="G251" s="11">
+        <f t="shared" si="7"/>
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="252" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
       <c r="D252" s="1"/>
       <c r="E252" s="1"/>
-      <c r="F252" s="1"/>
-      <c r="G252" s="1"/>
-    </row>
-    <row r="253" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F252" s="11">
+        <f t="shared" si="6"/>
+        <v>1500</v>
+      </c>
+      <c r="G252" s="11">
+        <f t="shared" si="7"/>
+        <v>381500</v>
+      </c>
+    </row>
+    <row r="253" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
       <c r="D253" s="1"/>
       <c r="E253" s="1"/>
-      <c r="F253" s="1"/>
-      <c r="G253" s="1"/>
-    </row>
-    <row r="254" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F253" s="11">
+        <f t="shared" si="6"/>
+        <v>1500</v>
+      </c>
+      <c r="G253" s="11">
+        <f t="shared" si="7"/>
+        <v>383000</v>
+      </c>
+    </row>
+    <row r="254" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
       <c r="D254" s="1"/>
       <c r="E254" s="1"/>
-      <c r="F254" s="1"/>
-      <c r="G254" s="1"/>
-    </row>
-    <row r="255" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F254" s="11">
+        <f t="shared" si="6"/>
+        <v>1500</v>
+      </c>
+      <c r="G254" s="11">
+        <f t="shared" si="7"/>
+        <v>384500</v>
+      </c>
+    </row>
+    <row r="255" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
       <c r="D255" s="1"/>
       <c r="E255" s="1"/>
-      <c r="F255" s="1"/>
-      <c r="G255" s="1"/>
-    </row>
-    <row r="256" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F255" s="11">
+        <f t="shared" si="6"/>
+        <v>1500</v>
+      </c>
+      <c r="G255" s="11">
+        <f t="shared" si="7"/>
+        <v>386000</v>
+      </c>
+    </row>
+    <row r="256" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
       <c r="D256" s="1"/>
       <c r="E256" s="1"/>
-      <c r="F256" s="1"/>
-      <c r="G256" s="1"/>
-    </row>
-    <row r="257" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F256" s="11">
+        <f t="shared" si="6"/>
+        <v>1500</v>
+      </c>
+      <c r="G256" s="11">
+        <f t="shared" si="7"/>
+        <v>387500</v>
+      </c>
+    </row>
+    <row r="257" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
       <c r="D257" s="1"/>
       <c r="E257" s="1"/>
-      <c r="F257" s="1"/>
-      <c r="G257" s="1"/>
-    </row>
-    <row r="258" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F257" s="11">
+        <f t="shared" si="6"/>
+        <v>1500</v>
+      </c>
+      <c r="G257" s="11">
+        <f t="shared" si="7"/>
+        <v>389000</v>
+      </c>
+    </row>
+    <row r="258" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
       <c r="D258" s="1"/>
       <c r="E258" s="1"/>
-      <c r="F258" s="1"/>
-      <c r="G258" s="1"/>
-    </row>
-    <row r="259" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F258" s="11">
+        <f t="shared" si="6"/>
+        <v>1500</v>
+      </c>
+      <c r="G258" s="11">
+        <f t="shared" si="7"/>
+        <v>390500</v>
+      </c>
+    </row>
+    <row r="259" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
       <c r="D259" s="1"/>
       <c r="E259" s="1"/>
-      <c r="F259" s="1"/>
-      <c r="G259" s="1"/>
-    </row>
-    <row r="260" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F259" s="11">
+        <f t="shared" si="6"/>
+        <v>1500</v>
+      </c>
+      <c r="G259" s="11">
+        <f t="shared" si="7"/>
+        <v>392000</v>
+      </c>
+    </row>
+    <row r="260" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
       <c r="D260" s="1"/>
       <c r="E260" s="1"/>
-      <c r="F260" s="1"/>
-      <c r="G260" s="1"/>
-    </row>
-    <row r="261" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F260" s="11">
+        <f t="shared" si="6"/>
+        <v>1500</v>
+      </c>
+      <c r="G260" s="11">
+        <f t="shared" si="7"/>
+        <v>393500</v>
+      </c>
+    </row>
+    <row r="261" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
       <c r="D261" s="1"/>
       <c r="E261" s="1"/>
-      <c r="F261" s="1"/>
-      <c r="G261" s="1"/>
-    </row>
-    <row r="262" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F261" s="11">
+        <f t="shared" si="6"/>
+        <v>1500</v>
+      </c>
+      <c r="G261" s="11">
+        <f t="shared" si="7"/>
+        <v>395000</v>
+      </c>
+    </row>
+    <row r="262" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
       <c r="D262" s="1"/>
       <c r="E262" s="1"/>
-      <c r="F262" s="1"/>
-      <c r="G262" s="1"/>
-    </row>
-    <row r="263" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F262" s="11">
+        <f t="shared" ref="F262:F325" si="8">((1500*D262)+(1000*E262)+1500)</f>
+        <v>1500</v>
+      </c>
+      <c r="G262" s="11">
+        <f t="shared" ref="G262:G325" si="9">G261+F262</f>
+        <v>396500</v>
+      </c>
+    </row>
+    <row r="263" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
       <c r="D263" s="1"/>
       <c r="E263" s="1"/>
-      <c r="F263" s="1"/>
-      <c r="G263" s="1"/>
-    </row>
-    <row r="264" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F263" s="11">
+        <f t="shared" si="8"/>
+        <v>1500</v>
+      </c>
+      <c r="G263" s="11">
+        <f t="shared" si="9"/>
+        <v>398000</v>
+      </c>
+    </row>
+    <row r="264" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
       <c r="D264" s="1"/>
       <c r="E264" s="1"/>
-      <c r="F264" s="1"/>
-      <c r="G264" s="1"/>
-    </row>
-    <row r="265" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F264" s="11">
+        <f t="shared" si="8"/>
+        <v>1500</v>
+      </c>
+      <c r="G264" s="11">
+        <f t="shared" si="9"/>
+        <v>399500</v>
+      </c>
+    </row>
+    <row r="265" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
       <c r="D265" s="1"/>
       <c r="E265" s="1"/>
-      <c r="F265" s="1"/>
-      <c r="G265" s="1"/>
-    </row>
-    <row r="266" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F265" s="11">
+        <f t="shared" si="8"/>
+        <v>1500</v>
+      </c>
+      <c r="G265" s="11">
+        <f t="shared" si="9"/>
+        <v>401000</v>
+      </c>
+    </row>
+    <row r="266" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
       <c r="D266" s="1"/>
       <c r="E266" s="1"/>
-      <c r="F266" s="1"/>
-      <c r="G266" s="1"/>
-    </row>
-    <row r="267" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F266" s="11">
+        <f t="shared" si="8"/>
+        <v>1500</v>
+      </c>
+      <c r="G266" s="11">
+        <f t="shared" si="9"/>
+        <v>402500</v>
+      </c>
+    </row>
+    <row r="267" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
       <c r="D267" s="1"/>
       <c r="E267" s="1"/>
-      <c r="F267" s="1"/>
-      <c r="G267" s="1"/>
-    </row>
-    <row r="268" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F267" s="11">
+        <f t="shared" si="8"/>
+        <v>1500</v>
+      </c>
+      <c r="G267" s="11">
+        <f t="shared" si="9"/>
+        <v>404000</v>
+      </c>
+    </row>
+    <row r="268" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
       <c r="D268" s="1"/>
       <c r="E268" s="1"/>
-      <c r="F268" s="1"/>
-      <c r="G268" s="1"/>
-    </row>
-    <row r="269" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F268" s="11">
+        <f t="shared" si="8"/>
+        <v>1500</v>
+      </c>
+      <c r="G268" s="11">
+        <f t="shared" si="9"/>
+        <v>405500</v>
+      </c>
+    </row>
+    <row r="269" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
       <c r="D269" s="1"/>
       <c r="E269" s="1"/>
-      <c r="F269" s="1"/>
-      <c r="G269" s="1"/>
-    </row>
-    <row r="270" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F269" s="11">
+        <f t="shared" si="8"/>
+        <v>1500</v>
+      </c>
+      <c r="G269" s="11">
+        <f t="shared" si="9"/>
+        <v>407000</v>
+      </c>
+    </row>
+    <row r="270" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
       <c r="D270" s="1"/>
       <c r="E270" s="1"/>
-      <c r="F270" s="1"/>
-      <c r="G270" s="1"/>
-    </row>
-    <row r="271" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F270" s="11">
+        <f t="shared" si="8"/>
+        <v>1500</v>
+      </c>
+      <c r="G270" s="11">
+        <f t="shared" si="9"/>
+        <v>408500</v>
+      </c>
+    </row>
+    <row r="271" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
       <c r="D271" s="1"/>
       <c r="E271" s="1"/>
-      <c r="F271" s="1"/>
-      <c r="G271" s="1"/>
-    </row>
-    <row r="272" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F271" s="11">
+        <f t="shared" si="8"/>
+        <v>1500</v>
+      </c>
+      <c r="G271" s="11">
+        <f t="shared" si="9"/>
+        <v>410000</v>
+      </c>
+    </row>
+    <row r="272" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
       <c r="D272" s="1"/>
       <c r="E272" s="1"/>
-      <c r="F272" s="1"/>
-      <c r="G272" s="1"/>
-    </row>
-    <row r="273" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F272" s="11">
+        <f t="shared" si="8"/>
+        <v>1500</v>
+      </c>
+      <c r="G272" s="11">
+        <f t="shared" si="9"/>
+        <v>411500</v>
+      </c>
+    </row>
+    <row r="273" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
       <c r="D273" s="1"/>
       <c r="E273" s="1"/>
-      <c r="F273" s="1"/>
-      <c r="G273" s="1"/>
-    </row>
-    <row r="274" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F273" s="11">
+        <f t="shared" si="8"/>
+        <v>1500</v>
+      </c>
+      <c r="G273" s="11">
+        <f t="shared" si="9"/>
+        <v>413000</v>
+      </c>
+    </row>
+    <row r="274" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
       <c r="D274" s="1"/>
       <c r="E274" s="1"/>
-      <c r="F274" s="1"/>
-      <c r="G274" s="1"/>
-    </row>
-    <row r="275" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F274" s="11">
+        <f t="shared" si="8"/>
+        <v>1500</v>
+      </c>
+      <c r="G274" s="11">
+        <f t="shared" si="9"/>
+        <v>414500</v>
+      </c>
+    </row>
+    <row r="275" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
       <c r="D275" s="1"/>
       <c r="E275" s="1"/>
-      <c r="F275" s="1"/>
-      <c r="G275" s="1"/>
-    </row>
-    <row r="276" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F275" s="11">
+        <f t="shared" si="8"/>
+        <v>1500</v>
+      </c>
+      <c r="G275" s="11">
+        <f t="shared" si="9"/>
+        <v>416000</v>
+      </c>
+    </row>
+    <row r="276" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
       <c r="D276" s="1"/>
       <c r="E276" s="1"/>
-      <c r="F276" s="1"/>
-      <c r="G276" s="1"/>
-    </row>
-    <row r="277" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F276" s="11">
+        <f t="shared" si="8"/>
+        <v>1500</v>
+      </c>
+      <c r="G276" s="11">
+        <f t="shared" si="9"/>
+        <v>417500</v>
+      </c>
+    </row>
+    <row r="277" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
       <c r="D277" s="1"/>
       <c r="E277" s="1"/>
-      <c r="F277" s="1"/>
-      <c r="G277" s="1"/>
-    </row>
-    <row r="278" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F277" s="11">
+        <f t="shared" si="8"/>
+        <v>1500</v>
+      </c>
+      <c r="G277" s="11">
+        <f t="shared" si="9"/>
+        <v>419000</v>
+      </c>
+    </row>
+    <row r="278" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
       <c r="D278" s="1"/>
       <c r="E278" s="1"/>
-      <c r="F278" s="1"/>
-      <c r="G278" s="1"/>
-    </row>
-    <row r="279" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F278" s="11">
+        <f t="shared" si="8"/>
+        <v>1500</v>
+      </c>
+      <c r="G278" s="11">
+        <f t="shared" si="9"/>
+        <v>420500</v>
+      </c>
+    </row>
+    <row r="279" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
       <c r="D279" s="1"/>
       <c r="E279" s="1"/>
-      <c r="F279" s="1"/>
-      <c r="G279" s="1"/>
-    </row>
-    <row r="280" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F279" s="11">
+        <f t="shared" si="8"/>
+        <v>1500</v>
+      </c>
+      <c r="G279" s="11">
+        <f t="shared" si="9"/>
+        <v>422000</v>
+      </c>
+    </row>
+    <row r="280" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
       <c r="D280" s="1"/>
       <c r="E280" s="1"/>
-      <c r="F280" s="1"/>
-      <c r="G280" s="1"/>
-    </row>
-    <row r="281" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F280" s="11">
+        <f t="shared" si="8"/>
+        <v>1500</v>
+      </c>
+      <c r="G280" s="11">
+        <f t="shared" si="9"/>
+        <v>423500</v>
+      </c>
+    </row>
+    <row r="281" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
       <c r="D281" s="1"/>
       <c r="E281" s="1"/>
-      <c r="F281" s="1"/>
-      <c r="G281" s="1"/>
-    </row>
-    <row r="282" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F281" s="11">
+        <f t="shared" si="8"/>
+        <v>1500</v>
+      </c>
+      <c r="G281" s="11">
+        <f t="shared" si="9"/>
+        <v>425000</v>
+      </c>
+    </row>
+    <row r="282" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
       <c r="D282" s="1"/>
       <c r="E282" s="1"/>
-      <c r="F282" s="1"/>
-      <c r="G282" s="1"/>
-    </row>
-    <row r="283" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F282" s="11">
+        <f t="shared" si="8"/>
+        <v>1500</v>
+      </c>
+      <c r="G282" s="11">
+        <f t="shared" si="9"/>
+        <v>426500</v>
+      </c>
+    </row>
+    <row r="283" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
       <c r="D283" s="1"/>
       <c r="E283" s="1"/>
-      <c r="F283" s="1"/>
-      <c r="G283" s="1"/>
-    </row>
-    <row r="284" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F283" s="11">
+        <f t="shared" si="8"/>
+        <v>1500</v>
+      </c>
+      <c r="G283" s="11">
+        <f t="shared" si="9"/>
+        <v>428000</v>
+      </c>
+    </row>
+    <row r="284" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
       <c r="D284" s="1"/>
       <c r="E284" s="1"/>
-      <c r="F284" s="1"/>
-      <c r="G284" s="1"/>
-    </row>
-    <row r="285" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F284" s="11">
+        <f t="shared" si="8"/>
+        <v>1500</v>
+      </c>
+      <c r="G284" s="11">
+        <f t="shared" si="9"/>
+        <v>429500</v>
+      </c>
+    </row>
+    <row r="285" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
       <c r="D285" s="1"/>
       <c r="E285" s="1"/>
-      <c r="F285" s="1"/>
-      <c r="G285" s="1"/>
-    </row>
-    <row r="286" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F285" s="11">
+        <f t="shared" si="8"/>
+        <v>1500</v>
+      </c>
+      <c r="G285" s="11">
+        <f t="shared" si="9"/>
+        <v>431000</v>
+      </c>
+    </row>
+    <row r="286" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
       <c r="D286" s="1"/>
       <c r="E286" s="1"/>
-      <c r="F286" s="1"/>
-      <c r="G286" s="1"/>
-    </row>
-    <row r="287" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F286" s="11">
+        <f t="shared" si="8"/>
+        <v>1500</v>
+      </c>
+      <c r="G286" s="11">
+        <f t="shared" si="9"/>
+        <v>432500</v>
+      </c>
+    </row>
+    <row r="287" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
       <c r="D287" s="1"/>
       <c r="E287" s="1"/>
-      <c r="F287" s="1"/>
-      <c r="G287" s="1"/>
-    </row>
-    <row r="288" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F287" s="11">
+        <f t="shared" si="8"/>
+        <v>1500</v>
+      </c>
+      <c r="G287" s="11">
+        <f t="shared" si="9"/>
+        <v>434000</v>
+      </c>
+    </row>
+    <row r="288" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
       <c r="D288" s="1"/>
       <c r="E288" s="1"/>
-      <c r="F288" s="1"/>
-      <c r="G288" s="1"/>
-    </row>
-    <row r="289" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F288" s="11">
+        <f t="shared" si="8"/>
+        <v>1500</v>
+      </c>
+      <c r="G288" s="11">
+        <f t="shared" si="9"/>
+        <v>435500</v>
+      </c>
+    </row>
+    <row r="289" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
       <c r="D289" s="1"/>
       <c r="E289" s="1"/>
-      <c r="F289" s="1"/>
-      <c r="G289" s="1"/>
-    </row>
-    <row r="290" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F289" s="11">
+        <f t="shared" si="8"/>
+        <v>1500</v>
+      </c>
+      <c r="G289" s="11">
+        <f t="shared" si="9"/>
+        <v>437000</v>
+      </c>
+    </row>
+    <row r="290" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
       <c r="D290" s="1"/>
       <c r="E290" s="1"/>
-      <c r="F290" s="1"/>
-      <c r="G290" s="1"/>
-    </row>
-    <row r="291" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F290" s="11">
+        <f t="shared" si="8"/>
+        <v>1500</v>
+      </c>
+      <c r="G290" s="11">
+        <f t="shared" si="9"/>
+        <v>438500</v>
+      </c>
+    </row>
+    <row r="291" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
       <c r="D291" s="1"/>
       <c r="E291" s="1"/>
-      <c r="F291" s="1"/>
-      <c r="G291" s="1"/>
-    </row>
-    <row r="292" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F291" s="11">
+        <f t="shared" si="8"/>
+        <v>1500</v>
+      </c>
+      <c r="G291" s="11">
+        <f t="shared" si="9"/>
+        <v>440000</v>
+      </c>
+    </row>
+    <row r="292" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
       <c r="D292" s="1"/>
       <c r="E292" s="1"/>
-      <c r="F292" s="1"/>
-      <c r="G292" s="1"/>
-    </row>
-    <row r="293" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F292" s="11">
+        <f t="shared" si="8"/>
+        <v>1500</v>
+      </c>
+      <c r="G292" s="11">
+        <f t="shared" si="9"/>
+        <v>441500</v>
+      </c>
+    </row>
+    <row r="293" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
       <c r="D293" s="1"/>
       <c r="E293" s="1"/>
-      <c r="F293" s="1"/>
-      <c r="G293" s="1"/>
-    </row>
-    <row r="294" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F293" s="11">
+        <f t="shared" si="8"/>
+        <v>1500</v>
+      </c>
+      <c r="G293" s="11">
+        <f t="shared" si="9"/>
+        <v>443000</v>
+      </c>
+    </row>
+    <row r="294" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
       <c r="D294" s="1"/>
       <c r="E294" s="1"/>
-      <c r="F294" s="1"/>
-      <c r="G294" s="1"/>
-    </row>
-    <row r="295" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F294" s="11">
+        <f t="shared" si="8"/>
+        <v>1500</v>
+      </c>
+      <c r="G294" s="11">
+        <f t="shared" si="9"/>
+        <v>444500</v>
+      </c>
+    </row>
+    <row r="295" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
       <c r="D295" s="1"/>
       <c r="E295" s="1"/>
-      <c r="F295" s="1"/>
-      <c r="G295" s="1"/>
-    </row>
-    <row r="296" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F295" s="11">
+        <f t="shared" si="8"/>
+        <v>1500</v>
+      </c>
+      <c r="G295" s="11">
+        <f t="shared" si="9"/>
+        <v>446000</v>
+      </c>
+    </row>
+    <row r="296" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
       <c r="D296" s="1"/>
       <c r="E296" s="1"/>
-      <c r="F296" s="1"/>
-      <c r="G296" s="1"/>
-    </row>
-    <row r="297" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F296" s="11">
+        <f t="shared" si="8"/>
+        <v>1500</v>
+      </c>
+      <c r="G296" s="11">
+        <f t="shared" si="9"/>
+        <v>447500</v>
+      </c>
+    </row>
+    <row r="297" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
       <c r="D297" s="1"/>
       <c r="E297" s="1"/>
-      <c r="F297" s="1"/>
-      <c r="G297" s="1"/>
-    </row>
-    <row r="298" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F297" s="11">
+        <f t="shared" si="8"/>
+        <v>1500</v>
+      </c>
+      <c r="G297" s="11">
+        <f t="shared" si="9"/>
+        <v>449000</v>
+      </c>
+    </row>
+    <row r="298" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
       <c r="D298" s="1"/>
       <c r="E298" s="1"/>
-      <c r="F298" s="1"/>
-      <c r="G298" s="1"/>
-    </row>
-    <row r="299" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F298" s="11">
+        <f t="shared" si="8"/>
+        <v>1500</v>
+      </c>
+      <c r="G298" s="11">
+        <f t="shared" si="9"/>
+        <v>450500</v>
+      </c>
+    </row>
+    <row r="299" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
       <c r="D299" s="1"/>
       <c r="E299" s="1"/>
-      <c r="F299" s="1"/>
-      <c r="G299" s="1"/>
-    </row>
-    <row r="300" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F299" s="11">
+        <f t="shared" si="8"/>
+        <v>1500</v>
+      </c>
+      <c r="G299" s="11">
+        <f t="shared" si="9"/>
+        <v>452000</v>
+      </c>
+    </row>
+    <row r="300" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
       <c r="D300" s="1"/>
       <c r="E300" s="1"/>
-      <c r="F300" s="1"/>
-      <c r="G300" s="1"/>
-    </row>
-    <row r="301" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F300" s="11">
+        <f t="shared" si="8"/>
+        <v>1500</v>
+      </c>
+      <c r="G300" s="11">
+        <f t="shared" si="9"/>
+        <v>453500</v>
+      </c>
+    </row>
+    <row r="301" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
       <c r="D301" s="1"/>
       <c r="E301" s="1"/>
-      <c r="F301" s="1"/>
-      <c r="G301" s="1"/>
-    </row>
-    <row r="302" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F301" s="11">
+        <f t="shared" si="8"/>
+        <v>1500</v>
+      </c>
+      <c r="G301" s="11">
+        <f t="shared" si="9"/>
+        <v>455000</v>
+      </c>
+    </row>
+    <row r="302" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
       <c r="D302" s="1"/>
       <c r="E302" s="1"/>
-      <c r="F302" s="1"/>
-      <c r="G302" s="1"/>
-    </row>
-    <row r="303" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F302" s="11">
+        <f t="shared" si="8"/>
+        <v>1500</v>
+      </c>
+      <c r="G302" s="11">
+        <f t="shared" si="9"/>
+        <v>456500</v>
+      </c>
+    </row>
+    <row r="303" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
       <c r="D303" s="1"/>
       <c r="E303" s="1"/>
-      <c r="F303" s="1"/>
-      <c r="G303" s="1"/>
-    </row>
-    <row r="304" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F303" s="11">
+        <f t="shared" si="8"/>
+        <v>1500</v>
+      </c>
+      <c r="G303" s="11">
+        <f t="shared" si="9"/>
+        <v>458000</v>
+      </c>
+    </row>
+    <row r="304" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
       <c r="D304" s="1"/>
       <c r="E304" s="1"/>
-      <c r="F304" s="1"/>
-      <c r="G304" s="1"/>
-    </row>
-    <row r="305" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F304" s="11">
+        <f t="shared" si="8"/>
+        <v>1500</v>
+      </c>
+      <c r="G304" s="11">
+        <f t="shared" si="9"/>
+        <v>459500</v>
+      </c>
+    </row>
+    <row r="305" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
       <c r="D305" s="1"/>
       <c r="E305" s="1"/>
-      <c r="F305" s="1"/>
-      <c r="G305" s="1"/>
-    </row>
-    <row r="306" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F305" s="11">
+        <f t="shared" si="8"/>
+        <v>1500</v>
+      </c>
+      <c r="G305" s="11">
+        <f t="shared" si="9"/>
+        <v>461000</v>
+      </c>
+    </row>
+    <row r="306" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
       <c r="D306" s="1"/>
       <c r="E306" s="1"/>
-      <c r="F306" s="1"/>
-      <c r="G306" s="1"/>
-    </row>
-    <row r="307" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F306" s="11">
+        <f t="shared" si="8"/>
+        <v>1500</v>
+      </c>
+      <c r="G306" s="11">
+        <f t="shared" si="9"/>
+        <v>462500</v>
+      </c>
+    </row>
+    <row r="307" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
       <c r="D307" s="1"/>
       <c r="E307" s="1"/>
-      <c r="F307" s="1"/>
-      <c r="G307" s="1"/>
-    </row>
-    <row r="308" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F307" s="11">
+        <f t="shared" si="8"/>
+        <v>1500</v>
+      </c>
+      <c r="G307" s="11">
+        <f t="shared" si="9"/>
+        <v>464000</v>
+      </c>
+    </row>
+    <row r="308" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
       <c r="D308" s="1"/>
       <c r="E308" s="1"/>
-      <c r="F308" s="1"/>
-      <c r="G308" s="1"/>
-    </row>
-    <row r="309" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F308" s="11">
+        <f t="shared" si="8"/>
+        <v>1500</v>
+      </c>
+      <c r="G308" s="11">
+        <f t="shared" si="9"/>
+        <v>465500</v>
+      </c>
+    </row>
+    <row r="309" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
       <c r="D309" s="1"/>
       <c r="E309" s="1"/>
-      <c r="F309" s="1"/>
-      <c r="G309" s="1"/>
-    </row>
-    <row r="310" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F309" s="11">
+        <f t="shared" si="8"/>
+        <v>1500</v>
+      </c>
+      <c r="G309" s="11">
+        <f t="shared" si="9"/>
+        <v>467000</v>
+      </c>
+    </row>
+    <row r="310" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
       <c r="D310" s="1"/>
       <c r="E310" s="1"/>
-      <c r="F310" s="1"/>
-      <c r="G310" s="1"/>
-    </row>
-    <row r="311" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F310" s="11">
+        <f t="shared" si="8"/>
+        <v>1500</v>
+      </c>
+      <c r="G310" s="11">
+        <f t="shared" si="9"/>
+        <v>468500</v>
+      </c>
+    </row>
+    <row r="311" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
       <c r="D311" s="1"/>
       <c r="E311" s="1"/>
-      <c r="F311" s="1"/>
-      <c r="G311" s="1"/>
-    </row>
-    <row r="312" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F311" s="11">
+        <f t="shared" si="8"/>
+        <v>1500</v>
+      </c>
+      <c r="G311" s="11">
+        <f t="shared" si="9"/>
+        <v>470000</v>
+      </c>
+    </row>
+    <row r="312" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
       <c r="D312" s="1"/>
       <c r="E312" s="1"/>
-      <c r="F312" s="1"/>
-      <c r="G312" s="1"/>
-    </row>
-    <row r="313" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F312" s="11">
+        <f t="shared" si="8"/>
+        <v>1500</v>
+      </c>
+      <c r="G312" s="11">
+        <f t="shared" si="9"/>
+        <v>471500</v>
+      </c>
+    </row>
+    <row r="313" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
       <c r="D313" s="1"/>
       <c r="E313" s="1"/>
-      <c r="F313" s="1"/>
-      <c r="G313" s="1"/>
-    </row>
-    <row r="314" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F313" s="11">
+        <f t="shared" si="8"/>
+        <v>1500</v>
+      </c>
+      <c r="G313" s="11">
+        <f t="shared" si="9"/>
+        <v>473000</v>
+      </c>
+    </row>
+    <row r="314" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
       <c r="D314" s="1"/>
       <c r="E314" s="1"/>
-      <c r="F314" s="1"/>
-      <c r="G314" s="1"/>
-    </row>
-    <row r="315" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F314" s="11">
+        <f t="shared" si="8"/>
+        <v>1500</v>
+      </c>
+      <c r="G314" s="11">
+        <f t="shared" si="9"/>
+        <v>474500</v>
+      </c>
+    </row>
+    <row r="315" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
       <c r="D315" s="1"/>
       <c r="E315" s="1"/>
-      <c r="F315" s="1"/>
-      <c r="G315" s="1"/>
-    </row>
-    <row r="316" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F315" s="11">
+        <f t="shared" si="8"/>
+        <v>1500</v>
+      </c>
+      <c r="G315" s="11">
+        <f t="shared" si="9"/>
+        <v>476000</v>
+      </c>
+    </row>
+    <row r="316" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
       <c r="D316" s="1"/>
       <c r="E316" s="1"/>
-      <c r="F316" s="1"/>
-      <c r="G316" s="1"/>
-    </row>
-    <row r="317" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F316" s="11">
+        <f t="shared" si="8"/>
+        <v>1500</v>
+      </c>
+      <c r="G316" s="11">
+        <f t="shared" si="9"/>
+        <v>477500</v>
+      </c>
+    </row>
+    <row r="317" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
       <c r="D317" s="1"/>
       <c r="E317" s="1"/>
-      <c r="F317" s="1"/>
-      <c r="G317" s="1"/>
-    </row>
-    <row r="318" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F317" s="11">
+        <f t="shared" si="8"/>
+        <v>1500</v>
+      </c>
+      <c r="G317" s="11">
+        <f t="shared" si="9"/>
+        <v>479000</v>
+      </c>
+    </row>
+    <row r="318" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
       <c r="D318" s="1"/>
       <c r="E318" s="1"/>
-      <c r="F318" s="1"/>
-      <c r="G318" s="1"/>
-    </row>
-    <row r="319" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F318" s="11">
+        <f t="shared" si="8"/>
+        <v>1500</v>
+      </c>
+      <c r="G318" s="11">
+        <f t="shared" si="9"/>
+        <v>480500</v>
+      </c>
+    </row>
+    <row r="319" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
       <c r="D319" s="1"/>
       <c r="E319" s="1"/>
-      <c r="F319" s="1"/>
-      <c r="G319" s="1"/>
-    </row>
-    <row r="320" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F319" s="11">
+        <f t="shared" si="8"/>
+        <v>1500</v>
+      </c>
+      <c r="G319" s="11">
+        <f t="shared" si="9"/>
+        <v>482000</v>
+      </c>
+    </row>
+    <row r="320" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
       <c r="D320" s="1"/>
       <c r="E320" s="1"/>
-      <c r="F320" s="1"/>
-      <c r="G320" s="1"/>
-    </row>
-    <row r="321" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F320" s="11">
+        <f t="shared" si="8"/>
+        <v>1500</v>
+      </c>
+      <c r="G320" s="11">
+        <f t="shared" si="9"/>
+        <v>483500</v>
+      </c>
+    </row>
+    <row r="321" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
       <c r="D321" s="1"/>
       <c r="E321" s="1"/>
-      <c r="F321" s="1"/>
-      <c r="G321" s="1"/>
-    </row>
-    <row r="322" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F321" s="11">
+        <f t="shared" si="8"/>
+        <v>1500</v>
+      </c>
+      <c r="G321" s="11">
+        <f t="shared" si="9"/>
+        <v>485000</v>
+      </c>
+    </row>
+    <row r="322" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
       <c r="D322" s="1"/>
       <c r="E322" s="1"/>
-      <c r="F322" s="1"/>
-      <c r="G322" s="1"/>
-    </row>
-    <row r="323" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F322" s="11">
+        <f t="shared" si="8"/>
+        <v>1500</v>
+      </c>
+      <c r="G322" s="11">
+        <f t="shared" si="9"/>
+        <v>486500</v>
+      </c>
+    </row>
+    <row r="323" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
       <c r="D323" s="1"/>
       <c r="E323" s="1"/>
-      <c r="F323" s="1"/>
-      <c r="G323" s="1"/>
-    </row>
-    <row r="324" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F323" s="11">
+        <f t="shared" si="8"/>
+        <v>1500</v>
+      </c>
+      <c r="G323" s="11">
+        <f t="shared" si="9"/>
+        <v>488000</v>
+      </c>
+    </row>
+    <row r="324" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
       <c r="D324" s="1"/>
       <c r="E324" s="1"/>
-      <c r="F324" s="1"/>
-      <c r="G324" s="1"/>
-    </row>
-    <row r="325" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F324" s="11">
+        <f t="shared" si="8"/>
+        <v>1500</v>
+      </c>
+      <c r="G324" s="11">
+        <f t="shared" si="9"/>
+        <v>489500</v>
+      </c>
+    </row>
+    <row r="325" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
       <c r="D325" s="1"/>
       <c r="E325" s="1"/>
-      <c r="F325" s="1"/>
-      <c r="G325" s="1"/>
-    </row>
-    <row r="326" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F325" s="11">
+        <f t="shared" si="8"/>
+        <v>1500</v>
+      </c>
+      <c r="G325" s="11">
+        <f t="shared" si="9"/>
+        <v>491000</v>
+      </c>
+    </row>
+    <row r="326" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
       <c r="D326" s="1"/>
       <c r="E326" s="1"/>
-      <c r="F326" s="1"/>
-      <c r="G326" s="1"/>
-    </row>
-    <row r="327" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F326" s="11">
+        <f t="shared" ref="F326:F356" si="10">((1500*D326)+(1000*E326)+1500)</f>
+        <v>1500</v>
+      </c>
+      <c r="G326" s="11">
+        <f t="shared" ref="G326:G356" si="11">G325+F326</f>
+        <v>492500</v>
+      </c>
+    </row>
+    <row r="327" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
       <c r="D327" s="1"/>
       <c r="E327" s="1"/>
-      <c r="F327" s="1"/>
-      <c r="G327" s="1"/>
-    </row>
-    <row r="328" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F327" s="11">
+        <f t="shared" si="10"/>
+        <v>1500</v>
+      </c>
+      <c r="G327" s="11">
+        <f t="shared" si="11"/>
+        <v>494000</v>
+      </c>
+    </row>
+    <row r="328" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
       <c r="D328" s="1"/>
       <c r="E328" s="1"/>
-      <c r="F328" s="1"/>
-      <c r="G328" s="1"/>
-    </row>
-    <row r="329" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F328" s="11">
+        <f t="shared" si="10"/>
+        <v>1500</v>
+      </c>
+      <c r="G328" s="11">
+        <f t="shared" si="11"/>
+        <v>495500</v>
+      </c>
+    </row>
+    <row r="329" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
       <c r="D329" s="1"/>
       <c r="E329" s="1"/>
-      <c r="F329" s="1"/>
-      <c r="G329" s="1"/>
-    </row>
-    <row r="330" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F329" s="11">
+        <f t="shared" si="10"/>
+        <v>1500</v>
+      </c>
+      <c r="G329" s="11">
+        <f t="shared" si="11"/>
+        <v>497000</v>
+      </c>
+    </row>
+    <row r="330" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
       <c r="D330" s="1"/>
       <c r="E330" s="1"/>
-      <c r="F330" s="1"/>
-      <c r="G330" s="1"/>
-    </row>
-    <row r="331" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F330" s="11">
+        <f t="shared" si="10"/>
+        <v>1500</v>
+      </c>
+      <c r="G330" s="11">
+        <f t="shared" si="11"/>
+        <v>498500</v>
+      </c>
+    </row>
+    <row r="331" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
       <c r="D331" s="1"/>
       <c r="E331" s="1"/>
-      <c r="F331" s="1"/>
-      <c r="G331" s="1"/>
-    </row>
-    <row r="332" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F331" s="11">
+        <f t="shared" si="10"/>
+        <v>1500</v>
+      </c>
+      <c r="G331" s="11">
+        <f t="shared" si="11"/>
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="332" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
       <c r="D332" s="1"/>
       <c r="E332" s="1"/>
-      <c r="F332" s="1"/>
-      <c r="G332" s="1"/>
-    </row>
-    <row r="333" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F332" s="11">
+        <f t="shared" si="10"/>
+        <v>1500</v>
+      </c>
+      <c r="G332" s="11">
+        <f t="shared" si="11"/>
+        <v>501500</v>
+      </c>
+    </row>
+    <row r="333" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
       <c r="D333" s="1"/>
       <c r="E333" s="1"/>
-      <c r="F333" s="1"/>
-      <c r="G333" s="1"/>
-    </row>
-    <row r="334" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F333" s="11">
+        <f t="shared" si="10"/>
+        <v>1500</v>
+      </c>
+      <c r="G333" s="11">
+        <f t="shared" si="11"/>
+        <v>503000</v>
+      </c>
+    </row>
+    <row r="334" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
       <c r="D334" s="1"/>
       <c r="E334" s="1"/>
-      <c r="F334" s="1"/>
-      <c r="G334" s="1"/>
-    </row>
-    <row r="335" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F334" s="11">
+        <f t="shared" si="10"/>
+        <v>1500</v>
+      </c>
+      <c r="G334" s="11">
+        <f t="shared" si="11"/>
+        <v>504500</v>
+      </c>
+    </row>
+    <row r="335" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
       <c r="D335" s="1"/>
       <c r="E335" s="1"/>
-      <c r="F335" s="1"/>
-      <c r="G335" s="1"/>
-    </row>
-    <row r="336" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F335" s="11">
+        <f t="shared" si="10"/>
+        <v>1500</v>
+      </c>
+      <c r="G335" s="11">
+        <f t="shared" si="11"/>
+        <v>506000</v>
+      </c>
+    </row>
+    <row r="336" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
       <c r="D336" s="1"/>
       <c r="E336" s="1"/>
-      <c r="F336" s="1"/>
-      <c r="G336" s="1"/>
-    </row>
-    <row r="337" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F336" s="11">
+        <f t="shared" si="10"/>
+        <v>1500</v>
+      </c>
+      <c r="G336" s="11">
+        <f t="shared" si="11"/>
+        <v>507500</v>
+      </c>
+    </row>
+    <row r="337" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
       <c r="D337" s="1"/>
       <c r="E337" s="1"/>
-      <c r="F337" s="1"/>
-      <c r="G337" s="1"/>
-    </row>
-    <row r="338" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F337" s="11">
+        <f t="shared" si="10"/>
+        <v>1500</v>
+      </c>
+      <c r="G337" s="11">
+        <f t="shared" si="11"/>
+        <v>509000</v>
+      </c>
+    </row>
+    <row r="338" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
       <c r="D338" s="1"/>
       <c r="E338" s="1"/>
-      <c r="F338" s="1"/>
-      <c r="G338" s="1"/>
-    </row>
-    <row r="339" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F338" s="11">
+        <f t="shared" si="10"/>
+        <v>1500</v>
+      </c>
+      <c r="G338" s="11">
+        <f t="shared" si="11"/>
+        <v>510500</v>
+      </c>
+    </row>
+    <row r="339" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
       <c r="D339" s="1"/>
       <c r="E339" s="1"/>
-      <c r="F339" s="1"/>
-      <c r="G339" s="1"/>
-    </row>
-    <row r="340" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F339" s="11">
+        <f t="shared" si="10"/>
+        <v>1500</v>
+      </c>
+      <c r="G339" s="11">
+        <f t="shared" si="11"/>
+        <v>512000</v>
+      </c>
+    </row>
+    <row r="340" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
       <c r="D340" s="1"/>
       <c r="E340" s="1"/>
-      <c r="F340" s="1"/>
-      <c r="G340" s="1"/>
-    </row>
-    <row r="341" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F340" s="11">
+        <f t="shared" si="10"/>
+        <v>1500</v>
+      </c>
+      <c r="G340" s="11">
+        <f t="shared" si="11"/>
+        <v>513500</v>
+      </c>
+    </row>
+    <row r="341" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
       <c r="D341" s="1"/>
       <c r="E341" s="1"/>
-      <c r="F341" s="1"/>
-      <c r="G341" s="1"/>
-    </row>
-    <row r="342" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F341" s="11">
+        <f t="shared" si="10"/>
+        <v>1500</v>
+      </c>
+      <c r="G341" s="11">
+        <f t="shared" si="11"/>
+        <v>515000</v>
+      </c>
+    </row>
+    <row r="342" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
       <c r="D342" s="1"/>
       <c r="E342" s="1"/>
-      <c r="F342" s="1"/>
-      <c r="G342" s="1"/>
-    </row>
-    <row r="343" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F342" s="11">
+        <f t="shared" si="10"/>
+        <v>1500</v>
+      </c>
+      <c r="G342" s="11">
+        <f t="shared" si="11"/>
+        <v>516500</v>
+      </c>
+    </row>
+    <row r="343" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
       <c r="D343" s="1"/>
       <c r="E343" s="1"/>
-      <c r="F343" s="1"/>
-      <c r="G343" s="1"/>
-    </row>
-    <row r="344" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F343" s="11">
+        <f t="shared" si="10"/>
+        <v>1500</v>
+      </c>
+      <c r="G343" s="11">
+        <f t="shared" si="11"/>
+        <v>518000</v>
+      </c>
+    </row>
+    <row r="344" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
       <c r="D344" s="1"/>
       <c r="E344" s="1"/>
-      <c r="F344" s="1"/>
-      <c r="G344" s="1"/>
-    </row>
-    <row r="345" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F344" s="11">
+        <f t="shared" si="10"/>
+        <v>1500</v>
+      </c>
+      <c r="G344" s="11">
+        <f t="shared" si="11"/>
+        <v>519500</v>
+      </c>
+    </row>
+    <row r="345" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
       <c r="D345" s="1"/>
       <c r="E345" s="1"/>
-      <c r="F345" s="1"/>
-      <c r="G345" s="1"/>
-    </row>
-    <row r="346" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F345" s="11">
+        <f t="shared" si="10"/>
+        <v>1500</v>
+      </c>
+      <c r="G345" s="11">
+        <f t="shared" si="11"/>
+        <v>521000</v>
+      </c>
+    </row>
+    <row r="346" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
       <c r="D346" s="1"/>
       <c r="E346" s="1"/>
-      <c r="F346" s="1"/>
-      <c r="G346" s="1"/>
-    </row>
-    <row r="347" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F346" s="11">
+        <f t="shared" si="10"/>
+        <v>1500</v>
+      </c>
+      <c r="G346" s="11">
+        <f t="shared" si="11"/>
+        <v>522500</v>
+      </c>
+    </row>
+    <row r="347" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
       <c r="D347" s="1"/>
       <c r="E347" s="1"/>
-      <c r="F347" s="1"/>
-      <c r="G347" s="1"/>
-    </row>
-    <row r="348" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F347" s="11">
+        <f t="shared" si="10"/>
+        <v>1500</v>
+      </c>
+      <c r="G347" s="11">
+        <f t="shared" si="11"/>
+        <v>524000</v>
+      </c>
+    </row>
+    <row r="348" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
       <c r="D348" s="1"/>
       <c r="E348" s="1"/>
-      <c r="F348" s="1"/>
-      <c r="G348" s="1"/>
-    </row>
-    <row r="349" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F348" s="11">
+        <f t="shared" si="10"/>
+        <v>1500</v>
+      </c>
+      <c r="G348" s="11">
+        <f t="shared" si="11"/>
+        <v>525500</v>
+      </c>
+    </row>
+    <row r="349" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
       <c r="D349" s="1"/>
       <c r="E349" s="1"/>
-      <c r="F349" s="1"/>
-      <c r="G349" s="1"/>
-    </row>
-    <row r="350" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F349" s="11">
+        <f t="shared" si="10"/>
+        <v>1500</v>
+      </c>
+      <c r="G349" s="11">
+        <f t="shared" si="11"/>
+        <v>527000</v>
+      </c>
+    </row>
+    <row r="350" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
       <c r="D350" s="1"/>
       <c r="E350" s="1"/>
-      <c r="F350" s="1"/>
-      <c r="G350" s="1"/>
-    </row>
-    <row r="351" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F350" s="11">
+        <f t="shared" si="10"/>
+        <v>1500</v>
+      </c>
+      <c r="G350" s="11">
+        <f t="shared" si="11"/>
+        <v>528500</v>
+      </c>
+    </row>
+    <row r="351" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
       <c r="D351" s="1"/>
       <c r="E351" s="1"/>
-      <c r="F351" s="1"/>
-      <c r="G351" s="1"/>
-    </row>
-    <row r="352" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F351" s="11">
+        <f t="shared" si="10"/>
+        <v>1500</v>
+      </c>
+      <c r="G351" s="11">
+        <f t="shared" si="11"/>
+        <v>530000</v>
+      </c>
+    </row>
+    <row r="352" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
       <c r="D352" s="1"/>
       <c r="E352" s="1"/>
-      <c r="F352" s="1"/>
-      <c r="G352" s="1"/>
-    </row>
-    <row r="353" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F352" s="11">
+        <f t="shared" si="10"/>
+        <v>1500</v>
+      </c>
+      <c r="G352" s="11">
+        <f t="shared" si="11"/>
+        <v>531500</v>
+      </c>
+    </row>
+    <row r="353" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
       <c r="D353" s="1"/>
       <c r="E353" s="1"/>
-      <c r="F353" s="1"/>
-      <c r="G353" s="1"/>
-    </row>
-    <row r="354" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F353" s="11">
+        <f t="shared" si="10"/>
+        <v>1500</v>
+      </c>
+      <c r="G353" s="11">
+        <f t="shared" si="11"/>
+        <v>533000</v>
+      </c>
+    </row>
+    <row r="354" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
       <c r="D354" s="1"/>
       <c r="E354" s="1"/>
-      <c r="F354" s="1"/>
-      <c r="G354" s="1"/>
-    </row>
-    <row r="355" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F354" s="11">
+        <f t="shared" si="10"/>
+        <v>1500</v>
+      </c>
+      <c r="G354" s="11">
+        <f t="shared" si="11"/>
+        <v>534500</v>
+      </c>
+    </row>
+    <row r="355" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
       <c r="D355" s="1"/>
       <c r="E355" s="1"/>
-      <c r="F355" s="1"/>
-      <c r="G355" s="1"/>
-    </row>
-    <row r="356" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F355" s="11">
+        <f t="shared" si="10"/>
+        <v>1500</v>
+      </c>
+      <c r="G355" s="11">
+        <f t="shared" si="11"/>
+        <v>536000</v>
+      </c>
+    </row>
+    <row r="356" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
       <c r="D356" s="1"/>
       <c r="E356" s="1"/>
-      <c r="F356" s="1"/>
-      <c r="G356" s="1"/>
+      <c r="F356" s="11">
+        <f t="shared" si="10"/>
+        <v>1500</v>
+      </c>
+      <c r="G356" s="11">
+        <f t="shared" si="11"/>
+        <v>537500</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/LEDGER.xlsx
+++ b/LEDGER.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="68">
   <si>
     <t>DATE</t>
   </si>
@@ -328,10 +328,28 @@
     <t>MITTI</t>
   </si>
   <si>
-    <t>MISCLLANEOUS - VEGEATABLES</t>
+    <t>ONLINE</t>
   </si>
   <si>
-    <t>ONLINE</t>
+    <t>AITTIQ KO DIYE</t>
+  </si>
+  <si>
+    <t>BAJRI MOVE</t>
+  </si>
+  <si>
+    <t>JAZZ CASH</t>
+  </si>
+  <si>
+    <t>MITTI DUMP</t>
+  </si>
+  <si>
+    <t>BARJI MOVE</t>
+  </si>
+  <si>
+    <t>CENTER BEAM</t>
+  </si>
+  <si>
+    <t>RAFEEQ CLEAN SALARY</t>
   </si>
 </sst>
 </file>
@@ -473,7 +491,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -543,6 +561,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -676,7 +700,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -830,11 +854,62 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="8" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="8" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1162,8 +1237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q202"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L77" sqref="L77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1173,7 +1248,8 @@
     <col min="4" max="4" width="32.44140625" customWidth="1"/>
     <col min="5" max="5" width="9.77734375" customWidth="1"/>
     <col min="6" max="7" width="12.44140625" customWidth="1"/>
-    <col min="8" max="9" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.109375" customWidth="1"/>
     <col min="10" max="10" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.44140625" bestFit="1" customWidth="1"/>
@@ -1265,12 +1341,13 @@
       <c r="M4" s="63"/>
       <c r="N4" s="70">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="O4" s="61">
         <f t="shared" si="1"/>
-        <v>98450</v>
-      </c>
+        <v>126450</v>
+      </c>
+      <c r="P4" s="20"/>
     </row>
     <row r="5" spans="2:16" ht="21" x14ac:dyDescent="0.4">
       <c r="B5" s="54" t="s">
@@ -1306,11 +1383,11 @@
       <c r="M5" s="65"/>
       <c r="N5" s="70">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="O5" s="61">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="21" hidden="1" x14ac:dyDescent="0.4">
@@ -1365,7 +1442,7 @@
       <c r="N7" s="70"/>
       <c r="O7" s="61">
         <f t="shared" si="1"/>
-        <v>75000</v>
+        <v>77000</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="21" x14ac:dyDescent="0.4">
@@ -1385,7 +1462,7 @@
         <v>10000</v>
       </c>
       <c r="I8" s="11">
-        <f t="shared" ref="I8:I71" si="2">I7+H8</f>
+        <f t="shared" ref="I8:I67" si="2">I7+H8</f>
         <v>221000</v>
       </c>
       <c r="K8" s="3">
@@ -1398,7 +1475,7 @@
       <c r="N8" s="70"/>
       <c r="O8" s="61">
         <f t="shared" si="1"/>
-        <v>60000</v>
+        <v>110000</v>
       </c>
     </row>
     <row r="9" spans="2:16" ht="21" x14ac:dyDescent="0.4">
@@ -1466,7 +1543,7 @@
       <c r="N10" s="70"/>
       <c r="O10" s="61">
         <f t="shared" si="1"/>
-        <v>9238</v>
+        <v>13718</v>
       </c>
     </row>
     <row r="11" spans="2:16" ht="21" x14ac:dyDescent="0.4">
@@ -2482,7 +2559,7 @@
         <v>792947</v>
       </c>
       <c r="J52" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="2:13" ht="21" x14ac:dyDescent="0.4">
@@ -2553,7 +2630,7 @@
         <v>797535</v>
       </c>
       <c r="J55" s="20">
-        <f t="shared" ref="J55:J62" si="5">J54-H55</f>
+        <f t="shared" ref="J55:J57" si="5">J54-H55</f>
         <v>35000</v>
       </c>
       <c r="M55" s="20"/>
@@ -2663,32 +2740,26 @@
         <v>849985</v>
       </c>
       <c r="J59" s="20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="60" spans="2:13" ht="21" x14ac:dyDescent="0.4">
-      <c r="B60" s="81">
-        <v>45139</v>
-      </c>
-      <c r="C60" s="82">
-        <v>8</v>
-      </c>
-      <c r="D60" s="86" t="s">
-        <v>60</v>
-      </c>
+      <c r="B60" s="81"/>
+      <c r="C60" s="82"/>
+      <c r="D60" s="86"/>
       <c r="E60" s="83"/>
       <c r="F60" s="83"/>
       <c r="G60" s="83"/>
       <c r="H60" s="85">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="I60" s="11">
         <f t="shared" si="2"/>
-        <v>852985</v>
+        <v>849985</v>
       </c>
       <c r="J60" s="20">
         <f>J58-H60</f>
-        <v>18550</v>
+        <v>21550</v>
       </c>
     </row>
     <row r="61" spans="2:13" ht="21" x14ac:dyDescent="0.4">
@@ -2707,238 +2778,376 @@
       </c>
       <c r="I61" s="11">
         <f t="shared" si="2"/>
-        <v>857155</v>
+        <v>854155</v>
       </c>
       <c r="J61" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="2:13" ht="21" x14ac:dyDescent="0.4">
-      <c r="B62" s="3"/>
+      <c r="B62" s="12">
+        <v>45140</v>
+      </c>
       <c r="C62" s="9"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
+      <c r="D62" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E62" s="3">
+        <v>8</v>
+      </c>
+      <c r="F62" s="3">
+        <v>140</v>
+      </c>
+      <c r="G62" s="3">
+        <v>200</v>
+      </c>
       <c r="H62" s="38">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1320</v>
       </c>
       <c r="I62" s="11">
         <f t="shared" si="2"/>
-        <v>857155</v>
-      </c>
-      <c r="J62" s="20"/>
+        <v>855475</v>
+      </c>
+      <c r="J62" s="20">
+        <f>J60-H62</f>
+        <v>20230</v>
+      </c>
     </row>
     <row r="63" spans="2:13" ht="21" x14ac:dyDescent="0.4">
-      <c r="B63" s="3"/>
-      <c r="C63" s="9"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="38">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="B63" s="31">
+        <v>45140</v>
+      </c>
+      <c r="C63" s="50">
+        <v>4</v>
+      </c>
+      <c r="D63" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E63" s="26">
+        <v>2</v>
+      </c>
+      <c r="F63" s="26"/>
+      <c r="G63" s="26"/>
+      <c r="H63" s="27">
+        <v>4400</v>
       </c>
       <c r="I63" s="11">
         <f t="shared" si="2"/>
-        <v>857155</v>
+        <v>859875</v>
+      </c>
+      <c r="J63" s="20">
+        <f>J62-H63</f>
+        <v>15830</v>
       </c>
     </row>
     <row r="64" spans="2:13" ht="21" x14ac:dyDescent="0.4">
-      <c r="B64" s="3"/>
+      <c r="B64" s="12">
+        <v>45140</v>
+      </c>
       <c r="C64" s="9"/>
-      <c r="D64" s="3"/>
+      <c r="D64" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
       <c r="H64" s="38">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="I64" s="11">
         <f t="shared" si="2"/>
-        <v>857155</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="B65" s="3"/>
+        <v>861375</v>
+      </c>
+      <c r="J64" s="20">
+        <f t="shared" ref="J64:J66" si="7">J63-H64</f>
+        <v>14330</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" ht="21" x14ac:dyDescent="0.4">
+      <c r="B65" s="12">
+        <v>45140</v>
+      </c>
       <c r="C65" s="9"/>
-      <c r="D65" s="3"/>
+      <c r="D65" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
       <c r="H65" s="38">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="I65" s="11">
         <f t="shared" si="2"/>
-        <v>857155</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="B66" s="3"/>
-      <c r="C66" s="9"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
-      <c r="H66" s="38">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>862375</v>
+      </c>
+      <c r="J65" s="20">
+        <f t="shared" si="7"/>
+        <v>13330</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" ht="21" x14ac:dyDescent="0.4">
+      <c r="B66" s="37">
+        <v>45140</v>
+      </c>
+      <c r="C66" s="34">
+        <v>5</v>
+      </c>
+      <c r="D66" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E66" s="35"/>
+      <c r="F66" s="35"/>
+      <c r="G66" s="35"/>
+      <c r="H66" s="36">
+        <v>2000</v>
       </c>
       <c r="I66" s="11">
         <f t="shared" si="2"/>
-        <v>857155</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="B67" s="3"/>
-      <c r="C67" s="9"/>
-      <c r="D67" s="3"/>
+        <v>864375</v>
+      </c>
+      <c r="J66" s="20">
+        <f t="shared" si="7"/>
+        <v>11330</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" ht="21" x14ac:dyDescent="0.4">
+      <c r="B67" s="81">
+        <v>45140</v>
+      </c>
+      <c r="C67" s="82">
+        <v>8</v>
+      </c>
+      <c r="D67" s="83" t="s">
+        <v>61</v>
+      </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
-      <c r="H67" s="38">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="H67" s="85">
+        <v>5000</v>
       </c>
       <c r="I67" s="11">
         <f t="shared" si="2"/>
-        <v>857155</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="B68" s="3"/>
-      <c r="C68" s="9"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
+        <v>869375</v>
+      </c>
+      <c r="J67" s="20">
+        <f>J66-H67</f>
+        <v>6330</v>
+      </c>
+    </row>
+    <row r="68" spans="2:12" ht="21" x14ac:dyDescent="0.4">
+      <c r="B68" s="93">
+        <v>45140</v>
+      </c>
+      <c r="C68" s="94"/>
+      <c r="D68" s="95" t="s">
+        <v>64</v>
+      </c>
+      <c r="E68" s="95"/>
+      <c r="F68" s="95"/>
+      <c r="G68" s="95"/>
       <c r="H68" s="38">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="I68" s="11">
-        <f t="shared" si="2"/>
-        <v>857155</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="B69" s="3"/>
+        <f>I67+H68</f>
+        <v>872375</v>
+      </c>
+      <c r="J68" s="20">
+        <f>J67-H68</f>
+        <v>3330</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" ht="21" x14ac:dyDescent="0.4">
+      <c r="B69" s="12">
+        <v>45141</v>
+      </c>
       <c r="C69" s="9"/>
-      <c r="D69" s="3"/>
+      <c r="D69" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
       <c r="H69" s="38">
-        <f t="shared" si="3"/>
+        <v>1350</v>
+      </c>
+      <c r="I69" s="11">
+        <f>I68+H69</f>
+        <v>873725</v>
+      </c>
+      <c r="J69" s="20">
+        <f>J68-H69</f>
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" ht="21" x14ac:dyDescent="0.4">
+      <c r="B70" s="81">
+        <v>45141</v>
+      </c>
+      <c r="C70" s="82">
+        <v>8</v>
+      </c>
+      <c r="D70" s="83" t="s">
+        <v>14</v>
+      </c>
+      <c r="E70" s="83"/>
+      <c r="F70" s="83"/>
+      <c r="G70" s="83"/>
+      <c r="H70" s="85">
+        <v>1980</v>
+      </c>
+      <c r="I70" s="11">
+        <f>I69+H70</f>
+        <v>875705</v>
+      </c>
+      <c r="J70" s="20">
         <v>0</v>
       </c>
-      <c r="I69" s="11">
-        <f t="shared" si="2"/>
-        <v>857155</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="B70" s="3"/>
-      <c r="C70" s="9"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-      <c r="H70" s="38">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I70" s="11">
-        <f t="shared" si="2"/>
-        <v>857155</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="B71" s="3"/>
-      <c r="C71" s="9"/>
-      <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
-      <c r="H71" s="38">
-        <f t="shared" si="3"/>
-        <v>0</v>
+    </row>
+    <row r="71" spans="2:12" ht="21" x14ac:dyDescent="0.4">
+      <c r="B71" s="28">
+        <v>45141</v>
+      </c>
+      <c r="C71" s="51">
+        <v>3</v>
+      </c>
+      <c r="D71" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71" s="29">
+        <v>25</v>
+      </c>
+      <c r="F71" s="29">
+        <v>1100</v>
+      </c>
+      <c r="G71" s="29">
+        <v>500</v>
+      </c>
+      <c r="H71" s="30">
+        <f t="shared" ref="H71" si="8">(E71*F71)+G71</f>
+        <v>28000</v>
       </c>
       <c r="I71" s="11">
-        <f t="shared" si="2"/>
-        <v>857155</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="B72" s="3"/>
-      <c r="C72" s="9"/>
-      <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
+        <f>I70+H71</f>
+        <v>903705</v>
+      </c>
+      <c r="J71" s="69" t="s">
+        <v>46</v>
+      </c>
+      <c r="K71" s="72">
+        <v>100000</v>
+      </c>
+      <c r="L71" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" ht="21" x14ac:dyDescent="0.4">
+      <c r="B72" s="93">
+        <v>45141</v>
+      </c>
+      <c r="C72" s="91"/>
+      <c r="D72" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E72" s="92"/>
+      <c r="F72" s="92"/>
+      <c r="G72" s="92"/>
       <c r="H72" s="38">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="I72" s="11">
-        <f t="shared" ref="I72:I135" si="7">I71+H72</f>
-        <v>857155</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="B73" s="3"/>
-      <c r="C73" s="9"/>
-      <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
-      <c r="H73" s="38">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>I71+H72</f>
+        <v>906705</v>
+      </c>
+      <c r="J72" s="20">
+        <f>K71-H72</f>
+        <v>97000</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" ht="21" x14ac:dyDescent="0.4">
+      <c r="B73" s="96">
+        <v>45141</v>
+      </c>
+      <c r="C73" s="97">
+        <v>6</v>
+      </c>
+      <c r="D73" s="98" t="s">
+        <v>32</v>
+      </c>
+      <c r="E73" s="98"/>
+      <c r="F73" s="98"/>
+      <c r="G73" s="98"/>
+      <c r="H73" s="99">
+        <v>50000</v>
       </c>
       <c r="I73" s="11">
-        <f t="shared" si="7"/>
-        <v>857155</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="B74" s="3"/>
-      <c r="C74" s="9"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
+        <f t="shared" ref="I73:I135" si="9">I72+H73</f>
+        <v>956705</v>
+      </c>
+      <c r="J73" s="20">
+        <f>J72-H73</f>
+        <v>47000</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" ht="21" x14ac:dyDescent="0.4">
+      <c r="B74" s="12">
+        <v>45141</v>
+      </c>
+      <c r="C74" s="9">
+        <v>4</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E74" s="3">
+        <v>3</v>
+      </c>
+      <c r="F74" s="3">
+        <v>2200</v>
+      </c>
       <c r="G74" s="3"/>
       <c r="H74" s="38">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6600</v>
       </c>
       <c r="I74" s="11">
-        <f t="shared" si="7"/>
-        <v>857155</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="B75" s="3"/>
-      <c r="C75" s="9"/>
-      <c r="D75" s="3"/>
+        <f t="shared" si="9"/>
+        <v>963305</v>
+      </c>
+      <c r="J74" s="20">
+        <f t="shared" ref="J74:J80" si="10">J73-H74</f>
+        <v>40400</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" ht="21" x14ac:dyDescent="0.4">
+      <c r="B75" s="12">
+        <v>45141</v>
+      </c>
+      <c r="C75" s="9">
+        <v>8</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
       <c r="H75" s="38">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="I75" s="11">
-        <f t="shared" si="7"/>
-        <v>857155</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" ht="21" x14ac:dyDescent="0.4">
+        <f t="shared" si="9"/>
+        <v>963805</v>
+      </c>
+      <c r="J75" s="20">
+        <f t="shared" si="10"/>
+        <v>39900</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" ht="21" x14ac:dyDescent="0.4">
       <c r="B76" s="3"/>
       <c r="C76" s="9"/>
       <c r="D76" s="3"/>
@@ -2950,11 +3159,15 @@
         <v>0</v>
       </c>
       <c r="I76" s="11">
-        <f t="shared" si="7"/>
-        <v>857155</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" ht="21" x14ac:dyDescent="0.4">
+        <f t="shared" si="9"/>
+        <v>963805</v>
+      </c>
+      <c r="J76" s="20">
+        <f t="shared" si="10"/>
+        <v>39900</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" ht="21" x14ac:dyDescent="0.4">
       <c r="B77" s="3"/>
       <c r="C77" s="9"/>
       <c r="D77" s="3"/>
@@ -2966,11 +3179,15 @@
         <v>0</v>
       </c>
       <c r="I77" s="11">
-        <f t="shared" si="7"/>
-        <v>857155</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" ht="21" x14ac:dyDescent="0.4">
+        <f t="shared" si="9"/>
+        <v>963805</v>
+      </c>
+      <c r="J77" s="20">
+        <f t="shared" si="10"/>
+        <v>39900</v>
+      </c>
+    </row>
+    <row r="78" spans="2:12" ht="21" x14ac:dyDescent="0.4">
       <c r="B78" s="3"/>
       <c r="C78" s="9"/>
       <c r="D78" s="3"/>
@@ -2982,11 +3199,15 @@
         <v>0</v>
       </c>
       <c r="I78" s="11">
-        <f t="shared" si="7"/>
-        <v>857155</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" ht="21" x14ac:dyDescent="0.4">
+        <f t="shared" si="9"/>
+        <v>963805</v>
+      </c>
+      <c r="J78" s="20">
+        <f t="shared" si="10"/>
+        <v>39900</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" ht="21" x14ac:dyDescent="0.4">
       <c r="B79" s="3"/>
       <c r="C79" s="9"/>
       <c r="D79" s="3"/>
@@ -2998,11 +3219,15 @@
         <v>0</v>
       </c>
       <c r="I79" s="11">
-        <f t="shared" si="7"/>
-        <v>857155</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" ht="21" x14ac:dyDescent="0.4">
+        <f t="shared" si="9"/>
+        <v>963805</v>
+      </c>
+      <c r="J79" s="20">
+        <f t="shared" si="10"/>
+        <v>39900</v>
+      </c>
+    </row>
+    <row r="80" spans="2:12" ht="21" x14ac:dyDescent="0.4">
       <c r="B80" s="3"/>
       <c r="C80" s="9"/>
       <c r="D80" s="3"/>
@@ -3014,8 +3239,12 @@
         <v>0</v>
       </c>
       <c r="I80" s="11">
-        <f t="shared" si="7"/>
-        <v>857155</v>
+        <f t="shared" si="9"/>
+        <v>963805</v>
+      </c>
+      <c r="J80" s="20">
+        <f t="shared" si="10"/>
+        <v>39900</v>
       </c>
     </row>
     <row r="81" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3030,8 +3259,8 @@
         <v>0</v>
       </c>
       <c r="I81" s="11">
-        <f t="shared" si="7"/>
-        <v>857155</v>
+        <f t="shared" si="9"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="82" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3046,8 +3275,8 @@
         <v>0</v>
       </c>
       <c r="I82" s="11">
-        <f t="shared" si="7"/>
-        <v>857155</v>
+        <f t="shared" si="9"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="83" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3062,8 +3291,8 @@
         <v>0</v>
       </c>
       <c r="I83" s="11">
-        <f t="shared" si="7"/>
-        <v>857155</v>
+        <f t="shared" si="9"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="84" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3078,8 +3307,8 @@
         <v>0</v>
       </c>
       <c r="I84" s="11">
-        <f t="shared" si="7"/>
-        <v>857155</v>
+        <f t="shared" si="9"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="85" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3094,8 +3323,8 @@
         <v>0</v>
       </c>
       <c r="I85" s="11">
-        <f t="shared" si="7"/>
-        <v>857155</v>
+        <f t="shared" si="9"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="86" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3110,8 +3339,8 @@
         <v>0</v>
       </c>
       <c r="I86" s="11">
-        <f t="shared" si="7"/>
-        <v>857155</v>
+        <f t="shared" si="9"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="87" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3126,8 +3355,8 @@
         <v>0</v>
       </c>
       <c r="I87" s="11">
-        <f t="shared" si="7"/>
-        <v>857155</v>
+        <f t="shared" si="9"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="88" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3142,8 +3371,8 @@
         <v>0</v>
       </c>
       <c r="I88" s="11">
-        <f t="shared" si="7"/>
-        <v>857155</v>
+        <f t="shared" si="9"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="89" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3158,8 +3387,8 @@
         <v>0</v>
       </c>
       <c r="I89" s="11">
-        <f t="shared" si="7"/>
-        <v>857155</v>
+        <f t="shared" si="9"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="90" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3174,8 +3403,8 @@
         <v>0</v>
       </c>
       <c r="I90" s="11">
-        <f t="shared" si="7"/>
-        <v>857155</v>
+        <f t="shared" si="9"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="91" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3190,8 +3419,8 @@
         <v>0</v>
       </c>
       <c r="I91" s="11">
-        <f t="shared" si="7"/>
-        <v>857155</v>
+        <f t="shared" si="9"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="92" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3206,8 +3435,8 @@
         <v>0</v>
       </c>
       <c r="I92" s="11">
-        <f t="shared" si="7"/>
-        <v>857155</v>
+        <f t="shared" si="9"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="93" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3222,8 +3451,8 @@
         <v>0</v>
       </c>
       <c r="I93" s="11">
-        <f t="shared" si="7"/>
-        <v>857155</v>
+        <f t="shared" si="9"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="94" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3238,8 +3467,8 @@
         <v>0</v>
       </c>
       <c r="I94" s="11">
-        <f t="shared" si="7"/>
-        <v>857155</v>
+        <f t="shared" si="9"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="95" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3254,8 +3483,8 @@
         <v>0</v>
       </c>
       <c r="I95" s="11">
-        <f t="shared" si="7"/>
-        <v>857155</v>
+        <f t="shared" si="9"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="96" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3270,8 +3499,8 @@
         <v>0</v>
       </c>
       <c r="I96" s="11">
-        <f t="shared" si="7"/>
-        <v>857155</v>
+        <f t="shared" si="9"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="97" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3286,8 +3515,8 @@
         <v>0</v>
       </c>
       <c r="I97" s="11">
-        <f t="shared" si="7"/>
-        <v>857155</v>
+        <f t="shared" si="9"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="98" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3302,8 +3531,8 @@
         <v>0</v>
       </c>
       <c r="I98" s="11">
-        <f t="shared" si="7"/>
-        <v>857155</v>
+        <f t="shared" si="9"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="99" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3318,8 +3547,8 @@
         <v>0</v>
       </c>
       <c r="I99" s="11">
-        <f t="shared" si="7"/>
-        <v>857155</v>
+        <f t="shared" si="9"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="100" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3330,12 +3559,12 @@
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
       <c r="H100" s="38">
-        <f t="shared" ref="H100:H163" si="8">(E100*F100)+G100</f>
+        <f t="shared" ref="H100:H163" si="11">(E100*F100)+G100</f>
         <v>0</v>
       </c>
       <c r="I100" s="11">
-        <f t="shared" si="7"/>
-        <v>857155</v>
+        <f t="shared" si="9"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="101" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3346,12 +3575,12 @@
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
       <c r="H101" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I101" s="11">
-        <f t="shared" si="7"/>
-        <v>857155</v>
+        <f t="shared" si="9"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="102" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3362,12 +3591,12 @@
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
       <c r="H102" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I102" s="11">
-        <f t="shared" si="7"/>
-        <v>857155</v>
+        <f t="shared" si="9"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="103" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3378,12 +3607,12 @@
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
       <c r="H103" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I103" s="11">
-        <f t="shared" si="7"/>
-        <v>857155</v>
+        <f t="shared" si="9"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="104" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3394,12 +3623,12 @@
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
       <c r="H104" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I104" s="11">
-        <f t="shared" si="7"/>
-        <v>857155</v>
+        <f t="shared" si="9"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="105" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3410,12 +3639,12 @@
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
       <c r="H105" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I105" s="11">
-        <f t="shared" si="7"/>
-        <v>857155</v>
+        <f t="shared" si="9"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="106" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3426,12 +3655,12 @@
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
       <c r="H106" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I106" s="11">
-        <f t="shared" si="7"/>
-        <v>857155</v>
+        <f t="shared" si="9"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="107" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3442,12 +3671,12 @@
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
       <c r="H107" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I107" s="11">
-        <f t="shared" si="7"/>
-        <v>857155</v>
+        <f t="shared" si="9"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="108" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3458,12 +3687,12 @@
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
       <c r="H108" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I108" s="11">
-        <f t="shared" si="7"/>
-        <v>857155</v>
+        <f t="shared" si="9"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="109" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3474,12 +3703,12 @@
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
       <c r="H109" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I109" s="11">
-        <f t="shared" si="7"/>
-        <v>857155</v>
+        <f t="shared" si="9"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="110" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3490,12 +3719,12 @@
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
       <c r="H110" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I110" s="11">
-        <f t="shared" si="7"/>
-        <v>857155</v>
+        <f t="shared" si="9"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="111" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3506,12 +3735,12 @@
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
       <c r="H111" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I111" s="11">
-        <f t="shared" si="7"/>
-        <v>857155</v>
+        <f t="shared" si="9"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="112" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3522,12 +3751,12 @@
       <c r="F112" s="3"/>
       <c r="G112" s="3"/>
       <c r="H112" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I112" s="11">
-        <f t="shared" si="7"/>
-        <v>857155</v>
+        <f t="shared" si="9"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="113" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3538,12 +3767,12 @@
       <c r="F113" s="3"/>
       <c r="G113" s="3"/>
       <c r="H113" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I113" s="11">
-        <f t="shared" si="7"/>
-        <v>857155</v>
+        <f t="shared" si="9"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="114" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3554,12 +3783,12 @@
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
       <c r="H114" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I114" s="11">
-        <f t="shared" si="7"/>
-        <v>857155</v>
+        <f t="shared" si="9"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="115" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3570,12 +3799,12 @@
       <c r="F115" s="3"/>
       <c r="G115" s="3"/>
       <c r="H115" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I115" s="11">
-        <f t="shared" si="7"/>
-        <v>857155</v>
+        <f t="shared" si="9"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="116" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3586,12 +3815,12 @@
       <c r="F116" s="3"/>
       <c r="G116" s="3"/>
       <c r="H116" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I116" s="11">
-        <f t="shared" si="7"/>
-        <v>857155</v>
+        <f t="shared" si="9"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="117" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3602,12 +3831,12 @@
       <c r="F117" s="3"/>
       <c r="G117" s="3"/>
       <c r="H117" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I117" s="11">
-        <f t="shared" si="7"/>
-        <v>857155</v>
+        <f t="shared" si="9"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="118" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3618,12 +3847,12 @@
       <c r="F118" s="3"/>
       <c r="G118" s="3"/>
       <c r="H118" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I118" s="11">
-        <f t="shared" si="7"/>
-        <v>857155</v>
+        <f t="shared" si="9"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="119" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3634,12 +3863,12 @@
       <c r="F119" s="3"/>
       <c r="G119" s="3"/>
       <c r="H119" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I119" s="11">
-        <f t="shared" si="7"/>
-        <v>857155</v>
+        <f t="shared" si="9"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="120" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3650,12 +3879,12 @@
       <c r="F120" s="3"/>
       <c r="G120" s="3"/>
       <c r="H120" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I120" s="11">
-        <f t="shared" si="7"/>
-        <v>857155</v>
+        <f t="shared" si="9"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="121" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3666,12 +3895,12 @@
       <c r="F121" s="3"/>
       <c r="G121" s="3"/>
       <c r="H121" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I121" s="11">
-        <f t="shared" si="7"/>
-        <v>857155</v>
+        <f t="shared" si="9"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="122" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3682,12 +3911,12 @@
       <c r="F122" s="3"/>
       <c r="G122" s="3"/>
       <c r="H122" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I122" s="11">
-        <f t="shared" si="7"/>
-        <v>857155</v>
+        <f t="shared" si="9"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="123" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3698,12 +3927,12 @@
       <c r="F123" s="3"/>
       <c r="G123" s="3"/>
       <c r="H123" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I123" s="11">
-        <f t="shared" si="7"/>
-        <v>857155</v>
+        <f t="shared" si="9"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="124" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3714,12 +3943,12 @@
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
       <c r="H124" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I124" s="11">
-        <f t="shared" si="7"/>
-        <v>857155</v>
+        <f t="shared" si="9"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="125" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3730,12 +3959,12 @@
       <c r="F125" s="3"/>
       <c r="G125" s="3"/>
       <c r="H125" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I125" s="11">
-        <f t="shared" si="7"/>
-        <v>857155</v>
+        <f t="shared" si="9"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="126" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3746,12 +3975,12 @@
       <c r="F126" s="3"/>
       <c r="G126" s="3"/>
       <c r="H126" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I126" s="11">
-        <f t="shared" si="7"/>
-        <v>857155</v>
+        <f t="shared" si="9"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="127" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3762,12 +3991,12 @@
       <c r="F127" s="3"/>
       <c r="G127" s="3"/>
       <c r="H127" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I127" s="11">
-        <f t="shared" si="7"/>
-        <v>857155</v>
+        <f t="shared" si="9"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="128" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3778,12 +4007,12 @@
       <c r="F128" s="3"/>
       <c r="G128" s="3"/>
       <c r="H128" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I128" s="11">
-        <f t="shared" si="7"/>
-        <v>857155</v>
+        <f t="shared" si="9"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="129" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3794,12 +4023,12 @@
       <c r="F129" s="3"/>
       <c r="G129" s="3"/>
       <c r="H129" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I129" s="11">
-        <f t="shared" si="7"/>
-        <v>857155</v>
+        <f t="shared" si="9"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="130" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3810,12 +4039,12 @@
       <c r="F130" s="3"/>
       <c r="G130" s="3"/>
       <c r="H130" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I130" s="11">
-        <f t="shared" si="7"/>
-        <v>857155</v>
+        <f t="shared" si="9"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="131" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3826,12 +4055,12 @@
       <c r="F131" s="3"/>
       <c r="G131" s="3"/>
       <c r="H131" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I131" s="11">
-        <f t="shared" si="7"/>
-        <v>857155</v>
+        <f t="shared" si="9"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="132" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3842,12 +4071,12 @@
       <c r="F132" s="3"/>
       <c r="G132" s="3"/>
       <c r="H132" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I132" s="11">
-        <f t="shared" si="7"/>
-        <v>857155</v>
+        <f t="shared" si="9"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="133" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3858,12 +4087,12 @@
       <c r="F133" s="3"/>
       <c r="G133" s="3"/>
       <c r="H133" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I133" s="11">
-        <f t="shared" si="7"/>
-        <v>857155</v>
+        <f t="shared" si="9"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="134" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3874,12 +4103,12 @@
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
       <c r="H134" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I134" s="11">
-        <f t="shared" si="7"/>
-        <v>857155</v>
+        <f t="shared" si="9"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="135" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3890,12 +4119,12 @@
       <c r="F135" s="3"/>
       <c r="G135" s="3"/>
       <c r="H135" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I135" s="11">
-        <f t="shared" si="7"/>
-        <v>857155</v>
+        <f t="shared" si="9"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="136" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3906,12 +4135,12 @@
       <c r="F136" s="3"/>
       <c r="G136" s="3"/>
       <c r="H136" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I136" s="11">
-        <f t="shared" ref="I136:I199" si="9">I135+H136</f>
-        <v>857155</v>
+        <f t="shared" ref="I136:I199" si="12">I135+H136</f>
+        <v>963805</v>
       </c>
     </row>
     <row r="137" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3922,12 +4151,12 @@
       <c r="F137" s="3"/>
       <c r="G137" s="3"/>
       <c r="H137" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I137" s="11">
-        <f t="shared" si="9"/>
-        <v>857155</v>
+        <f t="shared" si="12"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="138" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3938,12 +4167,12 @@
       <c r="F138" s="3"/>
       <c r="G138" s="3"/>
       <c r="H138" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I138" s="11">
-        <f t="shared" si="9"/>
-        <v>857155</v>
+        <f t="shared" si="12"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="139" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3954,12 +4183,12 @@
       <c r="F139" s="3"/>
       <c r="G139" s="3"/>
       <c r="H139" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I139" s="11">
-        <f t="shared" si="9"/>
-        <v>857155</v>
+        <f t="shared" si="12"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="140" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3970,12 +4199,12 @@
       <c r="F140" s="3"/>
       <c r="G140" s="3"/>
       <c r="H140" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I140" s="11">
-        <f t="shared" si="9"/>
-        <v>857155</v>
+        <f t="shared" si="12"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="141" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3986,12 +4215,12 @@
       <c r="F141" s="3"/>
       <c r="G141" s="3"/>
       <c r="H141" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I141" s="11">
-        <f t="shared" si="9"/>
-        <v>857155</v>
+        <f t="shared" si="12"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="142" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4002,12 +4231,12 @@
       <c r="F142" s="3"/>
       <c r="G142" s="3"/>
       <c r="H142" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I142" s="11">
-        <f t="shared" si="9"/>
-        <v>857155</v>
+        <f t="shared" si="12"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="143" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4018,12 +4247,12 @@
       <c r="F143" s="3"/>
       <c r="G143" s="3"/>
       <c r="H143" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I143" s="11">
-        <f t="shared" si="9"/>
-        <v>857155</v>
+        <f t="shared" si="12"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="144" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4034,12 +4263,12 @@
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
       <c r="H144" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I144" s="11">
-        <f t="shared" si="9"/>
-        <v>857155</v>
+        <f t="shared" si="12"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="145" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4050,12 +4279,12 @@
       <c r="F145" s="3"/>
       <c r="G145" s="3"/>
       <c r="H145" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I145" s="11">
-        <f t="shared" si="9"/>
-        <v>857155</v>
+        <f t="shared" si="12"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="146" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4066,12 +4295,12 @@
       <c r="F146" s="3"/>
       <c r="G146" s="3"/>
       <c r="H146" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I146" s="11">
-        <f t="shared" si="9"/>
-        <v>857155</v>
+        <f t="shared" si="12"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="147" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4082,12 +4311,12 @@
       <c r="F147" s="3"/>
       <c r="G147" s="3"/>
       <c r="H147" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I147" s="11">
-        <f t="shared" si="9"/>
-        <v>857155</v>
+        <f t="shared" si="12"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="148" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4098,12 +4327,12 @@
       <c r="F148" s="3"/>
       <c r="G148" s="3"/>
       <c r="H148" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I148" s="11">
-        <f t="shared" si="9"/>
-        <v>857155</v>
+        <f t="shared" si="12"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="149" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4114,12 +4343,12 @@
       <c r="F149" s="3"/>
       <c r="G149" s="3"/>
       <c r="H149" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I149" s="11">
-        <f t="shared" si="9"/>
-        <v>857155</v>
+        <f t="shared" si="12"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="150" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4130,12 +4359,12 @@
       <c r="F150" s="3"/>
       <c r="G150" s="3"/>
       <c r="H150" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I150" s="11">
-        <f t="shared" si="9"/>
-        <v>857155</v>
+        <f t="shared" si="12"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="151" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4146,12 +4375,12 @@
       <c r="F151" s="3"/>
       <c r="G151" s="3"/>
       <c r="H151" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I151" s="11">
-        <f t="shared" si="9"/>
-        <v>857155</v>
+        <f t="shared" si="12"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="152" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4162,12 +4391,12 @@
       <c r="F152" s="3"/>
       <c r="G152" s="3"/>
       <c r="H152" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I152" s="11">
-        <f t="shared" si="9"/>
-        <v>857155</v>
+        <f t="shared" si="12"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="153" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4178,12 +4407,12 @@
       <c r="F153" s="3"/>
       <c r="G153" s="3"/>
       <c r="H153" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I153" s="11">
-        <f t="shared" si="9"/>
-        <v>857155</v>
+        <f t="shared" si="12"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="154" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4194,12 +4423,12 @@
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
       <c r="H154" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I154" s="11">
-        <f t="shared" si="9"/>
-        <v>857155</v>
+        <f t="shared" si="12"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="155" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4210,12 +4439,12 @@
       <c r="F155" s="3"/>
       <c r="G155" s="3"/>
       <c r="H155" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I155" s="11">
-        <f t="shared" si="9"/>
-        <v>857155</v>
+        <f t="shared" si="12"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="156" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4226,12 +4455,12 @@
       <c r="F156" s="3"/>
       <c r="G156" s="3"/>
       <c r="H156" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I156" s="11">
-        <f t="shared" si="9"/>
-        <v>857155</v>
+        <f t="shared" si="12"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="157" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4242,12 +4471,12 @@
       <c r="F157" s="3"/>
       <c r="G157" s="3"/>
       <c r="H157" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I157" s="11">
-        <f t="shared" si="9"/>
-        <v>857155</v>
+        <f t="shared" si="12"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="158" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4258,12 +4487,12 @@
       <c r="F158" s="3"/>
       <c r="G158" s="3"/>
       <c r="H158" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I158" s="11">
-        <f t="shared" si="9"/>
-        <v>857155</v>
+        <f t="shared" si="12"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="159" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4274,12 +4503,12 @@
       <c r="F159" s="3"/>
       <c r="G159" s="3"/>
       <c r="H159" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I159" s="11">
-        <f t="shared" si="9"/>
-        <v>857155</v>
+        <f t="shared" si="12"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="160" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4290,12 +4519,12 @@
       <c r="F160" s="3"/>
       <c r="G160" s="3"/>
       <c r="H160" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I160" s="11">
-        <f t="shared" si="9"/>
-        <v>857155</v>
+        <f t="shared" si="12"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="161" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4306,12 +4535,12 @@
       <c r="F161" s="3"/>
       <c r="G161" s="3"/>
       <c r="H161" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I161" s="11">
-        <f t="shared" si="9"/>
-        <v>857155</v>
+        <f t="shared" si="12"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="162" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4322,12 +4551,12 @@
       <c r="F162" s="3"/>
       <c r="G162" s="3"/>
       <c r="H162" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I162" s="11">
-        <f t="shared" si="9"/>
-        <v>857155</v>
+        <f t="shared" si="12"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="163" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4338,12 +4567,12 @@
       <c r="F163" s="3"/>
       <c r="G163" s="3"/>
       <c r="H163" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I163" s="11">
-        <f t="shared" si="9"/>
-        <v>857155</v>
+        <f t="shared" si="12"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="164" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4354,12 +4583,12 @@
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
       <c r="H164" s="38">
-        <f t="shared" ref="H164:H202" si="10">(E164*F164)+G164</f>
+        <f t="shared" ref="H164:H202" si="13">(E164*F164)+G164</f>
         <v>0</v>
       </c>
       <c r="I164" s="11">
-        <f t="shared" si="9"/>
-        <v>857155</v>
+        <f t="shared" si="12"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="165" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4370,12 +4599,12 @@
       <c r="F165" s="3"/>
       <c r="G165" s="3"/>
       <c r="H165" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I165" s="11">
-        <f t="shared" si="9"/>
-        <v>857155</v>
+        <f t="shared" si="12"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="166" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4386,12 +4615,12 @@
       <c r="F166" s="3"/>
       <c r="G166" s="3"/>
       <c r="H166" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I166" s="11">
-        <f t="shared" si="9"/>
-        <v>857155</v>
+        <f t="shared" si="12"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="167" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4402,12 +4631,12 @@
       <c r="F167" s="3"/>
       <c r="G167" s="3"/>
       <c r="H167" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I167" s="11">
-        <f t="shared" si="9"/>
-        <v>857155</v>
+        <f t="shared" si="12"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="168" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4418,12 +4647,12 @@
       <c r="F168" s="3"/>
       <c r="G168" s="3"/>
       <c r="H168" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I168" s="11">
-        <f t="shared" si="9"/>
-        <v>857155</v>
+        <f t="shared" si="12"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="169" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4434,12 +4663,12 @@
       <c r="F169" s="3"/>
       <c r="G169" s="3"/>
       <c r="H169" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I169" s="11">
-        <f t="shared" si="9"/>
-        <v>857155</v>
+        <f t="shared" si="12"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="170" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4450,12 +4679,12 @@
       <c r="F170" s="3"/>
       <c r="G170" s="3"/>
       <c r="H170" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I170" s="11">
-        <f t="shared" si="9"/>
-        <v>857155</v>
+        <f t="shared" si="12"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="171" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4466,12 +4695,12 @@
       <c r="F171" s="3"/>
       <c r="G171" s="3"/>
       <c r="H171" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I171" s="11">
-        <f t="shared" si="9"/>
-        <v>857155</v>
+        <f t="shared" si="12"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="172" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4482,12 +4711,12 @@
       <c r="F172" s="3"/>
       <c r="G172" s="3"/>
       <c r="H172" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I172" s="11">
-        <f t="shared" si="9"/>
-        <v>857155</v>
+        <f t="shared" si="12"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="173" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4498,12 +4727,12 @@
       <c r="F173" s="3"/>
       <c r="G173" s="3"/>
       <c r="H173" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I173" s="11">
-        <f t="shared" si="9"/>
-        <v>857155</v>
+        <f t="shared" si="12"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="174" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4514,12 +4743,12 @@
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
       <c r="H174" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I174" s="11">
-        <f t="shared" si="9"/>
-        <v>857155</v>
+        <f t="shared" si="12"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="175" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4530,12 +4759,12 @@
       <c r="F175" s="3"/>
       <c r="G175" s="3"/>
       <c r="H175" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I175" s="11">
-        <f t="shared" si="9"/>
-        <v>857155</v>
+        <f t="shared" si="12"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="176" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4546,12 +4775,12 @@
       <c r="F176" s="3"/>
       <c r="G176" s="3"/>
       <c r="H176" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I176" s="11">
-        <f t="shared" si="9"/>
-        <v>857155</v>
+        <f t="shared" si="12"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="177" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4562,12 +4791,12 @@
       <c r="F177" s="3"/>
       <c r="G177" s="3"/>
       <c r="H177" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I177" s="11">
-        <f t="shared" si="9"/>
-        <v>857155</v>
+        <f t="shared" si="12"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="178" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4578,12 +4807,12 @@
       <c r="F178" s="3"/>
       <c r="G178" s="3"/>
       <c r="H178" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I178" s="11">
-        <f t="shared" si="9"/>
-        <v>857155</v>
+        <f t="shared" si="12"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="179" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4594,12 +4823,12 @@
       <c r="F179" s="3"/>
       <c r="G179" s="3"/>
       <c r="H179" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I179" s="11">
-        <f t="shared" si="9"/>
-        <v>857155</v>
+        <f t="shared" si="12"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="180" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4610,12 +4839,12 @@
       <c r="F180" s="3"/>
       <c r="G180" s="3"/>
       <c r="H180" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I180" s="11">
-        <f t="shared" si="9"/>
-        <v>857155</v>
+        <f t="shared" si="12"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="181" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4626,12 +4855,12 @@
       <c r="F181" s="3"/>
       <c r="G181" s="3"/>
       <c r="H181" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I181" s="11">
-        <f t="shared" si="9"/>
-        <v>857155</v>
+        <f t="shared" si="12"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="182" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4642,12 +4871,12 @@
       <c r="F182" s="3"/>
       <c r="G182" s="3"/>
       <c r="H182" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I182" s="11">
-        <f t="shared" si="9"/>
-        <v>857155</v>
+        <f t="shared" si="12"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="183" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4658,12 +4887,12 @@
       <c r="F183" s="3"/>
       <c r="G183" s="3"/>
       <c r="H183" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I183" s="11">
-        <f t="shared" si="9"/>
-        <v>857155</v>
+        <f t="shared" si="12"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="184" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4674,12 +4903,12 @@
       <c r="F184" s="3"/>
       <c r="G184" s="3"/>
       <c r="H184" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I184" s="11">
-        <f t="shared" si="9"/>
-        <v>857155</v>
+        <f t="shared" si="12"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="185" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4690,12 +4919,12 @@
       <c r="F185" s="3"/>
       <c r="G185" s="3"/>
       <c r="H185" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I185" s="11">
-        <f t="shared" si="9"/>
-        <v>857155</v>
+        <f t="shared" si="12"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="186" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4706,12 +4935,12 @@
       <c r="F186" s="3"/>
       <c r="G186" s="3"/>
       <c r="H186" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I186" s="11">
-        <f t="shared" si="9"/>
-        <v>857155</v>
+        <f t="shared" si="12"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="187" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4722,12 +4951,12 @@
       <c r="F187" s="3"/>
       <c r="G187" s="3"/>
       <c r="H187" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I187" s="11">
-        <f t="shared" si="9"/>
-        <v>857155</v>
+        <f t="shared" si="12"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="188" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4738,12 +4967,12 @@
       <c r="F188" s="3"/>
       <c r="G188" s="3"/>
       <c r="H188" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I188" s="11">
-        <f t="shared" si="9"/>
-        <v>857155</v>
+        <f t="shared" si="12"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="189" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4754,12 +4983,12 @@
       <c r="F189" s="3"/>
       <c r="G189" s="3"/>
       <c r="H189" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I189" s="11">
-        <f t="shared" si="9"/>
-        <v>857155</v>
+        <f t="shared" si="12"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="190" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4770,12 +4999,12 @@
       <c r="F190" s="3"/>
       <c r="G190" s="3"/>
       <c r="H190" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I190" s="11">
-        <f t="shared" si="9"/>
-        <v>857155</v>
+        <f t="shared" si="12"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="191" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4786,12 +5015,12 @@
       <c r="F191" s="3"/>
       <c r="G191" s="3"/>
       <c r="H191" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I191" s="11">
-        <f t="shared" si="9"/>
-        <v>857155</v>
+        <f t="shared" si="12"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="192" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4802,12 +5031,12 @@
       <c r="F192" s="3"/>
       <c r="G192" s="3"/>
       <c r="H192" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I192" s="11">
-        <f t="shared" si="9"/>
-        <v>857155</v>
+        <f t="shared" si="12"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="193" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4818,12 +5047,12 @@
       <c r="F193" s="3"/>
       <c r="G193" s="3"/>
       <c r="H193" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I193" s="11">
-        <f t="shared" si="9"/>
-        <v>857155</v>
+        <f t="shared" si="12"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="194" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4834,12 +5063,12 @@
       <c r="F194" s="3"/>
       <c r="G194" s="3"/>
       <c r="H194" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I194" s="11">
-        <f t="shared" si="9"/>
-        <v>857155</v>
+        <f t="shared" si="12"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="195" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4850,12 +5079,12 @@
       <c r="F195" s="3"/>
       <c r="G195" s="3"/>
       <c r="H195" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I195" s="11">
-        <f t="shared" si="9"/>
-        <v>857155</v>
+        <f t="shared" si="12"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="196" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4866,12 +5095,12 @@
       <c r="F196" s="3"/>
       <c r="G196" s="3"/>
       <c r="H196" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I196" s="11">
-        <f t="shared" si="9"/>
-        <v>857155</v>
+        <f t="shared" si="12"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="197" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4882,12 +5111,12 @@
       <c r="F197" s="3"/>
       <c r="G197" s="3"/>
       <c r="H197" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I197" s="11">
-        <f t="shared" si="9"/>
-        <v>857155</v>
+        <f t="shared" si="12"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="198" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4898,12 +5127,12 @@
       <c r="F198" s="3"/>
       <c r="G198" s="3"/>
       <c r="H198" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I198" s="11">
-        <f t="shared" si="9"/>
-        <v>857155</v>
+        <f t="shared" si="12"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="199" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4914,12 +5143,12 @@
       <c r="F199" s="3"/>
       <c r="G199" s="3"/>
       <c r="H199" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I199" s="11">
-        <f t="shared" si="9"/>
-        <v>857155</v>
+        <f t="shared" si="12"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="200" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4930,12 +5159,12 @@
       <c r="F200" s="3"/>
       <c r="G200" s="3"/>
       <c r="H200" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I200" s="11">
-        <f t="shared" ref="I200:I202" si="11">I199+H200</f>
-        <v>857155</v>
+        <f t="shared" ref="I200:I202" si="14">I199+H200</f>
+        <v>963805</v>
       </c>
     </row>
     <row r="201" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4946,12 +5175,12 @@
       <c r="F201" s="3"/>
       <c r="G201" s="3"/>
       <c r="H201" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I201" s="11">
-        <f t="shared" si="11"/>
-        <v>857155</v>
+        <f t="shared" si="14"/>
+        <v>963805</v>
       </c>
     </row>
     <row r="202" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4962,12 +5191,12 @@
       <c r="F202" s="3"/>
       <c r="G202" s="3"/>
       <c r="H202" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I202" s="11">
-        <f t="shared" si="11"/>
-        <v>857155</v>
+        <f t="shared" si="14"/>
+        <v>963805</v>
       </c>
     </row>
   </sheetData>
@@ -4975,53 +5204,83 @@
     <mergeCell ref="B3:I4"/>
   </mergeCells>
   <conditionalFormatting sqref="C36 E36:H36 B37:H38">
-    <cfRule type="expression" priority="9">
+    <cfRule type="expression" priority="15">
       <formula>D2="CEMENT"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36 E36:H36 B37:H38 B40:H40 H39">
-    <cfRule type="expression" dxfId="6" priority="8">
+    <cfRule type="expression" dxfId="11" priority="14">
       <formula>D2="CEMENT"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36:H36">
-    <cfRule type="expression" dxfId="5" priority="7">
+    <cfRule type="expression" dxfId="10" priority="13">
       <formula>A2="CEMENT"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36">
-    <cfRule type="expression" dxfId="4" priority="10">
+    <cfRule type="expression" dxfId="9" priority="16">
       <formula>XFD2="CEMENT"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B51:H51">
-    <cfRule type="expression" priority="6">
+    <cfRule type="expression" priority="12">
       <formula>D17="CEMENT"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B51:H51">
-    <cfRule type="expression" dxfId="3" priority="5">
+    <cfRule type="expression" dxfId="8" priority="11">
       <formula>D17="CEMENT"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50 E50:H50">
-    <cfRule type="expression" priority="3">
+    <cfRule type="expression" priority="9">
       <formula>E16="CEMENT"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50 E50:H50">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>E16="CEMENT"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50:H50">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>A16="CEMENT"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50">
-    <cfRule type="expression" dxfId="0" priority="4">
+    <cfRule type="expression" dxfId="5" priority="10">
       <formula>XFD16="CEMENT"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C66 E66:H66">
+    <cfRule type="expression" priority="5">
+      <formula>E32="CEMENT"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C66 E66:H66">
+    <cfRule type="expression" dxfId="4" priority="4">
+      <formula>E32="CEMENT"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66:H66">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>A32="CEMENT"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C66">
+    <cfRule type="expression" dxfId="2" priority="6">
+      <formula>XFD32="CEMENT"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C72 E72:G72">
+    <cfRule type="expression" priority="2">
+      <formula>E38="CEMENT"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C72 E72:G72">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>E38="CEMENT"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5034,7 +5293,7 @@
   <dimension ref="B2:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E2"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5144,57 +5403,51 @@
     </row>
     <row r="10" spans="2:5" ht="21" x14ac:dyDescent="0.4">
       <c r="B10" s="7">
-        <v>45135</v>
+        <v>45140</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="23"/>
+      <c r="D10" s="24">
+        <v>2000</v>
+      </c>
       <c r="E10" s="25">
         <f t="shared" si="0"/>
-        <v>75000</v>
+        <v>77000</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="21" x14ac:dyDescent="0.4">
-      <c r="B11" s="7">
-        <v>45136</v>
-      </c>
+      <c r="B11" s="7"/>
       <c r="C11" s="1"/>
       <c r="D11" s="23"/>
       <c r="E11" s="25">
         <f t="shared" si="0"/>
-        <v>75000</v>
+        <v>77000</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="21" x14ac:dyDescent="0.4">
-      <c r="B12" s="7">
-        <v>45137</v>
-      </c>
+      <c r="B12" s="7"/>
       <c r="C12" s="1"/>
       <c r="D12" s="23"/>
       <c r="E12" s="25">
         <f t="shared" si="0"/>
-        <v>75000</v>
+        <v>77000</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="21" x14ac:dyDescent="0.4">
-      <c r="B13" s="7">
-        <v>45138</v>
-      </c>
+      <c r="B13" s="7"/>
       <c r="C13" s="1"/>
       <c r="D13" s="23"/>
       <c r="E13" s="25">
         <f t="shared" si="0"/>
-        <v>75000</v>
+        <v>77000</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="21" x14ac:dyDescent="0.4">
-      <c r="B14" s="7">
-        <v>45139</v>
-      </c>
+      <c r="B14" s="7"/>
       <c r="C14" s="1"/>
       <c r="D14" s="23"/>
       <c r="E14" s="11">
         <f t="shared" si="0"/>
-        <v>75000</v>
+        <v>77000</v>
       </c>
     </row>
   </sheetData>
@@ -5211,14 +5464,15 @@
   <dimension ref="B3:E542"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.77734375" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.44140625" customWidth="1"/>
-    <col min="4" max="5" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:5" ht="31.2" x14ac:dyDescent="0.6">
@@ -5265,7 +5519,7 @@
       </c>
     </row>
     <row r="7" spans="2:5" ht="23.4" x14ac:dyDescent="0.4">
-      <c r="B7" s="7">
+      <c r="B7" s="100">
         <v>45126</v>
       </c>
       <c r="C7" s="39" t="s">
@@ -5280,7 +5534,7 @@
       </c>
     </row>
     <row r="8" spans="2:5" ht="21" x14ac:dyDescent="0.4">
-      <c r="B8" s="7">
+      <c r="B8" s="100">
         <v>45134</v>
       </c>
       <c r="C8" s="1"/>
@@ -5293,12 +5547,18 @@
       </c>
     </row>
     <row r="9" spans="2:5" ht="21" x14ac:dyDescent="0.4">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="11"/>
+      <c r="B9" s="12">
+        <v>45141</v>
+      </c>
+      <c r="C9" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="11">
+        <v>50000</v>
+      </c>
       <c r="E9" s="11">
         <f t="shared" si="0"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5307,7 +5567,7 @@
       <c r="D10" s="11"/>
       <c r="E10" s="11">
         <f t="shared" si="0"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5316,7 +5576,7 @@
       <c r="D11" s="11"/>
       <c r="E11" s="11">
         <f t="shared" si="0"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5325,7 +5585,7 @@
       <c r="D12" s="11"/>
       <c r="E12" s="11">
         <f t="shared" si="0"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5334,7 +5594,7 @@
       <c r="D13" s="11"/>
       <c r="E13" s="11">
         <f t="shared" si="0"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5343,7 +5603,7 @@
       <c r="D14" s="11"/>
       <c r="E14" s="11">
         <f t="shared" si="0"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5352,7 +5612,7 @@
       <c r="D15" s="11"/>
       <c r="E15" s="11">
         <f t="shared" si="0"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5361,7 +5621,7 @@
       <c r="D16" s="11"/>
       <c r="E16" s="11">
         <f t="shared" si="0"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5370,7 +5630,7 @@
       <c r="D17" s="11"/>
       <c r="E17" s="11">
         <f t="shared" si="0"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5379,7 +5639,7 @@
       <c r="D18" s="11"/>
       <c r="E18" s="11">
         <f t="shared" si="0"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5388,7 +5648,7 @@
       <c r="D19" s="11"/>
       <c r="E19" s="11">
         <f t="shared" si="0"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5397,7 +5657,7 @@
       <c r="D20" s="11"/>
       <c r="E20" s="11">
         <f t="shared" si="0"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5406,7 +5666,7 @@
       <c r="D21" s="11"/>
       <c r="E21" s="11">
         <f t="shared" si="0"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5415,7 +5675,7 @@
       <c r="D22" s="11"/>
       <c r="E22" s="11">
         <f t="shared" si="0"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5424,7 +5684,7 @@
       <c r="D23" s="11"/>
       <c r="E23" s="11">
         <f t="shared" si="0"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5433,7 +5693,7 @@
       <c r="D24" s="11"/>
       <c r="E24" s="11">
         <f t="shared" si="0"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5442,7 +5702,7 @@
       <c r="D25" s="11"/>
       <c r="E25" s="11">
         <f t="shared" si="0"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5451,7 +5711,7 @@
       <c r="D26" s="11"/>
       <c r="E26" s="11">
         <f t="shared" si="0"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5460,7 +5720,7 @@
       <c r="D27" s="11"/>
       <c r="E27" s="11">
         <f t="shared" si="0"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="28" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5469,7 +5729,7 @@
       <c r="D28" s="11"/>
       <c r="E28" s="11">
         <f t="shared" si="0"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="29" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5478,7 +5738,7 @@
       <c r="D29" s="11"/>
       <c r="E29" s="11">
         <f t="shared" si="0"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="30" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5487,7 +5747,7 @@
       <c r="D30" s="11"/>
       <c r="E30" s="11">
         <f t="shared" si="0"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="31" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5496,7 +5756,7 @@
       <c r="D31" s="11"/>
       <c r="E31" s="11">
         <f t="shared" si="0"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="32" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5505,7 +5765,7 @@
       <c r="D32" s="11"/>
       <c r="E32" s="11">
         <f t="shared" si="0"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="33" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5514,7 +5774,7 @@
       <c r="D33" s="11"/>
       <c r="E33" s="11">
         <f t="shared" si="0"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="34" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5523,7 +5783,7 @@
       <c r="D34" s="11"/>
       <c r="E34" s="11">
         <f t="shared" si="0"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="35" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5532,7 +5792,7 @@
       <c r="D35" s="11"/>
       <c r="E35" s="11">
         <f t="shared" si="0"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="36" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5541,7 +5801,7 @@
       <c r="D36" s="11"/>
       <c r="E36" s="11">
         <f t="shared" si="0"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="37" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5550,7 +5810,7 @@
       <c r="D37" s="11"/>
       <c r="E37" s="11">
         <f t="shared" si="0"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="38" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5559,7 +5819,7 @@
       <c r="D38" s="11"/>
       <c r="E38" s="11">
         <f t="shared" si="0"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="39" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5568,7 +5828,7 @@
       <c r="D39" s="11"/>
       <c r="E39" s="11">
         <f t="shared" si="0"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="40" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5577,7 +5837,7 @@
       <c r="D40" s="11"/>
       <c r="E40" s="11">
         <f t="shared" si="0"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="41" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5586,7 +5846,7 @@
       <c r="D41" s="11"/>
       <c r="E41" s="11">
         <f t="shared" si="0"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="42" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5595,7 +5855,7 @@
       <c r="D42" s="11"/>
       <c r="E42" s="11">
         <f t="shared" si="0"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="43" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5604,7 +5864,7 @@
       <c r="D43" s="11"/>
       <c r="E43" s="11">
         <f t="shared" si="0"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="44" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5613,7 +5873,7 @@
       <c r="D44" s="11"/>
       <c r="E44" s="11">
         <f t="shared" si="0"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="45" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5622,7 +5882,7 @@
       <c r="D45" s="11"/>
       <c r="E45" s="11">
         <f t="shared" si="0"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="46" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5631,7 +5891,7 @@
       <c r="D46" s="11"/>
       <c r="E46" s="11">
         <f t="shared" si="0"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="47" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5640,7 +5900,7 @@
       <c r="D47" s="11"/>
       <c r="E47" s="11">
         <f t="shared" si="0"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="48" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5649,7 +5909,7 @@
       <c r="D48" s="11"/>
       <c r="E48" s="11">
         <f t="shared" si="0"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="49" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5658,7 +5918,7 @@
       <c r="D49" s="11"/>
       <c r="E49" s="11">
         <f t="shared" si="0"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="50" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5667,7 +5927,7 @@
       <c r="D50" s="11"/>
       <c r="E50" s="11">
         <f t="shared" si="0"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="51" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5676,7 +5936,7 @@
       <c r="D51" s="11"/>
       <c r="E51" s="11">
         <f t="shared" si="0"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="52" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5685,7 +5945,7 @@
       <c r="D52" s="11"/>
       <c r="E52" s="11">
         <f t="shared" si="0"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="53" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5694,7 +5954,7 @@
       <c r="D53" s="11"/>
       <c r="E53" s="11">
         <f t="shared" si="0"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="54" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5703,7 +5963,7 @@
       <c r="D54" s="11"/>
       <c r="E54" s="11">
         <f t="shared" si="0"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="55" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5712,7 +5972,7 @@
       <c r="D55" s="11"/>
       <c r="E55" s="11">
         <f t="shared" si="0"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="56" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5721,7 +5981,7 @@
       <c r="D56" s="11"/>
       <c r="E56" s="11">
         <f t="shared" si="0"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5730,7 +5990,7 @@
       <c r="D57" s="11"/>
       <c r="E57" s="11">
         <f t="shared" si="0"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5739,7 +5999,7 @@
       <c r="D58" s="11"/>
       <c r="E58" s="11">
         <f t="shared" si="0"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="59" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5748,7 +6008,7 @@
       <c r="D59" s="11"/>
       <c r="E59" s="11">
         <f t="shared" si="0"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="60" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5757,7 +6017,7 @@
       <c r="D60" s="11"/>
       <c r="E60" s="11">
         <f t="shared" si="0"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="61" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5766,7 +6026,7 @@
       <c r="D61" s="11"/>
       <c r="E61" s="11">
         <f t="shared" si="0"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="62" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5775,7 +6035,7 @@
       <c r="D62" s="11"/>
       <c r="E62" s="11">
         <f t="shared" si="0"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="63" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5784,7 +6044,7 @@
       <c r="D63" s="11"/>
       <c r="E63" s="11">
         <f t="shared" si="0"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="64" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5793,7 +6053,7 @@
       <c r="D64" s="11"/>
       <c r="E64" s="11">
         <f t="shared" si="0"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="65" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5802,7 +6062,7 @@
       <c r="D65" s="11"/>
       <c r="E65" s="11">
         <f t="shared" si="0"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5811,7 +6071,7 @@
       <c r="D66" s="11"/>
       <c r="E66" s="11">
         <f t="shared" si="0"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5820,7 +6080,7 @@
       <c r="D67" s="11"/>
       <c r="E67" s="11">
         <f t="shared" si="0"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5829,7 +6089,7 @@
       <c r="D68" s="11"/>
       <c r="E68" s="11">
         <f t="shared" si="0"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="69" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5838,7 +6098,7 @@
       <c r="D69" s="11"/>
       <c r="E69" s="11">
         <f t="shared" si="0"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="70" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5847,7 +6107,7 @@
       <c r="D70" s="11"/>
       <c r="E70" s="11">
         <f t="shared" si="0"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="71" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5856,7 +6116,7 @@
       <c r="D71" s="11"/>
       <c r="E71" s="11">
         <f t="shared" ref="E71:E134" si="1">E70+D71</f>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="72" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5865,7 +6125,7 @@
       <c r="D72" s="11"/>
       <c r="E72" s="11">
         <f t="shared" si="1"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="73" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5874,7 +6134,7 @@
       <c r="D73" s="11"/>
       <c r="E73" s="11">
         <f t="shared" si="1"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="74" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5883,7 +6143,7 @@
       <c r="D74" s="11"/>
       <c r="E74" s="11">
         <f t="shared" si="1"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="75" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5892,7 +6152,7 @@
       <c r="D75" s="11"/>
       <c r="E75" s="11">
         <f t="shared" si="1"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="76" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5901,7 +6161,7 @@
       <c r="D76" s="11"/>
       <c r="E76" s="11">
         <f t="shared" si="1"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="77" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5910,7 +6170,7 @@
       <c r="D77" s="11"/>
       <c r="E77" s="11">
         <f t="shared" si="1"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="78" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5919,7 +6179,7 @@
       <c r="D78" s="11"/>
       <c r="E78" s="11">
         <f t="shared" si="1"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="79" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5928,7 +6188,7 @@
       <c r="D79" s="11"/>
       <c r="E79" s="11">
         <f t="shared" si="1"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="80" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5937,7 +6197,7 @@
       <c r="D80" s="11"/>
       <c r="E80" s="11">
         <f t="shared" si="1"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="81" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5946,7 +6206,7 @@
       <c r="D81" s="11"/>
       <c r="E81" s="11">
         <f t="shared" si="1"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="82" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5955,7 +6215,7 @@
       <c r="D82" s="11"/>
       <c r="E82" s="11">
         <f t="shared" si="1"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="83" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5964,7 +6224,7 @@
       <c r="D83" s="11"/>
       <c r="E83" s="11">
         <f t="shared" si="1"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="84" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5973,7 +6233,7 @@
       <c r="D84" s="11"/>
       <c r="E84" s="11">
         <f t="shared" si="1"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="85" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5982,7 +6242,7 @@
       <c r="D85" s="11"/>
       <c r="E85" s="11">
         <f t="shared" si="1"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="86" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5991,7 +6251,7 @@
       <c r="D86" s="11"/>
       <c r="E86" s="11">
         <f t="shared" si="1"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="87" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6000,7 +6260,7 @@
       <c r="D87" s="11"/>
       <c r="E87" s="11">
         <f t="shared" si="1"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="88" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6009,7 +6269,7 @@
       <c r="D88" s="11"/>
       <c r="E88" s="11">
         <f t="shared" si="1"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="89" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6018,7 +6278,7 @@
       <c r="D89" s="11"/>
       <c r="E89" s="11">
         <f t="shared" si="1"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="90" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6027,7 +6287,7 @@
       <c r="D90" s="11"/>
       <c r="E90" s="11">
         <f t="shared" si="1"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="91" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6036,7 +6296,7 @@
       <c r="D91" s="11"/>
       <c r="E91" s="11">
         <f t="shared" si="1"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="92" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6045,7 +6305,7 @@
       <c r="D92" s="11"/>
       <c r="E92" s="11">
         <f t="shared" si="1"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="93" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6054,7 +6314,7 @@
       <c r="D93" s="11"/>
       <c r="E93" s="11">
         <f t="shared" si="1"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="94" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6063,7 +6323,7 @@
       <c r="D94" s="11"/>
       <c r="E94" s="11">
         <f t="shared" si="1"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="95" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6072,7 +6332,7 @@
       <c r="D95" s="11"/>
       <c r="E95" s="11">
         <f t="shared" si="1"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="96" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6081,7 +6341,7 @@
       <c r="D96" s="11"/>
       <c r="E96" s="11">
         <f t="shared" si="1"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="97" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6090,7 +6350,7 @@
       <c r="D97" s="11"/>
       <c r="E97" s="11">
         <f t="shared" si="1"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="98" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6099,7 +6359,7 @@
       <c r="D98" s="11"/>
       <c r="E98" s="11">
         <f t="shared" si="1"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="99" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6108,7 +6368,7 @@
       <c r="D99" s="11"/>
       <c r="E99" s="11">
         <f t="shared" si="1"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="100" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6117,7 +6377,7 @@
       <c r="D100" s="11"/>
       <c r="E100" s="11">
         <f t="shared" si="1"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="101" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6126,7 +6386,7 @@
       <c r="D101" s="11"/>
       <c r="E101" s="11">
         <f t="shared" si="1"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="102" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6135,7 +6395,7 @@
       <c r="D102" s="11"/>
       <c r="E102" s="11">
         <f t="shared" si="1"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="103" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6144,7 +6404,7 @@
       <c r="D103" s="11"/>
       <c r="E103" s="11">
         <f t="shared" si="1"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="104" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6153,7 +6413,7 @@
       <c r="D104" s="11"/>
       <c r="E104" s="11">
         <f t="shared" si="1"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="105" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6162,7 +6422,7 @@
       <c r="D105" s="11"/>
       <c r="E105" s="11">
         <f t="shared" si="1"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="106" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6171,7 +6431,7 @@
       <c r="D106" s="11"/>
       <c r="E106" s="11">
         <f t="shared" si="1"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="107" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6180,7 +6440,7 @@
       <c r="D107" s="11"/>
       <c r="E107" s="11">
         <f t="shared" si="1"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="108" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6189,7 +6449,7 @@
       <c r="D108" s="11"/>
       <c r="E108" s="11">
         <f t="shared" si="1"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="109" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6198,7 +6458,7 @@
       <c r="D109" s="11"/>
       <c r="E109" s="11">
         <f t="shared" si="1"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="110" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6207,7 +6467,7 @@
       <c r="D110" s="11"/>
       <c r="E110" s="11">
         <f t="shared" si="1"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="111" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6216,7 +6476,7 @@
       <c r="D111" s="11"/>
       <c r="E111" s="11">
         <f t="shared" si="1"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="112" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6225,7 +6485,7 @@
       <c r="D112" s="11"/>
       <c r="E112" s="11">
         <f t="shared" si="1"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="113" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6234,7 +6494,7 @@
       <c r="D113" s="11"/>
       <c r="E113" s="11">
         <f t="shared" si="1"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="114" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6243,7 +6503,7 @@
       <c r="D114" s="11"/>
       <c r="E114" s="11">
         <f t="shared" si="1"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="115" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6252,7 +6512,7 @@
       <c r="D115" s="11"/>
       <c r="E115" s="11">
         <f t="shared" si="1"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="116" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6261,7 +6521,7 @@
       <c r="D116" s="11"/>
       <c r="E116" s="11">
         <f t="shared" si="1"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="117" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6270,7 +6530,7 @@
       <c r="D117" s="11"/>
       <c r="E117" s="11">
         <f t="shared" si="1"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="118" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6279,7 +6539,7 @@
       <c r="D118" s="11"/>
       <c r="E118" s="11">
         <f t="shared" si="1"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="119" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6288,7 +6548,7 @@
       <c r="D119" s="11"/>
       <c r="E119" s="11">
         <f t="shared" si="1"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="120" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6297,7 +6557,7 @@
       <c r="D120" s="11"/>
       <c r="E120" s="11">
         <f t="shared" si="1"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="121" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6306,7 +6566,7 @@
       <c r="D121" s="11"/>
       <c r="E121" s="11">
         <f t="shared" si="1"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="122" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6315,7 +6575,7 @@
       <c r="D122" s="11"/>
       <c r="E122" s="11">
         <f t="shared" si="1"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="123" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6324,7 +6584,7 @@
       <c r="D123" s="11"/>
       <c r="E123" s="11">
         <f t="shared" si="1"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="124" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6333,7 +6593,7 @@
       <c r="D124" s="11"/>
       <c r="E124" s="11">
         <f t="shared" si="1"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="125" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6342,7 +6602,7 @@
       <c r="D125" s="11"/>
       <c r="E125" s="11">
         <f t="shared" si="1"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="126" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6351,7 +6611,7 @@
       <c r="D126" s="11"/>
       <c r="E126" s="11">
         <f t="shared" si="1"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="127" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6360,7 +6620,7 @@
       <c r="D127" s="11"/>
       <c r="E127" s="11">
         <f t="shared" si="1"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="128" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6369,7 +6629,7 @@
       <c r="D128" s="11"/>
       <c r="E128" s="11">
         <f t="shared" si="1"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="129" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6378,7 +6638,7 @@
       <c r="D129" s="11"/>
       <c r="E129" s="11">
         <f t="shared" si="1"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="130" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6387,7 +6647,7 @@
       <c r="D130" s="11"/>
       <c r="E130" s="11">
         <f t="shared" si="1"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="131" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6396,7 +6656,7 @@
       <c r="D131" s="11"/>
       <c r="E131" s="11">
         <f t="shared" si="1"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="132" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6405,7 +6665,7 @@
       <c r="D132" s="11"/>
       <c r="E132" s="11">
         <f t="shared" si="1"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="133" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6414,7 +6674,7 @@
       <c r="D133" s="11"/>
       <c r="E133" s="11">
         <f t="shared" si="1"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="134" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6423,7 +6683,7 @@
       <c r="D134" s="11"/>
       <c r="E134" s="11">
         <f t="shared" si="1"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="135" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6432,7 +6692,7 @@
       <c r="D135" s="11"/>
       <c r="E135" s="11">
         <f t="shared" ref="E135:E198" si="2">E134+D135</f>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="136" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6441,7 +6701,7 @@
       <c r="D136" s="11"/>
       <c r="E136" s="11">
         <f t="shared" si="2"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="137" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6450,7 +6710,7 @@
       <c r="D137" s="11"/>
       <c r="E137" s="11">
         <f t="shared" si="2"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="138" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6459,7 +6719,7 @@
       <c r="D138" s="11"/>
       <c r="E138" s="11">
         <f t="shared" si="2"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="139" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6468,7 +6728,7 @@
       <c r="D139" s="11"/>
       <c r="E139" s="11">
         <f t="shared" si="2"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="140" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6477,7 +6737,7 @@
       <c r="D140" s="11"/>
       <c r="E140" s="11">
         <f t="shared" si="2"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="141" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6486,7 +6746,7 @@
       <c r="D141" s="11"/>
       <c r="E141" s="11">
         <f t="shared" si="2"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="142" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6495,7 +6755,7 @@
       <c r="D142" s="11"/>
       <c r="E142" s="11">
         <f t="shared" si="2"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="143" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6504,7 +6764,7 @@
       <c r="D143" s="11"/>
       <c r="E143" s="11">
         <f t="shared" si="2"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="144" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6513,7 +6773,7 @@
       <c r="D144" s="11"/>
       <c r="E144" s="11">
         <f t="shared" si="2"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="145" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6522,7 +6782,7 @@
       <c r="D145" s="11"/>
       <c r="E145" s="11">
         <f t="shared" si="2"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="146" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6531,7 +6791,7 @@
       <c r="D146" s="11"/>
       <c r="E146" s="11">
         <f t="shared" si="2"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="147" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6540,7 +6800,7 @@
       <c r="D147" s="11"/>
       <c r="E147" s="11">
         <f t="shared" si="2"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="148" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6549,7 +6809,7 @@
       <c r="D148" s="11"/>
       <c r="E148" s="11">
         <f t="shared" si="2"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="149" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6558,7 +6818,7 @@
       <c r="D149" s="11"/>
       <c r="E149" s="11">
         <f t="shared" si="2"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="150" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6567,7 +6827,7 @@
       <c r="D150" s="11"/>
       <c r="E150" s="11">
         <f t="shared" si="2"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="151" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6576,7 +6836,7 @@
       <c r="D151" s="11"/>
       <c r="E151" s="11">
         <f t="shared" si="2"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="152" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6585,7 +6845,7 @@
       <c r="D152" s="11"/>
       <c r="E152" s="11">
         <f t="shared" si="2"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="153" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6594,7 +6854,7 @@
       <c r="D153" s="11"/>
       <c r="E153" s="11">
         <f t="shared" si="2"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="154" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6603,7 +6863,7 @@
       <c r="D154" s="11"/>
       <c r="E154" s="11">
         <f t="shared" si="2"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="155" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6612,7 +6872,7 @@
       <c r="D155" s="11"/>
       <c r="E155" s="11">
         <f t="shared" si="2"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="156" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6621,7 +6881,7 @@
       <c r="D156" s="11"/>
       <c r="E156" s="11">
         <f t="shared" si="2"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="157" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6630,7 +6890,7 @@
       <c r="D157" s="11"/>
       <c r="E157" s="11">
         <f t="shared" si="2"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="158" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6639,7 +6899,7 @@
       <c r="D158" s="11"/>
       <c r="E158" s="11">
         <f t="shared" si="2"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="159" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6648,7 +6908,7 @@
       <c r="D159" s="11"/>
       <c r="E159" s="11">
         <f t="shared" si="2"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="160" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6657,7 +6917,7 @@
       <c r="D160" s="11"/>
       <c r="E160" s="11">
         <f t="shared" si="2"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="161" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6666,7 +6926,7 @@
       <c r="D161" s="11"/>
       <c r="E161" s="11">
         <f t="shared" si="2"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="162" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6675,7 +6935,7 @@
       <c r="D162" s="11"/>
       <c r="E162" s="11">
         <f t="shared" si="2"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="163" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6684,7 +6944,7 @@
       <c r="D163" s="11"/>
       <c r="E163" s="11">
         <f t="shared" si="2"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="164" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6693,7 +6953,7 @@
       <c r="D164" s="11"/>
       <c r="E164" s="11">
         <f t="shared" si="2"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="165" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6702,7 +6962,7 @@
       <c r="D165" s="11"/>
       <c r="E165" s="11">
         <f t="shared" si="2"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="166" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6711,7 +6971,7 @@
       <c r="D166" s="11"/>
       <c r="E166" s="11">
         <f t="shared" si="2"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="167" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6720,7 +6980,7 @@
       <c r="D167" s="11"/>
       <c r="E167" s="11">
         <f t="shared" si="2"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="168" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6729,7 +6989,7 @@
       <c r="D168" s="11"/>
       <c r="E168" s="11">
         <f t="shared" si="2"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="169" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6738,7 +6998,7 @@
       <c r="D169" s="11"/>
       <c r="E169" s="11">
         <f t="shared" si="2"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="170" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6747,7 +7007,7 @@
       <c r="D170" s="11"/>
       <c r="E170" s="11">
         <f t="shared" si="2"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="171" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6756,7 +7016,7 @@
       <c r="D171" s="11"/>
       <c r="E171" s="11">
         <f t="shared" si="2"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="172" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6765,7 +7025,7 @@
       <c r="D172" s="11"/>
       <c r="E172" s="11">
         <f t="shared" si="2"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="173" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6774,7 +7034,7 @@
       <c r="D173" s="11"/>
       <c r="E173" s="11">
         <f t="shared" si="2"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="174" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6783,7 +7043,7 @@
       <c r="D174" s="11"/>
       <c r="E174" s="11">
         <f t="shared" si="2"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="175" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6792,7 +7052,7 @@
       <c r="D175" s="11"/>
       <c r="E175" s="11">
         <f t="shared" si="2"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="176" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6801,7 +7061,7 @@
       <c r="D176" s="11"/>
       <c r="E176" s="11">
         <f t="shared" si="2"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="177" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6810,7 +7070,7 @@
       <c r="D177" s="11"/>
       <c r="E177" s="11">
         <f t="shared" si="2"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="178" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6819,7 +7079,7 @@
       <c r="D178" s="11"/>
       <c r="E178" s="11">
         <f t="shared" si="2"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="179" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6828,7 +7088,7 @@
       <c r="D179" s="11"/>
       <c r="E179" s="11">
         <f t="shared" si="2"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="180" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6837,7 +7097,7 @@
       <c r="D180" s="11"/>
       <c r="E180" s="11">
         <f t="shared" si="2"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="181" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6846,7 +7106,7 @@
       <c r="D181" s="11"/>
       <c r="E181" s="11">
         <f t="shared" si="2"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="182" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6855,7 +7115,7 @@
       <c r="D182" s="11"/>
       <c r="E182" s="11">
         <f t="shared" si="2"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="183" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6864,7 +7124,7 @@
       <c r="D183" s="11"/>
       <c r="E183" s="11">
         <f t="shared" si="2"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="184" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6873,7 +7133,7 @@
       <c r="D184" s="11"/>
       <c r="E184" s="11">
         <f t="shared" si="2"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="185" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6882,7 +7142,7 @@
       <c r="D185" s="11"/>
       <c r="E185" s="11">
         <f t="shared" si="2"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="186" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6891,7 +7151,7 @@
       <c r="D186" s="11"/>
       <c r="E186" s="11">
         <f t="shared" si="2"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="187" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6900,7 +7160,7 @@
       <c r="D187" s="11"/>
       <c r="E187" s="11">
         <f t="shared" si="2"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="188" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6909,7 +7169,7 @@
       <c r="D188" s="11"/>
       <c r="E188" s="11">
         <f t="shared" si="2"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="189" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6918,7 +7178,7 @@
       <c r="D189" s="11"/>
       <c r="E189" s="11">
         <f t="shared" si="2"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="190" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6927,7 +7187,7 @@
       <c r="D190" s="11"/>
       <c r="E190" s="11">
         <f t="shared" si="2"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="191" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6936,7 +7196,7 @@
       <c r="D191" s="11"/>
       <c r="E191" s="11">
         <f t="shared" si="2"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="192" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6945,7 +7205,7 @@
       <c r="D192" s="11"/>
       <c r="E192" s="11">
         <f t="shared" si="2"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="193" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6954,7 +7214,7 @@
       <c r="D193" s="11"/>
       <c r="E193" s="11">
         <f t="shared" si="2"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="194" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6963,7 +7223,7 @@
       <c r="D194" s="11"/>
       <c r="E194" s="11">
         <f t="shared" si="2"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="195" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6972,7 +7232,7 @@
       <c r="D195" s="11"/>
       <c r="E195" s="11">
         <f t="shared" si="2"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="196" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6981,7 +7241,7 @@
       <c r="D196" s="11"/>
       <c r="E196" s="11">
         <f t="shared" si="2"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="197" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6990,7 +7250,7 @@
       <c r="D197" s="11"/>
       <c r="E197" s="11">
         <f t="shared" si="2"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="198" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6999,7 +7259,7 @@
       <c r="D198" s="11"/>
       <c r="E198" s="11">
         <f t="shared" si="2"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="199" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7008,7 +7268,7 @@
       <c r="D199" s="11"/>
       <c r="E199" s="11">
         <f t="shared" ref="E199:E262" si="3">E198+D199</f>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="200" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7017,7 +7277,7 @@
       <c r="D200" s="11"/>
       <c r="E200" s="11">
         <f t="shared" si="3"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="201" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7026,7 +7286,7 @@
       <c r="D201" s="11"/>
       <c r="E201" s="11">
         <f t="shared" si="3"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="202" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7035,7 +7295,7 @@
       <c r="D202" s="11"/>
       <c r="E202" s="11">
         <f t="shared" si="3"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="203" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7044,7 +7304,7 @@
       <c r="D203" s="11"/>
       <c r="E203" s="11">
         <f t="shared" si="3"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="204" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7053,7 +7313,7 @@
       <c r="D204" s="11"/>
       <c r="E204" s="11">
         <f t="shared" si="3"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="205" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7062,7 +7322,7 @@
       <c r="D205" s="11"/>
       <c r="E205" s="11">
         <f t="shared" si="3"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="206" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7071,7 +7331,7 @@
       <c r="D206" s="11"/>
       <c r="E206" s="11">
         <f t="shared" si="3"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="207" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7080,7 +7340,7 @@
       <c r="D207" s="11"/>
       <c r="E207" s="11">
         <f t="shared" si="3"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="208" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7089,7 +7349,7 @@
       <c r="D208" s="11"/>
       <c r="E208" s="11">
         <f t="shared" si="3"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="209" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7098,7 +7358,7 @@
       <c r="D209" s="11"/>
       <c r="E209" s="11">
         <f t="shared" si="3"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="210" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7107,7 +7367,7 @@
       <c r="D210" s="11"/>
       <c r="E210" s="11">
         <f t="shared" si="3"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="211" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7116,7 +7376,7 @@
       <c r="D211" s="11"/>
       <c r="E211" s="11">
         <f t="shared" si="3"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="212" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7125,7 +7385,7 @@
       <c r="D212" s="11"/>
       <c r="E212" s="11">
         <f t="shared" si="3"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="213" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7134,7 +7394,7 @@
       <c r="D213" s="11"/>
       <c r="E213" s="11">
         <f t="shared" si="3"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="214" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7143,7 +7403,7 @@
       <c r="D214" s="11"/>
       <c r="E214" s="11">
         <f t="shared" si="3"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="215" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7152,7 +7412,7 @@
       <c r="D215" s="11"/>
       <c r="E215" s="11">
         <f t="shared" si="3"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="216" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7161,7 +7421,7 @@
       <c r="D216" s="11"/>
       <c r="E216" s="11">
         <f t="shared" si="3"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="217" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7170,7 +7430,7 @@
       <c r="D217" s="11"/>
       <c r="E217" s="11">
         <f t="shared" si="3"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="218" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7179,7 +7439,7 @@
       <c r="D218" s="11"/>
       <c r="E218" s="11">
         <f t="shared" si="3"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="219" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7188,7 +7448,7 @@
       <c r="D219" s="11"/>
       <c r="E219" s="11">
         <f t="shared" si="3"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="220" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7197,7 +7457,7 @@
       <c r="D220" s="11"/>
       <c r="E220" s="11">
         <f t="shared" si="3"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="221" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7206,7 +7466,7 @@
       <c r="D221" s="11"/>
       <c r="E221" s="11">
         <f t="shared" si="3"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="222" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7215,7 +7475,7 @@
       <c r="D222" s="11"/>
       <c r="E222" s="11">
         <f t="shared" si="3"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="223" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7224,7 +7484,7 @@
       <c r="D223" s="11"/>
       <c r="E223" s="11">
         <f t="shared" si="3"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="224" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7233,7 +7493,7 @@
       <c r="D224" s="11"/>
       <c r="E224" s="11">
         <f t="shared" si="3"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="225" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7242,7 +7502,7 @@
       <c r="D225" s="11"/>
       <c r="E225" s="11">
         <f t="shared" si="3"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="226" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7251,7 +7511,7 @@
       <c r="D226" s="11"/>
       <c r="E226" s="11">
         <f t="shared" si="3"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="227" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7260,7 +7520,7 @@
       <c r="D227" s="11"/>
       <c r="E227" s="11">
         <f t="shared" si="3"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="228" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7269,7 +7529,7 @@
       <c r="D228" s="11"/>
       <c r="E228" s="11">
         <f t="shared" si="3"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="229" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7278,7 +7538,7 @@
       <c r="D229" s="11"/>
       <c r="E229" s="11">
         <f t="shared" si="3"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="230" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7287,7 +7547,7 @@
       <c r="D230" s="11"/>
       <c r="E230" s="11">
         <f t="shared" si="3"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="231" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7296,7 +7556,7 @@
       <c r="D231" s="11"/>
       <c r="E231" s="11">
         <f t="shared" si="3"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="232" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7305,7 +7565,7 @@
       <c r="D232" s="11"/>
       <c r="E232" s="11">
         <f t="shared" si="3"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="233" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7314,7 +7574,7 @@
       <c r="D233" s="11"/>
       <c r="E233" s="11">
         <f t="shared" si="3"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="234" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7323,7 +7583,7 @@
       <c r="D234" s="11"/>
       <c r="E234" s="11">
         <f t="shared" si="3"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="235" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7332,7 +7592,7 @@
       <c r="D235" s="11"/>
       <c r="E235" s="11">
         <f t="shared" si="3"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="236" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7341,7 +7601,7 @@
       <c r="D236" s="11"/>
       <c r="E236" s="11">
         <f t="shared" si="3"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="237" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7350,7 +7610,7 @@
       <c r="D237" s="11"/>
       <c r="E237" s="11">
         <f t="shared" si="3"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="238" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7359,7 +7619,7 @@
       <c r="D238" s="11"/>
       <c r="E238" s="11">
         <f t="shared" si="3"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="239" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7368,7 +7628,7 @@
       <c r="D239" s="11"/>
       <c r="E239" s="11">
         <f t="shared" si="3"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="240" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7377,7 +7637,7 @@
       <c r="D240" s="11"/>
       <c r="E240" s="11">
         <f t="shared" si="3"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="241" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7386,7 +7646,7 @@
       <c r="D241" s="11"/>
       <c r="E241" s="11">
         <f t="shared" si="3"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="242" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7395,7 +7655,7 @@
       <c r="D242" s="11"/>
       <c r="E242" s="11">
         <f t="shared" si="3"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="243" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7404,7 +7664,7 @@
       <c r="D243" s="11"/>
       <c r="E243" s="11">
         <f t="shared" si="3"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="244" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7413,7 +7673,7 @@
       <c r="D244" s="11"/>
       <c r="E244" s="11">
         <f t="shared" si="3"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="245" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7422,7 +7682,7 @@
       <c r="D245" s="11"/>
       <c r="E245" s="11">
         <f t="shared" si="3"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="246" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7431,7 +7691,7 @@
       <c r="D246" s="11"/>
       <c r="E246" s="11">
         <f t="shared" si="3"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="247" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7440,7 +7700,7 @@
       <c r="D247" s="11"/>
       <c r="E247" s="11">
         <f t="shared" si="3"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="248" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7449,7 +7709,7 @@
       <c r="D248" s="11"/>
       <c r="E248" s="11">
         <f t="shared" si="3"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="249" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7458,7 +7718,7 @@
       <c r="D249" s="11"/>
       <c r="E249" s="11">
         <f t="shared" si="3"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="250" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7467,7 +7727,7 @@
       <c r="D250" s="11"/>
       <c r="E250" s="11">
         <f t="shared" si="3"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="251" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7476,7 +7736,7 @@
       <c r="D251" s="11"/>
       <c r="E251" s="11">
         <f t="shared" si="3"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="252" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7485,7 +7745,7 @@
       <c r="D252" s="11"/>
       <c r="E252" s="11">
         <f t="shared" si="3"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="253" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7494,7 +7754,7 @@
       <c r="D253" s="11"/>
       <c r="E253" s="11">
         <f t="shared" si="3"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="254" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7503,7 +7763,7 @@
       <c r="D254" s="11"/>
       <c r="E254" s="11">
         <f t="shared" si="3"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="255" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7512,7 +7772,7 @@
       <c r="D255" s="11"/>
       <c r="E255" s="11">
         <f t="shared" si="3"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="256" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7521,7 +7781,7 @@
       <c r="D256" s="11"/>
       <c r="E256" s="11">
         <f t="shared" si="3"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="257" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7530,7 +7790,7 @@
       <c r="D257" s="11"/>
       <c r="E257" s="11">
         <f t="shared" si="3"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="258" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7539,7 +7799,7 @@
       <c r="D258" s="11"/>
       <c r="E258" s="11">
         <f t="shared" si="3"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="259" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7548,7 +7808,7 @@
       <c r="D259" s="11"/>
       <c r="E259" s="11">
         <f t="shared" si="3"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="260" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7557,7 +7817,7 @@
       <c r="D260" s="11"/>
       <c r="E260" s="11">
         <f t="shared" si="3"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="261" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7566,7 +7826,7 @@
       <c r="D261" s="11"/>
       <c r="E261" s="11">
         <f t="shared" si="3"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="262" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7575,7 +7835,7 @@
       <c r="D262" s="11"/>
       <c r="E262" s="11">
         <f t="shared" si="3"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="263" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7584,7 +7844,7 @@
       <c r="D263" s="11"/>
       <c r="E263" s="11">
         <f t="shared" ref="E263:E326" si="4">E262+D263</f>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="264" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7593,7 +7853,7 @@
       <c r="D264" s="11"/>
       <c r="E264" s="11">
         <f t="shared" si="4"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="265" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7602,7 +7862,7 @@
       <c r="D265" s="11"/>
       <c r="E265" s="11">
         <f t="shared" si="4"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="266" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7611,7 +7871,7 @@
       <c r="D266" s="11"/>
       <c r="E266" s="11">
         <f t="shared" si="4"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="267" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7620,7 +7880,7 @@
       <c r="D267" s="11"/>
       <c r="E267" s="11">
         <f t="shared" si="4"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="268" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7629,7 +7889,7 @@
       <c r="D268" s="11"/>
       <c r="E268" s="11">
         <f t="shared" si="4"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="269" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7638,7 +7898,7 @@
       <c r="D269" s="11"/>
       <c r="E269" s="11">
         <f t="shared" si="4"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="270" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7647,7 +7907,7 @@
       <c r="D270" s="11"/>
       <c r="E270" s="11">
         <f t="shared" si="4"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="271" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7656,7 +7916,7 @@
       <c r="D271" s="11"/>
       <c r="E271" s="11">
         <f t="shared" si="4"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="272" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7665,7 +7925,7 @@
       <c r="D272" s="11"/>
       <c r="E272" s="11">
         <f t="shared" si="4"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="273" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7674,7 +7934,7 @@
       <c r="D273" s="11"/>
       <c r="E273" s="11">
         <f t="shared" si="4"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="274" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7683,7 +7943,7 @@
       <c r="D274" s="11"/>
       <c r="E274" s="11">
         <f t="shared" si="4"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="275" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7692,7 +7952,7 @@
       <c r="D275" s="11"/>
       <c r="E275" s="11">
         <f t="shared" si="4"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="276" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7701,7 +7961,7 @@
       <c r="D276" s="11"/>
       <c r="E276" s="11">
         <f t="shared" si="4"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="277" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7710,7 +7970,7 @@
       <c r="D277" s="11"/>
       <c r="E277" s="11">
         <f t="shared" si="4"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="278" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7719,7 +7979,7 @@
       <c r="D278" s="11"/>
       <c r="E278" s="11">
         <f t="shared" si="4"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="279" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7728,7 +7988,7 @@
       <c r="D279" s="11"/>
       <c r="E279" s="11">
         <f t="shared" si="4"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="280" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7737,7 +7997,7 @@
       <c r="D280" s="11"/>
       <c r="E280" s="11">
         <f t="shared" si="4"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="281" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7746,7 +8006,7 @@
       <c r="D281" s="11"/>
       <c r="E281" s="11">
         <f t="shared" si="4"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="282" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7755,7 +8015,7 @@
       <c r="D282" s="11"/>
       <c r="E282" s="11">
         <f t="shared" si="4"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="283" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7764,7 +8024,7 @@
       <c r="D283" s="11"/>
       <c r="E283" s="11">
         <f t="shared" si="4"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="284" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7773,7 +8033,7 @@
       <c r="D284" s="11"/>
       <c r="E284" s="11">
         <f t="shared" si="4"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="285" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7782,7 +8042,7 @@
       <c r="D285" s="11"/>
       <c r="E285" s="11">
         <f t="shared" si="4"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="286" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7791,7 +8051,7 @@
       <c r="D286" s="11"/>
       <c r="E286" s="11">
         <f t="shared" si="4"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="287" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7800,7 +8060,7 @@
       <c r="D287" s="11"/>
       <c r="E287" s="11">
         <f t="shared" si="4"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="288" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7809,7 +8069,7 @@
       <c r="D288" s="11"/>
       <c r="E288" s="11">
         <f t="shared" si="4"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="289" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7818,7 +8078,7 @@
       <c r="D289" s="11"/>
       <c r="E289" s="11">
         <f t="shared" si="4"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="290" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7827,7 +8087,7 @@
       <c r="D290" s="11"/>
       <c r="E290" s="11">
         <f t="shared" si="4"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="291" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7836,7 +8096,7 @@
       <c r="D291" s="11"/>
       <c r="E291" s="11">
         <f t="shared" si="4"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="292" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7845,7 +8105,7 @@
       <c r="D292" s="11"/>
       <c r="E292" s="11">
         <f t="shared" si="4"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="293" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7854,7 +8114,7 @@
       <c r="D293" s="11"/>
       <c r="E293" s="11">
         <f t="shared" si="4"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="294" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7863,7 +8123,7 @@
       <c r="D294" s="11"/>
       <c r="E294" s="11">
         <f t="shared" si="4"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="295" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7872,7 +8132,7 @@
       <c r="D295" s="11"/>
       <c r="E295" s="11">
         <f t="shared" si="4"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="296" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7881,7 +8141,7 @@
       <c r="D296" s="11"/>
       <c r="E296" s="11">
         <f t="shared" si="4"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="297" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7890,7 +8150,7 @@
       <c r="D297" s="11"/>
       <c r="E297" s="11">
         <f t="shared" si="4"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="298" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7899,7 +8159,7 @@
       <c r="D298" s="11"/>
       <c r="E298" s="11">
         <f t="shared" si="4"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="299" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7908,7 +8168,7 @@
       <c r="D299" s="11"/>
       <c r="E299" s="11">
         <f t="shared" si="4"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="300" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7917,7 +8177,7 @@
       <c r="D300" s="11"/>
       <c r="E300" s="11">
         <f t="shared" si="4"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="301" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7926,7 +8186,7 @@
       <c r="D301" s="11"/>
       <c r="E301" s="11">
         <f t="shared" si="4"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="302" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7935,7 +8195,7 @@
       <c r="D302" s="11"/>
       <c r="E302" s="11">
         <f t="shared" si="4"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="303" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7944,7 +8204,7 @@
       <c r="D303" s="11"/>
       <c r="E303" s="11">
         <f t="shared" si="4"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="304" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7953,7 +8213,7 @@
       <c r="D304" s="11"/>
       <c r="E304" s="11">
         <f t="shared" si="4"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="305" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7962,7 +8222,7 @@
       <c r="D305" s="11"/>
       <c r="E305" s="11">
         <f t="shared" si="4"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="306" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7971,7 +8231,7 @@
       <c r="D306" s="11"/>
       <c r="E306" s="11">
         <f t="shared" si="4"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="307" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7980,7 +8240,7 @@
       <c r="D307" s="11"/>
       <c r="E307" s="11">
         <f t="shared" si="4"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="308" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7989,7 +8249,7 @@
       <c r="D308" s="11"/>
       <c r="E308" s="11">
         <f t="shared" si="4"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="309" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7998,7 +8258,7 @@
       <c r="D309" s="11"/>
       <c r="E309" s="11">
         <f t="shared" si="4"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="310" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8007,7 +8267,7 @@
       <c r="D310" s="11"/>
       <c r="E310" s="11">
         <f t="shared" si="4"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="311" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8016,7 +8276,7 @@
       <c r="D311" s="11"/>
       <c r="E311" s="11">
         <f t="shared" si="4"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="312" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8025,7 +8285,7 @@
       <c r="D312" s="11"/>
       <c r="E312" s="11">
         <f t="shared" si="4"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="313" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8034,7 +8294,7 @@
       <c r="D313" s="11"/>
       <c r="E313" s="11">
         <f t="shared" si="4"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="314" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8043,7 +8303,7 @@
       <c r="D314" s="11"/>
       <c r="E314" s="11">
         <f t="shared" si="4"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="315" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8052,7 +8312,7 @@
       <c r="D315" s="11"/>
       <c r="E315" s="11">
         <f t="shared" si="4"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="316" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8061,7 +8321,7 @@
       <c r="D316" s="11"/>
       <c r="E316" s="11">
         <f t="shared" si="4"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="317" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8070,7 +8330,7 @@
       <c r="D317" s="11"/>
       <c r="E317" s="11">
         <f t="shared" si="4"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="318" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8079,7 +8339,7 @@
       <c r="D318" s="11"/>
       <c r="E318" s="11">
         <f t="shared" si="4"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="319" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8088,7 +8348,7 @@
       <c r="D319" s="11"/>
       <c r="E319" s="11">
         <f t="shared" si="4"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="320" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8097,7 +8357,7 @@
       <c r="D320" s="11"/>
       <c r="E320" s="11">
         <f t="shared" si="4"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="321" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8106,7 +8366,7 @@
       <c r="D321" s="11"/>
       <c r="E321" s="11">
         <f t="shared" si="4"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="322" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8115,7 +8375,7 @@
       <c r="D322" s="11"/>
       <c r="E322" s="11">
         <f t="shared" si="4"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="323" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8124,7 +8384,7 @@
       <c r="D323" s="11"/>
       <c r="E323" s="11">
         <f t="shared" si="4"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="324" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8133,7 +8393,7 @@
       <c r="D324" s="11"/>
       <c r="E324" s="11">
         <f t="shared" si="4"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="325" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8142,7 +8402,7 @@
       <c r="D325" s="11"/>
       <c r="E325" s="11">
         <f t="shared" si="4"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="326" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8151,7 +8411,7 @@
       <c r="D326" s="11"/>
       <c r="E326" s="11">
         <f t="shared" si="4"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="327" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8160,7 +8420,7 @@
       <c r="D327" s="11"/>
       <c r="E327" s="11">
         <f t="shared" ref="E327:E390" si="5">E326+D327</f>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="328" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8169,7 +8429,7 @@
       <c r="D328" s="11"/>
       <c r="E328" s="11">
         <f t="shared" si="5"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="329" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8178,7 +8438,7 @@
       <c r="D329" s="11"/>
       <c r="E329" s="11">
         <f t="shared" si="5"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="330" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8187,7 +8447,7 @@
       <c r="D330" s="11"/>
       <c r="E330" s="11">
         <f t="shared" si="5"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="331" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8196,7 +8456,7 @@
       <c r="D331" s="11"/>
       <c r="E331" s="11">
         <f t="shared" si="5"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="332" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8205,7 +8465,7 @@
       <c r="D332" s="11"/>
       <c r="E332" s="11">
         <f t="shared" si="5"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="333" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8214,7 +8474,7 @@
       <c r="D333" s="11"/>
       <c r="E333" s="11">
         <f t="shared" si="5"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="334" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8223,7 +8483,7 @@
       <c r="D334" s="11"/>
       <c r="E334" s="11">
         <f t="shared" si="5"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="335" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8232,7 +8492,7 @@
       <c r="D335" s="11"/>
       <c r="E335" s="11">
         <f t="shared" si="5"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="336" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8241,7 +8501,7 @@
       <c r="D336" s="11"/>
       <c r="E336" s="11">
         <f t="shared" si="5"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="337" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8250,7 +8510,7 @@
       <c r="D337" s="11"/>
       <c r="E337" s="11">
         <f t="shared" si="5"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="338" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8259,7 +8519,7 @@
       <c r="D338" s="11"/>
       <c r="E338" s="11">
         <f t="shared" si="5"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="339" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8268,7 +8528,7 @@
       <c r="D339" s="11"/>
       <c r="E339" s="11">
         <f t="shared" si="5"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="340" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8277,7 +8537,7 @@
       <c r="D340" s="11"/>
       <c r="E340" s="11">
         <f t="shared" si="5"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="341" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8286,7 +8546,7 @@
       <c r="D341" s="11"/>
       <c r="E341" s="11">
         <f t="shared" si="5"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="342" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8295,7 +8555,7 @@
       <c r="D342" s="11"/>
       <c r="E342" s="11">
         <f t="shared" si="5"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="343" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8304,7 +8564,7 @@
       <c r="D343" s="11"/>
       <c r="E343" s="11">
         <f t="shared" si="5"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="344" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8313,7 +8573,7 @@
       <c r="D344" s="11"/>
       <c r="E344" s="11">
         <f t="shared" si="5"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="345" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8322,7 +8582,7 @@
       <c r="D345" s="11"/>
       <c r="E345" s="11">
         <f t="shared" si="5"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="346" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8331,7 +8591,7 @@
       <c r="D346" s="11"/>
       <c r="E346" s="11">
         <f t="shared" si="5"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="347" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8340,7 +8600,7 @@
       <c r="D347" s="11"/>
       <c r="E347" s="11">
         <f t="shared" si="5"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="348" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8349,7 +8609,7 @@
       <c r="D348" s="11"/>
       <c r="E348" s="11">
         <f t="shared" si="5"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="349" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8358,7 +8618,7 @@
       <c r="D349" s="11"/>
       <c r="E349" s="11">
         <f t="shared" si="5"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="350" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8367,7 +8627,7 @@
       <c r="D350" s="11"/>
       <c r="E350" s="11">
         <f t="shared" si="5"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="351" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8376,7 +8636,7 @@
       <c r="D351" s="11"/>
       <c r="E351" s="11">
         <f t="shared" si="5"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="352" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8385,7 +8645,7 @@
       <c r="D352" s="11"/>
       <c r="E352" s="11">
         <f t="shared" si="5"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="353" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8394,7 +8654,7 @@
       <c r="D353" s="11"/>
       <c r="E353" s="11">
         <f t="shared" si="5"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="354" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8403,7 +8663,7 @@
       <c r="D354" s="11"/>
       <c r="E354" s="11">
         <f t="shared" si="5"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="355" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8412,7 +8672,7 @@
       <c r="D355" s="11"/>
       <c r="E355" s="11">
         <f t="shared" si="5"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="356" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8421,7 +8681,7 @@
       <c r="D356" s="11"/>
       <c r="E356" s="11">
         <f t="shared" si="5"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="357" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8430,7 +8690,7 @@
       <c r="D357" s="11"/>
       <c r="E357" s="11">
         <f t="shared" si="5"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="358" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8439,7 +8699,7 @@
       <c r="D358" s="11"/>
       <c r="E358" s="11">
         <f t="shared" si="5"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="359" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8448,7 +8708,7 @@
       <c r="D359" s="11"/>
       <c r="E359" s="11">
         <f t="shared" si="5"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="360" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8457,7 +8717,7 @@
       <c r="D360" s="11"/>
       <c r="E360" s="11">
         <f t="shared" si="5"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="361" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8466,7 +8726,7 @@
       <c r="D361" s="11"/>
       <c r="E361" s="11">
         <f t="shared" si="5"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="362" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8475,7 +8735,7 @@
       <c r="D362" s="11"/>
       <c r="E362" s="11">
         <f t="shared" si="5"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="363" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8484,7 +8744,7 @@
       <c r="D363" s="11"/>
       <c r="E363" s="11">
         <f t="shared" si="5"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="364" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8493,7 +8753,7 @@
       <c r="D364" s="11"/>
       <c r="E364" s="11">
         <f t="shared" si="5"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="365" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8502,7 +8762,7 @@
       <c r="D365" s="11"/>
       <c r="E365" s="11">
         <f t="shared" si="5"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="366" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8511,7 +8771,7 @@
       <c r="D366" s="11"/>
       <c r="E366" s="11">
         <f t="shared" si="5"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="367" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8520,7 +8780,7 @@
       <c r="D367" s="11"/>
       <c r="E367" s="11">
         <f t="shared" si="5"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="368" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8529,7 +8789,7 @@
       <c r="D368" s="11"/>
       <c r="E368" s="11">
         <f t="shared" si="5"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="369" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8538,7 +8798,7 @@
       <c r="D369" s="11"/>
       <c r="E369" s="11">
         <f t="shared" si="5"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="370" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8547,7 +8807,7 @@
       <c r="D370" s="11"/>
       <c r="E370" s="11">
         <f t="shared" si="5"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="371" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8556,7 +8816,7 @@
       <c r="D371" s="11"/>
       <c r="E371" s="11">
         <f t="shared" si="5"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="372" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8565,7 +8825,7 @@
       <c r="D372" s="11"/>
       <c r="E372" s="11">
         <f t="shared" si="5"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="373" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8574,7 +8834,7 @@
       <c r="D373" s="11"/>
       <c r="E373" s="11">
         <f t="shared" si="5"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="374" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8583,7 +8843,7 @@
       <c r="D374" s="11"/>
       <c r="E374" s="11">
         <f t="shared" si="5"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="375" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8592,7 +8852,7 @@
       <c r="D375" s="11"/>
       <c r="E375" s="11">
         <f t="shared" si="5"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="376" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8601,7 +8861,7 @@
       <c r="D376" s="11"/>
       <c r="E376" s="11">
         <f t="shared" si="5"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="377" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8610,7 +8870,7 @@
       <c r="D377" s="11"/>
       <c r="E377" s="11">
         <f t="shared" si="5"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="378" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8619,7 +8879,7 @@
       <c r="D378" s="11"/>
       <c r="E378" s="11">
         <f t="shared" si="5"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="379" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8628,7 +8888,7 @@
       <c r="D379" s="11"/>
       <c r="E379" s="11">
         <f t="shared" si="5"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="380" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8637,7 +8897,7 @@
       <c r="D380" s="11"/>
       <c r="E380" s="11">
         <f t="shared" si="5"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="381" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8646,7 +8906,7 @@
       <c r="D381" s="11"/>
       <c r="E381" s="11">
         <f t="shared" si="5"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="382" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8655,7 +8915,7 @@
       <c r="D382" s="11"/>
       <c r="E382" s="11">
         <f t="shared" si="5"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="383" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8664,7 +8924,7 @@
       <c r="D383" s="11"/>
       <c r="E383" s="11">
         <f t="shared" si="5"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="384" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8673,7 +8933,7 @@
       <c r="D384" s="11"/>
       <c r="E384" s="11">
         <f t="shared" si="5"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="385" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8682,7 +8942,7 @@
       <c r="D385" s="11"/>
       <c r="E385" s="11">
         <f t="shared" si="5"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="386" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8691,7 +8951,7 @@
       <c r="D386" s="11"/>
       <c r="E386" s="11">
         <f t="shared" si="5"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="387" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8700,7 +8960,7 @@
       <c r="D387" s="11"/>
       <c r="E387" s="11">
         <f t="shared" si="5"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="388" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8709,7 +8969,7 @@
       <c r="D388" s="11"/>
       <c r="E388" s="11">
         <f t="shared" si="5"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="389" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8718,7 +8978,7 @@
       <c r="D389" s="11"/>
       <c r="E389" s="11">
         <f t="shared" si="5"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="390" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8727,7 +8987,7 @@
       <c r="D390" s="11"/>
       <c r="E390" s="11">
         <f t="shared" si="5"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="391" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8736,7 +8996,7 @@
       <c r="D391" s="11"/>
       <c r="E391" s="11">
         <f t="shared" ref="E391:E454" si="6">E390+D391</f>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="392" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8745,7 +9005,7 @@
       <c r="D392" s="11"/>
       <c r="E392" s="11">
         <f t="shared" si="6"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="393" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8754,7 +9014,7 @@
       <c r="D393" s="11"/>
       <c r="E393" s="11">
         <f t="shared" si="6"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="394" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8763,7 +9023,7 @@
       <c r="D394" s="11"/>
       <c r="E394" s="11">
         <f t="shared" si="6"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="395" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8772,7 +9032,7 @@
       <c r="D395" s="11"/>
       <c r="E395" s="11">
         <f t="shared" si="6"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="396" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8781,7 +9041,7 @@
       <c r="D396" s="11"/>
       <c r="E396" s="11">
         <f t="shared" si="6"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="397" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8790,7 +9050,7 @@
       <c r="D397" s="11"/>
       <c r="E397" s="11">
         <f t="shared" si="6"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="398" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8799,7 +9059,7 @@
       <c r="D398" s="11"/>
       <c r="E398" s="11">
         <f t="shared" si="6"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="399" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8808,7 +9068,7 @@
       <c r="D399" s="11"/>
       <c r="E399" s="11">
         <f t="shared" si="6"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="400" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8817,7 +9077,7 @@
       <c r="D400" s="11"/>
       <c r="E400" s="11">
         <f t="shared" si="6"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="401" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8826,7 +9086,7 @@
       <c r="D401" s="11"/>
       <c r="E401" s="11">
         <f t="shared" si="6"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="402" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8835,7 +9095,7 @@
       <c r="D402" s="11"/>
       <c r="E402" s="11">
         <f t="shared" si="6"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="403" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8844,7 +9104,7 @@
       <c r="D403" s="11"/>
       <c r="E403" s="11">
         <f t="shared" si="6"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="404" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8853,7 +9113,7 @@
       <c r="D404" s="11"/>
       <c r="E404" s="11">
         <f t="shared" si="6"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="405" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8862,7 +9122,7 @@
       <c r="D405" s="11"/>
       <c r="E405" s="11">
         <f t="shared" si="6"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="406" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8871,7 +9131,7 @@
       <c r="D406" s="11"/>
       <c r="E406" s="11">
         <f t="shared" si="6"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="407" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8880,7 +9140,7 @@
       <c r="D407" s="11"/>
       <c r="E407" s="11">
         <f t="shared" si="6"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="408" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8889,7 +9149,7 @@
       <c r="D408" s="11"/>
       <c r="E408" s="11">
         <f t="shared" si="6"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="409" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8898,7 +9158,7 @@
       <c r="D409" s="11"/>
       <c r="E409" s="11">
         <f t="shared" si="6"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="410" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8907,7 +9167,7 @@
       <c r="D410" s="11"/>
       <c r="E410" s="11">
         <f t="shared" si="6"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="411" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8916,7 +9176,7 @@
       <c r="D411" s="11"/>
       <c r="E411" s="11">
         <f t="shared" si="6"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="412" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8925,7 +9185,7 @@
       <c r="D412" s="11"/>
       <c r="E412" s="11">
         <f t="shared" si="6"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="413" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8934,7 +9194,7 @@
       <c r="D413" s="11"/>
       <c r="E413" s="11">
         <f t="shared" si="6"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="414" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8943,7 +9203,7 @@
       <c r="D414" s="11"/>
       <c r="E414" s="11">
         <f t="shared" si="6"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="415" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8952,7 +9212,7 @@
       <c r="D415" s="11"/>
       <c r="E415" s="11">
         <f t="shared" si="6"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="416" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8961,7 +9221,7 @@
       <c r="D416" s="11"/>
       <c r="E416" s="11">
         <f t="shared" si="6"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="417" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8970,7 +9230,7 @@
       <c r="D417" s="11"/>
       <c r="E417" s="11">
         <f t="shared" si="6"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="418" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8979,7 +9239,7 @@
       <c r="D418" s="11"/>
       <c r="E418" s="11">
         <f t="shared" si="6"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="419" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8988,7 +9248,7 @@
       <c r="D419" s="11"/>
       <c r="E419" s="11">
         <f t="shared" si="6"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="420" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8997,7 +9257,7 @@
       <c r="D420" s="11"/>
       <c r="E420" s="11">
         <f t="shared" si="6"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="421" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9006,7 +9266,7 @@
       <c r="D421" s="11"/>
       <c r="E421" s="11">
         <f t="shared" si="6"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="422" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9015,7 +9275,7 @@
       <c r="D422" s="11"/>
       <c r="E422" s="11">
         <f t="shared" si="6"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="423" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9024,7 +9284,7 @@
       <c r="D423" s="11"/>
       <c r="E423" s="11">
         <f t="shared" si="6"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="424" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9033,7 +9293,7 @@
       <c r="D424" s="11"/>
       <c r="E424" s="11">
         <f t="shared" si="6"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="425" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9042,7 +9302,7 @@
       <c r="D425" s="11"/>
       <c r="E425" s="11">
         <f t="shared" si="6"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="426" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9051,7 +9311,7 @@
       <c r="D426" s="11"/>
       <c r="E426" s="11">
         <f t="shared" si="6"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="427" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9060,7 +9320,7 @@
       <c r="D427" s="11"/>
       <c r="E427" s="11">
         <f t="shared" si="6"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="428" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9069,7 +9329,7 @@
       <c r="D428" s="11"/>
       <c r="E428" s="11">
         <f t="shared" si="6"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="429" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9078,7 +9338,7 @@
       <c r="D429" s="11"/>
       <c r="E429" s="11">
         <f t="shared" si="6"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="430" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9087,7 +9347,7 @@
       <c r="D430" s="11"/>
       <c r="E430" s="11">
         <f t="shared" si="6"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="431" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9096,7 +9356,7 @@
       <c r="D431" s="11"/>
       <c r="E431" s="11">
         <f t="shared" si="6"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="432" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9105,7 +9365,7 @@
       <c r="D432" s="11"/>
       <c r="E432" s="11">
         <f t="shared" si="6"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="433" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9114,7 +9374,7 @@
       <c r="D433" s="11"/>
       <c r="E433" s="11">
         <f t="shared" si="6"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="434" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9123,7 +9383,7 @@
       <c r="D434" s="11"/>
       <c r="E434" s="11">
         <f t="shared" si="6"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="435" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9132,7 +9392,7 @@
       <c r="D435" s="11"/>
       <c r="E435" s="11">
         <f t="shared" si="6"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="436" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9141,7 +9401,7 @@
       <c r="D436" s="11"/>
       <c r="E436" s="11">
         <f t="shared" si="6"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="437" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9150,7 +9410,7 @@
       <c r="D437" s="11"/>
       <c r="E437" s="11">
         <f t="shared" si="6"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="438" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9159,7 +9419,7 @@
       <c r="D438" s="11"/>
       <c r="E438" s="11">
         <f t="shared" si="6"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="439" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9168,7 +9428,7 @@
       <c r="D439" s="11"/>
       <c r="E439" s="11">
         <f t="shared" si="6"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="440" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9177,7 +9437,7 @@
       <c r="D440" s="11"/>
       <c r="E440" s="11">
         <f t="shared" si="6"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="441" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9186,7 +9446,7 @@
       <c r="D441" s="11"/>
       <c r="E441" s="11">
         <f t="shared" si="6"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="442" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9195,7 +9455,7 @@
       <c r="D442" s="11"/>
       <c r="E442" s="11">
         <f t="shared" si="6"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="443" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9204,7 +9464,7 @@
       <c r="D443" s="11"/>
       <c r="E443" s="11">
         <f t="shared" si="6"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="444" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9213,7 +9473,7 @@
       <c r="D444" s="11"/>
       <c r="E444" s="11">
         <f t="shared" si="6"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="445" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9222,7 +9482,7 @@
       <c r="D445" s="11"/>
       <c r="E445" s="11">
         <f t="shared" si="6"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="446" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9231,7 +9491,7 @@
       <c r="D446" s="11"/>
       <c r="E446" s="11">
         <f t="shared" si="6"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="447" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9240,7 +9500,7 @@
       <c r="D447" s="11"/>
       <c r="E447" s="11">
         <f t="shared" si="6"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="448" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9249,7 +9509,7 @@
       <c r="D448" s="11"/>
       <c r="E448" s="11">
         <f t="shared" si="6"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="449" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9258,7 +9518,7 @@
       <c r="D449" s="11"/>
       <c r="E449" s="11">
         <f t="shared" si="6"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="450" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9267,7 +9527,7 @@
       <c r="D450" s="11"/>
       <c r="E450" s="11">
         <f t="shared" si="6"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="451" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9276,7 +9536,7 @@
       <c r="D451" s="11"/>
       <c r="E451" s="11">
         <f t="shared" si="6"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="452" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9285,7 +9545,7 @@
       <c r="D452" s="11"/>
       <c r="E452" s="11">
         <f t="shared" si="6"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="453" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9294,7 +9554,7 @@
       <c r="D453" s="11"/>
       <c r="E453" s="11">
         <f t="shared" si="6"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="454" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9303,7 +9563,7 @@
       <c r="D454" s="11"/>
       <c r="E454" s="11">
         <f t="shared" si="6"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="455" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9312,7 +9572,7 @@
       <c r="D455" s="11"/>
       <c r="E455" s="11">
         <f t="shared" ref="E455:E518" si="7">E454+D455</f>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="456" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9321,7 +9581,7 @@
       <c r="D456" s="11"/>
       <c r="E456" s="11">
         <f t="shared" si="7"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="457" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9330,7 +9590,7 @@
       <c r="D457" s="11"/>
       <c r="E457" s="11">
         <f t="shared" si="7"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="458" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9339,7 +9599,7 @@
       <c r="D458" s="11"/>
       <c r="E458" s="11">
         <f t="shared" si="7"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="459" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9348,7 +9608,7 @@
       <c r="D459" s="11"/>
       <c r="E459" s="11">
         <f t="shared" si="7"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="460" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9357,7 +9617,7 @@
       <c r="D460" s="11"/>
       <c r="E460" s="11">
         <f t="shared" si="7"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="461" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9366,7 +9626,7 @@
       <c r="D461" s="11"/>
       <c r="E461" s="11">
         <f t="shared" si="7"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="462" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9375,7 +9635,7 @@
       <c r="D462" s="11"/>
       <c r="E462" s="11">
         <f t="shared" si="7"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="463" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9384,7 +9644,7 @@
       <c r="D463" s="11"/>
       <c r="E463" s="11">
         <f t="shared" si="7"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="464" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9393,7 +9653,7 @@
       <c r="D464" s="11"/>
       <c r="E464" s="11">
         <f t="shared" si="7"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="465" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9402,7 +9662,7 @@
       <c r="D465" s="11"/>
       <c r="E465" s="11">
         <f t="shared" si="7"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="466" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9411,7 +9671,7 @@
       <c r="D466" s="11"/>
       <c r="E466" s="11">
         <f t="shared" si="7"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="467" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9420,7 +9680,7 @@
       <c r="D467" s="11"/>
       <c r="E467" s="11">
         <f t="shared" si="7"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="468" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9429,7 +9689,7 @@
       <c r="D468" s="11"/>
       <c r="E468" s="11">
         <f t="shared" si="7"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="469" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9438,7 +9698,7 @@
       <c r="D469" s="11"/>
       <c r="E469" s="11">
         <f t="shared" si="7"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="470" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9447,7 +9707,7 @@
       <c r="D470" s="11"/>
       <c r="E470" s="11">
         <f t="shared" si="7"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="471" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9456,7 +9716,7 @@
       <c r="D471" s="11"/>
       <c r="E471" s="11">
         <f t="shared" si="7"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="472" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9465,7 +9725,7 @@
       <c r="D472" s="11"/>
       <c r="E472" s="11">
         <f t="shared" si="7"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="473" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9474,7 +9734,7 @@
       <c r="D473" s="11"/>
       <c r="E473" s="11">
         <f t="shared" si="7"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="474" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9483,7 +9743,7 @@
       <c r="D474" s="11"/>
       <c r="E474" s="11">
         <f t="shared" si="7"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="475" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9492,7 +9752,7 @@
       <c r="D475" s="11"/>
       <c r="E475" s="11">
         <f t="shared" si="7"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="476" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9501,7 +9761,7 @@
       <c r="D476" s="11"/>
       <c r="E476" s="11">
         <f t="shared" si="7"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="477" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9510,7 +9770,7 @@
       <c r="D477" s="11"/>
       <c r="E477" s="11">
         <f t="shared" si="7"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="478" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9519,7 +9779,7 @@
       <c r="D478" s="11"/>
       <c r="E478" s="11">
         <f t="shared" si="7"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="479" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9528,7 +9788,7 @@
       <c r="D479" s="11"/>
       <c r="E479" s="11">
         <f t="shared" si="7"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="480" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9537,7 +9797,7 @@
       <c r="D480" s="11"/>
       <c r="E480" s="11">
         <f t="shared" si="7"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="481" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9546,7 +9806,7 @@
       <c r="D481" s="11"/>
       <c r="E481" s="11">
         <f t="shared" si="7"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="482" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9555,7 +9815,7 @@
       <c r="D482" s="11"/>
       <c r="E482" s="11">
         <f t="shared" si="7"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="483" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9564,7 +9824,7 @@
       <c r="D483" s="11"/>
       <c r="E483" s="11">
         <f t="shared" si="7"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="484" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9573,7 +9833,7 @@
       <c r="D484" s="11"/>
       <c r="E484" s="11">
         <f t="shared" si="7"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="485" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9582,7 +9842,7 @@
       <c r="D485" s="11"/>
       <c r="E485" s="11">
         <f t="shared" si="7"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="486" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9591,7 +9851,7 @@
       <c r="D486" s="11"/>
       <c r="E486" s="11">
         <f t="shared" si="7"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="487" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9600,7 +9860,7 @@
       <c r="D487" s="11"/>
       <c r="E487" s="11">
         <f t="shared" si="7"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="488" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9609,7 +9869,7 @@
       <c r="D488" s="11"/>
       <c r="E488" s="11">
         <f t="shared" si="7"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="489" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9618,7 +9878,7 @@
       <c r="D489" s="11"/>
       <c r="E489" s="11">
         <f t="shared" si="7"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="490" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9627,7 +9887,7 @@
       <c r="D490" s="11"/>
       <c r="E490" s="11">
         <f t="shared" si="7"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="491" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9636,7 +9896,7 @@
       <c r="D491" s="11"/>
       <c r="E491" s="11">
         <f t="shared" si="7"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="492" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9645,7 +9905,7 @@
       <c r="D492" s="11"/>
       <c r="E492" s="11">
         <f t="shared" si="7"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="493" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9654,7 +9914,7 @@
       <c r="D493" s="11"/>
       <c r="E493" s="11">
         <f t="shared" si="7"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="494" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9663,7 +9923,7 @@
       <c r="D494" s="11"/>
       <c r="E494" s="11">
         <f t="shared" si="7"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="495" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9672,7 +9932,7 @@
       <c r="D495" s="11"/>
       <c r="E495" s="11">
         <f t="shared" si="7"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="496" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9681,7 +9941,7 @@
       <c r="D496" s="11"/>
       <c r="E496" s="11">
         <f t="shared" si="7"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="497" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9690,7 +9950,7 @@
       <c r="D497" s="11"/>
       <c r="E497" s="11">
         <f t="shared" si="7"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="498" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9699,7 +9959,7 @@
       <c r="D498" s="11"/>
       <c r="E498" s="11">
         <f t="shared" si="7"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="499" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9708,7 +9968,7 @@
       <c r="D499" s="11"/>
       <c r="E499" s="11">
         <f t="shared" si="7"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="500" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9717,7 +9977,7 @@
       <c r="D500" s="11"/>
       <c r="E500" s="11">
         <f t="shared" si="7"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="501" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9726,7 +9986,7 @@
       <c r="D501" s="11"/>
       <c r="E501" s="11">
         <f t="shared" si="7"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="502" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9735,7 +9995,7 @@
       <c r="D502" s="11"/>
       <c r="E502" s="11">
         <f t="shared" si="7"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="503" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9744,7 +10004,7 @@
       <c r="D503" s="11"/>
       <c r="E503" s="11">
         <f t="shared" si="7"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="504" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9753,7 +10013,7 @@
       <c r="D504" s="11"/>
       <c r="E504" s="11">
         <f t="shared" si="7"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="505" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9762,7 +10022,7 @@
       <c r="D505" s="11"/>
       <c r="E505" s="11">
         <f t="shared" si="7"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="506" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9771,7 +10031,7 @@
       <c r="D506" s="11"/>
       <c r="E506" s="11">
         <f t="shared" si="7"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="507" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9780,7 +10040,7 @@
       <c r="D507" s="11"/>
       <c r="E507" s="11">
         <f t="shared" si="7"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="508" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9789,7 +10049,7 @@
       <c r="D508" s="11"/>
       <c r="E508" s="11">
         <f t="shared" si="7"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="509" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9798,7 +10058,7 @@
       <c r="D509" s="11"/>
       <c r="E509" s="11">
         <f t="shared" si="7"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="510" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9807,7 +10067,7 @@
       <c r="D510" s="11"/>
       <c r="E510" s="11">
         <f t="shared" si="7"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="511" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9816,7 +10076,7 @@
       <c r="D511" s="11"/>
       <c r="E511" s="11">
         <f t="shared" si="7"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="512" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9825,7 +10085,7 @@
       <c r="D512" s="11"/>
       <c r="E512" s="11">
         <f t="shared" si="7"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="513" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9834,7 +10094,7 @@
       <c r="D513" s="11"/>
       <c r="E513" s="11">
         <f t="shared" si="7"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="514" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9843,7 +10103,7 @@
       <c r="D514" s="11"/>
       <c r="E514" s="11">
         <f t="shared" si="7"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="515" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9852,7 +10112,7 @@
       <c r="D515" s="11"/>
       <c r="E515" s="11">
         <f t="shared" si="7"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="516" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9861,7 +10121,7 @@
       <c r="D516" s="11"/>
       <c r="E516" s="11">
         <f t="shared" si="7"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="517" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9870,7 +10130,7 @@
       <c r="D517" s="11"/>
       <c r="E517" s="11">
         <f t="shared" si="7"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="518" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9879,7 +10139,7 @@
       <c r="D518" s="11"/>
       <c r="E518" s="11">
         <f t="shared" si="7"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="519" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9888,7 +10148,7 @@
       <c r="D519" s="11"/>
       <c r="E519" s="11">
         <f t="shared" ref="E519:E542" si="8">E518+D519</f>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="520" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9897,7 +10157,7 @@
       <c r="D520" s="11"/>
       <c r="E520" s="11">
         <f t="shared" si="8"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="521" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9906,7 +10166,7 @@
       <c r="D521" s="11"/>
       <c r="E521" s="11">
         <f t="shared" si="8"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="522" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9915,7 +10175,7 @@
       <c r="D522" s="11"/>
       <c r="E522" s="11">
         <f t="shared" si="8"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="523" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9924,7 +10184,7 @@
       <c r="D523" s="11"/>
       <c r="E523" s="11">
         <f t="shared" si="8"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="524" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9933,7 +10193,7 @@
       <c r="D524" s="11"/>
       <c r="E524" s="11">
         <f t="shared" si="8"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="525" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9942,7 +10202,7 @@
       <c r="D525" s="11"/>
       <c r="E525" s="11">
         <f t="shared" si="8"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="526" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9951,7 +10211,7 @@
       <c r="D526" s="11"/>
       <c r="E526" s="11">
         <f t="shared" si="8"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="527" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9960,7 +10220,7 @@
       <c r="D527" s="11"/>
       <c r="E527" s="11">
         <f t="shared" si="8"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="528" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9969,7 +10229,7 @@
       <c r="D528" s="11"/>
       <c r="E528" s="11">
         <f t="shared" si="8"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="529" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9978,7 +10238,7 @@
       <c r="D529" s="11"/>
       <c r="E529" s="11">
         <f t="shared" si="8"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="530" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9987,7 +10247,7 @@
       <c r="D530" s="11"/>
       <c r="E530" s="11">
         <f t="shared" si="8"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="531" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9996,7 +10256,7 @@
       <c r="D531" s="11"/>
       <c r="E531" s="11">
         <f t="shared" si="8"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="532" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -10005,7 +10265,7 @@
       <c r="D532" s="11"/>
       <c r="E532" s="11">
         <f t="shared" si="8"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="533" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -10014,7 +10274,7 @@
       <c r="D533" s="11"/>
       <c r="E533" s="11">
         <f t="shared" si="8"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="534" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -10023,7 +10283,7 @@
       <c r="D534" s="11"/>
       <c r="E534" s="11">
         <f t="shared" si="8"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="535" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -10032,7 +10292,7 @@
       <c r="D535" s="11"/>
       <c r="E535" s="11">
         <f t="shared" si="8"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="536" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -10041,7 +10301,7 @@
       <c r="D536" s="11"/>
       <c r="E536" s="11">
         <f t="shared" si="8"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="537" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -10050,7 +10310,7 @@
       <c r="D537" s="11"/>
       <c r="E537" s="11">
         <f t="shared" si="8"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="538" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -10059,7 +10319,7 @@
       <c r="D538" s="11"/>
       <c r="E538" s="11">
         <f t="shared" si="8"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="539" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -10068,7 +10328,7 @@
       <c r="D539" s="11"/>
       <c r="E539" s="11">
         <f t="shared" si="8"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="540" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -10077,7 +10337,7 @@
       <c r="D540" s="11"/>
       <c r="E540" s="11">
         <f t="shared" si="8"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="541" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -10086,7 +10346,7 @@
       <c r="D541" s="11"/>
       <c r="E541" s="11">
         <f t="shared" si="8"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="542" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -10095,7 +10355,7 @@
       <c r="D542" s="1"/>
       <c r="E542" s="11">
         <f t="shared" si="8"/>
-        <v>70000</v>
+        <v>120000</v>
       </c>
     </row>
   </sheetData>

--- a/LEDGER.xlsx
+++ b/LEDGER.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="77">
   <si>
     <t>DATE</t>
   </si>
@@ -351,6 +351,33 @@
   <si>
     <t>RAFEEQ CLEAN SALARY</t>
   </si>
+  <si>
+    <t>SALE CASH</t>
+  </si>
+  <si>
+    <t>SARYA BINDING</t>
+  </si>
+  <si>
+    <t>SARYA BINDING LABOUR</t>
+  </si>
+  <si>
+    <t>REFRESHMENT</t>
+  </si>
+  <si>
+    <t>WAREHOUSE SECURITY</t>
+  </si>
+  <si>
+    <t>←  11550 online</t>
+  </si>
+  <si>
+    <t>AMBRELI STEEL</t>
+  </si>
+  <si>
+    <t>(+) 10,000 Advnace</t>
+  </si>
+  <si>
+    <t>OUTER BEAM FILLING</t>
+  </si>
 </sst>
 </file>
 
@@ -491,7 +518,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -570,8 +597,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -696,11 +735,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -740,7 +788,6 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -842,18 +889,6 @@
     <xf numFmtId="43" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="15" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -870,18 +905,47 @@
     <xf numFmtId="0" fontId="8" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="8" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="2" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="2" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="8" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="8" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="11">
     <dxf>
       <fill>
         <patternFill>
@@ -1237,58 +1301,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L77" sqref="L77"/>
+    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H89" sqref="H89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" style="48" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" style="47" customWidth="1"/>
     <col min="4" max="4" width="32.44140625" customWidth="1"/>
     <col min="5" max="5" width="9.77734375" customWidth="1"/>
     <col min="6" max="7" width="12.44140625" customWidth="1"/>
     <col min="8" max="8" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.109375" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" customWidth="1"/>
     <col min="10" max="10" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.21875" customWidth="1"/>
     <col min="13" max="13" width="16.88671875" customWidth="1"/>
     <col min="14" max="14" width="10.33203125" customWidth="1"/>
     <col min="15" max="15" width="15.21875" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="K1" s="58" t="s">
+    <row r="1" spans="2:17" ht="18" x14ac:dyDescent="0.35">
+      <c r="K1" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="59" t="s">
+      <c r="L1" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="M1" s="59" t="s">
+      <c r="M1" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="59" t="s">
+      <c r="N1" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="O1" s="58" t="s">
+      <c r="O1" s="57" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="2:16" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:17" ht="21" x14ac:dyDescent="0.4">
       <c r="K2" s="3">
         <v>1</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="60"/>
-      <c r="N2" s="70">
+      <c r="M2" s="59"/>
+      <c r="N2" s="69">
         <f>SUMIF($C$2:$C$1000, K2, $E$2:$E$1000)</f>
         <v>1000</v>
       </c>
-      <c r="O2" s="61">
+      <c r="O2" s="60">
         <f>SUMIF($C$2:$C$1000, K2, $H$2:$H$1000)</f>
         <v>124000</v>
       </c>
@@ -1296,101 +1360,104 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="2:16" ht="21" x14ac:dyDescent="0.4">
-      <c r="B3" s="87" t="s">
+    <row r="3" spans="2:17" ht="21" x14ac:dyDescent="0.4">
+      <c r="B3" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
       <c r="K3" s="3">
         <v>2</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="62"/>
-      <c r="N3" s="70">
+      <c r="M3" s="61"/>
+      <c r="N3" s="69">
         <f t="shared" ref="N3:N5" si="0">SUMIF($C$2:$C$1000, K3, $E$2:$E$1000)</f>
-        <v>2</v>
-      </c>
-      <c r="O3" s="61">
+        <v>3</v>
+      </c>
+      <c r="O3" s="60">
         <f t="shared" ref="O3:O16" si="1">SUMIF($C$2:$C$1000, K3, $H$2:$H$1000)</f>
-        <v>43000</v>
-      </c>
-    </row>
-    <row r="4" spans="2:16" ht="21" x14ac:dyDescent="0.4">
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" ht="21" x14ac:dyDescent="0.4">
+      <c r="B4" s="104"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="104"/>
       <c r="K4" s="3">
         <v>3</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M4" s="63"/>
-      <c r="N4" s="70">
+      <c r="M4" s="62"/>
+      <c r="N4" s="69">
         <f t="shared" si="0"/>
-        <v>105</v>
-      </c>
-      <c r="O4" s="61">
+        <v>180</v>
+      </c>
+      <c r="O4" s="60">
         <f t="shared" si="1"/>
-        <v>126450</v>
-      </c>
-      <c r="P4" s="20"/>
-    </row>
-    <row r="5" spans="2:16" ht="21" x14ac:dyDescent="0.4">
-      <c r="B5" s="54" t="s">
+        <v>210950</v>
+      </c>
+      <c r="P4" s="20">
+        <f>O4/N4</f>
+        <v>1171.9444444444443</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" ht="21" x14ac:dyDescent="0.4">
+      <c r="B5" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="54" t="s">
+      <c r="D5" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="54" t="s">
+      <c r="E5" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="54" t="s">
+      <c r="F5" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="54" t="s">
+      <c r="G5" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="54" t="s">
+      <c r="H5" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="54" t="s">
+      <c r="I5" s="53" t="s">
         <v>3</v>
       </c>
       <c r="K5" s="3">
         <v>4</v>
       </c>
-      <c r="L5" s="64" t="s">
+      <c r="L5" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="65"/>
-      <c r="N5" s="70">
+      <c r="M5" s="64"/>
+      <c r="N5" s="69">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="O5" s="61">
+      <c r="O5" s="60">
         <f t="shared" si="1"/>
         <v>15000</v>
       </c>
     </row>
-    <row r="6" spans="2:16" ht="21" hidden="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:17" ht="21" hidden="1" x14ac:dyDescent="0.4">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -1406,13 +1473,13 @@
       <c r="K6" s="3"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="70"/>
-      <c r="O6" s="61">
+      <c r="N6" s="69"/>
+      <c r="O6" s="60">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:16" ht="21" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:17" ht="21" x14ac:dyDescent="0.4">
       <c r="B7" s="10">
         <v>45109</v>
       </c>
@@ -1435,30 +1502,30 @@
       <c r="K7" s="3">
         <v>5</v>
       </c>
-      <c r="L7" s="64" t="s">
+      <c r="L7" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="M7" s="66"/>
-      <c r="N7" s="70"/>
-      <c r="O7" s="61">
+      <c r="M7" s="65"/>
+      <c r="N7" s="69"/>
+      <c r="O7" s="60">
         <f t="shared" si="1"/>
-        <v>77000</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16" ht="21" x14ac:dyDescent="0.4">
-      <c r="B8" s="33">
+        <v>82000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" ht="21" x14ac:dyDescent="0.4">
+      <c r="B8" s="32">
         <v>45113</v>
       </c>
-      <c r="C8" s="34">
+      <c r="C8" s="33">
         <v>5</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="36">
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="35">
         <v>10000</v>
       </c>
       <c r="I8" s="11">
@@ -1471,14 +1538,18 @@
       <c r="L8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="M8" s="67"/>
-      <c r="N8" s="70"/>
-      <c r="O8" s="61">
+      <c r="M8" s="66"/>
+      <c r="N8" s="69"/>
+      <c r="O8" s="60">
         <f t="shared" si="1"/>
-        <v>110000</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16" ht="21" x14ac:dyDescent="0.4">
+        <v>130000</v>
+      </c>
+      <c r="P8" s="107" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q8" s="108"/>
+    </row>
+    <row r="9" spans="2:17" ht="21" x14ac:dyDescent="0.4">
       <c r="B9" s="13">
         <v>45112</v>
       </c>
@@ -1506,18 +1577,18 @@
       <c r="L9" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="M9" s="77"/>
-      <c r="N9" s="70"/>
-      <c r="O9" s="61">
+      <c r="M9" s="76"/>
+      <c r="N9" s="69"/>
+      <c r="O9" s="60">
         <f t="shared" si="1"/>
-        <v>115200</v>
-      </c>
-    </row>
-    <row r="10" spans="2:16" ht="21" x14ac:dyDescent="0.4">
+        <v>174999.4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" ht="21" x14ac:dyDescent="0.4">
       <c r="B10" s="17">
         <v>45113</v>
       </c>
-      <c r="C10" s="49">
+      <c r="C10" s="48">
         <v>3</v>
       </c>
       <c r="D10" s="18" t="s">
@@ -1536,21 +1607,21 @@
       <c r="K10" s="3">
         <v>8</v>
       </c>
-      <c r="L10" s="79" t="s">
+      <c r="L10" s="78" t="s">
         <v>14</v>
       </c>
       <c r="M10" s="1"/>
-      <c r="N10" s="70"/>
-      <c r="O10" s="61">
+      <c r="N10" s="69"/>
+      <c r="O10" s="60">
         <f t="shared" si="1"/>
-        <v>13718</v>
-      </c>
-    </row>
-    <row r="11" spans="2:16" ht="21" x14ac:dyDescent="0.4">
+        <v>17918</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" ht="21" x14ac:dyDescent="0.4">
       <c r="B11" s="17">
         <v>45115</v>
       </c>
-      <c r="C11" s="49">
+      <c r="C11" s="48">
         <v>3</v>
       </c>
       <c r="D11" s="18" t="s">
@@ -1575,14 +1646,14 @@
       </c>
       <c r="K11" s="3"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="68"/>
-      <c r="N11" s="70"/>
-      <c r="O11" s="61">
+      <c r="M11" s="67"/>
+      <c r="N11" s="69"/>
+      <c r="O11" s="60">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:16" ht="21" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:17" ht="21" x14ac:dyDescent="0.4">
       <c r="B12" s="12">
         <v>45116</v>
       </c>
@@ -1604,29 +1675,29 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
-      <c r="N12" s="70"/>
-      <c r="O12" s="61">
+      <c r="N12" s="69"/>
+      <c r="O12" s="60">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:16" ht="21" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:17" ht="21" x14ac:dyDescent="0.4">
       <c r="B13" s="17">
         <v>45117</v>
       </c>
-      <c r="C13" s="49">
+      <c r="C13" s="48">
         <v>3</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="32">
+      <c r="E13" s="31">
         <v>5</v>
       </c>
-      <c r="F13" s="32">
+      <c r="F13" s="31">
         <v>1140</v>
       </c>
-      <c r="G13" s="32">
+      <c r="G13" s="31">
         <v>200</v>
       </c>
       <c r="H13" s="21">
@@ -1640,13 +1711,13 @@
       <c r="K13" s="11"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
-      <c r="N13" s="70"/>
-      <c r="O13" s="61">
+      <c r="N13" s="69"/>
+      <c r="O13" s="60">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:16" ht="21" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:17" ht="21" x14ac:dyDescent="0.4">
       <c r="B14" s="12">
         <v>45117</v>
       </c>
@@ -1664,20 +1735,20 @@
         <f t="shared" si="2"/>
         <v>281300</v>
       </c>
-      <c r="K14" s="68"/>
+      <c r="K14" s="67"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
-      <c r="N14" s="70"/>
-      <c r="O14" s="61">
+      <c r="N14" s="69"/>
+      <c r="O14" s="60">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:16" ht="21" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:17" ht="21" x14ac:dyDescent="0.4">
       <c r="B15" s="17">
         <v>45117</v>
       </c>
-      <c r="C15" s="49">
+      <c r="C15" s="48">
         <v>3</v>
       </c>
       <c r="D15" s="18" t="s">
@@ -1700,36 +1771,36 @@
         <f t="shared" si="2"/>
         <v>292800</v>
       </c>
-      <c r="K15" s="68"/>
+      <c r="K15" s="67"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
-      <c r="N15" s="70"/>
-      <c r="O15" s="61">
+      <c r="N15" s="69"/>
+      <c r="O15" s="60">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:16" ht="21" x14ac:dyDescent="0.4">
-      <c r="B16" s="81">
+    <row r="16" spans="2:17" ht="21" x14ac:dyDescent="0.4">
+      <c r="B16" s="80">
         <v>45117</v>
       </c>
-      <c r="C16" s="82">
+      <c r="C16" s="81">
         <v>8</v>
       </c>
-      <c r="D16" s="83" t="s">
+      <c r="D16" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="83"/>
-      <c r="F16" s="83"/>
-      <c r="G16" s="83"/>
-      <c r="H16" s="84">
+      <c r="E16" s="82"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="83">
         <v>3800</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" si="2"/>
         <v>296600</v>
       </c>
-      <c r="O16" s="80">
+      <c r="O16" s="79">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1773,19 +1844,19 @@
       </c>
     </row>
     <row r="19" spans="2:17" ht="21" x14ac:dyDescent="0.4">
-      <c r="B19" s="37">
+      <c r="B19" s="36">
         <v>45117</v>
       </c>
-      <c r="C19" s="34">
+      <c r="C19" s="33">
         <v>5</v>
       </c>
-      <c r="D19" s="35" t="s">
+      <c r="D19" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="36">
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="35">
         <v>15000</v>
       </c>
       <c r="I19" s="11">
@@ -1962,19 +2033,19 @@
       </c>
     </row>
     <row r="28" spans="2:17" ht="21" x14ac:dyDescent="0.4">
-      <c r="B28" s="37">
+      <c r="B28" s="36">
         <v>45120</v>
       </c>
-      <c r="C28" s="34">
+      <c r="C28" s="33">
         <v>5</v>
       </c>
-      <c r="D28" s="35" t="s">
+      <c r="D28" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="36">
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="35">
         <v>25000</v>
       </c>
       <c r="I28" s="11">
@@ -2003,21 +2074,21 @@
       <c r="J29" s="20"/>
     </row>
     <row r="30" spans="2:17" ht="21" x14ac:dyDescent="0.4">
-      <c r="B30" s="31">
+      <c r="B30" s="30">
         <v>45122</v>
       </c>
-      <c r="C30" s="50">
+      <c r="C30" s="49">
         <v>4</v>
       </c>
-      <c r="D30" s="26" t="s">
+      <c r="D30" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="E30" s="26">
+      <c r="E30" s="25">
         <v>1</v>
       </c>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="27">
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="26">
         <v>2000</v>
       </c>
       <c r="I30" s="11">
@@ -2084,25 +2155,25 @@
       </c>
     </row>
     <row r="34" spans="2:12" ht="21" x14ac:dyDescent="0.4">
-      <c r="B34" s="28">
+      <c r="B34" s="27">
         <v>45125</v>
       </c>
-      <c r="C34" s="51">
+      <c r="C34" s="50">
         <v>3</v>
       </c>
-      <c r="D34" s="29" t="s">
+      <c r="D34" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="E34" s="29">
+      <c r="E34" s="28">
         <v>5</v>
       </c>
-      <c r="F34" s="29">
+      <c r="F34" s="28">
         <v>1120</v>
       </c>
-      <c r="G34" s="29">
+      <c r="G34" s="28">
         <v>100</v>
       </c>
-      <c r="H34" s="30">
+      <c r="H34" s="29">
         <f>(E34*F34)+G34</f>
         <v>5700</v>
       </c>
@@ -2128,7 +2199,7 @@
       <c r="G35" s="3">
         <v>300</v>
       </c>
-      <c r="H35" s="38">
+      <c r="H35" s="37">
         <f>(E35*F35)+G35</f>
         <v>3800</v>
       </c>
@@ -2138,19 +2209,19 @@
       </c>
     </row>
     <row r="36" spans="2:12" ht="21" x14ac:dyDescent="0.4">
-      <c r="B36" s="37">
+      <c r="B36" s="36">
         <v>45125</v>
       </c>
-      <c r="C36" s="34">
+      <c r="C36" s="33">
         <v>5</v>
       </c>
-      <c r="D36" s="35" t="s">
+      <c r="D36" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="36">
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="35">
         <v>10000</v>
       </c>
       <c r="I36" s="11">
@@ -2159,19 +2230,19 @@
       </c>
     </row>
     <row r="37" spans="2:12" ht="21" x14ac:dyDescent="0.4">
-      <c r="B37" s="41">
+      <c r="B37" s="40">
         <v>45126</v>
       </c>
-      <c r="C37" s="52">
+      <c r="C37" s="51">
         <v>6</v>
       </c>
-      <c r="D37" s="42" t="s">
+      <c r="D37" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E37" s="42"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="42"/>
-      <c r="H37" s="43">
+      <c r="E37" s="41"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="42">
         <v>40000</v>
       </c>
       <c r="I37" s="11">
@@ -2180,23 +2251,23 @@
       </c>
     </row>
     <row r="38" spans="2:12" ht="21" x14ac:dyDescent="0.4">
-      <c r="B38" s="44">
+      <c r="B38" s="43">
         <v>45126</v>
       </c>
-      <c r="C38" s="53">
+      <c r="C38" s="52">
         <v>1</v>
       </c>
-      <c r="D38" s="45" t="s">
+      <c r="D38" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="E38" s="45">
+      <c r="E38" s="44">
         <v>1000</v>
       </c>
-      <c r="F38" s="45">
+      <c r="F38" s="44">
         <v>124</v>
       </c>
-      <c r="G38" s="45"/>
-      <c r="H38" s="46">
+      <c r="G38" s="44"/>
+      <c r="H38" s="45">
         <f t="shared" ref="H38:H99" si="3">(E38*F38)+G38</f>
         <v>124000</v>
       </c>
@@ -2206,25 +2277,25 @@
       </c>
     </row>
     <row r="39" spans="2:12" ht="21" x14ac:dyDescent="0.4">
-      <c r="B39" s="28">
+      <c r="B39" s="27">
         <v>45127</v>
       </c>
-      <c r="C39" s="51">
+      <c r="C39" s="50">
         <v>3</v>
       </c>
-      <c r="D39" s="29" t="s">
+      <c r="D39" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="E39" s="29">
+      <c r="E39" s="28">
         <v>10</v>
       </c>
-      <c r="F39" s="29">
+      <c r="F39" s="28">
         <v>1120</v>
       </c>
-      <c r="G39" s="29">
+      <c r="G39" s="28">
         <v>250</v>
       </c>
-      <c r="H39" s="30">
+      <c r="H39" s="29">
         <f t="shared" si="3"/>
         <v>11450</v>
       </c>
@@ -2248,7 +2319,7 @@
         <v>62.5</v>
       </c>
       <c r="G40" s="3"/>
-      <c r="H40" s="38">
+      <c r="H40" s="37">
         <f t="shared" si="3"/>
         <v>7500</v>
       </c>
@@ -2265,13 +2336,13 @@
         <v>45127</v>
       </c>
       <c r="C41" s="9"/>
-      <c r="D41" s="47" t="s">
+      <c r="D41" s="46" t="s">
         <v>38</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
-      <c r="H41" s="38">
+      <c r="H41" s="37">
         <v>31000</v>
       </c>
       <c r="I41" s="11">
@@ -2294,7 +2365,7 @@
         <v>60</v>
       </c>
       <c r="G42" s="3"/>
-      <c r="H42" s="38">
+      <c r="H42" s="37">
         <f t="shared" si="3"/>
         <v>480</v>
       </c>
@@ -2314,7 +2385,7 @@
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
-      <c r="H43" s="38">
+      <c r="H43" s="37">
         <v>4000</v>
       </c>
       <c r="I43" s="11">
@@ -2333,17 +2404,17 @@
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
-      <c r="H44" s="38">
+      <c r="H44" s="37">
         <v>2000</v>
       </c>
       <c r="I44" s="11">
         <f t="shared" si="2"/>
         <v>617335</v>
       </c>
-      <c r="J44" s="69" t="s">
+      <c r="J44" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="K44" s="72">
+      <c r="K44" s="71">
         <v>100000</v>
       </c>
       <c r="L44" t="s">
@@ -2351,25 +2422,25 @@
       </c>
     </row>
     <row r="45" spans="2:12" ht="21" x14ac:dyDescent="0.4">
-      <c r="B45" s="28">
+      <c r="B45" s="27">
         <v>45131</v>
       </c>
-      <c r="C45" s="51">
+      <c r="C45" s="50">
         <v>3</v>
       </c>
-      <c r="D45" s="29" t="s">
+      <c r="D45" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="E45" s="29">
+      <c r="E45" s="28">
         <v>10</v>
       </c>
-      <c r="F45" s="29">
+      <c r="F45" s="28">
         <v>1120</v>
       </c>
-      <c r="G45" s="29">
+      <c r="G45" s="28">
         <v>250</v>
       </c>
-      <c r="H45" s="30">
+      <c r="H45" s="29">
         <f t="shared" si="3"/>
         <v>11450</v>
       </c>
@@ -2393,7 +2464,7 @@
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
-      <c r="H46" s="38">
+      <c r="H46" s="37">
         <v>1000</v>
       </c>
       <c r="I46" s="11">
@@ -2416,7 +2487,7 @@
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
-      <c r="H47" s="38">
+      <c r="H47" s="37">
         <v>500</v>
       </c>
       <c r="I47" s="11">
@@ -2443,7 +2514,7 @@
         <v>253</v>
       </c>
       <c r="G48" s="3"/>
-      <c r="H48" s="38">
+      <c r="H48" s="37">
         <f t="shared" si="3"/>
         <v>1012</v>
       </c>
@@ -2457,25 +2528,25 @@
       </c>
     </row>
     <row r="49" spans="2:13" ht="21" x14ac:dyDescent="0.4">
-      <c r="B49" s="28">
+      <c r="B49" s="27">
         <v>45134</v>
       </c>
-      <c r="C49" s="51">
+      <c r="C49" s="50">
         <v>3</v>
       </c>
-      <c r="D49" s="29" t="s">
+      <c r="D49" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="E49" s="29">
+      <c r="E49" s="28">
         <v>10</v>
       </c>
-      <c r="F49" s="29">
+      <c r="F49" s="28">
         <v>1120</v>
       </c>
-      <c r="G49" s="29">
+      <c r="G49" s="28">
         <v>250</v>
       </c>
-      <c r="H49" s="30">
+      <c r="H49" s="29">
         <f t="shared" si="3"/>
         <v>11450</v>
       </c>
@@ -2489,19 +2560,19 @@
       </c>
     </row>
     <row r="50" spans="2:13" ht="21" x14ac:dyDescent="0.4">
-      <c r="B50" s="37">
+      <c r="B50" s="36">
         <v>45134</v>
       </c>
-      <c r="C50" s="34">
+      <c r="C50" s="33">
         <v>5</v>
       </c>
-      <c r="D50" s="35" t="s">
+      <c r="D50" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="E50" s="35"/>
-      <c r="F50" s="35"/>
-      <c r="G50" s="35"/>
-      <c r="H50" s="36">
+      <c r="E50" s="34"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="35">
         <v>15000</v>
       </c>
       <c r="I50" s="11">
@@ -2514,19 +2585,19 @@
       </c>
     </row>
     <row r="51" spans="2:13" ht="21" x14ac:dyDescent="0.4">
-      <c r="B51" s="41">
+      <c r="B51" s="40">
         <v>45134</v>
       </c>
-      <c r="C51" s="52">
+      <c r="C51" s="51">
         <v>6</v>
       </c>
-      <c r="D51" s="42" t="s">
+      <c r="D51" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E51" s="42"/>
-      <c r="F51" s="42"/>
-      <c r="G51" s="42"/>
-      <c r="H51" s="43">
+      <c r="E51" s="41"/>
+      <c r="F51" s="41"/>
+      <c r="G51" s="41"/>
+      <c r="H51" s="42">
         <v>20000</v>
       </c>
       <c r="I51" s="11">
@@ -2539,19 +2610,19 @@
       </c>
     </row>
     <row r="52" spans="2:13" ht="21" x14ac:dyDescent="0.4">
-      <c r="B52" s="73">
+      <c r="B52" s="72">
         <v>45138</v>
       </c>
-      <c r="C52" s="74">
+      <c r="C52" s="73">
         <v>7</v>
       </c>
-      <c r="D52" s="75" t="s">
+      <c r="D52" s="74" t="s">
         <v>57</v>
       </c>
-      <c r="E52" s="75"/>
-      <c r="F52" s="75"/>
-      <c r="G52" s="75"/>
-      <c r="H52" s="76">
+      <c r="E52" s="74"/>
+      <c r="F52" s="74"/>
+      <c r="G52" s="74"/>
+      <c r="H52" s="75">
         <v>115200</v>
       </c>
       <c r="I52" s="11">
@@ -2573,7 +2644,7 @@
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
-      <c r="H53" s="38">
+      <c r="H53" s="37">
         <v>1850</v>
       </c>
       <c r="I53" s="11">
@@ -2596,7 +2667,7 @@
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
-      <c r="H54" s="38">
+      <c r="H54" s="37">
         <v>300</v>
       </c>
       <c r="I54" s="11">
@@ -2610,19 +2681,19 @@
       <c r="M54" s="20"/>
     </row>
     <row r="55" spans="2:13" ht="21" x14ac:dyDescent="0.4">
-      <c r="B55" s="81">
+      <c r="B55" s="80">
         <v>45138</v>
       </c>
-      <c r="C55" s="82">
+      <c r="C55" s="81">
         <v>8</v>
       </c>
-      <c r="D55" s="83" t="s">
+      <c r="D55" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="83"/>
-      <c r="F55" s="83"/>
-      <c r="G55" s="83"/>
-      <c r="H55" s="85">
+      <c r="E55" s="82"/>
+      <c r="F55" s="82"/>
+      <c r="G55" s="82"/>
+      <c r="H55" s="84">
         <v>2438</v>
       </c>
       <c r="I55" s="11">
@@ -2636,21 +2707,21 @@
       <c r="M55" s="20"/>
     </row>
     <row r="56" spans="2:13" ht="21" x14ac:dyDescent="0.4">
-      <c r="B56" s="31">
+      <c r="B56" s="30">
         <v>45139</v>
       </c>
-      <c r="C56" s="50">
+      <c r="C56" s="49">
         <v>4</v>
       </c>
-      <c r="D56" s="26" t="s">
+      <c r="D56" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="E56" s="26">
+      <c r="E56" s="25">
         <v>1</v>
       </c>
-      <c r="F56" s="26"/>
-      <c r="G56" s="26"/>
-      <c r="H56" s="27">
+      <c r="F56" s="25"/>
+      <c r="G56" s="25"/>
+      <c r="H56" s="26">
         <v>2000</v>
       </c>
       <c r="I56" s="11">
@@ -2673,7 +2744,7 @@
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
-      <c r="H57" s="38">
+      <c r="H57" s="37">
         <v>1450</v>
       </c>
       <c r="I57" s="11">
@@ -2689,7 +2760,7 @@
       <c r="B58" s="13">
         <v>45139</v>
       </c>
-      <c r="C58" s="78">
+      <c r="C58" s="77">
         <v>2</v>
       </c>
       <c r="D58" s="15" t="s">
@@ -2711,27 +2782,30 @@
         <f>J57-10000</f>
         <v>21550</v>
       </c>
+      <c r="K58" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="59" spans="2:13" ht="21" x14ac:dyDescent="0.4">
-      <c r="B59" s="28">
+      <c r="B59" s="27">
         <v>45139</v>
       </c>
-      <c r="C59" s="51">
+      <c r="C59" s="50">
         <v>3</v>
       </c>
-      <c r="D59" s="29" t="s">
+      <c r="D59" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="E59" s="29">
+      <c r="E59" s="28">
         <v>25</v>
       </c>
-      <c r="F59" s="29">
+      <c r="F59" s="28">
         <v>1100</v>
       </c>
-      <c r="G59" s="29">
+      <c r="G59" s="28">
         <v>500</v>
       </c>
-      <c r="H59" s="30">
+      <c r="H59" s="29">
         <f t="shared" ref="H59" si="6">(E59*F59)+G59</f>
         <v>28000</v>
       </c>
@@ -2744,13 +2818,13 @@
       </c>
     </row>
     <row r="60" spans="2:13" ht="21" x14ac:dyDescent="0.4">
-      <c r="B60" s="81"/>
-      <c r="C60" s="82"/>
-      <c r="D60" s="86"/>
-      <c r="E60" s="83"/>
-      <c r="F60" s="83"/>
-      <c r="G60" s="83"/>
-      <c r="H60" s="85">
+      <c r="B60" s="80"/>
+      <c r="C60" s="81"/>
+      <c r="D60" s="85"/>
+      <c r="E60" s="82"/>
+      <c r="F60" s="82"/>
+      <c r="G60" s="82"/>
+      <c r="H60" s="84">
         <v>0</v>
       </c>
       <c r="I60" s="11">
@@ -2773,7 +2847,7 @@
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
-      <c r="H61" s="38">
+      <c r="H61" s="37">
         <v>4170</v>
       </c>
       <c r="I61" s="11">
@@ -2801,7 +2875,7 @@
       <c r="G62" s="3">
         <v>200</v>
       </c>
-      <c r="H62" s="38">
+      <c r="H62" s="37">
         <f t="shared" si="3"/>
         <v>1320</v>
       </c>
@@ -2815,21 +2889,21 @@
       </c>
     </row>
     <row r="63" spans="2:13" ht="21" x14ac:dyDescent="0.4">
-      <c r="B63" s="31">
+      <c r="B63" s="30">
         <v>45140</v>
       </c>
-      <c r="C63" s="50">
+      <c r="C63" s="49">
         <v>4</v>
       </c>
-      <c r="D63" s="26" t="s">
+      <c r="D63" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="E63" s="26">
+      <c r="E63" s="25">
         <v>2</v>
       </c>
-      <c r="F63" s="26"/>
-      <c r="G63" s="26"/>
-      <c r="H63" s="27">
+      <c r="F63" s="25"/>
+      <c r="G63" s="25"/>
+      <c r="H63" s="26">
         <v>4400</v>
       </c>
       <c r="I63" s="11">
@@ -2852,7 +2926,7 @@
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
-      <c r="H64" s="38">
+      <c r="H64" s="37">
         <v>1500</v>
       </c>
       <c r="I64" s="11">
@@ -2875,7 +2949,7 @@
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
-      <c r="H65" s="38">
+      <c r="H65" s="37">
         <v>1000</v>
       </c>
       <c r="I65" s="11">
@@ -2888,19 +2962,19 @@
       </c>
     </row>
     <row r="66" spans="2:12" ht="21" x14ac:dyDescent="0.4">
-      <c r="B66" s="37">
+      <c r="B66" s="36">
         <v>45140</v>
       </c>
-      <c r="C66" s="34">
+      <c r="C66" s="33">
         <v>5</v>
       </c>
-      <c r="D66" s="35" t="s">
+      <c r="D66" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="E66" s="35"/>
-      <c r="F66" s="35"/>
-      <c r="G66" s="35"/>
-      <c r="H66" s="36">
+      <c r="E66" s="34"/>
+      <c r="F66" s="34"/>
+      <c r="G66" s="34"/>
+      <c r="H66" s="35">
         <v>2000</v>
       </c>
       <c r="I66" s="11">
@@ -2913,19 +2987,19 @@
       </c>
     </row>
     <row r="67" spans="2:12" ht="21" x14ac:dyDescent="0.4">
-      <c r="B67" s="81">
+      <c r="B67" s="80">
         <v>45140</v>
       </c>
-      <c r="C67" s="82">
+      <c r="C67" s="81">
         <v>8</v>
       </c>
-      <c r="D67" s="83" t="s">
+      <c r="D67" s="82" t="s">
         <v>61</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
-      <c r="H67" s="85">
+      <c r="H67" s="84">
         <v>5000</v>
       </c>
       <c r="I67" s="11">
@@ -2938,17 +3012,17 @@
       </c>
     </row>
     <row r="68" spans="2:12" ht="21" x14ac:dyDescent="0.4">
-      <c r="B68" s="93">
+      <c r="B68" s="88">
         <v>45140</v>
       </c>
-      <c r="C68" s="94"/>
-      <c r="D68" s="95" t="s">
+      <c r="C68" s="89"/>
+      <c r="D68" s="90" t="s">
         <v>64</v>
       </c>
-      <c r="E68" s="95"/>
-      <c r="F68" s="95"/>
-      <c r="G68" s="95"/>
-      <c r="H68" s="38">
+      <c r="E68" s="90"/>
+      <c r="F68" s="90"/>
+      <c r="G68" s="90"/>
+      <c r="H68" s="37">
         <v>3000</v>
       </c>
       <c r="I68" s="11">
@@ -2971,7 +3045,7 @@
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
-      <c r="H69" s="38">
+      <c r="H69" s="37">
         <v>1350</v>
       </c>
       <c r="I69" s="11">
@@ -2984,19 +3058,19 @@
       </c>
     </row>
     <row r="70" spans="2:12" ht="21" x14ac:dyDescent="0.4">
-      <c r="B70" s="81">
+      <c r="B70" s="80">
         <v>45141</v>
       </c>
-      <c r="C70" s="82">
+      <c r="C70" s="81">
         <v>8</v>
       </c>
-      <c r="D70" s="83" t="s">
+      <c r="D70" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="E70" s="83"/>
-      <c r="F70" s="83"/>
-      <c r="G70" s="83"/>
-      <c r="H70" s="85">
+      <c r="E70" s="82"/>
+      <c r="F70" s="82"/>
+      <c r="G70" s="82"/>
+      <c r="H70" s="84">
         <v>1980</v>
       </c>
       <c r="I70" s="11">
@@ -3008,25 +3082,25 @@
       </c>
     </row>
     <row r="71" spans="2:12" ht="21" x14ac:dyDescent="0.4">
-      <c r="B71" s="28">
+      <c r="B71" s="27">
         <v>45141</v>
       </c>
-      <c r="C71" s="51">
+      <c r="C71" s="50">
         <v>3</v>
       </c>
-      <c r="D71" s="29" t="s">
+      <c r="D71" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="E71" s="29">
+      <c r="E71" s="28">
         <v>25</v>
       </c>
-      <c r="F71" s="29">
+      <c r="F71" s="28">
         <v>1100</v>
       </c>
-      <c r="G71" s="29">
+      <c r="G71" s="28">
         <v>500</v>
       </c>
-      <c r="H71" s="30">
+      <c r="H71" s="29">
         <f t="shared" ref="H71" si="8">(E71*F71)+G71</f>
         <v>28000</v>
       </c>
@@ -3034,10 +3108,10 @@
         <f>I70+H71</f>
         <v>903705</v>
       </c>
-      <c r="J71" s="69" t="s">
+      <c r="J71" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="K71" s="72">
+      <c r="K71" s="71">
         <v>100000</v>
       </c>
       <c r="L71" t="s">
@@ -3045,17 +3119,17 @@
       </c>
     </row>
     <row r="72" spans="2:12" ht="21" x14ac:dyDescent="0.4">
-      <c r="B72" s="93">
+      <c r="B72" s="88">
         <v>45141</v>
       </c>
-      <c r="C72" s="91"/>
-      <c r="D72" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E72" s="92"/>
-      <c r="F72" s="92"/>
-      <c r="G72" s="92"/>
-      <c r="H72" s="38">
+      <c r="C72" s="86"/>
+      <c r="D72" s="90" t="s">
+        <v>64</v>
+      </c>
+      <c r="E72" s="87"/>
+      <c r="F72" s="87"/>
+      <c r="G72" s="87"/>
+      <c r="H72" s="37">
         <v>3000</v>
       </c>
       <c r="I72" s="11">
@@ -3068,19 +3142,19 @@
       </c>
     </row>
     <row r="73" spans="2:12" ht="21" x14ac:dyDescent="0.4">
-      <c r="B73" s="96">
+      <c r="B73" s="91">
         <v>45141</v>
       </c>
-      <c r="C73" s="97">
+      <c r="C73" s="92">
         <v>6</v>
       </c>
-      <c r="D73" s="98" t="s">
+      <c r="D73" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="E73" s="98"/>
-      <c r="F73" s="98"/>
-      <c r="G73" s="98"/>
-      <c r="H73" s="99">
+      <c r="E73" s="93"/>
+      <c r="F73" s="93"/>
+      <c r="G73" s="93"/>
+      <c r="H73" s="94">
         <v>50000</v>
       </c>
       <c r="I73" s="11">
@@ -3093,23 +3167,23 @@
       </c>
     </row>
     <row r="74" spans="2:12" ht="21" x14ac:dyDescent="0.4">
-      <c r="B74" s="12">
+      <c r="B74" s="30">
         <v>45141</v>
       </c>
-      <c r="C74" s="9">
+      <c r="C74" s="49">
         <v>4</v>
       </c>
-      <c r="D74" s="3" t="s">
+      <c r="D74" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="E74" s="3">
+      <c r="E74" s="25">
         <v>3</v>
       </c>
-      <c r="F74" s="3">
+      <c r="F74" s="25">
         <v>2200</v>
       </c>
-      <c r="G74" s="3"/>
-      <c r="H74" s="38">
+      <c r="G74" s="25"/>
+      <c r="H74" s="26">
         <f t="shared" si="3"/>
         <v>6600</v>
       </c>
@@ -3118,7 +3192,7 @@
         <v>963305</v>
       </c>
       <c r="J74" s="20">
-        <f t="shared" ref="J74:J80" si="10">J73-H74</f>
+        <f t="shared" ref="J74:J75" si="10">J73-H74</f>
         <v>40400</v>
       </c>
     </row>
@@ -3135,7 +3209,7 @@
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
-      <c r="H75" s="38">
+      <c r="H75" s="37">
         <v>500</v>
       </c>
       <c r="I75" s="11">
@@ -3148,359 +3222,499 @@
       </c>
     </row>
     <row r="76" spans="2:12" ht="21" x14ac:dyDescent="0.4">
-      <c r="B76" s="3"/>
-      <c r="C76" s="9"/>
-      <c r="D76" s="3"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
-      <c r="H76" s="38">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="B76" s="27">
+        <v>45143</v>
+      </c>
+      <c r="C76" s="50">
+        <v>3</v>
+      </c>
+      <c r="D76" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76" s="28">
+        <v>25</v>
+      </c>
+      <c r="F76" s="28">
+        <v>1100</v>
+      </c>
+      <c r="G76" s="28">
+        <v>500</v>
+      </c>
+      <c r="H76" s="29">
+        <f t="shared" ref="H76" si="11">(E76*F76)+G76</f>
+        <v>28000</v>
       </c>
       <c r="I76" s="11">
         <f t="shared" si="9"/>
-        <v>963805</v>
-      </c>
-      <c r="J76" s="20">
-        <f t="shared" si="10"/>
-        <v>39900</v>
+        <v>991805</v>
+      </c>
+      <c r="J76" s="20" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="77" spans="2:12" ht="21" x14ac:dyDescent="0.4">
-      <c r="B77" s="3"/>
-      <c r="C77" s="9"/>
-      <c r="D77" s="3"/>
-      <c r="E77" s="3"/>
-      <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
-      <c r="H77" s="38">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="B77" s="13">
+        <v>45143</v>
+      </c>
+      <c r="C77" s="77">
+        <v>2</v>
+      </c>
+      <c r="D77" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E77" s="15">
+        <v>1</v>
+      </c>
+      <c r="F77" s="15"/>
+      <c r="G77" s="15"/>
+      <c r="H77" s="16">
+        <v>21000</v>
       </c>
       <c r="I77" s="11">
         <f t="shared" si="9"/>
-        <v>963805</v>
+        <v>1012805</v>
       </c>
       <c r="J77" s="20">
-        <f t="shared" si="10"/>
-        <v>39900</v>
+        <f>J75-H77</f>
+        <v>18900</v>
       </c>
     </row>
     <row r="78" spans="2:12" ht="21" x14ac:dyDescent="0.4">
-      <c r="B78" s="3"/>
-      <c r="C78" s="9"/>
-      <c r="D78" s="3"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="3"/>
-      <c r="H78" s="38">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="B78" s="100">
+        <v>45143</v>
+      </c>
+      <c r="C78" s="101">
+        <v>7</v>
+      </c>
+      <c r="D78" s="102" t="s">
+        <v>69</v>
+      </c>
+      <c r="E78" s="102"/>
+      <c r="F78" s="102"/>
+      <c r="G78" s="102"/>
+      <c r="H78" s="103">
+        <v>20500</v>
       </c>
       <c r="I78" s="11">
         <f t="shared" si="9"/>
-        <v>963805</v>
-      </c>
-      <c r="J78" s="20">
-        <f t="shared" si="10"/>
-        <v>39900</v>
+        <v>1033305</v>
+      </c>
+      <c r="J78" s="20" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="79" spans="2:12" ht="21" x14ac:dyDescent="0.4">
-      <c r="B79" s="3"/>
+      <c r="B79" s="12">
+        <v>45143</v>
+      </c>
       <c r="C79" s="9"/>
-      <c r="D79" s="3"/>
+      <c r="D79" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
-      <c r="H79" s="38">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="H79" s="37">
+        <v>2400</v>
       </c>
       <c r="I79" s="11">
         <f t="shared" si="9"/>
-        <v>963805</v>
+        <v>1035705</v>
       </c>
       <c r="J79" s="20">
-        <f t="shared" si="10"/>
-        <v>39900</v>
+        <f>J77-H79</f>
+        <v>16500</v>
       </c>
     </row>
     <row r="80" spans="2:12" ht="21" x14ac:dyDescent="0.4">
-      <c r="B80" s="3"/>
-      <c r="C80" s="9"/>
-      <c r="D80" s="3"/>
-      <c r="E80" s="3"/>
-      <c r="F80" s="3"/>
-      <c r="G80" s="3"/>
-      <c r="H80" s="38">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="B80" s="100">
+        <v>45143</v>
+      </c>
+      <c r="C80" s="101">
+        <v>7</v>
+      </c>
+      <c r="D80" s="102" t="s">
+        <v>70</v>
+      </c>
+      <c r="E80" s="102"/>
+      <c r="F80" s="102"/>
+      <c r="G80" s="102"/>
+      <c r="H80" s="103">
+        <v>5400</v>
       </c>
       <c r="I80" s="11">
         <f t="shared" si="9"/>
-        <v>963805</v>
+        <v>1041105</v>
       </c>
       <c r="J80" s="20">
-        <f t="shared" si="10"/>
-        <v>39900</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="B81" s="3"/>
-      <c r="C81" s="9"/>
-      <c r="D81" s="3"/>
+        <f>J79-H80</f>
+        <v>11100</v>
+      </c>
+    </row>
+    <row r="81" spans="2:11" ht="21" x14ac:dyDescent="0.4">
+      <c r="B81" s="12">
+        <v>45143</v>
+      </c>
+      <c r="C81" s="9">
+        <v>8</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
-      <c r="H81" s="38">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="H81" s="37">
+        <v>1240</v>
       </c>
       <c r="I81" s="11">
         <f t="shared" si="9"/>
-        <v>963805</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="B82" s="3"/>
-      <c r="C82" s="9"/>
-      <c r="D82" s="3"/>
-      <c r="E82" s="3"/>
-      <c r="F82" s="3"/>
-      <c r="G82" s="3"/>
-      <c r="H82" s="38">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1042345</v>
+      </c>
+      <c r="J81" s="20">
+        <f t="shared" ref="J81:J85" si="12">J80-H81</f>
+        <v>9860</v>
+      </c>
+    </row>
+    <row r="82" spans="2:11" ht="21" x14ac:dyDescent="0.4">
+      <c r="B82" s="96">
+        <v>45143</v>
+      </c>
+      <c r="C82" s="97">
+        <v>5</v>
+      </c>
+      <c r="D82" s="98" t="s">
+        <v>9</v>
+      </c>
+      <c r="E82" s="98"/>
+      <c r="F82" s="98"/>
+      <c r="G82" s="98"/>
+      <c r="H82" s="99">
+        <v>5000</v>
       </c>
       <c r="I82" s="11">
         <f t="shared" si="9"/>
-        <v>963805</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="B83" s="3"/>
+        <v>1047345</v>
+      </c>
+      <c r="J82" s="20">
+        <f t="shared" si="12"/>
+        <v>4860</v>
+      </c>
+    </row>
+    <row r="83" spans="2:11" ht="21" x14ac:dyDescent="0.4">
+      <c r="B83" s="12">
+        <v>45143</v>
+      </c>
       <c r="C83" s="9"/>
-      <c r="D83" s="3"/>
+      <c r="D83" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
-      <c r="H83" s="38">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="H83" s="37">
+        <v>1400</v>
       </c>
       <c r="I83" s="11">
         <f t="shared" si="9"/>
-        <v>963805</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="B84" s="3"/>
+        <v>1048745</v>
+      </c>
+      <c r="J83" s="20">
+        <f t="shared" si="12"/>
+        <v>3460</v>
+      </c>
+    </row>
+    <row r="84" spans="2:11" ht="21" x14ac:dyDescent="0.4">
+      <c r="B84" s="12">
+        <v>45143</v>
+      </c>
       <c r="C84" s="9"/>
-      <c r="D84" s="3"/>
+      <c r="D84" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
-      <c r="H84" s="38">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="H84" s="37">
+        <v>500</v>
       </c>
       <c r="I84" s="11">
         <f t="shared" si="9"/>
-        <v>963805</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="B85" s="3"/>
-      <c r="C85" s="9"/>
-      <c r="D85" s="3"/>
-      <c r="E85" s="3"/>
-      <c r="F85" s="3"/>
-      <c r="G85" s="3"/>
-      <c r="H85" s="38">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1049245</v>
+      </c>
+      <c r="J84" s="20">
+        <f t="shared" si="12"/>
+        <v>2960</v>
+      </c>
+    </row>
+    <row r="85" spans="2:11" ht="21" x14ac:dyDescent="0.4">
+      <c r="B85" s="80">
+        <v>45143</v>
+      </c>
+      <c r="C85" s="81">
+        <v>8</v>
+      </c>
+      <c r="D85" s="82" t="s">
+        <v>14</v>
+      </c>
+      <c r="E85" s="82"/>
+      <c r="F85" s="82"/>
+      <c r="G85" s="82"/>
+      <c r="H85" s="84">
+        <v>2960</v>
       </c>
       <c r="I85" s="11">
         <f t="shared" si="9"/>
-        <v>963805</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="B86" s="3"/>
-      <c r="C86" s="9"/>
-      <c r="D86" s="3"/>
-      <c r="E86" s="3"/>
-      <c r="F86" s="3"/>
-      <c r="G86" s="3"/>
-      <c r="H86" s="38">
-        <f t="shared" si="3"/>
+        <v>1052205</v>
+      </c>
+      <c r="J85" s="20">
+        <f t="shared" si="12"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:11" ht="21" x14ac:dyDescent="0.4">
+      <c r="B86" s="27">
+        <v>45144</v>
+      </c>
+      <c r="C86" s="50">
+        <v>3</v>
+      </c>
+      <c r="D86" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E86" s="28">
+        <v>25</v>
+      </c>
+      <c r="F86" s="28">
+        <v>1120</v>
+      </c>
+      <c r="G86" s="28"/>
+      <c r="H86" s="29">
+        <f t="shared" ref="H86" si="13">(E86*F86)+G86</f>
+        <v>28000</v>
       </c>
       <c r="I86" s="11">
         <f t="shared" si="9"/>
-        <v>963805</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="B87" s="3"/>
-      <c r="C87" s="9"/>
-      <c r="D87" s="3"/>
-      <c r="E87" s="3"/>
-      <c r="F87" s="3"/>
-      <c r="G87" s="3"/>
-      <c r="H87" s="38">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1080205</v>
+      </c>
+      <c r="J86" s="105" t="s">
+        <v>60</v>
+      </c>
+      <c r="K86" s="20"/>
+    </row>
+    <row r="87" spans="2:11" ht="21" x14ac:dyDescent="0.4">
+      <c r="B87" s="100">
+        <v>45144</v>
+      </c>
+      <c r="C87" s="101">
+        <v>7</v>
+      </c>
+      <c r="D87" s="102" t="s">
+        <v>74</v>
+      </c>
+      <c r="E87" s="102">
+        <v>121.4</v>
+      </c>
+      <c r="F87" s="102">
+        <v>262</v>
+      </c>
+      <c r="G87" s="102">
+        <v>600</v>
+      </c>
+      <c r="H87" s="103">
+        <f>(E87*F87)+G87+400</f>
+        <v>32806.800000000003</v>
       </c>
       <c r="I87" s="11">
         <f t="shared" si="9"/>
-        <v>963805</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="B88" s="3"/>
-      <c r="C88" s="9"/>
-      <c r="D88" s="3"/>
-      <c r="E88" s="3"/>
-      <c r="F88" s="3"/>
-      <c r="G88" s="3"/>
-      <c r="H88" s="38">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1113011.8</v>
+      </c>
+      <c r="J87" s="106"/>
+    </row>
+    <row r="88" spans="2:11" ht="21" x14ac:dyDescent="0.4">
+      <c r="B88" s="100">
+        <v>45144</v>
+      </c>
+      <c r="C88" s="101">
+        <v>7</v>
+      </c>
+      <c r="D88" s="102" t="s">
+        <v>70</v>
+      </c>
+      <c r="E88" s="102">
+        <v>121.4</v>
+      </c>
+      <c r="F88" s="102">
+        <v>9</v>
+      </c>
+      <c r="G88" s="102"/>
+      <c r="H88" s="103">
+        <f>E88*F88</f>
+        <v>1092.6000000000001</v>
       </c>
       <c r="I88" s="11">
         <f t="shared" si="9"/>
-        <v>963805</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="B89" s="3"/>
+        <v>1114104.4000000001</v>
+      </c>
+      <c r="J88" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="89" spans="2:11" ht="21" x14ac:dyDescent="0.4">
+      <c r="B89" s="12">
+        <v>45144</v>
+      </c>
       <c r="C89" s="9"/>
-      <c r="D89" s="3"/>
+      <c r="D89" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="E89" s="3"/>
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
-      <c r="H89" s="38">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="H89" s="37">
+        <v>3800</v>
       </c>
       <c r="I89" s="11">
         <f t="shared" si="9"/>
-        <v>963805</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="B90" s="3"/>
-      <c r="C90" s="9"/>
-      <c r="D90" s="3"/>
-      <c r="E90" s="3"/>
-      <c r="F90" s="3"/>
-      <c r="G90" s="3"/>
-      <c r="H90" s="38">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1117904.4000000001</v>
+      </c>
+      <c r="J89" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="90" spans="2:11" ht="21" x14ac:dyDescent="0.4">
+      <c r="B90" s="91">
+        <v>45144</v>
+      </c>
+      <c r="C90" s="92">
+        <v>6</v>
+      </c>
+      <c r="D90" s="93" t="s">
+        <v>32</v>
+      </c>
+      <c r="E90" s="93"/>
+      <c r="F90" s="93"/>
+      <c r="G90" s="93"/>
+      <c r="H90" s="94">
+        <v>20000</v>
       </c>
       <c r="I90" s="11">
         <f t="shared" si="9"/>
-        <v>963805</v>
-      </c>
-    </row>
-    <row r="91" spans="2:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="B91" s="3"/>
-      <c r="C91" s="9"/>
-      <c r="D91" s="3"/>
-      <c r="E91" s="3"/>
-      <c r="F91" s="3"/>
-      <c r="G91" s="3"/>
-      <c r="H91" s="38">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1137904.4000000001</v>
+      </c>
+      <c r="J90" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="91" spans="2:11" ht="21" x14ac:dyDescent="0.4">
+      <c r="B91" s="27">
+        <v>45144</v>
+      </c>
+      <c r="C91" s="50">
+        <v>3</v>
+      </c>
+      <c r="D91" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E91" s="28">
+        <v>25</v>
+      </c>
+      <c r="F91" s="28">
+        <v>1120</v>
+      </c>
+      <c r="G91" s="28">
+        <v>500</v>
+      </c>
+      <c r="H91" s="29">
+        <f t="shared" ref="H91" si="14">(E91*F91)+G91</f>
+        <v>28500</v>
       </c>
       <c r="I91" s="11">
         <f t="shared" si="9"/>
-        <v>963805</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9" ht="21" x14ac:dyDescent="0.4">
+        <v>1166404.4000000001</v>
+      </c>
+      <c r="J91" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="92" spans="2:11" ht="21" x14ac:dyDescent="0.4">
       <c r="B92" s="3"/>
       <c r="C92" s="9"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
-      <c r="H92" s="38">
+      <c r="H92" s="37">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I92" s="11">
         <f t="shared" si="9"/>
-        <v>963805</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9" ht="21" x14ac:dyDescent="0.4">
+        <v>1166404.4000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="2:11" ht="21" x14ac:dyDescent="0.4">
       <c r="B93" s="3"/>
       <c r="C93" s="9"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
-      <c r="H93" s="38">
+      <c r="H93" s="37">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I93" s="11">
         <f t="shared" si="9"/>
-        <v>963805</v>
-      </c>
-    </row>
-    <row r="94" spans="2:9" ht="21" x14ac:dyDescent="0.4">
+        <v>1166404.4000000001</v>
+      </c>
+    </row>
+    <row r="94" spans="2:11" ht="21" x14ac:dyDescent="0.4">
       <c r="B94" s="3"/>
       <c r="C94" s="9"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
-      <c r="H94" s="38">
+      <c r="H94" s="37">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I94" s="11">
         <f t="shared" si="9"/>
-        <v>963805</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9" ht="21" x14ac:dyDescent="0.4">
+        <v>1166404.4000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="2:11" ht="21" x14ac:dyDescent="0.4">
       <c r="B95" s="3"/>
       <c r="C95" s="9"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
-      <c r="H95" s="38">
+      <c r="H95" s="37">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I95" s="11">
         <f t="shared" si="9"/>
-        <v>963805</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9" ht="21" x14ac:dyDescent="0.4">
+        <v>1166404.4000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="2:11" ht="21" x14ac:dyDescent="0.4">
       <c r="B96" s="3"/>
       <c r="C96" s="9"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
-      <c r="H96" s="38">
+      <c r="H96" s="37">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I96" s="11">
         <f t="shared" si="9"/>
-        <v>963805</v>
+        <v>1166404.4000000001</v>
       </c>
     </row>
     <row r="97" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3510,13 +3724,13 @@
       <c r="E97" s="3"/>
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
-      <c r="H97" s="38">
+      <c r="H97" s="37">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I97" s="11">
         <f t="shared" si="9"/>
-        <v>963805</v>
+        <v>1166404.4000000001</v>
       </c>
     </row>
     <row r="98" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3526,13 +3740,13 @@
       <c r="E98" s="3"/>
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
-      <c r="H98" s="38">
+      <c r="H98" s="37">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I98" s="11">
         <f t="shared" si="9"/>
-        <v>963805</v>
+        <v>1166404.4000000001</v>
       </c>
     </row>
     <row r="99" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3542,13 +3756,13 @@
       <c r="E99" s="3"/>
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
-      <c r="H99" s="38">
+      <c r="H99" s="37">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I99" s="11">
         <f t="shared" si="9"/>
-        <v>963805</v>
+        <v>1166404.4000000001</v>
       </c>
     </row>
     <row r="100" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3558,13 +3772,13 @@
       <c r="E100" s="3"/>
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
-      <c r="H100" s="38">
-        <f t="shared" ref="H100:H163" si="11">(E100*F100)+G100</f>
+      <c r="H100" s="37">
+        <f t="shared" ref="H100:H163" si="15">(E100*F100)+G100</f>
         <v>0</v>
       </c>
       <c r="I100" s="11">
         <f t="shared" si="9"/>
-        <v>963805</v>
+        <v>1166404.4000000001</v>
       </c>
     </row>
     <row r="101" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3574,13 +3788,13 @@
       <c r="E101" s="3"/>
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
-      <c r="H101" s="38">
-        <f t="shared" si="11"/>
+      <c r="H101" s="37">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I101" s="11">
         <f t="shared" si="9"/>
-        <v>963805</v>
+        <v>1166404.4000000001</v>
       </c>
     </row>
     <row r="102" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3590,13 +3804,13 @@
       <c r="E102" s="3"/>
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
-      <c r="H102" s="38">
-        <f t="shared" si="11"/>
+      <c r="H102" s="37">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I102" s="11">
         <f t="shared" si="9"/>
-        <v>963805</v>
+        <v>1166404.4000000001</v>
       </c>
     </row>
     <row r="103" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3606,13 +3820,13 @@
       <c r="E103" s="3"/>
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
-      <c r="H103" s="38">
-        <f t="shared" si="11"/>
+      <c r="H103" s="37">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I103" s="11">
         <f t="shared" si="9"/>
-        <v>963805</v>
+        <v>1166404.4000000001</v>
       </c>
     </row>
     <row r="104" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3622,13 +3836,13 @@
       <c r="E104" s="3"/>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
-      <c r="H104" s="38">
-        <f t="shared" si="11"/>
+      <c r="H104" s="37">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I104" s="11">
         <f t="shared" si="9"/>
-        <v>963805</v>
+        <v>1166404.4000000001</v>
       </c>
     </row>
     <row r="105" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3638,13 +3852,13 @@
       <c r="E105" s="3"/>
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
-      <c r="H105" s="38">
-        <f t="shared" si="11"/>
+      <c r="H105" s="37">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I105" s="11">
         <f t="shared" si="9"/>
-        <v>963805</v>
+        <v>1166404.4000000001</v>
       </c>
     </row>
     <row r="106" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3654,13 +3868,13 @@
       <c r="E106" s="3"/>
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
-      <c r="H106" s="38">
-        <f t="shared" si="11"/>
+      <c r="H106" s="37">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I106" s="11">
         <f t="shared" si="9"/>
-        <v>963805</v>
+        <v>1166404.4000000001</v>
       </c>
     </row>
     <row r="107" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3670,13 +3884,13 @@
       <c r="E107" s="3"/>
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
-      <c r="H107" s="38">
-        <f t="shared" si="11"/>
+      <c r="H107" s="37">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I107" s="11">
         <f t="shared" si="9"/>
-        <v>963805</v>
+        <v>1166404.4000000001</v>
       </c>
     </row>
     <row r="108" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3686,13 +3900,13 @@
       <c r="E108" s="3"/>
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
-      <c r="H108" s="38">
-        <f t="shared" si="11"/>
+      <c r="H108" s="37">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I108" s="11">
         <f t="shared" si="9"/>
-        <v>963805</v>
+        <v>1166404.4000000001</v>
       </c>
     </row>
     <row r="109" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3702,13 +3916,13 @@
       <c r="E109" s="3"/>
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
-      <c r="H109" s="38">
-        <f t="shared" si="11"/>
+      <c r="H109" s="37">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I109" s="11">
         <f t="shared" si="9"/>
-        <v>963805</v>
+        <v>1166404.4000000001</v>
       </c>
     </row>
     <row r="110" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3718,13 +3932,13 @@
       <c r="E110" s="3"/>
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
-      <c r="H110" s="38">
-        <f t="shared" si="11"/>
+      <c r="H110" s="37">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I110" s="11">
         <f t="shared" si="9"/>
-        <v>963805</v>
+        <v>1166404.4000000001</v>
       </c>
     </row>
     <row r="111" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3734,13 +3948,13 @@
       <c r="E111" s="3"/>
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
-      <c r="H111" s="38">
-        <f t="shared" si="11"/>
+      <c r="H111" s="37">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I111" s="11">
         <f t="shared" si="9"/>
-        <v>963805</v>
+        <v>1166404.4000000001</v>
       </c>
     </row>
     <row r="112" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3750,13 +3964,13 @@
       <c r="E112" s="3"/>
       <c r="F112" s="3"/>
       <c r="G112" s="3"/>
-      <c r="H112" s="38">
-        <f t="shared" si="11"/>
+      <c r="H112" s="37">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I112" s="11">
         <f t="shared" si="9"/>
-        <v>963805</v>
+        <v>1166404.4000000001</v>
       </c>
     </row>
     <row r="113" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3766,13 +3980,13 @@
       <c r="E113" s="3"/>
       <c r="F113" s="3"/>
       <c r="G113" s="3"/>
-      <c r="H113" s="38">
-        <f t="shared" si="11"/>
+      <c r="H113" s="37">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I113" s="11">
         <f t="shared" si="9"/>
-        <v>963805</v>
+        <v>1166404.4000000001</v>
       </c>
     </row>
     <row r="114" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3782,13 +3996,13 @@
       <c r="E114" s="3"/>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
-      <c r="H114" s="38">
-        <f t="shared" si="11"/>
+      <c r="H114" s="37">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I114" s="11">
         <f t="shared" si="9"/>
-        <v>963805</v>
+        <v>1166404.4000000001</v>
       </c>
     </row>
     <row r="115" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3798,13 +4012,13 @@
       <c r="E115" s="3"/>
       <c r="F115" s="3"/>
       <c r="G115" s="3"/>
-      <c r="H115" s="38">
-        <f t="shared" si="11"/>
+      <c r="H115" s="37">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I115" s="11">
         <f t="shared" si="9"/>
-        <v>963805</v>
+        <v>1166404.4000000001</v>
       </c>
     </row>
     <row r="116" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3814,13 +4028,13 @@
       <c r="E116" s="3"/>
       <c r="F116" s="3"/>
       <c r="G116" s="3"/>
-      <c r="H116" s="38">
-        <f t="shared" si="11"/>
+      <c r="H116" s="37">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I116" s="11">
         <f t="shared" si="9"/>
-        <v>963805</v>
+        <v>1166404.4000000001</v>
       </c>
     </row>
     <row r="117" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3830,13 +4044,13 @@
       <c r="E117" s="3"/>
       <c r="F117" s="3"/>
       <c r="G117" s="3"/>
-      <c r="H117" s="38">
-        <f t="shared" si="11"/>
+      <c r="H117" s="37">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I117" s="11">
         <f t="shared" si="9"/>
-        <v>963805</v>
+        <v>1166404.4000000001</v>
       </c>
     </row>
     <row r="118" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3846,13 +4060,13 @@
       <c r="E118" s="3"/>
       <c r="F118" s="3"/>
       <c r="G118" s="3"/>
-      <c r="H118" s="38">
-        <f t="shared" si="11"/>
+      <c r="H118" s="37">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I118" s="11">
         <f t="shared" si="9"/>
-        <v>963805</v>
+        <v>1166404.4000000001</v>
       </c>
     </row>
     <row r="119" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3862,13 +4076,13 @@
       <c r="E119" s="3"/>
       <c r="F119" s="3"/>
       <c r="G119" s="3"/>
-      <c r="H119" s="38">
-        <f t="shared" si="11"/>
+      <c r="H119" s="37">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I119" s="11">
         <f t="shared" si="9"/>
-        <v>963805</v>
+        <v>1166404.4000000001</v>
       </c>
     </row>
     <row r="120" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3878,13 +4092,13 @@
       <c r="E120" s="3"/>
       <c r="F120" s="3"/>
       <c r="G120" s="3"/>
-      <c r="H120" s="38">
-        <f t="shared" si="11"/>
+      <c r="H120" s="37">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I120" s="11">
         <f t="shared" si="9"/>
-        <v>963805</v>
+        <v>1166404.4000000001</v>
       </c>
     </row>
     <row r="121" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3894,13 +4108,13 @@
       <c r="E121" s="3"/>
       <c r="F121" s="3"/>
       <c r="G121" s="3"/>
-      <c r="H121" s="38">
-        <f t="shared" si="11"/>
+      <c r="H121" s="37">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I121" s="11">
         <f t="shared" si="9"/>
-        <v>963805</v>
+        <v>1166404.4000000001</v>
       </c>
     </row>
     <row r="122" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3910,13 +4124,13 @@
       <c r="E122" s="3"/>
       <c r="F122" s="3"/>
       <c r="G122" s="3"/>
-      <c r="H122" s="38">
-        <f t="shared" si="11"/>
+      <c r="H122" s="37">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I122" s="11">
         <f t="shared" si="9"/>
-        <v>963805</v>
+        <v>1166404.4000000001</v>
       </c>
     </row>
     <row r="123" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3926,13 +4140,13 @@
       <c r="E123" s="3"/>
       <c r="F123" s="3"/>
       <c r="G123" s="3"/>
-      <c r="H123" s="38">
-        <f t="shared" si="11"/>
+      <c r="H123" s="37">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I123" s="11">
         <f t="shared" si="9"/>
-        <v>963805</v>
+        <v>1166404.4000000001</v>
       </c>
     </row>
     <row r="124" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3942,13 +4156,13 @@
       <c r="E124" s="3"/>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
-      <c r="H124" s="38">
-        <f t="shared" si="11"/>
+      <c r="H124" s="37">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I124" s="11">
         <f t="shared" si="9"/>
-        <v>963805</v>
+        <v>1166404.4000000001</v>
       </c>
     </row>
     <row r="125" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3958,13 +4172,13 @@
       <c r="E125" s="3"/>
       <c r="F125" s="3"/>
       <c r="G125" s="3"/>
-      <c r="H125" s="38">
-        <f t="shared" si="11"/>
+      <c r="H125" s="37">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I125" s="11">
         <f t="shared" si="9"/>
-        <v>963805</v>
+        <v>1166404.4000000001</v>
       </c>
     </row>
     <row r="126" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3974,13 +4188,13 @@
       <c r="E126" s="3"/>
       <c r="F126" s="3"/>
       <c r="G126" s="3"/>
-      <c r="H126" s="38">
-        <f t="shared" si="11"/>
+      <c r="H126" s="37">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I126" s="11">
         <f t="shared" si="9"/>
-        <v>963805</v>
+        <v>1166404.4000000001</v>
       </c>
     </row>
     <row r="127" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -3990,13 +4204,13 @@
       <c r="E127" s="3"/>
       <c r="F127" s="3"/>
       <c r="G127" s="3"/>
-      <c r="H127" s="38">
-        <f t="shared" si="11"/>
+      <c r="H127" s="37">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I127" s="11">
         <f t="shared" si="9"/>
-        <v>963805</v>
+        <v>1166404.4000000001</v>
       </c>
     </row>
     <row r="128" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4006,13 +4220,13 @@
       <c r="E128" s="3"/>
       <c r="F128" s="3"/>
       <c r="G128" s="3"/>
-      <c r="H128" s="38">
-        <f t="shared" si="11"/>
+      <c r="H128" s="37">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I128" s="11">
         <f t="shared" si="9"/>
-        <v>963805</v>
+        <v>1166404.4000000001</v>
       </c>
     </row>
     <row r="129" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4022,13 +4236,13 @@
       <c r="E129" s="3"/>
       <c r="F129" s="3"/>
       <c r="G129" s="3"/>
-      <c r="H129" s="38">
-        <f t="shared" si="11"/>
+      <c r="H129" s="37">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I129" s="11">
         <f t="shared" si="9"/>
-        <v>963805</v>
+        <v>1166404.4000000001</v>
       </c>
     </row>
     <row r="130" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4038,13 +4252,13 @@
       <c r="E130" s="3"/>
       <c r="F130" s="3"/>
       <c r="G130" s="3"/>
-      <c r="H130" s="38">
-        <f t="shared" si="11"/>
+      <c r="H130" s="37">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I130" s="11">
         <f t="shared" si="9"/>
-        <v>963805</v>
+        <v>1166404.4000000001</v>
       </c>
     </row>
     <row r="131" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4054,13 +4268,13 @@
       <c r="E131" s="3"/>
       <c r="F131" s="3"/>
       <c r="G131" s="3"/>
-      <c r="H131" s="38">
-        <f t="shared" si="11"/>
+      <c r="H131" s="37">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I131" s="11">
         <f t="shared" si="9"/>
-        <v>963805</v>
+        <v>1166404.4000000001</v>
       </c>
     </row>
     <row r="132" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4070,13 +4284,13 @@
       <c r="E132" s="3"/>
       <c r="F132" s="3"/>
       <c r="G132" s="3"/>
-      <c r="H132" s="38">
-        <f t="shared" si="11"/>
+      <c r="H132" s="37">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I132" s="11">
         <f t="shared" si="9"/>
-        <v>963805</v>
+        <v>1166404.4000000001</v>
       </c>
     </row>
     <row r="133" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4086,13 +4300,13 @@
       <c r="E133" s="3"/>
       <c r="F133" s="3"/>
       <c r="G133" s="3"/>
-      <c r="H133" s="38">
-        <f t="shared" si="11"/>
+      <c r="H133" s="37">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I133" s="11">
         <f t="shared" si="9"/>
-        <v>963805</v>
+        <v>1166404.4000000001</v>
       </c>
     </row>
     <row r="134" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4102,13 +4316,13 @@
       <c r="E134" s="3"/>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
-      <c r="H134" s="38">
-        <f t="shared" si="11"/>
+      <c r="H134" s="37">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I134" s="11">
         <f t="shared" si="9"/>
-        <v>963805</v>
+        <v>1166404.4000000001</v>
       </c>
     </row>
     <row r="135" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4118,13 +4332,13 @@
       <c r="E135" s="3"/>
       <c r="F135" s="3"/>
       <c r="G135" s="3"/>
-      <c r="H135" s="38">
-        <f t="shared" si="11"/>
+      <c r="H135" s="37">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I135" s="11">
         <f t="shared" si="9"/>
-        <v>963805</v>
+        <v>1166404.4000000001</v>
       </c>
     </row>
     <row r="136" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4134,13 +4348,13 @@
       <c r="E136" s="3"/>
       <c r="F136" s="3"/>
       <c r="G136" s="3"/>
-      <c r="H136" s="38">
-        <f t="shared" si="11"/>
+      <c r="H136" s="37">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I136" s="11">
-        <f t="shared" ref="I136:I199" si="12">I135+H136</f>
-        <v>963805</v>
+        <f t="shared" ref="I136:I199" si="16">I135+H136</f>
+        <v>1166404.4000000001</v>
       </c>
     </row>
     <row r="137" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4150,13 +4364,13 @@
       <c r="E137" s="3"/>
       <c r="F137" s="3"/>
       <c r="G137" s="3"/>
-      <c r="H137" s="38">
-        <f t="shared" si="11"/>
+      <c r="H137" s="37">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I137" s="11">
-        <f t="shared" si="12"/>
-        <v>963805</v>
+        <f t="shared" si="16"/>
+        <v>1166404.4000000001</v>
       </c>
     </row>
     <row r="138" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4166,13 +4380,13 @@
       <c r="E138" s="3"/>
       <c r="F138" s="3"/>
       <c r="G138" s="3"/>
-      <c r="H138" s="38">
-        <f t="shared" si="11"/>
+      <c r="H138" s="37">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I138" s="11">
-        <f t="shared" si="12"/>
-        <v>963805</v>
+        <f t="shared" si="16"/>
+        <v>1166404.4000000001</v>
       </c>
     </row>
     <row r="139" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4182,13 +4396,13 @@
       <c r="E139" s="3"/>
       <c r="F139" s="3"/>
       <c r="G139" s="3"/>
-      <c r="H139" s="38">
-        <f t="shared" si="11"/>
+      <c r="H139" s="37">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I139" s="11">
-        <f t="shared" si="12"/>
-        <v>963805</v>
+        <f t="shared" si="16"/>
+        <v>1166404.4000000001</v>
       </c>
     </row>
     <row r="140" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4198,13 +4412,13 @@
       <c r="E140" s="3"/>
       <c r="F140" s="3"/>
       <c r="G140" s="3"/>
-      <c r="H140" s="38">
-        <f t="shared" si="11"/>
+      <c r="H140" s="37">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I140" s="11">
-        <f t="shared" si="12"/>
-        <v>963805</v>
+        <f t="shared" si="16"/>
+        <v>1166404.4000000001</v>
       </c>
     </row>
     <row r="141" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4214,13 +4428,13 @@
       <c r="E141" s="3"/>
       <c r="F141" s="3"/>
       <c r="G141" s="3"/>
-      <c r="H141" s="38">
-        <f t="shared" si="11"/>
+      <c r="H141" s="37">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I141" s="11">
-        <f t="shared" si="12"/>
-        <v>963805</v>
+        <f t="shared" si="16"/>
+        <v>1166404.4000000001</v>
       </c>
     </row>
     <row r="142" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4230,13 +4444,13 @@
       <c r="E142" s="3"/>
       <c r="F142" s="3"/>
       <c r="G142" s="3"/>
-      <c r="H142" s="38">
-        <f t="shared" si="11"/>
+      <c r="H142" s="37">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I142" s="11">
-        <f t="shared" si="12"/>
-        <v>963805</v>
+        <f t="shared" si="16"/>
+        <v>1166404.4000000001</v>
       </c>
     </row>
     <row r="143" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4246,13 +4460,13 @@
       <c r="E143" s="3"/>
       <c r="F143" s="3"/>
       <c r="G143" s="3"/>
-      <c r="H143" s="38">
-        <f t="shared" si="11"/>
+      <c r="H143" s="37">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I143" s="11">
-        <f t="shared" si="12"/>
-        <v>963805</v>
+        <f t="shared" si="16"/>
+        <v>1166404.4000000001</v>
       </c>
     </row>
     <row r="144" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4262,13 +4476,13 @@
       <c r="E144" s="3"/>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
-      <c r="H144" s="38">
-        <f t="shared" si="11"/>
+      <c r="H144" s="37">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I144" s="11">
-        <f t="shared" si="12"/>
-        <v>963805</v>
+        <f t="shared" si="16"/>
+        <v>1166404.4000000001</v>
       </c>
     </row>
     <row r="145" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4278,13 +4492,13 @@
       <c r="E145" s="3"/>
       <c r="F145" s="3"/>
       <c r="G145" s="3"/>
-      <c r="H145" s="38">
-        <f t="shared" si="11"/>
+      <c r="H145" s="37">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I145" s="11">
-        <f t="shared" si="12"/>
-        <v>963805</v>
+        <f t="shared" si="16"/>
+        <v>1166404.4000000001</v>
       </c>
     </row>
     <row r="146" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4294,13 +4508,13 @@
       <c r="E146" s="3"/>
       <c r="F146" s="3"/>
       <c r="G146" s="3"/>
-      <c r="H146" s="38">
-        <f t="shared" si="11"/>
+      <c r="H146" s="37">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I146" s="11">
-        <f t="shared" si="12"/>
-        <v>963805</v>
+        <f t="shared" si="16"/>
+        <v>1166404.4000000001</v>
       </c>
     </row>
     <row r="147" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4310,13 +4524,13 @@
       <c r="E147" s="3"/>
       <c r="F147" s="3"/>
       <c r="G147" s="3"/>
-      <c r="H147" s="38">
-        <f t="shared" si="11"/>
+      <c r="H147" s="37">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I147" s="11">
-        <f t="shared" si="12"/>
-        <v>963805</v>
+        <f t="shared" si="16"/>
+        <v>1166404.4000000001</v>
       </c>
     </row>
     <row r="148" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4326,13 +4540,13 @@
       <c r="E148" s="3"/>
       <c r="F148" s="3"/>
       <c r="G148" s="3"/>
-      <c r="H148" s="38">
-        <f t="shared" si="11"/>
+      <c r="H148" s="37">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I148" s="11">
-        <f t="shared" si="12"/>
-        <v>963805</v>
+        <f t="shared" si="16"/>
+        <v>1166404.4000000001</v>
       </c>
     </row>
     <row r="149" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4342,13 +4556,13 @@
       <c r="E149" s="3"/>
       <c r="F149" s="3"/>
       <c r="G149" s="3"/>
-      <c r="H149" s="38">
-        <f t="shared" si="11"/>
+      <c r="H149" s="37">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I149" s="11">
-        <f t="shared" si="12"/>
-        <v>963805</v>
+        <f t="shared" si="16"/>
+        <v>1166404.4000000001</v>
       </c>
     </row>
     <row r="150" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4358,13 +4572,13 @@
       <c r="E150" s="3"/>
       <c r="F150" s="3"/>
       <c r="G150" s="3"/>
-      <c r="H150" s="38">
-        <f t="shared" si="11"/>
+      <c r="H150" s="37">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I150" s="11">
-        <f t="shared" si="12"/>
-        <v>963805</v>
+        <f t="shared" si="16"/>
+        <v>1166404.4000000001</v>
       </c>
     </row>
     <row r="151" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4374,13 +4588,13 @@
       <c r="E151" s="3"/>
       <c r="F151" s="3"/>
       <c r="G151" s="3"/>
-      <c r="H151" s="38">
-        <f t="shared" si="11"/>
+      <c r="H151" s="37">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I151" s="11">
-        <f t="shared" si="12"/>
-        <v>963805</v>
+        <f t="shared" si="16"/>
+        <v>1166404.4000000001</v>
       </c>
     </row>
     <row r="152" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4390,13 +4604,13 @@
       <c r="E152" s="3"/>
       <c r="F152" s="3"/>
       <c r="G152" s="3"/>
-      <c r="H152" s="38">
-        <f t="shared" si="11"/>
+      <c r="H152" s="37">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I152" s="11">
-        <f t="shared" si="12"/>
-        <v>963805</v>
+        <f t="shared" si="16"/>
+        <v>1166404.4000000001</v>
       </c>
     </row>
     <row r="153" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4406,13 +4620,13 @@
       <c r="E153" s="3"/>
       <c r="F153" s="3"/>
       <c r="G153" s="3"/>
-      <c r="H153" s="38">
-        <f t="shared" si="11"/>
+      <c r="H153" s="37">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I153" s="11">
-        <f t="shared" si="12"/>
-        <v>963805</v>
+        <f t="shared" si="16"/>
+        <v>1166404.4000000001</v>
       </c>
     </row>
     <row r="154" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4422,13 +4636,13 @@
       <c r="E154" s="3"/>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
-      <c r="H154" s="38">
-        <f t="shared" si="11"/>
+      <c r="H154" s="37">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I154" s="11">
-        <f t="shared" si="12"/>
-        <v>963805</v>
+        <f t="shared" si="16"/>
+        <v>1166404.4000000001</v>
       </c>
     </row>
     <row r="155" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4438,13 +4652,13 @@
       <c r="E155" s="3"/>
       <c r="F155" s="3"/>
       <c r="G155" s="3"/>
-      <c r="H155" s="38">
-        <f t="shared" si="11"/>
+      <c r="H155" s="37">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I155" s="11">
-        <f t="shared" si="12"/>
-        <v>963805</v>
+        <f t="shared" si="16"/>
+        <v>1166404.4000000001</v>
       </c>
     </row>
     <row r="156" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4454,13 +4668,13 @@
       <c r="E156" s="3"/>
       <c r="F156" s="3"/>
       <c r="G156" s="3"/>
-      <c r="H156" s="38">
-        <f t="shared" si="11"/>
+      <c r="H156" s="37">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I156" s="11">
-        <f t="shared" si="12"/>
-        <v>963805</v>
+        <f t="shared" si="16"/>
+        <v>1166404.4000000001</v>
       </c>
     </row>
     <row r="157" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4470,13 +4684,13 @@
       <c r="E157" s="3"/>
       <c r="F157" s="3"/>
       <c r="G157" s="3"/>
-      <c r="H157" s="38">
-        <f t="shared" si="11"/>
+      <c r="H157" s="37">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I157" s="11">
-        <f t="shared" si="12"/>
-        <v>963805</v>
+        <f t="shared" si="16"/>
+        <v>1166404.4000000001</v>
       </c>
     </row>
     <row r="158" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4486,13 +4700,13 @@
       <c r="E158" s="3"/>
       <c r="F158" s="3"/>
       <c r="G158" s="3"/>
-      <c r="H158" s="38">
-        <f t="shared" si="11"/>
+      <c r="H158" s="37">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I158" s="11">
-        <f t="shared" si="12"/>
-        <v>963805</v>
+        <f t="shared" si="16"/>
+        <v>1166404.4000000001</v>
       </c>
     </row>
     <row r="159" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4502,13 +4716,13 @@
       <c r="E159" s="3"/>
       <c r="F159" s="3"/>
       <c r="G159" s="3"/>
-      <c r="H159" s="38">
-        <f t="shared" si="11"/>
+      <c r="H159" s="37">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I159" s="11">
-        <f t="shared" si="12"/>
-        <v>963805</v>
+        <f t="shared" si="16"/>
+        <v>1166404.4000000001</v>
       </c>
     </row>
     <row r="160" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4518,13 +4732,13 @@
       <c r="E160" s="3"/>
       <c r="F160" s="3"/>
       <c r="G160" s="3"/>
-      <c r="H160" s="38">
-        <f t="shared" si="11"/>
+      <c r="H160" s="37">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I160" s="11">
-        <f t="shared" si="12"/>
-        <v>963805</v>
+        <f t="shared" si="16"/>
+        <v>1166404.4000000001</v>
       </c>
     </row>
     <row r="161" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4534,13 +4748,13 @@
       <c r="E161" s="3"/>
       <c r="F161" s="3"/>
       <c r="G161" s="3"/>
-      <c r="H161" s="38">
-        <f t="shared" si="11"/>
+      <c r="H161" s="37">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I161" s="11">
-        <f t="shared" si="12"/>
-        <v>963805</v>
+        <f t="shared" si="16"/>
+        <v>1166404.4000000001</v>
       </c>
     </row>
     <row r="162" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4550,13 +4764,13 @@
       <c r="E162" s="3"/>
       <c r="F162" s="3"/>
       <c r="G162" s="3"/>
-      <c r="H162" s="38">
-        <f t="shared" si="11"/>
+      <c r="H162" s="37">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I162" s="11">
-        <f t="shared" si="12"/>
-        <v>963805</v>
+        <f t="shared" si="16"/>
+        <v>1166404.4000000001</v>
       </c>
     </row>
     <row r="163" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4566,13 +4780,13 @@
       <c r="E163" s="3"/>
       <c r="F163" s="3"/>
       <c r="G163" s="3"/>
-      <c r="H163" s="38">
-        <f t="shared" si="11"/>
+      <c r="H163" s="37">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I163" s="11">
-        <f t="shared" si="12"/>
-        <v>963805</v>
+        <f t="shared" si="16"/>
+        <v>1166404.4000000001</v>
       </c>
     </row>
     <row r="164" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4582,13 +4796,13 @@
       <c r="E164" s="3"/>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
-      <c r="H164" s="38">
-        <f t="shared" ref="H164:H202" si="13">(E164*F164)+G164</f>
+      <c r="H164" s="37">
+        <f t="shared" ref="H164:H202" si="17">(E164*F164)+G164</f>
         <v>0</v>
       </c>
       <c r="I164" s="11">
-        <f t="shared" si="12"/>
-        <v>963805</v>
+        <f t="shared" si="16"/>
+        <v>1166404.4000000001</v>
       </c>
     </row>
     <row r="165" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4598,13 +4812,13 @@
       <c r="E165" s="3"/>
       <c r="F165" s="3"/>
       <c r="G165" s="3"/>
-      <c r="H165" s="38">
-        <f t="shared" si="13"/>
+      <c r="H165" s="37">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I165" s="11">
-        <f t="shared" si="12"/>
-        <v>963805</v>
+        <f t="shared" si="16"/>
+        <v>1166404.4000000001</v>
       </c>
     </row>
     <row r="166" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4614,13 +4828,13 @@
       <c r="E166" s="3"/>
       <c r="F166" s="3"/>
       <c r="G166" s="3"/>
-      <c r="H166" s="38">
-        <f t="shared" si="13"/>
+      <c r="H166" s="37">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I166" s="11">
-        <f t="shared" si="12"/>
-        <v>963805</v>
+        <f t="shared" si="16"/>
+        <v>1166404.4000000001</v>
       </c>
     </row>
     <row r="167" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4630,13 +4844,13 @@
       <c r="E167" s="3"/>
       <c r="F167" s="3"/>
       <c r="G167" s="3"/>
-      <c r="H167" s="38">
-        <f t="shared" si="13"/>
+      <c r="H167" s="37">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I167" s="11">
-        <f t="shared" si="12"/>
-        <v>963805</v>
+        <f t="shared" si="16"/>
+        <v>1166404.4000000001</v>
       </c>
     </row>
     <row r="168" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4646,13 +4860,13 @@
       <c r="E168" s="3"/>
       <c r="F168" s="3"/>
       <c r="G168" s="3"/>
-      <c r="H168" s="38">
-        <f t="shared" si="13"/>
+      <c r="H168" s="37">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I168" s="11">
-        <f t="shared" si="12"/>
-        <v>963805</v>
+        <f t="shared" si="16"/>
+        <v>1166404.4000000001</v>
       </c>
     </row>
     <row r="169" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4662,13 +4876,13 @@
       <c r="E169" s="3"/>
       <c r="F169" s="3"/>
       <c r="G169" s="3"/>
-      <c r="H169" s="38">
-        <f t="shared" si="13"/>
+      <c r="H169" s="37">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I169" s="11">
-        <f t="shared" si="12"/>
-        <v>963805</v>
+        <f t="shared" si="16"/>
+        <v>1166404.4000000001</v>
       </c>
     </row>
     <row r="170" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4678,13 +4892,13 @@
       <c r="E170" s="3"/>
       <c r="F170" s="3"/>
       <c r="G170" s="3"/>
-      <c r="H170" s="38">
-        <f t="shared" si="13"/>
+      <c r="H170" s="37">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I170" s="11">
-        <f t="shared" si="12"/>
-        <v>963805</v>
+        <f t="shared" si="16"/>
+        <v>1166404.4000000001</v>
       </c>
     </row>
     <row r="171" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4694,13 +4908,13 @@
       <c r="E171" s="3"/>
       <c r="F171" s="3"/>
       <c r="G171" s="3"/>
-      <c r="H171" s="38">
-        <f t="shared" si="13"/>
+      <c r="H171" s="37">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I171" s="11">
-        <f t="shared" si="12"/>
-        <v>963805</v>
+        <f t="shared" si="16"/>
+        <v>1166404.4000000001</v>
       </c>
     </row>
     <row r="172" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4710,13 +4924,13 @@
       <c r="E172" s="3"/>
       <c r="F172" s="3"/>
       <c r="G172" s="3"/>
-      <c r="H172" s="38">
-        <f t="shared" si="13"/>
+      <c r="H172" s="37">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I172" s="11">
-        <f t="shared" si="12"/>
-        <v>963805</v>
+        <f t="shared" si="16"/>
+        <v>1166404.4000000001</v>
       </c>
     </row>
     <row r="173" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4726,13 +4940,13 @@
       <c r="E173" s="3"/>
       <c r="F173" s="3"/>
       <c r="G173" s="3"/>
-      <c r="H173" s="38">
-        <f t="shared" si="13"/>
+      <c r="H173" s="37">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I173" s="11">
-        <f t="shared" si="12"/>
-        <v>963805</v>
+        <f t="shared" si="16"/>
+        <v>1166404.4000000001</v>
       </c>
     </row>
     <row r="174" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4742,13 +4956,13 @@
       <c r="E174" s="3"/>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
-      <c r="H174" s="38">
-        <f t="shared" si="13"/>
+      <c r="H174" s="37">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I174" s="11">
-        <f t="shared" si="12"/>
-        <v>963805</v>
+        <f t="shared" si="16"/>
+        <v>1166404.4000000001</v>
       </c>
     </row>
     <row r="175" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4758,13 +4972,13 @@
       <c r="E175" s="3"/>
       <c r="F175" s="3"/>
       <c r="G175" s="3"/>
-      <c r="H175" s="38">
-        <f t="shared" si="13"/>
+      <c r="H175" s="37">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I175" s="11">
-        <f t="shared" si="12"/>
-        <v>963805</v>
+        <f t="shared" si="16"/>
+        <v>1166404.4000000001</v>
       </c>
     </row>
     <row r="176" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4774,13 +4988,13 @@
       <c r="E176" s="3"/>
       <c r="F176" s="3"/>
       <c r="G176" s="3"/>
-      <c r="H176" s="38">
-        <f t="shared" si="13"/>
+      <c r="H176" s="37">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I176" s="11">
-        <f t="shared" si="12"/>
-        <v>963805</v>
+        <f t="shared" si="16"/>
+        <v>1166404.4000000001</v>
       </c>
     </row>
     <row r="177" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4790,13 +5004,13 @@
       <c r="E177" s="3"/>
       <c r="F177" s="3"/>
       <c r="G177" s="3"/>
-      <c r="H177" s="38">
-        <f t="shared" si="13"/>
+      <c r="H177" s="37">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I177" s="11">
-        <f t="shared" si="12"/>
-        <v>963805</v>
+        <f t="shared" si="16"/>
+        <v>1166404.4000000001</v>
       </c>
     </row>
     <row r="178" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4806,13 +5020,13 @@
       <c r="E178" s="3"/>
       <c r="F178" s="3"/>
       <c r="G178" s="3"/>
-      <c r="H178" s="38">
-        <f t="shared" si="13"/>
+      <c r="H178" s="37">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I178" s="11">
-        <f t="shared" si="12"/>
-        <v>963805</v>
+        <f t="shared" si="16"/>
+        <v>1166404.4000000001</v>
       </c>
     </row>
     <row r="179" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4822,13 +5036,13 @@
       <c r="E179" s="3"/>
       <c r="F179" s="3"/>
       <c r="G179" s="3"/>
-      <c r="H179" s="38">
-        <f t="shared" si="13"/>
+      <c r="H179" s="37">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I179" s="11">
-        <f t="shared" si="12"/>
-        <v>963805</v>
+        <f t="shared" si="16"/>
+        <v>1166404.4000000001</v>
       </c>
     </row>
     <row r="180" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4838,13 +5052,13 @@
       <c r="E180" s="3"/>
       <c r="F180" s="3"/>
       <c r="G180" s="3"/>
-      <c r="H180" s="38">
-        <f t="shared" si="13"/>
+      <c r="H180" s="37">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I180" s="11">
-        <f t="shared" si="12"/>
-        <v>963805</v>
+        <f t="shared" si="16"/>
+        <v>1166404.4000000001</v>
       </c>
     </row>
     <row r="181" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4854,13 +5068,13 @@
       <c r="E181" s="3"/>
       <c r="F181" s="3"/>
       <c r="G181" s="3"/>
-      <c r="H181" s="38">
-        <f t="shared" si="13"/>
+      <c r="H181" s="37">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I181" s="11">
-        <f t="shared" si="12"/>
-        <v>963805</v>
+        <f t="shared" si="16"/>
+        <v>1166404.4000000001</v>
       </c>
     </row>
     <row r="182" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4870,13 +5084,13 @@
       <c r="E182" s="3"/>
       <c r="F182" s="3"/>
       <c r="G182" s="3"/>
-      <c r="H182" s="38">
-        <f t="shared" si="13"/>
+      <c r="H182" s="37">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I182" s="11">
-        <f t="shared" si="12"/>
-        <v>963805</v>
+        <f t="shared" si="16"/>
+        <v>1166404.4000000001</v>
       </c>
     </row>
     <row r="183" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4886,13 +5100,13 @@
       <c r="E183" s="3"/>
       <c r="F183" s="3"/>
       <c r="G183" s="3"/>
-      <c r="H183" s="38">
-        <f t="shared" si="13"/>
+      <c r="H183" s="37">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I183" s="11">
-        <f t="shared" si="12"/>
-        <v>963805</v>
+        <f t="shared" si="16"/>
+        <v>1166404.4000000001</v>
       </c>
     </row>
     <row r="184" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4902,13 +5116,13 @@
       <c r="E184" s="3"/>
       <c r="F184" s="3"/>
       <c r="G184" s="3"/>
-      <c r="H184" s="38">
-        <f t="shared" si="13"/>
+      <c r="H184" s="37">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I184" s="11">
-        <f t="shared" si="12"/>
-        <v>963805</v>
+        <f t="shared" si="16"/>
+        <v>1166404.4000000001</v>
       </c>
     </row>
     <row r="185" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4918,13 +5132,13 @@
       <c r="E185" s="3"/>
       <c r="F185" s="3"/>
       <c r="G185" s="3"/>
-      <c r="H185" s="38">
-        <f t="shared" si="13"/>
+      <c r="H185" s="37">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I185" s="11">
-        <f t="shared" si="12"/>
-        <v>963805</v>
+        <f t="shared" si="16"/>
+        <v>1166404.4000000001</v>
       </c>
     </row>
     <row r="186" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4934,13 +5148,13 @@
       <c r="E186" s="3"/>
       <c r="F186" s="3"/>
       <c r="G186" s="3"/>
-      <c r="H186" s="38">
-        <f t="shared" si="13"/>
+      <c r="H186" s="37">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I186" s="11">
-        <f t="shared" si="12"/>
-        <v>963805</v>
+        <f t="shared" si="16"/>
+        <v>1166404.4000000001</v>
       </c>
     </row>
     <row r="187" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4950,13 +5164,13 @@
       <c r="E187" s="3"/>
       <c r="F187" s="3"/>
       <c r="G187" s="3"/>
-      <c r="H187" s="38">
-        <f t="shared" si="13"/>
+      <c r="H187" s="37">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I187" s="11">
-        <f t="shared" si="12"/>
-        <v>963805</v>
+        <f t="shared" si="16"/>
+        <v>1166404.4000000001</v>
       </c>
     </row>
     <row r="188" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4966,13 +5180,13 @@
       <c r="E188" s="3"/>
       <c r="F188" s="3"/>
       <c r="G188" s="3"/>
-      <c r="H188" s="38">
-        <f t="shared" si="13"/>
+      <c r="H188" s="37">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I188" s="11">
-        <f t="shared" si="12"/>
-        <v>963805</v>
+        <f t="shared" si="16"/>
+        <v>1166404.4000000001</v>
       </c>
     </row>
     <row r="189" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4982,13 +5196,13 @@
       <c r="E189" s="3"/>
       <c r="F189" s="3"/>
       <c r="G189" s="3"/>
-      <c r="H189" s="38">
-        <f t="shared" si="13"/>
+      <c r="H189" s="37">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I189" s="11">
-        <f t="shared" si="12"/>
-        <v>963805</v>
+        <f t="shared" si="16"/>
+        <v>1166404.4000000001</v>
       </c>
     </row>
     <row r="190" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4998,13 +5212,13 @@
       <c r="E190" s="3"/>
       <c r="F190" s="3"/>
       <c r="G190" s="3"/>
-      <c r="H190" s="38">
-        <f t="shared" si="13"/>
+      <c r="H190" s="37">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I190" s="11">
-        <f t="shared" si="12"/>
-        <v>963805</v>
+        <f t="shared" si="16"/>
+        <v>1166404.4000000001</v>
       </c>
     </row>
     <row r="191" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -5014,13 +5228,13 @@
       <c r="E191" s="3"/>
       <c r="F191" s="3"/>
       <c r="G191" s="3"/>
-      <c r="H191" s="38">
-        <f t="shared" si="13"/>
+      <c r="H191" s="37">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I191" s="11">
-        <f t="shared" si="12"/>
-        <v>963805</v>
+        <f t="shared" si="16"/>
+        <v>1166404.4000000001</v>
       </c>
     </row>
     <row r="192" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -5030,13 +5244,13 @@
       <c r="E192" s="3"/>
       <c r="F192" s="3"/>
       <c r="G192" s="3"/>
-      <c r="H192" s="38">
-        <f t="shared" si="13"/>
+      <c r="H192" s="37">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I192" s="11">
-        <f t="shared" si="12"/>
-        <v>963805</v>
+        <f t="shared" si="16"/>
+        <v>1166404.4000000001</v>
       </c>
     </row>
     <row r="193" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -5046,13 +5260,13 @@
       <c r="E193" s="3"/>
       <c r="F193" s="3"/>
       <c r="G193" s="3"/>
-      <c r="H193" s="38">
-        <f t="shared" si="13"/>
+      <c r="H193" s="37">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I193" s="11">
-        <f t="shared" si="12"/>
-        <v>963805</v>
+        <f t="shared" si="16"/>
+        <v>1166404.4000000001</v>
       </c>
     </row>
     <row r="194" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -5062,13 +5276,13 @@
       <c r="E194" s="3"/>
       <c r="F194" s="3"/>
       <c r="G194" s="3"/>
-      <c r="H194" s="38">
-        <f t="shared" si="13"/>
+      <c r="H194" s="37">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I194" s="11">
-        <f t="shared" si="12"/>
-        <v>963805</v>
+        <f t="shared" si="16"/>
+        <v>1166404.4000000001</v>
       </c>
     </row>
     <row r="195" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -5078,13 +5292,13 @@
       <c r="E195" s="3"/>
       <c r="F195" s="3"/>
       <c r="G195" s="3"/>
-      <c r="H195" s="38">
-        <f t="shared" si="13"/>
+      <c r="H195" s="37">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I195" s="11">
-        <f t="shared" si="12"/>
-        <v>963805</v>
+        <f t="shared" si="16"/>
+        <v>1166404.4000000001</v>
       </c>
     </row>
     <row r="196" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -5094,13 +5308,13 @@
       <c r="E196" s="3"/>
       <c r="F196" s="3"/>
       <c r="G196" s="3"/>
-      <c r="H196" s="38">
-        <f t="shared" si="13"/>
+      <c r="H196" s="37">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I196" s="11">
-        <f t="shared" si="12"/>
-        <v>963805</v>
+        <f t="shared" si="16"/>
+        <v>1166404.4000000001</v>
       </c>
     </row>
     <row r="197" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -5110,13 +5324,13 @@
       <c r="E197" s="3"/>
       <c r="F197" s="3"/>
       <c r="G197" s="3"/>
-      <c r="H197" s="38">
-        <f t="shared" si="13"/>
+      <c r="H197" s="37">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I197" s="11">
-        <f t="shared" si="12"/>
-        <v>963805</v>
+        <f t="shared" si="16"/>
+        <v>1166404.4000000001</v>
       </c>
     </row>
     <row r="198" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -5126,13 +5340,13 @@
       <c r="E198" s="3"/>
       <c r="F198" s="3"/>
       <c r="G198" s="3"/>
-      <c r="H198" s="38">
-        <f t="shared" si="13"/>
+      <c r="H198" s="37">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I198" s="11">
-        <f t="shared" si="12"/>
-        <v>963805</v>
+        <f t="shared" si="16"/>
+        <v>1166404.4000000001</v>
       </c>
     </row>
     <row r="199" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -5142,13 +5356,13 @@
       <c r="E199" s="3"/>
       <c r="F199" s="3"/>
       <c r="G199" s="3"/>
-      <c r="H199" s="38">
-        <f t="shared" si="13"/>
+      <c r="H199" s="37">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I199" s="11">
-        <f t="shared" si="12"/>
-        <v>963805</v>
+        <f t="shared" si="16"/>
+        <v>1166404.4000000001</v>
       </c>
     </row>
     <row r="200" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -5158,13 +5372,13 @@
       <c r="E200" s="3"/>
       <c r="F200" s="3"/>
       <c r="G200" s="3"/>
-      <c r="H200" s="38">
-        <f t="shared" si="13"/>
+      <c r="H200" s="37">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I200" s="11">
-        <f t="shared" ref="I200:I202" si="14">I199+H200</f>
-        <v>963805</v>
+        <f t="shared" ref="I200:I202" si="18">I199+H200</f>
+        <v>1166404.4000000001</v>
       </c>
     </row>
     <row r="201" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -5174,13 +5388,13 @@
       <c r="E201" s="3"/>
       <c r="F201" s="3"/>
       <c r="G201" s="3"/>
-      <c r="H201" s="38">
-        <f t="shared" si="13"/>
+      <c r="H201" s="37">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I201" s="11">
-        <f t="shared" si="14"/>
-        <v>963805</v>
+        <f t="shared" si="18"/>
+        <v>1166404.4000000001</v>
       </c>
     </row>
     <row r="202" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -5190,18 +5404,20 @@
       <c r="E202" s="3"/>
       <c r="F202" s="3"/>
       <c r="G202" s="3"/>
-      <c r="H202" s="38">
-        <f t="shared" si="13"/>
+      <c r="H202" s="37">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I202" s="11">
-        <f t="shared" si="14"/>
-        <v>963805</v>
+        <f t="shared" si="18"/>
+        <v>1166404.4000000001</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="B3:I4"/>
+    <mergeCell ref="J86:J87"/>
+    <mergeCell ref="P8:Q8"/>
   </mergeCells>
   <conditionalFormatting sqref="C36 E36:H36 B37:H38">
     <cfRule type="expression" priority="15">
@@ -5209,17 +5425,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36 E36:H36 B37:H38 B40:H40 H39">
-    <cfRule type="expression" dxfId="11" priority="14">
+    <cfRule type="expression" dxfId="10" priority="14">
       <formula>D2="CEMENT"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36:H36">
-    <cfRule type="expression" dxfId="10" priority="13">
+    <cfRule type="expression" dxfId="9" priority="13">
       <formula>A2="CEMENT"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36">
-    <cfRule type="expression" dxfId="9" priority="16">
+    <cfRule type="expression" dxfId="8" priority="16">
       <formula>XFD2="CEMENT"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5229,7 +5445,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B51:H51">
-    <cfRule type="expression" dxfId="8" priority="11">
+    <cfRule type="expression" dxfId="7" priority="11">
       <formula>D17="CEMENT"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5239,17 +5455,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50 E50:H50">
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="6" priority="8">
       <formula>E16="CEMENT"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50:H50">
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="5" priority="7">
       <formula>A16="CEMENT"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50">
-    <cfRule type="expression" dxfId="5" priority="10">
+    <cfRule type="expression" dxfId="4" priority="10">
       <formula>XFD16="CEMENT"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5259,17 +5475,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C66 E66:H66">
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>E32="CEMENT"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66:H66">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>A32="CEMENT"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C66">
-    <cfRule type="expression" dxfId="2" priority="6">
+    <cfRule type="expression" dxfId="1" priority="6">
       <formula>XFD32="CEMENT"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5279,7 +5495,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C72 E72:G72">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>E38="CEMENT"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5293,7 +5509,7 @@
   <dimension ref="B2:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5305,24 +5521,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="37.200000000000003" x14ac:dyDescent="0.75">
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
     </row>
     <row r="3" spans="2:5" ht="21" x14ac:dyDescent="0.3">
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="57" t="s">
+      <c r="E3" s="56" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5341,10 +5557,10 @@
       <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="23">
         <v>10000</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="24">
         <f>E4+D5</f>
         <v>10000</v>
       </c>
@@ -5354,10 +5570,10 @@
         <v>45117</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="24">
+      <c r="D6" s="23">
         <v>15000</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="24">
         <f t="shared" ref="E6:E14" si="0">E5+D6</f>
         <v>25000</v>
       </c>
@@ -5367,10 +5583,10 @@
         <v>45120</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="24">
+      <c r="D7" s="23">
         <v>25000</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="24">
         <f t="shared" si="0"/>
         <v>50000</v>
       </c>
@@ -5380,10 +5596,10 @@
         <v>45125</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="24">
+      <c r="D8" s="23">
         <v>10000</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="24">
         <f t="shared" si="0"/>
         <v>60000</v>
       </c>
@@ -5393,10 +5609,10 @@
         <v>45134</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="24">
+      <c r="D9" s="23">
         <v>15000</v>
       </c>
-      <c r="E9" s="25">
+      <c r="E9" s="24">
         <f t="shared" si="0"/>
         <v>75000</v>
       </c>
@@ -5406,48 +5622,52 @@
         <v>45140</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="24">
+      <c r="D10" s="23">
         <v>2000</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="24">
         <f t="shared" si="0"/>
         <v>77000</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="21" x14ac:dyDescent="0.4">
-      <c r="B11" s="7"/>
+      <c r="B11" s="7">
+        <v>45143</v>
+      </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="25">
+      <c r="D11" s="23">
+        <v>5000</v>
+      </c>
+      <c r="E11" s="24">
         <f t="shared" si="0"/>
-        <v>77000</v>
+        <v>82000</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="21" x14ac:dyDescent="0.4">
       <c r="B12" s="7"/>
       <c r="C12" s="1"/>
       <c r="D12" s="23"/>
-      <c r="E12" s="25">
+      <c r="E12" s="24">
         <f t="shared" si="0"/>
-        <v>77000</v>
+        <v>82000</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="21" x14ac:dyDescent="0.4">
       <c r="B13" s="7"/>
       <c r="C13" s="1"/>
       <c r="D13" s="23"/>
-      <c r="E13" s="25">
+      <c r="E13" s="24">
         <f t="shared" si="0"/>
-        <v>77000</v>
+        <v>82000</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="21" x14ac:dyDescent="0.4">
-      <c r="B14" s="7"/>
+      <c r="B14" s="70"/>
       <c r="C14" s="1"/>
       <c r="D14" s="23"/>
       <c r="E14" s="11">
         <f t="shared" si="0"/>
-        <v>77000</v>
+        <v>82000</v>
       </c>
     </row>
   </sheetData>
@@ -5464,7 +5684,7 @@
   <dimension ref="B3:E542"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5476,24 +5696,24 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:5" ht="31.2" x14ac:dyDescent="0.6">
-      <c r="B3" s="89" t="s">
+      <c r="B3" s="110" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
     </row>
     <row r="4" spans="2:5" ht="21" x14ac:dyDescent="0.3">
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="56" t="s">
+      <c r="D4" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="57" t="s">
+      <c r="E4" s="56" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5510,35 +5730,35 @@
       <c r="C6" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="23">
         <v>10000</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="24">
         <f>E5+D6</f>
         <v>10000</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="23.4" x14ac:dyDescent="0.4">
-      <c r="B7" s="100">
+      <c r="B7" s="95">
         <v>45126</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="40">
+      <c r="D7" s="39">
         <v>40000</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="24">
         <f t="shared" ref="E7:E70" si="0">E6+D7</f>
         <v>50000</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="21" x14ac:dyDescent="0.4">
-      <c r="B8" s="100">
+      <c r="B8" s="95">
         <v>45134</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="40">
+      <c r="D8" s="39">
         <v>20000</v>
       </c>
       <c r="E8" s="11">
@@ -5550,7 +5770,7 @@
       <c r="B9" s="12">
         <v>45141</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="46" t="s">
         <v>66</v>
       </c>
       <c r="D9" s="11">
@@ -5562,12 +5782,18 @@
       </c>
     </row>
     <row r="10" spans="2:5" ht="21" x14ac:dyDescent="0.4">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="11"/>
+      <c r="B10" s="12">
+        <v>45144</v>
+      </c>
+      <c r="C10" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="11">
+        <v>20000</v>
+      </c>
       <c r="E10" s="11">
         <f t="shared" si="0"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5576,7 +5802,7 @@
       <c r="D11" s="11"/>
       <c r="E11" s="11">
         <f t="shared" si="0"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5585,7 +5811,7 @@
       <c r="D12" s="11"/>
       <c r="E12" s="11">
         <f t="shared" si="0"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5594,7 +5820,7 @@
       <c r="D13" s="11"/>
       <c r="E13" s="11">
         <f t="shared" si="0"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5603,7 +5829,7 @@
       <c r="D14" s="11"/>
       <c r="E14" s="11">
         <f t="shared" si="0"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5612,7 +5838,7 @@
       <c r="D15" s="11"/>
       <c r="E15" s="11">
         <f t="shared" si="0"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5621,7 +5847,7 @@
       <c r="D16" s="11"/>
       <c r="E16" s="11">
         <f t="shared" si="0"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5630,7 +5856,7 @@
       <c r="D17" s="11"/>
       <c r="E17" s="11">
         <f t="shared" si="0"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5639,7 +5865,7 @@
       <c r="D18" s="11"/>
       <c r="E18" s="11">
         <f t="shared" si="0"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5648,7 +5874,7 @@
       <c r="D19" s="11"/>
       <c r="E19" s="11">
         <f t="shared" si="0"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5657,7 +5883,7 @@
       <c r="D20" s="11"/>
       <c r="E20" s="11">
         <f t="shared" si="0"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5666,7 +5892,7 @@
       <c r="D21" s="11"/>
       <c r="E21" s="11">
         <f t="shared" si="0"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5675,7 +5901,7 @@
       <c r="D22" s="11"/>
       <c r="E22" s="11">
         <f t="shared" si="0"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5684,7 +5910,7 @@
       <c r="D23" s="11"/>
       <c r="E23" s="11">
         <f t="shared" si="0"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5693,7 +5919,7 @@
       <c r="D24" s="11"/>
       <c r="E24" s="11">
         <f t="shared" si="0"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5702,7 +5928,7 @@
       <c r="D25" s="11"/>
       <c r="E25" s="11">
         <f t="shared" si="0"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5711,7 +5937,7 @@
       <c r="D26" s="11"/>
       <c r="E26" s="11">
         <f t="shared" si="0"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5720,7 +5946,7 @@
       <c r="D27" s="11"/>
       <c r="E27" s="11">
         <f t="shared" si="0"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="28" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5729,7 +5955,7 @@
       <c r="D28" s="11"/>
       <c r="E28" s="11">
         <f t="shared" si="0"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="29" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5738,7 +5964,7 @@
       <c r="D29" s="11"/>
       <c r="E29" s="11">
         <f t="shared" si="0"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="30" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5747,7 +5973,7 @@
       <c r="D30" s="11"/>
       <c r="E30" s="11">
         <f t="shared" si="0"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="31" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5756,7 +5982,7 @@
       <c r="D31" s="11"/>
       <c r="E31" s="11">
         <f t="shared" si="0"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="32" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5765,7 +5991,7 @@
       <c r="D32" s="11"/>
       <c r="E32" s="11">
         <f t="shared" si="0"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="33" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5774,7 +6000,7 @@
       <c r="D33" s="11"/>
       <c r="E33" s="11">
         <f t="shared" si="0"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="34" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5783,7 +6009,7 @@
       <c r="D34" s="11"/>
       <c r="E34" s="11">
         <f t="shared" si="0"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="35" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5792,7 +6018,7 @@
       <c r="D35" s="11"/>
       <c r="E35" s="11">
         <f t="shared" si="0"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="36" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5801,7 +6027,7 @@
       <c r="D36" s="11"/>
       <c r="E36" s="11">
         <f t="shared" si="0"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="37" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5810,7 +6036,7 @@
       <c r="D37" s="11"/>
       <c r="E37" s="11">
         <f t="shared" si="0"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="38" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5819,7 +6045,7 @@
       <c r="D38" s="11"/>
       <c r="E38" s="11">
         <f t="shared" si="0"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="39" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5828,7 +6054,7 @@
       <c r="D39" s="11"/>
       <c r="E39" s="11">
         <f t="shared" si="0"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="40" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5837,7 +6063,7 @@
       <c r="D40" s="11"/>
       <c r="E40" s="11">
         <f t="shared" si="0"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="41" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5846,7 +6072,7 @@
       <c r="D41" s="11"/>
       <c r="E41" s="11">
         <f t="shared" si="0"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="42" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5855,7 +6081,7 @@
       <c r="D42" s="11"/>
       <c r="E42" s="11">
         <f t="shared" si="0"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="43" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5864,7 +6090,7 @@
       <c r="D43" s="11"/>
       <c r="E43" s="11">
         <f t="shared" si="0"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="44" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5873,7 +6099,7 @@
       <c r="D44" s="11"/>
       <c r="E44" s="11">
         <f t="shared" si="0"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="45" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5882,7 +6108,7 @@
       <c r="D45" s="11"/>
       <c r="E45" s="11">
         <f t="shared" si="0"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="46" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5891,7 +6117,7 @@
       <c r="D46" s="11"/>
       <c r="E46" s="11">
         <f t="shared" si="0"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="47" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5900,7 +6126,7 @@
       <c r="D47" s="11"/>
       <c r="E47" s="11">
         <f t="shared" si="0"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="48" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5909,7 +6135,7 @@
       <c r="D48" s="11"/>
       <c r="E48" s="11">
         <f t="shared" si="0"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="49" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5918,7 +6144,7 @@
       <c r="D49" s="11"/>
       <c r="E49" s="11">
         <f t="shared" si="0"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="50" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5927,7 +6153,7 @@
       <c r="D50" s="11"/>
       <c r="E50" s="11">
         <f t="shared" si="0"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="51" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5936,7 +6162,7 @@
       <c r="D51" s="11"/>
       <c r="E51" s="11">
         <f t="shared" si="0"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="52" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5945,7 +6171,7 @@
       <c r="D52" s="11"/>
       <c r="E52" s="11">
         <f t="shared" si="0"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="53" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5954,7 +6180,7 @@
       <c r="D53" s="11"/>
       <c r="E53" s="11">
         <f t="shared" si="0"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="54" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5963,7 +6189,7 @@
       <c r="D54" s="11"/>
       <c r="E54" s="11">
         <f t="shared" si="0"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="55" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5972,7 +6198,7 @@
       <c r="D55" s="11"/>
       <c r="E55" s="11">
         <f t="shared" si="0"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="56" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5981,7 +6207,7 @@
       <c r="D56" s="11"/>
       <c r="E56" s="11">
         <f t="shared" si="0"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5990,7 +6216,7 @@
       <c r="D57" s="11"/>
       <c r="E57" s="11">
         <f t="shared" si="0"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -5999,7 +6225,7 @@
       <c r="D58" s="11"/>
       <c r="E58" s="11">
         <f t="shared" si="0"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="59" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6008,7 +6234,7 @@
       <c r="D59" s="11"/>
       <c r="E59" s="11">
         <f t="shared" si="0"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="60" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6017,7 +6243,7 @@
       <c r="D60" s="11"/>
       <c r="E60" s="11">
         <f t="shared" si="0"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="61" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6026,7 +6252,7 @@
       <c r="D61" s="11"/>
       <c r="E61" s="11">
         <f t="shared" si="0"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="62" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6035,7 +6261,7 @@
       <c r="D62" s="11"/>
       <c r="E62" s="11">
         <f t="shared" si="0"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="63" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6044,7 +6270,7 @@
       <c r="D63" s="11"/>
       <c r="E63" s="11">
         <f t="shared" si="0"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="64" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6053,7 +6279,7 @@
       <c r="D64" s="11"/>
       <c r="E64" s="11">
         <f t="shared" si="0"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="65" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6062,7 +6288,7 @@
       <c r="D65" s="11"/>
       <c r="E65" s="11">
         <f t="shared" si="0"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6071,7 +6297,7 @@
       <c r="D66" s="11"/>
       <c r="E66" s="11">
         <f t="shared" si="0"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6080,7 +6306,7 @@
       <c r="D67" s="11"/>
       <c r="E67" s="11">
         <f t="shared" si="0"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6089,7 +6315,7 @@
       <c r="D68" s="11"/>
       <c r="E68" s="11">
         <f t="shared" si="0"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="69" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6098,7 +6324,7 @@
       <c r="D69" s="11"/>
       <c r="E69" s="11">
         <f t="shared" si="0"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="70" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6107,7 +6333,7 @@
       <c r="D70" s="11"/>
       <c r="E70" s="11">
         <f t="shared" si="0"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="71" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6116,7 +6342,7 @@
       <c r="D71" s="11"/>
       <c r="E71" s="11">
         <f t="shared" ref="E71:E134" si="1">E70+D71</f>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="72" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6125,7 +6351,7 @@
       <c r="D72" s="11"/>
       <c r="E72" s="11">
         <f t="shared" si="1"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="73" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6134,7 +6360,7 @@
       <c r="D73" s="11"/>
       <c r="E73" s="11">
         <f t="shared" si="1"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="74" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6143,7 +6369,7 @@
       <c r="D74" s="11"/>
       <c r="E74" s="11">
         <f t="shared" si="1"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="75" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6152,7 +6378,7 @@
       <c r="D75" s="11"/>
       <c r="E75" s="11">
         <f t="shared" si="1"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="76" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6161,7 +6387,7 @@
       <c r="D76" s="11"/>
       <c r="E76" s="11">
         <f t="shared" si="1"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="77" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6170,7 +6396,7 @@
       <c r="D77" s="11"/>
       <c r="E77" s="11">
         <f t="shared" si="1"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="78" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6179,7 +6405,7 @@
       <c r="D78" s="11"/>
       <c r="E78" s="11">
         <f t="shared" si="1"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="79" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6188,7 +6414,7 @@
       <c r="D79" s="11"/>
       <c r="E79" s="11">
         <f t="shared" si="1"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="80" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6197,7 +6423,7 @@
       <c r="D80" s="11"/>
       <c r="E80" s="11">
         <f t="shared" si="1"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="81" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6206,7 +6432,7 @@
       <c r="D81" s="11"/>
       <c r="E81" s="11">
         <f t="shared" si="1"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="82" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6215,7 +6441,7 @@
       <c r="D82" s="11"/>
       <c r="E82" s="11">
         <f t="shared" si="1"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="83" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6224,7 +6450,7 @@
       <c r="D83" s="11"/>
       <c r="E83" s="11">
         <f t="shared" si="1"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="84" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6233,7 +6459,7 @@
       <c r="D84" s="11"/>
       <c r="E84" s="11">
         <f t="shared" si="1"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="85" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6242,7 +6468,7 @@
       <c r="D85" s="11"/>
       <c r="E85" s="11">
         <f t="shared" si="1"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="86" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6251,7 +6477,7 @@
       <c r="D86" s="11"/>
       <c r="E86" s="11">
         <f t="shared" si="1"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="87" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6260,7 +6486,7 @@
       <c r="D87" s="11"/>
       <c r="E87" s="11">
         <f t="shared" si="1"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="88" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6269,7 +6495,7 @@
       <c r="D88" s="11"/>
       <c r="E88" s="11">
         <f t="shared" si="1"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="89" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6278,7 +6504,7 @@
       <c r="D89" s="11"/>
       <c r="E89" s="11">
         <f t="shared" si="1"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="90" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6287,7 +6513,7 @@
       <c r="D90" s="11"/>
       <c r="E90" s="11">
         <f t="shared" si="1"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="91" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6296,7 +6522,7 @@
       <c r="D91" s="11"/>
       <c r="E91" s="11">
         <f t="shared" si="1"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="92" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6305,7 +6531,7 @@
       <c r="D92" s="11"/>
       <c r="E92" s="11">
         <f t="shared" si="1"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="93" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6314,7 +6540,7 @@
       <c r="D93" s="11"/>
       <c r="E93" s="11">
         <f t="shared" si="1"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="94" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6323,7 +6549,7 @@
       <c r="D94" s="11"/>
       <c r="E94" s="11">
         <f t="shared" si="1"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="95" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6332,7 +6558,7 @@
       <c r="D95" s="11"/>
       <c r="E95" s="11">
         <f t="shared" si="1"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="96" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6341,7 +6567,7 @@
       <c r="D96" s="11"/>
       <c r="E96" s="11">
         <f t="shared" si="1"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="97" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6350,7 +6576,7 @@
       <c r="D97" s="11"/>
       <c r="E97" s="11">
         <f t="shared" si="1"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="98" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6359,7 +6585,7 @@
       <c r="D98" s="11"/>
       <c r="E98" s="11">
         <f t="shared" si="1"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="99" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6368,7 +6594,7 @@
       <c r="D99" s="11"/>
       <c r="E99" s="11">
         <f t="shared" si="1"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="100" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6377,7 +6603,7 @@
       <c r="D100" s="11"/>
       <c r="E100" s="11">
         <f t="shared" si="1"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="101" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6386,7 +6612,7 @@
       <c r="D101" s="11"/>
       <c r="E101" s="11">
         <f t="shared" si="1"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="102" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6395,7 +6621,7 @@
       <c r="D102" s="11"/>
       <c r="E102" s="11">
         <f t="shared" si="1"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="103" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6404,7 +6630,7 @@
       <c r="D103" s="11"/>
       <c r="E103" s="11">
         <f t="shared" si="1"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="104" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6413,7 +6639,7 @@
       <c r="D104" s="11"/>
       <c r="E104" s="11">
         <f t="shared" si="1"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="105" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6422,7 +6648,7 @@
       <c r="D105" s="11"/>
       <c r="E105" s="11">
         <f t="shared" si="1"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="106" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6431,7 +6657,7 @@
       <c r="D106" s="11"/>
       <c r="E106" s="11">
         <f t="shared" si="1"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="107" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6440,7 +6666,7 @@
       <c r="D107" s="11"/>
       <c r="E107" s="11">
         <f t="shared" si="1"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="108" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6449,7 +6675,7 @@
       <c r="D108" s="11"/>
       <c r="E108" s="11">
         <f t="shared" si="1"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="109" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6458,7 +6684,7 @@
       <c r="D109" s="11"/>
       <c r="E109" s="11">
         <f t="shared" si="1"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="110" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6467,7 +6693,7 @@
       <c r="D110" s="11"/>
       <c r="E110" s="11">
         <f t="shared" si="1"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="111" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6476,7 +6702,7 @@
       <c r="D111" s="11"/>
       <c r="E111" s="11">
         <f t="shared" si="1"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="112" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6485,7 +6711,7 @@
       <c r="D112" s="11"/>
       <c r="E112" s="11">
         <f t="shared" si="1"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="113" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6494,7 +6720,7 @@
       <c r="D113" s="11"/>
       <c r="E113" s="11">
         <f t="shared" si="1"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="114" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6503,7 +6729,7 @@
       <c r="D114" s="11"/>
       <c r="E114" s="11">
         <f t="shared" si="1"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="115" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6512,7 +6738,7 @@
       <c r="D115" s="11"/>
       <c r="E115" s="11">
         <f t="shared" si="1"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="116" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6521,7 +6747,7 @@
       <c r="D116" s="11"/>
       <c r="E116" s="11">
         <f t="shared" si="1"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="117" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6530,7 +6756,7 @@
       <c r="D117" s="11"/>
       <c r="E117" s="11">
         <f t="shared" si="1"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="118" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6539,7 +6765,7 @@
       <c r="D118" s="11"/>
       <c r="E118" s="11">
         <f t="shared" si="1"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="119" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6548,7 +6774,7 @@
       <c r="D119" s="11"/>
       <c r="E119" s="11">
         <f t="shared" si="1"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="120" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6557,7 +6783,7 @@
       <c r="D120" s="11"/>
       <c r="E120" s="11">
         <f t="shared" si="1"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="121" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6566,7 +6792,7 @@
       <c r="D121" s="11"/>
       <c r="E121" s="11">
         <f t="shared" si="1"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="122" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6575,7 +6801,7 @@
       <c r="D122" s="11"/>
       <c r="E122" s="11">
         <f t="shared" si="1"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="123" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6584,7 +6810,7 @@
       <c r="D123" s="11"/>
       <c r="E123" s="11">
         <f t="shared" si="1"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="124" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6593,7 +6819,7 @@
       <c r="D124" s="11"/>
       <c r="E124" s="11">
         <f t="shared" si="1"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="125" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6602,7 +6828,7 @@
       <c r="D125" s="11"/>
       <c r="E125" s="11">
         <f t="shared" si="1"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="126" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6611,7 +6837,7 @@
       <c r="D126" s="11"/>
       <c r="E126" s="11">
         <f t="shared" si="1"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="127" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6620,7 +6846,7 @@
       <c r="D127" s="11"/>
       <c r="E127" s="11">
         <f t="shared" si="1"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="128" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6629,7 +6855,7 @@
       <c r="D128" s="11"/>
       <c r="E128" s="11">
         <f t="shared" si="1"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="129" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6638,7 +6864,7 @@
       <c r="D129" s="11"/>
       <c r="E129" s="11">
         <f t="shared" si="1"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="130" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6647,7 +6873,7 @@
       <c r="D130" s="11"/>
       <c r="E130" s="11">
         <f t="shared" si="1"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="131" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6656,7 +6882,7 @@
       <c r="D131" s="11"/>
       <c r="E131" s="11">
         <f t="shared" si="1"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="132" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6665,7 +6891,7 @@
       <c r="D132" s="11"/>
       <c r="E132" s="11">
         <f t="shared" si="1"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="133" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6674,7 +6900,7 @@
       <c r="D133" s="11"/>
       <c r="E133" s="11">
         <f t="shared" si="1"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="134" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6683,7 +6909,7 @@
       <c r="D134" s="11"/>
       <c r="E134" s="11">
         <f t="shared" si="1"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="135" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6692,7 +6918,7 @@
       <c r="D135" s="11"/>
       <c r="E135" s="11">
         <f t="shared" ref="E135:E198" si="2">E134+D135</f>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="136" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6701,7 +6927,7 @@
       <c r="D136" s="11"/>
       <c r="E136" s="11">
         <f t="shared" si="2"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="137" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6710,7 +6936,7 @@
       <c r="D137" s="11"/>
       <c r="E137" s="11">
         <f t="shared" si="2"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="138" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6719,7 +6945,7 @@
       <c r="D138" s="11"/>
       <c r="E138" s="11">
         <f t="shared" si="2"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="139" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6728,7 +6954,7 @@
       <c r="D139" s="11"/>
       <c r="E139" s="11">
         <f t="shared" si="2"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="140" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6737,7 +6963,7 @@
       <c r="D140" s="11"/>
       <c r="E140" s="11">
         <f t="shared" si="2"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="141" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6746,7 +6972,7 @@
       <c r="D141" s="11"/>
       <c r="E141" s="11">
         <f t="shared" si="2"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="142" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6755,7 +6981,7 @@
       <c r="D142" s="11"/>
       <c r="E142" s="11">
         <f t="shared" si="2"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="143" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6764,7 +6990,7 @@
       <c r="D143" s="11"/>
       <c r="E143" s="11">
         <f t="shared" si="2"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="144" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6773,7 +6999,7 @@
       <c r="D144" s="11"/>
       <c r="E144" s="11">
         <f t="shared" si="2"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="145" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6782,7 +7008,7 @@
       <c r="D145" s="11"/>
       <c r="E145" s="11">
         <f t="shared" si="2"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="146" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6791,7 +7017,7 @@
       <c r="D146" s="11"/>
       <c r="E146" s="11">
         <f t="shared" si="2"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="147" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6800,7 +7026,7 @@
       <c r="D147" s="11"/>
       <c r="E147" s="11">
         <f t="shared" si="2"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="148" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6809,7 +7035,7 @@
       <c r="D148" s="11"/>
       <c r="E148" s="11">
         <f t="shared" si="2"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="149" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6818,7 +7044,7 @@
       <c r="D149" s="11"/>
       <c r="E149" s="11">
         <f t="shared" si="2"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="150" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6827,7 +7053,7 @@
       <c r="D150" s="11"/>
       <c r="E150" s="11">
         <f t="shared" si="2"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="151" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6836,7 +7062,7 @@
       <c r="D151" s="11"/>
       <c r="E151" s="11">
         <f t="shared" si="2"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="152" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6845,7 +7071,7 @@
       <c r="D152" s="11"/>
       <c r="E152" s="11">
         <f t="shared" si="2"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="153" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6854,7 +7080,7 @@
       <c r="D153" s="11"/>
       <c r="E153" s="11">
         <f t="shared" si="2"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="154" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6863,7 +7089,7 @@
       <c r="D154" s="11"/>
       <c r="E154" s="11">
         <f t="shared" si="2"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="155" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6872,7 +7098,7 @@
       <c r="D155" s="11"/>
       <c r="E155" s="11">
         <f t="shared" si="2"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="156" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6881,7 +7107,7 @@
       <c r="D156" s="11"/>
       <c r="E156" s="11">
         <f t="shared" si="2"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="157" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6890,7 +7116,7 @@
       <c r="D157" s="11"/>
       <c r="E157" s="11">
         <f t="shared" si="2"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="158" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6899,7 +7125,7 @@
       <c r="D158" s="11"/>
       <c r="E158" s="11">
         <f t="shared" si="2"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="159" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6908,7 +7134,7 @@
       <c r="D159" s="11"/>
       <c r="E159" s="11">
         <f t="shared" si="2"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="160" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6917,7 +7143,7 @@
       <c r="D160" s="11"/>
       <c r="E160" s="11">
         <f t="shared" si="2"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="161" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6926,7 +7152,7 @@
       <c r="D161" s="11"/>
       <c r="E161" s="11">
         <f t="shared" si="2"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="162" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6935,7 +7161,7 @@
       <c r="D162" s="11"/>
       <c r="E162" s="11">
         <f t="shared" si="2"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="163" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6944,7 +7170,7 @@
       <c r="D163" s="11"/>
       <c r="E163" s="11">
         <f t="shared" si="2"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="164" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6953,7 +7179,7 @@
       <c r="D164" s="11"/>
       <c r="E164" s="11">
         <f t="shared" si="2"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="165" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6962,7 +7188,7 @@
       <c r="D165" s="11"/>
       <c r="E165" s="11">
         <f t="shared" si="2"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="166" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6971,7 +7197,7 @@
       <c r="D166" s="11"/>
       <c r="E166" s="11">
         <f t="shared" si="2"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="167" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6980,7 +7206,7 @@
       <c r="D167" s="11"/>
       <c r="E167" s="11">
         <f t="shared" si="2"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="168" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6989,7 +7215,7 @@
       <c r="D168" s="11"/>
       <c r="E168" s="11">
         <f t="shared" si="2"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="169" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -6998,7 +7224,7 @@
       <c r="D169" s="11"/>
       <c r="E169" s="11">
         <f t="shared" si="2"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="170" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7007,7 +7233,7 @@
       <c r="D170" s="11"/>
       <c r="E170" s="11">
         <f t="shared" si="2"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="171" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7016,7 +7242,7 @@
       <c r="D171" s="11"/>
       <c r="E171" s="11">
         <f t="shared" si="2"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="172" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7025,7 +7251,7 @@
       <c r="D172" s="11"/>
       <c r="E172" s="11">
         <f t="shared" si="2"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="173" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7034,7 +7260,7 @@
       <c r="D173" s="11"/>
       <c r="E173" s="11">
         <f t="shared" si="2"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="174" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7043,7 +7269,7 @@
       <c r="D174" s="11"/>
       <c r="E174" s="11">
         <f t="shared" si="2"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="175" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7052,7 +7278,7 @@
       <c r="D175" s="11"/>
       <c r="E175" s="11">
         <f t="shared" si="2"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="176" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7061,7 +7287,7 @@
       <c r="D176" s="11"/>
       <c r="E176" s="11">
         <f t="shared" si="2"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="177" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7070,7 +7296,7 @@
       <c r="D177" s="11"/>
       <c r="E177" s="11">
         <f t="shared" si="2"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="178" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7079,7 +7305,7 @@
       <c r="D178" s="11"/>
       <c r="E178" s="11">
         <f t="shared" si="2"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="179" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7088,7 +7314,7 @@
       <c r="D179" s="11"/>
       <c r="E179" s="11">
         <f t="shared" si="2"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="180" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7097,7 +7323,7 @@
       <c r="D180" s="11"/>
       <c r="E180" s="11">
         <f t="shared" si="2"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="181" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7106,7 +7332,7 @@
       <c r="D181" s="11"/>
       <c r="E181" s="11">
         <f t="shared" si="2"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="182" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7115,7 +7341,7 @@
       <c r="D182" s="11"/>
       <c r="E182" s="11">
         <f t="shared" si="2"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="183" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7124,7 +7350,7 @@
       <c r="D183" s="11"/>
       <c r="E183" s="11">
         <f t="shared" si="2"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="184" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7133,7 +7359,7 @@
       <c r="D184" s="11"/>
       <c r="E184" s="11">
         <f t="shared" si="2"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="185" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7142,7 +7368,7 @@
       <c r="D185" s="11"/>
       <c r="E185" s="11">
         <f t="shared" si="2"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="186" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7151,7 +7377,7 @@
       <c r="D186" s="11"/>
       <c r="E186" s="11">
         <f t="shared" si="2"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="187" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7160,7 +7386,7 @@
       <c r="D187" s="11"/>
       <c r="E187" s="11">
         <f t="shared" si="2"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="188" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7169,7 +7395,7 @@
       <c r="D188" s="11"/>
       <c r="E188" s="11">
         <f t="shared" si="2"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="189" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7178,7 +7404,7 @@
       <c r="D189" s="11"/>
       <c r="E189" s="11">
         <f t="shared" si="2"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="190" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7187,7 +7413,7 @@
       <c r="D190" s="11"/>
       <c r="E190" s="11">
         <f t="shared" si="2"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="191" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7196,7 +7422,7 @@
       <c r="D191" s="11"/>
       <c r="E191" s="11">
         <f t="shared" si="2"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="192" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7205,7 +7431,7 @@
       <c r="D192" s="11"/>
       <c r="E192" s="11">
         <f t="shared" si="2"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="193" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7214,7 +7440,7 @@
       <c r="D193" s="11"/>
       <c r="E193" s="11">
         <f t="shared" si="2"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="194" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7223,7 +7449,7 @@
       <c r="D194" s="11"/>
       <c r="E194" s="11">
         <f t="shared" si="2"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="195" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7232,7 +7458,7 @@
       <c r="D195" s="11"/>
       <c r="E195" s="11">
         <f t="shared" si="2"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="196" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7241,7 +7467,7 @@
       <c r="D196" s="11"/>
       <c r="E196" s="11">
         <f t="shared" si="2"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="197" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7250,7 +7476,7 @@
       <c r="D197" s="11"/>
       <c r="E197" s="11">
         <f t="shared" si="2"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="198" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7259,7 +7485,7 @@
       <c r="D198" s="11"/>
       <c r="E198" s="11">
         <f t="shared" si="2"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="199" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7268,7 +7494,7 @@
       <c r="D199" s="11"/>
       <c r="E199" s="11">
         <f t="shared" ref="E199:E262" si="3">E198+D199</f>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="200" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7277,7 +7503,7 @@
       <c r="D200" s="11"/>
       <c r="E200" s="11">
         <f t="shared" si="3"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="201" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7286,7 +7512,7 @@
       <c r="D201" s="11"/>
       <c r="E201" s="11">
         <f t="shared" si="3"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="202" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7295,7 +7521,7 @@
       <c r="D202" s="11"/>
       <c r="E202" s="11">
         <f t="shared" si="3"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="203" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7304,7 +7530,7 @@
       <c r="D203" s="11"/>
       <c r="E203" s="11">
         <f t="shared" si="3"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="204" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7313,7 +7539,7 @@
       <c r="D204" s="11"/>
       <c r="E204" s="11">
         <f t="shared" si="3"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="205" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7322,7 +7548,7 @@
       <c r="D205" s="11"/>
       <c r="E205" s="11">
         <f t="shared" si="3"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="206" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7331,7 +7557,7 @@
       <c r="D206" s="11"/>
       <c r="E206" s="11">
         <f t="shared" si="3"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="207" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7340,7 +7566,7 @@
       <c r="D207" s="11"/>
       <c r="E207" s="11">
         <f t="shared" si="3"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="208" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7349,7 +7575,7 @@
       <c r="D208" s="11"/>
       <c r="E208" s="11">
         <f t="shared" si="3"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="209" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7358,7 +7584,7 @@
       <c r="D209" s="11"/>
       <c r="E209" s="11">
         <f t="shared" si="3"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="210" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7367,7 +7593,7 @@
       <c r="D210" s="11"/>
       <c r="E210" s="11">
         <f t="shared" si="3"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="211" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7376,7 +7602,7 @@
       <c r="D211" s="11"/>
       <c r="E211" s="11">
         <f t="shared" si="3"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="212" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7385,7 +7611,7 @@
       <c r="D212" s="11"/>
       <c r="E212" s="11">
         <f t="shared" si="3"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="213" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7394,7 +7620,7 @@
       <c r="D213" s="11"/>
       <c r="E213" s="11">
         <f t="shared" si="3"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="214" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7403,7 +7629,7 @@
       <c r="D214" s="11"/>
       <c r="E214" s="11">
         <f t="shared" si="3"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="215" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7412,7 +7638,7 @@
       <c r="D215" s="11"/>
       <c r="E215" s="11">
         <f t="shared" si="3"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="216" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7421,7 +7647,7 @@
       <c r="D216" s="11"/>
       <c r="E216" s="11">
         <f t="shared" si="3"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="217" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7430,7 +7656,7 @@
       <c r="D217" s="11"/>
       <c r="E217" s="11">
         <f t="shared" si="3"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="218" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7439,7 +7665,7 @@
       <c r="D218" s="11"/>
       <c r="E218" s="11">
         <f t="shared" si="3"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="219" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7448,7 +7674,7 @@
       <c r="D219" s="11"/>
       <c r="E219" s="11">
         <f t="shared" si="3"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="220" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7457,7 +7683,7 @@
       <c r="D220" s="11"/>
       <c r="E220" s="11">
         <f t="shared" si="3"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="221" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7466,7 +7692,7 @@
       <c r="D221" s="11"/>
       <c r="E221" s="11">
         <f t="shared" si="3"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="222" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7475,7 +7701,7 @@
       <c r="D222" s="11"/>
       <c r="E222" s="11">
         <f t="shared" si="3"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="223" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7484,7 +7710,7 @@
       <c r="D223" s="11"/>
       <c r="E223" s="11">
         <f t="shared" si="3"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="224" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7493,7 +7719,7 @@
       <c r="D224" s="11"/>
       <c r="E224" s="11">
         <f t="shared" si="3"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="225" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7502,7 +7728,7 @@
       <c r="D225" s="11"/>
       <c r="E225" s="11">
         <f t="shared" si="3"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="226" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7511,7 +7737,7 @@
       <c r="D226" s="11"/>
       <c r="E226" s="11">
         <f t="shared" si="3"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="227" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7520,7 +7746,7 @@
       <c r="D227" s="11"/>
       <c r="E227" s="11">
         <f t="shared" si="3"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="228" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7529,7 +7755,7 @@
       <c r="D228" s="11"/>
       <c r="E228" s="11">
         <f t="shared" si="3"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="229" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7538,7 +7764,7 @@
       <c r="D229" s="11"/>
       <c r="E229" s="11">
         <f t="shared" si="3"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="230" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7547,7 +7773,7 @@
       <c r="D230" s="11"/>
       <c r="E230" s="11">
         <f t="shared" si="3"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="231" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7556,7 +7782,7 @@
       <c r="D231" s="11"/>
       <c r="E231" s="11">
         <f t="shared" si="3"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="232" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7565,7 +7791,7 @@
       <c r="D232" s="11"/>
       <c r="E232" s="11">
         <f t="shared" si="3"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="233" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7574,7 +7800,7 @@
       <c r="D233" s="11"/>
       <c r="E233" s="11">
         <f t="shared" si="3"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="234" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7583,7 +7809,7 @@
       <c r="D234" s="11"/>
       <c r="E234" s="11">
         <f t="shared" si="3"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="235" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7592,7 +7818,7 @@
       <c r="D235" s="11"/>
       <c r="E235" s="11">
         <f t="shared" si="3"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="236" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7601,7 +7827,7 @@
       <c r="D236" s="11"/>
       <c r="E236" s="11">
         <f t="shared" si="3"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="237" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7610,7 +7836,7 @@
       <c r="D237" s="11"/>
       <c r="E237" s="11">
         <f t="shared" si="3"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="238" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7619,7 +7845,7 @@
       <c r="D238" s="11"/>
       <c r="E238" s="11">
         <f t="shared" si="3"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="239" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7628,7 +7854,7 @@
       <c r="D239" s="11"/>
       <c r="E239" s="11">
         <f t="shared" si="3"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="240" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7637,7 +7863,7 @@
       <c r="D240" s="11"/>
       <c r="E240" s="11">
         <f t="shared" si="3"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="241" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7646,7 +7872,7 @@
       <c r="D241" s="11"/>
       <c r="E241" s="11">
         <f t="shared" si="3"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="242" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7655,7 +7881,7 @@
       <c r="D242" s="11"/>
       <c r="E242" s="11">
         <f t="shared" si="3"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="243" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7664,7 +7890,7 @@
       <c r="D243" s="11"/>
       <c r="E243" s="11">
         <f t="shared" si="3"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="244" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7673,7 +7899,7 @@
       <c r="D244" s="11"/>
       <c r="E244" s="11">
         <f t="shared" si="3"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="245" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7682,7 +7908,7 @@
       <c r="D245" s="11"/>
       <c r="E245" s="11">
         <f t="shared" si="3"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="246" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7691,7 +7917,7 @@
       <c r="D246" s="11"/>
       <c r="E246" s="11">
         <f t="shared" si="3"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="247" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7700,7 +7926,7 @@
       <c r="D247" s="11"/>
       <c r="E247" s="11">
         <f t="shared" si="3"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="248" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7709,7 +7935,7 @@
       <c r="D248" s="11"/>
       <c r="E248" s="11">
         <f t="shared" si="3"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="249" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7718,7 +7944,7 @@
       <c r="D249" s="11"/>
       <c r="E249" s="11">
         <f t="shared" si="3"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="250" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7727,7 +7953,7 @@
       <c r="D250" s="11"/>
       <c r="E250" s="11">
         <f t="shared" si="3"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="251" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7736,7 +7962,7 @@
       <c r="D251" s="11"/>
       <c r="E251" s="11">
         <f t="shared" si="3"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="252" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7745,7 +7971,7 @@
       <c r="D252" s="11"/>
       <c r="E252" s="11">
         <f t="shared" si="3"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="253" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7754,7 +7980,7 @@
       <c r="D253" s="11"/>
       <c r="E253" s="11">
         <f t="shared" si="3"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="254" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7763,7 +7989,7 @@
       <c r="D254" s="11"/>
       <c r="E254" s="11">
         <f t="shared" si="3"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="255" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7772,7 +7998,7 @@
       <c r="D255" s="11"/>
       <c r="E255" s="11">
         <f t="shared" si="3"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="256" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7781,7 +8007,7 @@
       <c r="D256" s="11"/>
       <c r="E256" s="11">
         <f t="shared" si="3"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="257" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7790,7 +8016,7 @@
       <c r="D257" s="11"/>
       <c r="E257" s="11">
         <f t="shared" si="3"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="258" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7799,7 +8025,7 @@
       <c r="D258" s="11"/>
       <c r="E258" s="11">
         <f t="shared" si="3"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="259" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7808,7 +8034,7 @@
       <c r="D259" s="11"/>
       <c r="E259" s="11">
         <f t="shared" si="3"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="260" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7817,7 +8043,7 @@
       <c r="D260" s="11"/>
       <c r="E260" s="11">
         <f t="shared" si="3"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="261" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7826,7 +8052,7 @@
       <c r="D261" s="11"/>
       <c r="E261" s="11">
         <f t="shared" si="3"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="262" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7835,7 +8061,7 @@
       <c r="D262" s="11"/>
       <c r="E262" s="11">
         <f t="shared" si="3"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="263" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7844,7 +8070,7 @@
       <c r="D263" s="11"/>
       <c r="E263" s="11">
         <f t="shared" ref="E263:E326" si="4">E262+D263</f>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="264" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7853,7 +8079,7 @@
       <c r="D264" s="11"/>
       <c r="E264" s="11">
         <f t="shared" si="4"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="265" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7862,7 +8088,7 @@
       <c r="D265" s="11"/>
       <c r="E265" s="11">
         <f t="shared" si="4"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="266" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7871,7 +8097,7 @@
       <c r="D266" s="11"/>
       <c r="E266" s="11">
         <f t="shared" si="4"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="267" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7880,7 +8106,7 @@
       <c r="D267" s="11"/>
       <c r="E267" s="11">
         <f t="shared" si="4"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="268" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7889,7 +8115,7 @@
       <c r="D268" s="11"/>
       <c r="E268" s="11">
         <f t="shared" si="4"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="269" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7898,7 +8124,7 @@
       <c r="D269" s="11"/>
       <c r="E269" s="11">
         <f t="shared" si="4"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="270" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7907,7 +8133,7 @@
       <c r="D270" s="11"/>
       <c r="E270" s="11">
         <f t="shared" si="4"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="271" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7916,7 +8142,7 @@
       <c r="D271" s="11"/>
       <c r="E271" s="11">
         <f t="shared" si="4"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="272" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7925,7 +8151,7 @@
       <c r="D272" s="11"/>
       <c r="E272" s="11">
         <f t="shared" si="4"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="273" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7934,7 +8160,7 @@
       <c r="D273" s="11"/>
       <c r="E273" s="11">
         <f t="shared" si="4"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="274" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7943,7 +8169,7 @@
       <c r="D274" s="11"/>
       <c r="E274" s="11">
         <f t="shared" si="4"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="275" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7952,7 +8178,7 @@
       <c r="D275" s="11"/>
       <c r="E275" s="11">
         <f t="shared" si="4"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="276" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7961,7 +8187,7 @@
       <c r="D276" s="11"/>
       <c r="E276" s="11">
         <f t="shared" si="4"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="277" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7970,7 +8196,7 @@
       <c r="D277" s="11"/>
       <c r="E277" s="11">
         <f t="shared" si="4"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="278" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7979,7 +8205,7 @@
       <c r="D278" s="11"/>
       <c r="E278" s="11">
         <f t="shared" si="4"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="279" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7988,7 +8214,7 @@
       <c r="D279" s="11"/>
       <c r="E279" s="11">
         <f t="shared" si="4"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="280" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -7997,7 +8223,7 @@
       <c r="D280" s="11"/>
       <c r="E280" s="11">
         <f t="shared" si="4"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="281" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8006,7 +8232,7 @@
       <c r="D281" s="11"/>
       <c r="E281" s="11">
         <f t="shared" si="4"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="282" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8015,7 +8241,7 @@
       <c r="D282" s="11"/>
       <c r="E282" s="11">
         <f t="shared" si="4"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="283" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8024,7 +8250,7 @@
       <c r="D283" s="11"/>
       <c r="E283" s="11">
         <f t="shared" si="4"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="284" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8033,7 +8259,7 @@
       <c r="D284" s="11"/>
       <c r="E284" s="11">
         <f t="shared" si="4"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="285" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8042,7 +8268,7 @@
       <c r="D285" s="11"/>
       <c r="E285" s="11">
         <f t="shared" si="4"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="286" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8051,7 +8277,7 @@
       <c r="D286" s="11"/>
       <c r="E286" s="11">
         <f t="shared" si="4"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="287" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8060,7 +8286,7 @@
       <c r="D287" s="11"/>
       <c r="E287" s="11">
         <f t="shared" si="4"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="288" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8069,7 +8295,7 @@
       <c r="D288" s="11"/>
       <c r="E288" s="11">
         <f t="shared" si="4"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="289" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8078,7 +8304,7 @@
       <c r="D289" s="11"/>
       <c r="E289" s="11">
         <f t="shared" si="4"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="290" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8087,7 +8313,7 @@
       <c r="D290" s="11"/>
       <c r="E290" s="11">
         <f t="shared" si="4"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="291" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8096,7 +8322,7 @@
       <c r="D291" s="11"/>
       <c r="E291" s="11">
         <f t="shared" si="4"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="292" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8105,7 +8331,7 @@
       <c r="D292" s="11"/>
       <c r="E292" s="11">
         <f t="shared" si="4"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="293" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8114,7 +8340,7 @@
       <c r="D293" s="11"/>
       <c r="E293" s="11">
         <f t="shared" si="4"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="294" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8123,7 +8349,7 @@
       <c r="D294" s="11"/>
       <c r="E294" s="11">
         <f t="shared" si="4"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="295" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8132,7 +8358,7 @@
       <c r="D295" s="11"/>
       <c r="E295" s="11">
         <f t="shared" si="4"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="296" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8141,7 +8367,7 @@
       <c r="D296" s="11"/>
       <c r="E296" s="11">
         <f t="shared" si="4"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="297" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8150,7 +8376,7 @@
       <c r="D297" s="11"/>
       <c r="E297" s="11">
         <f t="shared" si="4"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="298" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8159,7 +8385,7 @@
       <c r="D298" s="11"/>
       <c r="E298" s="11">
         <f t="shared" si="4"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="299" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8168,7 +8394,7 @@
       <c r="D299" s="11"/>
       <c r="E299" s="11">
         <f t="shared" si="4"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="300" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8177,7 +8403,7 @@
       <c r="D300" s="11"/>
       <c r="E300" s="11">
         <f t="shared" si="4"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="301" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8186,7 +8412,7 @@
       <c r="D301" s="11"/>
       <c r="E301" s="11">
         <f t="shared" si="4"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="302" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8195,7 +8421,7 @@
       <c r="D302" s="11"/>
       <c r="E302" s="11">
         <f t="shared" si="4"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="303" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8204,7 +8430,7 @@
       <c r="D303" s="11"/>
       <c r="E303" s="11">
         <f t="shared" si="4"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="304" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8213,7 +8439,7 @@
       <c r="D304" s="11"/>
       <c r="E304" s="11">
         <f t="shared" si="4"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="305" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8222,7 +8448,7 @@
       <c r="D305" s="11"/>
       <c r="E305" s="11">
         <f t="shared" si="4"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="306" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8231,7 +8457,7 @@
       <c r="D306" s="11"/>
       <c r="E306" s="11">
         <f t="shared" si="4"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="307" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8240,7 +8466,7 @@
       <c r="D307" s="11"/>
       <c r="E307" s="11">
         <f t="shared" si="4"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="308" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8249,7 +8475,7 @@
       <c r="D308" s="11"/>
       <c r="E308" s="11">
         <f t="shared" si="4"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="309" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8258,7 +8484,7 @@
       <c r="D309" s="11"/>
       <c r="E309" s="11">
         <f t="shared" si="4"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="310" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8267,7 +8493,7 @@
       <c r="D310" s="11"/>
       <c r="E310" s="11">
         <f t="shared" si="4"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="311" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8276,7 +8502,7 @@
       <c r="D311" s="11"/>
       <c r="E311" s="11">
         <f t="shared" si="4"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="312" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8285,7 +8511,7 @@
       <c r="D312" s="11"/>
       <c r="E312" s="11">
         <f t="shared" si="4"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="313" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8294,7 +8520,7 @@
       <c r="D313" s="11"/>
       <c r="E313" s="11">
         <f t="shared" si="4"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="314" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8303,7 +8529,7 @@
       <c r="D314" s="11"/>
       <c r="E314" s="11">
         <f t="shared" si="4"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="315" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8312,7 +8538,7 @@
       <c r="D315" s="11"/>
       <c r="E315" s="11">
         <f t="shared" si="4"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="316" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8321,7 +8547,7 @@
       <c r="D316" s="11"/>
       <c r="E316" s="11">
         <f t="shared" si="4"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="317" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8330,7 +8556,7 @@
       <c r="D317" s="11"/>
       <c r="E317" s="11">
         <f t="shared" si="4"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="318" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8339,7 +8565,7 @@
       <c r="D318" s="11"/>
       <c r="E318" s="11">
         <f t="shared" si="4"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="319" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8348,7 +8574,7 @@
       <c r="D319" s="11"/>
       <c r="E319" s="11">
         <f t="shared" si="4"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="320" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8357,7 +8583,7 @@
       <c r="D320" s="11"/>
       <c r="E320" s="11">
         <f t="shared" si="4"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="321" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8366,7 +8592,7 @@
       <c r="D321" s="11"/>
       <c r="E321" s="11">
         <f t="shared" si="4"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="322" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8375,7 +8601,7 @@
       <c r="D322" s="11"/>
       <c r="E322" s="11">
         <f t="shared" si="4"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="323" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8384,7 +8610,7 @@
       <c r="D323" s="11"/>
       <c r="E323" s="11">
         <f t="shared" si="4"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="324" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8393,7 +8619,7 @@
       <c r="D324" s="11"/>
       <c r="E324" s="11">
         <f t="shared" si="4"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="325" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8402,7 +8628,7 @@
       <c r="D325" s="11"/>
       <c r="E325" s="11">
         <f t="shared" si="4"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="326" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8411,7 +8637,7 @@
       <c r="D326" s="11"/>
       <c r="E326" s="11">
         <f t="shared" si="4"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="327" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8420,7 +8646,7 @@
       <c r="D327" s="11"/>
       <c r="E327" s="11">
         <f t="shared" ref="E327:E390" si="5">E326+D327</f>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="328" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8429,7 +8655,7 @@
       <c r="D328" s="11"/>
       <c r="E328" s="11">
         <f t="shared" si="5"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="329" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8438,7 +8664,7 @@
       <c r="D329" s="11"/>
       <c r="E329" s="11">
         <f t="shared" si="5"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="330" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8447,7 +8673,7 @@
       <c r="D330" s="11"/>
       <c r="E330" s="11">
         <f t="shared" si="5"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="331" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8456,7 +8682,7 @@
       <c r="D331" s="11"/>
       <c r="E331" s="11">
         <f t="shared" si="5"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="332" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8465,7 +8691,7 @@
       <c r="D332" s="11"/>
       <c r="E332" s="11">
         <f t="shared" si="5"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="333" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8474,7 +8700,7 @@
       <c r="D333" s="11"/>
       <c r="E333" s="11">
         <f t="shared" si="5"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="334" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8483,7 +8709,7 @@
       <c r="D334" s="11"/>
       <c r="E334" s="11">
         <f t="shared" si="5"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="335" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8492,7 +8718,7 @@
       <c r="D335" s="11"/>
       <c r="E335" s="11">
         <f t="shared" si="5"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="336" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8501,7 +8727,7 @@
       <c r="D336" s="11"/>
       <c r="E336" s="11">
         <f t="shared" si="5"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="337" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8510,7 +8736,7 @@
       <c r="D337" s="11"/>
       <c r="E337" s="11">
         <f t="shared" si="5"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="338" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8519,7 +8745,7 @@
       <c r="D338" s="11"/>
       <c r="E338" s="11">
         <f t="shared" si="5"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="339" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8528,7 +8754,7 @@
       <c r="D339" s="11"/>
       <c r="E339" s="11">
         <f t="shared" si="5"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="340" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8537,7 +8763,7 @@
       <c r="D340" s="11"/>
       <c r="E340" s="11">
         <f t="shared" si="5"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="341" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8546,7 +8772,7 @@
       <c r="D341" s="11"/>
       <c r="E341" s="11">
         <f t="shared" si="5"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="342" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8555,7 +8781,7 @@
       <c r="D342" s="11"/>
       <c r="E342" s="11">
         <f t="shared" si="5"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="343" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8564,7 +8790,7 @@
       <c r="D343" s="11"/>
       <c r="E343" s="11">
         <f t="shared" si="5"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="344" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8573,7 +8799,7 @@
       <c r="D344" s="11"/>
       <c r="E344" s="11">
         <f t="shared" si="5"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="345" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8582,7 +8808,7 @@
       <c r="D345" s="11"/>
       <c r="E345" s="11">
         <f t="shared" si="5"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="346" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8591,7 +8817,7 @@
       <c r="D346" s="11"/>
       <c r="E346" s="11">
         <f t="shared" si="5"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="347" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8600,7 +8826,7 @@
       <c r="D347" s="11"/>
       <c r="E347" s="11">
         <f t="shared" si="5"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="348" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8609,7 +8835,7 @@
       <c r="D348" s="11"/>
       <c r="E348" s="11">
         <f t="shared" si="5"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="349" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8618,7 +8844,7 @@
       <c r="D349" s="11"/>
       <c r="E349" s="11">
         <f t="shared" si="5"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="350" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8627,7 +8853,7 @@
       <c r="D350" s="11"/>
       <c r="E350" s="11">
         <f t="shared" si="5"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="351" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8636,7 +8862,7 @@
       <c r="D351" s="11"/>
       <c r="E351" s="11">
         <f t="shared" si="5"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="352" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8645,7 +8871,7 @@
       <c r="D352" s="11"/>
       <c r="E352" s="11">
         <f t="shared" si="5"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="353" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8654,7 +8880,7 @@
       <c r="D353" s="11"/>
       <c r="E353" s="11">
         <f t="shared" si="5"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="354" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8663,7 +8889,7 @@
       <c r="D354" s="11"/>
       <c r="E354" s="11">
         <f t="shared" si="5"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="355" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8672,7 +8898,7 @@
       <c r="D355" s="11"/>
       <c r="E355" s="11">
         <f t="shared" si="5"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="356" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8681,7 +8907,7 @@
       <c r="D356" s="11"/>
       <c r="E356" s="11">
         <f t="shared" si="5"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="357" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8690,7 +8916,7 @@
       <c r="D357" s="11"/>
       <c r="E357" s="11">
         <f t="shared" si="5"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="358" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8699,7 +8925,7 @@
       <c r="D358" s="11"/>
       <c r="E358" s="11">
         <f t="shared" si="5"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="359" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8708,7 +8934,7 @@
       <c r="D359" s="11"/>
       <c r="E359" s="11">
         <f t="shared" si="5"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="360" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8717,7 +8943,7 @@
       <c r="D360" s="11"/>
       <c r="E360" s="11">
         <f t="shared" si="5"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="361" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8726,7 +8952,7 @@
       <c r="D361" s="11"/>
       <c r="E361" s="11">
         <f t="shared" si="5"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="362" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8735,7 +8961,7 @@
       <c r="D362" s="11"/>
       <c r="E362" s="11">
         <f t="shared" si="5"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="363" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8744,7 +8970,7 @@
       <c r="D363" s="11"/>
       <c r="E363" s="11">
         <f t="shared" si="5"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="364" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8753,7 +8979,7 @@
       <c r="D364" s="11"/>
       <c r="E364" s="11">
         <f t="shared" si="5"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="365" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8762,7 +8988,7 @@
       <c r="D365" s="11"/>
       <c r="E365" s="11">
         <f t="shared" si="5"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="366" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8771,7 +8997,7 @@
       <c r="D366" s="11"/>
       <c r="E366" s="11">
         <f t="shared" si="5"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="367" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8780,7 +9006,7 @@
       <c r="D367" s="11"/>
       <c r="E367" s="11">
         <f t="shared" si="5"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="368" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8789,7 +9015,7 @@
       <c r="D368" s="11"/>
       <c r="E368" s="11">
         <f t="shared" si="5"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="369" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8798,7 +9024,7 @@
       <c r="D369" s="11"/>
       <c r="E369" s="11">
         <f t="shared" si="5"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="370" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8807,7 +9033,7 @@
       <c r="D370" s="11"/>
       <c r="E370" s="11">
         <f t="shared" si="5"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="371" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8816,7 +9042,7 @@
       <c r="D371" s="11"/>
       <c r="E371" s="11">
         <f t="shared" si="5"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="372" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8825,7 +9051,7 @@
       <c r="D372" s="11"/>
       <c r="E372" s="11">
         <f t="shared" si="5"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="373" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8834,7 +9060,7 @@
       <c r="D373" s="11"/>
       <c r="E373" s="11">
         <f t="shared" si="5"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="374" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8843,7 +9069,7 @@
       <c r="D374" s="11"/>
       <c r="E374" s="11">
         <f t="shared" si="5"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="375" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8852,7 +9078,7 @@
       <c r="D375" s="11"/>
       <c r="E375" s="11">
         <f t="shared" si="5"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="376" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8861,7 +9087,7 @@
       <c r="D376" s="11"/>
       <c r="E376" s="11">
         <f t="shared" si="5"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="377" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8870,7 +9096,7 @@
       <c r="D377" s="11"/>
       <c r="E377" s="11">
         <f t="shared" si="5"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="378" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8879,7 +9105,7 @@
       <c r="D378" s="11"/>
       <c r="E378" s="11">
         <f t="shared" si="5"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="379" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8888,7 +9114,7 @@
       <c r="D379" s="11"/>
       <c r="E379" s="11">
         <f t="shared" si="5"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="380" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8897,7 +9123,7 @@
       <c r="D380" s="11"/>
       <c r="E380" s="11">
         <f t="shared" si="5"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="381" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8906,7 +9132,7 @@
       <c r="D381" s="11"/>
       <c r="E381" s="11">
         <f t="shared" si="5"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="382" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8915,7 +9141,7 @@
       <c r="D382" s="11"/>
       <c r="E382" s="11">
         <f t="shared" si="5"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="383" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8924,7 +9150,7 @@
       <c r="D383" s="11"/>
       <c r="E383" s="11">
         <f t="shared" si="5"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="384" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8933,7 +9159,7 @@
       <c r="D384" s="11"/>
       <c r="E384" s="11">
         <f t="shared" si="5"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="385" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8942,7 +9168,7 @@
       <c r="D385" s="11"/>
       <c r="E385" s="11">
         <f t="shared" si="5"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="386" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8951,7 +9177,7 @@
       <c r="D386" s="11"/>
       <c r="E386" s="11">
         <f t="shared" si="5"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="387" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8960,7 +9186,7 @@
       <c r="D387" s="11"/>
       <c r="E387" s="11">
         <f t="shared" si="5"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="388" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8969,7 +9195,7 @@
       <c r="D388" s="11"/>
       <c r="E388" s="11">
         <f t="shared" si="5"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="389" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8978,7 +9204,7 @@
       <c r="D389" s="11"/>
       <c r="E389" s="11">
         <f t="shared" si="5"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="390" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8987,7 +9213,7 @@
       <c r="D390" s="11"/>
       <c r="E390" s="11">
         <f t="shared" si="5"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="391" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -8996,7 +9222,7 @@
       <c r="D391" s="11"/>
       <c r="E391" s="11">
         <f t="shared" ref="E391:E454" si="6">E390+D391</f>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="392" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9005,7 +9231,7 @@
       <c r="D392" s="11"/>
       <c r="E392" s="11">
         <f t="shared" si="6"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="393" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9014,7 +9240,7 @@
       <c r="D393" s="11"/>
       <c r="E393" s="11">
         <f t="shared" si="6"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="394" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9023,7 +9249,7 @@
       <c r="D394" s="11"/>
       <c r="E394" s="11">
         <f t="shared" si="6"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="395" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9032,7 +9258,7 @@
       <c r="D395" s="11"/>
       <c r="E395" s="11">
         <f t="shared" si="6"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="396" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9041,7 +9267,7 @@
       <c r="D396" s="11"/>
       <c r="E396" s="11">
         <f t="shared" si="6"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="397" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9050,7 +9276,7 @@
       <c r="D397" s="11"/>
       <c r="E397" s="11">
         <f t="shared" si="6"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="398" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9059,7 +9285,7 @@
       <c r="D398" s="11"/>
       <c r="E398" s="11">
         <f t="shared" si="6"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="399" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9068,7 +9294,7 @@
       <c r="D399" s="11"/>
       <c r="E399" s="11">
         <f t="shared" si="6"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="400" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9077,7 +9303,7 @@
       <c r="D400" s="11"/>
       <c r="E400" s="11">
         <f t="shared" si="6"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="401" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9086,7 +9312,7 @@
       <c r="D401" s="11"/>
       <c r="E401" s="11">
         <f t="shared" si="6"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="402" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9095,7 +9321,7 @@
       <c r="D402" s="11"/>
       <c r="E402" s="11">
         <f t="shared" si="6"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="403" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9104,7 +9330,7 @@
       <c r="D403" s="11"/>
       <c r="E403" s="11">
         <f t="shared" si="6"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="404" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9113,7 +9339,7 @@
       <c r="D404" s="11"/>
       <c r="E404" s="11">
         <f t="shared" si="6"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="405" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9122,7 +9348,7 @@
       <c r="D405" s="11"/>
       <c r="E405" s="11">
         <f t="shared" si="6"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="406" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9131,7 +9357,7 @@
       <c r="D406" s="11"/>
       <c r="E406" s="11">
         <f t="shared" si="6"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="407" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9140,7 +9366,7 @@
       <c r="D407" s="11"/>
       <c r="E407" s="11">
         <f t="shared" si="6"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="408" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9149,7 +9375,7 @@
       <c r="D408" s="11"/>
       <c r="E408" s="11">
         <f t="shared" si="6"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="409" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9158,7 +9384,7 @@
       <c r="D409" s="11"/>
       <c r="E409" s="11">
         <f t="shared" si="6"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="410" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9167,7 +9393,7 @@
       <c r="D410" s="11"/>
       <c r="E410" s="11">
         <f t="shared" si="6"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="411" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9176,7 +9402,7 @@
       <c r="D411" s="11"/>
       <c r="E411" s="11">
         <f t="shared" si="6"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="412" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9185,7 +9411,7 @@
       <c r="D412" s="11"/>
       <c r="E412" s="11">
         <f t="shared" si="6"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="413" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9194,7 +9420,7 @@
       <c r="D413" s="11"/>
       <c r="E413" s="11">
         <f t="shared" si="6"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="414" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9203,7 +9429,7 @@
       <c r="D414" s="11"/>
       <c r="E414" s="11">
         <f t="shared" si="6"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="415" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9212,7 +9438,7 @@
       <c r="D415" s="11"/>
       <c r="E415" s="11">
         <f t="shared" si="6"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="416" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9221,7 +9447,7 @@
       <c r="D416" s="11"/>
       <c r="E416" s="11">
         <f t="shared" si="6"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="417" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9230,7 +9456,7 @@
       <c r="D417" s="11"/>
       <c r="E417" s="11">
         <f t="shared" si="6"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="418" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9239,7 +9465,7 @@
       <c r="D418" s="11"/>
       <c r="E418" s="11">
         <f t="shared" si="6"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="419" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9248,7 +9474,7 @@
       <c r="D419" s="11"/>
       <c r="E419" s="11">
         <f t="shared" si="6"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="420" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9257,7 +9483,7 @@
       <c r="D420" s="11"/>
       <c r="E420" s="11">
         <f t="shared" si="6"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="421" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9266,7 +9492,7 @@
       <c r="D421" s="11"/>
       <c r="E421" s="11">
         <f t="shared" si="6"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="422" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9275,7 +9501,7 @@
       <c r="D422" s="11"/>
       <c r="E422" s="11">
         <f t="shared" si="6"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="423" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9284,7 +9510,7 @@
       <c r="D423" s="11"/>
       <c r="E423" s="11">
         <f t="shared" si="6"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="424" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9293,7 +9519,7 @@
       <c r="D424" s="11"/>
       <c r="E424" s="11">
         <f t="shared" si="6"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="425" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9302,7 +9528,7 @@
       <c r="D425" s="11"/>
       <c r="E425" s="11">
         <f t="shared" si="6"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="426" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9311,7 +9537,7 @@
       <c r="D426" s="11"/>
       <c r="E426" s="11">
         <f t="shared" si="6"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="427" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9320,7 +9546,7 @@
       <c r="D427" s="11"/>
       <c r="E427" s="11">
         <f t="shared" si="6"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="428" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9329,7 +9555,7 @@
       <c r="D428" s="11"/>
       <c r="E428" s="11">
         <f t="shared" si="6"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="429" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9338,7 +9564,7 @@
       <c r="D429" s="11"/>
       <c r="E429" s="11">
         <f t="shared" si="6"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="430" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9347,7 +9573,7 @@
       <c r="D430" s="11"/>
       <c r="E430" s="11">
         <f t="shared" si="6"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="431" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9356,7 +9582,7 @@
       <c r="D431" s="11"/>
       <c r="E431" s="11">
         <f t="shared" si="6"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="432" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9365,7 +9591,7 @@
       <c r="D432" s="11"/>
       <c r="E432" s="11">
         <f t="shared" si="6"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="433" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9374,7 +9600,7 @@
       <c r="D433" s="11"/>
       <c r="E433" s="11">
         <f t="shared" si="6"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="434" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9383,7 +9609,7 @@
       <c r="D434" s="11"/>
       <c r="E434" s="11">
         <f t="shared" si="6"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="435" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9392,7 +9618,7 @@
       <c r="D435" s="11"/>
       <c r="E435" s="11">
         <f t="shared" si="6"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="436" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9401,7 +9627,7 @@
       <c r="D436" s="11"/>
       <c r="E436" s="11">
         <f t="shared" si="6"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="437" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9410,7 +9636,7 @@
       <c r="D437" s="11"/>
       <c r="E437" s="11">
         <f t="shared" si="6"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="438" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9419,7 +9645,7 @@
       <c r="D438" s="11"/>
       <c r="E438" s="11">
         <f t="shared" si="6"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="439" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9428,7 +9654,7 @@
       <c r="D439" s="11"/>
       <c r="E439" s="11">
         <f t="shared" si="6"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="440" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9437,7 +9663,7 @@
       <c r="D440" s="11"/>
       <c r="E440" s="11">
         <f t="shared" si="6"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="441" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9446,7 +9672,7 @@
       <c r="D441" s="11"/>
       <c r="E441" s="11">
         <f t="shared" si="6"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="442" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9455,7 +9681,7 @@
       <c r="D442" s="11"/>
       <c r="E442" s="11">
         <f t="shared" si="6"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="443" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9464,7 +9690,7 @@
       <c r="D443" s="11"/>
       <c r="E443" s="11">
         <f t="shared" si="6"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="444" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9473,7 +9699,7 @@
       <c r="D444" s="11"/>
       <c r="E444" s="11">
         <f t="shared" si="6"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="445" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9482,7 +9708,7 @@
       <c r="D445" s="11"/>
       <c r="E445" s="11">
         <f t="shared" si="6"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="446" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9491,7 +9717,7 @@
       <c r="D446" s="11"/>
       <c r="E446" s="11">
         <f t="shared" si="6"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="447" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9500,7 +9726,7 @@
       <c r="D447" s="11"/>
       <c r="E447" s="11">
         <f t="shared" si="6"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="448" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9509,7 +9735,7 @@
       <c r="D448" s="11"/>
       <c r="E448" s="11">
         <f t="shared" si="6"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="449" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9518,7 +9744,7 @@
       <c r="D449" s="11"/>
       <c r="E449" s="11">
         <f t="shared" si="6"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="450" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9527,7 +9753,7 @@
       <c r="D450" s="11"/>
       <c r="E450" s="11">
         <f t="shared" si="6"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="451" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9536,7 +9762,7 @@
       <c r="D451" s="11"/>
       <c r="E451" s="11">
         <f t="shared" si="6"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="452" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9545,7 +9771,7 @@
       <c r="D452" s="11"/>
       <c r="E452" s="11">
         <f t="shared" si="6"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="453" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9554,7 +9780,7 @@
       <c r="D453" s="11"/>
       <c r="E453" s="11">
         <f t="shared" si="6"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="454" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9563,7 +9789,7 @@
       <c r="D454" s="11"/>
       <c r="E454" s="11">
         <f t="shared" si="6"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="455" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9572,7 +9798,7 @@
       <c r="D455" s="11"/>
       <c r="E455" s="11">
         <f t="shared" ref="E455:E518" si="7">E454+D455</f>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="456" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9581,7 +9807,7 @@
       <c r="D456" s="11"/>
       <c r="E456" s="11">
         <f t="shared" si="7"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="457" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9590,7 +9816,7 @@
       <c r="D457" s="11"/>
       <c r="E457" s="11">
         <f t="shared" si="7"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="458" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9599,7 +9825,7 @@
       <c r="D458" s="11"/>
       <c r="E458" s="11">
         <f t="shared" si="7"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="459" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9608,7 +9834,7 @@
       <c r="D459" s="11"/>
       <c r="E459" s="11">
         <f t="shared" si="7"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="460" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9617,7 +9843,7 @@
       <c r="D460" s="11"/>
       <c r="E460" s="11">
         <f t="shared" si="7"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="461" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9626,7 +9852,7 @@
       <c r="D461" s="11"/>
       <c r="E461" s="11">
         <f t="shared" si="7"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="462" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9635,7 +9861,7 @@
       <c r="D462" s="11"/>
       <c r="E462" s="11">
         <f t="shared" si="7"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="463" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9644,7 +9870,7 @@
       <c r="D463" s="11"/>
       <c r="E463" s="11">
         <f t="shared" si="7"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="464" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9653,7 +9879,7 @@
       <c r="D464" s="11"/>
       <c r="E464" s="11">
         <f t="shared" si="7"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="465" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9662,7 +9888,7 @@
       <c r="D465" s="11"/>
       <c r="E465" s="11">
         <f t="shared" si="7"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="466" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9671,7 +9897,7 @@
       <c r="D466" s="11"/>
       <c r="E466" s="11">
         <f t="shared" si="7"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="467" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9680,7 +9906,7 @@
       <c r="D467" s="11"/>
       <c r="E467" s="11">
         <f t="shared" si="7"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="468" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9689,7 +9915,7 @@
       <c r="D468" s="11"/>
       <c r="E468" s="11">
         <f t="shared" si="7"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="469" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9698,7 +9924,7 @@
       <c r="D469" s="11"/>
       <c r="E469" s="11">
         <f t="shared" si="7"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="470" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9707,7 +9933,7 @@
       <c r="D470" s="11"/>
       <c r="E470" s="11">
         <f t="shared" si="7"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="471" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9716,7 +9942,7 @@
       <c r="D471" s="11"/>
       <c r="E471" s="11">
         <f t="shared" si="7"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="472" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9725,7 +9951,7 @@
       <c r="D472" s="11"/>
       <c r="E472" s="11">
         <f t="shared" si="7"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="473" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9734,7 +9960,7 @@
       <c r="D473" s="11"/>
       <c r="E473" s="11">
         <f t="shared" si="7"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="474" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9743,7 +9969,7 @@
       <c r="D474" s="11"/>
       <c r="E474" s="11">
         <f t="shared" si="7"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="475" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9752,7 +9978,7 @@
       <c r="D475" s="11"/>
       <c r="E475" s="11">
         <f t="shared" si="7"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="476" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9761,7 +9987,7 @@
       <c r="D476" s="11"/>
       <c r="E476" s="11">
         <f t="shared" si="7"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="477" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9770,7 +9996,7 @@
       <c r="D477" s="11"/>
       <c r="E477" s="11">
         <f t="shared" si="7"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="478" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9779,7 +10005,7 @@
       <c r="D478" s="11"/>
       <c r="E478" s="11">
         <f t="shared" si="7"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="479" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9788,7 +10014,7 @@
       <c r="D479" s="11"/>
       <c r="E479" s="11">
         <f t="shared" si="7"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="480" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9797,7 +10023,7 @@
       <c r="D480" s="11"/>
       <c r="E480" s="11">
         <f t="shared" si="7"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="481" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9806,7 +10032,7 @@
       <c r="D481" s="11"/>
       <c r="E481" s="11">
         <f t="shared" si="7"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="482" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9815,7 +10041,7 @@
       <c r="D482" s="11"/>
       <c r="E482" s="11">
         <f t="shared" si="7"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="483" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9824,7 +10050,7 @@
       <c r="D483" s="11"/>
       <c r="E483" s="11">
         <f t="shared" si="7"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="484" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9833,7 +10059,7 @@
       <c r="D484" s="11"/>
       <c r="E484" s="11">
         <f t="shared" si="7"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="485" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9842,7 +10068,7 @@
       <c r="D485" s="11"/>
       <c r="E485" s="11">
         <f t="shared" si="7"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="486" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9851,7 +10077,7 @@
       <c r="D486" s="11"/>
       <c r="E486" s="11">
         <f t="shared" si="7"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="487" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9860,7 +10086,7 @@
       <c r="D487" s="11"/>
       <c r="E487" s="11">
         <f t="shared" si="7"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="488" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9869,7 +10095,7 @@
       <c r="D488" s="11"/>
       <c r="E488" s="11">
         <f t="shared" si="7"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="489" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9878,7 +10104,7 @@
       <c r="D489" s="11"/>
       <c r="E489" s="11">
         <f t="shared" si="7"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="490" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9887,7 +10113,7 @@
       <c r="D490" s="11"/>
       <c r="E490" s="11">
         <f t="shared" si="7"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="491" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9896,7 +10122,7 @@
       <c r="D491" s="11"/>
       <c r="E491" s="11">
         <f t="shared" si="7"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="492" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9905,7 +10131,7 @@
       <c r="D492" s="11"/>
       <c r="E492" s="11">
         <f t="shared" si="7"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="493" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9914,7 +10140,7 @@
       <c r="D493" s="11"/>
       <c r="E493" s="11">
         <f t="shared" si="7"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="494" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9923,7 +10149,7 @@
       <c r="D494" s="11"/>
       <c r="E494" s="11">
         <f t="shared" si="7"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="495" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9932,7 +10158,7 @@
       <c r="D495" s="11"/>
       <c r="E495" s="11">
         <f t="shared" si="7"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="496" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9941,7 +10167,7 @@
       <c r="D496" s="11"/>
       <c r="E496" s="11">
         <f t="shared" si="7"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="497" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9950,7 +10176,7 @@
       <c r="D497" s="11"/>
       <c r="E497" s="11">
         <f t="shared" si="7"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="498" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9959,7 +10185,7 @@
       <c r="D498" s="11"/>
       <c r="E498" s="11">
         <f t="shared" si="7"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="499" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9968,7 +10194,7 @@
       <c r="D499" s="11"/>
       <c r="E499" s="11">
         <f t="shared" si="7"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="500" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9977,7 +10203,7 @@
       <c r="D500" s="11"/>
       <c r="E500" s="11">
         <f t="shared" si="7"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="501" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9986,7 +10212,7 @@
       <c r="D501" s="11"/>
       <c r="E501" s="11">
         <f t="shared" si="7"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="502" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -9995,7 +10221,7 @@
       <c r="D502" s="11"/>
       <c r="E502" s="11">
         <f t="shared" si="7"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="503" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -10004,7 +10230,7 @@
       <c r="D503" s="11"/>
       <c r="E503" s="11">
         <f t="shared" si="7"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="504" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -10013,7 +10239,7 @@
       <c r="D504" s="11"/>
       <c r="E504" s="11">
         <f t="shared" si="7"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="505" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -10022,7 +10248,7 @@
       <c r="D505" s="11"/>
       <c r="E505" s="11">
         <f t="shared" si="7"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="506" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -10031,7 +10257,7 @@
       <c r="D506" s="11"/>
       <c r="E506" s="11">
         <f t="shared" si="7"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="507" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -10040,7 +10266,7 @@
       <c r="D507" s="11"/>
       <c r="E507" s="11">
         <f t="shared" si="7"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="508" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -10049,7 +10275,7 @@
       <c r="D508" s="11"/>
       <c r="E508" s="11">
         <f t="shared" si="7"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="509" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -10058,7 +10284,7 @@
       <c r="D509" s="11"/>
       <c r="E509" s="11">
         <f t="shared" si="7"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="510" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -10067,7 +10293,7 @@
       <c r="D510" s="11"/>
       <c r="E510" s="11">
         <f t="shared" si="7"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="511" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -10076,7 +10302,7 @@
       <c r="D511" s="11"/>
       <c r="E511" s="11">
         <f t="shared" si="7"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="512" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -10085,7 +10311,7 @@
       <c r="D512" s="11"/>
       <c r="E512" s="11">
         <f t="shared" si="7"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="513" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -10094,7 +10320,7 @@
       <c r="D513" s="11"/>
       <c r="E513" s="11">
         <f t="shared" si="7"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="514" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -10103,7 +10329,7 @@
       <c r="D514" s="11"/>
       <c r="E514" s="11">
         <f t="shared" si="7"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="515" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -10112,7 +10338,7 @@
       <c r="D515" s="11"/>
       <c r="E515" s="11">
         <f t="shared" si="7"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="516" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -10121,7 +10347,7 @@
       <c r="D516" s="11"/>
       <c r="E516" s="11">
         <f t="shared" si="7"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="517" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -10130,7 +10356,7 @@
       <c r="D517" s="11"/>
       <c r="E517" s="11">
         <f t="shared" si="7"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="518" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -10139,7 +10365,7 @@
       <c r="D518" s="11"/>
       <c r="E518" s="11">
         <f t="shared" si="7"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="519" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -10148,7 +10374,7 @@
       <c r="D519" s="11"/>
       <c r="E519" s="11">
         <f t="shared" ref="E519:E542" si="8">E518+D519</f>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="520" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -10157,7 +10383,7 @@
       <c r="D520" s="11"/>
       <c r="E520" s="11">
         <f t="shared" si="8"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="521" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -10166,7 +10392,7 @@
       <c r="D521" s="11"/>
       <c r="E521" s="11">
         <f t="shared" si="8"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="522" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -10175,7 +10401,7 @@
       <c r="D522" s="11"/>
       <c r="E522" s="11">
         <f t="shared" si="8"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="523" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -10184,7 +10410,7 @@
       <c r="D523" s="11"/>
       <c r="E523" s="11">
         <f t="shared" si="8"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="524" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -10193,7 +10419,7 @@
       <c r="D524" s="11"/>
       <c r="E524" s="11">
         <f t="shared" si="8"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="525" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -10202,7 +10428,7 @@
       <c r="D525" s="11"/>
       <c r="E525" s="11">
         <f t="shared" si="8"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="526" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -10211,7 +10437,7 @@
       <c r="D526" s="11"/>
       <c r="E526" s="11">
         <f t="shared" si="8"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="527" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -10220,7 +10446,7 @@
       <c r="D527" s="11"/>
       <c r="E527" s="11">
         <f t="shared" si="8"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="528" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -10229,7 +10455,7 @@
       <c r="D528" s="11"/>
       <c r="E528" s="11">
         <f t="shared" si="8"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="529" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -10238,7 +10464,7 @@
       <c r="D529" s="11"/>
       <c r="E529" s="11">
         <f t="shared" si="8"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="530" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -10247,7 +10473,7 @@
       <c r="D530" s="11"/>
       <c r="E530" s="11">
         <f t="shared" si="8"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="531" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -10256,7 +10482,7 @@
       <c r="D531" s="11"/>
       <c r="E531" s="11">
         <f t="shared" si="8"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="532" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -10265,7 +10491,7 @@
       <c r="D532" s="11"/>
       <c r="E532" s="11">
         <f t="shared" si="8"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="533" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -10274,7 +10500,7 @@
       <c r="D533" s="11"/>
       <c r="E533" s="11">
         <f t="shared" si="8"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="534" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -10283,7 +10509,7 @@
       <c r="D534" s="11"/>
       <c r="E534" s="11">
         <f t="shared" si="8"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="535" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -10292,7 +10518,7 @@
       <c r="D535" s="11"/>
       <c r="E535" s="11">
         <f t="shared" si="8"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="536" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -10301,7 +10527,7 @@
       <c r="D536" s="11"/>
       <c r="E536" s="11">
         <f t="shared" si="8"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="537" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -10310,7 +10536,7 @@
       <c r="D537" s="11"/>
       <c r="E537" s="11">
         <f t="shared" si="8"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="538" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -10319,7 +10545,7 @@
       <c r="D538" s="11"/>
       <c r="E538" s="11">
         <f t="shared" si="8"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="539" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -10328,7 +10554,7 @@
       <c r="D539" s="11"/>
       <c r="E539" s="11">
         <f t="shared" si="8"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="540" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -10337,7 +10563,7 @@
       <c r="D540" s="11"/>
       <c r="E540" s="11">
         <f t="shared" si="8"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="541" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -10346,7 +10572,7 @@
       <c r="D541" s="11"/>
       <c r="E541" s="11">
         <f t="shared" si="8"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="542" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -10355,7 +10581,7 @@
       <c r="D542" s="1"/>
       <c r="E542" s="11">
         <f t="shared" si="8"/>
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
   </sheetData>
@@ -10386,37 +10612,37 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="31.2" x14ac:dyDescent="0.6">
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="110" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
     </row>
     <row r="3" spans="2:11" ht="21" x14ac:dyDescent="0.3">
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="56" t="s">
+      <c r="E3" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="56" t="s">
+      <c r="F3" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="57" t="s">
+      <c r="G3" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
     </row>
     <row r="4" spans="2:11" ht="21" x14ac:dyDescent="0.3">
       <c r="B4" s="4"/>
@@ -10429,7 +10655,7 @@
       </c>
     </row>
     <row r="5" spans="2:11" ht="21" x14ac:dyDescent="0.4">
-      <c r="B5" s="71">
+      <c r="B5" s="70">
         <v>45139</v>
       </c>
       <c r="C5" s="1"/>

--- a/LEDGER.xlsx
+++ b/LEDGER.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="94">
   <si>
     <t>DATE</t>
   </si>
@@ -406,9 +406,6 @@
     <t>HAVELI</t>
   </si>
   <si>
-    <t>NOT PAYED</t>
-  </si>
-  <si>
     <t>ALI PLUMBER</t>
   </si>
   <si>
@@ -416,6 +413,21 @@
   </si>
   <si>
     <t>EXEVATOR</t>
+  </si>
+  <si>
+    <t>ROOM MAZDOORI</t>
+  </si>
+  <si>
+    <t>OFFICE</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>SHEIKHU STEEL</t>
+  </si>
+  <si>
+    <t>NOT PAYED</t>
   </si>
 </sst>
 </file>
@@ -557,16 +569,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="1"/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1029,7 +1040,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1059,10 +1074,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1410,8 +1421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H108" sqref="H108"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="P46" sqref="P46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1421,14 +1432,14 @@
     <col min="4" max="4" width="32.44140625" customWidth="1"/>
     <col min="5" max="5" width="9.77734375" customWidth="1"/>
     <col min="6" max="7" width="12.44140625" customWidth="1"/>
-    <col min="8" max="8" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.6640625" customWidth="1"/>
     <col min="10" max="10" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.21875" customWidth="1"/>
     <col min="13" max="13" width="16.88671875" customWidth="1"/>
     <col min="14" max="14" width="10.33203125" customWidth="1"/>
-    <col min="15" max="15" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.109375" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1470,16 +1481,16 @@
       </c>
     </row>
     <row r="3" spans="2:17" ht="21" x14ac:dyDescent="0.4">
-      <c r="B3" s="110" t="s">
+      <c r="B3" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="112"/>
       <c r="K3" s="3">
         <v>2</v>
       </c>
@@ -1488,23 +1499,23 @@
       </c>
       <c r="M3" s="60"/>
       <c r="N3" s="68">
-        <f t="shared" ref="N3:N5" si="0">SUMIF($C$2:$C$1000, K3, $E$2:$E$1000)</f>
-        <v>4</v>
+        <f t="shared" ref="N3:N9" si="0">SUMIF($C$2:$C$1000, K3, $E$2:$E$1000)</f>
+        <v>5</v>
       </c>
       <c r="O3" s="59">
         <f t="shared" ref="O3:O16" si="1">SUMIF($C$2:$C$1000, K3, $H$2:$H$1000)</f>
-        <v>85000</v>
+        <v>107000</v>
       </c>
     </row>
     <row r="4" spans="2:17" ht="21" x14ac:dyDescent="0.4">
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="110"/>
-      <c r="H4" s="110"/>
-      <c r="I4" s="110"/>
+      <c r="B4" s="112"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="112"/>
       <c r="K4" s="3">
         <v>3</v>
       </c>
@@ -1514,15 +1525,15 @@
       <c r="M4" s="61"/>
       <c r="N4" s="68">
         <f t="shared" si="0"/>
-        <v>230</v>
+        <v>280</v>
       </c>
       <c r="O4" s="59">
         <f t="shared" si="1"/>
-        <v>268950</v>
+        <v>327950</v>
       </c>
       <c r="P4" s="20">
         <f>O4/N4</f>
-        <v>1169.3478260869565</v>
+        <v>1171.25</v>
       </c>
     </row>
     <row r="5" spans="2:17" ht="21" x14ac:dyDescent="0.4">
@@ -1582,7 +1593,10 @@
       <c r="K6" s="3"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="68"/>
+      <c r="N6" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="O6" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1615,7 +1629,10 @@
         <v>29</v>
       </c>
       <c r="M7" s="64"/>
-      <c r="N7" s="68"/>
+      <c r="N7" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="O7" s="59">
         <f t="shared" si="1"/>
         <v>103000</v>
@@ -1648,15 +1665,18 @@
         <v>34</v>
       </c>
       <c r="M8" s="65"/>
-      <c r="N8" s="68"/>
+      <c r="N8" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="O8" s="59">
         <f t="shared" si="1"/>
         <v>210000</v>
       </c>
-      <c r="P8" s="113" t="s">
+      <c r="P8" s="115" t="s">
         <v>75</v>
       </c>
-      <c r="Q8" s="114"/>
+      <c r="Q8" s="116"/>
     </row>
     <row r="9" spans="2:17" ht="21" x14ac:dyDescent="0.4">
       <c r="B9" s="13">
@@ -1687,10 +1707,13 @@
         <v>56</v>
       </c>
       <c r="M9" s="75"/>
-      <c r="N9" s="68"/>
+      <c r="N9" s="68">
+        <f t="shared" si="0"/>
+        <v>5467.4</v>
+      </c>
       <c r="O9" s="59">
         <f t="shared" si="1"/>
-        <v>174999.4</v>
+        <v>1436581.66</v>
       </c>
     </row>
     <row r="10" spans="2:17" ht="21" x14ac:dyDescent="0.4">
@@ -1723,7 +1746,7 @@
       <c r="N10" s="68"/>
       <c r="O10" s="59">
         <f t="shared" si="1"/>
-        <v>17918</v>
+        <v>24168</v>
       </c>
     </row>
     <row r="11" spans="2:17" ht="21" x14ac:dyDescent="0.4">
@@ -1763,7 +1786,7 @@
       <c r="N11" s="68"/>
       <c r="O11" s="59">
         <f t="shared" si="1"/>
-        <v>99495</v>
+        <v>107795</v>
       </c>
     </row>
     <row r="12" spans="2:17" ht="21" x14ac:dyDescent="0.4">
@@ -2407,7 +2430,7 @@
       </c>
       <c r="G38" s="43"/>
       <c r="H38" s="44">
-        <f t="shared" ref="H38:H99" si="3">(E38*F38)+G38</f>
+        <f t="shared" ref="H38:H74" si="3">(E38*F38)+G38</f>
         <v>124000</v>
       </c>
       <c r="I38" s="11">
@@ -3660,7 +3683,7 @@
         <f t="shared" si="9"/>
         <v>1080205</v>
       </c>
-      <c r="J86" s="111" t="s">
+      <c r="J86" s="113" t="s">
         <v>60</v>
       </c>
       <c r="K86" s="20"/>
@@ -3692,7 +3715,7 @@
         <f t="shared" si="9"/>
         <v>1113011.8</v>
       </c>
-      <c r="J87" s="112"/>
+      <c r="J87" s="114"/>
     </row>
     <row r="88" spans="2:17" ht="21" x14ac:dyDescent="0.4">
       <c r="B88" s="98">
@@ -3705,19 +3728,18 @@
         <v>70</v>
       </c>
       <c r="E88" s="100">
-        <v>121.4</v>
+        <v>0</v>
       </c>
       <c r="F88" s="100">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G88" s="100"/>
       <c r="H88" s="101">
-        <f>E88*F88</f>
-        <v>1092.6000000000001</v>
+        <v>1100</v>
       </c>
       <c r="I88" s="11">
         <f t="shared" si="9"/>
-        <v>1114104.4000000001</v>
+        <v>1114111.8</v>
       </c>
       <c r="J88" t="s">
         <v>68</v>
@@ -3739,7 +3761,7 @@
       </c>
       <c r="I89" s="11">
         <f t="shared" si="9"/>
-        <v>1117904.4000000001</v>
+        <v>1117911.8</v>
       </c>
       <c r="J89" t="s">
         <v>68</v>
@@ -3763,7 +3785,7 @@
       </c>
       <c r="I90" s="11">
         <f t="shared" si="9"/>
-        <v>1137904.4000000001</v>
+        <v>1137911.8</v>
       </c>
       <c r="J90" t="s">
         <v>68</v>
@@ -3794,7 +3816,7 @@
       </c>
       <c r="I91" s="11">
         <f t="shared" si="9"/>
-        <v>1166404.4000000001</v>
+        <v>1166411.8</v>
       </c>
       <c r="J91" t="s">
         <v>60</v>
@@ -3818,7 +3840,7 @@
       </c>
       <c r="I92" s="11">
         <f t="shared" si="9"/>
-        <v>1168604.4000000001</v>
+        <v>1168611.8</v>
       </c>
       <c r="J92" s="67" t="s">
         <v>46</v>
@@ -3847,7 +3869,7 @@
       </c>
       <c r="I93" s="11">
         <f t="shared" si="9"/>
-        <v>1170154.4000000001</v>
+        <v>1170161.8</v>
       </c>
       <c r="J93" s="20">
         <f>K92-H92</f>
@@ -3872,7 +3894,7 @@
       </c>
       <c r="I94" s="11">
         <f t="shared" si="9"/>
-        <v>1172154.4000000001</v>
+        <v>1172161.8</v>
       </c>
       <c r="J94" s="20">
         <f>J93-H93</f>
@@ -3899,7 +3921,7 @@
       </c>
       <c r="I95" s="11">
         <f t="shared" si="9"/>
-        <v>1193154.4000000001</v>
+        <v>1193161.8</v>
       </c>
       <c r="J95" s="20">
         <f>J94-H94</f>
@@ -3940,7 +3962,7 @@
       </c>
       <c r="I96" s="11">
         <f t="shared" si="9"/>
-        <v>1221654.4000000001</v>
+        <v>1221661.8</v>
       </c>
       <c r="J96" s="20" t="s">
         <v>60</v>
@@ -3972,7 +3994,7 @@
       </c>
       <c r="I97" s="11">
         <f t="shared" si="9"/>
-        <v>1242654.4000000001</v>
+        <v>1242661.8</v>
       </c>
       <c r="J97" s="67" t="s">
         <v>46</v>
@@ -4012,10 +4034,10 @@
       </c>
       <c r="I98" s="11">
         <f t="shared" si="9"/>
-        <v>1272154.4000000001</v>
-      </c>
-      <c r="J98" s="109" t="s">
-        <v>86</v>
+        <v>1272161.8</v>
+      </c>
+      <c r="J98" s="111" t="s">
+        <v>60</v>
       </c>
       <c r="O98" s="105">
         <v>3064013703</v>
@@ -4023,7 +4045,7 @@
       <c r="P98" s="106" t="s">
         <v>84</v>
       </c>
-      <c r="Q98" s="115" t="s">
+      <c r="Q98" s="117" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4045,13 +4067,17 @@
       </c>
       <c r="I99" s="11">
         <f t="shared" si="9"/>
-        <v>1352154.4000000001</v>
+        <v>1352161.8</v>
+      </c>
+      <c r="J99" s="70">
+        <f>K97-H97+J95-40000</f>
+        <v>6250</v>
       </c>
       <c r="O99" s="107">
         <v>3024388710</v>
       </c>
       <c r="P99" s="108"/>
-      <c r="Q99" s="116"/>
+      <c r="Q99" s="118"/>
     </row>
     <row r="100" spans="2:17" ht="21" x14ac:dyDescent="0.4">
       <c r="B100" s="12">
@@ -4061,7 +4087,7 @@
         <v>9</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E100" s="3"/>
       <c r="F100" s="3"/>
@@ -4071,7 +4097,10 @@
       </c>
       <c r="I100" s="11">
         <f t="shared" si="9"/>
-        <v>1357154.4000000001</v>
+        <v>1357161.8</v>
+      </c>
+      <c r="J100" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="101" spans="2:17" ht="21" x14ac:dyDescent="0.4">
@@ -4090,186 +4119,303 @@
       </c>
       <c r="I101" s="11">
         <f t="shared" si="9"/>
-        <v>1359504.4000000001</v>
+        <v>1359511.8</v>
+      </c>
+      <c r="J101" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="102" spans="2:17" ht="21" x14ac:dyDescent="0.4">
-      <c r="B102" s="3"/>
-      <c r="C102" s="9"/>
-      <c r="D102" s="3"/>
+      <c r="B102" s="12">
+        <v>45150</v>
+      </c>
+      <c r="C102" s="9">
+        <v>9</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="E102" s="3"/>
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
       <c r="H102" s="37">
-        <f t="shared" ref="H100:H163" si="17">(E102*F102)+G102</f>
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="I102" s="11">
         <f t="shared" si="9"/>
-        <v>1359504.4000000001</v>
+        <v>1362011.8</v>
+      </c>
+      <c r="J102" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="103" spans="2:17" ht="21" x14ac:dyDescent="0.4">
-      <c r="B103" s="3"/>
+      <c r="B103" s="12">
+        <v>45150</v>
+      </c>
       <c r="C103" s="9"/>
-      <c r="D103" s="3"/>
+      <c r="D103" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E103" s="3"/>
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
       <c r="H103" s="37">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="I103" s="11">
         <f t="shared" si="9"/>
-        <v>1359504.4000000001</v>
+        <v>1363411.8</v>
+      </c>
+      <c r="J103" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="104" spans="2:17" ht="21" x14ac:dyDescent="0.4">
-      <c r="B104" s="3"/>
-      <c r="C104" s="9"/>
-      <c r="D104" s="3"/>
-      <c r="E104" s="3"/>
-      <c r="F104" s="3"/>
-      <c r="G104" s="3"/>
-      <c r="H104" s="37">
-        <f t="shared" si="17"/>
-        <v>0</v>
+      <c r="B104" s="79">
+        <v>45150</v>
+      </c>
+      <c r="C104" s="80">
+        <v>8</v>
+      </c>
+      <c r="D104" s="81" t="s">
+        <v>14</v>
+      </c>
+      <c r="E104" s="81"/>
+      <c r="F104" s="81"/>
+      <c r="G104" s="81"/>
+      <c r="H104" s="83">
+        <v>6250</v>
       </c>
       <c r="I104" s="11">
         <f t="shared" si="9"/>
-        <v>1359504.4000000001</v>
+        <v>1369661.8</v>
+      </c>
+      <c r="J104" s="20">
+        <f>J99-H104</f>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="2:17" ht="21" x14ac:dyDescent="0.4">
-      <c r="B105" s="3"/>
-      <c r="C105" s="9"/>
-      <c r="D105" s="3"/>
-      <c r="E105" s="3"/>
-      <c r="F105" s="3"/>
-      <c r="G105" s="3"/>
-      <c r="H105" s="37">
-        <f t="shared" si="17"/>
-        <v>0</v>
+      <c r="B105" s="27">
+        <v>45151</v>
+      </c>
+      <c r="C105" s="49">
+        <v>3</v>
+      </c>
+      <c r="D105" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E105" s="28">
+        <v>25</v>
+      </c>
+      <c r="F105" s="28">
+        <v>1160</v>
+      </c>
+      <c r="G105" s="28">
+        <v>500</v>
+      </c>
+      <c r="H105" s="29">
+        <f t="shared" ref="H105" si="17">(E105*F105)+G105</f>
+        <v>29500</v>
       </c>
       <c r="I105" s="11">
         <f t="shared" si="9"/>
-        <v>1359504.4000000001</v>
+        <v>1399161.8</v>
+      </c>
+      <c r="J105" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="106" spans="2:17" ht="21" x14ac:dyDescent="0.4">
-      <c r="B106" s="3"/>
-      <c r="C106" s="9"/>
-      <c r="D106" s="3"/>
+      <c r="B106" s="12">
+        <v>45151</v>
+      </c>
+      <c r="C106" s="9">
+        <v>9</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="E106" s="3"/>
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
       <c r="H106" s="37">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="I106" s="11">
         <f t="shared" si="9"/>
-        <v>1359504.4000000001</v>
+        <v>1400461.8</v>
+      </c>
+      <c r="J106" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="107" spans="2:17" ht="21" x14ac:dyDescent="0.4">
-      <c r="B107" s="3"/>
-      <c r="C107" s="9"/>
-      <c r="D107" s="3"/>
+      <c r="B107" s="12">
+        <v>45151</v>
+      </c>
+      <c r="C107" s="9">
+        <v>9</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="E107" s="3"/>
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
       <c r="H107" s="37">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="I107" s="11">
         <f t="shared" si="9"/>
-        <v>1359504.4000000001</v>
+        <v>1402461.8</v>
+      </c>
+      <c r="J107" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="108" spans="2:17" ht="21" x14ac:dyDescent="0.4">
-      <c r="B108" s="3"/>
-      <c r="C108" s="9"/>
-      <c r="D108" s="3"/>
-      <c r="E108" s="3"/>
-      <c r="F108" s="3"/>
-      <c r="G108" s="3"/>
-      <c r="H108" s="37">
-        <f t="shared" si="17"/>
-        <v>0</v>
+      <c r="B108" s="98">
+        <v>45152</v>
+      </c>
+      <c r="C108" s="99">
+        <v>7</v>
+      </c>
+      <c r="D108" s="100" t="s">
+        <v>92</v>
+      </c>
+      <c r="E108" s="100">
+        <v>5346</v>
+      </c>
+      <c r="F108" s="100">
+        <v>235.91</v>
+      </c>
+      <c r="G108" s="100"/>
+      <c r="H108" s="101">
+        <f>(E108*F108)+G108+400</f>
+        <v>1261574.8599999999</v>
       </c>
       <c r="I108" s="11">
         <f t="shared" si="9"/>
-        <v>1359504.4000000001</v>
+        <v>2664036.66</v>
+      </c>
+      <c r="J108" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="109" spans="2:17" ht="21" x14ac:dyDescent="0.4">
-      <c r="B109" s="3"/>
-      <c r="C109" s="9"/>
-      <c r="D109" s="3"/>
-      <c r="E109" s="3"/>
-      <c r="F109" s="3"/>
-      <c r="G109" s="3"/>
-      <c r="H109" s="37">
-        <f t="shared" si="17"/>
-        <v>0</v>
+      <c r="B109" s="13">
+        <v>45154</v>
+      </c>
+      <c r="C109" s="76">
+        <v>2</v>
+      </c>
+      <c r="D109" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E109" s="15">
+        <v>1</v>
+      </c>
+      <c r="F109" s="15"/>
+      <c r="G109" s="15"/>
+      <c r="H109" s="16">
+        <v>22000</v>
       </c>
       <c r="I109" s="11">
         <f t="shared" si="9"/>
-        <v>1359504.4000000001</v>
+        <v>2686036.66</v>
+      </c>
+      <c r="J109" s="67" t="s">
+        <v>46</v>
+      </c>
+      <c r="K109" s="70">
+        <v>100000</v>
+      </c>
+      <c r="L109" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="110" spans="2:17" ht="21" x14ac:dyDescent="0.4">
-      <c r="B110" s="3"/>
+      <c r="B110" s="12">
+        <v>45154</v>
+      </c>
       <c r="C110" s="9"/>
-      <c r="D110" s="3"/>
+      <c r="D110" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E110" s="3"/>
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
       <c r="H110" s="37">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="I110" s="11">
         <f t="shared" si="9"/>
-        <v>1359504.4000000001</v>
+        <v>2687386.66</v>
+      </c>
+      <c r="J110" s="20">
+        <f>K109-H109</f>
+        <v>78000</v>
       </c>
     </row>
     <row r="111" spans="2:17" ht="21" x14ac:dyDescent="0.4">
-      <c r="B111" s="3"/>
-      <c r="C111" s="9"/>
-      <c r="D111" s="3"/>
+      <c r="B111" s="12">
+        <v>45154</v>
+      </c>
+      <c r="C111" s="9">
+        <v>9</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="E111" s="3"/>
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
       <c r="H111" s="37">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="I111" s="11">
         <f t="shared" si="9"/>
-        <v>1359504.4000000001</v>
+        <v>2689886.66</v>
+      </c>
+      <c r="J111" s="20">
+        <f>J110-H110</f>
+        <v>76650</v>
       </c>
     </row>
     <row r="112" spans="2:17" ht="21" x14ac:dyDescent="0.4">
-      <c r="B112" s="3"/>
-      <c r="C112" s="9"/>
-      <c r="D112" s="3"/>
-      <c r="E112" s="3"/>
-      <c r="F112" s="3"/>
-      <c r="G112" s="3"/>
-      <c r="H112" s="37">
-        <f t="shared" si="17"/>
-        <v>0</v>
+      <c r="B112" s="27">
+        <v>45154</v>
+      </c>
+      <c r="C112" s="49">
+        <v>3</v>
+      </c>
+      <c r="D112" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E112" s="28">
+        <v>25</v>
+      </c>
+      <c r="F112" s="28">
+        <v>1160</v>
+      </c>
+      <c r="G112" s="28">
+        <v>500</v>
+      </c>
+      <c r="H112" s="29">
+        <f t="shared" ref="H112" si="18">(E112*F112)+G112</f>
+        <v>29500</v>
       </c>
       <c r="I112" s="11">
         <f t="shared" si="9"/>
-        <v>1359504.4000000001</v>
-      </c>
-    </row>
-    <row r="113" spans="2:9" ht="21" x14ac:dyDescent="0.4">
+        <v>2719386.66</v>
+      </c>
+      <c r="J112" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="113" spans="2:10" ht="21" x14ac:dyDescent="0.4">
       <c r="B113" s="3"/>
       <c r="C113" s="9"/>
       <c r="D113" s="3"/>
@@ -4277,15 +4423,19 @@
       <c r="F113" s="3"/>
       <c r="G113" s="3"/>
       <c r="H113" s="37">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="H109:H163" si="19">(E113*F113)+G113</f>
         <v>0</v>
       </c>
       <c r="I113" s="11">
         <f t="shared" si="9"/>
-        <v>1359504.4000000001</v>
-      </c>
-    </row>
-    <row r="114" spans="2:9" ht="21" x14ac:dyDescent="0.4">
+        <v>2719386.66</v>
+      </c>
+      <c r="J113" s="20">
+        <f>J111-H111</f>
+        <v>74150</v>
+      </c>
+    </row>
+    <row r="114" spans="2:10" ht="21" x14ac:dyDescent="0.4">
       <c r="B114" s="3"/>
       <c r="C114" s="9"/>
       <c r="D114" s="3"/>
@@ -4293,15 +4443,15 @@
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
       <c r="H114" s="37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I114" s="11">
         <f t="shared" si="9"/>
-        <v>1359504.4000000001</v>
-      </c>
-    </row>
-    <row r="115" spans="2:9" ht="21" x14ac:dyDescent="0.4">
+        <v>2719386.66</v>
+      </c>
+    </row>
+    <row r="115" spans="2:10" ht="21" x14ac:dyDescent="0.4">
       <c r="B115" s="3"/>
       <c r="C115" s="9"/>
       <c r="D115" s="3"/>
@@ -4309,15 +4459,15 @@
       <c r="F115" s="3"/>
       <c r="G115" s="3"/>
       <c r="H115" s="37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I115" s="11">
         <f t="shared" si="9"/>
-        <v>1359504.4000000001</v>
-      </c>
-    </row>
-    <row r="116" spans="2:9" ht="21" x14ac:dyDescent="0.4">
+        <v>2719386.66</v>
+      </c>
+    </row>
+    <row r="116" spans="2:10" ht="21" x14ac:dyDescent="0.4">
       <c r="B116" s="3"/>
       <c r="C116" s="9"/>
       <c r="D116" s="3"/>
@@ -4325,15 +4475,15 @@
       <c r="F116" s="3"/>
       <c r="G116" s="3"/>
       <c r="H116" s="37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I116" s="11">
         <f t="shared" si="9"/>
-        <v>1359504.4000000001</v>
-      </c>
-    </row>
-    <row r="117" spans="2:9" ht="21" x14ac:dyDescent="0.4">
+        <v>2719386.66</v>
+      </c>
+    </row>
+    <row r="117" spans="2:10" ht="21" x14ac:dyDescent="0.4">
       <c r="B117" s="3"/>
       <c r="C117" s="9"/>
       <c r="D117" s="3"/>
@@ -4341,15 +4491,15 @@
       <c r="F117" s="3"/>
       <c r="G117" s="3"/>
       <c r="H117" s="37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I117" s="11">
         <f t="shared" si="9"/>
-        <v>1359504.4000000001</v>
-      </c>
-    </row>
-    <row r="118" spans="2:9" ht="21" x14ac:dyDescent="0.4">
+        <v>2719386.66</v>
+      </c>
+    </row>
+    <row r="118" spans="2:10" ht="21" x14ac:dyDescent="0.4">
       <c r="B118" s="3"/>
       <c r="C118" s="9"/>
       <c r="D118" s="3"/>
@@ -4357,15 +4507,15 @@
       <c r="F118" s="3"/>
       <c r="G118" s="3"/>
       <c r="H118" s="37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I118" s="11">
         <f t="shared" si="9"/>
-        <v>1359504.4000000001</v>
-      </c>
-    </row>
-    <row r="119" spans="2:9" ht="21" x14ac:dyDescent="0.4">
+        <v>2719386.66</v>
+      </c>
+    </row>
+    <row r="119" spans="2:10" ht="21" x14ac:dyDescent="0.4">
       <c r="B119" s="3"/>
       <c r="C119" s="9"/>
       <c r="D119" s="3"/>
@@ -4373,15 +4523,15 @@
       <c r="F119" s="3"/>
       <c r="G119" s="3"/>
       <c r="H119" s="37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I119" s="11">
         <f t="shared" si="9"/>
-        <v>1359504.4000000001</v>
-      </c>
-    </row>
-    <row r="120" spans="2:9" ht="21" x14ac:dyDescent="0.4">
+        <v>2719386.66</v>
+      </c>
+    </row>
+    <row r="120" spans="2:10" ht="21" x14ac:dyDescent="0.4">
       <c r="B120" s="3"/>
       <c r="C120" s="9"/>
       <c r="D120" s="3"/>
@@ -4389,15 +4539,15 @@
       <c r="F120" s="3"/>
       <c r="G120" s="3"/>
       <c r="H120" s="37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I120" s="11">
         <f t="shared" si="9"/>
-        <v>1359504.4000000001</v>
-      </c>
-    </row>
-    <row r="121" spans="2:9" ht="21" x14ac:dyDescent="0.4">
+        <v>2719386.66</v>
+      </c>
+    </row>
+    <row r="121" spans="2:10" ht="21" x14ac:dyDescent="0.4">
       <c r="B121" s="3"/>
       <c r="C121" s="9"/>
       <c r="D121" s="3"/>
@@ -4405,15 +4555,15 @@
       <c r="F121" s="3"/>
       <c r="G121" s="3"/>
       <c r="H121" s="37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I121" s="11">
         <f t="shared" si="9"/>
-        <v>1359504.4000000001</v>
-      </c>
-    </row>
-    <row r="122" spans="2:9" ht="21" x14ac:dyDescent="0.4">
+        <v>2719386.66</v>
+      </c>
+    </row>
+    <row r="122" spans="2:10" ht="21" x14ac:dyDescent="0.4">
       <c r="B122" s="3"/>
       <c r="C122" s="9"/>
       <c r="D122" s="3"/>
@@ -4421,15 +4571,15 @@
       <c r="F122" s="3"/>
       <c r="G122" s="3"/>
       <c r="H122" s="37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I122" s="11">
         <f t="shared" si="9"/>
-        <v>1359504.4000000001</v>
-      </c>
-    </row>
-    <row r="123" spans="2:9" ht="21" x14ac:dyDescent="0.4">
+        <v>2719386.66</v>
+      </c>
+    </row>
+    <row r="123" spans="2:10" ht="21" x14ac:dyDescent="0.4">
       <c r="B123" s="3"/>
       <c r="C123" s="9"/>
       <c r="D123" s="3"/>
@@ -4437,15 +4587,15 @@
       <c r="F123" s="3"/>
       <c r="G123" s="3"/>
       <c r="H123" s="37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I123" s="11">
         <f t="shared" si="9"/>
-        <v>1359504.4000000001</v>
-      </c>
-    </row>
-    <row r="124" spans="2:9" ht="21" x14ac:dyDescent="0.4">
+        <v>2719386.66</v>
+      </c>
+    </row>
+    <row r="124" spans="2:10" ht="21" x14ac:dyDescent="0.4">
       <c r="B124" s="3"/>
       <c r="C124" s="9"/>
       <c r="D124" s="3"/>
@@ -4453,15 +4603,15 @@
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
       <c r="H124" s="37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I124" s="11">
         <f t="shared" si="9"/>
-        <v>1359504.4000000001</v>
-      </c>
-    </row>
-    <row r="125" spans="2:9" ht="21" x14ac:dyDescent="0.4">
+        <v>2719386.66</v>
+      </c>
+    </row>
+    <row r="125" spans="2:10" ht="21" x14ac:dyDescent="0.4">
       <c r="B125" s="3"/>
       <c r="C125" s="9"/>
       <c r="D125" s="3"/>
@@ -4469,15 +4619,15 @@
       <c r="F125" s="3"/>
       <c r="G125" s="3"/>
       <c r="H125" s="37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I125" s="11">
         <f t="shared" si="9"/>
-        <v>1359504.4000000001</v>
-      </c>
-    </row>
-    <row r="126" spans="2:9" ht="21" x14ac:dyDescent="0.4">
+        <v>2719386.66</v>
+      </c>
+    </row>
+    <row r="126" spans="2:10" ht="21" x14ac:dyDescent="0.4">
       <c r="B126" s="3"/>
       <c r="C126" s="9"/>
       <c r="D126" s="3"/>
@@ -4485,15 +4635,15 @@
       <c r="F126" s="3"/>
       <c r="G126" s="3"/>
       <c r="H126" s="37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I126" s="11">
         <f t="shared" si="9"/>
-        <v>1359504.4000000001</v>
-      </c>
-    </row>
-    <row r="127" spans="2:9" ht="21" x14ac:dyDescent="0.4">
+        <v>2719386.66</v>
+      </c>
+    </row>
+    <row r="127" spans="2:10" ht="21" x14ac:dyDescent="0.4">
       <c r="B127" s="3"/>
       <c r="C127" s="9"/>
       <c r="D127" s="3"/>
@@ -4501,15 +4651,15 @@
       <c r="F127" s="3"/>
       <c r="G127" s="3"/>
       <c r="H127" s="37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I127" s="11">
         <f t="shared" si="9"/>
-        <v>1359504.4000000001</v>
-      </c>
-    </row>
-    <row r="128" spans="2:9" ht="21" x14ac:dyDescent="0.4">
+        <v>2719386.66</v>
+      </c>
+    </row>
+    <row r="128" spans="2:10" ht="21" x14ac:dyDescent="0.4">
       <c r="B128" s="3"/>
       <c r="C128" s="9"/>
       <c r="D128" s="3"/>
@@ -4517,12 +4667,12 @@
       <c r="F128" s="3"/>
       <c r="G128" s="3"/>
       <c r="H128" s="37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I128" s="11">
         <f t="shared" si="9"/>
-        <v>1359504.4000000001</v>
+        <v>2719386.66</v>
       </c>
     </row>
     <row r="129" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4533,12 +4683,12 @@
       <c r="F129" s="3"/>
       <c r="G129" s="3"/>
       <c r="H129" s="37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I129" s="11">
         <f t="shared" si="9"/>
-        <v>1359504.4000000001</v>
+        <v>2719386.66</v>
       </c>
     </row>
     <row r="130" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4549,12 +4699,12 @@
       <c r="F130" s="3"/>
       <c r="G130" s="3"/>
       <c r="H130" s="37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I130" s="11">
         <f t="shared" si="9"/>
-        <v>1359504.4000000001</v>
+        <v>2719386.66</v>
       </c>
     </row>
     <row r="131" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4565,12 +4715,12 @@
       <c r="F131" s="3"/>
       <c r="G131" s="3"/>
       <c r="H131" s="37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I131" s="11">
         <f t="shared" si="9"/>
-        <v>1359504.4000000001</v>
+        <v>2719386.66</v>
       </c>
     </row>
     <row r="132" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4581,12 +4731,12 @@
       <c r="F132" s="3"/>
       <c r="G132" s="3"/>
       <c r="H132" s="37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I132" s="11">
         <f t="shared" si="9"/>
-        <v>1359504.4000000001</v>
+        <v>2719386.66</v>
       </c>
     </row>
     <row r="133" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4597,12 +4747,12 @@
       <c r="F133" s="3"/>
       <c r="G133" s="3"/>
       <c r="H133" s="37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I133" s="11">
         <f t="shared" si="9"/>
-        <v>1359504.4000000001</v>
+        <v>2719386.66</v>
       </c>
     </row>
     <row r="134" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4613,12 +4763,12 @@
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
       <c r="H134" s="37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I134" s="11">
         <f t="shared" si="9"/>
-        <v>1359504.4000000001</v>
+        <v>2719386.66</v>
       </c>
     </row>
     <row r="135" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4629,12 +4779,12 @@
       <c r="F135" s="3"/>
       <c r="G135" s="3"/>
       <c r="H135" s="37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I135" s="11">
         <f t="shared" si="9"/>
-        <v>1359504.4000000001</v>
+        <v>2719386.66</v>
       </c>
     </row>
     <row r="136" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4645,12 +4795,12 @@
       <c r="F136" s="3"/>
       <c r="G136" s="3"/>
       <c r="H136" s="37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I136" s="11">
-        <f t="shared" ref="I136:I199" si="18">I135+H136</f>
-        <v>1359504.4000000001</v>
+        <f t="shared" ref="I136:I199" si="20">I135+H136</f>
+        <v>2719386.66</v>
       </c>
     </row>
     <row r="137" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4661,12 +4811,12 @@
       <c r="F137" s="3"/>
       <c r="G137" s="3"/>
       <c r="H137" s="37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I137" s="11">
-        <f t="shared" si="18"/>
-        <v>1359504.4000000001</v>
+        <f t="shared" si="20"/>
+        <v>2719386.66</v>
       </c>
     </row>
     <row r="138" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4677,12 +4827,12 @@
       <c r="F138" s="3"/>
       <c r="G138" s="3"/>
       <c r="H138" s="37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I138" s="11">
-        <f t="shared" si="18"/>
-        <v>1359504.4000000001</v>
+        <f t="shared" si="20"/>
+        <v>2719386.66</v>
       </c>
     </row>
     <row r="139" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4693,12 +4843,12 @@
       <c r="F139" s="3"/>
       <c r="G139" s="3"/>
       <c r="H139" s="37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I139" s="11">
-        <f t="shared" si="18"/>
-        <v>1359504.4000000001</v>
+        <f t="shared" si="20"/>
+        <v>2719386.66</v>
       </c>
     </row>
     <row r="140" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4709,12 +4859,12 @@
       <c r="F140" s="3"/>
       <c r="G140" s="3"/>
       <c r="H140" s="37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I140" s="11">
-        <f t="shared" si="18"/>
-        <v>1359504.4000000001</v>
+        <f t="shared" si="20"/>
+        <v>2719386.66</v>
       </c>
     </row>
     <row r="141" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4725,12 +4875,12 @@
       <c r="F141" s="3"/>
       <c r="G141" s="3"/>
       <c r="H141" s="37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I141" s="11">
-        <f t="shared" si="18"/>
-        <v>1359504.4000000001</v>
+        <f t="shared" si="20"/>
+        <v>2719386.66</v>
       </c>
     </row>
     <row r="142" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4741,12 +4891,12 @@
       <c r="F142" s="3"/>
       <c r="G142" s="3"/>
       <c r="H142" s="37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I142" s="11">
-        <f t="shared" si="18"/>
-        <v>1359504.4000000001</v>
+        <f t="shared" si="20"/>
+        <v>2719386.66</v>
       </c>
     </row>
     <row r="143" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4757,12 +4907,12 @@
       <c r="F143" s="3"/>
       <c r="G143" s="3"/>
       <c r="H143" s="37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I143" s="11">
-        <f t="shared" si="18"/>
-        <v>1359504.4000000001</v>
+        <f t="shared" si="20"/>
+        <v>2719386.66</v>
       </c>
     </row>
     <row r="144" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4773,12 +4923,12 @@
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
       <c r="H144" s="37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I144" s="11">
-        <f t="shared" si="18"/>
-        <v>1359504.4000000001</v>
+        <f t="shared" si="20"/>
+        <v>2719386.66</v>
       </c>
     </row>
     <row r="145" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4789,12 +4939,12 @@
       <c r="F145" s="3"/>
       <c r="G145" s="3"/>
       <c r="H145" s="37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I145" s="11">
-        <f t="shared" si="18"/>
-        <v>1359504.4000000001</v>
+        <f t="shared" si="20"/>
+        <v>2719386.66</v>
       </c>
     </row>
     <row r="146" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4805,12 +4955,12 @@
       <c r="F146" s="3"/>
       <c r="G146" s="3"/>
       <c r="H146" s="37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I146" s="11">
-        <f t="shared" si="18"/>
-        <v>1359504.4000000001</v>
+        <f t="shared" si="20"/>
+        <v>2719386.66</v>
       </c>
     </row>
     <row r="147" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4821,12 +4971,12 @@
       <c r="F147" s="3"/>
       <c r="G147" s="3"/>
       <c r="H147" s="37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I147" s="11">
-        <f t="shared" si="18"/>
-        <v>1359504.4000000001</v>
+        <f t="shared" si="20"/>
+        <v>2719386.66</v>
       </c>
     </row>
     <row r="148" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4837,12 +4987,12 @@
       <c r="F148" s="3"/>
       <c r="G148" s="3"/>
       <c r="H148" s="37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I148" s="11">
-        <f t="shared" si="18"/>
-        <v>1359504.4000000001</v>
+        <f t="shared" si="20"/>
+        <v>2719386.66</v>
       </c>
     </row>
     <row r="149" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4853,12 +5003,12 @@
       <c r="F149" s="3"/>
       <c r="G149" s="3"/>
       <c r="H149" s="37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I149" s="11">
-        <f t="shared" si="18"/>
-        <v>1359504.4000000001</v>
+        <f t="shared" si="20"/>
+        <v>2719386.66</v>
       </c>
     </row>
     <row r="150" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4869,12 +5019,12 @@
       <c r="F150" s="3"/>
       <c r="G150" s="3"/>
       <c r="H150" s="37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I150" s="11">
-        <f t="shared" si="18"/>
-        <v>1359504.4000000001</v>
+        <f t="shared" si="20"/>
+        <v>2719386.66</v>
       </c>
     </row>
     <row r="151" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4885,12 +5035,12 @@
       <c r="F151" s="3"/>
       <c r="G151" s="3"/>
       <c r="H151" s="37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I151" s="11">
-        <f t="shared" si="18"/>
-        <v>1359504.4000000001</v>
+        <f t="shared" si="20"/>
+        <v>2719386.66</v>
       </c>
     </row>
     <row r="152" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4901,12 +5051,12 @@
       <c r="F152" s="3"/>
       <c r="G152" s="3"/>
       <c r="H152" s="37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I152" s="11">
-        <f t="shared" si="18"/>
-        <v>1359504.4000000001</v>
+        <f t="shared" si="20"/>
+        <v>2719386.66</v>
       </c>
     </row>
     <row r="153" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4917,12 +5067,12 @@
       <c r="F153" s="3"/>
       <c r="G153" s="3"/>
       <c r="H153" s="37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I153" s="11">
-        <f t="shared" si="18"/>
-        <v>1359504.4000000001</v>
+        <f t="shared" si="20"/>
+        <v>2719386.66</v>
       </c>
     </row>
     <row r="154" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4933,12 +5083,12 @@
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
       <c r="H154" s="37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I154" s="11">
-        <f t="shared" si="18"/>
-        <v>1359504.4000000001</v>
+        <f t="shared" si="20"/>
+        <v>2719386.66</v>
       </c>
     </row>
     <row r="155" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4949,12 +5099,12 @@
       <c r="F155" s="3"/>
       <c r="G155" s="3"/>
       <c r="H155" s="37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I155" s="11">
-        <f t="shared" si="18"/>
-        <v>1359504.4000000001</v>
+        <f t="shared" si="20"/>
+        <v>2719386.66</v>
       </c>
     </row>
     <row r="156" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4965,12 +5115,12 @@
       <c r="F156" s="3"/>
       <c r="G156" s="3"/>
       <c r="H156" s="37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I156" s="11">
-        <f t="shared" si="18"/>
-        <v>1359504.4000000001</v>
+        <f t="shared" si="20"/>
+        <v>2719386.66</v>
       </c>
     </row>
     <row r="157" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4981,12 +5131,12 @@
       <c r="F157" s="3"/>
       <c r="G157" s="3"/>
       <c r="H157" s="37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I157" s="11">
-        <f t="shared" si="18"/>
-        <v>1359504.4000000001</v>
+        <f t="shared" si="20"/>
+        <v>2719386.66</v>
       </c>
     </row>
     <row r="158" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -4997,12 +5147,12 @@
       <c r="F158" s="3"/>
       <c r="G158" s="3"/>
       <c r="H158" s="37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I158" s="11">
-        <f t="shared" si="18"/>
-        <v>1359504.4000000001</v>
+        <f t="shared" si="20"/>
+        <v>2719386.66</v>
       </c>
     </row>
     <row r="159" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -5013,12 +5163,12 @@
       <c r="F159" s="3"/>
       <c r="G159" s="3"/>
       <c r="H159" s="37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I159" s="11">
-        <f t="shared" si="18"/>
-        <v>1359504.4000000001</v>
+        <f t="shared" si="20"/>
+        <v>2719386.66</v>
       </c>
     </row>
     <row r="160" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -5029,12 +5179,12 @@
       <c r="F160" s="3"/>
       <c r="G160" s="3"/>
       <c r="H160" s="37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I160" s="11">
-        <f t="shared" si="18"/>
-        <v>1359504.4000000001</v>
+        <f t="shared" si="20"/>
+        <v>2719386.66</v>
       </c>
     </row>
     <row r="161" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -5045,12 +5195,12 @@
       <c r="F161" s="3"/>
       <c r="G161" s="3"/>
       <c r="H161" s="37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I161" s="11">
-        <f t="shared" si="18"/>
-        <v>1359504.4000000001</v>
+        <f t="shared" si="20"/>
+        <v>2719386.66</v>
       </c>
     </row>
     <row r="162" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -5061,12 +5211,12 @@
       <c r="F162" s="3"/>
       <c r="G162" s="3"/>
       <c r="H162" s="37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I162" s="11">
-        <f t="shared" si="18"/>
-        <v>1359504.4000000001</v>
+        <f t="shared" si="20"/>
+        <v>2719386.66</v>
       </c>
     </row>
     <row r="163" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -5077,12 +5227,12 @@
       <c r="F163" s="3"/>
       <c r="G163" s="3"/>
       <c r="H163" s="37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I163" s="11">
-        <f t="shared" si="18"/>
-        <v>1359504.4000000001</v>
+        <f t="shared" si="20"/>
+        <v>2719386.66</v>
       </c>
     </row>
     <row r="164" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -5093,12 +5243,12 @@
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
       <c r="H164" s="37">
-        <f t="shared" ref="H164:H202" si="19">(E164*F164)+G164</f>
+        <f t="shared" ref="H164:H202" si="21">(E164*F164)+G164</f>
         <v>0</v>
       </c>
       <c r="I164" s="11">
-        <f t="shared" si="18"/>
-        <v>1359504.4000000001</v>
+        <f t="shared" si="20"/>
+        <v>2719386.66</v>
       </c>
     </row>
     <row r="165" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -5109,12 +5259,12 @@
       <c r="F165" s="3"/>
       <c r="G165" s="3"/>
       <c r="H165" s="37">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I165" s="11">
-        <f t="shared" si="18"/>
-        <v>1359504.4000000001</v>
+        <f t="shared" si="20"/>
+        <v>2719386.66</v>
       </c>
     </row>
     <row r="166" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -5125,12 +5275,12 @@
       <c r="F166" s="3"/>
       <c r="G166" s="3"/>
       <c r="H166" s="37">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I166" s="11">
-        <f t="shared" si="18"/>
-        <v>1359504.4000000001</v>
+        <f t="shared" si="20"/>
+        <v>2719386.66</v>
       </c>
     </row>
     <row r="167" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -5141,12 +5291,12 @@
       <c r="F167" s="3"/>
       <c r="G167" s="3"/>
       <c r="H167" s="37">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I167" s="11">
-        <f t="shared" si="18"/>
-        <v>1359504.4000000001</v>
+        <f t="shared" si="20"/>
+        <v>2719386.66</v>
       </c>
     </row>
     <row r="168" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -5157,12 +5307,12 @@
       <c r="F168" s="3"/>
       <c r="G168" s="3"/>
       <c r="H168" s="37">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I168" s="11">
-        <f t="shared" si="18"/>
-        <v>1359504.4000000001</v>
+        <f t="shared" si="20"/>
+        <v>2719386.66</v>
       </c>
     </row>
     <row r="169" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -5173,12 +5323,12 @@
       <c r="F169" s="3"/>
       <c r="G169" s="3"/>
       <c r="H169" s="37">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I169" s="11">
-        <f t="shared" si="18"/>
-        <v>1359504.4000000001</v>
+        <f t="shared" si="20"/>
+        <v>2719386.66</v>
       </c>
     </row>
     <row r="170" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -5189,12 +5339,12 @@
       <c r="F170" s="3"/>
       <c r="G170" s="3"/>
       <c r="H170" s="37">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I170" s="11">
-        <f t="shared" si="18"/>
-        <v>1359504.4000000001</v>
+        <f t="shared" si="20"/>
+        <v>2719386.66</v>
       </c>
     </row>
     <row r="171" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -5205,12 +5355,12 @@
       <c r="F171" s="3"/>
       <c r="G171" s="3"/>
       <c r="H171" s="37">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I171" s="11">
-        <f t="shared" si="18"/>
-        <v>1359504.4000000001</v>
+        <f t="shared" si="20"/>
+        <v>2719386.66</v>
       </c>
     </row>
     <row r="172" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -5221,12 +5371,12 @@
       <c r="F172" s="3"/>
       <c r="G172" s="3"/>
       <c r="H172" s="37">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I172" s="11">
-        <f t="shared" si="18"/>
-        <v>1359504.4000000001</v>
+        <f t="shared" si="20"/>
+        <v>2719386.66</v>
       </c>
     </row>
     <row r="173" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -5237,12 +5387,12 @@
       <c r="F173" s="3"/>
       <c r="G173" s="3"/>
       <c r="H173" s="37">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I173" s="11">
-        <f t="shared" si="18"/>
-        <v>1359504.4000000001</v>
+        <f t="shared" si="20"/>
+        <v>2719386.66</v>
       </c>
     </row>
     <row r="174" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -5253,12 +5403,12 @@
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
       <c r="H174" s="37">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I174" s="11">
-        <f t="shared" si="18"/>
-        <v>1359504.4000000001</v>
+        <f t="shared" si="20"/>
+        <v>2719386.66</v>
       </c>
     </row>
     <row r="175" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -5269,12 +5419,12 @@
       <c r="F175" s="3"/>
       <c r="G175" s="3"/>
       <c r="H175" s="37">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I175" s="11">
-        <f t="shared" si="18"/>
-        <v>1359504.4000000001</v>
+        <f t="shared" si="20"/>
+        <v>2719386.66</v>
       </c>
     </row>
     <row r="176" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -5285,12 +5435,12 @@
       <c r="F176" s="3"/>
       <c r="G176" s="3"/>
       <c r="H176" s="37">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I176" s="11">
-        <f t="shared" si="18"/>
-        <v>1359504.4000000001</v>
+        <f t="shared" si="20"/>
+        <v>2719386.66</v>
       </c>
     </row>
     <row r="177" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -5301,12 +5451,12 @@
       <c r="F177" s="3"/>
       <c r="G177" s="3"/>
       <c r="H177" s="37">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I177" s="11">
-        <f t="shared" si="18"/>
-        <v>1359504.4000000001</v>
+        <f t="shared" si="20"/>
+        <v>2719386.66</v>
       </c>
     </row>
     <row r="178" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -5317,12 +5467,12 @@
       <c r="F178" s="3"/>
       <c r="G178" s="3"/>
       <c r="H178" s="37">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I178" s="11">
-        <f t="shared" si="18"/>
-        <v>1359504.4000000001</v>
+        <f t="shared" si="20"/>
+        <v>2719386.66</v>
       </c>
     </row>
     <row r="179" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -5333,12 +5483,12 @@
       <c r="F179" s="3"/>
       <c r="G179" s="3"/>
       <c r="H179" s="37">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I179" s="11">
-        <f t="shared" si="18"/>
-        <v>1359504.4000000001</v>
+        <f t="shared" si="20"/>
+        <v>2719386.66</v>
       </c>
     </row>
     <row r="180" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -5349,12 +5499,12 @@
       <c r="F180" s="3"/>
       <c r="G180" s="3"/>
       <c r="H180" s="37">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I180" s="11">
-        <f t="shared" si="18"/>
-        <v>1359504.4000000001</v>
+        <f t="shared" si="20"/>
+        <v>2719386.66</v>
       </c>
     </row>
     <row r="181" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -5365,12 +5515,12 @@
       <c r="F181" s="3"/>
       <c r="G181" s="3"/>
       <c r="H181" s="37">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I181" s="11">
-        <f t="shared" si="18"/>
-        <v>1359504.4000000001</v>
+        <f t="shared" si="20"/>
+        <v>2719386.66</v>
       </c>
     </row>
     <row r="182" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -5381,12 +5531,12 @@
       <c r="F182" s="3"/>
       <c r="G182" s="3"/>
       <c r="H182" s="37">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I182" s="11">
-        <f t="shared" si="18"/>
-        <v>1359504.4000000001</v>
+        <f t="shared" si="20"/>
+        <v>2719386.66</v>
       </c>
     </row>
     <row r="183" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -5397,12 +5547,12 @@
       <c r="F183" s="3"/>
       <c r="G183" s="3"/>
       <c r="H183" s="37">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I183" s="11">
-        <f t="shared" si="18"/>
-        <v>1359504.4000000001</v>
+        <f t="shared" si="20"/>
+        <v>2719386.66</v>
       </c>
     </row>
     <row r="184" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -5413,12 +5563,12 @@
       <c r="F184" s="3"/>
       <c r="G184" s="3"/>
       <c r="H184" s="37">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I184" s="11">
-        <f t="shared" si="18"/>
-        <v>1359504.4000000001</v>
+        <f t="shared" si="20"/>
+        <v>2719386.66</v>
       </c>
     </row>
     <row r="185" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -5429,12 +5579,12 @@
       <c r="F185" s="3"/>
       <c r="G185" s="3"/>
       <c r="H185" s="37">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I185" s="11">
-        <f t="shared" si="18"/>
-        <v>1359504.4000000001</v>
+        <f t="shared" si="20"/>
+        <v>2719386.66</v>
       </c>
     </row>
     <row r="186" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -5445,12 +5595,12 @@
       <c r="F186" s="3"/>
       <c r="G186" s="3"/>
       <c r="H186" s="37">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I186" s="11">
-        <f t="shared" si="18"/>
-        <v>1359504.4000000001</v>
+        <f t="shared" si="20"/>
+        <v>2719386.66</v>
       </c>
     </row>
     <row r="187" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -5461,12 +5611,12 @@
       <c r="F187" s="3"/>
       <c r="G187" s="3"/>
       <c r="H187" s="37">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I187" s="11">
-        <f t="shared" si="18"/>
-        <v>1359504.4000000001</v>
+        <f t="shared" si="20"/>
+        <v>2719386.66</v>
       </c>
     </row>
     <row r="188" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -5477,12 +5627,12 @@
       <c r="F188" s="3"/>
       <c r="G188" s="3"/>
       <c r="H188" s="37">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I188" s="11">
-        <f t="shared" si="18"/>
-        <v>1359504.4000000001</v>
+        <f t="shared" si="20"/>
+        <v>2719386.66</v>
       </c>
     </row>
     <row r="189" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -5493,12 +5643,12 @@
       <c r="F189" s="3"/>
       <c r="G189" s="3"/>
       <c r="H189" s="37">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I189" s="11">
-        <f t="shared" si="18"/>
-        <v>1359504.4000000001</v>
+        <f t="shared" si="20"/>
+        <v>2719386.66</v>
       </c>
     </row>
     <row r="190" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -5509,12 +5659,12 @@
       <c r="F190" s="3"/>
       <c r="G190" s="3"/>
       <c r="H190" s="37">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I190" s="11">
-        <f t="shared" si="18"/>
-        <v>1359504.4000000001</v>
+        <f t="shared" si="20"/>
+        <v>2719386.66</v>
       </c>
     </row>
     <row r="191" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -5525,12 +5675,12 @@
       <c r="F191" s="3"/>
       <c r="G191" s="3"/>
       <c r="H191" s="37">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I191" s="11">
-        <f t="shared" si="18"/>
-        <v>1359504.4000000001</v>
+        <f t="shared" si="20"/>
+        <v>2719386.66</v>
       </c>
     </row>
     <row r="192" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -5541,12 +5691,12 @@
       <c r="F192" s="3"/>
       <c r="G192" s="3"/>
       <c r="H192" s="37">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I192" s="11">
-        <f t="shared" si="18"/>
-        <v>1359504.4000000001</v>
+        <f t="shared" si="20"/>
+        <v>2719386.66</v>
       </c>
     </row>
     <row r="193" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -5557,12 +5707,12 @@
       <c r="F193" s="3"/>
       <c r="G193" s="3"/>
       <c r="H193" s="37">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I193" s="11">
-        <f t="shared" si="18"/>
-        <v>1359504.4000000001</v>
+        <f t="shared" si="20"/>
+        <v>2719386.66</v>
       </c>
     </row>
     <row r="194" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -5573,12 +5723,12 @@
       <c r="F194" s="3"/>
       <c r="G194" s="3"/>
       <c r="H194" s="37">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I194" s="11">
-        <f t="shared" si="18"/>
-        <v>1359504.4000000001</v>
+        <f t="shared" si="20"/>
+        <v>2719386.66</v>
       </c>
     </row>
     <row r="195" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -5589,12 +5739,12 @@
       <c r="F195" s="3"/>
       <c r="G195" s="3"/>
       <c r="H195" s="37">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I195" s="11">
-        <f t="shared" si="18"/>
-        <v>1359504.4000000001</v>
+        <f t="shared" si="20"/>
+        <v>2719386.66</v>
       </c>
     </row>
     <row r="196" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -5605,12 +5755,12 @@
       <c r="F196" s="3"/>
       <c r="G196" s="3"/>
       <c r="H196" s="37">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I196" s="11">
-        <f t="shared" si="18"/>
-        <v>1359504.4000000001</v>
+        <f t="shared" si="20"/>
+        <v>2719386.66</v>
       </c>
     </row>
     <row r="197" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -5621,12 +5771,12 @@
       <c r="F197" s="3"/>
       <c r="G197" s="3"/>
       <c r="H197" s="37">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I197" s="11">
-        <f t="shared" si="18"/>
-        <v>1359504.4000000001</v>
+        <f t="shared" si="20"/>
+        <v>2719386.66</v>
       </c>
     </row>
     <row r="198" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -5637,12 +5787,12 @@
       <c r="F198" s="3"/>
       <c r="G198" s="3"/>
       <c r="H198" s="37">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I198" s="11">
-        <f t="shared" si="18"/>
-        <v>1359504.4000000001</v>
+        <f t="shared" si="20"/>
+        <v>2719386.66</v>
       </c>
     </row>
     <row r="199" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -5653,12 +5803,12 @@
       <c r="F199" s="3"/>
       <c r="G199" s="3"/>
       <c r="H199" s="37">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I199" s="11">
-        <f t="shared" si="18"/>
-        <v>1359504.4000000001</v>
+        <f t="shared" si="20"/>
+        <v>2719386.66</v>
       </c>
     </row>
     <row r="200" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -5669,12 +5819,12 @@
       <c r="F200" s="3"/>
       <c r="G200" s="3"/>
       <c r="H200" s="37">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I200" s="11">
-        <f t="shared" ref="I200:I202" si="20">I199+H200</f>
-        <v>1359504.4000000001</v>
+        <f t="shared" ref="I200:I202" si="22">I199+H200</f>
+        <v>2719386.66</v>
       </c>
     </row>
     <row r="201" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -5685,12 +5835,12 @@
       <c r="F201" s="3"/>
       <c r="G201" s="3"/>
       <c r="H201" s="37">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I201" s="11">
-        <f t="shared" si="20"/>
-        <v>1359504.4000000001</v>
+        <f t="shared" si="22"/>
+        <v>2719386.66</v>
       </c>
     </row>
     <row r="202" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -5701,12 +5851,12 @@
       <c r="F202" s="3"/>
       <c r="G202" s="3"/>
       <c r="H202" s="37">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I202" s="11">
-        <f t="shared" si="20"/>
-        <v>1359504.4000000001</v>
+        <f t="shared" si="22"/>
+        <v>2719386.66</v>
       </c>
     </row>
   </sheetData>
@@ -5796,7 +5946,7 @@
   <dimension ref="B3:E542"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5808,12 +5958,12 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:5" ht="31.2" x14ac:dyDescent="0.6">
-      <c r="B3" s="117" t="s">
+      <c r="B3" s="119" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="119"/>
     </row>
     <row r="4" spans="2:5" ht="21" x14ac:dyDescent="0.3">
       <c r="B4" s="53" t="s">
@@ -5854,8 +6004,8 @@
       <c r="B7" s="93">
         <v>45126</v>
       </c>
-      <c r="C7" s="121" t="s">
-        <v>89</v>
+      <c r="C7" s="110" t="s">
+        <v>88</v>
       </c>
       <c r="D7" s="38">
         <v>40000</v>
@@ -5912,8 +6062,8 @@
       <c r="B11" s="12">
         <v>45148</v>
       </c>
-      <c r="C11" s="120" t="s">
-        <v>88</v>
+      <c r="C11" s="109" t="s">
+        <v>87</v>
       </c>
       <c r="D11" s="11">
         <v>80000</v>
@@ -10728,12 +10878,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="37.200000000000003" x14ac:dyDescent="0.75">
-      <c r="B2" s="118" t="s">
+      <c r="B2" s="120" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="118"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
     </row>
     <row r="3" spans="2:5" ht="21" x14ac:dyDescent="0.3">
       <c r="B3" s="53" t="s">
@@ -10919,14 +11069,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="31.2" x14ac:dyDescent="0.6">
-      <c r="B2" s="117" t="s">
+      <c r="B2" s="119" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
     </row>
     <row r="3" spans="2:11" ht="21" x14ac:dyDescent="0.3">
       <c r="B3" s="53" t="s">
@@ -10947,9 +11097,9 @@
       <c r="G3" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="119"/>
-      <c r="J3" s="119"/>
-      <c r="K3" s="119"/>
+      <c r="I3" s="121"/>
+      <c r="J3" s="121"/>
+      <c r="K3" s="121"/>
     </row>
     <row r="4" spans="2:11" ht="21" x14ac:dyDescent="0.3">
       <c r="B4" s="4"/>

--- a/LEDGER.xlsx
+++ b/LEDGER.xlsx
@@ -10,10 +10,11 @@
     <sheet name="LEDGER" sheetId="1" r:id="rId1"/>
     <sheet name="HAJI NAZEER LEDGER" sheetId="4" r:id="rId2"/>
     <sheet name="BRICKS" sheetId="6" r:id="rId3"/>
-    <sheet name="WAQAS STEEL" sheetId="8" r:id="rId4"/>
-    <sheet name="MISTRI ASGHER" sheetId="3" r:id="rId5"/>
-    <sheet name="WORKER COUNT" sheetId="5" r:id="rId6"/>
-    <sheet name="HAJI SHAFIQUE" sheetId="7" r:id="rId7"/>
+    <sheet name="ALI PLUMBER" sheetId="9" r:id="rId4"/>
+    <sheet name="WAQAS WELDER" sheetId="8" r:id="rId5"/>
+    <sheet name="MISTRI ASGHER" sheetId="3" r:id="rId6"/>
+    <sheet name="WORKER COUNT" sheetId="5" r:id="rId7"/>
+    <sheet name="HAJI SHAFIQUE" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="213">
   <si>
     <t>DATE</t>
   </si>
@@ -812,6 +813,24 @@
   <si>
     <t>ADVANCE TO WAQAS (CHOGHAATHAIN)</t>
   </si>
+  <si>
+    <t>SNITORY/PLUMBER</t>
+  </si>
+  <si>
+    <t>PLUMBER STUFF</t>
+  </si>
+  <si>
+    <t>ONLINE TO WAQAS IRON</t>
+  </si>
+  <si>
+    <t>CASH</t>
+  </si>
+  <si>
+    <t>PIPE FOR STEEL</t>
+  </si>
+  <si>
+    <t>UPPER LENTER SARYA</t>
+  </si>
 </sst>
 </file>
 
@@ -1026,7 +1045,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="27">
+  <fills count="28">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1180,6 +1199,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1402,7 +1427,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="237">
+  <cellXfs count="245">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1693,6 +1718,14 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="2" fillId="27" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="2" fillId="27" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1822,11 +1855,31 @@
     <xf numFmtId="0" fontId="21" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="13">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2182,8 +2235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:T588"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A242" zoomScale="77" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H213" sqref="H213"/>
+    <sheetView tabSelected="1" topLeftCell="A277" zoomScale="77" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I291" sqref="I291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2234,30 +2287,30 @@
       <c r="M2" s="140"/>
       <c r="N2" s="65">
         <f>SUMIF($C$2:$C$1000, K2, $E$2:$E$1000)</f>
-        <v>2945</v>
+        <v>3035</v>
       </c>
       <c r="O2" s="57">
         <f>SUMIF($C$2:$C$1000, K2, $H$2:$H$1000)</f>
-        <v>370631</v>
+        <v>382931</v>
       </c>
       <c r="P2" t="s">
         <v>52</v>
       </c>
-      <c r="R2" s="195"/>
-      <c r="S2" s="195"/>
-      <c r="T2" s="195"/>
+      <c r="R2" s="201"/>
+      <c r="S2" s="201"/>
+      <c r="T2" s="201"/>
     </row>
     <row r="3" spans="2:20" ht="21" x14ac:dyDescent="0.4">
-      <c r="B3" s="196" t="s">
+      <c r="B3" s="202" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="196"/>
-      <c r="D3" s="196"/>
-      <c r="E3" s="196"/>
-      <c r="F3" s="196"/>
-      <c r="G3" s="196"/>
-      <c r="H3" s="196"/>
-      <c r="I3" s="196"/>
+      <c r="C3" s="202"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="202"/>
+      <c r="F3" s="202"/>
+      <c r="G3" s="202"/>
+      <c r="H3" s="202"/>
+      <c r="I3" s="202"/>
       <c r="K3" s="3">
         <v>2</v>
       </c>
@@ -2266,23 +2319,23 @@
       </c>
       <c r="M3" s="58"/>
       <c r="N3" s="65">
-        <f t="shared" ref="N3:N18" si="0">SUMIF($C$2:$C$1000, K3, $E$2:$E$1000)</f>
+        <f t="shared" ref="N3:N19" si="0">SUMIF($C$2:$C$1000, K3, $E$2:$E$1000)</f>
         <v>11</v>
       </c>
       <c r="O3" s="57">
-        <f t="shared" ref="O3:O18" si="1">SUMIF($C$2:$C$1000, K3, $H$2:$H$1000)</f>
+        <f t="shared" ref="O3:O19" si="1">SUMIF($C$2:$C$1000, K3, $H$2:$H$1000)</f>
         <v>239000</v>
       </c>
     </row>
     <row r="4" spans="2:20" ht="21" x14ac:dyDescent="0.4">
-      <c r="B4" s="196"/>
-      <c r="C4" s="196"/>
-      <c r="D4" s="196"/>
-      <c r="E4" s="196"/>
-      <c r="F4" s="196"/>
-      <c r="G4" s="196"/>
-      <c r="H4" s="196"/>
-      <c r="I4" s="196"/>
+      <c r="B4" s="202"/>
+      <c r="C4" s="202"/>
+      <c r="D4" s="202"/>
+      <c r="E4" s="202"/>
+      <c r="F4" s="202"/>
+      <c r="G4" s="202"/>
+      <c r="H4" s="202"/>
+      <c r="I4" s="202"/>
       <c r="K4" s="3">
         <v>3</v>
       </c>
@@ -2292,15 +2345,15 @@
       <c r="M4" s="59"/>
       <c r="N4" s="65">
         <f t="shared" si="0"/>
-        <v>1030</v>
+        <v>1705</v>
       </c>
       <c r="O4" s="57">
         <f t="shared" si="1"/>
-        <v>1228450</v>
+        <v>2086450</v>
       </c>
       <c r="P4" s="20">
         <f>O4/N4</f>
-        <v>1192.6699029126214</v>
+        <v>1223.7243401759531</v>
       </c>
       <c r="R4" s="89"/>
     </row>
@@ -2439,12 +2492,12 @@
       </c>
       <c r="O8" s="57">
         <f t="shared" si="1"/>
-        <v>1485100</v>
-      </c>
-      <c r="P8" s="199" t="s">
+        <v>1705100</v>
+      </c>
+      <c r="P8" s="205" t="s">
         <v>75</v>
       </c>
-      <c r="Q8" s="194"/>
+      <c r="Q8" s="200"/>
     </row>
     <row r="9" spans="2:20" ht="21" x14ac:dyDescent="0.4">
       <c r="B9" s="13">
@@ -2477,11 +2530,11 @@
       <c r="M9" s="72"/>
       <c r="N9" s="65">
         <f t="shared" si="0"/>
-        <v>6965.5999999999995</v>
+        <v>7146.5999999999995</v>
       </c>
       <c r="O9" s="57">
         <f t="shared" si="1"/>
-        <v>2010272.06</v>
+        <v>3473064.8600000003</v>
       </c>
     </row>
     <row r="10" spans="2:20" ht="21" x14ac:dyDescent="0.4">
@@ -2715,16 +2768,13 @@
       <c r="M15" s="145"/>
       <c r="N15" s="65">
         <f t="shared" si="0"/>
-        <v>36000</v>
+        <v>13000</v>
       </c>
       <c r="O15" s="57">
         <f t="shared" si="1"/>
-        <v>469000</v>
-      </c>
-      <c r="P15" s="20">
-        <f>O15/N15</f>
-        <v>13.027777777777779</v>
-      </c>
+        <v>1069000</v>
+      </c>
+      <c r="P15" s="20"/>
     </row>
     <row r="16" spans="2:20" ht="21" x14ac:dyDescent="0.4">
       <c r="B16" s="75">
@@ -2831,7 +2881,7 @@
       </c>
       <c r="O18" s="146">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>325000</v>
       </c>
     </row>
     <row r="19" spans="2:17" ht="21" x14ac:dyDescent="0.4">
@@ -2853,6 +2903,21 @@
       <c r="I19" s="11">
         <f t="shared" si="2"/>
         <v>314800</v>
+      </c>
+      <c r="K19" s="118">
+        <v>17</v>
+      </c>
+      <c r="L19" s="194" t="s">
+        <v>207</v>
+      </c>
+      <c r="M19" s="199"/>
+      <c r="N19" s="65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O19" s="146">
+        <f t="shared" si="1"/>
+        <v>475000</v>
       </c>
     </row>
     <row r="20" spans="2:17" ht="21" x14ac:dyDescent="0.4">
@@ -4552,7 +4617,7 @@
         <f t="shared" si="9"/>
         <v>1080205</v>
       </c>
-      <c r="J86" s="197" t="s">
+      <c r="J86" s="203" t="s">
         <v>60</v>
       </c>
       <c r="K86" s="20"/>
@@ -4584,7 +4649,7 @@
         <f t="shared" si="9"/>
         <v>1113011.8</v>
       </c>
-      <c r="J87" s="198"/>
+      <c r="J87" s="204"/>
     </row>
     <row r="88" spans="2:17" ht="21" x14ac:dyDescent="0.4">
       <c r="B88" s="89">
@@ -4918,7 +4983,7 @@
       <c r="P98" s="97" t="s">
         <v>84</v>
       </c>
-      <c r="Q98" s="200" t="s">
+      <c r="Q98" s="206" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4950,7 +5015,7 @@
         <v>3024388710</v>
       </c>
       <c r="P99" s="99"/>
-      <c r="Q99" s="201"/>
+      <c r="Q99" s="207"/>
     </row>
     <row r="100" spans="2:17" ht="21" x14ac:dyDescent="0.4">
       <c r="B100" s="120">
@@ -6664,10 +6729,10 @@
         <f>J170-H170</f>
         <v>0</v>
       </c>
-      <c r="K171" s="194" t="s">
+      <c r="K171" s="200" t="s">
         <v>135</v>
       </c>
-      <c r="L171" s="194"/>
+      <c r="L171" s="200"/>
     </row>
     <row r="172" spans="2:12" ht="21" x14ac:dyDescent="0.4">
       <c r="B172" s="132">
@@ -8465,9 +8530,7 @@
       <c r="D244" s="149" t="s">
         <v>156</v>
       </c>
-      <c r="E244" s="149">
-        <v>23000</v>
-      </c>
+      <c r="E244" s="149"/>
       <c r="F244" s="149">
         <v>0</v>
       </c>
@@ -9058,419 +9121,630 @@
       <c r="J265" s="20"/>
     </row>
     <row r="266" spans="2:12" ht="21" x14ac:dyDescent="0.4">
-      <c r="B266" s="3"/>
-      <c r="C266" s="9"/>
-      <c r="D266" s="3"/>
-      <c r="E266" s="3"/>
-      <c r="F266" s="3"/>
-      <c r="G266" s="3"/>
-      <c r="H266" s="36">
-        <f t="shared" ref="H266:H314" si="42">(E266*F266)+G266</f>
-        <v>0</v>
+      <c r="B266" s="147">
+        <v>45239</v>
+      </c>
+      <c r="C266" s="148">
+        <v>13</v>
+      </c>
+      <c r="D266" s="149" t="s">
+        <v>156</v>
+      </c>
+      <c r="E266" s="149"/>
+      <c r="F266" s="149">
+        <v>0</v>
+      </c>
+      <c r="G266" s="149"/>
+      <c r="H266" s="150">
+        <v>400000</v>
       </c>
       <c r="I266" s="11">
         <f t="shared" si="41"/>
-        <v>7116788.0599999996</v>
+        <v>7516788.0599999996</v>
       </c>
     </row>
     <row r="267" spans="2:12" ht="21" x14ac:dyDescent="0.4">
-      <c r="B267" s="3"/>
-      <c r="C267" s="9"/>
-      <c r="D267" s="3"/>
-      <c r="E267" s="3"/>
-      <c r="F267" s="3"/>
-      <c r="G267" s="3"/>
-      <c r="H267" s="36">
-        <f t="shared" si="42"/>
-        <v>0</v>
+      <c r="B267" s="147">
+        <v>45252</v>
+      </c>
+      <c r="C267" s="148">
+        <v>13</v>
+      </c>
+      <c r="D267" s="149" t="s">
+        <v>156</v>
+      </c>
+      <c r="E267" s="149"/>
+      <c r="F267" s="149">
+        <v>0</v>
+      </c>
+      <c r="G267" s="149"/>
+      <c r="H267" s="150">
+        <v>200000</v>
       </c>
       <c r="I267" s="11">
         <f t="shared" si="41"/>
-        <v>7116788.0599999996</v>
+        <v>7716788.0599999996</v>
       </c>
     </row>
     <row r="268" spans="2:12" ht="21" x14ac:dyDescent="0.4">
-      <c r="B268" s="3"/>
-      <c r="C268" s="9"/>
-      <c r="D268" s="3"/>
-      <c r="E268" s="3"/>
-      <c r="F268" s="3"/>
-      <c r="G268" s="3"/>
-      <c r="H268" s="36">
-        <f t="shared" si="42"/>
-        <v>0</v>
+      <c r="B268" s="195">
+        <v>45253</v>
+      </c>
+      <c r="C268" s="196">
+        <v>17</v>
+      </c>
+      <c r="D268" s="197" t="s">
+        <v>208</v>
+      </c>
+      <c r="E268" s="197"/>
+      <c r="F268" s="197"/>
+      <c r="G268" s="197"/>
+      <c r="H268" s="198">
+        <v>445000</v>
       </c>
       <c r="I268" s="11">
         <f t="shared" si="41"/>
-        <v>7116788.0599999996</v>
+        <v>8161788.0599999996</v>
       </c>
     </row>
     <row r="269" spans="2:12" ht="21" x14ac:dyDescent="0.4">
-      <c r="B269" s="3"/>
-      <c r="C269" s="9"/>
-      <c r="D269" s="3"/>
-      <c r="E269" s="3"/>
-      <c r="F269" s="3"/>
-      <c r="G269" s="3"/>
-      <c r="H269" s="36">
-        <f t="shared" si="42"/>
-        <v>0</v>
+      <c r="B269" s="81">
+        <v>45253</v>
+      </c>
+      <c r="C269" s="82">
+        <v>6</v>
+      </c>
+      <c r="D269" s="83" t="s">
+        <v>32</v>
+      </c>
+      <c r="E269" s="83"/>
+      <c r="F269" s="83"/>
+      <c r="G269" s="83"/>
+      <c r="H269" s="84">
+        <v>55000</v>
       </c>
       <c r="I269" s="11">
         <f t="shared" si="41"/>
-        <v>7116788.0599999996</v>
+        <v>8216788.0599999996</v>
       </c>
     </row>
     <row r="270" spans="2:12" ht="21" x14ac:dyDescent="0.4">
-      <c r="B270" s="3"/>
-      <c r="C270" s="9"/>
-      <c r="D270" s="3"/>
-      <c r="E270" s="3"/>
-      <c r="F270" s="3"/>
-      <c r="G270" s="3"/>
-      <c r="H270" s="36">
-        <f t="shared" si="42"/>
-        <v>0</v>
+      <c r="B270" s="132">
+        <v>45253</v>
+      </c>
+      <c r="C270" s="133">
+        <v>16</v>
+      </c>
+      <c r="D270" s="134" t="s">
+        <v>209</v>
+      </c>
+      <c r="E270" s="134"/>
+      <c r="F270" s="134"/>
+      <c r="G270" s="134"/>
+      <c r="H270" s="135">
+        <v>250000</v>
       </c>
       <c r="I270" s="11">
         <f t="shared" si="41"/>
-        <v>7116788.0599999996</v>
+        <v>8466788.0599999987</v>
       </c>
     </row>
     <row r="271" spans="2:12" ht="21" x14ac:dyDescent="0.4">
-      <c r="B271" s="3"/>
-      <c r="C271" s="9"/>
-      <c r="D271" s="3"/>
-      <c r="E271" s="3"/>
-      <c r="F271" s="3"/>
-      <c r="G271" s="3"/>
-      <c r="H271" s="36">
-        <f t="shared" si="42"/>
-        <v>0</v>
+      <c r="B271" s="89">
+        <v>45257</v>
+      </c>
+      <c r="C271" s="90">
+        <v>7</v>
+      </c>
+      <c r="D271" s="91" t="s">
+        <v>195</v>
+      </c>
+      <c r="E271" s="91">
+        <v>91.4</v>
+      </c>
+      <c r="F271" s="91">
+        <v>264</v>
+      </c>
+      <c r="G271" s="91">
+        <v>0</v>
+      </c>
+      <c r="H271" s="92">
+        <f>(F271*E271)+G271</f>
+        <v>24129.600000000002</v>
       </c>
       <c r="I271" s="11">
         <f t="shared" si="41"/>
-        <v>7116788.0599999996</v>
+        <v>8490917.6599999983</v>
       </c>
     </row>
     <row r="272" spans="2:12" ht="21" x14ac:dyDescent="0.4">
-      <c r="B272" s="3"/>
-      <c r="C272" s="9"/>
-      <c r="D272" s="3"/>
-      <c r="E272" s="3"/>
-      <c r="F272" s="3"/>
-      <c r="G272" s="3"/>
-      <c r="H272" s="36">
-        <f t="shared" si="42"/>
-        <v>0</v>
+      <c r="B272" s="89">
+        <v>45257</v>
+      </c>
+      <c r="C272" s="90">
+        <v>7</v>
+      </c>
+      <c r="D272" s="91" t="s">
+        <v>194</v>
+      </c>
+      <c r="E272" s="91">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="F272" s="91">
+        <v>262</v>
+      </c>
+      <c r="G272" s="91">
+        <v>450</v>
+      </c>
+      <c r="H272" s="92">
+        <f>(F272*E272)+G272</f>
+        <v>19733.199999999997</v>
       </c>
       <c r="I272" s="11">
         <f t="shared" si="41"/>
-        <v>7116788.0599999996</v>
+        <v>8510650.8599999975</v>
       </c>
     </row>
     <row r="273" spans="2:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="B273" s="3"/>
-      <c r="C273" s="9"/>
-      <c r="D273" s="3"/>
-      <c r="E273" s="3"/>
-      <c r="F273" s="3"/>
-      <c r="G273" s="3"/>
-      <c r="H273" s="36">
-        <f t="shared" si="42"/>
-        <v>0</v>
+      <c r="B273" s="89">
+        <v>45257</v>
+      </c>
+      <c r="C273" s="90">
+        <v>7</v>
+      </c>
+      <c r="D273" s="91" t="s">
+        <v>196</v>
+      </c>
+      <c r="E273" s="91">
+        <v>14</v>
+      </c>
+      <c r="F273" s="91">
+        <v>250</v>
+      </c>
+      <c r="G273" s="91">
+        <v>0</v>
+      </c>
+      <c r="H273" s="92">
+        <f>(F273*E273)+G273</f>
+        <v>3500</v>
       </c>
       <c r="I273" s="11">
         <f t="shared" si="41"/>
-        <v>7116788.0599999996</v>
+        <v>8514150.8599999975</v>
       </c>
     </row>
     <row r="274" spans="2:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="B274" s="3"/>
-      <c r="C274" s="9"/>
-      <c r="D274" s="3"/>
-      <c r="E274" s="3"/>
-      <c r="F274" s="3"/>
-      <c r="G274" s="3"/>
-      <c r="H274" s="36">
-        <f t="shared" si="42"/>
-        <v>0</v>
+      <c r="B274" s="89">
+        <v>45257</v>
+      </c>
+      <c r="C274" s="90">
+        <v>7</v>
+      </c>
+      <c r="D274" s="91" t="s">
+        <v>106</v>
+      </c>
+      <c r="E274" s="91">
+        <v>2</v>
+      </c>
+      <c r="F274" s="91">
+        <v>400</v>
+      </c>
+      <c r="G274" s="91">
+        <v>0</v>
+      </c>
+      <c r="H274" s="92">
+        <f>(F274*E274)+G274</f>
+        <v>800</v>
       </c>
       <c r="I274" s="11">
         <f t="shared" si="41"/>
-        <v>7116788.0599999996</v>
+        <v>8514950.8599999975</v>
       </c>
     </row>
     <row r="275" spans="2:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="B275" s="3"/>
-      <c r="C275" s="9"/>
-      <c r="D275" s="3"/>
-      <c r="E275" s="3"/>
-      <c r="F275" s="3"/>
-      <c r="G275" s="3"/>
-      <c r="H275" s="36">
-        <f t="shared" si="42"/>
-        <v>0</v>
+      <c r="B275" s="89">
+        <v>45257</v>
+      </c>
+      <c r="C275" s="90">
+        <v>7</v>
+      </c>
+      <c r="D275" s="91" t="s">
+        <v>70</v>
+      </c>
+      <c r="E275" s="91">
+        <v>0</v>
+      </c>
+      <c r="F275" s="91">
+        <v>0</v>
+      </c>
+      <c r="G275" s="91">
+        <v>0</v>
+      </c>
+      <c r="H275" s="92">
+        <v>1630</v>
       </c>
       <c r="I275" s="11">
         <f t="shared" si="41"/>
-        <v>7116788.0599999996</v>
+        <v>8516580.8599999975</v>
       </c>
     </row>
     <row r="276" spans="2:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="B276" s="3"/>
-      <c r="C276" s="9"/>
-      <c r="D276" s="3"/>
-      <c r="E276" s="3"/>
-      <c r="F276" s="3"/>
-      <c r="G276" s="3"/>
-      <c r="H276" s="36">
-        <f t="shared" si="42"/>
-        <v>0</v>
+      <c r="B276" s="26">
+        <v>45258</v>
+      </c>
+      <c r="C276" s="47">
+        <v>3</v>
+      </c>
+      <c r="D276" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E276" s="27">
+        <v>25</v>
+      </c>
+      <c r="F276" s="27">
+        <v>1320</v>
+      </c>
+      <c r="G276" s="27">
+        <v>500</v>
+      </c>
+      <c r="H276" s="28">
+        <f t="shared" ref="H276" si="42">(E276*F276)+G276</f>
+        <v>33500</v>
       </c>
       <c r="I276" s="11">
         <f t="shared" si="41"/>
-        <v>7116788.0599999996</v>
+        <v>8550080.8599999975</v>
       </c>
     </row>
     <row r="277" spans="2:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="B277" s="3"/>
-      <c r="C277" s="9"/>
-      <c r="D277" s="3"/>
-      <c r="E277" s="3"/>
-      <c r="F277" s="3"/>
-      <c r="G277" s="3"/>
-      <c r="H277" s="36">
-        <f t="shared" si="42"/>
-        <v>0</v>
+      <c r="B277" s="26">
+        <v>45259</v>
+      </c>
+      <c r="C277" s="47">
+        <v>3</v>
+      </c>
+      <c r="D277" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E277" s="27">
+        <v>25</v>
+      </c>
+      <c r="F277" s="27">
+        <v>1320</v>
+      </c>
+      <c r="G277" s="27">
+        <v>500</v>
+      </c>
+      <c r="H277" s="28">
+        <f t="shared" ref="H277:H278" si="43">(E277*F277)+G277</f>
+        <v>33500</v>
       </c>
       <c r="I277" s="11">
         <f t="shared" si="41"/>
-        <v>7116788.0599999996</v>
+        <v>8583580.8599999975</v>
       </c>
     </row>
     <row r="278" spans="2:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="B278" s="3"/>
-      <c r="C278" s="9"/>
-      <c r="D278" s="3"/>
-      <c r="E278" s="3"/>
-      <c r="F278" s="3"/>
-      <c r="G278" s="3"/>
-      <c r="H278" s="36">
-        <f t="shared" si="42"/>
-        <v>0</v>
+      <c r="B278" s="136">
+        <v>45215</v>
+      </c>
+      <c r="C278" s="137">
+        <v>1</v>
+      </c>
+      <c r="D278" s="138" t="s">
+        <v>35</v>
+      </c>
+      <c r="E278" s="138">
+        <v>60</v>
+      </c>
+      <c r="F278" s="138">
+        <v>140</v>
+      </c>
+      <c r="G278" s="138"/>
+      <c r="H278" s="139">
+        <f t="shared" si="43"/>
+        <v>8400</v>
       </c>
       <c r="I278" s="11">
         <f t="shared" si="41"/>
-        <v>7116788.0599999996</v>
+        <v>8591980.8599999975</v>
       </c>
     </row>
     <row r="279" spans="2:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="B279" s="3"/>
-      <c r="C279" s="9"/>
-      <c r="D279" s="3"/>
-      <c r="E279" s="3"/>
-      <c r="F279" s="3"/>
-      <c r="G279" s="3"/>
-      <c r="H279" s="36">
-        <f t="shared" si="42"/>
-        <v>0</v>
+      <c r="B279" s="26">
+        <v>45264</v>
+      </c>
+      <c r="C279" s="47">
+        <v>3</v>
+      </c>
+      <c r="D279" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E279" s="27">
+        <v>25</v>
+      </c>
+      <c r="F279" s="27">
+        <v>1320</v>
+      </c>
+      <c r="G279" s="27">
+        <v>500</v>
+      </c>
+      <c r="H279" s="28">
+        <f t="shared" ref="H279" si="44">(E279*F279)+G279</f>
+        <v>33500</v>
       </c>
       <c r="I279" s="11">
         <f t="shared" si="41"/>
-        <v>7116788.0599999996</v>
+        <v>8625480.8599999975</v>
       </c>
     </row>
     <row r="280" spans="2:9" ht="21" x14ac:dyDescent="0.4">
       <c r="B280" s="3"/>
       <c r="C280" s="9"/>
-      <c r="D280" s="3"/>
+      <c r="D280" s="3" t="s">
+        <v>211</v>
+      </c>
       <c r="E280" s="3"/>
       <c r="F280" s="3"/>
       <c r="G280" s="3"/>
       <c r="H280" s="36">
-        <f t="shared" si="42"/>
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="I280" s="11">
         <f t="shared" si="41"/>
-        <v>7116788.0599999996</v>
+        <v>8628980.8599999975</v>
       </c>
     </row>
     <row r="281" spans="2:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="B281" s="3"/>
-      <c r="C281" s="9"/>
-      <c r="D281" s="3"/>
-      <c r="E281" s="3"/>
-      <c r="F281" s="3"/>
-      <c r="G281" s="3"/>
-      <c r="H281" s="36">
-        <f t="shared" si="42"/>
-        <v>0</v>
+      <c r="B281" s="89">
+        <v>45263</v>
+      </c>
+      <c r="C281" s="90">
+        <v>7</v>
+      </c>
+      <c r="D281" s="91" t="s">
+        <v>70</v>
+      </c>
+      <c r="E281" s="91">
+        <v>0</v>
+      </c>
+      <c r="F281" s="91">
+        <v>0</v>
+      </c>
+      <c r="G281" s="91">
+        <v>0</v>
+      </c>
+      <c r="H281" s="92">
+        <v>13000</v>
       </c>
       <c r="I281" s="11">
         <f t="shared" si="41"/>
-        <v>7116788.0599999996</v>
+        <v>8641980.8599999975</v>
       </c>
     </row>
     <row r="282" spans="2:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="B282" s="3"/>
-      <c r="C282" s="9"/>
-      <c r="D282" s="3"/>
-      <c r="E282" s="3"/>
-      <c r="F282" s="3"/>
-      <c r="G282" s="3"/>
-      <c r="H282" s="36">
-        <f t="shared" si="42"/>
-        <v>0</v>
+      <c r="B282" s="136">
+        <v>45270</v>
+      </c>
+      <c r="C282" s="137">
+        <v>1</v>
+      </c>
+      <c r="D282" s="138" t="s">
+        <v>35</v>
+      </c>
+      <c r="E282" s="138">
+        <v>30</v>
+      </c>
+      <c r="F282" s="138">
+        <v>130</v>
+      </c>
+      <c r="G282" s="138"/>
+      <c r="H282" s="139">
+        <f t="shared" ref="H282:H283" si="45">(E282*F282)+G282</f>
+        <v>3900</v>
       </c>
       <c r="I282" s="11">
         <f t="shared" si="41"/>
-        <v>7116788.0599999996</v>
+        <v>8645880.8599999975</v>
       </c>
     </row>
     <row r="283" spans="2:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="B283" s="3"/>
-      <c r="C283" s="9"/>
-      <c r="D283" s="3"/>
-      <c r="E283" s="3"/>
-      <c r="F283" s="3"/>
-      <c r="G283" s="3"/>
-      <c r="H283" s="36">
-        <f t="shared" si="42"/>
-        <v>0</v>
+      <c r="B283" s="26">
+        <v>45270</v>
+      </c>
+      <c r="C283" s="47">
+        <v>3</v>
+      </c>
+      <c r="D283" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E283" s="27">
+        <v>300</v>
+      </c>
+      <c r="F283" s="27">
+        <v>1270</v>
+      </c>
+      <c r="G283" s="27"/>
+      <c r="H283" s="28">
+        <f t="shared" si="45"/>
+        <v>381000</v>
       </c>
       <c r="I283" s="11">
         <f t="shared" si="41"/>
-        <v>7116788.0599999996</v>
+        <v>9026880.8599999975</v>
       </c>
     </row>
     <row r="284" spans="2:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="B284" s="3"/>
-      <c r="C284" s="9"/>
-      <c r="D284" s="3"/>
-      <c r="E284" s="3"/>
-      <c r="F284" s="3"/>
-      <c r="G284" s="3"/>
-      <c r="H284" s="36">
-        <f t="shared" si="42"/>
-        <v>0</v>
+      <c r="B284" s="89">
+        <v>45271</v>
+      </c>
+      <c r="C284" s="90">
+        <v>7</v>
+      </c>
+      <c r="D284" s="91" t="s">
+        <v>212</v>
+      </c>
+      <c r="E284" s="91">
+        <v>0</v>
+      </c>
+      <c r="F284" s="91">
+        <v>0</v>
+      </c>
+      <c r="G284" s="91">
+        <v>0</v>
+      </c>
+      <c r="H284" s="92">
+        <v>1400000</v>
       </c>
       <c r="I284" s="11">
         <f t="shared" si="41"/>
-        <v>7116788.0599999996</v>
+        <v>10426880.859999998</v>
       </c>
     </row>
     <row r="285" spans="2:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="B285" s="3"/>
-      <c r="C285" s="9"/>
-      <c r="D285" s="3"/>
-      <c r="E285" s="3"/>
-      <c r="F285" s="3"/>
-      <c r="G285" s="3"/>
-      <c r="H285" s="36">
-        <f t="shared" si="42"/>
-        <v>0</v>
+      <c r="B285" s="26">
+        <v>45271</v>
+      </c>
+      <c r="C285" s="47">
+        <v>3</v>
+      </c>
+      <c r="D285" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E285" s="27">
+        <v>300</v>
+      </c>
+      <c r="F285" s="27">
+        <v>1255</v>
+      </c>
+      <c r="G285" s="27"/>
+      <c r="H285" s="28">
+        <f t="shared" ref="H285" si="46">(E285*F285)+G285</f>
+        <v>376500</v>
       </c>
       <c r="I285" s="11">
         <f t="shared" si="41"/>
-        <v>7116788.0599999996</v>
+        <v>10803380.859999998</v>
       </c>
     </row>
     <row r="286" spans="2:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="B286" s="3"/>
-      <c r="C286" s="9"/>
-      <c r="D286" s="3"/>
-      <c r="E286" s="3"/>
-      <c r="F286" s="3"/>
-      <c r="G286" s="3"/>
-      <c r="H286" s="36">
-        <f t="shared" si="42"/>
+      <c r="B286" s="132"/>
+      <c r="C286" s="133"/>
+      <c r="D286" s="134"/>
+      <c r="E286" s="134"/>
+      <c r="F286" s="134"/>
+      <c r="G286" s="134"/>
+      <c r="H286" s="135">
         <v>0</v>
       </c>
       <c r="I286" s="11">
         <f t="shared" si="41"/>
-        <v>7116788.0599999996</v>
+        <v>10803380.859999998</v>
       </c>
     </row>
     <row r="287" spans="2:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="B287" s="3"/>
-      <c r="C287" s="9"/>
-      <c r="D287" s="3"/>
-      <c r="E287" s="3"/>
-      <c r="F287" s="3"/>
-      <c r="G287" s="3"/>
-      <c r="H287" s="36">
-        <f t="shared" si="42"/>
-        <v>0</v>
+      <c r="B287" s="132">
+        <v>45264</v>
+      </c>
+      <c r="C287" s="133">
+        <v>16</v>
+      </c>
+      <c r="D287" s="134" t="s">
+        <v>210</v>
+      </c>
+      <c r="E287" s="134"/>
+      <c r="F287" s="134"/>
+      <c r="G287" s="134"/>
+      <c r="H287" s="135">
+        <v>35000</v>
       </c>
       <c r="I287" s="11">
         <f t="shared" si="41"/>
-        <v>7116788.0599999996</v>
+        <v>10838380.859999998</v>
       </c>
     </row>
     <row r="288" spans="2:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="B288" s="3"/>
-      <c r="C288" s="9"/>
-      <c r="D288" s="3"/>
-      <c r="E288" s="3"/>
-      <c r="F288" s="3"/>
-      <c r="G288" s="3"/>
-      <c r="H288" s="36">
-        <f t="shared" si="42"/>
-        <v>0</v>
+      <c r="B288" s="132">
+        <v>45270</v>
+      </c>
+      <c r="C288" s="133">
+        <v>16</v>
+      </c>
+      <c r="D288" s="134" t="s">
+        <v>210</v>
+      </c>
+      <c r="E288" s="134"/>
+      <c r="F288" s="134"/>
+      <c r="G288" s="134"/>
+      <c r="H288" s="135">
+        <v>30000</v>
       </c>
       <c r="I288" s="11">
         <f t="shared" si="41"/>
-        <v>7116788.0599999996</v>
+        <v>10868380.859999998</v>
       </c>
     </row>
     <row r="289" spans="2:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="B289" s="3"/>
-      <c r="C289" s="9"/>
-      <c r="D289" s="3"/>
-      <c r="E289" s="3"/>
-      <c r="F289" s="3"/>
-      <c r="G289" s="3"/>
-      <c r="H289" s="36">
-        <f t="shared" si="42"/>
-        <v>0</v>
+      <c r="B289" s="81">
+        <v>45260</v>
+      </c>
+      <c r="C289" s="82">
+        <v>6</v>
+      </c>
+      <c r="D289" s="83" t="s">
+        <v>32</v>
+      </c>
+      <c r="E289" s="83"/>
+      <c r="F289" s="83"/>
+      <c r="G289" s="83"/>
+      <c r="H289" s="84">
+        <v>100000</v>
       </c>
       <c r="I289" s="11">
         <f t="shared" si="41"/>
-        <v>7116788.0599999996</v>
+        <v>10968380.859999998</v>
       </c>
     </row>
     <row r="290" spans="2:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="B290" s="3"/>
-      <c r="C290" s="9"/>
-      <c r="D290" s="3"/>
-      <c r="E290" s="3"/>
-      <c r="F290" s="3"/>
-      <c r="G290" s="3"/>
-      <c r="H290" s="36">
-        <f t="shared" si="42"/>
-        <v>0</v>
+      <c r="B290" s="81">
+        <v>45267</v>
+      </c>
+      <c r="C290" s="82">
+        <v>6</v>
+      </c>
+      <c r="D290" s="83" t="s">
+        <v>32</v>
+      </c>
+      <c r="E290" s="83"/>
+      <c r="F290" s="83"/>
+      <c r="G290" s="83"/>
+      <c r="H290" s="84">
+        <v>65000</v>
       </c>
       <c r="I290" s="11">
         <f t="shared" si="41"/>
-        <v>7116788.0599999996</v>
+        <v>11033380.859999998</v>
       </c>
     </row>
     <row r="291" spans="2:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="B291" s="3"/>
-      <c r="C291" s="9"/>
-      <c r="D291" s="3"/>
-      <c r="E291" s="3"/>
-      <c r="F291" s="3"/>
-      <c r="G291" s="3"/>
-      <c r="H291" s="36">
-        <f t="shared" si="42"/>
-        <v>0</v>
+      <c r="B291" s="195">
+        <v>45260</v>
+      </c>
+      <c r="C291" s="196">
+        <v>17</v>
+      </c>
+      <c r="D291" s="197" t="s">
+        <v>86</v>
+      </c>
+      <c r="E291" s="197"/>
+      <c r="F291" s="197"/>
+      <c r="G291" s="197"/>
+      <c r="H291" s="198">
+        <v>30000</v>
       </c>
       <c r="I291" s="11">
         <f t="shared" si="41"/>
-        <v>7116788.0599999996</v>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="292" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -9481,12 +9755,12 @@
       <c r="F292" s="3"/>
       <c r="G292" s="3"/>
       <c r="H292" s="36">
-        <f t="shared" si="42"/>
+        <f t="shared" ref="H280:H314" si="47">(E292*F292)+G292</f>
         <v>0</v>
       </c>
       <c r="I292" s="11">
         <f t="shared" si="41"/>
-        <v>7116788.0599999996</v>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="293" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -9497,12 +9771,12 @@
       <c r="F293" s="3"/>
       <c r="G293" s="3"/>
       <c r="H293" s="36">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="I293" s="11">
         <f t="shared" si="41"/>
-        <v>7116788.0599999996</v>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="294" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -9513,12 +9787,12 @@
       <c r="F294" s="3"/>
       <c r="G294" s="3"/>
       <c r="H294" s="36">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="I294" s="11">
         <f t="shared" si="41"/>
-        <v>7116788.0599999996</v>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="295" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -9529,12 +9803,12 @@
       <c r="F295" s="3"/>
       <c r="G295" s="3"/>
       <c r="H295" s="36">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="I295" s="11">
         <f t="shared" si="41"/>
-        <v>7116788.0599999996</v>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="296" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -9545,12 +9819,12 @@
       <c r="F296" s="3"/>
       <c r="G296" s="3"/>
       <c r="H296" s="36">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="I296" s="11">
         <f t="shared" si="41"/>
-        <v>7116788.0599999996</v>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="297" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -9561,12 +9835,12 @@
       <c r="F297" s="3"/>
       <c r="G297" s="3"/>
       <c r="H297" s="36">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="I297" s="11">
         <f t="shared" si="41"/>
-        <v>7116788.0599999996</v>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="298" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -9577,12 +9851,12 @@
       <c r="F298" s="3"/>
       <c r="G298" s="3"/>
       <c r="H298" s="36">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="I298" s="11">
         <f t="shared" si="41"/>
-        <v>7116788.0599999996</v>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="299" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -9593,12 +9867,12 @@
       <c r="F299" s="3"/>
       <c r="G299" s="3"/>
       <c r="H299" s="36">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="I299" s="11">
         <f t="shared" si="41"/>
-        <v>7116788.0599999996</v>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="300" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -9609,12 +9883,12 @@
       <c r="F300" s="3"/>
       <c r="G300" s="3"/>
       <c r="H300" s="36">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="I300" s="11">
         <f t="shared" si="41"/>
-        <v>7116788.0599999996</v>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="301" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -9625,12 +9899,12 @@
       <c r="F301" s="3"/>
       <c r="G301" s="3"/>
       <c r="H301" s="36">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="I301" s="11">
         <f t="shared" si="41"/>
-        <v>7116788.0599999996</v>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="302" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -9641,12 +9915,12 @@
       <c r="F302" s="3"/>
       <c r="G302" s="3"/>
       <c r="H302" s="36">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="I302" s="11">
         <f t="shared" si="41"/>
-        <v>7116788.0599999996</v>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="303" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -9657,12 +9931,12 @@
       <c r="F303" s="3"/>
       <c r="G303" s="3"/>
       <c r="H303" s="36">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="I303" s="11">
         <f t="shared" si="41"/>
-        <v>7116788.0599999996</v>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="304" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -9673,12 +9947,12 @@
       <c r="F304" s="3"/>
       <c r="G304" s="3"/>
       <c r="H304" s="36">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="I304" s="11">
         <f t="shared" si="41"/>
-        <v>7116788.0599999996</v>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="305" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -9689,12 +9963,12 @@
       <c r="F305" s="3"/>
       <c r="G305" s="3"/>
       <c r="H305" s="36">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="I305" s="11">
         <f t="shared" si="41"/>
-        <v>7116788.0599999996</v>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="306" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -9705,12 +9979,12 @@
       <c r="F306" s="3"/>
       <c r="G306" s="3"/>
       <c r="H306" s="36">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="I306" s="11">
         <f t="shared" si="41"/>
-        <v>7116788.0599999996</v>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="307" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -9721,12 +9995,12 @@
       <c r="F307" s="3"/>
       <c r="G307" s="3"/>
       <c r="H307" s="36">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="I307" s="11">
         <f t="shared" si="41"/>
-        <v>7116788.0599999996</v>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="308" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -9737,12 +10011,12 @@
       <c r="F308" s="3"/>
       <c r="G308" s="3"/>
       <c r="H308" s="36">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="I308" s="11">
         <f t="shared" si="41"/>
-        <v>7116788.0599999996</v>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="309" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -9753,12 +10027,12 @@
       <c r="F309" s="3"/>
       <c r="G309" s="3"/>
       <c r="H309" s="36">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="I309" s="11">
         <f t="shared" si="41"/>
-        <v>7116788.0599999996</v>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="310" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -9769,12 +10043,12 @@
       <c r="F310" s="3"/>
       <c r="G310" s="3"/>
       <c r="H310" s="36">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="I310" s="11">
         <f t="shared" si="41"/>
-        <v>7116788.0599999996</v>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="311" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -9785,12 +10059,12 @@
       <c r="F311" s="3"/>
       <c r="G311" s="3"/>
       <c r="H311" s="36">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="I311" s="11">
         <f t="shared" si="41"/>
-        <v>7116788.0599999996</v>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="312" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -9801,12 +10075,12 @@
       <c r="F312" s="3"/>
       <c r="G312" s="3"/>
       <c r="H312" s="36">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="I312" s="11">
         <f t="shared" si="41"/>
-        <v>7116788.0599999996</v>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="313" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -9817,12 +10091,12 @@
       <c r="F313" s="3"/>
       <c r="G313" s="3"/>
       <c r="H313" s="36">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="I313" s="11">
         <f t="shared" si="41"/>
-        <v>7116788.0599999996</v>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="314" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -9833,12 +10107,12 @@
       <c r="F314" s="3"/>
       <c r="G314" s="3"/>
       <c r="H314" s="36">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="I314" s="11">
         <f t="shared" si="41"/>
-        <v>7116788.0599999996</v>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="315" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -9849,12 +10123,12 @@
       <c r="F315" s="3"/>
       <c r="G315" s="3"/>
       <c r="H315" s="36">
-        <f t="shared" ref="H315:H378" si="43">(E315*F315)+G315</f>
+        <f t="shared" ref="H315:H378" si="48">(E315*F315)+G315</f>
         <v>0</v>
       </c>
       <c r="I315" s="11">
         <f t="shared" si="41"/>
-        <v>7116788.0599999996</v>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="316" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -9865,12 +10139,12 @@
       <c r="F316" s="3"/>
       <c r="G316" s="3"/>
       <c r="H316" s="36">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="I316" s="11">
         <f t="shared" si="41"/>
-        <v>7116788.0599999996</v>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="317" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -9881,12 +10155,12 @@
       <c r="F317" s="3"/>
       <c r="G317" s="3"/>
       <c r="H317" s="36">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="I317" s="11">
         <f t="shared" si="41"/>
-        <v>7116788.0599999996</v>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="318" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -9897,12 +10171,12 @@
       <c r="F318" s="3"/>
       <c r="G318" s="3"/>
       <c r="H318" s="36">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="I318" s="11">
         <f t="shared" si="41"/>
-        <v>7116788.0599999996</v>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="319" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -9913,12 +10187,12 @@
       <c r="F319" s="3"/>
       <c r="G319" s="3"/>
       <c r="H319" s="36">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="I319" s="11">
         <f t="shared" si="41"/>
-        <v>7116788.0599999996</v>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="320" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -9929,12 +10203,12 @@
       <c r="F320" s="3"/>
       <c r="G320" s="3"/>
       <c r="H320" s="36">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="I320" s="11">
         <f t="shared" si="41"/>
-        <v>7116788.0599999996</v>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="321" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -9945,12 +10219,12 @@
       <c r="F321" s="3"/>
       <c r="G321" s="3"/>
       <c r="H321" s="36">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="I321" s="11">
         <f t="shared" si="41"/>
-        <v>7116788.0599999996</v>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="322" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -9961,12 +10235,12 @@
       <c r="F322" s="3"/>
       <c r="G322" s="3"/>
       <c r="H322" s="36">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="I322" s="11">
         <f t="shared" si="41"/>
-        <v>7116788.0599999996</v>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="323" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -9977,12 +10251,12 @@
       <c r="F323" s="3"/>
       <c r="G323" s="3"/>
       <c r="H323" s="36">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="I323" s="11">
         <f t="shared" si="41"/>
-        <v>7116788.0599999996</v>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="324" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -9993,12 +10267,12 @@
       <c r="F324" s="3"/>
       <c r="G324" s="3"/>
       <c r="H324" s="36">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="I324" s="11">
         <f t="shared" si="41"/>
-        <v>7116788.0599999996</v>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="325" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -10009,12 +10283,12 @@
       <c r="F325" s="3"/>
       <c r="G325" s="3"/>
       <c r="H325" s="36">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="I325" s="11">
         <f t="shared" si="41"/>
-        <v>7116788.0599999996</v>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="326" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -10025,12 +10299,12 @@
       <c r="F326" s="3"/>
       <c r="G326" s="3"/>
       <c r="H326" s="36">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="I326" s="11">
         <f t="shared" si="41"/>
-        <v>7116788.0599999996</v>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="327" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -10041,12 +10315,12 @@
       <c r="F327" s="3"/>
       <c r="G327" s="3"/>
       <c r="H327" s="36">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="I327" s="11">
         <f t="shared" si="41"/>
-        <v>7116788.0599999996</v>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="328" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -10057,12 +10331,12 @@
       <c r="F328" s="3"/>
       <c r="G328" s="3"/>
       <c r="H328" s="36">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="I328" s="11">
-        <f t="shared" ref="I328:I391" si="44">I327+H328</f>
-        <v>7116788.0599999996</v>
+        <f t="shared" ref="I328:I391" si="49">I327+H328</f>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="329" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -10073,12 +10347,12 @@
       <c r="F329" s="3"/>
       <c r="G329" s="3"/>
       <c r="H329" s="36">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="I329" s="11">
-        <f t="shared" si="44"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="49"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="330" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -10089,12 +10363,12 @@
       <c r="F330" s="3"/>
       <c r="G330" s="3"/>
       <c r="H330" s="36">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="I330" s="11">
-        <f t="shared" si="44"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="49"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="331" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -10105,12 +10379,12 @@
       <c r="F331" s="3"/>
       <c r="G331" s="3"/>
       <c r="H331" s="36">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="I331" s="11">
-        <f t="shared" si="44"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="49"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="332" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -10121,12 +10395,12 @@
       <c r="F332" s="3"/>
       <c r="G332" s="3"/>
       <c r="H332" s="36">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="I332" s="11">
-        <f t="shared" si="44"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="49"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="333" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -10137,12 +10411,12 @@
       <c r="F333" s="3"/>
       <c r="G333" s="3"/>
       <c r="H333" s="36">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="I333" s="11">
-        <f t="shared" si="44"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="49"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="334" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -10153,12 +10427,12 @@
       <c r="F334" s="3"/>
       <c r="G334" s="3"/>
       <c r="H334" s="36">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="I334" s="11">
-        <f t="shared" si="44"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="49"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="335" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -10169,12 +10443,12 @@
       <c r="F335" s="3"/>
       <c r="G335" s="3"/>
       <c r="H335" s="36">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="I335" s="11">
-        <f t="shared" si="44"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="49"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="336" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -10185,12 +10459,12 @@
       <c r="F336" s="3"/>
       <c r="G336" s="3"/>
       <c r="H336" s="36">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="I336" s="11">
-        <f t="shared" si="44"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="49"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="337" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -10201,12 +10475,12 @@
       <c r="F337" s="3"/>
       <c r="G337" s="3"/>
       <c r="H337" s="36">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="I337" s="11">
-        <f t="shared" si="44"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="49"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="338" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -10217,12 +10491,12 @@
       <c r="F338" s="3"/>
       <c r="G338" s="3"/>
       <c r="H338" s="36">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="I338" s="11">
-        <f t="shared" si="44"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="49"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="339" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -10233,12 +10507,12 @@
       <c r="F339" s="3"/>
       <c r="G339" s="3"/>
       <c r="H339" s="36">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="I339" s="11">
-        <f t="shared" si="44"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="49"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="340" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -10249,12 +10523,12 @@
       <c r="F340" s="3"/>
       <c r="G340" s="3"/>
       <c r="H340" s="36">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="I340" s="11">
-        <f t="shared" si="44"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="49"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="341" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -10265,12 +10539,12 @@
       <c r="F341" s="3"/>
       <c r="G341" s="3"/>
       <c r="H341" s="36">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="I341" s="11">
-        <f t="shared" si="44"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="49"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="342" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -10281,12 +10555,12 @@
       <c r="F342" s="3"/>
       <c r="G342" s="3"/>
       <c r="H342" s="36">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="I342" s="11">
-        <f t="shared" si="44"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="49"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="343" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -10297,12 +10571,12 @@
       <c r="F343" s="3"/>
       <c r="G343" s="3"/>
       <c r="H343" s="36">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="I343" s="11">
-        <f t="shared" si="44"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="49"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="344" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -10313,12 +10587,12 @@
       <c r="F344" s="3"/>
       <c r="G344" s="3"/>
       <c r="H344" s="36">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="I344" s="11">
-        <f t="shared" si="44"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="49"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="345" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -10329,12 +10603,12 @@
       <c r="F345" s="3"/>
       <c r="G345" s="3"/>
       <c r="H345" s="36">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="I345" s="11">
-        <f t="shared" si="44"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="49"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="346" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -10345,12 +10619,12 @@
       <c r="F346" s="3"/>
       <c r="G346" s="3"/>
       <c r="H346" s="36">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="I346" s="11">
-        <f t="shared" si="44"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="49"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="347" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -10361,12 +10635,12 @@
       <c r="F347" s="3"/>
       <c r="G347" s="3"/>
       <c r="H347" s="36">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="I347" s="11">
-        <f t="shared" si="44"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="49"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="348" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -10377,12 +10651,12 @@
       <c r="F348" s="3"/>
       <c r="G348" s="3"/>
       <c r="H348" s="36">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="I348" s="11">
-        <f t="shared" si="44"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="49"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="349" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -10393,12 +10667,12 @@
       <c r="F349" s="3"/>
       <c r="G349" s="3"/>
       <c r="H349" s="36">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="I349" s="11">
-        <f t="shared" si="44"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="49"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="350" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -10409,12 +10683,12 @@
       <c r="F350" s="3"/>
       <c r="G350" s="3"/>
       <c r="H350" s="36">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="I350" s="11">
-        <f t="shared" si="44"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="49"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="351" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -10425,12 +10699,12 @@
       <c r="F351" s="3"/>
       <c r="G351" s="3"/>
       <c r="H351" s="36">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="I351" s="11">
-        <f t="shared" si="44"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="49"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="352" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -10441,12 +10715,12 @@
       <c r="F352" s="3"/>
       <c r="G352" s="3"/>
       <c r="H352" s="36">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="I352" s="11">
-        <f t="shared" si="44"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="49"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="353" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -10457,12 +10731,12 @@
       <c r="F353" s="3"/>
       <c r="G353" s="3"/>
       <c r="H353" s="36">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="I353" s="11">
-        <f t="shared" si="44"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="49"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="354" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -10473,12 +10747,12 @@
       <c r="F354" s="3"/>
       <c r="G354" s="3"/>
       <c r="H354" s="36">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="I354" s="11">
-        <f t="shared" si="44"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="49"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="355" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -10489,12 +10763,12 @@
       <c r="F355" s="3"/>
       <c r="G355" s="3"/>
       <c r="H355" s="36">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="I355" s="11">
-        <f t="shared" si="44"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="49"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="356" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -10505,12 +10779,12 @@
       <c r="F356" s="3"/>
       <c r="G356" s="3"/>
       <c r="H356" s="36">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="I356" s="11">
-        <f t="shared" si="44"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="49"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="357" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -10521,12 +10795,12 @@
       <c r="F357" s="3"/>
       <c r="G357" s="3"/>
       <c r="H357" s="36">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="I357" s="11">
-        <f t="shared" si="44"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="49"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="358" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -10537,12 +10811,12 @@
       <c r="F358" s="3"/>
       <c r="G358" s="3"/>
       <c r="H358" s="36">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="I358" s="11">
-        <f t="shared" si="44"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="49"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="359" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -10553,12 +10827,12 @@
       <c r="F359" s="3"/>
       <c r="G359" s="3"/>
       <c r="H359" s="36">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="I359" s="11">
-        <f t="shared" si="44"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="49"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="360" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -10569,12 +10843,12 @@
       <c r="F360" s="3"/>
       <c r="G360" s="3"/>
       <c r="H360" s="36">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="I360" s="11">
-        <f t="shared" si="44"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="49"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="361" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -10585,12 +10859,12 @@
       <c r="F361" s="3"/>
       <c r="G361" s="3"/>
       <c r="H361" s="36">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="I361" s="11">
-        <f t="shared" si="44"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="49"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="362" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -10601,12 +10875,12 @@
       <c r="F362" s="3"/>
       <c r="G362" s="3"/>
       <c r="H362" s="36">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="I362" s="11">
-        <f t="shared" si="44"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="49"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="363" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -10617,12 +10891,12 @@
       <c r="F363" s="3"/>
       <c r="G363" s="3"/>
       <c r="H363" s="36">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="I363" s="11">
-        <f t="shared" si="44"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="49"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="364" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -10633,12 +10907,12 @@
       <c r="F364" s="3"/>
       <c r="G364" s="3"/>
       <c r="H364" s="36">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="I364" s="11">
-        <f t="shared" si="44"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="49"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="365" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -10649,12 +10923,12 @@
       <c r="F365" s="3"/>
       <c r="G365" s="3"/>
       <c r="H365" s="36">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="I365" s="11">
-        <f t="shared" si="44"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="49"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="366" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -10665,12 +10939,12 @@
       <c r="F366" s="3"/>
       <c r="G366" s="3"/>
       <c r="H366" s="36">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="I366" s="11">
-        <f t="shared" si="44"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="49"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="367" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -10681,12 +10955,12 @@
       <c r="F367" s="3"/>
       <c r="G367" s="3"/>
       <c r="H367" s="36">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="I367" s="11">
-        <f t="shared" si="44"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="49"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="368" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -10697,12 +10971,12 @@
       <c r="F368" s="3"/>
       <c r="G368" s="3"/>
       <c r="H368" s="36">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="I368" s="11">
-        <f t="shared" si="44"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="49"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="369" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -10713,12 +10987,12 @@
       <c r="F369" s="3"/>
       <c r="G369" s="3"/>
       <c r="H369" s="36">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="I369" s="11">
-        <f t="shared" si="44"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="49"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="370" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -10729,12 +11003,12 @@
       <c r="F370" s="3"/>
       <c r="G370" s="3"/>
       <c r="H370" s="36">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="I370" s="11">
-        <f t="shared" si="44"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="49"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="371" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -10745,12 +11019,12 @@
       <c r="F371" s="3"/>
       <c r="G371" s="3"/>
       <c r="H371" s="36">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="I371" s="11">
-        <f t="shared" si="44"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="49"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="372" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -10761,12 +11035,12 @@
       <c r="F372" s="3"/>
       <c r="G372" s="3"/>
       <c r="H372" s="36">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="I372" s="11">
-        <f t="shared" si="44"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="49"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="373" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -10777,12 +11051,12 @@
       <c r="F373" s="3"/>
       <c r="G373" s="3"/>
       <c r="H373" s="36">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="I373" s="11">
-        <f t="shared" si="44"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="49"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="374" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -10793,12 +11067,12 @@
       <c r="F374" s="3"/>
       <c r="G374" s="3"/>
       <c r="H374" s="36">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="I374" s="11">
-        <f t="shared" si="44"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="49"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="375" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -10809,12 +11083,12 @@
       <c r="F375" s="3"/>
       <c r="G375" s="3"/>
       <c r="H375" s="36">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="I375" s="11">
-        <f t="shared" si="44"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="49"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="376" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -10825,12 +11099,12 @@
       <c r="F376" s="3"/>
       <c r="G376" s="3"/>
       <c r="H376" s="36">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="I376" s="11">
-        <f t="shared" si="44"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="49"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="377" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -10841,12 +11115,12 @@
       <c r="F377" s="3"/>
       <c r="G377" s="3"/>
       <c r="H377" s="36">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="I377" s="11">
-        <f t="shared" si="44"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="49"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="378" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -10857,12 +11131,12 @@
       <c r="F378" s="3"/>
       <c r="G378" s="3"/>
       <c r="H378" s="36">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="I378" s="11">
-        <f t="shared" si="44"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="49"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="379" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -10873,12 +11147,12 @@
       <c r="F379" s="3"/>
       <c r="G379" s="3"/>
       <c r="H379" s="36">
-        <f t="shared" ref="H379:H442" si="45">(E379*F379)+G379</f>
+        <f t="shared" ref="H379:H442" si="50">(E379*F379)+G379</f>
         <v>0</v>
       </c>
       <c r="I379" s="11">
-        <f t="shared" si="44"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="49"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="380" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -10889,12 +11163,12 @@
       <c r="F380" s="3"/>
       <c r="G380" s="3"/>
       <c r="H380" s="36">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="I380" s="11">
-        <f t="shared" si="44"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="49"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="381" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -10905,12 +11179,12 @@
       <c r="F381" s="3"/>
       <c r="G381" s="3"/>
       <c r="H381" s="36">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="I381" s="11">
-        <f t="shared" si="44"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="49"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="382" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -10921,12 +11195,12 @@
       <c r="F382" s="3"/>
       <c r="G382" s="3"/>
       <c r="H382" s="36">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="I382" s="11">
-        <f t="shared" si="44"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="49"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="383" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -10937,12 +11211,12 @@
       <c r="F383" s="3"/>
       <c r="G383" s="3"/>
       <c r="H383" s="36">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="I383" s="11">
-        <f t="shared" si="44"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="49"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="384" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -10953,12 +11227,12 @@
       <c r="F384" s="3"/>
       <c r="G384" s="3"/>
       <c r="H384" s="36">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="I384" s="11">
-        <f t="shared" si="44"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="49"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="385" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -10969,12 +11243,12 @@
       <c r="F385" s="3"/>
       <c r="G385" s="3"/>
       <c r="H385" s="36">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="I385" s="11">
-        <f t="shared" si="44"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="49"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="386" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -10985,12 +11259,12 @@
       <c r="F386" s="3"/>
       <c r="G386" s="3"/>
       <c r="H386" s="36">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="I386" s="11">
-        <f t="shared" si="44"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="49"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="387" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11001,12 +11275,12 @@
       <c r="F387" s="3"/>
       <c r="G387" s="3"/>
       <c r="H387" s="36">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="I387" s="11">
-        <f t="shared" si="44"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="49"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="388" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11017,12 +11291,12 @@
       <c r="F388" s="3"/>
       <c r="G388" s="3"/>
       <c r="H388" s="36">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="I388" s="11">
-        <f t="shared" si="44"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="49"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="389" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11033,12 +11307,12 @@
       <c r="F389" s="3"/>
       <c r="G389" s="3"/>
       <c r="H389" s="36">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="I389" s="11">
-        <f t="shared" si="44"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="49"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="390" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11049,12 +11323,12 @@
       <c r="F390" s="3"/>
       <c r="G390" s="3"/>
       <c r="H390" s="36">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="I390" s="11">
-        <f t="shared" si="44"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="49"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="391" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11065,12 +11339,12 @@
       <c r="F391" s="3"/>
       <c r="G391" s="3"/>
       <c r="H391" s="36">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="I391" s="11">
-        <f t="shared" si="44"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="49"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="392" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11081,12 +11355,12 @@
       <c r="F392" s="3"/>
       <c r="G392" s="3"/>
       <c r="H392" s="36">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="I392" s="11">
-        <f t="shared" ref="I392:I455" si="46">I391+H392</f>
-        <v>7116788.0599999996</v>
+        <f t="shared" ref="I392:I455" si="51">I391+H392</f>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="393" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11097,12 +11371,12 @@
       <c r="F393" s="3"/>
       <c r="G393" s="3"/>
       <c r="H393" s="36">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="I393" s="11">
-        <f t="shared" si="46"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="51"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="394" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11113,12 +11387,12 @@
       <c r="F394" s="3"/>
       <c r="G394" s="3"/>
       <c r="H394" s="36">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="I394" s="11">
-        <f t="shared" si="46"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="51"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="395" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11129,12 +11403,12 @@
       <c r="F395" s="3"/>
       <c r="G395" s="3"/>
       <c r="H395" s="36">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="I395" s="11">
-        <f t="shared" si="46"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="51"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="396" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11145,12 +11419,12 @@
       <c r="F396" s="3"/>
       <c r="G396" s="3"/>
       <c r="H396" s="36">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="I396" s="11">
-        <f t="shared" si="46"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="51"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="397" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11161,12 +11435,12 @@
       <c r="F397" s="3"/>
       <c r="G397" s="3"/>
       <c r="H397" s="36">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="I397" s="11">
-        <f t="shared" si="46"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="51"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="398" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11177,12 +11451,12 @@
       <c r="F398" s="3"/>
       <c r="G398" s="3"/>
       <c r="H398" s="36">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="I398" s="11">
-        <f t="shared" si="46"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="51"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="399" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11193,12 +11467,12 @@
       <c r="F399" s="3"/>
       <c r="G399" s="3"/>
       <c r="H399" s="36">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="I399" s="11">
-        <f t="shared" si="46"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="51"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="400" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11209,12 +11483,12 @@
       <c r="F400" s="3"/>
       <c r="G400" s="3"/>
       <c r="H400" s="36">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="I400" s="11">
-        <f t="shared" si="46"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="51"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="401" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11225,12 +11499,12 @@
       <c r="F401" s="3"/>
       <c r="G401" s="3"/>
       <c r="H401" s="36">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="I401" s="11">
-        <f t="shared" si="46"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="51"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="402" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11241,12 +11515,12 @@
       <c r="F402" s="3"/>
       <c r="G402" s="3"/>
       <c r="H402" s="36">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="I402" s="11">
-        <f t="shared" si="46"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="51"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="403" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11257,12 +11531,12 @@
       <c r="F403" s="3"/>
       <c r="G403" s="3"/>
       <c r="H403" s="36">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="I403" s="11">
-        <f t="shared" si="46"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="51"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="404" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11273,12 +11547,12 @@
       <c r="F404" s="3"/>
       <c r="G404" s="3"/>
       <c r="H404" s="36">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="I404" s="11">
-        <f t="shared" si="46"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="51"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="405" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11289,12 +11563,12 @@
       <c r="F405" s="3"/>
       <c r="G405" s="3"/>
       <c r="H405" s="36">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="I405" s="11">
-        <f t="shared" si="46"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="51"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="406" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11305,12 +11579,12 @@
       <c r="F406" s="3"/>
       <c r="G406" s="3"/>
       <c r="H406" s="36">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="I406" s="11">
-        <f t="shared" si="46"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="51"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="407" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11321,12 +11595,12 @@
       <c r="F407" s="3"/>
       <c r="G407" s="3"/>
       <c r="H407" s="36">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="I407" s="11">
-        <f t="shared" si="46"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="51"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="408" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11337,12 +11611,12 @@
       <c r="F408" s="3"/>
       <c r="G408" s="3"/>
       <c r="H408" s="36">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="I408" s="11">
-        <f t="shared" si="46"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="51"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="409" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11353,12 +11627,12 @@
       <c r="F409" s="3"/>
       <c r="G409" s="3"/>
       <c r="H409" s="36">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="I409" s="11">
-        <f t="shared" si="46"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="51"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="410" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11369,12 +11643,12 @@
       <c r="F410" s="3"/>
       <c r="G410" s="3"/>
       <c r="H410" s="36">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="I410" s="11">
-        <f t="shared" si="46"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="51"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="411" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11385,12 +11659,12 @@
       <c r="F411" s="3"/>
       <c r="G411" s="3"/>
       <c r="H411" s="36">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="I411" s="11">
-        <f t="shared" si="46"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="51"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="412" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11401,12 +11675,12 @@
       <c r="F412" s="3"/>
       <c r="G412" s="3"/>
       <c r="H412" s="36">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="I412" s="11">
-        <f t="shared" si="46"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="51"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="413" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11417,12 +11691,12 @@
       <c r="F413" s="3"/>
       <c r="G413" s="3"/>
       <c r="H413" s="36">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="I413" s="11">
-        <f t="shared" si="46"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="51"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="414" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11433,12 +11707,12 @@
       <c r="F414" s="3"/>
       <c r="G414" s="3"/>
       <c r="H414" s="36">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="I414" s="11">
-        <f t="shared" si="46"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="51"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="415" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11449,12 +11723,12 @@
       <c r="F415" s="3"/>
       <c r="G415" s="3"/>
       <c r="H415" s="36">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="I415" s="11">
-        <f t="shared" si="46"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="51"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="416" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11465,12 +11739,12 @@
       <c r="F416" s="3"/>
       <c r="G416" s="3"/>
       <c r="H416" s="36">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="I416" s="11">
-        <f t="shared" si="46"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="51"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="417" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11481,12 +11755,12 @@
       <c r="F417" s="3"/>
       <c r="G417" s="3"/>
       <c r="H417" s="36">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="I417" s="11">
-        <f t="shared" si="46"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="51"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="418" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11497,12 +11771,12 @@
       <c r="F418" s="3"/>
       <c r="G418" s="3"/>
       <c r="H418" s="36">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="I418" s="11">
-        <f t="shared" si="46"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="51"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="419" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11513,12 +11787,12 @@
       <c r="F419" s="3"/>
       <c r="G419" s="3"/>
       <c r="H419" s="36">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="I419" s="11">
-        <f t="shared" si="46"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="51"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="420" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11529,12 +11803,12 @@
       <c r="F420" s="3"/>
       <c r="G420" s="3"/>
       <c r="H420" s="36">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="I420" s="11">
-        <f t="shared" si="46"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="51"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="421" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11545,12 +11819,12 @@
       <c r="F421" s="3"/>
       <c r="G421" s="3"/>
       <c r="H421" s="36">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="I421" s="11">
-        <f t="shared" si="46"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="51"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="422" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11561,12 +11835,12 @@
       <c r="F422" s="3"/>
       <c r="G422" s="3"/>
       <c r="H422" s="36">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="I422" s="11">
-        <f t="shared" si="46"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="51"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="423" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11577,12 +11851,12 @@
       <c r="F423" s="3"/>
       <c r="G423" s="3"/>
       <c r="H423" s="36">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="I423" s="11">
-        <f t="shared" si="46"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="51"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="424" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11593,12 +11867,12 @@
       <c r="F424" s="3"/>
       <c r="G424" s="3"/>
       <c r="H424" s="36">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="I424" s="11">
-        <f t="shared" si="46"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="51"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="425" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11609,12 +11883,12 @@
       <c r="F425" s="3"/>
       <c r="G425" s="3"/>
       <c r="H425" s="36">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="I425" s="11">
-        <f t="shared" si="46"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="51"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="426" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11625,12 +11899,12 @@
       <c r="F426" s="3"/>
       <c r="G426" s="3"/>
       <c r="H426" s="36">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="I426" s="11">
-        <f t="shared" si="46"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="51"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="427" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11641,12 +11915,12 @@
       <c r="F427" s="3"/>
       <c r="G427" s="3"/>
       <c r="H427" s="36">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="I427" s="11">
-        <f t="shared" si="46"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="51"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="428" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11657,12 +11931,12 @@
       <c r="F428" s="3"/>
       <c r="G428" s="3"/>
       <c r="H428" s="36">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="I428" s="11">
-        <f t="shared" si="46"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="51"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="429" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11673,12 +11947,12 @@
       <c r="F429" s="3"/>
       <c r="G429" s="3"/>
       <c r="H429" s="36">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="I429" s="11">
-        <f t="shared" si="46"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="51"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="430" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11689,12 +11963,12 @@
       <c r="F430" s="3"/>
       <c r="G430" s="3"/>
       <c r="H430" s="36">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="I430" s="11">
-        <f t="shared" si="46"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="51"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="431" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11705,12 +11979,12 @@
       <c r="F431" s="3"/>
       <c r="G431" s="3"/>
       <c r="H431" s="36">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="I431" s="11">
-        <f t="shared" si="46"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="51"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="432" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11721,12 +11995,12 @@
       <c r="F432" s="3"/>
       <c r="G432" s="3"/>
       <c r="H432" s="36">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="I432" s="11">
-        <f t="shared" si="46"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="51"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="433" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11737,12 +12011,12 @@
       <c r="F433" s="3"/>
       <c r="G433" s="3"/>
       <c r="H433" s="36">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="I433" s="11">
-        <f t="shared" si="46"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="51"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="434" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11753,12 +12027,12 @@
       <c r="F434" s="3"/>
       <c r="G434" s="3"/>
       <c r="H434" s="36">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="I434" s="11">
-        <f t="shared" si="46"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="51"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="435" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11769,12 +12043,12 @@
       <c r="F435" s="3"/>
       <c r="G435" s="3"/>
       <c r="H435" s="36">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="I435" s="11">
-        <f t="shared" si="46"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="51"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="436" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11785,12 +12059,12 @@
       <c r="F436" s="3"/>
       <c r="G436" s="3"/>
       <c r="H436" s="36">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="I436" s="11">
-        <f t="shared" si="46"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="51"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="437" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11801,12 +12075,12 @@
       <c r="F437" s="3"/>
       <c r="G437" s="3"/>
       <c r="H437" s="36">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="I437" s="11">
-        <f t="shared" si="46"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="51"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="438" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11817,12 +12091,12 @@
       <c r="F438" s="3"/>
       <c r="G438" s="3"/>
       <c r="H438" s="36">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="I438" s="11">
-        <f t="shared" si="46"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="51"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="439" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11833,12 +12107,12 @@
       <c r="F439" s="3"/>
       <c r="G439" s="3"/>
       <c r="H439" s="36">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="I439" s="11">
-        <f t="shared" si="46"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="51"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="440" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11849,12 +12123,12 @@
       <c r="F440" s="3"/>
       <c r="G440" s="3"/>
       <c r="H440" s="36">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="I440" s="11">
-        <f t="shared" si="46"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="51"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="441" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11865,12 +12139,12 @@
       <c r="F441" s="3"/>
       <c r="G441" s="3"/>
       <c r="H441" s="36">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="I441" s="11">
-        <f t="shared" si="46"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="51"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="442" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11881,12 +12155,12 @@
       <c r="F442" s="3"/>
       <c r="G442" s="3"/>
       <c r="H442" s="36">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="I442" s="11">
-        <f t="shared" si="46"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="51"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="443" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11897,12 +12171,12 @@
       <c r="F443" s="3"/>
       <c r="G443" s="3"/>
       <c r="H443" s="36">
-        <f t="shared" ref="H443:H506" si="47">(E443*F443)+G443</f>
+        <f t="shared" ref="H443:H506" si="52">(E443*F443)+G443</f>
         <v>0</v>
       </c>
       <c r="I443" s="11">
-        <f t="shared" si="46"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="51"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="444" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11913,12 +12187,12 @@
       <c r="F444" s="3"/>
       <c r="G444" s="3"/>
       <c r="H444" s="36">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="I444" s="11">
-        <f t="shared" si="46"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="51"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="445" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11929,12 +12203,12 @@
       <c r="F445" s="3"/>
       <c r="G445" s="3"/>
       <c r="H445" s="36">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="I445" s="11">
-        <f t="shared" si="46"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="51"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="446" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11945,12 +12219,12 @@
       <c r="F446" s="3"/>
       <c r="G446" s="3"/>
       <c r="H446" s="36">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="I446" s="11">
-        <f t="shared" si="46"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="51"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="447" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11961,12 +12235,12 @@
       <c r="F447" s="3"/>
       <c r="G447" s="3"/>
       <c r="H447" s="36">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="I447" s="11">
-        <f t="shared" si="46"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="51"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="448" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11977,12 +12251,12 @@
       <c r="F448" s="3"/>
       <c r="G448" s="3"/>
       <c r="H448" s="36">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="I448" s="11">
-        <f t="shared" si="46"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="51"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="449" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11993,12 +12267,12 @@
       <c r="F449" s="3"/>
       <c r="G449" s="3"/>
       <c r="H449" s="36">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="I449" s="11">
-        <f t="shared" si="46"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="51"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="450" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12009,12 +12283,12 @@
       <c r="F450" s="3"/>
       <c r="G450" s="3"/>
       <c r="H450" s="36">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="I450" s="11">
-        <f t="shared" si="46"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="51"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="451" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12025,12 +12299,12 @@
       <c r="F451" s="3"/>
       <c r="G451" s="3"/>
       <c r="H451" s="36">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="I451" s="11">
-        <f t="shared" si="46"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="51"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="452" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12041,12 +12315,12 @@
       <c r="F452" s="3"/>
       <c r="G452" s="3"/>
       <c r="H452" s="36">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="I452" s="11">
-        <f t="shared" si="46"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="51"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="453" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12057,12 +12331,12 @@
       <c r="F453" s="3"/>
       <c r="G453" s="3"/>
       <c r="H453" s="36">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="I453" s="11">
-        <f t="shared" si="46"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="51"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="454" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12073,12 +12347,12 @@
       <c r="F454" s="3"/>
       <c r="G454" s="3"/>
       <c r="H454" s="36">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="I454" s="11">
-        <f t="shared" si="46"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="51"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="455" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12089,12 +12363,12 @@
       <c r="F455" s="3"/>
       <c r="G455" s="3"/>
       <c r="H455" s="36">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="I455" s="11">
-        <f t="shared" si="46"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="51"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="456" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12105,12 +12379,12 @@
       <c r="F456" s="3"/>
       <c r="G456" s="3"/>
       <c r="H456" s="36">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="I456" s="11">
-        <f t="shared" ref="I456:I519" si="48">I455+H456</f>
-        <v>7116788.0599999996</v>
+        <f t="shared" ref="I456:I519" si="53">I455+H456</f>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="457" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12121,12 +12395,12 @@
       <c r="F457" s="3"/>
       <c r="G457" s="3"/>
       <c r="H457" s="36">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="I457" s="11">
-        <f t="shared" si="48"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="53"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="458" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12137,12 +12411,12 @@
       <c r="F458" s="3"/>
       <c r="G458" s="3"/>
       <c r="H458" s="36">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="I458" s="11">
-        <f t="shared" si="48"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="53"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="459" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12153,12 +12427,12 @@
       <c r="F459" s="3"/>
       <c r="G459" s="3"/>
       <c r="H459" s="36">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="I459" s="11">
-        <f t="shared" si="48"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="53"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="460" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12169,12 +12443,12 @@
       <c r="F460" s="3"/>
       <c r="G460" s="3"/>
       <c r="H460" s="36">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="I460" s="11">
-        <f t="shared" si="48"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="53"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="461" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12185,12 +12459,12 @@
       <c r="F461" s="3"/>
       <c r="G461" s="3"/>
       <c r="H461" s="36">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="I461" s="11">
-        <f t="shared" si="48"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="53"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="462" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12201,12 +12475,12 @@
       <c r="F462" s="3"/>
       <c r="G462" s="3"/>
       <c r="H462" s="36">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="I462" s="11">
-        <f t="shared" si="48"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="53"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="463" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12217,12 +12491,12 @@
       <c r="F463" s="3"/>
       <c r="G463" s="3"/>
       <c r="H463" s="36">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="I463" s="11">
-        <f t="shared" si="48"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="53"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="464" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12233,12 +12507,12 @@
       <c r="F464" s="3"/>
       <c r="G464" s="3"/>
       <c r="H464" s="36">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="I464" s="11">
-        <f t="shared" si="48"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="53"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="465" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12249,12 +12523,12 @@
       <c r="F465" s="3"/>
       <c r="G465" s="3"/>
       <c r="H465" s="36">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="I465" s="11">
-        <f t="shared" si="48"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="53"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="466" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12265,12 +12539,12 @@
       <c r="F466" s="3"/>
       <c r="G466" s="3"/>
       <c r="H466" s="36">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="I466" s="11">
-        <f t="shared" si="48"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="53"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="467" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12281,12 +12555,12 @@
       <c r="F467" s="3"/>
       <c r="G467" s="3"/>
       <c r="H467" s="36">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="I467" s="11">
-        <f t="shared" si="48"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="53"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="468" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12297,12 +12571,12 @@
       <c r="F468" s="3"/>
       <c r="G468" s="3"/>
       <c r="H468" s="36">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="I468" s="11">
-        <f t="shared" si="48"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="53"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="469" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12313,12 +12587,12 @@
       <c r="F469" s="3"/>
       <c r="G469" s="3"/>
       <c r="H469" s="36">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="I469" s="11">
-        <f t="shared" si="48"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="53"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="470" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12329,12 +12603,12 @@
       <c r="F470" s="3"/>
       <c r="G470" s="3"/>
       <c r="H470" s="36">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="I470" s="11">
-        <f t="shared" si="48"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="53"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="471" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12345,12 +12619,12 @@
       <c r="F471" s="3"/>
       <c r="G471" s="3"/>
       <c r="H471" s="36">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="I471" s="11">
-        <f t="shared" si="48"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="53"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="472" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12361,12 +12635,12 @@
       <c r="F472" s="3"/>
       <c r="G472" s="3"/>
       <c r="H472" s="36">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="I472" s="11">
-        <f t="shared" si="48"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="53"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="473" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12377,12 +12651,12 @@
       <c r="F473" s="3"/>
       <c r="G473" s="3"/>
       <c r="H473" s="36">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="I473" s="11">
-        <f t="shared" si="48"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="53"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="474" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12393,12 +12667,12 @@
       <c r="F474" s="3"/>
       <c r="G474" s="3"/>
       <c r="H474" s="36">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="I474" s="11">
-        <f t="shared" si="48"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="53"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="475" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12409,12 +12683,12 @@
       <c r="F475" s="3"/>
       <c r="G475" s="3"/>
       <c r="H475" s="36">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="I475" s="11">
-        <f t="shared" si="48"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="53"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="476" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12425,12 +12699,12 @@
       <c r="F476" s="3"/>
       <c r="G476" s="3"/>
       <c r="H476" s="36">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="I476" s="11">
-        <f t="shared" si="48"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="53"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="477" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12441,12 +12715,12 @@
       <c r="F477" s="3"/>
       <c r="G477" s="3"/>
       <c r="H477" s="36">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="I477" s="11">
-        <f t="shared" si="48"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="53"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="478" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12457,12 +12731,12 @@
       <c r="F478" s="3"/>
       <c r="G478" s="3"/>
       <c r="H478" s="36">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="I478" s="11">
-        <f t="shared" si="48"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="53"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="479" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12473,12 +12747,12 @@
       <c r="F479" s="3"/>
       <c r="G479" s="3"/>
       <c r="H479" s="36">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="I479" s="11">
-        <f t="shared" si="48"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="53"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="480" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12489,12 +12763,12 @@
       <c r="F480" s="3"/>
       <c r="G480" s="3"/>
       <c r="H480" s="36">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="I480" s="11">
-        <f t="shared" si="48"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="53"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="481" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12505,12 +12779,12 @@
       <c r="F481" s="3"/>
       <c r="G481" s="3"/>
       <c r="H481" s="36">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="I481" s="11">
-        <f t="shared" si="48"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="53"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="482" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12521,12 +12795,12 @@
       <c r="F482" s="3"/>
       <c r="G482" s="3"/>
       <c r="H482" s="36">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="I482" s="11">
-        <f t="shared" si="48"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="53"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="483" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12537,12 +12811,12 @@
       <c r="F483" s="3"/>
       <c r="G483" s="3"/>
       <c r="H483" s="36">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="I483" s="11">
-        <f t="shared" si="48"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="53"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="484" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12553,12 +12827,12 @@
       <c r="F484" s="3"/>
       <c r="G484" s="3"/>
       <c r="H484" s="36">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="I484" s="11">
-        <f t="shared" si="48"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="53"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="485" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12569,12 +12843,12 @@
       <c r="F485" s="3"/>
       <c r="G485" s="3"/>
       <c r="H485" s="36">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="I485" s="11">
-        <f t="shared" si="48"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="53"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="486" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12585,12 +12859,12 @@
       <c r="F486" s="3"/>
       <c r="G486" s="3"/>
       <c r="H486" s="36">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="I486" s="11">
-        <f t="shared" si="48"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="53"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="487" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12601,12 +12875,12 @@
       <c r="F487" s="3"/>
       <c r="G487" s="3"/>
       <c r="H487" s="36">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="I487" s="11">
-        <f t="shared" si="48"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="53"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="488" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12617,12 +12891,12 @@
       <c r="F488" s="3"/>
       <c r="G488" s="3"/>
       <c r="H488" s="36">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="I488" s="11">
-        <f t="shared" si="48"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="53"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="489" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12633,12 +12907,12 @@
       <c r="F489" s="3"/>
       <c r="G489" s="3"/>
       <c r="H489" s="36">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="I489" s="11">
-        <f t="shared" si="48"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="53"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="490" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12649,12 +12923,12 @@
       <c r="F490" s="3"/>
       <c r="G490" s="3"/>
       <c r="H490" s="36">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="I490" s="11">
-        <f t="shared" si="48"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="53"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="491" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12665,12 +12939,12 @@
       <c r="F491" s="3"/>
       <c r="G491" s="3"/>
       <c r="H491" s="36">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="I491" s="11">
-        <f t="shared" si="48"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="53"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="492" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12681,12 +12955,12 @@
       <c r="F492" s="3"/>
       <c r="G492" s="3"/>
       <c r="H492" s="36">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="I492" s="11">
-        <f t="shared" si="48"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="53"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="493" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12697,12 +12971,12 @@
       <c r="F493" s="3"/>
       <c r="G493" s="3"/>
       <c r="H493" s="36">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="I493" s="11">
-        <f t="shared" si="48"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="53"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="494" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12713,12 +12987,12 @@
       <c r="F494" s="3"/>
       <c r="G494" s="3"/>
       <c r="H494" s="36">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="I494" s="11">
-        <f t="shared" si="48"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="53"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="495" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12729,12 +13003,12 @@
       <c r="F495" s="3"/>
       <c r="G495" s="3"/>
       <c r="H495" s="36">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="I495" s="11">
-        <f t="shared" si="48"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="53"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="496" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12745,12 +13019,12 @@
       <c r="F496" s="3"/>
       <c r="G496" s="3"/>
       <c r="H496" s="36">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="I496" s="11">
-        <f t="shared" si="48"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="53"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="497" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12761,12 +13035,12 @@
       <c r="F497" s="3"/>
       <c r="G497" s="3"/>
       <c r="H497" s="36">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="I497" s="11">
-        <f t="shared" si="48"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="53"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="498" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12777,12 +13051,12 @@
       <c r="F498" s="3"/>
       <c r="G498" s="3"/>
       <c r="H498" s="36">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="I498" s="11">
-        <f t="shared" si="48"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="53"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="499" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12793,12 +13067,12 @@
       <c r="F499" s="3"/>
       <c r="G499" s="3"/>
       <c r="H499" s="36">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="I499" s="11">
-        <f t="shared" si="48"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="53"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="500" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12809,12 +13083,12 @@
       <c r="F500" s="3"/>
       <c r="G500" s="3"/>
       <c r="H500" s="36">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="I500" s="11">
-        <f t="shared" si="48"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="53"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="501" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12825,12 +13099,12 @@
       <c r="F501" s="3"/>
       <c r="G501" s="3"/>
       <c r="H501" s="36">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="I501" s="11">
-        <f t="shared" si="48"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="53"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="502" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12841,12 +13115,12 @@
       <c r="F502" s="3"/>
       <c r="G502" s="3"/>
       <c r="H502" s="36">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="I502" s="11">
-        <f t="shared" si="48"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="53"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="503" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12857,12 +13131,12 @@
       <c r="F503" s="3"/>
       <c r="G503" s="3"/>
       <c r="H503" s="36">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="I503" s="11">
-        <f t="shared" si="48"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="53"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="504" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12873,12 +13147,12 @@
       <c r="F504" s="3"/>
       <c r="G504" s="3"/>
       <c r="H504" s="36">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="I504" s="11">
-        <f t="shared" si="48"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="53"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="505" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12889,12 +13163,12 @@
       <c r="F505" s="3"/>
       <c r="G505" s="3"/>
       <c r="H505" s="36">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="I505" s="11">
-        <f t="shared" si="48"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="53"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="506" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12905,12 +13179,12 @@
       <c r="F506" s="3"/>
       <c r="G506" s="3"/>
       <c r="H506" s="36">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="I506" s="11">
-        <f t="shared" si="48"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="53"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="507" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12921,12 +13195,12 @@
       <c r="F507" s="3"/>
       <c r="G507" s="3"/>
       <c r="H507" s="36">
-        <f t="shared" ref="H507:H570" si="49">(E507*F507)+G507</f>
+        <f t="shared" ref="H507:H570" si="54">(E507*F507)+G507</f>
         <v>0</v>
       </c>
       <c r="I507" s="11">
-        <f t="shared" si="48"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="53"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="508" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12937,12 +13211,12 @@
       <c r="F508" s="3"/>
       <c r="G508" s="3"/>
       <c r="H508" s="36">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="I508" s="11">
-        <f t="shared" si="48"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="53"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="509" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12953,12 +13227,12 @@
       <c r="F509" s="3"/>
       <c r="G509" s="3"/>
       <c r="H509" s="36">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="I509" s="11">
-        <f t="shared" si="48"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="53"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="510" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12969,12 +13243,12 @@
       <c r="F510" s="3"/>
       <c r="G510" s="3"/>
       <c r="H510" s="36">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="I510" s="11">
-        <f t="shared" si="48"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="53"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="511" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12985,12 +13259,12 @@
       <c r="F511" s="3"/>
       <c r="G511" s="3"/>
       <c r="H511" s="36">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="I511" s="11">
-        <f t="shared" si="48"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="53"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="512" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13001,12 +13275,12 @@
       <c r="F512" s="3"/>
       <c r="G512" s="3"/>
       <c r="H512" s="36">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="I512" s="11">
-        <f t="shared" si="48"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="53"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="513" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13017,12 +13291,12 @@
       <c r="F513" s="3"/>
       <c r="G513" s="3"/>
       <c r="H513" s="36">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="I513" s="11">
-        <f t="shared" si="48"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="53"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="514" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13033,12 +13307,12 @@
       <c r="F514" s="3"/>
       <c r="G514" s="3"/>
       <c r="H514" s="36">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="I514" s="11">
-        <f t="shared" si="48"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="53"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="515" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13049,12 +13323,12 @@
       <c r="F515" s="3"/>
       <c r="G515" s="3"/>
       <c r="H515" s="36">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="I515" s="11">
-        <f t="shared" si="48"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="53"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="516" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13065,12 +13339,12 @@
       <c r="F516" s="3"/>
       <c r="G516" s="3"/>
       <c r="H516" s="36">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="I516" s="11">
-        <f t="shared" si="48"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="53"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="517" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13081,12 +13355,12 @@
       <c r="F517" s="3"/>
       <c r="G517" s="3"/>
       <c r="H517" s="36">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="I517" s="11">
-        <f t="shared" si="48"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="53"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="518" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13097,12 +13371,12 @@
       <c r="F518" s="3"/>
       <c r="G518" s="3"/>
       <c r="H518" s="36">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="I518" s="11">
-        <f t="shared" si="48"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="53"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="519" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13113,12 +13387,12 @@
       <c r="F519" s="3"/>
       <c r="G519" s="3"/>
       <c r="H519" s="36">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="I519" s="11">
-        <f t="shared" si="48"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="53"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="520" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13129,12 +13403,12 @@
       <c r="F520" s="3"/>
       <c r="G520" s="3"/>
       <c r="H520" s="36">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="I520" s="11">
-        <f t="shared" ref="I520:I583" si="50">I519+H520</f>
-        <v>7116788.0599999996</v>
+        <f t="shared" ref="I520:I583" si="55">I519+H520</f>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="521" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13145,12 +13419,12 @@
       <c r="F521" s="3"/>
       <c r="G521" s="3"/>
       <c r="H521" s="36">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="I521" s="11">
-        <f t="shared" si="50"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="55"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="522" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13161,12 +13435,12 @@
       <c r="F522" s="3"/>
       <c r="G522" s="3"/>
       <c r="H522" s="36">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="I522" s="11">
-        <f t="shared" si="50"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="55"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="523" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13177,12 +13451,12 @@
       <c r="F523" s="3"/>
       <c r="G523" s="3"/>
       <c r="H523" s="36">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="I523" s="11">
-        <f t="shared" si="50"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="55"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="524" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13193,12 +13467,12 @@
       <c r="F524" s="3"/>
       <c r="G524" s="3"/>
       <c r="H524" s="36">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="I524" s="11">
-        <f t="shared" si="50"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="55"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="525" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13209,12 +13483,12 @@
       <c r="F525" s="3"/>
       <c r="G525" s="3"/>
       <c r="H525" s="36">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="I525" s="11">
-        <f t="shared" si="50"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="55"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="526" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13225,12 +13499,12 @@
       <c r="F526" s="3"/>
       <c r="G526" s="3"/>
       <c r="H526" s="36">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="I526" s="11">
-        <f t="shared" si="50"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="55"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="527" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13241,12 +13515,12 @@
       <c r="F527" s="3"/>
       <c r="G527" s="3"/>
       <c r="H527" s="36">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="I527" s="11">
-        <f t="shared" si="50"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="55"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="528" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13257,12 +13531,12 @@
       <c r="F528" s="3"/>
       <c r="G528" s="3"/>
       <c r="H528" s="36">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="I528" s="11">
-        <f t="shared" si="50"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="55"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="529" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13273,12 +13547,12 @@
       <c r="F529" s="3"/>
       <c r="G529" s="3"/>
       <c r="H529" s="36">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="I529" s="11">
-        <f t="shared" si="50"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="55"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="530" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13289,12 +13563,12 @@
       <c r="F530" s="3"/>
       <c r="G530" s="3"/>
       <c r="H530" s="36">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="I530" s="11">
-        <f t="shared" si="50"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="55"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="531" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13305,12 +13579,12 @@
       <c r="F531" s="3"/>
       <c r="G531" s="3"/>
       <c r="H531" s="36">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="I531" s="11">
-        <f t="shared" si="50"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="55"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="532" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13321,12 +13595,12 @@
       <c r="F532" s="3"/>
       <c r="G532" s="3"/>
       <c r="H532" s="36">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="I532" s="11">
-        <f t="shared" si="50"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="55"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="533" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13337,12 +13611,12 @@
       <c r="F533" s="3"/>
       <c r="G533" s="3"/>
       <c r="H533" s="36">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="I533" s="11">
-        <f t="shared" si="50"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="55"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="534" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13353,12 +13627,12 @@
       <c r="F534" s="3"/>
       <c r="G534" s="3"/>
       <c r="H534" s="36">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="I534" s="11">
-        <f t="shared" si="50"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="55"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="535" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13369,12 +13643,12 @@
       <c r="F535" s="3"/>
       <c r="G535" s="3"/>
       <c r="H535" s="36">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="I535" s="11">
-        <f t="shared" si="50"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="55"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="536" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13385,12 +13659,12 @@
       <c r="F536" s="3"/>
       <c r="G536" s="3"/>
       <c r="H536" s="36">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="I536" s="11">
-        <f t="shared" si="50"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="55"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="537" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13401,12 +13675,12 @@
       <c r="F537" s="3"/>
       <c r="G537" s="3"/>
       <c r="H537" s="36">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="I537" s="11">
-        <f t="shared" si="50"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="55"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="538" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13417,12 +13691,12 @@
       <c r="F538" s="3"/>
       <c r="G538" s="3"/>
       <c r="H538" s="36">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="I538" s="11">
-        <f t="shared" si="50"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="55"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="539" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13433,12 +13707,12 @@
       <c r="F539" s="3"/>
       <c r="G539" s="3"/>
       <c r="H539" s="36">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="I539" s="11">
-        <f t="shared" si="50"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="55"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="540" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13449,12 +13723,12 @@
       <c r="F540" s="3"/>
       <c r="G540" s="3"/>
       <c r="H540" s="36">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="I540" s="11">
-        <f t="shared" si="50"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="55"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="541" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13465,12 +13739,12 @@
       <c r="F541" s="3"/>
       <c r="G541" s="3"/>
       <c r="H541" s="36">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="I541" s="11">
-        <f t="shared" si="50"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="55"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="542" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13481,12 +13755,12 @@
       <c r="F542" s="3"/>
       <c r="G542" s="3"/>
       <c r="H542" s="36">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="I542" s="11">
-        <f t="shared" si="50"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="55"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="543" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13497,12 +13771,12 @@
       <c r="F543" s="3"/>
       <c r="G543" s="3"/>
       <c r="H543" s="36">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="I543" s="11">
-        <f t="shared" si="50"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="55"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="544" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13513,12 +13787,12 @@
       <c r="F544" s="3"/>
       <c r="G544" s="3"/>
       <c r="H544" s="36">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="I544" s="11">
-        <f t="shared" si="50"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="55"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="545" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13529,12 +13803,12 @@
       <c r="F545" s="3"/>
       <c r="G545" s="3"/>
       <c r="H545" s="36">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="I545" s="11">
-        <f t="shared" si="50"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="55"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="546" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13545,12 +13819,12 @@
       <c r="F546" s="3"/>
       <c r="G546" s="3"/>
       <c r="H546" s="36">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="I546" s="11">
-        <f t="shared" si="50"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="55"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="547" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13561,12 +13835,12 @@
       <c r="F547" s="3"/>
       <c r="G547" s="3"/>
       <c r="H547" s="36">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="I547" s="11">
-        <f t="shared" si="50"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="55"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="548" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13577,12 +13851,12 @@
       <c r="F548" s="3"/>
       <c r="G548" s="3"/>
       <c r="H548" s="36">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="I548" s="11">
-        <f t="shared" si="50"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="55"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="549" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13593,12 +13867,12 @@
       <c r="F549" s="3"/>
       <c r="G549" s="3"/>
       <c r="H549" s="36">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="I549" s="11">
-        <f t="shared" si="50"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="55"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="550" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13609,12 +13883,12 @@
       <c r="F550" s="3"/>
       <c r="G550" s="3"/>
       <c r="H550" s="36">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="I550" s="11">
-        <f t="shared" si="50"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="55"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="551" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13625,12 +13899,12 @@
       <c r="F551" s="3"/>
       <c r="G551" s="3"/>
       <c r="H551" s="36">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="I551" s="11">
-        <f t="shared" si="50"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="55"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="552" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13641,12 +13915,12 @@
       <c r="F552" s="3"/>
       <c r="G552" s="3"/>
       <c r="H552" s="36">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="I552" s="11">
-        <f t="shared" si="50"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="55"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="553" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13657,12 +13931,12 @@
       <c r="F553" s="3"/>
       <c r="G553" s="3"/>
       <c r="H553" s="36">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="I553" s="11">
-        <f t="shared" si="50"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="55"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="554" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13673,12 +13947,12 @@
       <c r="F554" s="3"/>
       <c r="G554" s="3"/>
       <c r="H554" s="36">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="I554" s="11">
-        <f t="shared" si="50"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="55"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="555" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13689,12 +13963,12 @@
       <c r="F555" s="3"/>
       <c r="G555" s="3"/>
       <c r="H555" s="36">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="I555" s="11">
-        <f t="shared" si="50"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="55"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="556" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13705,12 +13979,12 @@
       <c r="F556" s="3"/>
       <c r="G556" s="3"/>
       <c r="H556" s="36">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="I556" s="11">
-        <f t="shared" si="50"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="55"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="557" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13721,12 +13995,12 @@
       <c r="F557" s="3"/>
       <c r="G557" s="3"/>
       <c r="H557" s="36">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="I557" s="11">
-        <f t="shared" si="50"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="55"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="558" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13737,12 +14011,12 @@
       <c r="F558" s="3"/>
       <c r="G558" s="3"/>
       <c r="H558" s="36">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="I558" s="11">
-        <f t="shared" si="50"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="55"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="559" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13753,12 +14027,12 @@
       <c r="F559" s="3"/>
       <c r="G559" s="3"/>
       <c r="H559" s="36">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="I559" s="11">
-        <f t="shared" si="50"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="55"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="560" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13769,12 +14043,12 @@
       <c r="F560" s="3"/>
       <c r="G560" s="3"/>
       <c r="H560" s="36">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="I560" s="11">
-        <f t="shared" si="50"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="55"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="561" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13785,12 +14059,12 @@
       <c r="F561" s="3"/>
       <c r="G561" s="3"/>
       <c r="H561" s="36">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="I561" s="11">
-        <f t="shared" si="50"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="55"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="562" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13801,12 +14075,12 @@
       <c r="F562" s="3"/>
       <c r="G562" s="3"/>
       <c r="H562" s="36">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="I562" s="11">
-        <f t="shared" si="50"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="55"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="563" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13817,12 +14091,12 @@
       <c r="F563" s="3"/>
       <c r="G563" s="3"/>
       <c r="H563" s="36">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="I563" s="11">
-        <f t="shared" si="50"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="55"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="564" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13833,12 +14107,12 @@
       <c r="F564" s="3"/>
       <c r="G564" s="3"/>
       <c r="H564" s="36">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="I564" s="11">
-        <f t="shared" si="50"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="55"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="565" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13849,12 +14123,12 @@
       <c r="F565" s="3"/>
       <c r="G565" s="3"/>
       <c r="H565" s="36">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="I565" s="11">
-        <f t="shared" si="50"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="55"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="566" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13865,12 +14139,12 @@
       <c r="F566" s="3"/>
       <c r="G566" s="3"/>
       <c r="H566" s="36">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="I566" s="11">
-        <f t="shared" si="50"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="55"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="567" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13881,12 +14155,12 @@
       <c r="F567" s="3"/>
       <c r="G567" s="3"/>
       <c r="H567" s="36">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="I567" s="11">
-        <f t="shared" si="50"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="55"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="568" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13897,12 +14171,12 @@
       <c r="F568" s="3"/>
       <c r="G568" s="3"/>
       <c r="H568" s="36">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="I568" s="11">
-        <f t="shared" si="50"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="55"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="569" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13913,12 +14187,12 @@
       <c r="F569" s="3"/>
       <c r="G569" s="3"/>
       <c r="H569" s="36">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="I569" s="11">
-        <f t="shared" si="50"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="55"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="570" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13929,12 +14203,12 @@
       <c r="F570" s="3"/>
       <c r="G570" s="3"/>
       <c r="H570" s="36">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="I570" s="11">
-        <f t="shared" si="50"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="55"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="571" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13945,12 +14219,12 @@
       <c r="F571" s="3"/>
       <c r="G571" s="3"/>
       <c r="H571" s="36">
-        <f t="shared" ref="H571:H587" si="51">(E571*F571)+G571</f>
+        <f t="shared" ref="H571:H587" si="56">(E571*F571)+G571</f>
         <v>0</v>
       </c>
       <c r="I571" s="11">
-        <f t="shared" si="50"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="55"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="572" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13961,12 +14235,12 @@
       <c r="F572" s="3"/>
       <c r="G572" s="3"/>
       <c r="H572" s="36">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="I572" s="11">
-        <f t="shared" si="50"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="55"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="573" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13977,12 +14251,12 @@
       <c r="F573" s="3"/>
       <c r="G573" s="3"/>
       <c r="H573" s="36">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="I573" s="11">
-        <f t="shared" si="50"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="55"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="574" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13993,12 +14267,12 @@
       <c r="F574" s="3"/>
       <c r="G574" s="3"/>
       <c r="H574" s="36">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="I574" s="11">
-        <f t="shared" si="50"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="55"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="575" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -14009,12 +14283,12 @@
       <c r="F575" s="3"/>
       <c r="G575" s="3"/>
       <c r="H575" s="36">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="I575" s="11">
-        <f t="shared" si="50"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="55"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="576" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -14025,12 +14299,12 @@
       <c r="F576" s="3"/>
       <c r="G576" s="3"/>
       <c r="H576" s="36">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="I576" s="11">
-        <f t="shared" si="50"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="55"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="577" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -14041,12 +14315,12 @@
       <c r="F577" s="3"/>
       <c r="G577" s="3"/>
       <c r="H577" s="36">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="I577" s="11">
-        <f t="shared" si="50"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="55"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="578" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -14057,12 +14331,12 @@
       <c r="F578" s="3"/>
       <c r="G578" s="3"/>
       <c r="H578" s="36">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="I578" s="11">
-        <f t="shared" si="50"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="55"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="579" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -14073,12 +14347,12 @@
       <c r="F579" s="3"/>
       <c r="G579" s="3"/>
       <c r="H579" s="36">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="I579" s="11">
-        <f t="shared" si="50"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="55"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="580" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -14089,12 +14363,12 @@
       <c r="F580" s="3"/>
       <c r="G580" s="3"/>
       <c r="H580" s="36">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="I580" s="11">
-        <f t="shared" si="50"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="55"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="581" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -14105,12 +14379,12 @@
       <c r="F581" s="3"/>
       <c r="G581" s="3"/>
       <c r="H581" s="36">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="I581" s="11">
-        <f t="shared" si="50"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="55"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="582" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -14121,12 +14395,12 @@
       <c r="F582" s="3"/>
       <c r="G582" s="3"/>
       <c r="H582" s="36">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="I582" s="11">
-        <f t="shared" si="50"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="55"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="583" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -14137,12 +14411,12 @@
       <c r="F583" s="3"/>
       <c r="G583" s="3"/>
       <c r="H583" s="36">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="I583" s="11">
-        <f t="shared" si="50"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="55"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="584" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -14153,12 +14427,12 @@
       <c r="F584" s="3"/>
       <c r="G584" s="3"/>
       <c r="H584" s="36">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="I584" s="11">
-        <f t="shared" ref="I584:I587" si="52">I583+H584</f>
-        <v>7116788.0599999996</v>
+        <f t="shared" ref="I584:I587" si="57">I583+H584</f>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="585" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -14169,12 +14443,12 @@
       <c r="F585" s="3"/>
       <c r="G585" s="3"/>
       <c r="H585" s="36">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="I585" s="11">
-        <f t="shared" si="52"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="57"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="586" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -14185,12 +14459,12 @@
       <c r="F586" s="3"/>
       <c r="G586" s="3"/>
       <c r="H586" s="36">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="I586" s="11">
-        <f t="shared" si="52"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="57"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="587" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -14201,12 +14475,12 @@
       <c r="F587" s="3"/>
       <c r="G587" s="3"/>
       <c r="H587" s="36">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="I587" s="11">
-        <f t="shared" si="52"/>
-        <v>7116788.0599999996</v>
+        <f t="shared" si="57"/>
+        <v>11063380.859999998</v>
       </c>
     </row>
     <row r="588" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -14227,93 +14501,113 @@
     <mergeCell ref="Q98:Q99"/>
   </mergeCells>
   <conditionalFormatting sqref="C36 E36:H36 B37:H38">
-    <cfRule type="expression" priority="19">
+    <cfRule type="expression" priority="23">
       <formula>D2="CEMENT"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36 E36:H36 B37:H38 B40:H40 H39">
-    <cfRule type="expression" dxfId="10" priority="18">
+    <cfRule type="expression" dxfId="12" priority="22">
       <formula>D2="CEMENT"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36:H36">
-    <cfRule type="expression" dxfId="9" priority="17">
+    <cfRule type="expression" dxfId="11" priority="21">
       <formula>A2="CEMENT"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36 C50 C66">
-    <cfRule type="expression" dxfId="8" priority="20">
+    <cfRule type="expression" dxfId="10" priority="24">
       <formula>XFD2="CEMENT"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B51:H51">
-    <cfRule type="expression" priority="16">
+    <cfRule type="expression" priority="20">
       <formula>D17="CEMENT"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B51:H51">
-    <cfRule type="expression" dxfId="7" priority="15">
+    <cfRule type="expression" dxfId="9" priority="19">
       <formula>D17="CEMENT"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50 E50:H50">
-    <cfRule type="expression" priority="13">
+    <cfRule type="expression" priority="17">
       <formula>E16="CEMENT"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50 E50:H50">
-    <cfRule type="expression" dxfId="6" priority="12">
+    <cfRule type="expression" dxfId="8" priority="16">
       <formula>E16="CEMENT"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50:H50">
-    <cfRule type="expression" dxfId="5" priority="11">
+    <cfRule type="expression" dxfId="7" priority="15">
       <formula>A16="CEMENT"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C66 E66:H66">
-    <cfRule type="expression" priority="9">
+    <cfRule type="expression" priority="13">
       <formula>E32="CEMENT"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C66 E66:H66">
-    <cfRule type="expression" dxfId="4" priority="8">
+    <cfRule type="expression" dxfId="6" priority="12">
       <formula>E32="CEMENT"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66:H66">
-    <cfRule type="expression" dxfId="3" priority="7">
+    <cfRule type="expression" dxfId="5" priority="11">
       <formula>A32="CEMENT"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72:G72">
-    <cfRule type="expression" priority="6">
+    <cfRule type="expression" priority="10">
       <formula>G38="CEMENT"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72:G72">
-    <cfRule type="expression" dxfId="2" priority="5">
+    <cfRule type="expression" dxfId="4" priority="9">
       <formula>G38="CEMENT"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B221:H221">
-    <cfRule type="expression" priority="4">
+    <cfRule type="expression" priority="8">
       <formula>D187="CEMENT"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B221:H221">
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="3" priority="7">
       <formula>D187="CEMENT"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B232:H232">
-    <cfRule type="expression" priority="2">
+    <cfRule type="expression" priority="6">
       <formula>D198="CEMENT"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B232:H232">
+    <cfRule type="expression" dxfId="2" priority="5">
+      <formula>D198="CEMENT"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B278:H278">
+    <cfRule type="expression" priority="4">
+      <formula>D244="CEMENT"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B278:H278">
+    <cfRule type="expression" dxfId="1" priority="3">
+      <formula>D244="CEMENT"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B282:H282">
+    <cfRule type="expression" priority="2">
+      <formula>D248="CEMENT"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B282:H282">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>D198="CEMENT"</formula>
+      <formula>D248="CEMENT"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14328,8 +14622,8 @@
   </sheetPr>
   <dimension ref="B3:I192"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14342,12 +14636,12 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:9" ht="40.200000000000003" x14ac:dyDescent="0.8">
-      <c r="B3" s="202" t="s">
+      <c r="B3" s="208" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="202"/>
-      <c r="D3" s="202"/>
-      <c r="E3" s="202"/>
+      <c r="C3" s="208"/>
+      <c r="D3" s="208"/>
+      <c r="E3" s="208"/>
     </row>
     <row r="4" spans="2:9" ht="21" x14ac:dyDescent="0.3">
       <c r="B4" s="51" t="s">
@@ -14798,30 +15092,48 @@
       </c>
     </row>
     <row r="34" spans="2:5" ht="21" x14ac:dyDescent="0.4">
-      <c r="B34" s="43"/>
-      <c r="C34" s="158"/>
-      <c r="D34" s="11"/>
+      <c r="B34" s="117">
+        <v>45253</v>
+      </c>
+      <c r="C34" s="152" t="s">
+        <v>112</v>
+      </c>
+      <c r="D34" s="11">
+        <v>70000</v>
+      </c>
       <c r="E34" s="11">
         <f t="shared" si="0"/>
-        <v>1495100</v>
+        <v>1565100</v>
       </c>
     </row>
     <row r="35" spans="2:5" ht="21" x14ac:dyDescent="0.4">
-      <c r="B35" s="43"/>
-      <c r="C35" s="158"/>
-      <c r="D35" s="11"/>
+      <c r="B35" s="117">
+        <v>45260</v>
+      </c>
+      <c r="C35" s="152" t="s">
+        <v>112</v>
+      </c>
+      <c r="D35" s="11">
+        <v>100000</v>
+      </c>
       <c r="E35" s="11">
         <f t="shared" si="0"/>
-        <v>1495100</v>
+        <v>1665100</v>
       </c>
     </row>
     <row r="36" spans="2:5" ht="21" x14ac:dyDescent="0.4">
-      <c r="B36" s="43"/>
-      <c r="C36" s="158"/>
-      <c r="D36" s="11"/>
+      <c r="B36" s="117">
+        <v>45267</v>
+      </c>
+      <c r="C36" s="152" t="s">
+        <v>112</v>
+      </c>
+      <c r="D36" s="11">
+        <v>65000</v>
+      </c>
       <c r="E36" s="11">
         <f t="shared" si="0"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="37" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -14830,7 +15142,7 @@
       <c r="D37" s="11"/>
       <c r="E37" s="11">
         <f t="shared" si="0"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="38" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -14839,7 +15151,7 @@
       <c r="D38" s="11"/>
       <c r="E38" s="11">
         <f t="shared" si="0"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="39" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -14848,7 +15160,7 @@
       <c r="D39" s="11"/>
       <c r="E39" s="11">
         <f t="shared" si="0"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="40" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -14857,7 +15169,7 @@
       <c r="D40" s="11"/>
       <c r="E40" s="11">
         <f t="shared" si="0"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="41" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -14866,7 +15178,7 @@
       <c r="D41" s="11"/>
       <c r="E41" s="11">
         <f t="shared" si="0"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="42" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -14875,7 +15187,7 @@
       <c r="D42" s="11"/>
       <c r="E42" s="11">
         <f t="shared" si="0"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="43" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -14884,7 +15196,7 @@
       <c r="D43" s="11"/>
       <c r="E43" s="11">
         <f t="shared" si="0"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="44" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -14893,7 +15205,7 @@
       <c r="D44" s="11"/>
       <c r="E44" s="11">
         <f t="shared" si="0"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="45" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -14902,7 +15214,7 @@
       <c r="D45" s="11"/>
       <c r="E45" s="11">
         <f t="shared" si="0"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="46" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -14911,7 +15223,7 @@
       <c r="D46" s="11"/>
       <c r="E46" s="11">
         <f t="shared" si="0"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="47" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -14920,7 +15232,7 @@
       <c r="D47" s="11"/>
       <c r="E47" s="11">
         <f t="shared" si="0"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="48" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -14929,7 +15241,7 @@
       <c r="D48" s="11"/>
       <c r="E48" s="11">
         <f t="shared" si="0"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="49" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -14938,7 +15250,7 @@
       <c r="D49" s="11"/>
       <c r="E49" s="11">
         <f t="shared" si="0"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="50" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -14947,7 +15259,7 @@
       <c r="D50" s="11"/>
       <c r="E50" s="11">
         <f t="shared" si="0"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="51" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -14956,7 +15268,7 @@
       <c r="D51" s="11"/>
       <c r="E51" s="11">
         <f t="shared" si="0"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="52" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -14965,7 +15277,7 @@
       <c r="D52" s="11"/>
       <c r="E52" s="11">
         <f t="shared" si="0"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="53" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -14974,7 +15286,7 @@
       <c r="D53" s="11"/>
       <c r="E53" s="11">
         <f t="shared" si="0"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="54" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -14983,7 +15295,7 @@
       <c r="D54" s="11"/>
       <c r="E54" s="11">
         <f t="shared" si="0"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="55" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -14992,7 +15304,7 @@
       <c r="D55" s="11"/>
       <c r="E55" s="11">
         <f t="shared" si="0"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="56" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15001,7 +15313,7 @@
       <c r="D56" s="11"/>
       <c r="E56" s="11">
         <f t="shared" si="0"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15010,7 +15322,7 @@
       <c r="D57" s="11"/>
       <c r="E57" s="11">
         <f t="shared" si="0"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15019,7 +15331,7 @@
       <c r="D58" s="11"/>
       <c r="E58" s="11">
         <f t="shared" si="0"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="59" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15028,7 +15340,7 @@
       <c r="D59" s="11"/>
       <c r="E59" s="11">
         <f t="shared" si="0"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="60" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15037,7 +15349,7 @@
       <c r="D60" s="11"/>
       <c r="E60" s="11">
         <f t="shared" si="0"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="61" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15046,7 +15358,7 @@
       <c r="D61" s="11"/>
       <c r="E61" s="11">
         <f t="shared" si="0"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="62" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15055,7 +15367,7 @@
       <c r="D62" s="11"/>
       <c r="E62" s="11">
         <f t="shared" si="0"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="63" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15064,7 +15376,7 @@
       <c r="D63" s="11"/>
       <c r="E63" s="11">
         <f t="shared" si="0"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="64" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15073,7 +15385,7 @@
       <c r="D64" s="11"/>
       <c r="E64" s="11">
         <f t="shared" si="0"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="65" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15082,7 +15394,7 @@
       <c r="D65" s="11"/>
       <c r="E65" s="11">
         <f t="shared" si="0"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15091,7 +15403,7 @@
       <c r="D66" s="11"/>
       <c r="E66" s="11">
         <f t="shared" si="0"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15100,7 +15412,7 @@
       <c r="D67" s="11"/>
       <c r="E67" s="11">
         <f t="shared" si="0"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15109,7 +15421,7 @@
       <c r="D68" s="11"/>
       <c r="E68" s="11">
         <f t="shared" si="0"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="69" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15118,7 +15430,7 @@
       <c r="D69" s="11"/>
       <c r="E69" s="11">
         <f t="shared" si="0"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="70" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15127,7 +15439,7 @@
       <c r="D70" s="11"/>
       <c r="E70" s="11">
         <f t="shared" si="0"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="71" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15136,7 +15448,7 @@
       <c r="D71" s="11"/>
       <c r="E71" s="11">
         <f t="shared" ref="E71:E134" si="1">E70+D71</f>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="72" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15145,7 +15457,7 @@
       <c r="D72" s="11"/>
       <c r="E72" s="11">
         <f t="shared" si="1"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="73" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15154,7 +15466,7 @@
       <c r="D73" s="11"/>
       <c r="E73" s="11">
         <f t="shared" si="1"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="74" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15163,7 +15475,7 @@
       <c r="D74" s="11"/>
       <c r="E74" s="11">
         <f t="shared" si="1"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="75" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15172,7 +15484,7 @@
       <c r="D75" s="11"/>
       <c r="E75" s="11">
         <f t="shared" si="1"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="76" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15181,7 +15493,7 @@
       <c r="D76" s="11"/>
       <c r="E76" s="11">
         <f t="shared" si="1"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="77" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15190,7 +15502,7 @@
       <c r="D77" s="11"/>
       <c r="E77" s="11">
         <f t="shared" si="1"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="78" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15199,7 +15511,7 @@
       <c r="D78" s="11"/>
       <c r="E78" s="11">
         <f t="shared" si="1"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="79" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15208,7 +15520,7 @@
       <c r="D79" s="11"/>
       <c r="E79" s="11">
         <f t="shared" si="1"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="80" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15217,7 +15529,7 @@
       <c r="D80" s="11"/>
       <c r="E80" s="11">
         <f t="shared" si="1"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="81" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15226,7 +15538,7 @@
       <c r="D81" s="11"/>
       <c r="E81" s="11">
         <f t="shared" si="1"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="82" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15235,7 +15547,7 @@
       <c r="D82" s="11"/>
       <c r="E82" s="11">
         <f t="shared" si="1"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="83" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15244,7 +15556,7 @@
       <c r="D83" s="11"/>
       <c r="E83" s="11">
         <f t="shared" si="1"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="84" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15253,7 +15565,7 @@
       <c r="D84" s="11"/>
       <c r="E84" s="11">
         <f t="shared" si="1"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="85" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15262,7 +15574,7 @@
       <c r="D85" s="11"/>
       <c r="E85" s="11">
         <f t="shared" si="1"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="86" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15271,7 +15583,7 @@
       <c r="D86" s="11"/>
       <c r="E86" s="11">
         <f t="shared" si="1"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="87" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15280,7 +15592,7 @@
       <c r="D87" s="11"/>
       <c r="E87" s="11">
         <f t="shared" si="1"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="88" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15289,7 +15601,7 @@
       <c r="D88" s="11"/>
       <c r="E88" s="11">
         <f t="shared" si="1"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="89" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15298,7 +15610,7 @@
       <c r="D89" s="11"/>
       <c r="E89" s="11">
         <f t="shared" si="1"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="90" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15307,7 +15619,7 @@
       <c r="D90" s="11"/>
       <c r="E90" s="11">
         <f t="shared" si="1"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="91" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15316,7 +15628,7 @@
       <c r="D91" s="11"/>
       <c r="E91" s="11">
         <f t="shared" si="1"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="92" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15325,7 +15637,7 @@
       <c r="D92" s="11"/>
       <c r="E92" s="11">
         <f t="shared" si="1"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="93" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15334,7 +15646,7 @@
       <c r="D93" s="11"/>
       <c r="E93" s="11">
         <f t="shared" si="1"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="94" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15343,7 +15655,7 @@
       <c r="D94" s="11"/>
       <c r="E94" s="11">
         <f t="shared" si="1"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="95" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15352,7 +15664,7 @@
       <c r="D95" s="11"/>
       <c r="E95" s="11">
         <f t="shared" si="1"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="96" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15361,7 +15673,7 @@
       <c r="D96" s="11"/>
       <c r="E96" s="11">
         <f t="shared" si="1"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="97" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15370,7 +15682,7 @@
       <c r="D97" s="11"/>
       <c r="E97" s="11">
         <f t="shared" si="1"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="98" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15379,7 +15691,7 @@
       <c r="D98" s="11"/>
       <c r="E98" s="11">
         <f t="shared" si="1"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="99" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15388,7 +15700,7 @@
       <c r="D99" s="11"/>
       <c r="E99" s="11">
         <f t="shared" si="1"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="100" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15397,7 +15709,7 @@
       <c r="D100" s="11"/>
       <c r="E100" s="11">
         <f t="shared" si="1"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="101" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15406,7 +15718,7 @@
       <c r="D101" s="11"/>
       <c r="E101" s="11">
         <f t="shared" si="1"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="102" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15415,7 +15727,7 @@
       <c r="D102" s="11"/>
       <c r="E102" s="11">
         <f t="shared" si="1"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="103" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15424,7 +15736,7 @@
       <c r="D103" s="11"/>
       <c r="E103" s="11">
         <f t="shared" si="1"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="104" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15433,7 +15745,7 @@
       <c r="D104" s="11"/>
       <c r="E104" s="11">
         <f t="shared" si="1"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="105" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15442,7 +15754,7 @@
       <c r="D105" s="11"/>
       <c r="E105" s="11">
         <f t="shared" si="1"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="106" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15451,7 +15763,7 @@
       <c r="D106" s="11"/>
       <c r="E106" s="11">
         <f t="shared" si="1"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="107" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15460,7 +15772,7 @@
       <c r="D107" s="11"/>
       <c r="E107" s="11">
         <f t="shared" si="1"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="108" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15469,7 +15781,7 @@
       <c r="D108" s="11"/>
       <c r="E108" s="11">
         <f t="shared" si="1"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="109" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15478,7 +15790,7 @@
       <c r="D109" s="11"/>
       <c r="E109" s="11">
         <f t="shared" si="1"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="110" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15487,7 +15799,7 @@
       <c r="D110" s="11"/>
       <c r="E110" s="11">
         <f t="shared" si="1"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="111" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15496,7 +15808,7 @@
       <c r="D111" s="11"/>
       <c r="E111" s="11">
         <f t="shared" si="1"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="112" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15505,7 +15817,7 @@
       <c r="D112" s="11"/>
       <c r="E112" s="11">
         <f t="shared" si="1"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="113" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15514,7 +15826,7 @@
       <c r="D113" s="11"/>
       <c r="E113" s="11">
         <f t="shared" si="1"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="114" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15523,7 +15835,7 @@
       <c r="D114" s="11"/>
       <c r="E114" s="11">
         <f t="shared" si="1"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="115" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15532,7 +15844,7 @@
       <c r="D115" s="11"/>
       <c r="E115" s="11">
         <f t="shared" si="1"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="116" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15541,7 +15853,7 @@
       <c r="D116" s="11"/>
       <c r="E116" s="11">
         <f t="shared" si="1"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="117" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15550,7 +15862,7 @@
       <c r="D117" s="11"/>
       <c r="E117" s="11">
         <f t="shared" si="1"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="118" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15559,7 +15871,7 @@
       <c r="D118" s="11"/>
       <c r="E118" s="11">
         <f t="shared" si="1"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="119" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15568,7 +15880,7 @@
       <c r="D119" s="11"/>
       <c r="E119" s="11">
         <f t="shared" si="1"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="120" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15577,7 +15889,7 @@
       <c r="D120" s="11"/>
       <c r="E120" s="11">
         <f t="shared" si="1"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="121" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15586,7 +15898,7 @@
       <c r="D121" s="11"/>
       <c r="E121" s="11">
         <f t="shared" si="1"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="122" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15595,7 +15907,7 @@
       <c r="D122" s="11"/>
       <c r="E122" s="11">
         <f t="shared" si="1"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="123" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15604,7 +15916,7 @@
       <c r="D123" s="11"/>
       <c r="E123" s="11">
         <f t="shared" si="1"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="124" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15613,7 +15925,7 @@
       <c r="D124" s="11"/>
       <c r="E124" s="11">
         <f t="shared" si="1"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="125" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15622,7 +15934,7 @@
       <c r="D125" s="11"/>
       <c r="E125" s="11">
         <f t="shared" si="1"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="126" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15631,7 +15943,7 @@
       <c r="D126" s="11"/>
       <c r="E126" s="11">
         <f t="shared" si="1"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="127" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15640,7 +15952,7 @@
       <c r="D127" s="11"/>
       <c r="E127" s="11">
         <f t="shared" si="1"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="128" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15649,7 +15961,7 @@
       <c r="D128" s="11"/>
       <c r="E128" s="11">
         <f t="shared" si="1"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="129" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15658,7 +15970,7 @@
       <c r="D129" s="11"/>
       <c r="E129" s="11">
         <f t="shared" si="1"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="130" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15667,7 +15979,7 @@
       <c r="D130" s="11"/>
       <c r="E130" s="11">
         <f t="shared" si="1"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="131" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15676,7 +15988,7 @@
       <c r="D131" s="11"/>
       <c r="E131" s="11">
         <f t="shared" si="1"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="132" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15685,7 +15997,7 @@
       <c r="D132" s="11"/>
       <c r="E132" s="11">
         <f t="shared" si="1"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="133" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15694,7 +16006,7 @@
       <c r="D133" s="11"/>
       <c r="E133" s="11">
         <f t="shared" si="1"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="134" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15703,7 +16015,7 @@
       <c r="D134" s="11"/>
       <c r="E134" s="11">
         <f t="shared" si="1"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="135" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15712,7 +16024,7 @@
       <c r="D135" s="11"/>
       <c r="E135" s="11">
         <f t="shared" ref="E135:E192" si="2">E134+D135</f>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="136" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15721,7 +16033,7 @@
       <c r="D136" s="11"/>
       <c r="E136" s="11">
         <f t="shared" si="2"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="137" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15730,7 +16042,7 @@
       <c r="D137" s="11"/>
       <c r="E137" s="11">
         <f t="shared" si="2"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="138" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15739,7 +16051,7 @@
       <c r="D138" s="11"/>
       <c r="E138" s="11">
         <f t="shared" si="2"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="139" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15748,7 +16060,7 @@
       <c r="D139" s="11"/>
       <c r="E139" s="11">
         <f t="shared" si="2"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="140" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15757,7 +16069,7 @@
       <c r="D140" s="11"/>
       <c r="E140" s="11">
         <f t="shared" si="2"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="141" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15766,7 +16078,7 @@
       <c r="D141" s="11"/>
       <c r="E141" s="11">
         <f t="shared" si="2"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="142" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15775,7 +16087,7 @@
       <c r="D142" s="11"/>
       <c r="E142" s="11">
         <f t="shared" si="2"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="143" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15784,7 +16096,7 @@
       <c r="D143" s="11"/>
       <c r="E143" s="11">
         <f t="shared" si="2"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="144" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15793,7 +16105,7 @@
       <c r="D144" s="11"/>
       <c r="E144" s="11">
         <f t="shared" si="2"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="145" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15802,7 +16114,7 @@
       <c r="D145" s="11"/>
       <c r="E145" s="11">
         <f t="shared" si="2"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="146" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15811,7 +16123,7 @@
       <c r="D146" s="11"/>
       <c r="E146" s="11">
         <f t="shared" si="2"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="147" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15820,7 +16132,7 @@
       <c r="D147" s="11"/>
       <c r="E147" s="11">
         <f t="shared" si="2"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="148" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15829,7 +16141,7 @@
       <c r="D148" s="11"/>
       <c r="E148" s="11">
         <f t="shared" si="2"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="149" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15838,7 +16150,7 @@
       <c r="D149" s="11"/>
       <c r="E149" s="11">
         <f t="shared" si="2"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="150" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15847,7 +16159,7 @@
       <c r="D150" s="11"/>
       <c r="E150" s="11">
         <f t="shared" si="2"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="151" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15856,7 +16168,7 @@
       <c r="D151" s="11"/>
       <c r="E151" s="11">
         <f t="shared" si="2"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="152" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15865,7 +16177,7 @@
       <c r="D152" s="11"/>
       <c r="E152" s="11">
         <f t="shared" si="2"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="153" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15874,7 +16186,7 @@
       <c r="D153" s="11"/>
       <c r="E153" s="11">
         <f t="shared" si="2"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="154" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15883,7 +16195,7 @@
       <c r="D154" s="11"/>
       <c r="E154" s="11">
         <f t="shared" si="2"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="155" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15892,7 +16204,7 @@
       <c r="D155" s="11"/>
       <c r="E155" s="11">
         <f t="shared" si="2"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="156" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15901,7 +16213,7 @@
       <c r="D156" s="11"/>
       <c r="E156" s="11">
         <f t="shared" si="2"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="157" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15910,7 +16222,7 @@
       <c r="D157" s="11"/>
       <c r="E157" s="11">
         <f t="shared" si="2"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="158" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15919,7 +16231,7 @@
       <c r="D158" s="11"/>
       <c r="E158" s="11">
         <f t="shared" si="2"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="159" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15928,7 +16240,7 @@
       <c r="D159" s="11"/>
       <c r="E159" s="11">
         <f t="shared" si="2"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="160" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15937,7 +16249,7 @@
       <c r="D160" s="11"/>
       <c r="E160" s="11">
         <f t="shared" si="2"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="161" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15946,7 +16258,7 @@
       <c r="D161" s="11"/>
       <c r="E161" s="11">
         <f t="shared" si="2"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="162" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15955,7 +16267,7 @@
       <c r="D162" s="11"/>
       <c r="E162" s="11">
         <f t="shared" si="2"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="163" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15964,7 +16276,7 @@
       <c r="D163" s="11"/>
       <c r="E163" s="11">
         <f t="shared" si="2"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="164" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15973,7 +16285,7 @@
       <c r="D164" s="11"/>
       <c r="E164" s="11">
         <f t="shared" si="2"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="165" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15982,7 +16294,7 @@
       <c r="D165" s="11"/>
       <c r="E165" s="11">
         <f t="shared" si="2"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="166" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15991,7 +16303,7 @@
       <c r="D166" s="11"/>
       <c r="E166" s="11">
         <f t="shared" si="2"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="167" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -16000,7 +16312,7 @@
       <c r="D167" s="11"/>
       <c r="E167" s="11">
         <f t="shared" si="2"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="168" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -16009,7 +16321,7 @@
       <c r="D168" s="11"/>
       <c r="E168" s="11">
         <f t="shared" si="2"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="169" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -16018,7 +16330,7 @@
       <c r="D169" s="11"/>
       <c r="E169" s="11">
         <f t="shared" si="2"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="170" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -16027,7 +16339,7 @@
       <c r="D170" s="11"/>
       <c r="E170" s="11">
         <f t="shared" si="2"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="171" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -16036,7 +16348,7 @@
       <c r="D171" s="11"/>
       <c r="E171" s="11">
         <f t="shared" si="2"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="172" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -16045,7 +16357,7 @@
       <c r="D172" s="11"/>
       <c r="E172" s="11">
         <f t="shared" si="2"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="173" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -16054,7 +16366,7 @@
       <c r="D173" s="11"/>
       <c r="E173" s="11">
         <f t="shared" si="2"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="174" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -16063,7 +16375,7 @@
       <c r="D174" s="11"/>
       <c r="E174" s="11">
         <f t="shared" si="2"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="175" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -16072,7 +16384,7 @@
       <c r="D175" s="11"/>
       <c r="E175" s="11">
         <f t="shared" si="2"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="176" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -16081,7 +16393,7 @@
       <c r="D176" s="11"/>
       <c r="E176" s="11">
         <f t="shared" si="2"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="177" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -16090,7 +16402,7 @@
       <c r="D177" s="11"/>
       <c r="E177" s="11">
         <f t="shared" si="2"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="178" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -16099,7 +16411,7 @@
       <c r="D178" s="11"/>
       <c r="E178" s="11">
         <f t="shared" si="2"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="179" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -16108,7 +16420,7 @@
       <c r="D179" s="11"/>
       <c r="E179" s="11">
         <f t="shared" si="2"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="180" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -16117,7 +16429,7 @@
       <c r="D180" s="11"/>
       <c r="E180" s="11">
         <f t="shared" si="2"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="181" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -16126,7 +16438,7 @@
       <c r="D181" s="11"/>
       <c r="E181" s="11">
         <f t="shared" si="2"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="182" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -16135,7 +16447,7 @@
       <c r="D182" s="11"/>
       <c r="E182" s="11">
         <f t="shared" si="2"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="183" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -16144,7 +16456,7 @@
       <c r="D183" s="11"/>
       <c r="E183" s="11">
         <f t="shared" si="2"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="184" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -16153,7 +16465,7 @@
       <c r="D184" s="11"/>
       <c r="E184" s="11">
         <f t="shared" si="2"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="185" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -16162,7 +16474,7 @@
       <c r="D185" s="11"/>
       <c r="E185" s="11">
         <f t="shared" si="2"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="186" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -16171,7 +16483,7 @@
       <c r="D186" s="11"/>
       <c r="E186" s="11">
         <f t="shared" si="2"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="187" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -16180,7 +16492,7 @@
       <c r="D187" s="11"/>
       <c r="E187" s="11">
         <f t="shared" si="2"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="188" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -16189,7 +16501,7 @@
       <c r="D188" s="11"/>
       <c r="E188" s="11">
         <f t="shared" si="2"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="189" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -16198,7 +16510,7 @@
       <c r="D189" s="11"/>
       <c r="E189" s="11">
         <f t="shared" si="2"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="190" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -16207,7 +16519,7 @@
       <c r="D190" s="11"/>
       <c r="E190" s="11">
         <f t="shared" si="2"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="191" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -16216,7 +16528,7 @@
       <c r="D191" s="11"/>
       <c r="E191" s="11">
         <f t="shared" si="2"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
     <row r="192" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -16225,7 +16537,7 @@
       <c r="D192" s="11"/>
       <c r="E192" s="11">
         <f t="shared" si="2"/>
-        <v>1495100</v>
+        <v>1730100</v>
       </c>
     </row>
   </sheetData>
@@ -16241,8 +16553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M195"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="85" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView topLeftCell="A27" zoomScale="85" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16262,28 +16574,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="203" t="s">
+      <c r="B2" s="209" t="s">
         <v>171</v>
       </c>
-      <c r="C2" s="204"/>
-      <c r="D2" s="204"/>
-      <c r="E2" s="204"/>
-      <c r="F2" s="204"/>
-      <c r="G2" s="204"/>
-      <c r="H2" s="204"/>
-      <c r="I2" s="204"/>
-      <c r="J2" s="205"/>
+      <c r="C2" s="210"/>
+      <c r="D2" s="210"/>
+      <c r="E2" s="210"/>
+      <c r="F2" s="210"/>
+      <c r="G2" s="210"/>
+      <c r="H2" s="210"/>
+      <c r="I2" s="210"/>
+      <c r="J2" s="211"/>
     </row>
     <row r="3" spans="2:13" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="206"/>
-      <c r="C3" s="207"/>
-      <c r="D3" s="207"/>
-      <c r="E3" s="207"/>
-      <c r="F3" s="207"/>
-      <c r="G3" s="207"/>
-      <c r="H3" s="207"/>
-      <c r="I3" s="207"/>
-      <c r="J3" s="208"/>
+      <c r="B3" s="212"/>
+      <c r="C3" s="213"/>
+      <c r="D3" s="213"/>
+      <c r="E3" s="213"/>
+      <c r="F3" s="213"/>
+      <c r="G3" s="213"/>
+      <c r="H3" s="213"/>
+      <c r="I3" s="213"/>
+      <c r="J3" s="214"/>
     </row>
     <row r="4" spans="2:13" ht="21" x14ac:dyDescent="0.3">
       <c r="B4" s="186" t="s">
@@ -16361,11 +16673,11 @@
         <f>K4+D6</f>
         <v>2500</v>
       </c>
-      <c r="K6" s="209" t="s">
+      <c r="K6" s="215" t="s">
         <v>192</v>
       </c>
-      <c r="L6" s="210"/>
-      <c r="M6" s="211"/>
+      <c r="L6" s="216"/>
+      <c r="M6" s="217"/>
     </row>
     <row r="7" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="172">
@@ -16396,9 +16708,9 @@
         <f t="shared" ref="J7:J39" si="2">J6+D7</f>
         <v>5000</v>
       </c>
-      <c r="K7" s="212"/>
-      <c r="L7" s="213"/>
-      <c r="M7" s="214"/>
+      <c r="K7" s="218"/>
+      <c r="L7" s="219"/>
+      <c r="M7" s="220"/>
     </row>
     <row r="8" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="172">
@@ -16429,9 +16741,9 @@
         <f t="shared" si="2"/>
         <v>7500</v>
       </c>
-      <c r="K8" s="212"/>
-      <c r="L8" s="213"/>
-      <c r="M8" s="214"/>
+      <c r="K8" s="218"/>
+      <c r="L8" s="219"/>
+      <c r="M8" s="220"/>
     </row>
     <row r="9" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="172">
@@ -16462,9 +16774,9 @@
         <f t="shared" si="2"/>
         <v>10000</v>
       </c>
-      <c r="K9" s="212"/>
-      <c r="L9" s="213"/>
-      <c r="M9" s="214"/>
+      <c r="K9" s="218"/>
+      <c r="L9" s="219"/>
+      <c r="M9" s="220"/>
     </row>
     <row r="10" spans="2:13" ht="18" x14ac:dyDescent="0.35">
       <c r="B10" s="175">
@@ -16489,9 +16801,9 @@
         <f t="shared" si="2"/>
         <v>10000</v>
       </c>
-      <c r="K10" s="212"/>
-      <c r="L10" s="213"/>
-      <c r="M10" s="214"/>
+      <c r="K10" s="218"/>
+      <c r="L10" s="219"/>
+      <c r="M10" s="220"/>
     </row>
     <row r="11" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="172">
@@ -16522,9 +16834,9 @@
         <f t="shared" si="2"/>
         <v>12500</v>
       </c>
-      <c r="K11" s="212"/>
-      <c r="L11" s="213"/>
-      <c r="M11" s="214"/>
+      <c r="K11" s="218"/>
+      <c r="L11" s="219"/>
+      <c r="M11" s="220"/>
     </row>
     <row r="12" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="178">
@@ -16555,9 +16867,9 @@
         <f t="shared" si="2"/>
         <v>15000</v>
       </c>
-      <c r="K12" s="212"/>
-      <c r="L12" s="213"/>
-      <c r="M12" s="214"/>
+      <c r="K12" s="218"/>
+      <c r="L12" s="219"/>
+      <c r="M12" s="220"/>
     </row>
     <row r="13" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="172">
@@ -16588,9 +16900,9 @@
         <f t="shared" si="2"/>
         <v>17500</v>
       </c>
-      <c r="K13" s="212"/>
-      <c r="L13" s="213"/>
-      <c r="M13" s="214"/>
+      <c r="K13" s="218"/>
+      <c r="L13" s="219"/>
+      <c r="M13" s="220"/>
     </row>
     <row r="14" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="178">
@@ -16621,9 +16933,9 @@
         <f t="shared" si="2"/>
         <v>20000</v>
       </c>
-      <c r="K14" s="215"/>
-      <c r="L14" s="216"/>
-      <c r="M14" s="217"/>
+      <c r="K14" s="221"/>
+      <c r="L14" s="222"/>
+      <c r="M14" s="223"/>
     </row>
     <row r="15" spans="2:13" ht="18" x14ac:dyDescent="0.35">
       <c r="B15" s="172">
@@ -16654,11 +16966,11 @@
         <f t="shared" si="2"/>
         <v>22500</v>
       </c>
-      <c r="K15" s="218" t="s">
+      <c r="K15" s="224" t="s">
         <v>202</v>
       </c>
-      <c r="L15" s="219"/>
-      <c r="M15" s="220"/>
+      <c r="L15" s="225"/>
+      <c r="M15" s="226"/>
     </row>
     <row r="16" spans="2:13" ht="18" x14ac:dyDescent="0.35">
       <c r="B16" s="181">
@@ -16689,9 +17001,9 @@
         <f t="shared" si="2"/>
         <v>23000</v>
       </c>
-      <c r="K16" s="221"/>
-      <c r="L16" s="222"/>
-      <c r="M16" s="223"/>
+      <c r="K16" s="227"/>
+      <c r="L16" s="228"/>
+      <c r="M16" s="229"/>
     </row>
     <row r="17" spans="2:13" ht="18" x14ac:dyDescent="0.35">
       <c r="B17" s="172">
@@ -16722,9 +17034,9 @@
         <f t="shared" si="2"/>
         <v>25500</v>
       </c>
-      <c r="K17" s="221"/>
-      <c r="L17" s="222"/>
-      <c r="M17" s="223"/>
+      <c r="K17" s="227"/>
+      <c r="L17" s="228"/>
+      <c r="M17" s="229"/>
     </row>
     <row r="18" spans="2:13" ht="18" x14ac:dyDescent="0.35">
       <c r="B18" s="172">
@@ -16755,9 +17067,9 @@
         <f t="shared" si="2"/>
         <v>28000</v>
       </c>
-      <c r="K18" s="221"/>
-      <c r="L18" s="222"/>
-      <c r="M18" s="223"/>
+      <c r="K18" s="227"/>
+      <c r="L18" s="228"/>
+      <c r="M18" s="229"/>
     </row>
     <row r="19" spans="2:13" ht="18" x14ac:dyDescent="0.35">
       <c r="B19" s="172">
@@ -16788,9 +17100,9 @@
         <f t="shared" si="2"/>
         <v>30500</v>
       </c>
-      <c r="K19" s="221"/>
-      <c r="L19" s="222"/>
-      <c r="M19" s="223"/>
+      <c r="K19" s="227"/>
+      <c r="L19" s="228"/>
+      <c r="M19" s="229"/>
     </row>
     <row r="20" spans="2:13" ht="18" x14ac:dyDescent="0.35">
       <c r="B20" s="172">
@@ -16821,9 +17133,9 @@
         <f t="shared" si="2"/>
         <v>33000</v>
       </c>
-      <c r="K20" s="221"/>
-      <c r="L20" s="222"/>
-      <c r="M20" s="223"/>
+      <c r="K20" s="227"/>
+      <c r="L20" s="228"/>
+      <c r="M20" s="229"/>
     </row>
     <row r="21" spans="2:13" ht="18" x14ac:dyDescent="0.35">
       <c r="B21" s="172">
@@ -16854,9 +17166,9 @@
         <f t="shared" si="2"/>
         <v>35500</v>
       </c>
-      <c r="K21" s="221"/>
-      <c r="L21" s="222"/>
-      <c r="M21" s="223"/>
+      <c r="K21" s="227"/>
+      <c r="L21" s="228"/>
+      <c r="M21" s="229"/>
     </row>
     <row r="22" spans="2:13" ht="18" x14ac:dyDescent="0.35">
       <c r="B22" s="172">
@@ -16887,9 +17199,9 @@
         <f t="shared" si="2"/>
         <v>38000</v>
       </c>
-      <c r="K22" s="221"/>
-      <c r="L22" s="222"/>
-      <c r="M22" s="223"/>
+      <c r="K22" s="227"/>
+      <c r="L22" s="228"/>
+      <c r="M22" s="229"/>
     </row>
     <row r="23" spans="2:13" ht="18" x14ac:dyDescent="0.35">
       <c r="B23" s="175">
@@ -16914,9 +17226,9 @@
         <f t="shared" si="2"/>
         <v>38000</v>
       </c>
-      <c r="K23" s="221"/>
-      <c r="L23" s="222"/>
-      <c r="M23" s="223"/>
+      <c r="K23" s="227"/>
+      <c r="L23" s="228"/>
+      <c r="M23" s="229"/>
     </row>
     <row r="24" spans="2:13" ht="18" x14ac:dyDescent="0.35">
       <c r="B24" s="172">
@@ -16947,9 +17259,9 @@
         <f t="shared" si="2"/>
         <v>40500</v>
       </c>
-      <c r="K24" s="221"/>
-      <c r="L24" s="222"/>
-      <c r="M24" s="223"/>
+      <c r="K24" s="227"/>
+      <c r="L24" s="228"/>
+      <c r="M24" s="229"/>
     </row>
     <row r="25" spans="2:13" ht="18" x14ac:dyDescent="0.35">
       <c r="B25" s="172">
@@ -16980,9 +17292,9 @@
         <f t="shared" si="2"/>
         <v>45500</v>
       </c>
-      <c r="K25" s="221"/>
-      <c r="L25" s="222"/>
-      <c r="M25" s="223"/>
+      <c r="K25" s="227"/>
+      <c r="L25" s="228"/>
+      <c r="M25" s="229"/>
     </row>
     <row r="26" spans="2:13" ht="18" x14ac:dyDescent="0.35">
       <c r="B26" s="172">
@@ -17013,9 +17325,9 @@
         <f t="shared" si="2"/>
         <v>48000</v>
       </c>
-      <c r="K26" s="221"/>
-      <c r="L26" s="222"/>
-      <c r="M26" s="223"/>
+      <c r="K26" s="227"/>
+      <c r="L26" s="228"/>
+      <c r="M26" s="229"/>
     </row>
     <row r="27" spans="2:13" ht="18" x14ac:dyDescent="0.35">
       <c r="B27" s="172">
@@ -17046,9 +17358,9 @@
         <f t="shared" si="2"/>
         <v>50500</v>
       </c>
-      <c r="K27" s="224"/>
-      <c r="L27" s="225"/>
-      <c r="M27" s="226"/>
+      <c r="K27" s="230"/>
+      <c r="L27" s="231"/>
+      <c r="M27" s="232"/>
     </row>
     <row r="28" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="172">
@@ -17079,11 +17391,11 @@
         <f t="shared" si="2"/>
         <v>53000</v>
       </c>
-      <c r="K28" s="218" t="s">
+      <c r="K28" s="224" t="s">
         <v>201</v>
       </c>
-      <c r="L28" s="227"/>
-      <c r="M28" s="228"/>
+      <c r="L28" s="233"/>
+      <c r="M28" s="234"/>
     </row>
     <row r="29" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="172">
@@ -17114,9 +17426,9 @@
         <f t="shared" si="2"/>
         <v>55500</v>
       </c>
-      <c r="K29" s="229"/>
-      <c r="L29" s="230"/>
-      <c r="M29" s="231"/>
+      <c r="K29" s="235"/>
+      <c r="L29" s="236"/>
+      <c r="M29" s="237"/>
     </row>
     <row r="30" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="172">
@@ -17147,9 +17459,9 @@
         <f t="shared" si="2"/>
         <v>58000</v>
       </c>
-      <c r="K30" s="229"/>
-      <c r="L30" s="230"/>
-      <c r="M30" s="231"/>
+      <c r="K30" s="235"/>
+      <c r="L30" s="236"/>
+      <c r="M30" s="237"/>
     </row>
     <row r="31" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="172">
@@ -17180,9 +17492,9 @@
         <f t="shared" si="2"/>
         <v>60500</v>
       </c>
-      <c r="K31" s="229"/>
-      <c r="L31" s="230"/>
-      <c r="M31" s="231"/>
+      <c r="K31" s="235"/>
+      <c r="L31" s="236"/>
+      <c r="M31" s="237"/>
     </row>
     <row r="32" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="172">
@@ -17213,9 +17525,9 @@
         <f t="shared" si="2"/>
         <v>63000</v>
       </c>
-      <c r="K32" s="229"/>
-      <c r="L32" s="230"/>
-      <c r="M32" s="231"/>
+      <c r="K32" s="235"/>
+      <c r="L32" s="236"/>
+      <c r="M32" s="237"/>
     </row>
     <row r="33" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="172">
@@ -17246,9 +17558,9 @@
         <f t="shared" si="2"/>
         <v>65500</v>
       </c>
-      <c r="K33" s="229"/>
-      <c r="L33" s="230"/>
-      <c r="M33" s="231"/>
+      <c r="K33" s="235"/>
+      <c r="L33" s="236"/>
+      <c r="M33" s="237"/>
     </row>
     <row r="34" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="172">
@@ -17279,9 +17591,9 @@
         <f t="shared" si="2"/>
         <v>68000</v>
       </c>
-      <c r="K34" s="229"/>
-      <c r="L34" s="230"/>
-      <c r="M34" s="231"/>
+      <c r="K34" s="235"/>
+      <c r="L34" s="236"/>
+      <c r="M34" s="237"/>
     </row>
     <row r="35" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="172">
@@ -17312,9 +17624,9 @@
         <f t="shared" si="2"/>
         <v>71000</v>
       </c>
-      <c r="K35" s="229"/>
-      <c r="L35" s="230"/>
-      <c r="M35" s="231"/>
+      <c r="K35" s="235"/>
+      <c r="L35" s="236"/>
+      <c r="M35" s="237"/>
     </row>
     <row r="36" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="172">
@@ -17345,9 +17657,9 @@
         <f t="shared" si="2"/>
         <v>73500</v>
       </c>
-      <c r="K36" s="229"/>
-      <c r="L36" s="230"/>
-      <c r="M36" s="231"/>
+      <c r="K36" s="235"/>
+      <c r="L36" s="236"/>
+      <c r="M36" s="237"/>
     </row>
     <row r="37" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="172">
@@ -17378,9 +17690,9 @@
         <f t="shared" si="2"/>
         <v>76000</v>
       </c>
-      <c r="K37" s="229"/>
-      <c r="L37" s="230"/>
-      <c r="M37" s="231"/>
+      <c r="K37" s="235"/>
+      <c r="L37" s="236"/>
+      <c r="M37" s="237"/>
     </row>
     <row r="38" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="172">
@@ -17411,9 +17723,9 @@
         <f t="shared" si="2"/>
         <v>78500</v>
       </c>
-      <c r="K38" s="229"/>
-      <c r="L38" s="230"/>
-      <c r="M38" s="231"/>
+      <c r="K38" s="235"/>
+      <c r="L38" s="236"/>
+      <c r="M38" s="237"/>
     </row>
     <row r="39" spans="2:13" ht="18" x14ac:dyDescent="0.35">
       <c r="B39" s="172">
@@ -17444,9 +17756,9 @@
         <f t="shared" si="2"/>
         <v>81000</v>
       </c>
-      <c r="K39" s="229"/>
-      <c r="L39" s="230"/>
-      <c r="M39" s="231"/>
+      <c r="K39" s="235"/>
+      <c r="L39" s="236"/>
+      <c r="M39" s="237"/>
     </row>
     <row r="40" spans="2:13" ht="18" x14ac:dyDescent="0.35">
       <c r="B40" s="175">
@@ -17470,16 +17782,23 @@
       <c r="J40" s="185"/>
     </row>
     <row r="41" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B41" s="43"/>
-      <c r="C41" s="184"/>
-      <c r="D41" s="57"/>
-      <c r="E41" s="57"/>
-      <c r="F41" s="57"/>
-      <c r="G41" s="57"/>
-      <c r="H41" s="57"/>
-      <c r="I41" s="57">
+      <c r="B41" s="175">
+        <v>45252</v>
+      </c>
+      <c r="C41" s="176"/>
+      <c r="D41" s="177"/>
+      <c r="E41" s="177"/>
+      <c r="F41" s="177"/>
+      <c r="G41" s="177">
+        <f t="shared" ref="G41" si="6">(D41*E41)+F41</f>
+        <v>0</v>
+      </c>
+      <c r="H41" s="177">
+        <v>200000</v>
+      </c>
+      <c r="I41" s="177">
         <f t="shared" si="4"/>
-        <v>252250</v>
+        <v>52250</v>
       </c>
       <c r="J41" s="185"/>
     </row>
@@ -17493,7 +17812,7 @@
       <c r="H42" s="57"/>
       <c r="I42" s="57">
         <f t="shared" si="4"/>
-        <v>252250</v>
+        <v>52250</v>
       </c>
       <c r="J42" s="185"/>
     </row>
@@ -17507,7 +17826,7 @@
       <c r="H43" s="57"/>
       <c r="I43" s="57">
         <f t="shared" si="4"/>
-        <v>252250</v>
+        <v>52250</v>
       </c>
       <c r="J43" s="185"/>
     </row>
@@ -17521,7 +17840,7 @@
       <c r="H44" s="57"/>
       <c r="I44" s="57">
         <f t="shared" si="4"/>
-        <v>252250</v>
+        <v>52250</v>
       </c>
       <c r="J44" s="185"/>
     </row>
@@ -17535,7 +17854,7 @@
       <c r="H45" s="57"/>
       <c r="I45" s="57">
         <f t="shared" si="4"/>
-        <v>252250</v>
+        <v>52250</v>
       </c>
       <c r="J45" s="185"/>
     </row>
@@ -17549,7 +17868,7 @@
       <c r="H46" s="57"/>
       <c r="I46" s="57">
         <f t="shared" si="4"/>
-        <v>252250</v>
+        <v>52250</v>
       </c>
       <c r="J46" s="185"/>
     </row>
@@ -17563,7 +17882,7 @@
       <c r="H47" s="57"/>
       <c r="I47" s="57">
         <f t="shared" si="4"/>
-        <v>252250</v>
+        <v>52250</v>
       </c>
       <c r="J47" s="166"/>
     </row>
@@ -17577,7 +17896,7 @@
       <c r="H48" s="57"/>
       <c r="I48" s="57">
         <f t="shared" si="4"/>
-        <v>252250</v>
+        <v>52250</v>
       </c>
       <c r="J48" s="166"/>
     </row>
@@ -17591,7 +17910,7 @@
       <c r="H49" s="57"/>
       <c r="I49" s="57">
         <f t="shared" si="4"/>
-        <v>252250</v>
+        <v>52250</v>
       </c>
       <c r="J49" s="166"/>
     </row>
@@ -17605,7 +17924,7 @@
       <c r="H50" s="57"/>
       <c r="I50" s="57">
         <f t="shared" si="4"/>
-        <v>252250</v>
+        <v>52250</v>
       </c>
       <c r="J50" s="166"/>
     </row>
@@ -17619,7 +17938,7 @@
       <c r="H51" s="57"/>
       <c r="I51" s="57">
         <f t="shared" si="4"/>
-        <v>252250</v>
+        <v>52250</v>
       </c>
       <c r="J51" s="166"/>
     </row>
@@ -18069,10 +18388,169 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C5:F19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C5" s="238" t="s">
+        <v>203</v>
+      </c>
+      <c r="D5" s="238"/>
+      <c r="E5" s="238"/>
+      <c r="F5" s="238"/>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C6" s="238"/>
+      <c r="D6" s="238"/>
+      <c r="E6" s="238"/>
+      <c r="F6" s="238"/>
+    </row>
+    <row r="7" spans="3:6" ht="21" x14ac:dyDescent="0.4">
+      <c r="C7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="190">
+        <v>45251</v>
+      </c>
+      <c r="D8" s="188"/>
+      <c r="E8" s="188"/>
+      <c r="F8" s="188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C9" s="244" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="243" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="192">
+        <v>10000</v>
+      </c>
+      <c r="F9" s="192">
+        <f>F8+E9</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="C10" s="117">
+        <v>45260</v>
+      </c>
+      <c r="D10" s="158" t="s">
+        <v>210</v>
+      </c>
+      <c r="E10" s="192">
+        <v>20000</v>
+      </c>
+      <c r="F10" s="192">
+        <f t="shared" ref="F10:F13" si="0">F9+E10</f>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C11" s="191"/>
+      <c r="D11" s="158"/>
+      <c r="E11" s="192">
+        <v>0</v>
+      </c>
+      <c r="F11" s="192">
+        <f t="shared" si="0"/>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C12" s="191"/>
+      <c r="D12" s="158"/>
+      <c r="E12" s="192">
+        <v>0</v>
+      </c>
+      <c r="F12" s="192">
+        <f t="shared" si="0"/>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C13" s="158"/>
+      <c r="D13" s="158"/>
+      <c r="E13" s="192"/>
+      <c r="F13" s="192">
+        <f t="shared" si="0"/>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C14" s="158"/>
+      <c r="D14" s="158"/>
+      <c r="E14" s="192"/>
+      <c r="F14" s="192"/>
+    </row>
+    <row r="15" spans="3:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C15" s="158"/>
+      <c r="D15" s="158"/>
+      <c r="E15" s="192"/>
+      <c r="F15" s="192"/>
+    </row>
+    <row r="16" spans="3:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C16" s="158"/>
+      <c r="D16" s="158"/>
+      <c r="E16" s="192"/>
+      <c r="F16" s="192"/>
+    </row>
+    <row r="17" spans="3:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C17" s="158"/>
+      <c r="D17" s="158"/>
+      <c r="E17" s="192"/>
+      <c r="F17" s="192"/>
+    </row>
+    <row r="18" spans="3:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C18" s="158"/>
+      <c r="D18" s="158"/>
+      <c r="E18" s="192"/>
+      <c r="F18" s="192"/>
+    </row>
+    <row r="19" spans="3:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C19" s="158"/>
+      <c r="D19" s="158"/>
+      <c r="E19" s="192"/>
+      <c r="F19" s="192"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C5:F6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18084,18 +18562,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="232" t="s">
+      <c r="B2" s="238" t="s">
         <v>203</v>
       </c>
-      <c r="C2" s="232"/>
-      <c r="D2" s="232"/>
-      <c r="E2" s="232"/>
+      <c r="C2" s="238"/>
+      <c r="D2" s="238"/>
+      <c r="E2" s="238"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="232"/>
-      <c r="C3" s="232"/>
-      <c r="D3" s="232"/>
-      <c r="E3" s="232"/>
+      <c r="B3" s="238"/>
+      <c r="C3" s="238"/>
+      <c r="D3" s="238"/>
+      <c r="E3" s="238"/>
     </row>
     <row r="4" spans="2:6" ht="21" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
@@ -18137,28 +18615,58 @@
       </c>
     </row>
     <row r="7" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B7" s="158"/>
-      <c r="C7" s="158"/>
-      <c r="D7" s="192"/>
-      <c r="E7" s="192"/>
+      <c r="B7" s="191">
+        <v>45253</v>
+      </c>
+      <c r="C7" s="158" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="192">
+        <v>250000</v>
+      </c>
+      <c r="E7" s="192">
+        <f t="shared" ref="E7:E10" si="0">E6+D7</f>
+        <v>260000</v>
+      </c>
     </row>
     <row r="8" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B8" s="158"/>
-      <c r="C8" s="158"/>
-      <c r="D8" s="192"/>
-      <c r="E8" s="192"/>
+      <c r="B8" s="191">
+        <v>45264</v>
+      </c>
+      <c r="C8" s="158" t="s">
+        <v>210</v>
+      </c>
+      <c r="D8" s="192">
+        <v>35000</v>
+      </c>
+      <c r="E8" s="192">
+        <f t="shared" si="0"/>
+        <v>295000</v>
+      </c>
     </row>
     <row r="9" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B9" s="158"/>
-      <c r="C9" s="158"/>
-      <c r="D9" s="192"/>
-      <c r="E9" s="192"/>
+      <c r="B9" s="191">
+        <v>45270</v>
+      </c>
+      <c r="C9" s="158" t="s">
+        <v>210</v>
+      </c>
+      <c r="D9" s="192">
+        <v>30000</v>
+      </c>
+      <c r="E9" s="192">
+        <f t="shared" si="0"/>
+        <v>325000</v>
+      </c>
     </row>
     <row r="10" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B10" s="158"/>
       <c r="C10" s="158"/>
       <c r="D10" s="192"/>
-      <c r="E10" s="192"/>
+      <c r="E10" s="192">
+        <f t="shared" si="0"/>
+        <v>325000</v>
+      </c>
     </row>
     <row r="11" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B11" s="158"/>
@@ -18207,7 +18715,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F32"/>
   <sheetViews>
@@ -18225,12 +18733,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="37.200000000000003" x14ac:dyDescent="0.75">
-      <c r="B2" s="233" t="s">
+      <c r="B2" s="239" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="233"/>
-      <c r="D2" s="233"/>
-      <c r="E2" s="233"/>
+      <c r="C2" s="239"/>
+      <c r="D2" s="239"/>
+      <c r="E2" s="239"/>
     </row>
     <row r="3" spans="2:5" ht="21" x14ac:dyDescent="0.3">
       <c r="B3" s="51" t="s">
@@ -18492,7 +19000,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M356"/>
   <sheetViews>
@@ -18513,14 +19021,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="31.2" x14ac:dyDescent="0.6">
-      <c r="B2" s="234" t="s">
+      <c r="B2" s="240" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="234"/>
-      <c r="D2" s="234"/>
-      <c r="E2" s="234"/>
-      <c r="F2" s="234"/>
-      <c r="G2" s="234"/>
+      <c r="C2" s="240"/>
+      <c r="D2" s="240"/>
+      <c r="E2" s="240"/>
+      <c r="F2" s="240"/>
+      <c r="G2" s="240"/>
     </row>
     <row r="3" spans="2:13" ht="21" x14ac:dyDescent="0.3">
       <c r="B3" s="51" t="s">
@@ -18541,9 +19049,9 @@
       <c r="G3" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="235"/>
-      <c r="J3" s="235"/>
-      <c r="K3" s="235"/>
+      <c r="I3" s="241"/>
+      <c r="J3" s="241"/>
+      <c r="K3" s="241"/>
     </row>
     <row r="4" spans="2:13" ht="21" x14ac:dyDescent="0.3">
       <c r="B4" s="4"/>
@@ -24170,12 +24678,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F2"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24186,13 +24694,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="50.4" x14ac:dyDescent="0.95">
-      <c r="B2" s="236" t="s">
+      <c r="B2" s="242" t="s">
         <v>174</v>
       </c>
-      <c r="C2" s="236"/>
-      <c r="D2" s="236"/>
-      <c r="E2" s="236"/>
-      <c r="F2" s="236"/>
+      <c r="C2" s="242"/>
+      <c r="D2" s="242"/>
+      <c r="E2" s="242"/>
+      <c r="F2" s="242"/>
     </row>
     <row r="3" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B3" s="50" t="s">

--- a/LEDGER.xlsx
+++ b/LEDGER.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LEDGER" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="263">
   <si>
     <t>DATE</t>
   </si>
@@ -959,6 +959,30 @@
   <si>
     <t>8000 FOR RORRI LABOUR</t>
   </si>
+  <si>
+    <t>ROOF MATTI + TILE</t>
+  </si>
+  <si>
+    <t>SELF</t>
+  </si>
+  <si>
+    <t>LARKON KO DIA</t>
+  </si>
+  <si>
+    <t>MUHAMMAD RAZZAQ FYSL BANK</t>
+  </si>
+  <si>
+    <t>TAYYAB FAISAL BANK</t>
+  </si>
+  <si>
+    <t>NAZIR AHMAD BANK</t>
+  </si>
+  <si>
+    <t>THURDAY</t>
+  </si>
+  <si>
+    <t>NOT WRITTEN ON HAJI'S BOOK</t>
+  </si>
 </sst>
 </file>
 
@@ -1349,7 +1373,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -1763,11 +1787,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="295">
+  <cellXfs count="305">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2287,6 +2363,22 @@
     <xf numFmtId="0" fontId="21" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="15" fontId="5" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2661,8 +2753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:T588"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A298" zoomScale="77" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H316" activeCellId="1" sqref="H308 H316"/>
+    <sheetView topLeftCell="A302" zoomScale="77" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A320" sqref="A320:XFD320"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2771,15 +2863,15 @@
       <c r="M4" s="59"/>
       <c r="N4" s="65">
         <f t="shared" si="0"/>
-        <v>2250</v>
+        <v>2310</v>
       </c>
       <c r="O4" s="57">
         <f t="shared" si="1"/>
-        <v>2736675</v>
+        <v>2818275</v>
       </c>
       <c r="P4" s="20">
         <f>O4/N4</f>
-        <v>1216.3</v>
+        <v>1220.0324675324675</v>
       </c>
       <c r="R4" s="89"/>
     </row>
@@ -10931,42 +11023,81 @@
       </c>
     </row>
     <row r="320" spans="2:11" ht="21" x14ac:dyDescent="0.4">
-      <c r="B320" s="224"/>
-      <c r="C320" s="225"/>
-      <c r="D320" s="227"/>
-      <c r="E320" s="227"/>
-      <c r="F320" s="227"/>
-      <c r="G320" s="227"/>
-      <c r="H320" s="228"/>
+      <c r="B320" s="26">
+        <v>45468</v>
+      </c>
+      <c r="C320" s="47">
+        <v>3</v>
+      </c>
+      <c r="D320" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E320" s="27">
+        <v>20</v>
+      </c>
+      <c r="F320" s="27">
+        <v>1270</v>
+      </c>
+      <c r="G320" s="27"/>
+      <c r="H320" s="28">
+        <f t="shared" ref="H320" si="56">(E320*F320)+G320</f>
+        <v>25400</v>
+      </c>
       <c r="I320" s="11">
         <f t="shared" si="41"/>
-        <v>12572289.659999998</v>
+        <v>12597689.659999998</v>
       </c>
     </row>
     <row r="321" spans="2:12" ht="21" x14ac:dyDescent="0.4">
-      <c r="B321" s="224"/>
-      <c r="C321" s="225"/>
-      <c r="D321" s="226"/>
-      <c r="E321" s="227"/>
-      <c r="F321" s="227"/>
-      <c r="G321" s="227"/>
-      <c r="H321" s="228"/>
+      <c r="B321" s="26">
+        <v>45475</v>
+      </c>
+      <c r="C321" s="47">
+        <v>3</v>
+      </c>
+      <c r="D321" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E321" s="27">
+        <v>20</v>
+      </c>
+      <c r="F321" s="27">
+        <v>1390</v>
+      </c>
+      <c r="G321" s="27"/>
+      <c r="H321" s="28">
+        <f t="shared" ref="H321" si="57">(E321*F321)+G321</f>
+        <v>27800</v>
+      </c>
       <c r="I321" s="11">
         <f t="shared" si="41"/>
-        <v>12572289.659999998</v>
+        <v>12625489.659999998</v>
       </c>
     </row>
     <row r="322" spans="2:12" ht="21" x14ac:dyDescent="0.4">
-      <c r="B322" s="224"/>
-      <c r="C322" s="225"/>
-      <c r="D322" s="226"/>
-      <c r="E322" s="227"/>
-      <c r="F322" s="227"/>
-      <c r="G322" s="227"/>
-      <c r="H322" s="228"/>
+      <c r="B322" s="26">
+        <v>45503</v>
+      </c>
+      <c r="C322" s="47">
+        <v>3</v>
+      </c>
+      <c r="D322" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E322" s="27">
+        <v>20</v>
+      </c>
+      <c r="F322" s="27">
+        <v>1420</v>
+      </c>
+      <c r="G322" s="27"/>
+      <c r="H322" s="28">
+        <f t="shared" ref="H322" si="58">(E322*F322)+G322</f>
+        <v>28400</v>
+      </c>
       <c r="I322" s="11">
         <f t="shared" si="41"/>
-        <v>12572289.659999998</v>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="323" spans="2:12" ht="21" x14ac:dyDescent="0.4">
@@ -10979,7 +11110,7 @@
       <c r="H323" s="228"/>
       <c r="I323" s="11">
         <f t="shared" si="41"/>
-        <v>12572289.659999998</v>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="324" spans="2:12" ht="21" x14ac:dyDescent="0.4">
@@ -10992,7 +11123,7 @@
       <c r="H324" s="228"/>
       <c r="I324" s="11">
         <f t="shared" si="41"/>
-        <v>12572289.659999998</v>
+        <v>12653889.659999998</v>
       </c>
       <c r="L324" s="223"/>
     </row>
@@ -11006,7 +11137,7 @@
       <c r="H325" s="228"/>
       <c r="I325" s="11">
         <f t="shared" si="41"/>
-        <v>12572289.659999998</v>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="326" spans="2:12" ht="21" x14ac:dyDescent="0.4">
@@ -11019,7 +11150,7 @@
       <c r="H326" s="228"/>
       <c r="I326" s="11">
         <f t="shared" si="41"/>
-        <v>12572289.659999998</v>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="327" spans="2:12" ht="21" x14ac:dyDescent="0.4">
@@ -11032,7 +11163,7 @@
       <c r="H327" s="228"/>
       <c r="I327" s="11">
         <f t="shared" si="41"/>
-        <v>12572289.659999998</v>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="328" spans="2:12" ht="21" x14ac:dyDescent="0.4">
@@ -11044,8 +11175,8 @@
       <c r="G328" s="227"/>
       <c r="H328" s="228"/>
       <c r="I328" s="11">
-        <f t="shared" ref="I328:I391" si="56">I327+H328</f>
-        <v>12572289.659999998</v>
+        <f t="shared" ref="I328:I391" si="59">I327+H328</f>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="329" spans="2:12" ht="21" x14ac:dyDescent="0.4">
@@ -11057,8 +11188,8 @@
       <c r="G329" s="227"/>
       <c r="H329" s="228"/>
       <c r="I329" s="11">
-        <f t="shared" si="56"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="59"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="330" spans="2:12" ht="21" x14ac:dyDescent="0.4">
@@ -11070,8 +11201,8 @@
       <c r="G330" s="227"/>
       <c r="H330" s="228"/>
       <c r="I330" s="11">
-        <f t="shared" si="56"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="59"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="331" spans="2:12" ht="21" x14ac:dyDescent="0.4">
@@ -11083,8 +11214,8 @@
       <c r="G331" s="227"/>
       <c r="H331" s="228"/>
       <c r="I331" s="11">
-        <f t="shared" si="56"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="59"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="332" spans="2:12" ht="21" x14ac:dyDescent="0.4">
@@ -11096,8 +11227,8 @@
       <c r="G332" s="227"/>
       <c r="H332" s="228"/>
       <c r="I332" s="11">
-        <f t="shared" si="56"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="59"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="333" spans="2:12" ht="21" x14ac:dyDescent="0.4">
@@ -11109,8 +11240,8 @@
       <c r="G333" s="227"/>
       <c r="H333" s="228"/>
       <c r="I333" s="11">
-        <f t="shared" si="56"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="59"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="334" spans="2:12" ht="21" x14ac:dyDescent="0.4">
@@ -11122,8 +11253,8 @@
       <c r="G334" s="227"/>
       <c r="H334" s="228"/>
       <c r="I334" s="11">
-        <f t="shared" si="56"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="59"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="335" spans="2:12" ht="21" x14ac:dyDescent="0.4">
@@ -11135,8 +11266,8 @@
       <c r="G335" s="227"/>
       <c r="H335" s="228"/>
       <c r="I335" s="11">
-        <f t="shared" si="56"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="59"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="336" spans="2:12" ht="21" x14ac:dyDescent="0.4">
@@ -11148,8 +11279,8 @@
       <c r="G336" s="227"/>
       <c r="H336" s="228"/>
       <c r="I336" s="11">
-        <f t="shared" si="56"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="59"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="337" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11161,8 +11292,8 @@
       <c r="G337" s="227"/>
       <c r="H337" s="228"/>
       <c r="I337" s="11">
-        <f t="shared" si="56"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="59"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="338" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11174,8 +11305,8 @@
       <c r="G338" s="227"/>
       <c r="H338" s="228"/>
       <c r="I338" s="11">
-        <f t="shared" si="56"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="59"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="339" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11187,8 +11318,8 @@
       <c r="G339" s="227"/>
       <c r="H339" s="228"/>
       <c r="I339" s="11">
-        <f t="shared" si="56"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="59"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="340" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11199,12 +11330,12 @@
       <c r="F340" s="3"/>
       <c r="G340" s="3"/>
       <c r="H340" s="36">
-        <f t="shared" ref="H340:H378" si="57">(E340*F340)+G340</f>
+        <f t="shared" ref="H340:H378" si="60">(E340*F340)+G340</f>
         <v>0</v>
       </c>
       <c r="I340" s="11">
-        <f t="shared" si="56"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="59"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="341" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11215,12 +11346,12 @@
       <c r="F341" s="3"/>
       <c r="G341" s="3"/>
       <c r="H341" s="36">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="I341" s="11">
-        <f t="shared" si="56"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="59"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="342" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11231,12 +11362,12 @@
       <c r="F342" s="3"/>
       <c r="G342" s="3"/>
       <c r="H342" s="36">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="I342" s="11">
-        <f t="shared" si="56"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="59"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="343" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11247,12 +11378,12 @@
       <c r="F343" s="3"/>
       <c r="G343" s="3"/>
       <c r="H343" s="36">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="I343" s="11">
-        <f t="shared" si="56"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="59"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="344" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11263,12 +11394,12 @@
       <c r="F344" s="3"/>
       <c r="G344" s="3"/>
       <c r="H344" s="36">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="I344" s="11">
-        <f t="shared" si="56"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="59"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="345" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11279,12 +11410,12 @@
       <c r="F345" s="3"/>
       <c r="G345" s="3"/>
       <c r="H345" s="36">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="I345" s="11">
-        <f t="shared" si="56"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="59"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="346" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11295,12 +11426,12 @@
       <c r="F346" s="3"/>
       <c r="G346" s="3"/>
       <c r="H346" s="36">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="I346" s="11">
-        <f t="shared" si="56"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="59"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="347" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11311,12 +11442,12 @@
       <c r="F347" s="3"/>
       <c r="G347" s="3"/>
       <c r="H347" s="36">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="I347" s="11">
-        <f t="shared" si="56"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="59"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="348" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11327,12 +11458,12 @@
       <c r="F348" s="3"/>
       <c r="G348" s="3"/>
       <c r="H348" s="36">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="I348" s="11">
-        <f t="shared" si="56"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="59"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="349" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11343,12 +11474,12 @@
       <c r="F349" s="3"/>
       <c r="G349" s="3"/>
       <c r="H349" s="36">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="I349" s="11">
-        <f t="shared" si="56"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="59"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="350" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11359,12 +11490,12 @@
       <c r="F350" s="3"/>
       <c r="G350" s="3"/>
       <c r="H350" s="36">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="I350" s="11">
-        <f t="shared" si="56"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="59"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="351" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11375,12 +11506,12 @@
       <c r="F351" s="3"/>
       <c r="G351" s="3"/>
       <c r="H351" s="36">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="I351" s="11">
-        <f t="shared" si="56"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="59"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="352" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11391,12 +11522,12 @@
       <c r="F352" s="3"/>
       <c r="G352" s="3"/>
       <c r="H352" s="36">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="I352" s="11">
-        <f t="shared" si="56"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="59"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="353" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11407,12 +11538,12 @@
       <c r="F353" s="3"/>
       <c r="G353" s="3"/>
       <c r="H353" s="36">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="I353" s="11">
-        <f t="shared" si="56"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="59"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="354" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11423,12 +11554,12 @@
       <c r="F354" s="3"/>
       <c r="G354" s="3"/>
       <c r="H354" s="36">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="I354" s="11">
-        <f t="shared" si="56"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="59"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="355" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11439,12 +11570,12 @@
       <c r="F355" s="3"/>
       <c r="G355" s="3"/>
       <c r="H355" s="36">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="I355" s="11">
-        <f t="shared" si="56"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="59"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="356" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11455,12 +11586,12 @@
       <c r="F356" s="3"/>
       <c r="G356" s="3"/>
       <c r="H356" s="36">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="I356" s="11">
-        <f t="shared" si="56"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="59"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="357" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11471,12 +11602,12 @@
       <c r="F357" s="3"/>
       <c r="G357" s="3"/>
       <c r="H357" s="36">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="I357" s="11">
-        <f t="shared" si="56"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="59"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="358" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11487,12 +11618,12 @@
       <c r="F358" s="3"/>
       <c r="G358" s="3"/>
       <c r="H358" s="36">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="I358" s="11">
-        <f t="shared" si="56"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="59"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="359" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11503,12 +11634,12 @@
       <c r="F359" s="3"/>
       <c r="G359" s="3"/>
       <c r="H359" s="36">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="I359" s="11">
-        <f t="shared" si="56"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="59"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="360" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11519,12 +11650,12 @@
       <c r="F360" s="3"/>
       <c r="G360" s="3"/>
       <c r="H360" s="36">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="I360" s="11">
-        <f t="shared" si="56"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="59"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="361" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11535,12 +11666,12 @@
       <c r="F361" s="3"/>
       <c r="G361" s="3"/>
       <c r="H361" s="36">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="I361" s="11">
-        <f t="shared" si="56"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="59"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="362" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11551,12 +11682,12 @@
       <c r="F362" s="3"/>
       <c r="G362" s="3"/>
       <c r="H362" s="36">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="I362" s="11">
-        <f t="shared" si="56"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="59"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="363" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11567,12 +11698,12 @@
       <c r="F363" s="3"/>
       <c r="G363" s="3"/>
       <c r="H363" s="36">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="I363" s="11">
-        <f t="shared" si="56"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="59"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="364" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11583,12 +11714,12 @@
       <c r="F364" s="3"/>
       <c r="G364" s="3"/>
       <c r="H364" s="36">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="I364" s="11">
-        <f t="shared" si="56"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="59"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="365" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11599,12 +11730,12 @@
       <c r="F365" s="3"/>
       <c r="G365" s="3"/>
       <c r="H365" s="36">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="I365" s="11">
-        <f t="shared" si="56"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="59"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="366" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11615,12 +11746,12 @@
       <c r="F366" s="3"/>
       <c r="G366" s="3"/>
       <c r="H366" s="36">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="I366" s="11">
-        <f t="shared" si="56"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="59"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="367" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11631,12 +11762,12 @@
       <c r="F367" s="3"/>
       <c r="G367" s="3"/>
       <c r="H367" s="36">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="I367" s="11">
-        <f t="shared" si="56"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="59"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="368" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11647,12 +11778,12 @@
       <c r="F368" s="3"/>
       <c r="G368" s="3"/>
       <c r="H368" s="36">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="I368" s="11">
-        <f t="shared" si="56"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="59"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="369" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11663,12 +11794,12 @@
       <c r="F369" s="3"/>
       <c r="G369" s="3"/>
       <c r="H369" s="36">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="I369" s="11">
-        <f t="shared" si="56"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="59"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="370" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11679,12 +11810,12 @@
       <c r="F370" s="3"/>
       <c r="G370" s="3"/>
       <c r="H370" s="36">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="I370" s="11">
-        <f t="shared" si="56"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="59"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="371" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11695,12 +11826,12 @@
       <c r="F371" s="3"/>
       <c r="G371" s="3"/>
       <c r="H371" s="36">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="I371" s="11">
-        <f t="shared" si="56"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="59"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="372" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11711,12 +11842,12 @@
       <c r="F372" s="3"/>
       <c r="G372" s="3"/>
       <c r="H372" s="36">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="I372" s="11">
-        <f t="shared" si="56"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="59"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="373" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11727,12 +11858,12 @@
       <c r="F373" s="3"/>
       <c r="G373" s="3"/>
       <c r="H373" s="36">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="I373" s="11">
-        <f t="shared" si="56"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="59"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="374" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11743,12 +11874,12 @@
       <c r="F374" s="3"/>
       <c r="G374" s="3"/>
       <c r="H374" s="36">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="I374" s="11">
-        <f t="shared" si="56"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="59"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="375" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11759,12 +11890,12 @@
       <c r="F375" s="3"/>
       <c r="G375" s="3"/>
       <c r="H375" s="36">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="I375" s="11">
-        <f t="shared" si="56"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="59"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="376" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11775,12 +11906,12 @@
       <c r="F376" s="3"/>
       <c r="G376" s="3"/>
       <c r="H376" s="36">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="I376" s="11">
-        <f t="shared" si="56"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="59"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="377" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11791,12 +11922,12 @@
       <c r="F377" s="3"/>
       <c r="G377" s="3"/>
       <c r="H377" s="36">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="I377" s="11">
-        <f t="shared" si="56"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="59"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="378" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11807,12 +11938,12 @@
       <c r="F378" s="3"/>
       <c r="G378" s="3"/>
       <c r="H378" s="36">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="I378" s="11">
-        <f t="shared" si="56"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="59"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="379" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11823,12 +11954,12 @@
       <c r="F379" s="3"/>
       <c r="G379" s="3"/>
       <c r="H379" s="36">
-        <f t="shared" ref="H379:H442" si="58">(E379*F379)+G379</f>
+        <f t="shared" ref="H379:H442" si="61">(E379*F379)+G379</f>
         <v>0</v>
       </c>
       <c r="I379" s="11">
-        <f t="shared" si="56"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="59"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="380" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11839,12 +11970,12 @@
       <c r="F380" s="3"/>
       <c r="G380" s="3"/>
       <c r="H380" s="36">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="I380" s="11">
-        <f t="shared" si="56"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="59"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="381" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11855,12 +11986,12 @@
       <c r="F381" s="3"/>
       <c r="G381" s="3"/>
       <c r="H381" s="36">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="I381" s="11">
-        <f t="shared" si="56"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="59"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="382" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11871,12 +12002,12 @@
       <c r="F382" s="3"/>
       <c r="G382" s="3"/>
       <c r="H382" s="36">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="I382" s="11">
-        <f t="shared" si="56"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="59"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="383" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11887,12 +12018,12 @@
       <c r="F383" s="3"/>
       <c r="G383" s="3"/>
       <c r="H383" s="36">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="I383" s="11">
-        <f t="shared" si="56"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="59"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="384" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11903,12 +12034,12 @@
       <c r="F384" s="3"/>
       <c r="G384" s="3"/>
       <c r="H384" s="36">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="I384" s="11">
-        <f t="shared" si="56"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="59"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="385" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11919,12 +12050,12 @@
       <c r="F385" s="3"/>
       <c r="G385" s="3"/>
       <c r="H385" s="36">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="I385" s="11">
-        <f t="shared" si="56"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="59"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="386" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11935,12 +12066,12 @@
       <c r="F386" s="3"/>
       <c r="G386" s="3"/>
       <c r="H386" s="36">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="I386" s="11">
-        <f t="shared" si="56"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="59"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="387" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11951,12 +12082,12 @@
       <c r="F387" s="3"/>
       <c r="G387" s="3"/>
       <c r="H387" s="36">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="I387" s="11">
-        <f t="shared" si="56"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="59"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="388" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11967,12 +12098,12 @@
       <c r="F388" s="3"/>
       <c r="G388" s="3"/>
       <c r="H388" s="36">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="I388" s="11">
-        <f t="shared" si="56"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="59"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="389" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11983,12 +12114,12 @@
       <c r="F389" s="3"/>
       <c r="G389" s="3"/>
       <c r="H389" s="36">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="I389" s="11">
-        <f t="shared" si="56"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="59"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="390" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -11999,12 +12130,12 @@
       <c r="F390" s="3"/>
       <c r="G390" s="3"/>
       <c r="H390" s="36">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="I390" s="11">
-        <f t="shared" si="56"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="59"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="391" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12015,12 +12146,12 @@
       <c r="F391" s="3"/>
       <c r="G391" s="3"/>
       <c r="H391" s="36">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="I391" s="11">
-        <f t="shared" si="56"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="59"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="392" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12031,12 +12162,12 @@
       <c r="F392" s="3"/>
       <c r="G392" s="3"/>
       <c r="H392" s="36">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="I392" s="11">
-        <f t="shared" ref="I392:I455" si="59">I391+H392</f>
-        <v>12572289.659999998</v>
+        <f t="shared" ref="I392:I455" si="62">I391+H392</f>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="393" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12047,12 +12178,12 @@
       <c r="F393" s="3"/>
       <c r="G393" s="3"/>
       <c r="H393" s="36">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="I393" s="11">
-        <f t="shared" si="59"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="62"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="394" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12063,12 +12194,12 @@
       <c r="F394" s="3"/>
       <c r="G394" s="3"/>
       <c r="H394" s="36">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="I394" s="11">
-        <f t="shared" si="59"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="62"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="395" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12079,12 +12210,12 @@
       <c r="F395" s="3"/>
       <c r="G395" s="3"/>
       <c r="H395" s="36">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="I395" s="11">
-        <f t="shared" si="59"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="62"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="396" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12095,12 +12226,12 @@
       <c r="F396" s="3"/>
       <c r="G396" s="3"/>
       <c r="H396" s="36">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="I396" s="11">
-        <f t="shared" si="59"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="62"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="397" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12111,12 +12242,12 @@
       <c r="F397" s="3"/>
       <c r="G397" s="3"/>
       <c r="H397" s="36">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="I397" s="11">
-        <f t="shared" si="59"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="62"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="398" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12127,12 +12258,12 @@
       <c r="F398" s="3"/>
       <c r="G398" s="3"/>
       <c r="H398" s="36">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="I398" s="11">
-        <f t="shared" si="59"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="62"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="399" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12143,12 +12274,12 @@
       <c r="F399" s="3"/>
       <c r="G399" s="3"/>
       <c r="H399" s="36">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="I399" s="11">
-        <f t="shared" si="59"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="62"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="400" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12159,12 +12290,12 @@
       <c r="F400" s="3"/>
       <c r="G400" s="3"/>
       <c r="H400" s="36">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="I400" s="11">
-        <f t="shared" si="59"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="62"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="401" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12175,12 +12306,12 @@
       <c r="F401" s="3"/>
       <c r="G401" s="3"/>
       <c r="H401" s="36">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="I401" s="11">
-        <f t="shared" si="59"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="62"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="402" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12191,12 +12322,12 @@
       <c r="F402" s="3"/>
       <c r="G402" s="3"/>
       <c r="H402" s="36">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="I402" s="11">
-        <f t="shared" si="59"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="62"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="403" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12207,12 +12338,12 @@
       <c r="F403" s="3"/>
       <c r="G403" s="3"/>
       <c r="H403" s="36">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="I403" s="11">
-        <f t="shared" si="59"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="62"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="404" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12223,12 +12354,12 @@
       <c r="F404" s="3"/>
       <c r="G404" s="3"/>
       <c r="H404" s="36">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="I404" s="11">
-        <f t="shared" si="59"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="62"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="405" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12239,12 +12370,12 @@
       <c r="F405" s="3"/>
       <c r="G405" s="3"/>
       <c r="H405" s="36">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="I405" s="11">
-        <f t="shared" si="59"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="62"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="406" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12255,12 +12386,12 @@
       <c r="F406" s="3"/>
       <c r="G406" s="3"/>
       <c r="H406" s="36">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="I406" s="11">
-        <f t="shared" si="59"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="62"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="407" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12271,12 +12402,12 @@
       <c r="F407" s="3"/>
       <c r="G407" s="3"/>
       <c r="H407" s="36">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="I407" s="11">
-        <f t="shared" si="59"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="62"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="408" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12287,12 +12418,12 @@
       <c r="F408" s="3"/>
       <c r="G408" s="3"/>
       <c r="H408" s="36">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="I408" s="11">
-        <f t="shared" si="59"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="62"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="409" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12303,12 +12434,12 @@
       <c r="F409" s="3"/>
       <c r="G409" s="3"/>
       <c r="H409" s="36">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="I409" s="11">
-        <f t="shared" si="59"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="62"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="410" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12319,12 +12450,12 @@
       <c r="F410" s="3"/>
       <c r="G410" s="3"/>
       <c r="H410" s="36">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="I410" s="11">
-        <f t="shared" si="59"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="62"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="411" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12335,12 +12466,12 @@
       <c r="F411" s="3"/>
       <c r="G411" s="3"/>
       <c r="H411" s="36">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="I411" s="11">
-        <f t="shared" si="59"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="62"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="412" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12351,12 +12482,12 @@
       <c r="F412" s="3"/>
       <c r="G412" s="3"/>
       <c r="H412" s="36">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="I412" s="11">
-        <f t="shared" si="59"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="62"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="413" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12367,12 +12498,12 @@
       <c r="F413" s="3"/>
       <c r="G413" s="3"/>
       <c r="H413" s="36">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="I413" s="11">
-        <f t="shared" si="59"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="62"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="414" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12383,12 +12514,12 @@
       <c r="F414" s="3"/>
       <c r="G414" s="3"/>
       <c r="H414" s="36">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="I414" s="11">
-        <f t="shared" si="59"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="62"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="415" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12399,12 +12530,12 @@
       <c r="F415" s="3"/>
       <c r="G415" s="3"/>
       <c r="H415" s="36">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="I415" s="11">
-        <f t="shared" si="59"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="62"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="416" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12415,12 +12546,12 @@
       <c r="F416" s="3"/>
       <c r="G416" s="3"/>
       <c r="H416" s="36">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="I416" s="11">
-        <f t="shared" si="59"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="62"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="417" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12431,12 +12562,12 @@
       <c r="F417" s="3"/>
       <c r="G417" s="3"/>
       <c r="H417" s="36">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="I417" s="11">
-        <f t="shared" si="59"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="62"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="418" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12447,12 +12578,12 @@
       <c r="F418" s="3"/>
       <c r="G418" s="3"/>
       <c r="H418" s="36">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="I418" s="11">
-        <f t="shared" si="59"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="62"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="419" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12463,12 +12594,12 @@
       <c r="F419" s="3"/>
       <c r="G419" s="3"/>
       <c r="H419" s="36">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="I419" s="11">
-        <f t="shared" si="59"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="62"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="420" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12479,12 +12610,12 @@
       <c r="F420" s="3"/>
       <c r="G420" s="3"/>
       <c r="H420" s="36">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="I420" s="11">
-        <f t="shared" si="59"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="62"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="421" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12495,12 +12626,12 @@
       <c r="F421" s="3"/>
       <c r="G421" s="3"/>
       <c r="H421" s="36">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="I421" s="11">
-        <f t="shared" si="59"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="62"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="422" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12511,12 +12642,12 @@
       <c r="F422" s="3"/>
       <c r="G422" s="3"/>
       <c r="H422" s="36">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="I422" s="11">
-        <f t="shared" si="59"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="62"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="423" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12527,12 +12658,12 @@
       <c r="F423" s="3"/>
       <c r="G423" s="3"/>
       <c r="H423" s="36">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="I423" s="11">
-        <f t="shared" si="59"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="62"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="424" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12543,12 +12674,12 @@
       <c r="F424" s="3"/>
       <c r="G424" s="3"/>
       <c r="H424" s="36">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="I424" s="11">
-        <f t="shared" si="59"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="62"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="425" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12559,12 +12690,12 @@
       <c r="F425" s="3"/>
       <c r="G425" s="3"/>
       <c r="H425" s="36">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="I425" s="11">
-        <f t="shared" si="59"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="62"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="426" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12575,12 +12706,12 @@
       <c r="F426" s="3"/>
       <c r="G426" s="3"/>
       <c r="H426" s="36">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="I426" s="11">
-        <f t="shared" si="59"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="62"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="427" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12591,12 +12722,12 @@
       <c r="F427" s="3"/>
       <c r="G427" s="3"/>
       <c r="H427" s="36">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="I427" s="11">
-        <f t="shared" si="59"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="62"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="428" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12607,12 +12738,12 @@
       <c r="F428" s="3"/>
       <c r="G428" s="3"/>
       <c r="H428" s="36">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="I428" s="11">
-        <f t="shared" si="59"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="62"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="429" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12623,12 +12754,12 @@
       <c r="F429" s="3"/>
       <c r="G429" s="3"/>
       <c r="H429" s="36">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="I429" s="11">
-        <f t="shared" si="59"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="62"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="430" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12639,12 +12770,12 @@
       <c r="F430" s="3"/>
       <c r="G430" s="3"/>
       <c r="H430" s="36">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="I430" s="11">
-        <f t="shared" si="59"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="62"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="431" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12655,12 +12786,12 @@
       <c r="F431" s="3"/>
       <c r="G431" s="3"/>
       <c r="H431" s="36">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="I431" s="11">
-        <f t="shared" si="59"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="62"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="432" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12671,12 +12802,12 @@
       <c r="F432" s="3"/>
       <c r="G432" s="3"/>
       <c r="H432" s="36">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="I432" s="11">
-        <f t="shared" si="59"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="62"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="433" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12687,12 +12818,12 @@
       <c r="F433" s="3"/>
       <c r="G433" s="3"/>
       <c r="H433" s="36">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="I433" s="11">
-        <f t="shared" si="59"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="62"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="434" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12703,12 +12834,12 @@
       <c r="F434" s="3"/>
       <c r="G434" s="3"/>
       <c r="H434" s="36">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="I434" s="11">
-        <f t="shared" si="59"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="62"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="435" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12719,12 +12850,12 @@
       <c r="F435" s="3"/>
       <c r="G435" s="3"/>
       <c r="H435" s="36">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="I435" s="11">
-        <f t="shared" si="59"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="62"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="436" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12735,12 +12866,12 @@
       <c r="F436" s="3"/>
       <c r="G436" s="3"/>
       <c r="H436" s="36">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="I436" s="11">
-        <f t="shared" si="59"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="62"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="437" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12751,12 +12882,12 @@
       <c r="F437" s="3"/>
       <c r="G437" s="3"/>
       <c r="H437" s="36">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="I437" s="11">
-        <f t="shared" si="59"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="62"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="438" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12767,12 +12898,12 @@
       <c r="F438" s="3"/>
       <c r="G438" s="3"/>
       <c r="H438" s="36">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="I438" s="11">
-        <f t="shared" si="59"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="62"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="439" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12783,12 +12914,12 @@
       <c r="F439" s="3"/>
       <c r="G439" s="3"/>
       <c r="H439" s="36">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="I439" s="11">
-        <f t="shared" si="59"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="62"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="440" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12799,12 +12930,12 @@
       <c r="F440" s="3"/>
       <c r="G440" s="3"/>
       <c r="H440" s="36">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="I440" s="11">
-        <f t="shared" si="59"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="62"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="441" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12815,12 +12946,12 @@
       <c r="F441" s="3"/>
       <c r="G441" s="3"/>
       <c r="H441" s="36">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="I441" s="11">
-        <f t="shared" si="59"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="62"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="442" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12831,12 +12962,12 @@
       <c r="F442" s="3"/>
       <c r="G442" s="3"/>
       <c r="H442" s="36">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="I442" s="11">
-        <f t="shared" si="59"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="62"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="443" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12847,12 +12978,12 @@
       <c r="F443" s="3"/>
       <c r="G443" s="3"/>
       <c r="H443" s="36">
-        <f t="shared" ref="H443:H506" si="60">(E443*F443)+G443</f>
+        <f t="shared" ref="H443:H506" si="63">(E443*F443)+G443</f>
         <v>0</v>
       </c>
       <c r="I443" s="11">
-        <f t="shared" si="59"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="62"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="444" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12863,12 +12994,12 @@
       <c r="F444" s="3"/>
       <c r="G444" s="3"/>
       <c r="H444" s="36">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="I444" s="11">
-        <f t="shared" si="59"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="62"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="445" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12879,12 +13010,12 @@
       <c r="F445" s="3"/>
       <c r="G445" s="3"/>
       <c r="H445" s="36">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="I445" s="11">
-        <f t="shared" si="59"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="62"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="446" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12895,12 +13026,12 @@
       <c r="F446" s="3"/>
       <c r="G446" s="3"/>
       <c r="H446" s="36">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="I446" s="11">
-        <f t="shared" si="59"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="62"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="447" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12911,12 +13042,12 @@
       <c r="F447" s="3"/>
       <c r="G447" s="3"/>
       <c r="H447" s="36">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="I447" s="11">
-        <f t="shared" si="59"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="62"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="448" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12927,12 +13058,12 @@
       <c r="F448" s="3"/>
       <c r="G448" s="3"/>
       <c r="H448" s="36">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="I448" s="11">
-        <f t="shared" si="59"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="62"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="449" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12943,12 +13074,12 @@
       <c r="F449" s="3"/>
       <c r="G449" s="3"/>
       <c r="H449" s="36">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="I449" s="11">
-        <f t="shared" si="59"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="62"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="450" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12959,12 +13090,12 @@
       <c r="F450" s="3"/>
       <c r="G450" s="3"/>
       <c r="H450" s="36">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="I450" s="11">
-        <f t="shared" si="59"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="62"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="451" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12975,12 +13106,12 @@
       <c r="F451" s="3"/>
       <c r="G451" s="3"/>
       <c r="H451" s="36">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="I451" s="11">
-        <f t="shared" si="59"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="62"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="452" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -12991,12 +13122,12 @@
       <c r="F452" s="3"/>
       <c r="G452" s="3"/>
       <c r="H452" s="36">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="I452" s="11">
-        <f t="shared" si="59"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="62"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="453" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13007,12 +13138,12 @@
       <c r="F453" s="3"/>
       <c r="G453" s="3"/>
       <c r="H453" s="36">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="I453" s="11">
-        <f t="shared" si="59"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="62"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="454" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13023,12 +13154,12 @@
       <c r="F454" s="3"/>
       <c r="G454" s="3"/>
       <c r="H454" s="36">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="I454" s="11">
-        <f t="shared" si="59"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="62"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="455" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13039,12 +13170,12 @@
       <c r="F455" s="3"/>
       <c r="G455" s="3"/>
       <c r="H455" s="36">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="I455" s="11">
-        <f t="shared" si="59"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="62"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="456" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13055,12 +13186,12 @@
       <c r="F456" s="3"/>
       <c r="G456" s="3"/>
       <c r="H456" s="36">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="I456" s="11">
-        <f t="shared" ref="I456:I519" si="61">I455+H456</f>
-        <v>12572289.659999998</v>
+        <f t="shared" ref="I456:I519" si="64">I455+H456</f>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="457" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13071,12 +13202,12 @@
       <c r="F457" s="3"/>
       <c r="G457" s="3"/>
       <c r="H457" s="36">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="I457" s="11">
-        <f t="shared" si="61"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="64"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="458" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13087,12 +13218,12 @@
       <c r="F458" s="3"/>
       <c r="G458" s="3"/>
       <c r="H458" s="36">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="I458" s="11">
-        <f t="shared" si="61"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="64"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="459" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13103,12 +13234,12 @@
       <c r="F459" s="3"/>
       <c r="G459" s="3"/>
       <c r="H459" s="36">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="I459" s="11">
-        <f t="shared" si="61"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="64"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="460" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13119,12 +13250,12 @@
       <c r="F460" s="3"/>
       <c r="G460" s="3"/>
       <c r="H460" s="36">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="I460" s="11">
-        <f t="shared" si="61"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="64"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="461" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13135,12 +13266,12 @@
       <c r="F461" s="3"/>
       <c r="G461" s="3"/>
       <c r="H461" s="36">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="I461" s="11">
-        <f t="shared" si="61"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="64"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="462" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13151,12 +13282,12 @@
       <c r="F462" s="3"/>
       <c r="G462" s="3"/>
       <c r="H462" s="36">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="I462" s="11">
-        <f t="shared" si="61"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="64"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="463" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13167,12 +13298,12 @@
       <c r="F463" s="3"/>
       <c r="G463" s="3"/>
       <c r="H463" s="36">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="I463" s="11">
-        <f t="shared" si="61"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="64"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="464" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13183,12 +13314,12 @@
       <c r="F464" s="3"/>
       <c r="G464" s="3"/>
       <c r="H464" s="36">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="I464" s="11">
-        <f t="shared" si="61"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="64"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="465" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13199,12 +13330,12 @@
       <c r="F465" s="3"/>
       <c r="G465" s="3"/>
       <c r="H465" s="36">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="I465" s="11">
-        <f t="shared" si="61"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="64"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="466" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13215,12 +13346,12 @@
       <c r="F466" s="3"/>
       <c r="G466" s="3"/>
       <c r="H466" s="36">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="I466" s="11">
-        <f t="shared" si="61"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="64"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="467" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13231,12 +13362,12 @@
       <c r="F467" s="3"/>
       <c r="G467" s="3"/>
       <c r="H467" s="36">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="I467" s="11">
-        <f t="shared" si="61"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="64"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="468" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13247,12 +13378,12 @@
       <c r="F468" s="3"/>
       <c r="G468" s="3"/>
       <c r="H468" s="36">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="I468" s="11">
-        <f t="shared" si="61"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="64"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="469" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13263,12 +13394,12 @@
       <c r="F469" s="3"/>
       <c r="G469" s="3"/>
       <c r="H469" s="36">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="I469" s="11">
-        <f t="shared" si="61"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="64"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="470" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13279,12 +13410,12 @@
       <c r="F470" s="3"/>
       <c r="G470" s="3"/>
       <c r="H470" s="36">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="I470" s="11">
-        <f t="shared" si="61"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="64"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="471" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13295,12 +13426,12 @@
       <c r="F471" s="3"/>
       <c r="G471" s="3"/>
       <c r="H471" s="36">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="I471" s="11">
-        <f t="shared" si="61"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="64"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="472" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13311,12 +13442,12 @@
       <c r="F472" s="3"/>
       <c r="G472" s="3"/>
       <c r="H472" s="36">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="I472" s="11">
-        <f t="shared" si="61"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="64"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="473" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13327,12 +13458,12 @@
       <c r="F473" s="3"/>
       <c r="G473" s="3"/>
       <c r="H473" s="36">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="I473" s="11">
-        <f t="shared" si="61"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="64"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="474" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13343,12 +13474,12 @@
       <c r="F474" s="3"/>
       <c r="G474" s="3"/>
       <c r="H474" s="36">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="I474" s="11">
-        <f t="shared" si="61"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="64"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="475" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13359,12 +13490,12 @@
       <c r="F475" s="3"/>
       <c r="G475" s="3"/>
       <c r="H475" s="36">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="I475" s="11">
-        <f t="shared" si="61"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="64"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="476" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13375,12 +13506,12 @@
       <c r="F476" s="3"/>
       <c r="G476" s="3"/>
       <c r="H476" s="36">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="I476" s="11">
-        <f t="shared" si="61"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="64"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="477" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13391,12 +13522,12 @@
       <c r="F477" s="3"/>
       <c r="G477" s="3"/>
       <c r="H477" s="36">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="I477" s="11">
-        <f t="shared" si="61"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="64"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="478" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13407,12 +13538,12 @@
       <c r="F478" s="3"/>
       <c r="G478" s="3"/>
       <c r="H478" s="36">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="I478" s="11">
-        <f t="shared" si="61"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="64"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="479" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13423,12 +13554,12 @@
       <c r="F479" s="3"/>
       <c r="G479" s="3"/>
       <c r="H479" s="36">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="I479" s="11">
-        <f t="shared" si="61"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="64"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="480" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13439,12 +13570,12 @@
       <c r="F480" s="3"/>
       <c r="G480" s="3"/>
       <c r="H480" s="36">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="I480" s="11">
-        <f t="shared" si="61"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="64"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="481" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13455,12 +13586,12 @@
       <c r="F481" s="3"/>
       <c r="G481" s="3"/>
       <c r="H481" s="36">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="I481" s="11">
-        <f t="shared" si="61"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="64"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="482" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13471,12 +13602,12 @@
       <c r="F482" s="3"/>
       <c r="G482" s="3"/>
       <c r="H482" s="36">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="I482" s="11">
-        <f t="shared" si="61"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="64"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="483" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13487,12 +13618,12 @@
       <c r="F483" s="3"/>
       <c r="G483" s="3"/>
       <c r="H483" s="36">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="I483" s="11">
-        <f t="shared" si="61"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="64"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="484" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13503,12 +13634,12 @@
       <c r="F484" s="3"/>
       <c r="G484" s="3"/>
       <c r="H484" s="36">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="I484" s="11">
-        <f t="shared" si="61"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="64"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="485" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13519,12 +13650,12 @@
       <c r="F485" s="3"/>
       <c r="G485" s="3"/>
       <c r="H485" s="36">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="I485" s="11">
-        <f t="shared" si="61"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="64"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="486" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13535,12 +13666,12 @@
       <c r="F486" s="3"/>
       <c r="G486" s="3"/>
       <c r="H486" s="36">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="I486" s="11">
-        <f t="shared" si="61"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="64"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="487" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13551,12 +13682,12 @@
       <c r="F487" s="3"/>
       <c r="G487" s="3"/>
       <c r="H487" s="36">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="I487" s="11">
-        <f t="shared" si="61"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="64"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="488" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13567,12 +13698,12 @@
       <c r="F488" s="3"/>
       <c r="G488" s="3"/>
       <c r="H488" s="36">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="I488" s="11">
-        <f t="shared" si="61"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="64"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="489" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13583,12 +13714,12 @@
       <c r="F489" s="3"/>
       <c r="G489" s="3"/>
       <c r="H489" s="36">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="I489" s="11">
-        <f t="shared" si="61"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="64"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="490" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13599,12 +13730,12 @@
       <c r="F490" s="3"/>
       <c r="G490" s="3"/>
       <c r="H490" s="36">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="I490" s="11">
-        <f t="shared" si="61"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="64"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="491" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13615,12 +13746,12 @@
       <c r="F491" s="3"/>
       <c r="G491" s="3"/>
       <c r="H491" s="36">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="I491" s="11">
-        <f t="shared" si="61"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="64"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="492" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13631,12 +13762,12 @@
       <c r="F492" s="3"/>
       <c r="G492" s="3"/>
       <c r="H492" s="36">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="I492" s="11">
-        <f t="shared" si="61"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="64"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="493" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13647,12 +13778,12 @@
       <c r="F493" s="3"/>
       <c r="G493" s="3"/>
       <c r="H493" s="36">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="I493" s="11">
-        <f t="shared" si="61"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="64"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="494" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13663,12 +13794,12 @@
       <c r="F494" s="3"/>
       <c r="G494" s="3"/>
       <c r="H494" s="36">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="I494" s="11">
-        <f t="shared" si="61"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="64"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="495" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13679,12 +13810,12 @@
       <c r="F495" s="3"/>
       <c r="G495" s="3"/>
       <c r="H495" s="36">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="I495" s="11">
-        <f t="shared" si="61"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="64"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="496" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13695,12 +13826,12 @@
       <c r="F496" s="3"/>
       <c r="G496" s="3"/>
       <c r="H496" s="36">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="I496" s="11">
-        <f t="shared" si="61"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="64"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="497" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13711,12 +13842,12 @@
       <c r="F497" s="3"/>
       <c r="G497" s="3"/>
       <c r="H497" s="36">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="I497" s="11">
-        <f t="shared" si="61"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="64"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="498" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13727,12 +13858,12 @@
       <c r="F498" s="3"/>
       <c r="G498" s="3"/>
       <c r="H498" s="36">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="I498" s="11">
-        <f t="shared" si="61"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="64"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="499" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13743,12 +13874,12 @@
       <c r="F499" s="3"/>
       <c r="G499" s="3"/>
       <c r="H499" s="36">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="I499" s="11">
-        <f t="shared" si="61"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="64"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="500" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13759,12 +13890,12 @@
       <c r="F500" s="3"/>
       <c r="G500" s="3"/>
       <c r="H500" s="36">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="I500" s="11">
-        <f t="shared" si="61"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="64"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="501" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13775,12 +13906,12 @@
       <c r="F501" s="3"/>
       <c r="G501" s="3"/>
       <c r="H501" s="36">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="I501" s="11">
-        <f t="shared" si="61"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="64"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="502" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13791,12 +13922,12 @@
       <c r="F502" s="3"/>
       <c r="G502" s="3"/>
       <c r="H502" s="36">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="I502" s="11">
-        <f t="shared" si="61"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="64"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="503" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13807,12 +13938,12 @@
       <c r="F503" s="3"/>
       <c r="G503" s="3"/>
       <c r="H503" s="36">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="I503" s="11">
-        <f t="shared" si="61"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="64"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="504" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13823,12 +13954,12 @@
       <c r="F504" s="3"/>
       <c r="G504" s="3"/>
       <c r="H504" s="36">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="I504" s="11">
-        <f t="shared" si="61"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="64"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="505" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13839,12 +13970,12 @@
       <c r="F505" s="3"/>
       <c r="G505" s="3"/>
       <c r="H505" s="36">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="I505" s="11">
-        <f t="shared" si="61"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="64"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="506" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13855,12 +13986,12 @@
       <c r="F506" s="3"/>
       <c r="G506" s="3"/>
       <c r="H506" s="36">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="I506" s="11">
-        <f t="shared" si="61"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="64"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="507" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13871,12 +14002,12 @@
       <c r="F507" s="3"/>
       <c r="G507" s="3"/>
       <c r="H507" s="36">
-        <f t="shared" ref="H507:H570" si="62">(E507*F507)+G507</f>
+        <f t="shared" ref="H507:H570" si="65">(E507*F507)+G507</f>
         <v>0</v>
       </c>
       <c r="I507" s="11">
-        <f t="shared" si="61"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="64"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="508" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13887,12 +14018,12 @@
       <c r="F508" s="3"/>
       <c r="G508" s="3"/>
       <c r="H508" s="36">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="I508" s="11">
-        <f t="shared" si="61"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="64"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="509" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13903,12 +14034,12 @@
       <c r="F509" s="3"/>
       <c r="G509" s="3"/>
       <c r="H509" s="36">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="I509" s="11">
-        <f t="shared" si="61"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="64"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="510" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13919,12 +14050,12 @@
       <c r="F510" s="3"/>
       <c r="G510" s="3"/>
       <c r="H510" s="36">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="I510" s="11">
-        <f t="shared" si="61"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="64"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="511" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13935,12 +14066,12 @@
       <c r="F511" s="3"/>
       <c r="G511" s="3"/>
       <c r="H511" s="36">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="I511" s="11">
-        <f t="shared" si="61"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="64"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="512" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13951,12 +14082,12 @@
       <c r="F512" s="3"/>
       <c r="G512" s="3"/>
       <c r="H512" s="36">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="I512" s="11">
-        <f t="shared" si="61"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="64"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="513" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13967,12 +14098,12 @@
       <c r="F513" s="3"/>
       <c r="G513" s="3"/>
       <c r="H513" s="36">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="I513" s="11">
-        <f t="shared" si="61"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="64"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="514" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13983,12 +14114,12 @@
       <c r="F514" s="3"/>
       <c r="G514" s="3"/>
       <c r="H514" s="36">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="I514" s="11">
-        <f t="shared" si="61"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="64"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="515" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -13999,12 +14130,12 @@
       <c r="F515" s="3"/>
       <c r="G515" s="3"/>
       <c r="H515" s="36">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="I515" s="11">
-        <f t="shared" si="61"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="64"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="516" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -14015,12 +14146,12 @@
       <c r="F516" s="3"/>
       <c r="G516" s="3"/>
       <c r="H516" s="36">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="I516" s="11">
-        <f t="shared" si="61"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="64"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="517" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -14031,12 +14162,12 @@
       <c r="F517" s="3"/>
       <c r="G517" s="3"/>
       <c r="H517" s="36">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="I517" s="11">
-        <f t="shared" si="61"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="64"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="518" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -14047,12 +14178,12 @@
       <c r="F518" s="3"/>
       <c r="G518" s="3"/>
       <c r="H518" s="36">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="I518" s="11">
-        <f t="shared" si="61"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="64"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="519" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -14063,12 +14194,12 @@
       <c r="F519" s="3"/>
       <c r="G519" s="3"/>
       <c r="H519" s="36">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="I519" s="11">
-        <f t="shared" si="61"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="64"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="520" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -14079,12 +14210,12 @@
       <c r="F520" s="3"/>
       <c r="G520" s="3"/>
       <c r="H520" s="36">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="I520" s="11">
-        <f t="shared" ref="I520:I583" si="63">I519+H520</f>
-        <v>12572289.659999998</v>
+        <f t="shared" ref="I520:I583" si="66">I519+H520</f>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="521" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -14095,12 +14226,12 @@
       <c r="F521" s="3"/>
       <c r="G521" s="3"/>
       <c r="H521" s="36">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="I521" s="11">
-        <f t="shared" si="63"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="66"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="522" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -14111,12 +14242,12 @@
       <c r="F522" s="3"/>
       <c r="G522" s="3"/>
       <c r="H522" s="36">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="I522" s="11">
-        <f t="shared" si="63"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="66"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="523" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -14127,12 +14258,12 @@
       <c r="F523" s="3"/>
       <c r="G523" s="3"/>
       <c r="H523" s="36">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="I523" s="11">
-        <f t="shared" si="63"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="66"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="524" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -14143,12 +14274,12 @@
       <c r="F524" s="3"/>
       <c r="G524" s="3"/>
       <c r="H524" s="36">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="I524" s="11">
-        <f t="shared" si="63"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="66"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="525" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -14159,12 +14290,12 @@
       <c r="F525" s="3"/>
       <c r="G525" s="3"/>
       <c r="H525" s="36">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="I525" s="11">
-        <f t="shared" si="63"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="66"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="526" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -14175,12 +14306,12 @@
       <c r="F526" s="3"/>
       <c r="G526" s="3"/>
       <c r="H526" s="36">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="I526" s="11">
-        <f t="shared" si="63"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="66"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="527" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -14191,12 +14322,12 @@
       <c r="F527" s="3"/>
       <c r="G527" s="3"/>
       <c r="H527" s="36">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="I527" s="11">
-        <f t="shared" si="63"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="66"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="528" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -14207,12 +14338,12 @@
       <c r="F528" s="3"/>
       <c r="G528" s="3"/>
       <c r="H528" s="36">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="I528" s="11">
-        <f t="shared" si="63"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="66"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="529" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -14223,12 +14354,12 @@
       <c r="F529" s="3"/>
       <c r="G529" s="3"/>
       <c r="H529" s="36">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="I529" s="11">
-        <f t="shared" si="63"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="66"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="530" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -14239,12 +14370,12 @@
       <c r="F530" s="3"/>
       <c r="G530" s="3"/>
       <c r="H530" s="36">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="I530" s="11">
-        <f t="shared" si="63"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="66"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="531" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -14255,12 +14386,12 @@
       <c r="F531" s="3"/>
       <c r="G531" s="3"/>
       <c r="H531" s="36">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="I531" s="11">
-        <f t="shared" si="63"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="66"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="532" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -14271,12 +14402,12 @@
       <c r="F532" s="3"/>
       <c r="G532" s="3"/>
       <c r="H532" s="36">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="I532" s="11">
-        <f t="shared" si="63"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="66"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="533" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -14287,12 +14418,12 @@
       <c r="F533" s="3"/>
       <c r="G533" s="3"/>
       <c r="H533" s="36">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="I533" s="11">
-        <f t="shared" si="63"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="66"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="534" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -14303,12 +14434,12 @@
       <c r="F534" s="3"/>
       <c r="G534" s="3"/>
       <c r="H534" s="36">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="I534" s="11">
-        <f t="shared" si="63"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="66"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="535" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -14319,12 +14450,12 @@
       <c r="F535" s="3"/>
       <c r="G535" s="3"/>
       <c r="H535" s="36">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="I535" s="11">
-        <f t="shared" si="63"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="66"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="536" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -14335,12 +14466,12 @@
       <c r="F536" s="3"/>
       <c r="G536" s="3"/>
       <c r="H536" s="36">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="I536" s="11">
-        <f t="shared" si="63"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="66"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="537" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -14351,12 +14482,12 @@
       <c r="F537" s="3"/>
       <c r="G537" s="3"/>
       <c r="H537" s="36">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="I537" s="11">
-        <f t="shared" si="63"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="66"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="538" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -14367,12 +14498,12 @@
       <c r="F538" s="3"/>
       <c r="G538" s="3"/>
       <c r="H538" s="36">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="I538" s="11">
-        <f t="shared" si="63"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="66"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="539" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -14383,12 +14514,12 @@
       <c r="F539" s="3"/>
       <c r="G539" s="3"/>
       <c r="H539" s="36">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="I539" s="11">
-        <f t="shared" si="63"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="66"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="540" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -14399,12 +14530,12 @@
       <c r="F540" s="3"/>
       <c r="G540" s="3"/>
       <c r="H540" s="36">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="I540" s="11">
-        <f t="shared" si="63"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="66"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="541" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -14415,12 +14546,12 @@
       <c r="F541" s="3"/>
       <c r="G541" s="3"/>
       <c r="H541" s="36">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="I541" s="11">
-        <f t="shared" si="63"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="66"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="542" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -14431,12 +14562,12 @@
       <c r="F542" s="3"/>
       <c r="G542" s="3"/>
       <c r="H542" s="36">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="I542" s="11">
-        <f t="shared" si="63"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="66"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="543" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -14447,12 +14578,12 @@
       <c r="F543" s="3"/>
       <c r="G543" s="3"/>
       <c r="H543" s="36">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="I543" s="11">
-        <f t="shared" si="63"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="66"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="544" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -14463,12 +14594,12 @@
       <c r="F544" s="3"/>
       <c r="G544" s="3"/>
       <c r="H544" s="36">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="I544" s="11">
-        <f t="shared" si="63"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="66"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="545" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -14479,12 +14610,12 @@
       <c r="F545" s="3"/>
       <c r="G545" s="3"/>
       <c r="H545" s="36">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="I545" s="11">
-        <f t="shared" si="63"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="66"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="546" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -14495,12 +14626,12 @@
       <c r="F546" s="3"/>
       <c r="G546" s="3"/>
       <c r="H546" s="36">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="I546" s="11">
-        <f t="shared" si="63"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="66"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="547" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -14511,12 +14642,12 @@
       <c r="F547" s="3"/>
       <c r="G547" s="3"/>
       <c r="H547" s="36">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="I547" s="11">
-        <f t="shared" si="63"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="66"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="548" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -14527,12 +14658,12 @@
       <c r="F548" s="3"/>
       <c r="G548" s="3"/>
       <c r="H548" s="36">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="I548" s="11">
-        <f t="shared" si="63"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="66"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="549" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -14543,12 +14674,12 @@
       <c r="F549" s="3"/>
       <c r="G549" s="3"/>
       <c r="H549" s="36">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="I549" s="11">
-        <f t="shared" si="63"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="66"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="550" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -14559,12 +14690,12 @@
       <c r="F550" s="3"/>
       <c r="G550" s="3"/>
       <c r="H550" s="36">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="I550" s="11">
-        <f t="shared" si="63"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="66"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="551" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -14575,12 +14706,12 @@
       <c r="F551" s="3"/>
       <c r="G551" s="3"/>
       <c r="H551" s="36">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="I551" s="11">
-        <f t="shared" si="63"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="66"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="552" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -14591,12 +14722,12 @@
       <c r="F552" s="3"/>
       <c r="G552" s="3"/>
       <c r="H552" s="36">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="I552" s="11">
-        <f t="shared" si="63"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="66"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="553" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -14607,12 +14738,12 @@
       <c r="F553" s="3"/>
       <c r="G553" s="3"/>
       <c r="H553" s="36">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="I553" s="11">
-        <f t="shared" si="63"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="66"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="554" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -14623,12 +14754,12 @@
       <c r="F554" s="3"/>
       <c r="G554" s="3"/>
       <c r="H554" s="36">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="I554" s="11">
-        <f t="shared" si="63"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="66"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="555" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -14639,12 +14770,12 @@
       <c r="F555" s="3"/>
       <c r="G555" s="3"/>
       <c r="H555" s="36">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="I555" s="11">
-        <f t="shared" si="63"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="66"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="556" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -14655,12 +14786,12 @@
       <c r="F556" s="3"/>
       <c r="G556" s="3"/>
       <c r="H556" s="36">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="I556" s="11">
-        <f t="shared" si="63"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="66"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="557" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -14671,12 +14802,12 @@
       <c r="F557" s="3"/>
       <c r="G557" s="3"/>
       <c r="H557" s="36">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="I557" s="11">
-        <f t="shared" si="63"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="66"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="558" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -14687,12 +14818,12 @@
       <c r="F558" s="3"/>
       <c r="G558" s="3"/>
       <c r="H558" s="36">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="I558" s="11">
-        <f t="shared" si="63"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="66"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="559" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -14703,12 +14834,12 @@
       <c r="F559" s="3"/>
       <c r="G559" s="3"/>
       <c r="H559" s="36">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="I559" s="11">
-        <f t="shared" si="63"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="66"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="560" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -14719,12 +14850,12 @@
       <c r="F560" s="3"/>
       <c r="G560" s="3"/>
       <c r="H560" s="36">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="I560" s="11">
-        <f t="shared" si="63"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="66"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="561" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -14735,12 +14866,12 @@
       <c r="F561" s="3"/>
       <c r="G561" s="3"/>
       <c r="H561" s="36">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="I561" s="11">
-        <f t="shared" si="63"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="66"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="562" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -14751,12 +14882,12 @@
       <c r="F562" s="3"/>
       <c r="G562" s="3"/>
       <c r="H562" s="36">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="I562" s="11">
-        <f t="shared" si="63"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="66"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="563" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -14767,12 +14898,12 @@
       <c r="F563" s="3"/>
       <c r="G563" s="3"/>
       <c r="H563" s="36">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="I563" s="11">
-        <f t="shared" si="63"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="66"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="564" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -14783,12 +14914,12 @@
       <c r="F564" s="3"/>
       <c r="G564" s="3"/>
       <c r="H564" s="36">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="I564" s="11">
-        <f t="shared" si="63"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="66"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="565" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -14799,12 +14930,12 @@
       <c r="F565" s="3"/>
       <c r="G565" s="3"/>
       <c r="H565" s="36">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="I565" s="11">
-        <f t="shared" si="63"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="66"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="566" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -14815,12 +14946,12 @@
       <c r="F566" s="3"/>
       <c r="G566" s="3"/>
       <c r="H566" s="36">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="I566" s="11">
-        <f t="shared" si="63"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="66"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="567" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -14831,12 +14962,12 @@
       <c r="F567" s="3"/>
       <c r="G567" s="3"/>
       <c r="H567" s="36">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="I567" s="11">
-        <f t="shared" si="63"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="66"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="568" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -14847,12 +14978,12 @@
       <c r="F568" s="3"/>
       <c r="G568" s="3"/>
       <c r="H568" s="36">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="I568" s="11">
-        <f t="shared" si="63"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="66"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="569" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -14863,12 +14994,12 @@
       <c r="F569" s="3"/>
       <c r="G569" s="3"/>
       <c r="H569" s="36">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="I569" s="11">
-        <f t="shared" si="63"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="66"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="570" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -14879,12 +15010,12 @@
       <c r="F570" s="3"/>
       <c r="G570" s="3"/>
       <c r="H570" s="36">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="I570" s="11">
-        <f t="shared" si="63"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="66"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="571" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -14895,12 +15026,12 @@
       <c r="F571" s="3"/>
       <c r="G571" s="3"/>
       <c r="H571" s="36">
-        <f t="shared" ref="H571:H587" si="64">(E571*F571)+G571</f>
+        <f t="shared" ref="H571:H587" si="67">(E571*F571)+G571</f>
         <v>0</v>
       </c>
       <c r="I571" s="11">
-        <f t="shared" si="63"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="66"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="572" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -14911,12 +15042,12 @@
       <c r="F572" s="3"/>
       <c r="G572" s="3"/>
       <c r="H572" s="36">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="I572" s="11">
-        <f t="shared" si="63"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="66"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="573" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -14927,12 +15058,12 @@
       <c r="F573" s="3"/>
       <c r="G573" s="3"/>
       <c r="H573" s="36">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="I573" s="11">
-        <f t="shared" si="63"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="66"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="574" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -14943,12 +15074,12 @@
       <c r="F574" s="3"/>
       <c r="G574" s="3"/>
       <c r="H574" s="36">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="I574" s="11">
-        <f t="shared" si="63"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="66"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="575" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -14959,12 +15090,12 @@
       <c r="F575" s="3"/>
       <c r="G575" s="3"/>
       <c r="H575" s="36">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="I575" s="11">
-        <f t="shared" si="63"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="66"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="576" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -14975,12 +15106,12 @@
       <c r="F576" s="3"/>
       <c r="G576" s="3"/>
       <c r="H576" s="36">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="I576" s="11">
-        <f t="shared" si="63"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="66"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="577" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -14991,12 +15122,12 @@
       <c r="F577" s="3"/>
       <c r="G577" s="3"/>
       <c r="H577" s="36">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="I577" s="11">
-        <f t="shared" si="63"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="66"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="578" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -15007,12 +15138,12 @@
       <c r="F578" s="3"/>
       <c r="G578" s="3"/>
       <c r="H578" s="36">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="I578" s="11">
-        <f t="shared" si="63"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="66"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="579" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -15023,12 +15154,12 @@
       <c r="F579" s="3"/>
       <c r="G579" s="3"/>
       <c r="H579" s="36">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="I579" s="11">
-        <f t="shared" si="63"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="66"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="580" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -15039,12 +15170,12 @@
       <c r="F580" s="3"/>
       <c r="G580" s="3"/>
       <c r="H580" s="36">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="I580" s="11">
-        <f t="shared" si="63"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="66"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="581" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -15055,12 +15186,12 @@
       <c r="F581" s="3"/>
       <c r="G581" s="3"/>
       <c r="H581" s="36">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="I581" s="11">
-        <f t="shared" si="63"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="66"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="582" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -15071,12 +15202,12 @@
       <c r="F582" s="3"/>
       <c r="G582" s="3"/>
       <c r="H582" s="36">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="I582" s="11">
-        <f t="shared" si="63"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="66"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="583" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -15087,12 +15218,12 @@
       <c r="F583" s="3"/>
       <c r="G583" s="3"/>
       <c r="H583" s="36">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="I583" s="11">
-        <f t="shared" si="63"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="66"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="584" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -15103,12 +15234,12 @@
       <c r="F584" s="3"/>
       <c r="G584" s="3"/>
       <c r="H584" s="36">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="I584" s="11">
-        <f t="shared" ref="I584:I587" si="65">I583+H584</f>
-        <v>12572289.659999998</v>
+        <f t="shared" ref="I584:I587" si="68">I583+H584</f>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="585" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -15119,12 +15250,12 @@
       <c r="F585" s="3"/>
       <c r="G585" s="3"/>
       <c r="H585" s="36">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="I585" s="11">
-        <f t="shared" si="65"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="68"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="586" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -15135,12 +15266,12 @@
       <c r="F586" s="3"/>
       <c r="G586" s="3"/>
       <c r="H586" s="36">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="I586" s="11">
-        <f t="shared" si="65"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="68"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="587" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -15151,12 +15282,12 @@
       <c r="F587" s="3"/>
       <c r="G587" s="3"/>
       <c r="H587" s="36">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="I587" s="11">
-        <f t="shared" si="65"/>
-        <v>12572289.659999998</v>
+        <f t="shared" si="68"/>
+        <v>12653889.659999998</v>
       </c>
     </row>
     <row r="588" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -15560,14 +15691,14 @@
   <dimension ref="B3:E40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -15617,124 +15748,174 @@
       </c>
     </row>
     <row r="7" spans="2:5" ht="21" x14ac:dyDescent="0.4">
-      <c r="B7" s="7"/>
-      <c r="C7" s="157"/>
+      <c r="B7" s="7">
+        <v>45442</v>
+      </c>
+      <c r="C7" s="157" t="s">
+        <v>256</v>
+      </c>
       <c r="D7" s="37">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="E7" s="23">
         <f t="shared" ref="E7:E40" si="0">E6+D7</f>
-        <v>100000</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="21" x14ac:dyDescent="0.4">
-      <c r="B8" s="7"/>
-      <c r="C8" s="195"/>
+      <c r="B8" s="7">
+        <v>45447</v>
+      </c>
+      <c r="C8" s="195" t="s">
+        <v>256</v>
+      </c>
       <c r="D8" s="37">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="E8" s="11">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="21" x14ac:dyDescent="0.4">
-      <c r="B9" s="43"/>
-      <c r="C9" s="158"/>
-      <c r="D9" s="43"/>
+      <c r="B9" s="7">
+        <v>45449</v>
+      </c>
+      <c r="C9" s="158" t="s">
+        <v>256</v>
+      </c>
+      <c r="D9" s="11">
+        <v>30000</v>
+      </c>
       <c r="E9" s="11">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>230000</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="21" x14ac:dyDescent="0.4">
       <c r="B10" s="43"/>
-      <c r="C10" s="158"/>
-      <c r="D10" s="43"/>
+      <c r="C10" s="158" t="s">
+        <v>256</v>
+      </c>
+      <c r="D10" s="11">
+        <v>50000</v>
+      </c>
       <c r="E10" s="11">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>280000</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="21" x14ac:dyDescent="0.4">
       <c r="B11" s="43"/>
-      <c r="C11" s="158"/>
-      <c r="D11" s="43"/>
+      <c r="C11" s="158" t="s">
+        <v>257</v>
+      </c>
+      <c r="D11" s="11">
+        <v>4000</v>
+      </c>
       <c r="E11" s="11">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>284000</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="21" x14ac:dyDescent="0.4">
       <c r="B12" s="43"/>
-      <c r="C12" s="158"/>
-      <c r="D12" s="43"/>
+      <c r="C12" s="158" t="s">
+        <v>256</v>
+      </c>
+      <c r="D12" s="11">
+        <v>26000</v>
+      </c>
       <c r="E12" s="11">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>310000</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="21" x14ac:dyDescent="0.4">
-      <c r="B13" s="43"/>
-      <c r="C13" s="158"/>
-      <c r="D13" s="43"/>
+      <c r="B13" s="117">
+        <v>45477</v>
+      </c>
+      <c r="C13" s="158" t="s">
+        <v>258</v>
+      </c>
+      <c r="D13" s="11">
+        <v>50000</v>
+      </c>
       <c r="E13" s="11">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>360000</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="21" x14ac:dyDescent="0.4">
-      <c r="B14" s="43"/>
-      <c r="C14" s="158"/>
-      <c r="D14" s="43"/>
+      <c r="B14" s="117">
+        <v>45477</v>
+      </c>
+      <c r="C14" s="158" t="s">
+        <v>256</v>
+      </c>
+      <c r="D14" s="11">
+        <v>20000</v>
+      </c>
       <c r="E14" s="11">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>380000</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="21" x14ac:dyDescent="0.4">
-      <c r="B15" s="43"/>
-      <c r="C15" s="158"/>
-      <c r="D15" s="43"/>
+      <c r="B15" s="117">
+        <v>45511</v>
+      </c>
+      <c r="C15" s="158" t="s">
+        <v>258</v>
+      </c>
+      <c r="D15" s="11">
+        <v>50000</v>
+      </c>
       <c r="E15" s="11">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>430000</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="21" x14ac:dyDescent="0.4">
-      <c r="B16" s="43"/>
-      <c r="C16" s="158"/>
-      <c r="D16" s="43"/>
+      <c r="B16" s="117">
+        <v>45520</v>
+      </c>
+      <c r="C16" s="158" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="11">
+        <v>10000</v>
+      </c>
       <c r="E16" s="11">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>440000</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="21" x14ac:dyDescent="0.4">
       <c r="B17" s="43"/>
       <c r="C17" s="158"/>
-      <c r="D17" s="43"/>
+      <c r="D17" s="11"/>
       <c r="E17" s="11">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>440000</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="21" x14ac:dyDescent="0.4">
       <c r="B18" s="43"/>
       <c r="C18" s="158"/>
-      <c r="D18" s="43"/>
+      <c r="D18" s="11"/>
       <c r="E18" s="11">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>440000</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="21" x14ac:dyDescent="0.4">
       <c r="B19" s="43"/>
       <c r="C19" s="158"/>
-      <c r="D19" s="43"/>
+      <c r="D19" s="11"/>
       <c r="E19" s="11">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>440000</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15743,7 +15924,7 @@
       <c r="D20" s="43"/>
       <c r="E20" s="11">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>440000</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15752,7 +15933,7 @@
       <c r="D21" s="43"/>
       <c r="E21" s="11">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>440000</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15761,7 +15942,7 @@
       <c r="D22" s="43"/>
       <c r="E22" s="11">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>440000</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15770,7 +15951,7 @@
       <c r="D23" s="43"/>
       <c r="E23" s="11">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>440000</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15779,7 +15960,7 @@
       <c r="D24" s="43"/>
       <c r="E24" s="11">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>440000</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15788,7 +15969,7 @@
       <c r="D25" s="43"/>
       <c r="E25" s="11">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>440000</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15797,7 +15978,7 @@
       <c r="D26" s="43"/>
       <c r="E26" s="11">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>440000</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15806,7 +15987,7 @@
       <c r="D27" s="43"/>
       <c r="E27" s="11">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>440000</v>
       </c>
     </row>
     <row r="28" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15815,7 +15996,7 @@
       <c r="D28" s="43"/>
       <c r="E28" s="11">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>440000</v>
       </c>
     </row>
     <row r="29" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15824,7 +16005,7 @@
       <c r="D29" s="43"/>
       <c r="E29" s="11">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>440000</v>
       </c>
     </row>
     <row r="30" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15833,7 +16014,7 @@
       <c r="D30" s="43"/>
       <c r="E30" s="11">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>440000</v>
       </c>
     </row>
     <row r="31" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15842,7 +16023,7 @@
       <c r="D31" s="43"/>
       <c r="E31" s="11">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>440000</v>
       </c>
     </row>
     <row r="32" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15851,7 +16032,7 @@
       <c r="D32" s="43"/>
       <c r="E32" s="11">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>440000</v>
       </c>
     </row>
     <row r="33" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15860,7 +16041,7 @@
       <c r="D33" s="43"/>
       <c r="E33" s="11">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>440000</v>
       </c>
     </row>
     <row r="34" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15869,7 +16050,7 @@
       <c r="D34" s="43"/>
       <c r="E34" s="11">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>440000</v>
       </c>
     </row>
     <row r="35" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15878,7 +16059,7 @@
       <c r="D35" s="43"/>
       <c r="E35" s="11">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>440000</v>
       </c>
     </row>
     <row r="36" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15887,7 +16068,7 @@
       <c r="D36" s="43"/>
       <c r="E36" s="11">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>440000</v>
       </c>
     </row>
     <row r="37" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15896,7 +16077,7 @@
       <c r="D37" s="43"/>
       <c r="E37" s="11">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>440000</v>
       </c>
     </row>
     <row r="38" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15905,7 +16086,7 @@
       <c r="D38" s="43"/>
       <c r="E38" s="11">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>440000</v>
       </c>
     </row>
     <row r="39" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15914,7 +16095,7 @@
       <c r="D39" s="43"/>
       <c r="E39" s="11">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>440000</v>
       </c>
     </row>
     <row r="40" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15923,7 +16104,7 @@
       <c r="D40" s="43"/>
       <c r="E40" s="11">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>440000</v>
       </c>
     </row>
   </sheetData>
@@ -15931,6 +16112,7 @@
     <mergeCell ref="B3:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -15939,10 +16121,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B3:J192"/>
+  <dimension ref="A3:J193"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D59" activeCellId="1" sqref="D58 D59"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16014,7 +16196,7 @@
         <v>40000</v>
       </c>
       <c r="E7" s="23">
-        <f t="shared" ref="E7:E70" si="0">E6+D7</f>
+        <f t="shared" ref="E7:E71" si="0">E6+D7</f>
         <v>50000</v>
       </c>
     </row>
@@ -16631,10 +16813,12 @@
       <c r="C47" s="152" t="s">
         <v>112</v>
       </c>
-      <c r="D47" s="11"/>
+      <c r="D47" s="78">
+        <v>105000</v>
+      </c>
       <c r="E47" s="11">
         <f t="shared" si="0"/>
-        <v>2342300</v>
+        <v>2447300</v>
       </c>
     </row>
     <row r="48" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -16649,10 +16833,10 @@
       </c>
       <c r="E48" s="11">
         <f t="shared" si="0"/>
-        <v>2402300</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" ht="21" x14ac:dyDescent="0.4">
+        <v>2507300</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="21" x14ac:dyDescent="0.4">
       <c r="B49" s="117">
         <v>45335</v>
       </c>
@@ -16662,10 +16846,10 @@
       </c>
       <c r="E49" s="11">
         <f t="shared" si="0"/>
-        <v>2422300</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" ht="21" x14ac:dyDescent="0.4">
+        <v>2527300</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="21" x14ac:dyDescent="0.4">
       <c r="B50" s="117">
         <v>45337</v>
       </c>
@@ -16677,10 +16861,10 @@
       </c>
       <c r="E50" s="11">
         <f t="shared" si="0"/>
-        <v>2497300</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" ht="21" x14ac:dyDescent="0.4">
+        <v>2602300</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="21" x14ac:dyDescent="0.4">
       <c r="B51" s="117">
         <v>45344</v>
       </c>
@@ -16692,10 +16876,13 @@
       </c>
       <c r="E51" s="11">
         <f t="shared" si="0"/>
-        <v>2587300</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" ht="21" x14ac:dyDescent="0.4">
+        <v>2692300</v>
+      </c>
+      <c r="I51">
+        <v>2772300</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="21" x14ac:dyDescent="0.4">
       <c r="B52" s="117">
         <v>45351</v>
       </c>
@@ -16707,10 +16894,13 @@
       </c>
       <c r="E52" s="11">
         <f t="shared" si="0"/>
-        <v>2667300</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" ht="21" x14ac:dyDescent="0.4">
+        <v>2772300</v>
+      </c>
+      <c r="I52">
+        <v>2756600</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="21" x14ac:dyDescent="0.4">
       <c r="B53" s="117">
         <v>45358</v>
       </c>
@@ -16722,10 +16912,14 @@
       </c>
       <c r="E53" s="11">
         <f t="shared" si="0"/>
-        <v>2727300</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" ht="21" x14ac:dyDescent="0.4">
+        <v>2832300</v>
+      </c>
+      <c r="I53">
+        <f>I51-I52</f>
+        <v>15700</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="21" x14ac:dyDescent="0.4">
       <c r="B54" s="117">
         <v>45365</v>
       </c>
@@ -16737,10 +16931,10 @@
       </c>
       <c r="E54" s="11">
         <f t="shared" si="0"/>
-        <v>2767300</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" ht="21" x14ac:dyDescent="0.4">
+        <v>2872300</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="21" x14ac:dyDescent="0.4">
       <c r="B55" s="117">
         <v>45367</v>
       </c>
@@ -16752,10 +16946,10 @@
       </c>
       <c r="E55" s="11">
         <f t="shared" si="0"/>
-        <v>2782300</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" ht="21" x14ac:dyDescent="0.4">
+        <v>2887300</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="21" x14ac:dyDescent="0.4">
       <c r="B56" s="117">
         <v>45372</v>
       </c>
@@ -16767,10 +16961,10 @@
       </c>
       <c r="E56" s="11">
         <f t="shared" si="0"/>
-        <v>2822300</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" ht="21" x14ac:dyDescent="0.4">
+        <v>2927300</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="21" x14ac:dyDescent="0.4">
       <c r="B57" s="117">
         <v>45379</v>
       </c>
@@ -16782,10 +16976,10 @@
       </c>
       <c r="E57" s="11">
         <f t="shared" si="0"/>
-        <v>2862300</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" ht="21" x14ac:dyDescent="0.4">
+        <v>2967300</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="21" x14ac:dyDescent="0.4">
       <c r="B58" s="117">
         <v>45386</v>
       </c>
@@ -16797,10 +16991,10 @@
       </c>
       <c r="E58" s="11">
         <f t="shared" si="0"/>
-        <v>2887300</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" ht="21" x14ac:dyDescent="0.4">
+        <v>2992300</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="21" x14ac:dyDescent="0.4">
       <c r="B59" s="117">
         <v>45392</v>
       </c>
@@ -16812,10 +17006,10 @@
       </c>
       <c r="E59" s="11">
         <f t="shared" si="0"/>
-        <v>2917300</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" ht="21" x14ac:dyDescent="0.4">
+        <v>3022300</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="21" x14ac:dyDescent="0.4">
       <c r="B60" s="117">
         <v>45421</v>
       </c>
@@ -16827,10 +17021,10 @@
       </c>
       <c r="E60" s="11">
         <f t="shared" si="0"/>
-        <v>2932300</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" ht="21" x14ac:dyDescent="0.4">
+        <v>3037300</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="21" x14ac:dyDescent="0.4">
       <c r="B61" s="117">
         <v>45428</v>
       </c>
@@ -16842,7 +17036,7 @@
       </c>
       <c r="E61" s="11">
         <f t="shared" si="0"/>
-        <v>2970300</v>
+        <v>3075300</v>
       </c>
       <c r="G61" s="257" t="s">
         <v>254</v>
@@ -16850,121 +17044,201 @@
       <c r="H61" s="257"/>
       <c r="I61" s="257"/>
     </row>
-    <row r="62" spans="2:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="B62" s="43"/>
-      <c r="C62" s="103"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11">
-        <f t="shared" si="0"/>
-        <v>2970300</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="B63" s="43"/>
-      <c r="C63" s="103"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="11">
-        <f t="shared" si="0"/>
-        <v>2970300</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="B64" s="43"/>
-      <c r="C64" s="103"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="11">
-        <f t="shared" si="0"/>
-        <v>2970300</v>
+    <row r="62" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B62" s="194">
+        <v>45467</v>
+      </c>
+      <c r="C62" s="301" t="s">
+        <v>255</v>
+      </c>
+      <c r="D62" s="196">
+        <v>30000</v>
+      </c>
+      <c r="E62" s="196">
+        <f t="shared" si="0"/>
+        <v>3105300</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" s="300" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A63" s="296"/>
+      <c r="B63" s="297">
+        <v>45470</v>
+      </c>
+      <c r="C63" s="298" t="s">
+        <v>112</v>
+      </c>
+      <c r="D63" s="299">
+        <v>30000</v>
+      </c>
+      <c r="E63" s="299">
+        <f t="shared" si="0"/>
+        <v>3135300</v>
+      </c>
+      <c r="G63" s="303" t="s">
+        <v>262</v>
+      </c>
+      <c r="H63" s="302"/>
+      <c r="I63" s="304"/>
+    </row>
+    <row r="64" spans="1:9" ht="21" x14ac:dyDescent="0.4">
+      <c r="B64" s="197">
+        <v>45477</v>
+      </c>
+      <c r="C64" s="295" t="s">
+        <v>112</v>
+      </c>
+      <c r="D64" s="199">
+        <v>30000</v>
+      </c>
+      <c r="E64" s="199">
+        <f t="shared" si="0"/>
+        <v>3165300</v>
       </c>
     </row>
     <row r="65" spans="2:5" ht="21" x14ac:dyDescent="0.4">
-      <c r="B65" s="43"/>
-      <c r="C65" s="103"/>
-      <c r="D65" s="11"/>
+      <c r="B65" s="117">
+        <v>45498</v>
+      </c>
+      <c r="C65" s="103" t="s">
+        <v>259</v>
+      </c>
+      <c r="D65" s="11">
+        <v>20000</v>
+      </c>
       <c r="E65" s="11">
         <f t="shared" si="0"/>
-        <v>2970300</v>
+        <v>3185300</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="21" x14ac:dyDescent="0.4">
-      <c r="B66" s="43"/>
-      <c r="C66" s="103"/>
-      <c r="D66" s="11"/>
+      <c r="B66" s="117">
+        <v>45507</v>
+      </c>
+      <c r="C66" s="103" t="s">
+        <v>259</v>
+      </c>
+      <c r="D66" s="11">
+        <v>20000</v>
+      </c>
       <c r="E66" s="11">
         <f t="shared" si="0"/>
-        <v>2970300</v>
+        <v>3205300</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="21" x14ac:dyDescent="0.4">
-      <c r="B67" s="43"/>
-      <c r="C67" s="103"/>
-      <c r="D67" s="11"/>
+      <c r="B67" s="117">
+        <v>45512</v>
+      </c>
+      <c r="C67" s="103" t="s">
+        <v>261</v>
+      </c>
+      <c r="D67" s="11">
+        <v>20000</v>
+      </c>
       <c r="E67" s="11">
         <f t="shared" si="0"/>
-        <v>2970300</v>
+        <v>3225300</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="21" x14ac:dyDescent="0.4">
-      <c r="B68" s="43"/>
-      <c r="C68" s="103"/>
-      <c r="D68" s="11"/>
+      <c r="B68" s="117">
+        <v>45520</v>
+      </c>
+      <c r="C68" s="103" t="s">
+        <v>260</v>
+      </c>
+      <c r="D68" s="11">
+        <v>10000</v>
+      </c>
       <c r="E68" s="11">
         <f t="shared" si="0"/>
-        <v>2970300</v>
+        <v>3235300</v>
       </c>
     </row>
     <row r="69" spans="2:5" ht="21" x14ac:dyDescent="0.4">
-      <c r="B69" s="43"/>
-      <c r="C69" s="103"/>
-      <c r="D69" s="11"/>
+      <c r="B69" s="117">
+        <v>45526</v>
+      </c>
+      <c r="C69" s="103" t="s">
+        <v>261</v>
+      </c>
+      <c r="D69" s="11">
+        <v>15000</v>
+      </c>
       <c r="E69" s="11">
         <f t="shared" si="0"/>
-        <v>2970300</v>
+        <v>3250300</v>
       </c>
     </row>
     <row r="70" spans="2:5" ht="21" x14ac:dyDescent="0.4">
-      <c r="B70" s="43"/>
-      <c r="C70" s="103"/>
-      <c r="D70" s="11"/>
+      <c r="B70" s="117">
+        <v>45534</v>
+      </c>
+      <c r="C70" s="103" t="s">
+        <v>261</v>
+      </c>
+      <c r="D70" s="11">
+        <v>15000</v>
+      </c>
       <c r="E70" s="11">
         <f t="shared" si="0"/>
-        <v>2970300</v>
+        <v>3265300</v>
       </c>
     </row>
     <row r="71" spans="2:5" ht="21" x14ac:dyDescent="0.4">
-      <c r="B71" s="1"/>
+      <c r="B71" s="117">
+        <v>45540</v>
+      </c>
       <c r="C71" s="103"/>
-      <c r="D71" s="11"/>
+      <c r="D71" s="11">
+        <v>30000</v>
+      </c>
       <c r="E71" s="11">
-        <f t="shared" ref="E71:E134" si="1">E70+D71</f>
-        <v>2970300</v>
+        <f t="shared" si="0"/>
+        <v>3295300</v>
       </c>
     </row>
     <row r="72" spans="2:5" ht="21" x14ac:dyDescent="0.4">
-      <c r="B72" s="1"/>
-      <c r="C72" s="103"/>
-      <c r="D72" s="11"/>
+      <c r="B72" s="117">
+        <v>45547</v>
+      </c>
+      <c r="C72" s="103" t="s">
+        <v>261</v>
+      </c>
+      <c r="D72" s="11">
+        <v>30000</v>
+      </c>
       <c r="E72" s="11">
-        <f t="shared" si="1"/>
-        <v>2970300</v>
+        <f t="shared" ref="E72:E135" si="1">E71+D72</f>
+        <v>3325300</v>
       </c>
     </row>
     <row r="73" spans="2:5" ht="21" x14ac:dyDescent="0.4">
-      <c r="B73" s="1"/>
+      <c r="B73" s="117">
+        <v>45556</v>
+      </c>
       <c r="C73" s="103"/>
-      <c r="D73" s="11"/>
+      <c r="D73" s="11">
+        <v>12000</v>
+      </c>
       <c r="E73" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3337300</v>
       </c>
     </row>
     <row r="74" spans="2:5" ht="21" x14ac:dyDescent="0.4">
-      <c r="B74" s="1"/>
-      <c r="C74" s="103"/>
-      <c r="D74" s="11"/>
+      <c r="B74" s="117">
+        <v>45575</v>
+      </c>
+      <c r="C74" s="103" t="s">
+        <v>261</v>
+      </c>
+      <c r="D74" s="11">
+        <v>10000</v>
+      </c>
       <c r="E74" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="75" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -16973,7 +17247,7 @@
       <c r="D75" s="11"/>
       <c r="E75" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="76" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -16982,7 +17256,7 @@
       <c r="D76" s="11"/>
       <c r="E76" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="77" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -16991,7 +17265,7 @@
       <c r="D77" s="11"/>
       <c r="E77" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="78" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17000,7 +17274,7 @@
       <c r="D78" s="11"/>
       <c r="E78" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="79" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17009,7 +17283,7 @@
       <c r="D79" s="11"/>
       <c r="E79" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="80" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17018,7 +17292,7 @@
       <c r="D80" s="11"/>
       <c r="E80" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="81" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17027,7 +17301,7 @@
       <c r="D81" s="11"/>
       <c r="E81" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="82" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17036,7 +17310,7 @@
       <c r="D82" s="11"/>
       <c r="E82" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="83" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17045,7 +17319,7 @@
       <c r="D83" s="11"/>
       <c r="E83" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="84" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17054,7 +17328,7 @@
       <c r="D84" s="11"/>
       <c r="E84" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="85" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17063,7 +17337,7 @@
       <c r="D85" s="11"/>
       <c r="E85" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="86" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17072,7 +17346,7 @@
       <c r="D86" s="11"/>
       <c r="E86" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="87" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17081,7 +17355,7 @@
       <c r="D87" s="11"/>
       <c r="E87" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="88" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17090,7 +17364,7 @@
       <c r="D88" s="11"/>
       <c r="E88" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="89" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17099,7 +17373,7 @@
       <c r="D89" s="11"/>
       <c r="E89" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="90" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17108,7 +17382,7 @@
       <c r="D90" s="11"/>
       <c r="E90" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="91" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17117,7 +17391,7 @@
       <c r="D91" s="11"/>
       <c r="E91" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="92" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17126,7 +17400,7 @@
       <c r="D92" s="11"/>
       <c r="E92" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="93" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17135,7 +17409,7 @@
       <c r="D93" s="11"/>
       <c r="E93" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="94" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17144,7 +17418,7 @@
       <c r="D94" s="11"/>
       <c r="E94" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="95" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17153,7 +17427,7 @@
       <c r="D95" s="11"/>
       <c r="E95" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="96" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17162,7 +17436,7 @@
       <c r="D96" s="11"/>
       <c r="E96" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="97" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17171,7 +17445,7 @@
       <c r="D97" s="11"/>
       <c r="E97" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="98" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17180,7 +17454,7 @@
       <c r="D98" s="11"/>
       <c r="E98" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="99" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17189,7 +17463,7 @@
       <c r="D99" s="11"/>
       <c r="E99" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="100" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17198,7 +17472,7 @@
       <c r="D100" s="11"/>
       <c r="E100" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="101" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17207,7 +17481,7 @@
       <c r="D101" s="11"/>
       <c r="E101" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="102" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17216,7 +17490,7 @@
       <c r="D102" s="11"/>
       <c r="E102" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="103" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17225,7 +17499,7 @@
       <c r="D103" s="11"/>
       <c r="E103" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="104" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17234,7 +17508,7 @@
       <c r="D104" s="11"/>
       <c r="E104" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="105" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17243,7 +17517,7 @@
       <c r="D105" s="11"/>
       <c r="E105" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="106" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17252,7 +17526,7 @@
       <c r="D106" s="11"/>
       <c r="E106" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="107" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17261,7 +17535,7 @@
       <c r="D107" s="11"/>
       <c r="E107" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="108" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17270,7 +17544,7 @@
       <c r="D108" s="11"/>
       <c r="E108" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="109" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17279,7 +17553,7 @@
       <c r="D109" s="11"/>
       <c r="E109" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="110" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17288,7 +17562,7 @@
       <c r="D110" s="11"/>
       <c r="E110" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="111" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17297,7 +17571,7 @@
       <c r="D111" s="11"/>
       <c r="E111" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="112" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17306,7 +17580,7 @@
       <c r="D112" s="11"/>
       <c r="E112" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="113" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17315,7 +17589,7 @@
       <c r="D113" s="11"/>
       <c r="E113" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="114" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17324,7 +17598,7 @@
       <c r="D114" s="11"/>
       <c r="E114" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="115" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17333,7 +17607,7 @@
       <c r="D115" s="11"/>
       <c r="E115" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="116" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17342,7 +17616,7 @@
       <c r="D116" s="11"/>
       <c r="E116" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="117" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17351,7 +17625,7 @@
       <c r="D117" s="11"/>
       <c r="E117" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="118" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17360,7 +17634,7 @@
       <c r="D118" s="11"/>
       <c r="E118" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="119" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17369,7 +17643,7 @@
       <c r="D119" s="11"/>
       <c r="E119" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="120" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17378,7 +17652,7 @@
       <c r="D120" s="11"/>
       <c r="E120" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="121" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17387,7 +17661,7 @@
       <c r="D121" s="11"/>
       <c r="E121" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="122" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17396,7 +17670,7 @@
       <c r="D122" s="11"/>
       <c r="E122" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="123" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17405,7 +17679,7 @@
       <c r="D123" s="11"/>
       <c r="E123" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="124" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17414,7 +17688,7 @@
       <c r="D124" s="11"/>
       <c r="E124" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="125" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17423,7 +17697,7 @@
       <c r="D125" s="11"/>
       <c r="E125" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="126" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17432,7 +17706,7 @@
       <c r="D126" s="11"/>
       <c r="E126" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="127" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17441,7 +17715,7 @@
       <c r="D127" s="11"/>
       <c r="E127" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="128" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17450,7 +17724,7 @@
       <c r="D128" s="11"/>
       <c r="E128" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="129" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17459,7 +17733,7 @@
       <c r="D129" s="11"/>
       <c r="E129" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="130" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17468,7 +17742,7 @@
       <c r="D130" s="11"/>
       <c r="E130" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="131" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17477,7 +17751,7 @@
       <c r="D131" s="11"/>
       <c r="E131" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="132" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17486,7 +17760,7 @@
       <c r="D132" s="11"/>
       <c r="E132" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="133" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17495,7 +17769,7 @@
       <c r="D133" s="11"/>
       <c r="E133" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="134" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17504,7 +17778,7 @@
       <c r="D134" s="11"/>
       <c r="E134" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="135" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17512,8 +17786,8 @@
       <c r="C135" s="103"/>
       <c r="D135" s="11"/>
       <c r="E135" s="11">
-        <f t="shared" ref="E135:E192" si="2">E134+D135</f>
-        <v>2970300</v>
+        <f t="shared" si="1"/>
+        <v>3347300</v>
       </c>
     </row>
     <row r="136" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17521,8 +17795,8 @@
       <c r="C136" s="103"/>
       <c r="D136" s="11"/>
       <c r="E136" s="11">
-        <f t="shared" si="2"/>
-        <v>2970300</v>
+        <f t="shared" ref="E136:E193" si="2">E135+D136</f>
+        <v>3347300</v>
       </c>
     </row>
     <row r="137" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17531,7 +17805,7 @@
       <c r="D137" s="11"/>
       <c r="E137" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="138" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17540,16 +17814,16 @@
       <c r="D138" s="11"/>
       <c r="E138" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="139" spans="2:5" ht="21" x14ac:dyDescent="0.4">
       <c r="B139" s="1"/>
-      <c r="C139" s="1"/>
+      <c r="C139" s="103"/>
       <c r="D139" s="11"/>
       <c r="E139" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="140" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17558,7 +17832,7 @@
       <c r="D140" s="11"/>
       <c r="E140" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="141" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17567,7 +17841,7 @@
       <c r="D141" s="11"/>
       <c r="E141" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="142" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17576,7 +17850,7 @@
       <c r="D142" s="11"/>
       <c r="E142" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="143" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17585,7 +17859,7 @@
       <c r="D143" s="11"/>
       <c r="E143" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="144" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17594,7 +17868,7 @@
       <c r="D144" s="11"/>
       <c r="E144" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="145" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17603,7 +17877,7 @@
       <c r="D145" s="11"/>
       <c r="E145" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="146" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17612,7 +17886,7 @@
       <c r="D146" s="11"/>
       <c r="E146" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="147" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17621,7 +17895,7 @@
       <c r="D147" s="11"/>
       <c r="E147" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="148" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17630,7 +17904,7 @@
       <c r="D148" s="11"/>
       <c r="E148" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="149" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17639,7 +17913,7 @@
       <c r="D149" s="11"/>
       <c r="E149" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="150" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17648,7 +17922,7 @@
       <c r="D150" s="11"/>
       <c r="E150" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="151" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17657,7 +17931,7 @@
       <c r="D151" s="11"/>
       <c r="E151" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="152" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17666,7 +17940,7 @@
       <c r="D152" s="11"/>
       <c r="E152" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="153" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17675,7 +17949,7 @@
       <c r="D153" s="11"/>
       <c r="E153" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="154" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17684,7 +17958,7 @@
       <c r="D154" s="11"/>
       <c r="E154" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="155" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17693,7 +17967,7 @@
       <c r="D155" s="11"/>
       <c r="E155" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="156" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17702,7 +17976,7 @@
       <c r="D156" s="11"/>
       <c r="E156" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="157" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17711,7 +17985,7 @@
       <c r="D157" s="11"/>
       <c r="E157" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="158" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17720,7 +17994,7 @@
       <c r="D158" s="11"/>
       <c r="E158" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="159" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17729,7 +18003,7 @@
       <c r="D159" s="11"/>
       <c r="E159" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="160" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17738,7 +18012,7 @@
       <c r="D160" s="11"/>
       <c r="E160" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="161" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17747,7 +18021,7 @@
       <c r="D161" s="11"/>
       <c r="E161" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="162" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17756,7 +18030,7 @@
       <c r="D162" s="11"/>
       <c r="E162" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="163" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17765,7 +18039,7 @@
       <c r="D163" s="11"/>
       <c r="E163" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="164" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17774,7 +18048,7 @@
       <c r="D164" s="11"/>
       <c r="E164" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="165" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17783,7 +18057,7 @@
       <c r="D165" s="11"/>
       <c r="E165" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="166" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17792,7 +18066,7 @@
       <c r="D166" s="11"/>
       <c r="E166" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="167" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17801,7 +18075,7 @@
       <c r="D167" s="11"/>
       <c r="E167" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="168" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17810,7 +18084,7 @@
       <c r="D168" s="11"/>
       <c r="E168" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="169" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17819,7 +18093,7 @@
       <c r="D169" s="11"/>
       <c r="E169" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="170" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17828,7 +18102,7 @@
       <c r="D170" s="11"/>
       <c r="E170" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="171" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17837,7 +18111,7 @@
       <c r="D171" s="11"/>
       <c r="E171" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="172" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17846,7 +18120,7 @@
       <c r="D172" s="11"/>
       <c r="E172" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="173" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17855,7 +18129,7 @@
       <c r="D173" s="11"/>
       <c r="E173" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="174" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17864,7 +18138,7 @@
       <c r="D174" s="11"/>
       <c r="E174" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="175" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17873,7 +18147,7 @@
       <c r="D175" s="11"/>
       <c r="E175" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="176" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17882,7 +18156,7 @@
       <c r="D176" s="11"/>
       <c r="E176" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="177" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17891,7 +18165,7 @@
       <c r="D177" s="11"/>
       <c r="E177" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="178" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17900,7 +18174,7 @@
       <c r="D178" s="11"/>
       <c r="E178" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="179" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17909,7 +18183,7 @@
       <c r="D179" s="11"/>
       <c r="E179" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="180" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17918,7 +18192,7 @@
       <c r="D180" s="11"/>
       <c r="E180" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="181" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17927,7 +18201,7 @@
       <c r="D181" s="11"/>
       <c r="E181" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="182" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17936,7 +18210,7 @@
       <c r="D182" s="11"/>
       <c r="E182" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="183" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17945,7 +18219,7 @@
       <c r="D183" s="11"/>
       <c r="E183" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="184" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17954,7 +18228,7 @@
       <c r="D184" s="11"/>
       <c r="E184" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="185" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17963,7 +18237,7 @@
       <c r="D185" s="11"/>
       <c r="E185" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="186" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17972,7 +18246,7 @@
       <c r="D186" s="11"/>
       <c r="E186" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="187" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17981,7 +18255,7 @@
       <c r="D187" s="11"/>
       <c r="E187" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="188" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17990,7 +18264,7 @@
       <c r="D188" s="11"/>
       <c r="E188" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="189" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17999,7 +18273,7 @@
       <c r="D189" s="11"/>
       <c r="E189" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="190" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -18008,7 +18282,7 @@
       <c r="D190" s="11"/>
       <c r="E190" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="191" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -18017,7 +18291,7 @@
       <c r="D191" s="11"/>
       <c r="E191" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3347300</v>
       </c>
     </row>
     <row r="192" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -18026,15 +18300,25 @@
       <c r="D192" s="11"/>
       <c r="E192" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3347300</v>
+      </c>
+    </row>
+    <row r="193" spans="2:5" ht="21" x14ac:dyDescent="0.4">
+      <c r="B193" s="1"/>
+      <c r="C193" s="1"/>
+      <c r="D193" s="11"/>
+      <c r="E193" s="11">
+        <f t="shared" si="2"/>
+        <v>3347300</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="H19:J21"/>
     <mergeCell ref="H27:J29"/>
     <mergeCell ref="G61:I61"/>
+    <mergeCell ref="G63:I63"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="78" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -18045,7 +18329,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:L66"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
@@ -18425,7 +18709,7 @@
       </c>
       <c r="I25" s="229">
         <f ca="1">TODAY()</f>
-        <v>45463</v>
+        <v>45576</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -19010,7 +19294,7 @@
   <dimension ref="C5:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19169,7 +19453,7 @@
   <dimension ref="B2:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25301,8 +25585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M195"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="85" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42:D48"/>
+    <sheetView topLeftCell="A22" zoomScale="67" workbookViewId="0">
+      <selection activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
